--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -5837,10 +5837,10 @@
         <v>2.19</v>
       </c>
       <c r="AU25">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV25">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW25">
         <v>8</v>
@@ -5849,10 +5849,10 @@
         <v>9</v>
       </c>
       <c r="AY25">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ25">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6046,7 +6046,7 @@
         <v>5</v>
       </c>
       <c r="AV26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW26">
         <v>6</v>
@@ -6058,7 +6058,7 @@
         <v>11</v>
       </c>
       <c r="AZ26">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA26">
         <v>8</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -326,6 +326,9 @@
   </si>
   <si>
     <t>['71']</t>
+  </si>
+  <si>
+    <t>['53', '58', '63']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -747,7 +750,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP26"/>
+  <dimension ref="A1:BP27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1006,7 +1009,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1293,7 +1296,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1418,7 +1421,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1624,7 +1627,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1830,7 +1833,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2036,7 +2039,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2323,7 +2326,7 @@
         <v>3</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2448,7 +2451,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2654,7 +2657,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2732,7 +2735,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ10">
         <v>2</v>
@@ -2860,7 +2863,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3066,7 +3069,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3272,7 +3275,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3684,7 +3687,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3890,7 +3893,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4096,7 +4099,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q17">
         <v>3.59</v>
@@ -4302,7 +4305,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4380,7 +4383,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18">
         <v>1.5</v>
@@ -4508,7 +4511,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4714,7 +4717,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4920,7 +4923,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5126,7 +5129,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5332,7 +5335,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5538,7 +5541,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5744,7 +5747,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5950,7 +5953,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6107,6 +6110,212 @@
       </c>
       <c r="BP26">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:68">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>7325356</v>
+      </c>
+      <c r="C27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" t="s">
+        <v>69</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45415.5</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27" t="s">
+        <v>77</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>3</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>104</v>
+      </c>
+      <c r="P27" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q27">
+        <v>2.28</v>
+      </c>
+      <c r="R27">
+        <v>2.41</v>
+      </c>
+      <c r="S27">
+        <v>5.19</v>
+      </c>
+      <c r="T27">
+        <v>1.35</v>
+      </c>
+      <c r="U27">
+        <v>3.3</v>
+      </c>
+      <c r="V27">
+        <v>2.72</v>
+      </c>
+      <c r="W27">
+        <v>1.48</v>
+      </c>
+      <c r="X27">
+        <v>6.5</v>
+      </c>
+      <c r="Y27">
+        <v>1.11</v>
+      </c>
+      <c r="Z27">
+        <v>1.63</v>
+      </c>
+      <c r="AA27">
+        <v>3.8</v>
+      </c>
+      <c r="AB27">
+        <v>4.5</v>
+      </c>
+      <c r="AC27">
+        <v>1.03</v>
+      </c>
+      <c r="AD27">
+        <v>14</v>
+      </c>
+      <c r="AE27">
+        <v>1.23</v>
+      </c>
+      <c r="AF27">
+        <v>3.8</v>
+      </c>
+      <c r="AG27">
+        <v>1.73</v>
+      </c>
+      <c r="AH27">
+        <v>2.02</v>
+      </c>
+      <c r="AI27">
+        <v>1.75</v>
+      </c>
+      <c r="AJ27">
+        <v>1.95</v>
+      </c>
+      <c r="AK27">
+        <v>1.17</v>
+      </c>
+      <c r="AL27">
+        <v>1.2</v>
+      </c>
+      <c r="AM27">
+        <v>2.15</v>
+      </c>
+      <c r="AN27">
+        <v>2</v>
+      </c>
+      <c r="AO27">
+        <v>0.5</v>
+      </c>
+      <c r="AP27">
+        <v>2.33</v>
+      </c>
+      <c r="AQ27">
+        <v>0.33</v>
+      </c>
+      <c r="AR27">
+        <v>1.84</v>
+      </c>
+      <c r="AS27">
+        <v>0.95</v>
+      </c>
+      <c r="AT27">
+        <v>2.79</v>
+      </c>
+      <c r="AU27">
+        <v>5</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>8</v>
+      </c>
+      <c r="AX27">
+        <v>2</v>
+      </c>
+      <c r="AY27">
+        <v>13</v>
+      </c>
+      <c r="AZ27">
+        <v>4</v>
+      </c>
+      <c r="BA27">
+        <v>6</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
+        <v>7</v>
+      </c>
+      <c r="BD27">
+        <v>1.69</v>
+      </c>
+      <c r="BE27">
+        <v>8.5</v>
+      </c>
+      <c r="BF27">
+        <v>2.53</v>
+      </c>
+      <c r="BG27">
+        <v>1.14</v>
+      </c>
+      <c r="BH27">
+        <v>4.7</v>
+      </c>
+      <c r="BI27">
+        <v>1.29</v>
+      </c>
+      <c r="BJ27">
+        <v>3.14</v>
+      </c>
+      <c r="BK27">
+        <v>1.53</v>
+      </c>
+      <c r="BL27">
+        <v>2.33</v>
+      </c>
+      <c r="BM27">
+        <v>1.91</v>
+      </c>
+      <c r="BN27">
+        <v>1.83</v>
+      </c>
+      <c r="BO27">
+        <v>2.44</v>
+      </c>
+      <c r="BP27">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -331,6 +331,12 @@
     <t>['53', '58', '63']</t>
   </si>
   <si>
+    <t>['8', '67', '70']</t>
+  </si>
+  <si>
+    <t>['25']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -364,9 +370,6 @@
     <t>['89']</t>
   </si>
   <si>
-    <t>['25']</t>
-  </si>
-  <si>
     <t>['35', '47']</t>
   </si>
   <si>
@@ -389,6 +392,9 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['18', '63']</t>
   </si>
 </sst>
 </file>
@@ -750,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP27"/>
+  <dimension ref="A1:BP30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1009,7 +1015,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1293,7 +1299,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1421,7 +1427,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1499,10 +1505,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1627,7 +1633,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1708,7 +1714,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1833,7 +1839,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2039,7 +2045,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2323,7 +2329,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2451,7 +2457,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2532,7 +2538,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ9">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2657,7 +2663,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2863,7 +2869,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -2944,7 +2950,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3069,7 +3075,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3147,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12">
         <v>1.5</v>
@@ -3275,7 +3281,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3356,7 +3362,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3559,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -3687,7 +3693,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3768,7 +3774,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -3893,7 +3899,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -3971,7 +3977,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AQ16">
         <v>0</v>
@@ -4099,7 +4105,7 @@
         <v>97</v>
       </c>
       <c r="P17" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="Q17">
         <v>3.59</v>
@@ -4305,7 +4311,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4511,7 +4517,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4592,7 +4598,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4717,7 +4723,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4795,7 +4801,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>0.67</v>
@@ -4923,7 +4929,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5004,7 +5010,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ21">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5129,7 +5135,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5335,7 +5341,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5416,7 +5422,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5541,7 +5547,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5747,7 +5753,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5953,7 +5959,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6252,31 +6258,31 @@
         <v>2.79</v>
       </c>
       <c r="AU27">
+        <v>10</v>
+      </c>
+      <c r="AV27">
+        <v>2</v>
+      </c>
+      <c r="AW27">
+        <v>12</v>
+      </c>
+      <c r="AX27">
         <v>5</v>
       </c>
-      <c r="AV27">
-        <v>2</v>
-      </c>
-      <c r="AW27">
+      <c r="AY27">
+        <v>22</v>
+      </c>
+      <c r="AZ27">
+        <v>7</v>
+      </c>
+      <c r="BA27">
+        <v>7</v>
+      </c>
+      <c r="BB27">
+        <v>1</v>
+      </c>
+      <c r="BC27">
         <v>8</v>
-      </c>
-      <c r="AX27">
-        <v>2</v>
-      </c>
-      <c r="AY27">
-        <v>13</v>
-      </c>
-      <c r="AZ27">
-        <v>4</v>
-      </c>
-      <c r="BA27">
-        <v>6</v>
-      </c>
-      <c r="BB27">
-        <v>1</v>
-      </c>
-      <c r="BC27">
-        <v>7</v>
       </c>
       <c r="BD27">
         <v>1.69</v>
@@ -6316,6 +6322,624 @@
       </c>
       <c r="BP27">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:68">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>7325357</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>69</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45416.375</v>
+      </c>
+      <c r="F28">
+        <v>5</v>
+      </c>
+      <c r="G28" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" t="s">
+        <v>81</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>2</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>2</v>
+      </c>
+      <c r="N28">
+        <v>5</v>
+      </c>
+      <c r="O28" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q28">
+        <v>2.38</v>
+      </c>
+      <c r="R28">
+        <v>2.42</v>
+      </c>
+      <c r="S28">
+        <v>4.72</v>
+      </c>
+      <c r="T28">
+        <v>1.34</v>
+      </c>
+      <c r="U28">
+        <v>3.37</v>
+      </c>
+      <c r="V28">
+        <v>2.65</v>
+      </c>
+      <c r="W28">
+        <v>1.5</v>
+      </c>
+      <c r="X28">
+        <v>6.05</v>
+      </c>
+      <c r="Y28">
+        <v>1.11</v>
+      </c>
+      <c r="Z28">
+        <v>1.67</v>
+      </c>
+      <c r="AA28">
+        <v>3.75</v>
+      </c>
+      <c r="AB28">
+        <v>3.9</v>
+      </c>
+      <c r="AC28">
+        <v>1.01</v>
+      </c>
+      <c r="AD28">
+        <v>11</v>
+      </c>
+      <c r="AE28">
+        <v>1.2</v>
+      </c>
+      <c r="AF28">
+        <v>3.9</v>
+      </c>
+      <c r="AG28">
+        <v>1.73</v>
+      </c>
+      <c r="AH28">
+        <v>2</v>
+      </c>
+      <c r="AI28">
+        <v>1.69</v>
+      </c>
+      <c r="AJ28">
+        <v>2.09</v>
+      </c>
+      <c r="AK28">
+        <v>1.22</v>
+      </c>
+      <c r="AL28">
+        <v>1.26</v>
+      </c>
+      <c r="AM28">
+        <v>2.06</v>
+      </c>
+      <c r="AN28">
+        <v>0.5</v>
+      </c>
+      <c r="AO28">
+        <v>0.67</v>
+      </c>
+      <c r="AP28">
+        <v>1.33</v>
+      </c>
+      <c r="AQ28">
+        <v>0.5</v>
+      </c>
+      <c r="AR28">
+        <v>1.88</v>
+      </c>
+      <c r="AS28">
+        <v>1.9</v>
+      </c>
+      <c r="AT28">
+        <v>3.78</v>
+      </c>
+      <c r="AU28">
+        <v>6</v>
+      </c>
+      <c r="AV28">
+        <v>2</v>
+      </c>
+      <c r="AW28">
+        <v>12</v>
+      </c>
+      <c r="AX28">
+        <v>2</v>
+      </c>
+      <c r="AY28">
+        <v>18</v>
+      </c>
+      <c r="AZ28">
+        <v>4</v>
+      </c>
+      <c r="BA28">
+        <v>9</v>
+      </c>
+      <c r="BB28">
+        <v>2</v>
+      </c>
+      <c r="BC28">
+        <v>11</v>
+      </c>
+      <c r="BD28">
+        <v>1.45</v>
+      </c>
+      <c r="BE28">
+        <v>9</v>
+      </c>
+      <c r="BF28">
+        <v>3.19</v>
+      </c>
+      <c r="BG28">
+        <v>1.17</v>
+      </c>
+      <c r="BH28">
+        <v>4.2</v>
+      </c>
+      <c r="BI28">
+        <v>1.35</v>
+      </c>
+      <c r="BJ28">
+        <v>2.84</v>
+      </c>
+      <c r="BK28">
+        <v>1.66</v>
+      </c>
+      <c r="BL28">
+        <v>2.18</v>
+      </c>
+      <c r="BM28">
+        <v>2</v>
+      </c>
+      <c r="BN28">
+        <v>1.73</v>
+      </c>
+      <c r="BO28">
+        <v>2.69</v>
+      </c>
+      <c r="BP28">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:68">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>7325358</v>
+      </c>
+      <c r="C29" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45416.45833333334</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
+        <v>83</v>
+      </c>
+      <c r="P29" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q29">
+        <v>1.57</v>
+      </c>
+      <c r="R29">
+        <v>2.88</v>
+      </c>
+      <c r="S29">
+        <v>11</v>
+      </c>
+      <c r="T29">
+        <v>1.25</v>
+      </c>
+      <c r="U29">
+        <v>3.75</v>
+      </c>
+      <c r="V29">
+        <v>2.2</v>
+      </c>
+      <c r="W29">
+        <v>1.62</v>
+      </c>
+      <c r="X29">
+        <v>5</v>
+      </c>
+      <c r="Y29">
+        <v>1.17</v>
+      </c>
+      <c r="Z29">
+        <v>1.18</v>
+      </c>
+      <c r="AA29">
+        <v>6.5</v>
+      </c>
+      <c r="AB29">
+        <v>11.5</v>
+      </c>
+      <c r="AC29">
+        <v>1.02</v>
+      </c>
+      <c r="AD29">
+        <v>17</v>
+      </c>
+      <c r="AE29">
+        <v>1.12</v>
+      </c>
+      <c r="AF29">
+        <v>6</v>
+      </c>
+      <c r="AG29">
+        <v>1.47</v>
+      </c>
+      <c r="AH29">
+        <v>2.48</v>
+      </c>
+      <c r="AI29">
+        <v>2.2</v>
+      </c>
+      <c r="AJ29">
+        <v>1.62</v>
+      </c>
+      <c r="AK29">
+        <v>1.04</v>
+      </c>
+      <c r="AL29">
+        <v>1.12</v>
+      </c>
+      <c r="AM29">
+        <v>5</v>
+      </c>
+      <c r="AN29">
+        <v>3</v>
+      </c>
+      <c r="AO29">
+        <v>0</v>
+      </c>
+      <c r="AP29">
+        <v>2.33</v>
+      </c>
+      <c r="AQ29">
+        <v>0.25</v>
+      </c>
+      <c r="AR29">
+        <v>2.39</v>
+      </c>
+      <c r="AS29">
+        <v>1.26</v>
+      </c>
+      <c r="AT29">
+        <v>3.65</v>
+      </c>
+      <c r="AU29">
+        <v>7</v>
+      </c>
+      <c r="AV29">
+        <v>2</v>
+      </c>
+      <c r="AW29">
+        <v>13</v>
+      </c>
+      <c r="AX29">
+        <v>3</v>
+      </c>
+      <c r="AY29">
+        <v>20</v>
+      </c>
+      <c r="AZ29">
+        <v>5</v>
+      </c>
+      <c r="BA29">
+        <v>11</v>
+      </c>
+      <c r="BB29">
+        <v>3</v>
+      </c>
+      <c r="BC29">
+        <v>14</v>
+      </c>
+      <c r="BD29">
+        <v>1.26</v>
+      </c>
+      <c r="BE29">
+        <v>10</v>
+      </c>
+      <c r="BF29">
+        <v>4.86</v>
+      </c>
+      <c r="BG29">
+        <v>1.29</v>
+      </c>
+      <c r="BH29">
+        <v>3.4</v>
+      </c>
+      <c r="BI29">
+        <v>1.53</v>
+      </c>
+      <c r="BJ29">
+        <v>2.4</v>
+      </c>
+      <c r="BK29">
+        <v>1.95</v>
+      </c>
+      <c r="BL29">
+        <v>1.85</v>
+      </c>
+      <c r="BM29">
+        <v>2.55</v>
+      </c>
+      <c r="BN29">
+        <v>1.48</v>
+      </c>
+      <c r="BO29">
+        <v>3.5</v>
+      </c>
+      <c r="BP29">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:68">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>7325359</v>
+      </c>
+      <c r="C30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" t="s">
+        <v>69</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45416.54166666666</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30" t="s">
+        <v>72</v>
+      </c>
+      <c r="H30" t="s">
+        <v>75</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>1</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" t="s">
+        <v>106</v>
+      </c>
+      <c r="P30" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q30">
+        <v>3.2</v>
+      </c>
+      <c r="R30">
+        <v>2.1</v>
+      </c>
+      <c r="S30">
+        <v>3.1</v>
+      </c>
+      <c r="T30">
+        <v>1.41</v>
+      </c>
+      <c r="U30">
+        <v>2.97</v>
+      </c>
+      <c r="V30">
+        <v>3.03</v>
+      </c>
+      <c r="W30">
+        <v>1.4</v>
+      </c>
+      <c r="X30">
+        <v>7.2</v>
+      </c>
+      <c r="Y30">
+        <v>1.08</v>
+      </c>
+      <c r="Z30">
+        <v>2.65</v>
+      </c>
+      <c r="AA30">
+        <v>3.2</v>
+      </c>
+      <c r="AB30">
+        <v>2.5</v>
+      </c>
+      <c r="AC30">
+        <v>1.05</v>
+      </c>
+      <c r="AD30">
+        <v>11</v>
+      </c>
+      <c r="AE30">
+        <v>1.28</v>
+      </c>
+      <c r="AF30">
+        <v>3.3</v>
+      </c>
+      <c r="AG30">
+        <v>1.94</v>
+      </c>
+      <c r="AH30">
+        <v>1.87</v>
+      </c>
+      <c r="AI30">
+        <v>1.73</v>
+      </c>
+      <c r="AJ30">
+        <v>2.03</v>
+      </c>
+      <c r="AK30">
+        <v>1.48</v>
+      </c>
+      <c r="AL30">
+        <v>1.28</v>
+      </c>
+      <c r="AM30">
+        <v>1.45</v>
+      </c>
+      <c r="AN30">
+        <v>2.33</v>
+      </c>
+      <c r="AO30">
+        <v>1.67</v>
+      </c>
+      <c r="AP30">
+        <v>2</v>
+      </c>
+      <c r="AQ30">
+        <v>1.5</v>
+      </c>
+      <c r="AR30">
+        <v>1.67</v>
+      </c>
+      <c r="AS30">
+        <v>1.63</v>
+      </c>
+      <c r="AT30">
+        <v>3.3</v>
+      </c>
+      <c r="AU30">
+        <v>3</v>
+      </c>
+      <c r="AV30">
+        <v>3</v>
+      </c>
+      <c r="AW30">
+        <v>4</v>
+      </c>
+      <c r="AX30">
+        <v>5</v>
+      </c>
+      <c r="AY30">
+        <v>7</v>
+      </c>
+      <c r="AZ30">
+        <v>8</v>
+      </c>
+      <c r="BA30">
+        <v>3</v>
+      </c>
+      <c r="BB30">
+        <v>2</v>
+      </c>
+      <c r="BC30">
+        <v>5</v>
+      </c>
+      <c r="BD30">
+        <v>2.1</v>
+      </c>
+      <c r="BE30">
+        <v>8</v>
+      </c>
+      <c r="BF30">
+        <v>1.95</v>
+      </c>
+      <c r="BG30">
+        <v>1.27</v>
+      </c>
+      <c r="BH30">
+        <v>3.55</v>
+      </c>
+      <c r="BI30">
+        <v>1.5</v>
+      </c>
+      <c r="BJ30">
+        <v>2.48</v>
+      </c>
+      <c r="BK30">
+        <v>1.85</v>
+      </c>
+      <c r="BL30">
+        <v>1.95</v>
+      </c>
+      <c r="BM30">
+        <v>2.45</v>
+      </c>
+      <c r="BN30">
+        <v>1.5</v>
+      </c>
+      <c r="BO30">
+        <v>3.4</v>
+      </c>
+      <c r="BP30">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -395,6 +395,9 @@
   </si>
   <si>
     <t>['18', '63']</t>
+  </si>
+  <si>
+    <t>['2', '23', '71']</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP30"/>
+  <dimension ref="A1:BP31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1093,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -4186,7 +4189,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -5831,7 +5834,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>2</v>
@@ -6464,10 +6467,10 @@
         <v>3.78</v>
       </c>
       <c r="AU28">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AV28">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW28">
         <v>12</v>
@@ -6476,10 +6479,10 @@
         <v>2</v>
       </c>
       <c r="AY28">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ28">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA28">
         <v>9</v>
@@ -6879,7 +6882,7 @@
         <v>3</v>
       </c>
       <c r="AV30">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW30">
         <v>4</v>
@@ -6891,7 +6894,7 @@
         <v>7</v>
       </c>
       <c r="AZ30">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -6940,6 +6943,212 @@
       </c>
       <c r="BP30">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:68">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>7325360</v>
+      </c>
+      <c r="C31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45417.41666666666</v>
+      </c>
+      <c r="F31">
+        <v>5</v>
+      </c>
+      <c r="G31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s">
+        <v>74</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>3</v>
+      </c>
+      <c r="N31">
+        <v>3</v>
+      </c>
+      <c r="O31" t="s">
+        <v>83</v>
+      </c>
+      <c r="P31" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q31">
+        <v>3.1</v>
+      </c>
+      <c r="R31">
+        <v>2.2</v>
+      </c>
+      <c r="S31">
+        <v>3.4</v>
+      </c>
+      <c r="T31">
+        <v>1.36</v>
+      </c>
+      <c r="U31">
+        <v>3</v>
+      </c>
+      <c r="V31">
+        <v>2.75</v>
+      </c>
+      <c r="W31">
+        <v>1.4</v>
+      </c>
+      <c r="X31">
+        <v>8</v>
+      </c>
+      <c r="Y31">
+        <v>1.08</v>
+      </c>
+      <c r="Z31">
+        <v>2.4</v>
+      </c>
+      <c r="AA31">
+        <v>3.3</v>
+      </c>
+      <c r="AB31">
+        <v>2.66</v>
+      </c>
+      <c r="AC31">
+        <v>1.05</v>
+      </c>
+      <c r="AD31">
+        <v>11</v>
+      </c>
+      <c r="AE31">
+        <v>1.28</v>
+      </c>
+      <c r="AF31">
+        <v>3.6</v>
+      </c>
+      <c r="AG31">
+        <v>1.8</v>
+      </c>
+      <c r="AH31">
+        <v>1.9</v>
+      </c>
+      <c r="AI31">
+        <v>1.7</v>
+      </c>
+      <c r="AJ31">
+        <v>2.05</v>
+      </c>
+      <c r="AK31">
+        <v>1.47</v>
+      </c>
+      <c r="AL31">
+        <v>1.33</v>
+      </c>
+      <c r="AM31">
+        <v>1.57</v>
+      </c>
+      <c r="AN31">
+        <v>1.5</v>
+      </c>
+      <c r="AO31">
+        <v>1</v>
+      </c>
+      <c r="AP31">
+        <v>1</v>
+      </c>
+      <c r="AQ31">
+        <v>2</v>
+      </c>
+      <c r="AR31">
+        <v>1.24</v>
+      </c>
+      <c r="AS31">
+        <v>1.46</v>
+      </c>
+      <c r="AT31">
+        <v>2.7</v>
+      </c>
+      <c r="AU31">
+        <v>8</v>
+      </c>
+      <c r="AV31">
+        <v>5</v>
+      </c>
+      <c r="AW31">
+        <v>6</v>
+      </c>
+      <c r="AX31">
+        <v>6</v>
+      </c>
+      <c r="AY31">
+        <v>14</v>
+      </c>
+      <c r="AZ31">
+        <v>11</v>
+      </c>
+      <c r="BA31">
+        <v>7</v>
+      </c>
+      <c r="BB31">
+        <v>3</v>
+      </c>
+      <c r="BC31">
+        <v>10</v>
+      </c>
+      <c r="BD31">
+        <v>1.69</v>
+      </c>
+      <c r="BE31">
+        <v>8.5</v>
+      </c>
+      <c r="BF31">
+        <v>2.53</v>
+      </c>
+      <c r="BG31">
+        <v>1.19</v>
+      </c>
+      <c r="BH31">
+        <v>4.4</v>
+      </c>
+      <c r="BI31">
+        <v>1.3</v>
+      </c>
+      <c r="BJ31">
+        <v>3.3</v>
+      </c>
+      <c r="BK31">
+        <v>1.55</v>
+      </c>
+      <c r="BL31">
+        <v>2.38</v>
+      </c>
+      <c r="BM31">
+        <v>2</v>
+      </c>
+      <c r="BN31">
+        <v>1.8</v>
+      </c>
+      <c r="BO31">
+        <v>2.5</v>
+      </c>
+      <c r="BP31">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -337,6 +337,9 @@
     <t>['25']</t>
   </si>
   <si>
+    <t>['46', '50', '87']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -398,6 +401,9 @@
   </si>
   <si>
     <t>['2', '23', '71']</t>
+  </si>
+  <si>
+    <t>['27']</t>
   </si>
 </sst>
 </file>
@@ -759,7 +765,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP31"/>
+  <dimension ref="A1:BP32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1018,7 +1024,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1430,7 +1436,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1636,7 +1642,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1714,7 +1720,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ5">
         <v>0.25</v>
@@ -1842,7 +1848,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2048,7 +2054,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2460,7 +2466,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2666,7 +2672,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2872,7 +2878,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3078,7 +3084,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3284,7 +3290,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3362,7 +3368,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1.5</v>
@@ -3696,7 +3702,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3902,7 +3908,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4314,7 +4320,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4520,7 +4526,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4726,7 +4732,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4932,7 +4938,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5138,7 +5144,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5344,7 +5350,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5550,7 +5556,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5756,7 +5762,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5962,7 +5968,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6040,7 +6046,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6374,7 +6380,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6786,7 +6792,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6992,7 +6998,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7088,7 +7094,7 @@
         <v>8</v>
       </c>
       <c r="AV31">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW31">
         <v>6</v>
@@ -7100,7 +7106,7 @@
         <v>14</v>
       </c>
       <c r="AZ31">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BA31">
         <v>7</v>
@@ -7149,6 +7155,212 @@
       </c>
       <c r="BP31">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:68">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>7325361</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
+      </c>
+      <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45417.52083333334</v>
+      </c>
+      <c r="F32">
+        <v>5</v>
+      </c>
+      <c r="G32" t="s">
+        <v>73</v>
+      </c>
+      <c r="H32" t="s">
+        <v>78</v>
+      </c>
+      <c r="I32">
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>3</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>107</v>
+      </c>
+      <c r="P32" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q32">
+        <v>4.2</v>
+      </c>
+      <c r="R32">
+        <v>2.19</v>
+      </c>
+      <c r="S32">
+        <v>2.51</v>
+      </c>
+      <c r="T32">
+        <v>1.37</v>
+      </c>
+      <c r="U32">
+        <v>2.95</v>
+      </c>
+      <c r="V32">
+        <v>2.71</v>
+      </c>
+      <c r="W32">
+        <v>1.43</v>
+      </c>
+      <c r="X32">
+        <v>6.75</v>
+      </c>
+      <c r="Y32">
+        <v>1.09</v>
+      </c>
+      <c r="Z32">
+        <v>3.45</v>
+      </c>
+      <c r="AA32">
+        <v>3.4</v>
+      </c>
+      <c r="AB32">
+        <v>2.02</v>
+      </c>
+      <c r="AC32">
+        <v>1.01</v>
+      </c>
+      <c r="AD32">
+        <v>9.5</v>
+      </c>
+      <c r="AE32">
+        <v>1.25</v>
+      </c>
+      <c r="AF32">
+        <v>3.42</v>
+      </c>
+      <c r="AG32">
+        <v>1.87</v>
+      </c>
+      <c r="AH32">
+        <v>1.99</v>
+      </c>
+      <c r="AI32">
+        <v>1.73</v>
+      </c>
+      <c r="AJ32">
+        <v>2.03</v>
+      </c>
+      <c r="AK32">
+        <v>1.83</v>
+      </c>
+      <c r="AL32">
+        <v>1.28</v>
+      </c>
+      <c r="AM32">
+        <v>1.28</v>
+      </c>
+      <c r="AN32">
+        <v>1.33</v>
+      </c>
+      <c r="AO32">
+        <v>0</v>
+      </c>
+      <c r="AP32">
+        <v>1.75</v>
+      </c>
+      <c r="AQ32">
+        <v>0</v>
+      </c>
+      <c r="AR32">
+        <v>1.23</v>
+      </c>
+      <c r="AS32">
+        <v>1.47</v>
+      </c>
+      <c r="AT32">
+        <v>2.7</v>
+      </c>
+      <c r="AU32">
+        <v>2</v>
+      </c>
+      <c r="AV32">
+        <v>4</v>
+      </c>
+      <c r="AW32">
+        <v>2</v>
+      </c>
+      <c r="AX32">
+        <v>4</v>
+      </c>
+      <c r="AY32">
+        <v>4</v>
+      </c>
+      <c r="AZ32">
+        <v>8</v>
+      </c>
+      <c r="BA32">
+        <v>1</v>
+      </c>
+      <c r="BB32">
+        <v>8</v>
+      </c>
+      <c r="BC32">
+        <v>9</v>
+      </c>
+      <c r="BD32">
+        <v>3.07</v>
+      </c>
+      <c r="BE32">
+        <v>8.5</v>
+      </c>
+      <c r="BF32">
+        <v>1.51</v>
+      </c>
+      <c r="BG32">
+        <v>1.22</v>
+      </c>
+      <c r="BH32">
+        <v>4</v>
+      </c>
+      <c r="BI32">
+        <v>1.41</v>
+      </c>
+      <c r="BJ32">
+        <v>2.75</v>
+      </c>
+      <c r="BK32">
+        <v>1.73</v>
+      </c>
+      <c r="BL32">
+        <v>2</v>
+      </c>
+      <c r="BM32">
+        <v>2.23</v>
+      </c>
+      <c r="BN32">
+        <v>1.61</v>
+      </c>
+      <c r="BO32">
+        <v>3</v>
+      </c>
+      <c r="BP32">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -7297,22 +7297,22 @@
         <v>2.7</v>
       </c>
       <c r="AU32">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV32">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX32">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY32">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ32">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA32">
         <v>1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -340,6 +340,9 @@
     <t>['46', '50', '87']</t>
   </si>
   <si>
+    <t>['47', '56']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -404,6 +407,9 @@
   </si>
   <si>
     <t>['27']</t>
+  </si>
+  <si>
+    <t>['70']</t>
   </si>
 </sst>
 </file>
@@ -765,7 +771,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP32"/>
+  <dimension ref="A1:BP33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1024,7 +1030,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1436,7 +1442,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1642,7 +1648,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1848,7 +1854,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1929,7 +1935,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2054,7 +2060,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2466,7 +2472,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2672,7 +2678,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2878,7 +2884,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3084,7 +3090,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3290,7 +3296,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3702,7 +3708,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3908,7 +3914,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4320,7 +4326,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4526,7 +4532,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4732,7 +4738,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4938,7 +4944,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5144,7 +5150,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5350,7 +5356,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5556,7 +5562,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5637,7 +5643,7 @@
         <v>0</v>
       </c>
       <c r="AQ24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5762,7 +5768,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5968,7 +5974,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6380,7 +6386,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6792,7 +6798,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6998,7 +7004,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7204,7 +7210,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7361,6 +7367,212 @@
       </c>
       <c r="BP32">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:68">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>7325362</v>
+      </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
+      <c r="D33" t="s">
+        <v>69</v>
+      </c>
+      <c r="E33" s="2">
+        <v>45422.51041666666</v>
+      </c>
+      <c r="F33">
+        <v>6</v>
+      </c>
+      <c r="G33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" t="s">
+        <v>77</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>2</v>
+      </c>
+      <c r="M33">
+        <v>1</v>
+      </c>
+      <c r="N33">
+        <v>3</v>
+      </c>
+      <c r="O33" t="s">
+        <v>108</v>
+      </c>
+      <c r="P33" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q33">
+        <v>2.8</v>
+      </c>
+      <c r="R33">
+        <v>2.25</v>
+      </c>
+      <c r="S33">
+        <v>4.11</v>
+      </c>
+      <c r="T33">
+        <v>1.4</v>
+      </c>
+      <c r="U33">
+        <v>3.02</v>
+      </c>
+      <c r="V33">
+        <v>2.99</v>
+      </c>
+      <c r="W33">
+        <v>1.41</v>
+      </c>
+      <c r="X33">
+        <v>7.3</v>
+      </c>
+      <c r="Y33">
+        <v>1.07</v>
+      </c>
+      <c r="Z33">
+        <v>2.06</v>
+      </c>
+      <c r="AA33">
+        <v>3.45</v>
+      </c>
+      <c r="AB33">
+        <v>3.18</v>
+      </c>
+      <c r="AC33">
+        <v>1.02</v>
+      </c>
+      <c r="AD33">
+        <v>8.6</v>
+      </c>
+      <c r="AE33">
+        <v>1.28</v>
+      </c>
+      <c r="AF33">
+        <v>3.22</v>
+      </c>
+      <c r="AG33">
+        <v>1.98</v>
+      </c>
+      <c r="AH33">
+        <v>1.83</v>
+      </c>
+      <c r="AI33">
+        <v>1.77</v>
+      </c>
+      <c r="AJ33">
+        <v>2</v>
+      </c>
+      <c r="AK33">
+        <v>1.32</v>
+      </c>
+      <c r="AL33">
+        <v>1.25</v>
+      </c>
+      <c r="AM33">
+        <v>1.7</v>
+      </c>
+      <c r="AN33">
+        <v>3</v>
+      </c>
+      <c r="AO33">
+        <v>3</v>
+      </c>
+      <c r="AP33">
+        <v>3</v>
+      </c>
+      <c r="AQ33">
+        <v>2</v>
+      </c>
+      <c r="AR33">
+        <v>1.32</v>
+      </c>
+      <c r="AS33">
+        <v>1.44</v>
+      </c>
+      <c r="AT33">
+        <v>2.76</v>
+      </c>
+      <c r="AU33">
+        <v>0</v>
+      </c>
+      <c r="AV33">
+        <v>0</v>
+      </c>
+      <c r="AW33">
+        <v>2</v>
+      </c>
+      <c r="AX33">
+        <v>7</v>
+      </c>
+      <c r="AY33">
+        <v>2</v>
+      </c>
+      <c r="AZ33">
+        <v>7</v>
+      </c>
+      <c r="BA33">
+        <v>5</v>
+      </c>
+      <c r="BB33">
+        <v>6</v>
+      </c>
+      <c r="BC33">
+        <v>11</v>
+      </c>
+      <c r="BD33">
+        <v>1.51</v>
+      </c>
+      <c r="BE33">
+        <v>8.5</v>
+      </c>
+      <c r="BF33">
+        <v>3.07</v>
+      </c>
+      <c r="BG33">
+        <v>1.2</v>
+      </c>
+      <c r="BH33">
+        <v>4.3</v>
+      </c>
+      <c r="BI33">
+        <v>1.37</v>
+      </c>
+      <c r="BJ33">
+        <v>2.95</v>
+      </c>
+      <c r="BK33">
+        <v>1.66</v>
+      </c>
+      <c r="BL33">
+        <v>2.14</v>
+      </c>
+      <c r="BM33">
+        <v>2</v>
+      </c>
+      <c r="BN33">
+        <v>1.73</v>
+      </c>
+      <c r="BO33">
+        <v>2.8</v>
+      </c>
+      <c r="BP33">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -343,6 +343,9 @@
     <t>['47', '56']</t>
   </si>
   <si>
+    <t>['31', '66']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -410,6 +413,12 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['32']</t>
+  </si>
+  <si>
+    <t>['39']</t>
   </si>
 </sst>
 </file>
@@ -771,7 +780,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP33"/>
+  <dimension ref="A1:BP36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1030,7 +1039,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1442,7 +1451,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1648,7 +1657,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1854,7 +1863,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1932,7 +1941,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
         <v>2</v>
@@ -2060,7 +2069,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2141,7 +2150,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2472,7 +2481,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2550,7 +2559,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
         <v>0.25</v>
@@ -2678,7 +2687,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2759,7 +2768,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ10">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2884,7 +2893,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -2962,7 +2971,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3090,7 +3099,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3171,7 +3180,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3296,7 +3305,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3708,7 +3717,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3786,7 +3795,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -3914,7 +3923,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4326,7 +4335,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4407,7 +4416,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4532,7 +4541,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4738,7 +4747,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4819,7 +4828,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -4944,7 +4953,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5022,7 +5031,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ21">
         <v>0.25</v>
@@ -5150,7 +5159,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5228,10 +5237,10 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5356,7 +5365,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5562,7 +5571,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5640,7 +5649,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -5768,7 +5777,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5849,7 +5858,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -5974,7 +5983,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6386,7 +6395,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6798,7 +6807,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7004,7 +7013,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7210,7 +7219,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7416,7 +7425,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7518,13 +7527,13 @@
         <v>2</v>
       </c>
       <c r="AX33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AY33">
         <v>2</v>
       </c>
       <c r="AZ33">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA33">
         <v>5</v>
@@ -7573,6 +7582,624 @@
       </c>
       <c r="BP33">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:68">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>7325363</v>
+      </c>
+      <c r="C34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E34" s="2">
+        <v>45423.375</v>
+      </c>
+      <c r="F34">
+        <v>6</v>
+      </c>
+      <c r="G34" t="s">
+        <v>74</v>
+      </c>
+      <c r="H34" t="s">
+        <v>72</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>2</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>2</v>
+      </c>
+      <c r="O34" t="s">
+        <v>109</v>
+      </c>
+      <c r="P34" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q34">
+        <v>3.36</v>
+      </c>
+      <c r="R34">
+        <v>2.33</v>
+      </c>
+      <c r="S34">
+        <v>3.16</v>
+      </c>
+      <c r="T34">
+        <v>1.36</v>
+      </c>
+      <c r="U34">
+        <v>3.28</v>
+      </c>
+      <c r="V34">
+        <v>2.74</v>
+      </c>
+      <c r="W34">
+        <v>1.48</v>
+      </c>
+      <c r="X34">
+        <v>6.45</v>
+      </c>
+      <c r="Y34">
+        <v>1.09</v>
+      </c>
+      <c r="Z34">
+        <v>2.5</v>
+      </c>
+      <c r="AA34">
+        <v>3.2</v>
+      </c>
+      <c r="AB34">
+        <v>2.5</v>
+      </c>
+      <c r="AC34">
+        <v>1.01</v>
+      </c>
+      <c r="AD34">
+        <v>9.9</v>
+      </c>
+      <c r="AE34">
+        <v>1.23</v>
+      </c>
+      <c r="AF34">
+        <v>3.58</v>
+      </c>
+      <c r="AG34">
+        <v>1.86</v>
+      </c>
+      <c r="AH34">
+        <v>2.02</v>
+      </c>
+      <c r="AI34">
+        <v>1.65</v>
+      </c>
+      <c r="AJ34">
+        <v>2.16</v>
+      </c>
+      <c r="AK34">
+        <v>1.53</v>
+      </c>
+      <c r="AL34">
+        <v>1.3</v>
+      </c>
+      <c r="AM34">
+        <v>1.47</v>
+      </c>
+      <c r="AN34">
+        <v>1.33</v>
+      </c>
+      <c r="AO34">
+        <v>2</v>
+      </c>
+      <c r="AP34">
+        <v>1.75</v>
+      </c>
+      <c r="AQ34">
+        <v>1.33</v>
+      </c>
+      <c r="AR34">
+        <v>1.27</v>
+      </c>
+      <c r="AS34">
+        <v>1.71</v>
+      </c>
+      <c r="AT34">
+        <v>2.98</v>
+      </c>
+      <c r="AU34">
+        <v>3</v>
+      </c>
+      <c r="AV34">
+        <v>6</v>
+      </c>
+      <c r="AW34">
+        <v>4</v>
+      </c>
+      <c r="AX34">
+        <v>3</v>
+      </c>
+      <c r="AY34">
+        <v>7</v>
+      </c>
+      <c r="AZ34">
+        <v>9</v>
+      </c>
+      <c r="BA34">
+        <v>1</v>
+      </c>
+      <c r="BB34">
+        <v>6</v>
+      </c>
+      <c r="BC34">
+        <v>7</v>
+      </c>
+      <c r="BD34">
+        <v>2.28</v>
+      </c>
+      <c r="BE34">
+        <v>8</v>
+      </c>
+      <c r="BF34">
+        <v>1.85</v>
+      </c>
+      <c r="BG34">
+        <v>1.2</v>
+      </c>
+      <c r="BH34">
+        <v>4.3</v>
+      </c>
+      <c r="BI34">
+        <v>1.37</v>
+      </c>
+      <c r="BJ34">
+        <v>2.95</v>
+      </c>
+      <c r="BK34">
+        <v>1.66</v>
+      </c>
+      <c r="BL34">
+        <v>2.14</v>
+      </c>
+      <c r="BM34">
+        <v>2</v>
+      </c>
+      <c r="BN34">
+        <v>1.73</v>
+      </c>
+      <c r="BO34">
+        <v>2.8</v>
+      </c>
+      <c r="BP34">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:68">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>7325364</v>
+      </c>
+      <c r="C35" t="s">
+        <v>68</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" s="2">
+        <v>45423.45833333334</v>
+      </c>
+      <c r="F35">
+        <v>6</v>
+      </c>
+      <c r="G35" t="s">
+        <v>81</v>
+      </c>
+      <c r="H35" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>1</v>
+      </c>
+      <c r="N35">
+        <v>2</v>
+      </c>
+      <c r="O35" t="s">
+        <v>95</v>
+      </c>
+      <c r="P35" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q35">
+        <v>2.63</v>
+      </c>
+      <c r="R35">
+        <v>2.4</v>
+      </c>
+      <c r="S35">
+        <v>3.6</v>
+      </c>
+      <c r="T35">
+        <v>1.29</v>
+      </c>
+      <c r="U35">
+        <v>3.5</v>
+      </c>
+      <c r="V35">
+        <v>2.38</v>
+      </c>
+      <c r="W35">
+        <v>1.53</v>
+      </c>
+      <c r="X35">
+        <v>5.5</v>
+      </c>
+      <c r="Y35">
+        <v>1.14</v>
+      </c>
+      <c r="Z35">
+        <v>2.05</v>
+      </c>
+      <c r="AA35">
+        <v>3.55</v>
+      </c>
+      <c r="AB35">
+        <v>3.2</v>
+      </c>
+      <c r="AC35">
+        <v>1.02</v>
+      </c>
+      <c r="AD35">
+        <v>15</v>
+      </c>
+      <c r="AE35">
+        <v>1.2</v>
+      </c>
+      <c r="AF35">
+        <v>4.5</v>
+      </c>
+      <c r="AG35">
+        <v>1.57</v>
+      </c>
+      <c r="AH35">
+        <v>2.23</v>
+      </c>
+      <c r="AI35">
+        <v>1.5</v>
+      </c>
+      <c r="AJ35">
+        <v>2.5</v>
+      </c>
+      <c r="AK35">
+        <v>1.4</v>
+      </c>
+      <c r="AL35">
+        <v>1.3</v>
+      </c>
+      <c r="AM35">
+        <v>1.75</v>
+      </c>
+      <c r="AN35">
+        <v>0</v>
+      </c>
+      <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
+        <v>0.5</v>
+      </c>
+      <c r="AQ35">
+        <v>1.33</v>
+      </c>
+      <c r="AR35">
+        <v>1.29</v>
+      </c>
+      <c r="AS35">
+        <v>1.08</v>
+      </c>
+      <c r="AT35">
+        <v>2.37</v>
+      </c>
+      <c r="AU35">
+        <v>3</v>
+      </c>
+      <c r="AV35">
+        <v>0</v>
+      </c>
+      <c r="AW35">
+        <v>6</v>
+      </c>
+      <c r="AX35">
+        <v>2</v>
+      </c>
+      <c r="AY35">
+        <v>9</v>
+      </c>
+      <c r="AZ35">
+        <v>2</v>
+      </c>
+      <c r="BA35">
+        <v>5</v>
+      </c>
+      <c r="BB35">
+        <v>2</v>
+      </c>
+      <c r="BC35">
+        <v>7</v>
+      </c>
+      <c r="BD35">
+        <v>1.82</v>
+      </c>
+      <c r="BE35">
+        <v>8</v>
+      </c>
+      <c r="BF35">
+        <v>2.33</v>
+      </c>
+      <c r="BG35">
+        <v>1.23</v>
+      </c>
+      <c r="BH35">
+        <v>3.56</v>
+      </c>
+      <c r="BI35">
+        <v>1.45</v>
+      </c>
+      <c r="BJ35">
+        <v>2.55</v>
+      </c>
+      <c r="BK35">
+        <v>1.82</v>
+      </c>
+      <c r="BL35">
+        <v>1.98</v>
+      </c>
+      <c r="BM35">
+        <v>2.29</v>
+      </c>
+      <c r="BN35">
+        <v>1.55</v>
+      </c>
+      <c r="BO35">
+        <v>3.04</v>
+      </c>
+      <c r="BP35">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="36" spans="1:68">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>7325365</v>
+      </c>
+      <c r="C36" t="s">
+        <v>68</v>
+      </c>
+      <c r="D36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="2">
+        <v>45423.54166666666</v>
+      </c>
+      <c r="F36">
+        <v>6</v>
+      </c>
+      <c r="G36" t="s">
+        <v>78</v>
+      </c>
+      <c r="H36" t="s">
+        <v>76</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>1</v>
+      </c>
+      <c r="K36">
+        <v>1</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>1</v>
+      </c>
+      <c r="N36">
+        <v>1</v>
+      </c>
+      <c r="O36" t="s">
+        <v>83</v>
+      </c>
+      <c r="P36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q36">
+        <v>3.82</v>
+      </c>
+      <c r="R36">
+        <v>2.24</v>
+      </c>
+      <c r="S36">
+        <v>2.6</v>
+      </c>
+      <c r="T36">
+        <v>1.34</v>
+      </c>
+      <c r="U36">
+        <v>3.1</v>
+      </c>
+      <c r="V36">
+        <v>2.58</v>
+      </c>
+      <c r="W36">
+        <v>1.47</v>
+      </c>
+      <c r="X36">
+        <v>6.2</v>
+      </c>
+      <c r="Y36">
+        <v>1.1</v>
+      </c>
+      <c r="Z36">
+        <v>3.34</v>
+      </c>
+      <c r="AA36">
+        <v>3.64</v>
+      </c>
+      <c r="AB36">
+        <v>2.08</v>
+      </c>
+      <c r="AC36">
+        <v>1.03</v>
+      </c>
+      <c r="AD36">
+        <v>10.5</v>
+      </c>
+      <c r="AE36">
+        <v>1.21</v>
+      </c>
+      <c r="AF36">
+        <v>3.75</v>
+      </c>
+      <c r="AG36">
+        <v>1.77</v>
+      </c>
+      <c r="AH36">
+        <v>2.06</v>
+      </c>
+      <c r="AI36">
+        <v>1.64</v>
+      </c>
+      <c r="AJ36">
+        <v>2.17</v>
+      </c>
+      <c r="AK36">
+        <v>1.75</v>
+      </c>
+      <c r="AL36">
+        <v>1.28</v>
+      </c>
+      <c r="AM36">
+        <v>1.33</v>
+      </c>
+      <c r="AN36">
+        <v>1.67</v>
+      </c>
+      <c r="AO36">
+        <v>0.67</v>
+      </c>
+      <c r="AP36">
+        <v>1.25</v>
+      </c>
+      <c r="AQ36">
+        <v>1.25</v>
+      </c>
+      <c r="AR36">
+        <v>1.37</v>
+      </c>
+      <c r="AS36">
+        <v>1.46</v>
+      </c>
+      <c r="AT36">
+        <v>2.83</v>
+      </c>
+      <c r="AU36">
+        <v>8</v>
+      </c>
+      <c r="AV36">
+        <v>2</v>
+      </c>
+      <c r="AW36">
+        <v>7</v>
+      </c>
+      <c r="AX36">
+        <v>2</v>
+      </c>
+      <c r="AY36">
+        <v>15</v>
+      </c>
+      <c r="AZ36">
+        <v>4</v>
+      </c>
+      <c r="BA36">
+        <v>9</v>
+      </c>
+      <c r="BB36">
+        <v>5</v>
+      </c>
+      <c r="BC36">
+        <v>14</v>
+      </c>
+      <c r="BD36">
+        <v>2.1</v>
+      </c>
+      <c r="BE36">
+        <v>8</v>
+      </c>
+      <c r="BF36">
+        <v>1.95</v>
+      </c>
+      <c r="BG36">
+        <v>1.23</v>
+      </c>
+      <c r="BH36">
+        <v>3.95</v>
+      </c>
+      <c r="BI36">
+        <v>1.43</v>
+      </c>
+      <c r="BJ36">
+        <v>2.7</v>
+      </c>
+      <c r="BK36">
+        <v>1.73</v>
+      </c>
+      <c r="BL36">
+        <v>2</v>
+      </c>
+      <c r="BM36">
+        <v>2.25</v>
+      </c>
+      <c r="BN36">
+        <v>1.58</v>
+      </c>
+      <c r="BO36">
+        <v>3.05</v>
+      </c>
+      <c r="BP36">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="137">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -346,6 +346,9 @@
     <t>['31', '66']</t>
   </si>
   <si>
+    <t>['4', '41', '61']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -419,6 +422,9 @@
   </si>
   <si>
     <t>['39']</t>
+  </si>
+  <si>
+    <t>['40', '80']</t>
   </si>
 </sst>
 </file>
@@ -780,7 +786,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP36"/>
+  <dimension ref="A1:BP38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1039,7 +1045,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1451,7 +1457,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1657,7 +1663,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1863,7 +1869,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2069,7 +2075,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2481,7 +2487,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2687,7 +2693,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2893,7 +2899,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3099,7 +3105,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3305,7 +3311,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3592,7 +3598,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -3717,7 +3723,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3923,7 +3929,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4207,7 +4213,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>2</v>
@@ -4335,7 +4341,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4541,7 +4547,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4619,7 +4625,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -4747,7 +4753,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4953,7 +4959,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5159,7 +5165,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5365,7 +5371,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5443,7 +5449,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>1.5</v>
@@ -5571,7 +5577,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5777,7 +5783,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5983,7 +5989,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6064,7 +6070,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6395,7 +6401,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6807,7 +6813,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7013,7 +7019,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7219,7 +7225,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7425,7 +7431,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7837,7 +7843,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8043,7 +8049,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8200,6 +8206,418 @@
       </c>
       <c r="BP36">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:68">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>7325366</v>
+      </c>
+      <c r="C37" t="s">
+        <v>68</v>
+      </c>
+      <c r="D37" t="s">
+        <v>69</v>
+      </c>
+      <c r="E37" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F37">
+        <v>6</v>
+      </c>
+      <c r="G37" t="s">
+        <v>80</v>
+      </c>
+      <c r="H37" t="s">
+        <v>71</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>1</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37">
+        <v>2</v>
+      </c>
+      <c r="N37">
+        <v>2</v>
+      </c>
+      <c r="O37" t="s">
+        <v>83</v>
+      </c>
+      <c r="P37" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q37">
+        <v>5</v>
+      </c>
+      <c r="R37">
+        <v>2.38</v>
+      </c>
+      <c r="S37">
+        <v>2.2</v>
+      </c>
+      <c r="T37">
+        <v>1.33</v>
+      </c>
+      <c r="U37">
+        <v>3.25</v>
+      </c>
+      <c r="V37">
+        <v>2.5</v>
+      </c>
+      <c r="W37">
+        <v>1.5</v>
+      </c>
+      <c r="X37">
+        <v>6.5</v>
+      </c>
+      <c r="Y37">
+        <v>1.11</v>
+      </c>
+      <c r="Z37">
+        <v>4.87</v>
+      </c>
+      <c r="AA37">
+        <v>4</v>
+      </c>
+      <c r="AB37">
+        <v>1.61</v>
+      </c>
+      <c r="AC37">
+        <v>1.03</v>
+      </c>
+      <c r="AD37">
+        <v>13</v>
+      </c>
+      <c r="AE37">
+        <v>1.22</v>
+      </c>
+      <c r="AF37">
+        <v>4.33</v>
+      </c>
+      <c r="AG37">
+        <v>1.76</v>
+      </c>
+      <c r="AH37">
+        <v>1.95</v>
+      </c>
+      <c r="AI37">
+        <v>1.75</v>
+      </c>
+      <c r="AJ37">
+        <v>2</v>
+      </c>
+      <c r="AK37">
+        <v>2.45</v>
+      </c>
+      <c r="AL37">
+        <v>1.25</v>
+      </c>
+      <c r="AM37">
+        <v>1.18</v>
+      </c>
+      <c r="AN37">
+        <v>1</v>
+      </c>
+      <c r="AO37">
+        <v>1.5</v>
+      </c>
+      <c r="AP37">
+        <v>0.5</v>
+      </c>
+      <c r="AQ37">
+        <v>2</v>
+      </c>
+      <c r="AR37">
+        <v>0.83</v>
+      </c>
+      <c r="AS37">
+        <v>1.66</v>
+      </c>
+      <c r="AT37">
+        <v>2.49</v>
+      </c>
+      <c r="AU37">
+        <v>3</v>
+      </c>
+      <c r="AV37">
+        <v>6</v>
+      </c>
+      <c r="AW37">
+        <v>1</v>
+      </c>
+      <c r="AX37">
+        <v>3</v>
+      </c>
+      <c r="AY37">
+        <v>4</v>
+      </c>
+      <c r="AZ37">
+        <v>9</v>
+      </c>
+      <c r="BA37">
+        <v>0</v>
+      </c>
+      <c r="BB37">
+        <v>8</v>
+      </c>
+      <c r="BC37">
+        <v>8</v>
+      </c>
+      <c r="BD37">
+        <v>3.16</v>
+      </c>
+      <c r="BE37">
+        <v>8.5</v>
+      </c>
+      <c r="BF37">
+        <v>1.51</v>
+      </c>
+      <c r="BG37">
+        <v>1.24</v>
+      </c>
+      <c r="BH37">
+        <v>3.75</v>
+      </c>
+      <c r="BI37">
+        <v>1.45</v>
+      </c>
+      <c r="BJ37">
+        <v>2.63</v>
+      </c>
+      <c r="BK37">
+        <v>1.82</v>
+      </c>
+      <c r="BL37">
+        <v>1.98</v>
+      </c>
+      <c r="BM37">
+        <v>2.33</v>
+      </c>
+      <c r="BN37">
+        <v>1.56</v>
+      </c>
+      <c r="BO37">
+        <v>3.2</v>
+      </c>
+      <c r="BP37">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:68">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>7325367</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45424.52083333334</v>
+      </c>
+      <c r="F38">
+        <v>6</v>
+      </c>
+      <c r="G38" t="s">
+        <v>79</v>
+      </c>
+      <c r="H38" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38">
+        <v>2</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+      <c r="M38">
+        <v>0</v>
+      </c>
+      <c r="N38">
+        <v>3</v>
+      </c>
+      <c r="O38" t="s">
+        <v>110</v>
+      </c>
+      <c r="P38" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q38">
+        <v>3.1</v>
+      </c>
+      <c r="R38">
+        <v>2.1</v>
+      </c>
+      <c r="S38">
+        <v>3.6</v>
+      </c>
+      <c r="T38">
+        <v>1.45</v>
+      </c>
+      <c r="U38">
+        <v>2.75</v>
+      </c>
+      <c r="V38">
+        <v>3.1</v>
+      </c>
+      <c r="W38">
+        <v>1.35</v>
+      </c>
+      <c r="X38">
+        <v>8</v>
+      </c>
+      <c r="Y38">
+        <v>1.06</v>
+      </c>
+      <c r="Z38">
+        <v>2.38</v>
+      </c>
+      <c r="AA38">
+        <v>3.1</v>
+      </c>
+      <c r="AB38">
+        <v>2.75</v>
+      </c>
+      <c r="AC38">
+        <v>1.06</v>
+      </c>
+      <c r="AD38">
+        <v>9.5</v>
+      </c>
+      <c r="AE38">
+        <v>1.36</v>
+      </c>
+      <c r="AF38">
+        <v>3.1</v>
+      </c>
+      <c r="AG38">
+        <v>1.91</v>
+      </c>
+      <c r="AH38">
+        <v>1.8</v>
+      </c>
+      <c r="AI38">
+        <v>1.85</v>
+      </c>
+      <c r="AJ38">
+        <v>1.9</v>
+      </c>
+      <c r="AK38">
+        <v>1.45</v>
+      </c>
+      <c r="AL38">
+        <v>1.36</v>
+      </c>
+      <c r="AM38">
+        <v>1.6</v>
+      </c>
+      <c r="AN38">
+        <v>0.5</v>
+      </c>
+      <c r="AO38">
+        <v>0</v>
+      </c>
+      <c r="AP38">
+        <v>1.33</v>
+      </c>
+      <c r="AQ38">
+        <v>0</v>
+      </c>
+      <c r="AR38">
+        <v>1.9</v>
+      </c>
+      <c r="AS38">
+        <v>1.11</v>
+      </c>
+      <c r="AT38">
+        <v>3.01</v>
+      </c>
+      <c r="AU38">
+        <v>4</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+      <c r="AW38">
+        <v>0</v>
+      </c>
+      <c r="AX38">
+        <v>3</v>
+      </c>
+      <c r="AY38">
+        <v>4</v>
+      </c>
+      <c r="AZ38">
+        <v>5</v>
+      </c>
+      <c r="BA38">
+        <v>5</v>
+      </c>
+      <c r="BB38">
+        <v>5</v>
+      </c>
+      <c r="BC38">
+        <v>10</v>
+      </c>
+      <c r="BD38">
+        <v>1.59</v>
+      </c>
+      <c r="BE38">
+        <v>8.5</v>
+      </c>
+      <c r="BF38">
+        <v>2.78</v>
+      </c>
+      <c r="BG38">
+        <v>1.21</v>
+      </c>
+      <c r="BH38">
+        <v>4.2</v>
+      </c>
+      <c r="BI38">
+        <v>1.38</v>
+      </c>
+      <c r="BJ38">
+        <v>2.88</v>
+      </c>
+      <c r="BK38">
+        <v>1.73</v>
+      </c>
+      <c r="BL38">
+        <v>2</v>
+      </c>
+      <c r="BM38">
+        <v>2.14</v>
+      </c>
+      <c r="BN38">
+        <v>1.66</v>
+      </c>
+      <c r="BO38">
+        <v>2.88</v>
+      </c>
+      <c r="BP38">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -8354,16 +8354,16 @@
         <v>6</v>
       </c>
       <c r="AW37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY37">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ37">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA37">
         <v>0</v>
@@ -8554,22 +8554,22 @@
         <v>3.01</v>
       </c>
       <c r="AU38">
+        <v>8</v>
+      </c>
+      <c r="AV38">
+        <v>2</v>
+      </c>
+      <c r="AW38">
+        <v>1</v>
+      </c>
+      <c r="AX38">
+        <v>2</v>
+      </c>
+      <c r="AY38">
+        <v>9</v>
+      </c>
+      <c r="AZ38">
         <v>4</v>
-      </c>
-      <c r="AV38">
-        <v>2</v>
-      </c>
-      <c r="AW38">
-        <v>0</v>
-      </c>
-      <c r="AX38">
-        <v>3</v>
-      </c>
-      <c r="AY38">
-        <v>4</v>
-      </c>
-      <c r="AZ38">
-        <v>5</v>
       </c>
       <c r="BA38">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -349,6 +349,18 @@
     <t>['4', '41', '61']</t>
   </si>
   <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['24']</t>
+  </si>
+  <si>
+    <t>['16', '44', '78']</t>
+  </si>
+  <si>
+    <t>['34', '38', '49', '72', '86']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -425,6 +437,12 @@
   </si>
   <si>
     <t>['40', '80']</t>
+  </si>
+  <si>
+    <t>['29', '66']</t>
+  </si>
+  <si>
+    <t>['77']</t>
   </si>
 </sst>
 </file>
@@ -786,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP38"/>
+  <dimension ref="A1:BP42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1045,7 +1063,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1329,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0.33</v>
@@ -1457,7 +1475,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1535,7 +1553,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -1663,7 +1681,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1869,7 +1887,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1950,7 +1968,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2075,7 +2093,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2359,7 +2377,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
         <v>0.33</v>
@@ -2487,7 +2505,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2693,7 +2711,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2899,7 +2917,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3105,7 +3123,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3183,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3311,7 +3329,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3595,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -3723,7 +3741,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3929,7 +3947,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4007,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4216,7 +4234,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4341,7 +4359,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4547,7 +4565,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4753,7 +4771,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4831,7 +4849,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ20">
         <v>1.25</v>
@@ -4959,7 +4977,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5165,7 +5183,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5371,7 +5389,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5577,7 +5595,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5655,10 +5673,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5783,7 +5801,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5989,7 +6007,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6401,7 +6419,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6479,7 +6497,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6685,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6813,7 +6831,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6891,7 +6909,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ30">
         <v>1.5</v>
@@ -7019,7 +7037,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7100,7 +7118,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7225,7 +7243,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7431,7 +7449,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7512,7 +7530,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7843,7 +7861,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -7921,7 +7939,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ35">
         <v>1.33</v>
@@ -8049,7 +8067,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8255,7 +8273,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8542,7 +8560,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8617,6 +8635,830 @@
         <v>2.88</v>
       </c>
       <c r="BP38">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:68">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>7325368</v>
+      </c>
+      <c r="C39" t="s">
+        <v>68</v>
+      </c>
+      <c r="D39" t="s">
+        <v>69</v>
+      </c>
+      <c r="E39" s="2">
+        <v>45429.5</v>
+      </c>
+      <c r="F39">
+        <v>7</v>
+      </c>
+      <c r="G39" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39">
+        <v>0</v>
+      </c>
+      <c r="J39">
+        <v>1</v>
+      </c>
+      <c r="K39">
+        <v>1</v>
+      </c>
+      <c r="L39">
+        <v>1</v>
+      </c>
+      <c r="M39">
+        <v>2</v>
+      </c>
+      <c r="N39">
+        <v>3</v>
+      </c>
+      <c r="O39" t="s">
+        <v>111</v>
+      </c>
+      <c r="P39" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q39">
+        <v>2.39</v>
+      </c>
+      <c r="R39">
+        <v>2.24</v>
+      </c>
+      <c r="S39">
+        <v>4.4</v>
+      </c>
+      <c r="T39">
+        <v>1.35</v>
+      </c>
+      <c r="U39">
+        <v>3.05</v>
+      </c>
+      <c r="V39">
+        <v>2.61</v>
+      </c>
+      <c r="W39">
+        <v>1.46</v>
+      </c>
+      <c r="X39">
+        <v>6.35</v>
+      </c>
+      <c r="Y39">
+        <v>1.1</v>
+      </c>
+      <c r="Z39">
+        <v>1.8</v>
+      </c>
+      <c r="AA39">
+        <v>3.5</v>
+      </c>
+      <c r="AB39">
+        <v>3.7</v>
+      </c>
+      <c r="AC39">
+        <v>1.03</v>
+      </c>
+      <c r="AD39">
+        <v>10.25</v>
+      </c>
+      <c r="AE39">
+        <v>1.25</v>
+      </c>
+      <c r="AF39">
+        <v>4.11</v>
+      </c>
+      <c r="AG39">
+        <v>1.75</v>
+      </c>
+      <c r="AH39">
+        <v>2</v>
+      </c>
+      <c r="AI39">
+        <v>1.7</v>
+      </c>
+      <c r="AJ39">
+        <v>2.08</v>
+      </c>
+      <c r="AK39">
+        <v>1.25</v>
+      </c>
+      <c r="AL39">
+        <v>1.27</v>
+      </c>
+      <c r="AM39">
+        <v>1.94</v>
+      </c>
+      <c r="AN39">
+        <v>2.33</v>
+      </c>
+      <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>1.75</v>
+      </c>
+      <c r="AQ39">
+        <v>2.25</v>
+      </c>
+      <c r="AR39">
+        <v>2.4</v>
+      </c>
+      <c r="AS39">
+        <v>1.41</v>
+      </c>
+      <c r="AT39">
+        <v>3.81</v>
+      </c>
+      <c r="AU39">
+        <v>7</v>
+      </c>
+      <c r="AV39">
+        <v>2</v>
+      </c>
+      <c r="AW39">
+        <v>9</v>
+      </c>
+      <c r="AX39">
+        <v>5</v>
+      </c>
+      <c r="AY39">
+        <v>16</v>
+      </c>
+      <c r="AZ39">
+        <v>7</v>
+      </c>
+      <c r="BA39">
+        <v>12</v>
+      </c>
+      <c r="BB39">
+        <v>6</v>
+      </c>
+      <c r="BC39">
+        <v>18</v>
+      </c>
+      <c r="BD39">
+        <v>1.59</v>
+      </c>
+      <c r="BE39">
+        <v>8.5</v>
+      </c>
+      <c r="BF39">
+        <v>2.78</v>
+      </c>
+      <c r="BG39">
+        <v>1.2</v>
+      </c>
+      <c r="BH39">
+        <v>4.25</v>
+      </c>
+      <c r="BI39">
+        <v>1.38</v>
+      </c>
+      <c r="BJ39">
+        <v>2.9</v>
+      </c>
+      <c r="BK39">
+        <v>1.67</v>
+      </c>
+      <c r="BL39">
+        <v>2.12</v>
+      </c>
+      <c r="BM39">
+        <v>2</v>
+      </c>
+      <c r="BN39">
+        <v>1.73</v>
+      </c>
+      <c r="BO39">
+        <v>2.85</v>
+      </c>
+      <c r="BP39">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:68">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>7325369</v>
+      </c>
+      <c r="C40" t="s">
+        <v>68</v>
+      </c>
+      <c r="D40" t="s">
+        <v>69</v>
+      </c>
+      <c r="E40" s="2">
+        <v>45429.5</v>
+      </c>
+      <c r="F40">
+        <v>7</v>
+      </c>
+      <c r="G40" t="s">
+        <v>81</v>
+      </c>
+      <c r="H40" t="s">
+        <v>73</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>0</v>
+      </c>
+      <c r="K40">
+        <v>1</v>
+      </c>
+      <c r="L40">
+        <v>1</v>
+      </c>
+      <c r="M40">
+        <v>1</v>
+      </c>
+      <c r="N40">
+        <v>2</v>
+      </c>
+      <c r="O40" t="s">
+        <v>112</v>
+      </c>
+      <c r="P40" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q40">
+        <v>2.46</v>
+      </c>
+      <c r="R40">
+        <v>2.37</v>
+      </c>
+      <c r="S40">
+        <v>4.58</v>
+      </c>
+      <c r="T40">
+        <v>1.35</v>
+      </c>
+      <c r="U40">
+        <v>3.28</v>
+      </c>
+      <c r="V40">
+        <v>2.73</v>
+      </c>
+      <c r="W40">
+        <v>1.48</v>
+      </c>
+      <c r="X40">
+        <v>6.4</v>
+      </c>
+      <c r="Y40">
+        <v>1.1</v>
+      </c>
+      <c r="Z40">
+        <v>1.75</v>
+      </c>
+      <c r="AA40">
+        <v>3.4</v>
+      </c>
+      <c r="AB40">
+        <v>3.8</v>
+      </c>
+      <c r="AC40">
+        <v>1.01</v>
+      </c>
+      <c r="AD40">
+        <v>10</v>
+      </c>
+      <c r="AE40">
+        <v>1.22</v>
+      </c>
+      <c r="AF40">
+        <v>3.64</v>
+      </c>
+      <c r="AG40">
+        <v>1.73</v>
+      </c>
+      <c r="AH40">
+        <v>2</v>
+      </c>
+      <c r="AI40">
+        <v>1.7</v>
+      </c>
+      <c r="AJ40">
+        <v>2.08</v>
+      </c>
+      <c r="AK40">
+        <v>1.26</v>
+      </c>
+      <c r="AL40">
+        <v>1.28</v>
+      </c>
+      <c r="AM40">
+        <v>1.9</v>
+      </c>
+      <c r="AN40">
+        <v>0.5</v>
+      </c>
+      <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>0.67</v>
+      </c>
+      <c r="AQ40">
+        <v>0.33</v>
+      </c>
+      <c r="AR40">
+        <v>1.32</v>
+      </c>
+      <c r="AS40">
+        <v>0.92</v>
+      </c>
+      <c r="AT40">
+        <v>2.24</v>
+      </c>
+      <c r="AU40">
+        <v>5</v>
+      </c>
+      <c r="AV40">
+        <v>3</v>
+      </c>
+      <c r="AW40">
+        <v>10</v>
+      </c>
+      <c r="AX40">
+        <v>7</v>
+      </c>
+      <c r="AY40">
+        <v>15</v>
+      </c>
+      <c r="AZ40">
+        <v>10</v>
+      </c>
+      <c r="BA40">
+        <v>4</v>
+      </c>
+      <c r="BB40">
+        <v>5</v>
+      </c>
+      <c r="BC40">
+        <v>9</v>
+      </c>
+      <c r="BD40">
+        <v>1.59</v>
+      </c>
+      <c r="BE40">
+        <v>8.5</v>
+      </c>
+      <c r="BF40">
+        <v>2.78</v>
+      </c>
+      <c r="BG40">
+        <v>1.21</v>
+      </c>
+      <c r="BH40">
+        <v>3.74</v>
+      </c>
+      <c r="BI40">
+        <v>1.41</v>
+      </c>
+      <c r="BJ40">
+        <v>2.69</v>
+      </c>
+      <c r="BK40">
+        <v>1.73</v>
+      </c>
+      <c r="BL40">
+        <v>2</v>
+      </c>
+      <c r="BM40">
+        <v>2.18</v>
+      </c>
+      <c r="BN40">
+        <v>1.65</v>
+      </c>
+      <c r="BO40">
+        <v>2.88</v>
+      </c>
+      <c r="BP40">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:68">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>7325370</v>
+      </c>
+      <c r="C41" t="s">
+        <v>68</v>
+      </c>
+      <c r="D41" t="s">
+        <v>69</v>
+      </c>
+      <c r="E41" s="2">
+        <v>45429.54166666666</v>
+      </c>
+      <c r="F41">
+        <v>7</v>
+      </c>
+      <c r="G41" t="s">
+        <v>72</v>
+      </c>
+      <c r="H41" t="s">
+        <v>78</v>
+      </c>
+      <c r="I41">
+        <v>2</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="K41">
+        <v>3</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41">
+        <v>1</v>
+      </c>
+      <c r="N41">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>113</v>
+      </c>
+      <c r="P41" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q41">
+        <v>2.85</v>
+      </c>
+      <c r="R41">
+        <v>2.15</v>
+      </c>
+      <c r="S41">
+        <v>3.4</v>
+      </c>
+      <c r="T41">
+        <v>1.36</v>
+      </c>
+      <c r="U41">
+        <v>3</v>
+      </c>
+      <c r="V41">
+        <v>2.63</v>
+      </c>
+      <c r="W41">
+        <v>1.44</v>
+      </c>
+      <c r="X41">
+        <v>7</v>
+      </c>
+      <c r="Y41">
+        <v>1.1</v>
+      </c>
+      <c r="Z41">
+        <v>2.2</v>
+      </c>
+      <c r="AA41">
+        <v>3.4</v>
+      </c>
+      <c r="AB41">
+        <v>2.7</v>
+      </c>
+      <c r="AC41">
+        <v>1.03</v>
+      </c>
+      <c r="AD41">
+        <v>13</v>
+      </c>
+      <c r="AE41">
+        <v>1.24</v>
+      </c>
+      <c r="AF41">
+        <v>3.7</v>
+      </c>
+      <c r="AG41">
+        <v>1.75</v>
+      </c>
+      <c r="AH41">
+        <v>1.95</v>
+      </c>
+      <c r="AI41">
+        <v>1.67</v>
+      </c>
+      <c r="AJ41">
+        <v>2.1</v>
+      </c>
+      <c r="AK41">
+        <v>1.38</v>
+      </c>
+      <c r="AL41">
+        <v>1.25</v>
+      </c>
+      <c r="AM41">
+        <v>1.58</v>
+      </c>
+      <c r="AN41">
+        <v>2</v>
+      </c>
+      <c r="AO41">
+        <v>0</v>
+      </c>
+      <c r="AP41">
+        <v>2.2</v>
+      </c>
+      <c r="AQ41">
+        <v>0</v>
+      </c>
+      <c r="AR41">
+        <v>1.53</v>
+      </c>
+      <c r="AS41">
+        <v>1.61</v>
+      </c>
+      <c r="AT41">
+        <v>3.14</v>
+      </c>
+      <c r="AU41">
+        <v>5</v>
+      </c>
+      <c r="AV41">
+        <v>2</v>
+      </c>
+      <c r="AW41">
+        <v>9</v>
+      </c>
+      <c r="AX41">
+        <v>6</v>
+      </c>
+      <c r="AY41">
+        <v>14</v>
+      </c>
+      <c r="AZ41">
+        <v>8</v>
+      </c>
+      <c r="BA41">
+        <v>4</v>
+      </c>
+      <c r="BB41">
+        <v>9</v>
+      </c>
+      <c r="BC41">
+        <v>13</v>
+      </c>
+      <c r="BD41">
+        <v>1.95</v>
+      </c>
+      <c r="BE41">
+        <v>8</v>
+      </c>
+      <c r="BF41">
+        <v>2.1</v>
+      </c>
+      <c r="BG41">
+        <v>1.27</v>
+      </c>
+      <c r="BH41">
+        <v>3.55</v>
+      </c>
+      <c r="BI41">
+        <v>1.5</v>
+      </c>
+      <c r="BJ41">
+        <v>2.48</v>
+      </c>
+      <c r="BK41">
+        <v>1.9</v>
+      </c>
+      <c r="BL41">
+        <v>1.9</v>
+      </c>
+      <c r="BM41">
+        <v>2.45</v>
+      </c>
+      <c r="BN41">
+        <v>1.5</v>
+      </c>
+      <c r="BO41">
+        <v>3.4</v>
+      </c>
+      <c r="BP41">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="42" spans="1:68">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>7325371</v>
+      </c>
+      <c r="C42" t="s">
+        <v>68</v>
+      </c>
+      <c r="D42" t="s">
+        <v>69</v>
+      </c>
+      <c r="E42" s="2">
+        <v>45429.58333333334</v>
+      </c>
+      <c r="F42">
+        <v>7</v>
+      </c>
+      <c r="G42" t="s">
+        <v>71</v>
+      </c>
+      <c r="H42" t="s">
+        <v>74</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>2</v>
+      </c>
+      <c r="L42">
+        <v>5</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>5</v>
+      </c>
+      <c r="O42" t="s">
+        <v>114</v>
+      </c>
+      <c r="P42" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q42">
+        <v>2.59</v>
+      </c>
+      <c r="R42">
+        <v>2.37</v>
+      </c>
+      <c r="S42">
+        <v>4.22</v>
+      </c>
+      <c r="T42">
+        <v>1.35</v>
+      </c>
+      <c r="U42">
+        <v>3.31</v>
+      </c>
+      <c r="V42">
+        <v>2.71</v>
+      </c>
+      <c r="W42">
+        <v>1.48</v>
+      </c>
+      <c r="X42">
+        <v>6.35</v>
+      </c>
+      <c r="Y42">
+        <v>1.1</v>
+      </c>
+      <c r="Z42">
+        <v>1.85</v>
+      </c>
+      <c r="AA42">
+        <v>3.4</v>
+      </c>
+      <c r="AB42">
+        <v>3.5</v>
+      </c>
+      <c r="AC42">
+        <v>1.01</v>
+      </c>
+      <c r="AD42">
+        <v>10.25</v>
+      </c>
+      <c r="AE42">
+        <v>1.22</v>
+      </c>
+      <c r="AF42">
+        <v>3.66</v>
+      </c>
+      <c r="AG42">
+        <v>1.75</v>
+      </c>
+      <c r="AH42">
+        <v>1.95</v>
+      </c>
+      <c r="AI42">
+        <v>1.69</v>
+      </c>
+      <c r="AJ42">
+        <v>2.09</v>
+      </c>
+      <c r="AK42">
+        <v>1.27</v>
+      </c>
+      <c r="AL42">
+        <v>1.28</v>
+      </c>
+      <c r="AM42">
+        <v>1.89</v>
+      </c>
+      <c r="AN42">
+        <v>1.33</v>
+      </c>
+      <c r="AO42">
+        <v>2</v>
+      </c>
+      <c r="AP42">
+        <v>1.75</v>
+      </c>
+      <c r="AQ42">
+        <v>1.33</v>
+      </c>
+      <c r="AR42">
+        <v>2.09</v>
+      </c>
+      <c r="AS42">
+        <v>1.68</v>
+      </c>
+      <c r="AT42">
+        <v>3.77</v>
+      </c>
+      <c r="AU42">
+        <v>2</v>
+      </c>
+      <c r="AV42">
+        <v>3</v>
+      </c>
+      <c r="AW42">
+        <v>10</v>
+      </c>
+      <c r="AX42">
+        <v>1</v>
+      </c>
+      <c r="AY42">
+        <v>12</v>
+      </c>
+      <c r="AZ42">
+        <v>4</v>
+      </c>
+      <c r="BA42">
+        <v>7</v>
+      </c>
+      <c r="BB42">
+        <v>3</v>
+      </c>
+      <c r="BC42">
+        <v>10</v>
+      </c>
+      <c r="BD42">
+        <v>1.41</v>
+      </c>
+      <c r="BE42">
+        <v>9</v>
+      </c>
+      <c r="BF42">
+        <v>3.49</v>
+      </c>
+      <c r="BG42">
+        <v>1.2</v>
+      </c>
+      <c r="BH42">
+        <v>4.25</v>
+      </c>
+      <c r="BI42">
+        <v>1.38</v>
+      </c>
+      <c r="BJ42">
+        <v>2.9</v>
+      </c>
+      <c r="BK42">
+        <v>1.67</v>
+      </c>
+      <c r="BL42">
+        <v>2.12</v>
+      </c>
+      <c r="BM42">
+        <v>2</v>
+      </c>
+      <c r="BN42">
+        <v>1.73</v>
+      </c>
+      <c r="BO42">
+        <v>2.85</v>
+      </c>
+      <c r="BP42">
         <v>1.38</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -9196,16 +9196,16 @@
         <v>2</v>
       </c>
       <c r="AW41">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX41">
+        <v>4</v>
+      </c>
+      <c r="AY41">
+        <v>10</v>
+      </c>
+      <c r="AZ41">
         <v>6</v>
-      </c>
-      <c r="AY41">
-        <v>14</v>
-      </c>
-      <c r="AZ41">
-        <v>8</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9399,16 +9399,16 @@
         <v>2</v>
       </c>
       <c r="AV42">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AX42">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY42">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="AZ42">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -9196,16 +9196,16 @@
         <v>2</v>
       </c>
       <c r="AW41">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX41">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY41">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ41">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA41">
         <v>4</v>
@@ -9399,16 +9399,16 @@
         <v>2</v>
       </c>
       <c r="AV42">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW42">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AX42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY42">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ42">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -804,7 +804,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP42"/>
+  <dimension ref="A1:BP43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3410,7 +3410,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3822,7 +3822,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -5470,7 +5470,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -6912,7 +6912,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -9460,6 +9460,212 @@
       </c>
       <c r="BP42">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:68">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>7325372</v>
+      </c>
+      <c r="C43" t="s">
+        <v>68</v>
+      </c>
+      <c r="D43" t="s">
+        <v>69</v>
+      </c>
+      <c r="E43" s="2">
+        <v>45431.41666666666</v>
+      </c>
+      <c r="F43">
+        <v>7</v>
+      </c>
+      <c r="G43" t="s">
+        <v>70</v>
+      </c>
+      <c r="H43" t="s">
+        <v>75</v>
+      </c>
+      <c r="I43">
+        <v>0</v>
+      </c>
+      <c r="J43">
+        <v>0</v>
+      </c>
+      <c r="K43">
+        <v>0</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>0</v>
+      </c>
+      <c r="N43">
+        <v>0</v>
+      </c>
+      <c r="O43" t="s">
+        <v>83</v>
+      </c>
+      <c r="P43" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q43">
+        <v>4.4</v>
+      </c>
+      <c r="R43">
+        <v>2.2</v>
+      </c>
+      <c r="S43">
+        <v>2.35</v>
+      </c>
+      <c r="T43">
+        <v>1.38</v>
+      </c>
+      <c r="U43">
+        <v>2.85</v>
+      </c>
+      <c r="V43">
+        <v>2.65</v>
+      </c>
+      <c r="W43">
+        <v>1.42</v>
+      </c>
+      <c r="X43">
+        <v>7</v>
+      </c>
+      <c r="Y43">
+        <v>1.09</v>
+      </c>
+      <c r="Z43">
+        <v>4</v>
+      </c>
+      <c r="AA43">
+        <v>3.6</v>
+      </c>
+      <c r="AB43">
+        <v>1.8</v>
+      </c>
+      <c r="AC43">
+        <v>1.04</v>
+      </c>
+      <c r="AD43">
+        <v>13</v>
+      </c>
+      <c r="AE43">
+        <v>1.25</v>
+      </c>
+      <c r="AF43">
+        <v>3.6</v>
+      </c>
+      <c r="AG43">
+        <v>1.85</v>
+      </c>
+      <c r="AH43">
+        <v>1.95</v>
+      </c>
+      <c r="AI43">
+        <v>1.75</v>
+      </c>
+      <c r="AJ43">
+        <v>1.95</v>
+      </c>
+      <c r="AK43">
+        <v>1.95</v>
+      </c>
+      <c r="AL43">
+        <v>1.24</v>
+      </c>
+      <c r="AM43">
+        <v>1.22</v>
+      </c>
+      <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
+        <v>1</v>
+      </c>
+      <c r="AQ43">
+        <v>1.4</v>
+      </c>
+      <c r="AR43">
+        <v>1.52</v>
+      </c>
+      <c r="AS43">
+        <v>1.58</v>
+      </c>
+      <c r="AT43">
+        <v>3.1</v>
+      </c>
+      <c r="AU43">
+        <v>5</v>
+      </c>
+      <c r="AV43">
+        <v>6</v>
+      </c>
+      <c r="AW43">
+        <v>5</v>
+      </c>
+      <c r="AX43">
+        <v>2</v>
+      </c>
+      <c r="AY43">
+        <v>10</v>
+      </c>
+      <c r="AZ43">
+        <v>8</v>
+      </c>
+      <c r="BA43">
+        <v>4</v>
+      </c>
+      <c r="BB43">
+        <v>4</v>
+      </c>
+      <c r="BC43">
+        <v>8</v>
+      </c>
+      <c r="BD43">
+        <v>2.77</v>
+      </c>
+      <c r="BE43">
+        <v>8</v>
+      </c>
+      <c r="BF43">
+        <v>1.64</v>
+      </c>
+      <c r="BG43">
+        <v>1.25</v>
+      </c>
+      <c r="BH43">
+        <v>3.7</v>
+      </c>
+      <c r="BI43">
+        <v>1.47</v>
+      </c>
+      <c r="BJ43">
+        <v>2.55</v>
+      </c>
+      <c r="BK43">
+        <v>1.82</v>
+      </c>
+      <c r="BL43">
+        <v>1.98</v>
+      </c>
+      <c r="BM43">
+        <v>2.38</v>
+      </c>
+      <c r="BN43">
+        <v>1.54</v>
+      </c>
+      <c r="BO43">
+        <v>3.25</v>
+      </c>
+      <c r="BP43">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="145">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -361,6 +361,9 @@
     <t>['34', '38', '49', '72', '86']</t>
   </si>
   <si>
+    <t>['35']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -443,6 +446,9 @@
   </si>
   <si>
     <t>['77']</t>
+  </si>
+  <si>
+    <t>['73']</t>
   </si>
 </sst>
 </file>
@@ -804,7 +810,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP43"/>
+  <dimension ref="A1:BP44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1063,7 +1069,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1350,7 +1356,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1475,7 +1481,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1681,7 +1687,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1887,7 +1893,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2093,7 +2099,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2380,7 +2386,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2505,7 +2511,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2711,7 +2717,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2917,7 +2923,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3123,7 +3129,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3329,7 +3335,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3741,7 +3747,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3947,7 +3953,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4359,7 +4365,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4565,7 +4571,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4643,7 +4649,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ19">
         <v>0.5</v>
@@ -4771,7 +4777,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4977,7 +4983,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5183,7 +5189,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5389,7 +5395,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5595,7 +5601,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5801,7 +5807,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6007,7 +6013,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6294,7 +6300,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6419,7 +6425,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6831,7 +6837,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7037,7 +7043,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7243,7 +7249,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7449,7 +7455,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7861,7 +7867,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8067,7 +8073,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8273,7 +8279,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8351,7 +8357,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AQ37">
         <v>2</v>
@@ -8685,7 +8691,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8891,7 +8897,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9097,7 +9103,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9602,22 +9608,22 @@
         <v>3.1</v>
       </c>
       <c r="AU43">
+        <v>4</v>
+      </c>
+      <c r="AV43">
         <v>5</v>
       </c>
-      <c r="AV43">
+      <c r="AW43">
+        <v>14</v>
+      </c>
+      <c r="AX43">
         <v>6</v>
       </c>
-      <c r="AW43">
-        <v>5</v>
-      </c>
-      <c r="AX43">
-        <v>2</v>
-      </c>
       <c r="AY43">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="AZ43">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -9666,6 +9672,212 @@
       </c>
       <c r="BP43">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:68">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>7325373</v>
+      </c>
+      <c r="C44" t="s">
+        <v>68</v>
+      </c>
+      <c r="D44" t="s">
+        <v>69</v>
+      </c>
+      <c r="E44" s="2">
+        <v>45431.52083333334</v>
+      </c>
+      <c r="F44">
+        <v>7</v>
+      </c>
+      <c r="G44" t="s">
+        <v>80</v>
+      </c>
+      <c r="H44" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>0</v>
+      </c>
+      <c r="K44">
+        <v>1</v>
+      </c>
+      <c r="L44">
+        <v>1</v>
+      </c>
+      <c r="M44">
+        <v>1</v>
+      </c>
+      <c r="N44">
+        <v>2</v>
+      </c>
+      <c r="O44" t="s">
+        <v>115</v>
+      </c>
+      <c r="P44" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q44">
+        <v>3.3</v>
+      </c>
+      <c r="R44">
+        <v>1.95</v>
+      </c>
+      <c r="S44">
+        <v>3.3</v>
+      </c>
+      <c r="T44">
+        <v>1.48</v>
+      </c>
+      <c r="U44">
+        <v>2.45</v>
+      </c>
+      <c r="V44">
+        <v>3.15</v>
+      </c>
+      <c r="W44">
+        <v>1.32</v>
+      </c>
+      <c r="X44">
+        <v>9.5</v>
+      </c>
+      <c r="Y44">
+        <v>1.06</v>
+      </c>
+      <c r="Z44">
+        <v>2.75</v>
+      </c>
+      <c r="AA44">
+        <v>3.25</v>
+      </c>
+      <c r="AB44">
+        <v>2.38</v>
+      </c>
+      <c r="AC44">
+        <v>1.07</v>
+      </c>
+      <c r="AD44">
+        <v>9</v>
+      </c>
+      <c r="AE44">
+        <v>1.38</v>
+      </c>
+      <c r="AF44">
+        <v>2.85</v>
+      </c>
+      <c r="AG44">
+        <v>2.15</v>
+      </c>
+      <c r="AH44">
+        <v>1.65</v>
+      </c>
+      <c r="AI44">
+        <v>1.9</v>
+      </c>
+      <c r="AJ44">
+        <v>1.82</v>
+      </c>
+      <c r="AK44">
+        <v>1.45</v>
+      </c>
+      <c r="AL44">
+        <v>1.3</v>
+      </c>
+      <c r="AM44">
+        <v>1.45</v>
+      </c>
+      <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
+        <v>0.33</v>
+      </c>
+      <c r="AP44">
+        <v>0.67</v>
+      </c>
+      <c r="AQ44">
+        <v>0.5</v>
+      </c>
+      <c r="AR44">
+        <v>0.85</v>
+      </c>
+      <c r="AS44">
+        <v>0.92</v>
+      </c>
+      <c r="AT44">
+        <v>1.77</v>
+      </c>
+      <c r="AU44">
+        <v>4</v>
+      </c>
+      <c r="AV44">
+        <v>0</v>
+      </c>
+      <c r="AW44">
+        <v>3</v>
+      </c>
+      <c r="AX44">
+        <v>4</v>
+      </c>
+      <c r="AY44">
+        <v>7</v>
+      </c>
+      <c r="AZ44">
+        <v>4</v>
+      </c>
+      <c r="BA44">
+        <v>6</v>
+      </c>
+      <c r="BB44">
+        <v>3</v>
+      </c>
+      <c r="BC44">
+        <v>9</v>
+      </c>
+      <c r="BD44">
+        <v>2.05</v>
+      </c>
+      <c r="BE44">
+        <v>8</v>
+      </c>
+      <c r="BF44">
+        <v>2</v>
+      </c>
+      <c r="BG44">
+        <v>1.29</v>
+      </c>
+      <c r="BH44">
+        <v>3.4</v>
+      </c>
+      <c r="BI44">
+        <v>1.53</v>
+      </c>
+      <c r="BJ44">
+        <v>2.4</v>
+      </c>
+      <c r="BK44">
+        <v>1.98</v>
+      </c>
+      <c r="BL44">
+        <v>1.82</v>
+      </c>
+      <c r="BM44">
+        <v>2.55</v>
+      </c>
+      <c r="BN44">
+        <v>1.48</v>
+      </c>
+      <c r="BO44">
+        <v>3.5</v>
+      </c>
+      <c r="BP44">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -9814,22 +9814,22 @@
         <v>1.77</v>
       </c>
       <c r="AU44">
+        <v>5</v>
+      </c>
+      <c r="AV44">
+        <v>3</v>
+      </c>
+      <c r="AW44">
         <v>4</v>
       </c>
-      <c r="AV44">
-        <v>0</v>
-      </c>
-      <c r="AW44">
-        <v>3</v>
-      </c>
       <c r="AX44">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY44">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ44">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA44">
         <v>6</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -364,6 +364,9 @@
     <t>['35']</t>
   </si>
   <si>
+    <t>['63']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -449,6 +452,9 @@
   </si>
   <si>
     <t>['73']</t>
+  </si>
+  <si>
+    <t>['21', '49', '59']</t>
   </si>
 </sst>
 </file>
@@ -810,7 +816,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP44"/>
+  <dimension ref="A1:BP46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1069,7 +1075,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1481,7 +1487,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1687,7 +1693,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1893,7 +1899,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2099,7 +2105,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2383,7 +2389,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2511,7 +2517,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2717,7 +2723,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2795,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -2923,7 +2929,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3129,7 +3135,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3210,7 +3216,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3335,7 +3341,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3416,7 +3422,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ13">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3747,7 +3753,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3828,7 +3834,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ15">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -3953,7 +3959,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4031,7 +4037,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4365,7 +4371,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4443,10 +4449,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ18">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4571,7 +4577,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4777,7 +4783,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4983,7 +4989,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5189,7 +5195,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5395,7 +5401,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5476,7 +5482,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5601,7 +5607,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5807,7 +5813,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6013,7 +6019,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6297,7 +6303,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>1.75</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6425,7 +6431,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6709,7 +6715,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6837,7 +6843,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6918,7 +6924,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ30">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7043,7 +7049,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7249,7 +7255,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7455,7 +7461,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7867,7 +7873,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -7948,7 +7954,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ35">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8073,7 +8079,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8279,7 +8285,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8691,7 +8697,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8769,7 +8775,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>2.25</v>
@@ -8897,7 +8903,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9103,7 +9109,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9596,7 +9602,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9721,7 +9727,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9878,6 +9884,418 @@
       </c>
       <c r="BP44">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="45" spans="1:68">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>7325374</v>
+      </c>
+      <c r="C45" t="s">
+        <v>68</v>
+      </c>
+      <c r="D45" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="2">
+        <v>45434.5</v>
+      </c>
+      <c r="F45">
+        <v>15</v>
+      </c>
+      <c r="G45" t="s">
+        <v>77</v>
+      </c>
+      <c r="H45" t="s">
+        <v>75</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>1</v>
+      </c>
+      <c r="K45">
+        <v>1</v>
+      </c>
+      <c r="L45">
+        <v>1</v>
+      </c>
+      <c r="M45">
+        <v>3</v>
+      </c>
+      <c r="N45">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>116</v>
+      </c>
+      <c r="P45" t="s">
+        <v>146</v>
+      </c>
+      <c r="Q45">
+        <v>3.1</v>
+      </c>
+      <c r="R45">
+        <v>2.05</v>
+      </c>
+      <c r="S45">
+        <v>3.6</v>
+      </c>
+      <c r="T45">
+        <v>1.44</v>
+      </c>
+      <c r="U45">
+        <v>2.63</v>
+      </c>
+      <c r="V45">
+        <v>3.25</v>
+      </c>
+      <c r="W45">
+        <v>1.33</v>
+      </c>
+      <c r="X45">
+        <v>9</v>
+      </c>
+      <c r="Y45">
+        <v>1.07</v>
+      </c>
+      <c r="Z45">
+        <v>2.3</v>
+      </c>
+      <c r="AA45">
+        <v>3.1</v>
+      </c>
+      <c r="AB45">
+        <v>2.7</v>
+      </c>
+      <c r="AC45">
+        <v>1.04</v>
+      </c>
+      <c r="AD45">
+        <v>8.5</v>
+      </c>
+      <c r="AE45">
+        <v>1.33</v>
+      </c>
+      <c r="AF45">
+        <v>3</v>
+      </c>
+      <c r="AG45">
+        <v>2.05</v>
+      </c>
+      <c r="AH45">
+        <v>1.7</v>
+      </c>
+      <c r="AI45">
+        <v>1.8</v>
+      </c>
+      <c r="AJ45">
+        <v>1.95</v>
+      </c>
+      <c r="AK45">
+        <v>1.42</v>
+      </c>
+      <c r="AL45">
+        <v>1.37</v>
+      </c>
+      <c r="AM45">
+        <v>1.56</v>
+      </c>
+      <c r="AN45">
+        <v>2.33</v>
+      </c>
+      <c r="AO45">
+        <v>1.4</v>
+      </c>
+      <c r="AP45">
+        <v>1.75</v>
+      </c>
+      <c r="AQ45">
+        <v>1.67</v>
+      </c>
+      <c r="AR45">
+        <v>2.08</v>
+      </c>
+      <c r="AS45">
+        <v>1.55</v>
+      </c>
+      <c r="AT45">
+        <v>3.63</v>
+      </c>
+      <c r="AU45">
+        <v>2</v>
+      </c>
+      <c r="AV45">
+        <v>3</v>
+      </c>
+      <c r="AW45">
+        <v>3</v>
+      </c>
+      <c r="AX45">
+        <v>5</v>
+      </c>
+      <c r="AY45">
+        <v>5</v>
+      </c>
+      <c r="AZ45">
+        <v>8</v>
+      </c>
+      <c r="BA45">
+        <v>3</v>
+      </c>
+      <c r="BB45">
+        <v>7</v>
+      </c>
+      <c r="BC45">
+        <v>10</v>
+      </c>
+      <c r="BD45">
+        <v>2.04</v>
+      </c>
+      <c r="BE45">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF45">
+        <v>2.04</v>
+      </c>
+      <c r="BG45">
+        <v>1.23</v>
+      </c>
+      <c r="BH45">
+        <v>3.56</v>
+      </c>
+      <c r="BI45">
+        <v>1.45</v>
+      </c>
+      <c r="BJ45">
+        <v>2.55</v>
+      </c>
+      <c r="BK45">
+        <v>1.8</v>
+      </c>
+      <c r="BL45">
+        <v>1.95</v>
+      </c>
+      <c r="BM45">
+        <v>2.29</v>
+      </c>
+      <c r="BN45">
+        <v>1.55</v>
+      </c>
+      <c r="BO45">
+        <v>3.04</v>
+      </c>
+      <c r="BP45">
+        <v>1.31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:68">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>7325375</v>
+      </c>
+      <c r="C46" t="s">
+        <v>68</v>
+      </c>
+      <c r="D46" t="s">
+        <v>69</v>
+      </c>
+      <c r="E46" s="2">
+        <v>45434.5</v>
+      </c>
+      <c r="F46">
+        <v>19</v>
+      </c>
+      <c r="G46" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" t="s">
+        <v>70</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>1</v>
+      </c>
+      <c r="L46">
+        <v>1</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>1</v>
+      </c>
+      <c r="O46" t="s">
+        <v>102</v>
+      </c>
+      <c r="P46" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q46">
+        <v>1.91</v>
+      </c>
+      <c r="R46">
+        <v>2.6</v>
+      </c>
+      <c r="S46">
+        <v>6</v>
+      </c>
+      <c r="T46">
+        <v>1.25</v>
+      </c>
+      <c r="U46">
+        <v>3.75</v>
+      </c>
+      <c r="V46">
+        <v>2.2</v>
+      </c>
+      <c r="W46">
+        <v>1.62</v>
+      </c>
+      <c r="X46">
+        <v>5</v>
+      </c>
+      <c r="Y46">
+        <v>1.17</v>
+      </c>
+      <c r="Z46">
+        <v>1.37</v>
+      </c>
+      <c r="AA46">
+        <v>5</v>
+      </c>
+      <c r="AB46">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC46">
+        <v>1.02</v>
+      </c>
+      <c r="AD46">
+        <v>19</v>
+      </c>
+      <c r="AE46">
+        <v>1.16</v>
+      </c>
+      <c r="AF46">
+        <v>5</v>
+      </c>
+      <c r="AG46">
+        <v>1.5</v>
+      </c>
+      <c r="AH46">
+        <v>2.4</v>
+      </c>
+      <c r="AI46">
+        <v>1.7</v>
+      </c>
+      <c r="AJ46">
+        <v>2.05</v>
+      </c>
+      <c r="AK46">
+        <v>1.12</v>
+      </c>
+      <c r="AL46">
+        <v>1.2</v>
+      </c>
+      <c r="AM46">
+        <v>3</v>
+      </c>
+      <c r="AN46">
+        <v>1.75</v>
+      </c>
+      <c r="AO46">
+        <v>1.33</v>
+      </c>
+      <c r="AP46">
+        <v>2</v>
+      </c>
+      <c r="AQ46">
+        <v>1</v>
+      </c>
+      <c r="AR46">
+        <v>2.34</v>
+      </c>
+      <c r="AS46">
+        <v>0.95</v>
+      </c>
+      <c r="AT46">
+        <v>3.29</v>
+      </c>
+      <c r="AU46">
+        <v>2</v>
+      </c>
+      <c r="AV46">
+        <v>2</v>
+      </c>
+      <c r="AW46">
+        <v>2</v>
+      </c>
+      <c r="AX46">
+        <v>1</v>
+      </c>
+      <c r="AY46">
+        <v>4</v>
+      </c>
+      <c r="AZ46">
+        <v>3</v>
+      </c>
+      <c r="BA46">
+        <v>2</v>
+      </c>
+      <c r="BB46">
+        <v>4</v>
+      </c>
+      <c r="BC46">
+        <v>6</v>
+      </c>
+      <c r="BD46">
+        <v>1.4</v>
+      </c>
+      <c r="BE46">
+        <v>10</v>
+      </c>
+      <c r="BF46">
+        <v>3.58</v>
+      </c>
+      <c r="BG46">
+        <v>1.21</v>
+      </c>
+      <c r="BH46">
+        <v>3.74</v>
+      </c>
+      <c r="BI46">
+        <v>1.42</v>
+      </c>
+      <c r="BJ46">
+        <v>2.65</v>
+      </c>
+      <c r="BK46">
+        <v>1.75</v>
+      </c>
+      <c r="BL46">
+        <v>2.01</v>
+      </c>
+      <c r="BM46">
+        <v>2.19</v>
+      </c>
+      <c r="BN46">
+        <v>1.6</v>
+      </c>
+      <c r="BO46">
+        <v>2.88</v>
+      </c>
+      <c r="BP46">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="148">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -365,6 +365,9 @@
   </si>
   <si>
     <t>['63']</t>
+  </si>
+  <si>
+    <t>['15', '34', '90+5']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -816,7 +819,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP46"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1075,7 +1078,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1359,7 +1362,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1487,7 +1490,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1693,7 +1696,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1899,7 +1902,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2105,7 +2108,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2517,7 +2520,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2723,7 +2726,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2929,7 +2932,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3135,7 +3138,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3213,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3341,7 +3344,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3753,7 +3756,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3959,7 +3962,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4371,7 +4374,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4577,7 +4580,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4783,7 +4786,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4989,7 +4992,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5195,7 +5198,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5401,7 +5404,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5607,7 +5610,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5813,7 +5816,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6019,7 +6022,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6431,7 +6434,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6509,7 +6512,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.5</v>
@@ -6843,7 +6846,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7049,7 +7052,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7255,7 +7258,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7461,7 +7464,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7873,7 +7876,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8079,7 +8082,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8285,7 +8288,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8697,7 +8700,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8903,7 +8906,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9109,7 +9112,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9393,7 +9396,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9727,7 +9730,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9933,7 +9936,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10026,22 +10029,22 @@
         <v>3.63</v>
       </c>
       <c r="AU45">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW45">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX45">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AY45">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ45">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BA45">
         <v>3</v>
@@ -10232,31 +10235,31 @@
         <v>3.29</v>
       </c>
       <c r="AU46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV46">
         <v>2</v>
       </c>
       <c r="AW46">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX46">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY46">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AZ46">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BA46">
         <v>2</v>
       </c>
       <c r="BB46">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC46">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BD46">
         <v>1.4</v>
@@ -10296,6 +10299,212 @@
       </c>
       <c r="BP46">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:68">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>7325376</v>
+      </c>
+      <c r="C47" t="s">
+        <v>68</v>
+      </c>
+      <c r="D47" t="s">
+        <v>69</v>
+      </c>
+      <c r="E47" s="2">
+        <v>45434.58333333334</v>
+      </c>
+      <c r="F47">
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>71</v>
+      </c>
+      <c r="H47" t="s">
+        <v>78</v>
+      </c>
+      <c r="I47">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>2</v>
+      </c>
+      <c r="L47">
+        <v>3</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>3</v>
+      </c>
+      <c r="O47" t="s">
+        <v>117</v>
+      </c>
+      <c r="P47" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q47">
+        <v>2.6</v>
+      </c>
+      <c r="R47">
+        <v>2.3</v>
+      </c>
+      <c r="S47">
+        <v>3.75</v>
+      </c>
+      <c r="T47">
+        <v>1.33</v>
+      </c>
+      <c r="U47">
+        <v>3.3</v>
+      </c>
+      <c r="V47">
+        <v>2.55</v>
+      </c>
+      <c r="W47">
+        <v>1.47</v>
+      </c>
+      <c r="X47">
+        <v>6</v>
+      </c>
+      <c r="Y47">
+        <v>1.11</v>
+      </c>
+      <c r="Z47">
+        <v>1.94</v>
+      </c>
+      <c r="AA47">
+        <v>3.7</v>
+      </c>
+      <c r="AB47">
+        <v>3.8</v>
+      </c>
+      <c r="AC47">
+        <v>1.03</v>
+      </c>
+      <c r="AD47">
+        <v>13</v>
+      </c>
+      <c r="AE47">
+        <v>1.22</v>
+      </c>
+      <c r="AF47">
+        <v>4.2</v>
+      </c>
+      <c r="AG47">
+        <v>1.62</v>
+      </c>
+      <c r="AH47">
+        <v>2.15</v>
+      </c>
+      <c r="AI47">
+        <v>1.63</v>
+      </c>
+      <c r="AJ47">
+        <v>2.25</v>
+      </c>
+      <c r="AK47">
+        <v>1.33</v>
+      </c>
+      <c r="AL47">
+        <v>1.3</v>
+      </c>
+      <c r="AM47">
+        <v>1.87</v>
+      </c>
+      <c r="AN47">
+        <v>1.75</v>
+      </c>
+      <c r="AO47">
+        <v>0</v>
+      </c>
+      <c r="AP47">
+        <v>2</v>
+      </c>
+      <c r="AQ47">
+        <v>0</v>
+      </c>
+      <c r="AR47">
+        <v>1.9</v>
+      </c>
+      <c r="AS47">
+        <v>1.4</v>
+      </c>
+      <c r="AT47">
+        <v>3.3</v>
+      </c>
+      <c r="AU47">
+        <v>9</v>
+      </c>
+      <c r="AV47">
+        <v>4</v>
+      </c>
+      <c r="AW47">
+        <v>14</v>
+      </c>
+      <c r="AX47">
+        <v>5</v>
+      </c>
+      <c r="AY47">
+        <v>23</v>
+      </c>
+      <c r="AZ47">
+        <v>9</v>
+      </c>
+      <c r="BA47">
+        <v>8</v>
+      </c>
+      <c r="BB47">
+        <v>4</v>
+      </c>
+      <c r="BC47">
+        <v>12</v>
+      </c>
+      <c r="BD47">
+        <v>1.73</v>
+      </c>
+      <c r="BE47">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="BF47">
+        <v>2.51</v>
+      </c>
+      <c r="BG47">
+        <v>1.2</v>
+      </c>
+      <c r="BH47">
+        <v>3.84</v>
+      </c>
+      <c r="BI47">
+        <v>1.41</v>
+      </c>
+      <c r="BJ47">
+        <v>2.69</v>
+      </c>
+      <c r="BK47">
+        <v>1.73</v>
+      </c>
+      <c r="BL47">
+        <v>2.04</v>
+      </c>
+      <c r="BM47">
+        <v>2.17</v>
+      </c>
+      <c r="BN47">
+        <v>1.61</v>
+      </c>
+      <c r="BO47">
+        <v>2.84</v>
+      </c>
+      <c r="BP47">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -370,6 +370,9 @@
     <t>['15', '34', '90+5']</t>
   </si>
   <si>
+    <t>['42', '58', '78', '83']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -458,6 +461,9 @@
   </si>
   <si>
     <t>['21', '49', '59']</t>
+  </si>
+  <si>
+    <t>['62', '86', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -819,7 +825,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1078,7 +1084,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1490,7 +1496,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1571,7 +1577,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1696,7 +1702,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1902,7 +1908,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -1980,7 +1986,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>2.25</v>
@@ -2108,7 +2114,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2520,7 +2526,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2598,7 +2604,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.25</v>
@@ -2726,7 +2732,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2932,7 +2938,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3013,7 +3019,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3138,7 +3144,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3344,7 +3350,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3756,7 +3762,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3962,7 +3968,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4374,7 +4380,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4580,7 +4586,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4661,7 +4667,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4786,7 +4792,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4992,7 +4998,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5198,7 +5204,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5276,7 +5282,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.25</v>
@@ -5404,7 +5410,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5610,7 +5616,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5816,7 +5822,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6022,7 +6028,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6434,7 +6440,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6515,7 +6521,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6846,7 +6852,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7052,7 +7058,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7258,7 +7264,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7464,7 +7470,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7748,7 +7754,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
         <v>1.33</v>
@@ -7876,7 +7882,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8082,7 +8088,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8288,7 +8294,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8700,7 +8706,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8906,7 +8912,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9112,7 +9118,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9730,7 +9736,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9936,7 +9942,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10505,6 +10511,212 @@
       </c>
       <c r="BP47">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="48" spans="1:68">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>7325377</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>69</v>
+      </c>
+      <c r="E48" s="2">
+        <v>45436.5</v>
+      </c>
+      <c r="F48">
+        <v>8</v>
+      </c>
+      <c r="G48" t="s">
+        <v>74</v>
+      </c>
+      <c r="H48" t="s">
+        <v>81</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>1</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48">
+        <v>3</v>
+      </c>
+      <c r="N48">
+        <v>7</v>
+      </c>
+      <c r="O48" t="s">
+        <v>118</v>
+      </c>
+      <c r="P48" t="s">
+        <v>149</v>
+      </c>
+      <c r="Q48">
+        <v>2.48</v>
+      </c>
+      <c r="R48">
+        <v>2.23</v>
+      </c>
+      <c r="S48">
+        <v>4.15</v>
+      </c>
+      <c r="T48">
+        <v>1.35</v>
+      </c>
+      <c r="U48">
+        <v>3.05</v>
+      </c>
+      <c r="V48">
+        <v>2.61</v>
+      </c>
+      <c r="W48">
+        <v>1.46</v>
+      </c>
+      <c r="X48">
+        <v>6.35</v>
+      </c>
+      <c r="Y48">
+        <v>1.1</v>
+      </c>
+      <c r="Z48">
+        <v>2.08</v>
+      </c>
+      <c r="AA48">
+        <v>3.2</v>
+      </c>
+      <c r="AB48">
+        <v>3.2</v>
+      </c>
+      <c r="AC48">
+        <v>1.01</v>
+      </c>
+      <c r="AD48">
+        <v>10</v>
+      </c>
+      <c r="AE48">
+        <v>1.22</v>
+      </c>
+      <c r="AF48">
+        <v>3.66</v>
+      </c>
+      <c r="AG48">
+        <v>1.84</v>
+      </c>
+      <c r="AH48">
+        <v>2.04</v>
+      </c>
+      <c r="AI48">
+        <v>1.68</v>
+      </c>
+      <c r="AJ48">
+        <v>2.11</v>
+      </c>
+      <c r="AK48">
+        <v>1.28</v>
+      </c>
+      <c r="AL48">
+        <v>1.28</v>
+      </c>
+      <c r="AM48">
+        <v>1.84</v>
+      </c>
+      <c r="AN48">
+        <v>1.75</v>
+      </c>
+      <c r="AO48">
+        <v>0.5</v>
+      </c>
+      <c r="AP48">
+        <v>2</v>
+      </c>
+      <c r="AQ48">
+        <v>0.4</v>
+      </c>
+      <c r="AR48">
+        <v>1.21</v>
+      </c>
+      <c r="AS48">
+        <v>1.65</v>
+      </c>
+      <c r="AT48">
+        <v>2.86</v>
+      </c>
+      <c r="AU48">
+        <v>11</v>
+      </c>
+      <c r="AV48">
+        <v>8</v>
+      </c>
+      <c r="AW48">
+        <v>6</v>
+      </c>
+      <c r="AX48">
+        <v>6</v>
+      </c>
+      <c r="AY48">
+        <v>17</v>
+      </c>
+      <c r="AZ48">
+        <v>14</v>
+      </c>
+      <c r="BA48">
+        <v>9</v>
+      </c>
+      <c r="BB48">
+        <v>5</v>
+      </c>
+      <c r="BC48">
+        <v>14</v>
+      </c>
+      <c r="BD48">
+        <v>1.89</v>
+      </c>
+      <c r="BE48">
+        <v>9.1</v>
+      </c>
+      <c r="BF48">
+        <v>2.2</v>
+      </c>
+      <c r="BG48">
+        <v>1.18</v>
+      </c>
+      <c r="BH48">
+        <v>4.15</v>
+      </c>
+      <c r="BI48">
+        <v>1.35</v>
+      </c>
+      <c r="BJ48">
+        <v>2.84</v>
+      </c>
+      <c r="BK48">
+        <v>1.64</v>
+      </c>
+      <c r="BL48">
+        <v>2.12</v>
+      </c>
+      <c r="BM48">
+        <v>2.09</v>
+      </c>
+      <c r="BN48">
+        <v>1.69</v>
+      </c>
+      <c r="BO48">
+        <v>2.72</v>
+      </c>
+      <c r="BP48">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="350" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -371,6 +371,9 @@
   </si>
   <si>
     <t>['42', '58', '78', '83']</t>
+  </si>
+  <si>
+    <t>['66']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -825,7 +828,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP48"/>
+  <dimension ref="A1:BP49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1084,7 +1087,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1496,7 +1499,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1702,7 +1705,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1908,7 +1911,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2114,7 +2117,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2398,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2526,7 +2529,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2732,7 +2735,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2938,7 +2941,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3144,7 +3147,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3350,7 +3353,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3637,7 +3640,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -3762,7 +3765,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3968,7 +3971,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4046,7 +4049,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ16">
         <v>0.33</v>
@@ -4380,7 +4383,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4586,7 +4589,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4792,7 +4795,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4998,7 +5001,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5204,7 +5207,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5410,7 +5413,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5616,7 +5619,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5822,7 +5825,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6028,7 +6031,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6109,7 +6112,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ26">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6440,7 +6443,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6724,7 +6727,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ29">
         <v>0.25</v>
@@ -6852,7 +6855,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7058,7 +7061,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7264,7 +7267,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7470,7 +7473,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7882,7 +7885,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8088,7 +8091,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8294,7 +8297,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8375,7 +8378,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ37">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8706,7 +8709,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8784,7 +8787,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ39">
         <v>2.25</v>
@@ -8912,7 +8915,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9118,7 +9121,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9736,7 +9739,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9942,7 +9945,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10226,7 +10229,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10560,7 +10563,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10671,13 +10674,13 @@
         <v>14</v>
       </c>
       <c r="BA48">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="BB48">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="BC48">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="BD48">
         <v>1.89</v>
@@ -10717,6 +10720,212 @@
       </c>
       <c r="BP48">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:68">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49">
+        <v>7325378</v>
+      </c>
+      <c r="C49" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="2">
+        <v>45437.45833333334</v>
+      </c>
+      <c r="F49">
+        <v>8</v>
+      </c>
+      <c r="G49" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" t="s">
+        <v>71</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49">
+        <v>1</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+      <c r="M49">
+        <v>1</v>
+      </c>
+      <c r="N49">
+        <v>2</v>
+      </c>
+      <c r="O49" t="s">
+        <v>119</v>
+      </c>
+      <c r="P49" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q49">
+        <v>2.3</v>
+      </c>
+      <c r="R49">
+        <v>2.5</v>
+      </c>
+      <c r="S49">
+        <v>4</v>
+      </c>
+      <c r="T49">
+        <v>1.25</v>
+      </c>
+      <c r="U49">
+        <v>3.75</v>
+      </c>
+      <c r="V49">
+        <v>2.2</v>
+      </c>
+      <c r="W49">
+        <v>1.62</v>
+      </c>
+      <c r="X49">
+        <v>5</v>
+      </c>
+      <c r="Y49">
+        <v>1.17</v>
+      </c>
+      <c r="Z49">
+        <v>1.73</v>
+      </c>
+      <c r="AA49">
+        <v>3.75</v>
+      </c>
+      <c r="AB49">
+        <v>3.75</v>
+      </c>
+      <c r="AC49">
+        <v>1.02</v>
+      </c>
+      <c r="AD49">
+        <v>21</v>
+      </c>
+      <c r="AE49">
+        <v>1.16</v>
+      </c>
+      <c r="AF49">
+        <v>5</v>
+      </c>
+      <c r="AG49">
+        <v>1.5</v>
+      </c>
+      <c r="AH49">
+        <v>2.5</v>
+      </c>
+      <c r="AI49">
+        <v>1.5</v>
+      </c>
+      <c r="AJ49">
+        <v>2.5</v>
+      </c>
+      <c r="AK49">
+        <v>1.3</v>
+      </c>
+      <c r="AL49">
+        <v>1.25</v>
+      </c>
+      <c r="AM49">
+        <v>2.05</v>
+      </c>
+      <c r="AN49">
+        <v>2</v>
+      </c>
+      <c r="AO49">
+        <v>2</v>
+      </c>
+      <c r="AP49">
+        <v>1.83</v>
+      </c>
+      <c r="AQ49">
+        <v>1.75</v>
+      </c>
+      <c r="AR49">
+        <v>2.14</v>
+      </c>
+      <c r="AS49">
+        <v>1.66</v>
+      </c>
+      <c r="AT49">
+        <v>3.8</v>
+      </c>
+      <c r="AU49">
+        <v>3</v>
+      </c>
+      <c r="AV49">
+        <v>3</v>
+      </c>
+      <c r="AW49">
+        <v>6</v>
+      </c>
+      <c r="AX49">
+        <v>7</v>
+      </c>
+      <c r="AY49">
+        <v>9</v>
+      </c>
+      <c r="AZ49">
+        <v>10</v>
+      </c>
+      <c r="BA49">
+        <v>6</v>
+      </c>
+      <c r="BB49">
+        <v>8</v>
+      </c>
+      <c r="BC49">
+        <v>14</v>
+      </c>
+      <c r="BD49">
+        <v>1.82</v>
+      </c>
+      <c r="BE49">
+        <v>8</v>
+      </c>
+      <c r="BF49">
+        <v>2.39</v>
+      </c>
+      <c r="BG49">
+        <v>1.13</v>
+      </c>
+      <c r="BH49">
+        <v>4.75</v>
+      </c>
+      <c r="BI49">
+        <v>1.28</v>
+      </c>
+      <c r="BJ49">
+        <v>3.2</v>
+      </c>
+      <c r="BK49">
+        <v>1.73</v>
+      </c>
+      <c r="BL49">
+        <v>2</v>
+      </c>
+      <c r="BM49">
+        <v>1.89</v>
+      </c>
+      <c r="BN49">
+        <v>1.85</v>
+      </c>
+      <c r="BO49">
+        <v>2.41</v>
+      </c>
+      <c r="BP49">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -376,6 +376,12 @@
     <t>['66']</t>
   </si>
   <si>
+    <t>['22', '45', '58', '70']</t>
+  </si>
+  <si>
+    <t>['16']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -467,6 +473,12 @@
   </si>
   <si>
     <t>['62', '86', '90+1']</t>
+  </si>
+  <si>
+    <t>['30']</t>
+  </si>
+  <si>
+    <t>['26']</t>
   </si>
 </sst>
 </file>
@@ -828,7 +840,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP49"/>
+  <dimension ref="A1:BP51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1087,7 +1099,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1499,7 +1511,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1705,7 +1717,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1783,10 +1795,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ5">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1911,7 +1923,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2117,7 +2129,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2529,7 +2541,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2610,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2735,7 +2747,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2941,7 +2953,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3147,7 +3159,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3353,7 +3365,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3431,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ13">
         <v>1.67</v>
@@ -3765,7 +3777,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3971,7 +3983,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4383,7 +4395,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4589,7 +4601,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4795,7 +4807,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5001,7 +5013,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5082,7 +5094,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ21">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5207,7 +5219,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5413,7 +5425,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5619,7 +5631,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5825,7 +5837,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6031,7 +6043,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6109,7 +6121,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ26">
         <v>1.75</v>
@@ -6443,7 +6455,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6730,7 +6742,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ29">
-        <v>0.25</v>
+        <v>0.2</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -6855,7 +6867,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7061,7 +7073,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7267,7 +7279,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7345,7 +7357,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AQ32">
         <v>0</v>
@@ -7473,7 +7485,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7885,7 +7897,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8091,7 +8103,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8297,7 +8309,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8709,7 +8721,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8915,7 +8927,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9121,7 +9133,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9739,7 +9751,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9945,7 +9957,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10563,7 +10575,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10926,6 +10938,418 @@
       </c>
       <c r="BP49">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:68">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50">
+        <v>7325380</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>69</v>
+      </c>
+      <c r="E50" s="2">
+        <v>45438.52083333334</v>
+      </c>
+      <c r="F50">
+        <v>8</v>
+      </c>
+      <c r="G50" t="s">
+        <v>75</v>
+      </c>
+      <c r="H50" t="s">
+        <v>80</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50">
+        <v>3</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+      <c r="M50">
+        <v>1</v>
+      </c>
+      <c r="N50">
+        <v>5</v>
+      </c>
+      <c r="O50" t="s">
+        <v>120</v>
+      </c>
+      <c r="P50" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q50">
+        <v>1.91</v>
+      </c>
+      <c r="R50">
+        <v>2.4</v>
+      </c>
+      <c r="S50">
+        <v>7</v>
+      </c>
+      <c r="T50">
+        <v>1.33</v>
+      </c>
+      <c r="U50">
+        <v>3.25</v>
+      </c>
+      <c r="V50">
+        <v>2.63</v>
+      </c>
+      <c r="W50">
+        <v>1.44</v>
+      </c>
+      <c r="X50">
+        <v>7</v>
+      </c>
+      <c r="Y50">
+        <v>1.1</v>
+      </c>
+      <c r="Z50">
+        <v>1.23</v>
+      </c>
+      <c r="AA50">
+        <v>5.5</v>
+      </c>
+      <c r="AB50">
+        <v>9.98</v>
+      </c>
+      <c r="AC50">
+        <v>1.02</v>
+      </c>
+      <c r="AD50">
+        <v>15</v>
+      </c>
+      <c r="AE50">
+        <v>1.25</v>
+      </c>
+      <c r="AF50">
+        <v>4</v>
+      </c>
+      <c r="AG50">
+        <v>1.76</v>
+      </c>
+      <c r="AH50">
+        <v>1.95</v>
+      </c>
+      <c r="AI50">
+        <v>2.05</v>
+      </c>
+      <c r="AJ50">
+        <v>1.7</v>
+      </c>
+      <c r="AK50">
+        <v>1.12</v>
+      </c>
+      <c r="AL50">
+        <v>1.2</v>
+      </c>
+      <c r="AM50">
+        <v>3</v>
+      </c>
+      <c r="AN50">
+        <v>3</v>
+      </c>
+      <c r="AO50">
+        <v>0.25</v>
+      </c>
+      <c r="AP50">
+        <v>3</v>
+      </c>
+      <c r="AQ50">
+        <v>0.2</v>
+      </c>
+      <c r="AR50">
+        <v>0.93</v>
+      </c>
+      <c r="AS50">
+        <v>1.12</v>
+      </c>
+      <c r="AT50">
+        <v>2.05</v>
+      </c>
+      <c r="AU50">
+        <v>9</v>
+      </c>
+      <c r="AV50">
+        <v>5</v>
+      </c>
+      <c r="AW50">
+        <v>7</v>
+      </c>
+      <c r="AX50">
+        <v>6</v>
+      </c>
+      <c r="AY50">
+        <v>16</v>
+      </c>
+      <c r="AZ50">
+        <v>11</v>
+      </c>
+      <c r="BA50">
+        <v>9</v>
+      </c>
+      <c r="BB50">
+        <v>5</v>
+      </c>
+      <c r="BC50">
+        <v>14</v>
+      </c>
+      <c r="BD50">
+        <v>1.31</v>
+      </c>
+      <c r="BE50">
+        <v>9.5</v>
+      </c>
+      <c r="BF50">
+        <v>4.13</v>
+      </c>
+      <c r="BG50">
+        <v>1.27</v>
+      </c>
+      <c r="BH50">
+        <v>3.55</v>
+      </c>
+      <c r="BI50">
+        <v>1.5</v>
+      </c>
+      <c r="BJ50">
+        <v>2.48</v>
+      </c>
+      <c r="BK50">
+        <v>1.88</v>
+      </c>
+      <c r="BL50">
+        <v>1.92</v>
+      </c>
+      <c r="BM50">
+        <v>2.45</v>
+      </c>
+      <c r="BN50">
+        <v>1.5</v>
+      </c>
+      <c r="BO50">
+        <v>3.4</v>
+      </c>
+      <c r="BP50">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:68">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51">
+        <v>7325379</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
+      </c>
+      <c r="D51" t="s">
+        <v>69</v>
+      </c>
+      <c r="E51" s="2">
+        <v>45438.52083333334</v>
+      </c>
+      <c r="F51">
+        <v>8</v>
+      </c>
+      <c r="G51" t="s">
+        <v>73</v>
+      </c>
+      <c r="H51" t="s">
+        <v>70</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>2</v>
+      </c>
+      <c r="L51">
+        <v>1</v>
+      </c>
+      <c r="M51">
+        <v>1</v>
+      </c>
+      <c r="N51">
+        <v>2</v>
+      </c>
+      <c r="O51" t="s">
+        <v>121</v>
+      </c>
+      <c r="P51" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q51">
+        <v>2.75</v>
+      </c>
+      <c r="R51">
+        <v>2.4</v>
+      </c>
+      <c r="S51">
+        <v>3.4</v>
+      </c>
+      <c r="T51">
+        <v>1.29</v>
+      </c>
+      <c r="U51">
+        <v>3.5</v>
+      </c>
+      <c r="V51">
+        <v>2.2</v>
+      </c>
+      <c r="W51">
+        <v>1.62</v>
+      </c>
+      <c r="X51">
+        <v>5.5</v>
+      </c>
+      <c r="Y51">
+        <v>1.14</v>
+      </c>
+      <c r="Z51">
+        <v>2.14</v>
+      </c>
+      <c r="AA51">
+        <v>3.4</v>
+      </c>
+      <c r="AB51">
+        <v>3</v>
+      </c>
+      <c r="AC51">
+        <v>1.02</v>
+      </c>
+      <c r="AD51">
+        <v>19</v>
+      </c>
+      <c r="AE51">
+        <v>1.17</v>
+      </c>
+      <c r="AF51">
+        <v>5</v>
+      </c>
+      <c r="AG51">
+        <v>1.75</v>
+      </c>
+      <c r="AH51">
+        <v>1.96</v>
+      </c>
+      <c r="AI51">
+        <v>1.44</v>
+      </c>
+      <c r="AJ51">
+        <v>2.63</v>
+      </c>
+      <c r="AK51">
+        <v>1.42</v>
+      </c>
+      <c r="AL51">
+        <v>1.3</v>
+      </c>
+      <c r="AM51">
+        <v>1.72</v>
+      </c>
+      <c r="AN51">
+        <v>1.75</v>
+      </c>
+      <c r="AO51">
+        <v>1</v>
+      </c>
+      <c r="AP51">
+        <v>1.6</v>
+      </c>
+      <c r="AQ51">
+        <v>1</v>
+      </c>
+      <c r="AR51">
+        <v>1.21</v>
+      </c>
+      <c r="AS51">
+        <v>0.98</v>
+      </c>
+      <c r="AT51">
+        <v>2.19</v>
+      </c>
+      <c r="AU51">
+        <v>3</v>
+      </c>
+      <c r="AV51">
+        <v>5</v>
+      </c>
+      <c r="AW51">
+        <v>4</v>
+      </c>
+      <c r="AX51">
+        <v>9</v>
+      </c>
+      <c r="AY51">
+        <v>7</v>
+      </c>
+      <c r="AZ51">
+        <v>14</v>
+      </c>
+      <c r="BA51">
+        <v>3</v>
+      </c>
+      <c r="BB51">
+        <v>8</v>
+      </c>
+      <c r="BC51">
+        <v>11</v>
+      </c>
+      <c r="BD51">
+        <v>2</v>
+      </c>
+      <c r="BE51">
+        <v>8</v>
+      </c>
+      <c r="BF51">
+        <v>2.05</v>
+      </c>
+      <c r="BG51">
+        <v>1.22</v>
+      </c>
+      <c r="BH51">
+        <v>4</v>
+      </c>
+      <c r="BI51">
+        <v>1.41</v>
+      </c>
+      <c r="BJ51">
+        <v>2.75</v>
+      </c>
+      <c r="BK51">
+        <v>1.73</v>
+      </c>
+      <c r="BL51">
+        <v>2</v>
+      </c>
+      <c r="BM51">
+        <v>2.23</v>
+      </c>
+      <c r="BN51">
+        <v>1.61</v>
+      </c>
+      <c r="BO51">
+        <v>3</v>
+      </c>
+      <c r="BP51">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="368" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -382,6 +382,9 @@
     <t>['16']</t>
   </si>
   <si>
+    <t>['17', '26', '90+3']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -479,6 +482,12 @@
   </si>
   <si>
     <t>['26']</t>
+  </si>
+  <si>
+    <t>['9', '14', '28', '43']</t>
+  </si>
+  <si>
+    <t>['90+2']</t>
   </si>
 </sst>
 </file>
@@ -840,7 +849,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP51"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1099,7 +1108,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1511,7 +1520,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1717,7 +1726,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1923,7 +1932,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2129,7 +2138,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2541,7 +2550,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2747,7 +2756,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2825,10 +2834,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
+        <v>2</v>
+      </c>
+      <c r="AQ10">
         <v>1.75</v>
-      </c>
-      <c r="AQ10">
-        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2953,7 +2962,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3159,7 +3168,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3365,7 +3374,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3777,7 +3786,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3983,7 +3992,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4267,7 +4276,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4395,7 +4404,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4473,7 +4482,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4601,7 +4610,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4807,7 +4816,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5013,7 +5022,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5219,7 +5228,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5425,7 +5434,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5503,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.67</v>
@@ -5631,7 +5640,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5837,7 +5846,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5918,7 +5927,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6043,7 +6052,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6327,7 +6336,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6455,7 +6464,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6867,7 +6876,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7073,7 +7082,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7279,7 +7288,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7485,7 +7494,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7772,7 +7781,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -7897,7 +7906,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8103,7 +8112,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8309,7 +8318,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8593,7 +8602,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.33</v>
@@ -8721,7 +8730,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8927,7 +8936,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9133,7 +9142,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9751,7 +9760,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9957,7 +9966,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10035,7 +10044,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ45">
         <v>1.67</v>
@@ -10575,7 +10584,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10987,7 +10996,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11080,22 +11089,22 @@
         <v>2.05</v>
       </c>
       <c r="AU50">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV50">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW50">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AX50">
+        <v>2</v>
+      </c>
+      <c r="AY50">
         <v>6</v>
       </c>
-      <c r="AY50">
-        <v>16</v>
-      </c>
       <c r="AZ50">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BA50">
         <v>9</v>
@@ -11193,7 +11202,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11286,22 +11295,22 @@
         <v>2.19</v>
       </c>
       <c r="AU51">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV51">
+        <v>6</v>
+      </c>
+      <c r="AW51">
+        <v>3</v>
+      </c>
+      <c r="AX51">
+        <v>6</v>
+      </c>
+      <c r="AY51">
         <v>5</v>
       </c>
-      <c r="AW51">
-        <v>4</v>
-      </c>
-      <c r="AX51">
-        <v>9</v>
-      </c>
-      <c r="AY51">
-        <v>7</v>
-      </c>
       <c r="AZ51">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -11349,6 +11358,418 @@
         <v>3</v>
       </c>
       <c r="BP51">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="52" spans="1:68">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52">
+        <v>7325381</v>
+      </c>
+      <c r="C52" t="s">
+        <v>68</v>
+      </c>
+      <c r="D52" t="s">
+        <v>69</v>
+      </c>
+      <c r="E52" s="2">
+        <v>45439.5</v>
+      </c>
+      <c r="F52">
+        <v>8</v>
+      </c>
+      <c r="G52" t="s">
+        <v>79</v>
+      </c>
+      <c r="H52" t="s">
+        <v>72</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>4</v>
+      </c>
+      <c r="K52">
+        <v>4</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>4</v>
+      </c>
+      <c r="N52">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>83</v>
+      </c>
+      <c r="P52" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q52">
+        <v>4</v>
+      </c>
+      <c r="R52">
+        <v>2.2</v>
+      </c>
+      <c r="S52">
+        <v>2.63</v>
+      </c>
+      <c r="T52">
+        <v>1.4</v>
+      </c>
+      <c r="U52">
+        <v>2.75</v>
+      </c>
+      <c r="V52">
+        <v>2.75</v>
+      </c>
+      <c r="W52">
+        <v>1.4</v>
+      </c>
+      <c r="X52">
+        <v>8</v>
+      </c>
+      <c r="Y52">
+        <v>1.08</v>
+      </c>
+      <c r="Z52">
+        <v>3.45</v>
+      </c>
+      <c r="AA52">
+        <v>3.22</v>
+      </c>
+      <c r="AB52">
+        <v>2.04</v>
+      </c>
+      <c r="AC52">
+        <v>1.01</v>
+      </c>
+      <c r="AD52">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE52">
+        <v>1.26</v>
+      </c>
+      <c r="AF52">
+        <v>3.34</v>
+      </c>
+      <c r="AG52">
+        <v>1.78</v>
+      </c>
+      <c r="AH52">
+        <v>1.95</v>
+      </c>
+      <c r="AI52">
+        <v>1.8</v>
+      </c>
+      <c r="AJ52">
+        <v>1.95</v>
+      </c>
+      <c r="AK52">
+        <v>1.81</v>
+      </c>
+      <c r="AL52">
+        <v>1.29</v>
+      </c>
+      <c r="AM52">
+        <v>1.29</v>
+      </c>
+      <c r="AN52">
+        <v>1.33</v>
+      </c>
+      <c r="AO52">
+        <v>1.33</v>
+      </c>
+      <c r="AP52">
+        <v>1</v>
+      </c>
+      <c r="AQ52">
+        <v>1.75</v>
+      </c>
+      <c r="AR52">
+        <v>1.75</v>
+      </c>
+      <c r="AS52">
+        <v>1.65</v>
+      </c>
+      <c r="AT52">
+        <v>3.4</v>
+      </c>
+      <c r="AU52">
+        <v>2</v>
+      </c>
+      <c r="AV52">
+        <v>0</v>
+      </c>
+      <c r="AW52">
+        <v>1</v>
+      </c>
+      <c r="AX52">
+        <v>0</v>
+      </c>
+      <c r="AY52">
+        <v>3</v>
+      </c>
+      <c r="AZ52">
+        <v>0</v>
+      </c>
+      <c r="BA52">
+        <v>3</v>
+      </c>
+      <c r="BB52">
+        <v>3</v>
+      </c>
+      <c r="BC52">
+        <v>6</v>
+      </c>
+      <c r="BD52">
+        <v>2.2</v>
+      </c>
+      <c r="BE52">
+        <v>8</v>
+      </c>
+      <c r="BF52">
+        <v>1.91</v>
+      </c>
+      <c r="BG52">
+        <v>1.2</v>
+      </c>
+      <c r="BH52">
+        <v>4.25</v>
+      </c>
+      <c r="BI52">
+        <v>1.38</v>
+      </c>
+      <c r="BJ52">
+        <v>2.88</v>
+      </c>
+      <c r="BK52">
+        <v>1.67</v>
+      </c>
+      <c r="BL52">
+        <v>2.12</v>
+      </c>
+      <c r="BM52">
+        <v>2.12</v>
+      </c>
+      <c r="BN52">
+        <v>1.66</v>
+      </c>
+      <c r="BO52">
+        <v>2.85</v>
+      </c>
+      <c r="BP52">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:68">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+      <c r="B53">
+        <v>7325382</v>
+      </c>
+      <c r="C53" t="s">
+        <v>68</v>
+      </c>
+      <c r="D53" t="s">
+        <v>69</v>
+      </c>
+      <c r="E53" s="2">
+        <v>45439.5</v>
+      </c>
+      <c r="F53">
+        <v>8</v>
+      </c>
+      <c r="G53" t="s">
+        <v>77</v>
+      </c>
+      <c r="H53" t="s">
+        <v>78</v>
+      </c>
+      <c r="I53">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>2</v>
+      </c>
+      <c r="L53">
+        <v>3</v>
+      </c>
+      <c r="M53">
+        <v>1</v>
+      </c>
+      <c r="N53">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>122</v>
+      </c>
+      <c r="P53" t="s">
+        <v>157</v>
+      </c>
+      <c r="Q53">
+        <v>2.5</v>
+      </c>
+      <c r="R53">
+        <v>2.3</v>
+      </c>
+      <c r="S53">
+        <v>4</v>
+      </c>
+      <c r="T53">
+        <v>1.33</v>
+      </c>
+      <c r="U53">
+        <v>3.25</v>
+      </c>
+      <c r="V53">
+        <v>2.5</v>
+      </c>
+      <c r="W53">
+        <v>1.5</v>
+      </c>
+      <c r="X53">
+        <v>6.5</v>
+      </c>
+      <c r="Y53">
+        <v>1.11</v>
+      </c>
+      <c r="Z53">
+        <v>1.9</v>
+      </c>
+      <c r="AA53">
+        <v>3.6</v>
+      </c>
+      <c r="AB53">
+        <v>3.5</v>
+      </c>
+      <c r="AC53">
+        <v>1.03</v>
+      </c>
+      <c r="AD53">
+        <v>13</v>
+      </c>
+      <c r="AE53">
+        <v>1.22</v>
+      </c>
+      <c r="AF53">
+        <v>4.2</v>
+      </c>
+      <c r="AG53">
+        <v>1.7</v>
+      </c>
+      <c r="AH53">
+        <v>2.1</v>
+      </c>
+      <c r="AI53">
+        <v>1.62</v>
+      </c>
+      <c r="AJ53">
+        <v>2.2</v>
+      </c>
+      <c r="AK53">
+        <v>1.33</v>
+      </c>
+      <c r="AL53">
+        <v>1.3</v>
+      </c>
+      <c r="AM53">
+        <v>1.9</v>
+      </c>
+      <c r="AN53">
+        <v>1.75</v>
+      </c>
+      <c r="AO53">
+        <v>0</v>
+      </c>
+      <c r="AP53">
+        <v>2</v>
+      </c>
+      <c r="AQ53">
+        <v>0</v>
+      </c>
+      <c r="AR53">
+        <v>1.84</v>
+      </c>
+      <c r="AS53">
+        <v>1.35</v>
+      </c>
+      <c r="AT53">
+        <v>3.19</v>
+      </c>
+      <c r="AU53">
+        <v>2</v>
+      </c>
+      <c r="AV53">
+        <v>4</v>
+      </c>
+      <c r="AW53">
+        <v>6</v>
+      </c>
+      <c r="AX53">
+        <v>1</v>
+      </c>
+      <c r="AY53">
+        <v>8</v>
+      </c>
+      <c r="AZ53">
+        <v>5</v>
+      </c>
+      <c r="BA53">
+        <v>6</v>
+      </c>
+      <c r="BB53">
+        <v>3</v>
+      </c>
+      <c r="BC53">
+        <v>9</v>
+      </c>
+      <c r="BD53">
+        <v>2.1</v>
+      </c>
+      <c r="BE53">
+        <v>8</v>
+      </c>
+      <c r="BF53">
+        <v>1.91</v>
+      </c>
+      <c r="BG53">
+        <v>1.22</v>
+      </c>
+      <c r="BH53">
+        <v>4</v>
+      </c>
+      <c r="BI53">
+        <v>1.41</v>
+      </c>
+      <c r="BJ53">
+        <v>2.75</v>
+      </c>
+      <c r="BK53">
+        <v>1.73</v>
+      </c>
+      <c r="BL53">
+        <v>2.04</v>
+      </c>
+      <c r="BM53">
+        <v>2.23</v>
+      </c>
+      <c r="BN53">
+        <v>1.61</v>
+      </c>
+      <c r="BO53">
+        <v>3</v>
+      </c>
+      <c r="BP53">
         <v>1.36</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -11089,22 +11089,22 @@
         <v>2.05</v>
       </c>
       <c r="AU50">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AV50">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX50">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY50">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AZ50">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA50">
         <v>9</v>
@@ -11295,22 +11295,22 @@
         <v>2.19</v>
       </c>
       <c r="AU51">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV51">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW51">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX51">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AY51">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ51">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA51">
         <v>3</v>
@@ -11501,31 +11501,31 @@
         <v>3.4</v>
       </c>
       <c r="AU52">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW52">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX52">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY52">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AZ52">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="BA52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB52">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC52">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BD52">
         <v>2.2</v>
@@ -11707,31 +11707,31 @@
         <v>3.19</v>
       </c>
       <c r="AU53">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV53">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW53">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX53">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AY53">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AZ53">
+        <v>10</v>
+      </c>
+      <c r="BA53">
+        <v>7</v>
+      </c>
+      <c r="BB53">
         <v>5</v>
       </c>
-      <c r="BA53">
-        <v>6</v>
-      </c>
-      <c r="BB53">
-        <v>3</v>
-      </c>
       <c r="BC53">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD53">
         <v>2.1</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -11707,22 +11707,22 @@
         <v>3.19</v>
       </c>
       <c r="AU53">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV53">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW53">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AX53">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AY53">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="AZ53">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="BA53">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="161">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -385,6 +385,9 @@
     <t>['17', '26', '90+3']</t>
   </si>
   <si>
+    <t>['3', '40', '66']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -488,6 +491,12 @@
   </si>
   <si>
     <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['5', '90+4']</t>
+  </si>
+  <si>
+    <t>['54', '58']</t>
   </si>
 </sst>
 </file>
@@ -849,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1108,7 +1117,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1392,7 +1401,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1520,7 +1529,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1598,7 +1607,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4">
         <v>0.4</v>
@@ -1726,7 +1735,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1932,7 +1941,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2138,7 +2147,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2219,7 +2228,7 @@
         <v>3</v>
       </c>
       <c r="AQ7">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2550,7 +2559,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2756,7 +2765,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2962,7 +2971,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3040,7 +3049,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ11">
         <v>0.4</v>
@@ -3168,7 +3177,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3246,7 +3255,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3374,7 +3383,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3455,7 +3464,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ13">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3658,7 +3667,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ14">
         <v>1.75</v>
@@ -3786,7 +3795,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3864,10 +3873,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ15">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -3992,7 +4001,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4073,7 +4082,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ16">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4279,7 +4288,7 @@
         <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4404,7 +4413,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4610,7 +4619,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4816,7 +4825,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4894,10 +4903,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ20">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5022,7 +5031,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5100,7 +5109,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ21">
         <v>0.2</v>
@@ -5228,7 +5237,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5309,7 +5318,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5434,7 +5443,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5515,7 +5524,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5640,7 +5649,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5718,7 +5727,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ24">
         <v>2.25</v>
@@ -5846,7 +5855,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6052,7 +6061,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6464,7 +6473,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6542,7 +6551,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28">
         <v>0.4</v>
@@ -6876,7 +6885,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6954,10 +6963,10 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ30">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7082,7 +7091,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7163,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7288,7 +7297,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7494,7 +7503,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7906,7 +7915,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -7984,7 +7993,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8112,7 +8121,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8190,10 +8199,10 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AQ36">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8318,7 +8327,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8605,7 +8614,7 @@
         <v>1</v>
       </c>
       <c r="AQ38">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8730,7 +8739,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8936,7 +8945,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9014,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>0.33</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9142,7 +9151,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9220,7 +9229,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ41">
         <v>0</v>
@@ -9426,10 +9435,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9635,7 +9644,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9760,7 +9769,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9966,7 +9975,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10047,7 +10056,7 @@
         <v>2</v>
       </c>
       <c r="AQ45">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10456,7 +10465,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AQ47">
         <v>0</v>
@@ -10584,7 +10593,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10996,7 +11005,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11202,7 +11211,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11408,7 +11417,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11614,7 +11623,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11771,6 +11780,830 @@
       </c>
       <c r="BP53">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="54" spans="1:68">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+      <c r="B54">
+        <v>7325383</v>
+      </c>
+      <c r="C54" t="s">
+        <v>68</v>
+      </c>
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" s="2">
+        <v>45443.5</v>
+      </c>
+      <c r="F54">
+        <v>9</v>
+      </c>
+      <c r="G54" t="s">
+        <v>78</v>
+      </c>
+      <c r="H54" t="s">
+        <v>74</v>
+      </c>
+      <c r="I54">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>2</v>
+      </c>
+      <c r="L54">
+        <v>3</v>
+      </c>
+      <c r="M54">
+        <v>1</v>
+      </c>
+      <c r="N54">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>123</v>
+      </c>
+      <c r="P54" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q54">
+        <v>2.63</v>
+      </c>
+      <c r="R54">
+        <v>2.28</v>
+      </c>
+      <c r="S54">
+        <v>3.76</v>
+      </c>
+      <c r="T54">
+        <v>1.31</v>
+      </c>
+      <c r="U54">
+        <v>3.28</v>
+      </c>
+      <c r="V54">
+        <v>2.46</v>
+      </c>
+      <c r="W54">
+        <v>1.51</v>
+      </c>
+      <c r="X54">
+        <v>5.8</v>
+      </c>
+      <c r="Y54">
+        <v>1.12</v>
+      </c>
+      <c r="Z54">
+        <v>2.05</v>
+      </c>
+      <c r="AA54">
+        <v>3.4</v>
+      </c>
+      <c r="AB54">
+        <v>3</v>
+      </c>
+      <c r="AC54">
+        <v>1.01</v>
+      </c>
+      <c r="AD54">
+        <v>10.5</v>
+      </c>
+      <c r="AE54">
+        <v>1.22</v>
+      </c>
+      <c r="AF54">
+        <v>4.52</v>
+      </c>
+      <c r="AG54">
+        <v>1.65</v>
+      </c>
+      <c r="AH54">
+        <v>2.1</v>
+      </c>
+      <c r="AI54">
+        <v>1.58</v>
+      </c>
+      <c r="AJ54">
+        <v>2.31</v>
+      </c>
+      <c r="AK54">
+        <v>1.35</v>
+      </c>
+      <c r="AL54">
+        <v>1.28</v>
+      </c>
+      <c r="AM54">
+        <v>1.73</v>
+      </c>
+      <c r="AN54">
+        <v>1.25</v>
+      </c>
+      <c r="AO54">
+        <v>1.33</v>
+      </c>
+      <c r="AP54">
+        <v>1.6</v>
+      </c>
+      <c r="AQ54">
+        <v>1</v>
+      </c>
+      <c r="AR54">
+        <v>1.56</v>
+      </c>
+      <c r="AS54">
+        <v>1.34</v>
+      </c>
+      <c r="AT54">
+        <v>2.9</v>
+      </c>
+      <c r="AU54">
+        <v>4</v>
+      </c>
+      <c r="AV54">
+        <v>0</v>
+      </c>
+      <c r="AW54">
+        <v>7</v>
+      </c>
+      <c r="AX54">
+        <v>4</v>
+      </c>
+      <c r="AY54">
+        <v>11</v>
+      </c>
+      <c r="AZ54">
+        <v>4</v>
+      </c>
+      <c r="BA54">
+        <v>8</v>
+      </c>
+      <c r="BB54">
+        <v>10</v>
+      </c>
+      <c r="BC54">
+        <v>18</v>
+      </c>
+      <c r="BD54">
+        <v>1.64</v>
+      </c>
+      <c r="BE54">
+        <v>8.5</v>
+      </c>
+      <c r="BF54">
+        <v>2.66</v>
+      </c>
+      <c r="BG54">
+        <v>1.21</v>
+      </c>
+      <c r="BH54">
+        <v>3.74</v>
+      </c>
+      <c r="BI54">
+        <v>1.42</v>
+      </c>
+      <c r="BJ54">
+        <v>2.65</v>
+      </c>
+      <c r="BK54">
+        <v>1.75</v>
+      </c>
+      <c r="BL54">
+        <v>2.01</v>
+      </c>
+      <c r="BM54">
+        <v>2.19</v>
+      </c>
+      <c r="BN54">
+        <v>1.6</v>
+      </c>
+      <c r="BO54">
+        <v>2.91</v>
+      </c>
+      <c r="BP54">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="55" spans="1:68">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+      <c r="B55">
+        <v>7325384</v>
+      </c>
+      <c r="C55" t="s">
+        <v>68</v>
+      </c>
+      <c r="D55" t="s">
+        <v>69</v>
+      </c>
+      <c r="E55" s="2">
+        <v>45443.5</v>
+      </c>
+      <c r="F55">
+        <v>9</v>
+      </c>
+      <c r="G55" t="s">
+        <v>71</v>
+      </c>
+      <c r="H55" t="s">
+        <v>75</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>1</v>
+      </c>
+      <c r="M55">
+        <v>2</v>
+      </c>
+      <c r="N55">
+        <v>3</v>
+      </c>
+      <c r="O55" t="s">
+        <v>94</v>
+      </c>
+      <c r="P55" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q55">
+        <v>2.7</v>
+      </c>
+      <c r="R55">
+        <v>2.15</v>
+      </c>
+      <c r="S55">
+        <v>3.75</v>
+      </c>
+      <c r="T55">
+        <v>1.36</v>
+      </c>
+      <c r="U55">
+        <v>2.9</v>
+      </c>
+      <c r="V55">
+        <v>2.62</v>
+      </c>
+      <c r="W55">
+        <v>1.42</v>
+      </c>
+      <c r="X55">
+        <v>6</v>
+      </c>
+      <c r="Y55">
+        <v>1.09</v>
+      </c>
+      <c r="Z55">
+        <v>2.26</v>
+      </c>
+      <c r="AA55">
+        <v>3.5</v>
+      </c>
+      <c r="AB55">
+        <v>3.22</v>
+      </c>
+      <c r="AC55">
+        <v>1.02</v>
+      </c>
+      <c r="AD55">
+        <v>10</v>
+      </c>
+      <c r="AE55">
+        <v>1.29</v>
+      </c>
+      <c r="AF55">
+        <v>3.4</v>
+      </c>
+      <c r="AG55">
+        <v>1.91</v>
+      </c>
+      <c r="AH55">
+        <v>1.96</v>
+      </c>
+      <c r="AI55">
+        <v>1.7</v>
+      </c>
+      <c r="AJ55">
+        <v>2.05</v>
+      </c>
+      <c r="AK55">
+        <v>1.35</v>
+      </c>
+      <c r="AL55">
+        <v>1.3</v>
+      </c>
+      <c r="AM55">
+        <v>1.7</v>
+      </c>
+      <c r="AN55">
+        <v>2</v>
+      </c>
+      <c r="AO55">
+        <v>1.67</v>
+      </c>
+      <c r="AP55">
+        <v>1.67</v>
+      </c>
+      <c r="AQ55">
+        <v>1.86</v>
+      </c>
+      <c r="AR55">
+        <v>2.04</v>
+      </c>
+      <c r="AS55">
+        <v>1.64</v>
+      </c>
+      <c r="AT55">
+        <v>3.68</v>
+      </c>
+      <c r="AU55">
+        <v>2</v>
+      </c>
+      <c r="AV55">
+        <v>0</v>
+      </c>
+      <c r="AW55">
+        <v>3</v>
+      </c>
+      <c r="AX55">
+        <v>3</v>
+      </c>
+      <c r="AY55">
+        <v>5</v>
+      </c>
+      <c r="AZ55">
+        <v>3</v>
+      </c>
+      <c r="BA55">
+        <v>2</v>
+      </c>
+      <c r="BB55">
+        <v>5</v>
+      </c>
+      <c r="BC55">
+        <v>7</v>
+      </c>
+      <c r="BD55">
+        <v>1.75</v>
+      </c>
+      <c r="BE55">
+        <v>8</v>
+      </c>
+      <c r="BF55">
+        <v>2.44</v>
+      </c>
+      <c r="BG55">
+        <v>1.24</v>
+      </c>
+      <c r="BH55">
+        <v>3.48</v>
+      </c>
+      <c r="BI55">
+        <v>1.47</v>
+      </c>
+      <c r="BJ55">
+        <v>2.49</v>
+      </c>
+      <c r="BK55">
+        <v>1.85</v>
+      </c>
+      <c r="BL55">
+        <v>1.95</v>
+      </c>
+      <c r="BM55">
+        <v>2.33</v>
+      </c>
+      <c r="BN55">
+        <v>1.53</v>
+      </c>
+      <c r="BO55">
+        <v>3.08</v>
+      </c>
+      <c r="BP55">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:68">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+      <c r="B56">
+        <v>7325385</v>
+      </c>
+      <c r="C56" t="s">
+        <v>68</v>
+      </c>
+      <c r="D56" t="s">
+        <v>69</v>
+      </c>
+      <c r="E56" s="2">
+        <v>45443.5</v>
+      </c>
+      <c r="F56">
+        <v>9</v>
+      </c>
+      <c r="G56" t="s">
+        <v>72</v>
+      </c>
+      <c r="H56" t="s">
+        <v>73</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>2</v>
+      </c>
+      <c r="N56">
+        <v>2</v>
+      </c>
+      <c r="O56" t="s">
+        <v>83</v>
+      </c>
+      <c r="P56" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q56">
+        <v>2.05</v>
+      </c>
+      <c r="R56">
+        <v>2.4</v>
+      </c>
+      <c r="S56">
+        <v>5</v>
+      </c>
+      <c r="T56">
+        <v>1.3</v>
+      </c>
+      <c r="U56">
+        <v>3.34</v>
+      </c>
+      <c r="V56">
+        <v>2.41</v>
+      </c>
+      <c r="W56">
+        <v>1.53</v>
+      </c>
+      <c r="X56">
+        <v>5.65</v>
+      </c>
+      <c r="Y56">
+        <v>1.12</v>
+      </c>
+      <c r="Z56">
+        <v>1.53</v>
+      </c>
+      <c r="AA56">
+        <v>4</v>
+      </c>
+      <c r="AB56">
+        <v>5</v>
+      </c>
+      <c r="AC56">
+        <v>1.01</v>
+      </c>
+      <c r="AD56">
+        <v>10.5</v>
+      </c>
+      <c r="AE56">
+        <v>1.17</v>
+      </c>
+      <c r="AF56">
+        <v>4.2</v>
+      </c>
+      <c r="AG56">
+        <v>1.7</v>
+      </c>
+      <c r="AH56">
+        <v>2</v>
+      </c>
+      <c r="AI56">
+        <v>1.73</v>
+      </c>
+      <c r="AJ56">
+        <v>2</v>
+      </c>
+      <c r="AK56">
+        <v>1.17</v>
+      </c>
+      <c r="AL56">
+        <v>1.22</v>
+      </c>
+      <c r="AM56">
+        <v>2.38</v>
+      </c>
+      <c r="AN56">
+        <v>2.2</v>
+      </c>
+      <c r="AO56">
+        <v>0.33</v>
+      </c>
+      <c r="AP56">
+        <v>1.83</v>
+      </c>
+      <c r="AQ56">
+        <v>1</v>
+      </c>
+      <c r="AR56">
+        <v>1.54</v>
+      </c>
+      <c r="AS56">
+        <v>1</v>
+      </c>
+      <c r="AT56">
+        <v>2.54</v>
+      </c>
+      <c r="AU56">
+        <v>5</v>
+      </c>
+      <c r="AV56">
+        <v>2</v>
+      </c>
+      <c r="AW56">
+        <v>4</v>
+      </c>
+      <c r="AX56">
+        <v>2</v>
+      </c>
+      <c r="AY56">
+        <v>9</v>
+      </c>
+      <c r="AZ56">
+        <v>4</v>
+      </c>
+      <c r="BA56">
+        <v>2</v>
+      </c>
+      <c r="BB56">
+        <v>1</v>
+      </c>
+      <c r="BC56">
+        <v>3</v>
+      </c>
+      <c r="BD56">
+        <v>1.31</v>
+      </c>
+      <c r="BE56">
+        <v>9.5</v>
+      </c>
+      <c r="BF56">
+        <v>4.13</v>
+      </c>
+      <c r="BG56">
+        <v>1.21</v>
+      </c>
+      <c r="BH56">
+        <v>3.74</v>
+      </c>
+      <c r="BI56">
+        <v>1.41</v>
+      </c>
+      <c r="BJ56">
+        <v>2.69</v>
+      </c>
+      <c r="BK56">
+        <v>1.73</v>
+      </c>
+      <c r="BL56">
+        <v>2.04</v>
+      </c>
+      <c r="BM56">
+        <v>2.17</v>
+      </c>
+      <c r="BN56">
+        <v>1.61</v>
+      </c>
+      <c r="BO56">
+        <v>2.84</v>
+      </c>
+      <c r="BP56">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:68">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+      <c r="B57">
+        <v>7325386</v>
+      </c>
+      <c r="C57" t="s">
+        <v>68</v>
+      </c>
+      <c r="D57" t="s">
+        <v>69</v>
+      </c>
+      <c r="E57" s="2">
+        <v>45443.58333333334</v>
+      </c>
+      <c r="F57">
+        <v>9</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
+      <c r="H57" t="s">
+        <v>76</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>1</v>
+      </c>
+      <c r="L57">
+        <v>1</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>1</v>
+      </c>
+      <c r="O57" t="s">
+        <v>115</v>
+      </c>
+      <c r="P57" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q57">
+        <v>4.88</v>
+      </c>
+      <c r="R57">
+        <v>2.36</v>
+      </c>
+      <c r="S57">
+        <v>2.19</v>
+      </c>
+      <c r="T57">
+        <v>1.31</v>
+      </c>
+      <c r="U57">
+        <v>3.28</v>
+      </c>
+      <c r="V57">
+        <v>2.53</v>
+      </c>
+      <c r="W57">
+        <v>1.54</v>
+      </c>
+      <c r="X57">
+        <v>5.7</v>
+      </c>
+      <c r="Y57">
+        <v>1.12</v>
+      </c>
+      <c r="Z57">
+        <v>4</v>
+      </c>
+      <c r="AA57">
+        <v>3.6</v>
+      </c>
+      <c r="AB57">
+        <v>1.7</v>
+      </c>
+      <c r="AC57">
+        <v>1.01</v>
+      </c>
+      <c r="AD57">
+        <v>11</v>
+      </c>
+      <c r="AE57">
+        <v>1.2</v>
+      </c>
+      <c r="AF57">
+        <v>4</v>
+      </c>
+      <c r="AG57">
+        <v>1.6</v>
+      </c>
+      <c r="AH57">
+        <v>2.2</v>
+      </c>
+      <c r="AI57">
+        <v>1.68</v>
+      </c>
+      <c r="AJ57">
+        <v>2.13</v>
+      </c>
+      <c r="AK57">
+        <v>2.22</v>
+      </c>
+      <c r="AL57">
+        <v>1.23</v>
+      </c>
+      <c r="AM57">
+        <v>1.19</v>
+      </c>
+      <c r="AN57">
+        <v>0.67</v>
+      </c>
+      <c r="AO57">
+        <v>1.25</v>
+      </c>
+      <c r="AP57">
+        <v>1.25</v>
+      </c>
+      <c r="AQ57">
+        <v>1</v>
+      </c>
+      <c r="AR57">
+        <v>1.45</v>
+      </c>
+      <c r="AS57">
+        <v>1.28</v>
+      </c>
+      <c r="AT57">
+        <v>2.73</v>
+      </c>
+      <c r="AU57">
+        <v>3</v>
+      </c>
+      <c r="AV57">
+        <v>2</v>
+      </c>
+      <c r="AW57">
+        <v>1</v>
+      </c>
+      <c r="AX57">
+        <v>4</v>
+      </c>
+      <c r="AY57">
+        <v>4</v>
+      </c>
+      <c r="AZ57">
+        <v>6</v>
+      </c>
+      <c r="BA57">
+        <v>4</v>
+      </c>
+      <c r="BB57">
+        <v>4</v>
+      </c>
+      <c r="BC57">
+        <v>8</v>
+      </c>
+      <c r="BD57">
+        <v>2.66</v>
+      </c>
+      <c r="BE57">
+        <v>8.5</v>
+      </c>
+      <c r="BF57">
+        <v>1.64</v>
+      </c>
+      <c r="BG57">
+        <v>1.21</v>
+      </c>
+      <c r="BH57">
+        <v>3.74</v>
+      </c>
+      <c r="BI57">
+        <v>1.42</v>
+      </c>
+      <c r="BJ57">
+        <v>2.65</v>
+      </c>
+      <c r="BK57">
+        <v>1.75</v>
+      </c>
+      <c r="BL57">
+        <v>2.01</v>
+      </c>
+      <c r="BM57">
+        <v>2.19</v>
+      </c>
+      <c r="BN57">
+        <v>1.6</v>
+      </c>
+      <c r="BO57">
+        <v>2.88</v>
+      </c>
+      <c r="BP57">
+        <v>1.34</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -11922,22 +11922,22 @@
         <v>2.9</v>
       </c>
       <c r="AU54">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV54">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW54">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX54">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY54">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AZ54">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BA54">
         <v>8</v>
@@ -12128,31 +12128,31 @@
         <v>3.68</v>
       </c>
       <c r="AU55">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV55">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW55">
+        <v>8</v>
+      </c>
+      <c r="AX55">
+        <v>9</v>
+      </c>
+      <c r="AY55">
+        <v>11</v>
+      </c>
+      <c r="AZ55">
+        <v>13</v>
+      </c>
+      <c r="BA55">
         <v>3</v>
       </c>
-      <c r="AX55">
-        <v>3</v>
-      </c>
-      <c r="AY55">
-        <v>5</v>
-      </c>
-      <c r="AZ55">
-        <v>3</v>
-      </c>
-      <c r="BA55">
-        <v>2</v>
-      </c>
       <c r="BB55">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC55">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD55">
         <v>1.75</v>
@@ -12334,31 +12334,31 @@
         <v>2.54</v>
       </c>
       <c r="AU56">
+        <v>4</v>
+      </c>
+      <c r="AV56">
         <v>5</v>
       </c>
-      <c r="AV56">
-        <v>2</v>
-      </c>
       <c r="AW56">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AX56">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY56">
+        <v>17</v>
+      </c>
+      <c r="AZ56">
+        <v>8</v>
+      </c>
+      <c r="BA56">
         <v>9</v>
       </c>
-      <c r="AZ56">
-        <v>4</v>
-      </c>
-      <c r="BA56">
-        <v>2</v>
-      </c>
       <c r="BB56">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC56">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="BD56">
         <v>1.31</v>
@@ -12546,16 +12546,16 @@
         <v>2</v>
       </c>
       <c r="AW57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX57">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY57">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AZ57">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA57">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -388,6 +388,9 @@
     <t>['3', '40', '66']</t>
   </si>
   <si>
+    <t>['31', '64']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -497,6 +500,9 @@
   </si>
   <si>
     <t>['54', '58']</t>
+  </si>
+  <si>
+    <t>['70', '75']</t>
   </si>
 </sst>
 </file>
@@ -858,7 +864,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1117,7 +1123,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1195,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ2">
         <v>0</v>
@@ -1404,7 +1410,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1529,7 +1535,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1735,7 +1741,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1941,7 +1947,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2022,7 +2028,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2147,7 +2153,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2434,7 +2440,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2559,7 +2565,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2765,7 +2771,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2971,7 +2977,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3177,7 +3183,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3383,7 +3389,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3795,7 +3801,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -4001,7 +4007,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4413,7 +4419,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4619,7 +4625,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4697,7 +4703,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
         <v>0.4</v>
@@ -4825,7 +4831,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5031,7 +5037,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5237,7 +5243,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5443,7 +5449,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5649,7 +5655,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5730,7 +5736,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ24">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5855,7 +5861,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5933,7 +5939,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25">
         <v>1.75</v>
@@ -6061,7 +6067,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6348,7 +6354,7 @@
         <v>2</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6473,7 +6479,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6885,7 +6891,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7091,7 +7097,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7169,7 +7175,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7297,7 +7303,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7503,7 +7509,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7584,7 +7590,7 @@
         <v>3</v>
       </c>
       <c r="AQ33">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7915,7 +7921,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8121,7 +8127,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8327,7 +8333,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8405,7 +8411,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ37">
         <v>1.75</v>
@@ -8739,7 +8745,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8820,7 +8826,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ39">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -8945,7 +8951,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9151,7 +9157,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9641,7 +9647,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ43">
         <v>1.86</v>
@@ -9769,7 +9775,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9847,10 +9853,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -9975,7 +9981,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10593,7 +10599,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11005,7 +11011,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11211,7 +11217,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11417,7 +11423,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11623,7 +11629,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11829,7 +11835,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12035,7 +12041,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12241,7 +12247,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12604,6 +12610,418 @@
       </c>
       <c r="BP57">
         <v>1.34</v>
+      </c>
+    </row>
+    <row r="58" spans="1:68">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+      <c r="B58">
+        <v>7325387</v>
+      </c>
+      <c r="C58" t="s">
+        <v>68</v>
+      </c>
+      <c r="D58" t="s">
+        <v>69</v>
+      </c>
+      <c r="E58" s="2">
+        <v>45445.41666666666</v>
+      </c>
+      <c r="F58">
+        <v>9</v>
+      </c>
+      <c r="G58" t="s">
+        <v>70</v>
+      </c>
+      <c r="H58" t="s">
+        <v>79</v>
+      </c>
+      <c r="I58">
+        <v>1</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>2</v>
+      </c>
+      <c r="L58">
+        <v>2</v>
+      </c>
+      <c r="M58">
+        <v>1</v>
+      </c>
+      <c r="N58">
+        <v>3</v>
+      </c>
+      <c r="O58" t="s">
+        <v>124</v>
+      </c>
+      <c r="P58" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q58">
+        <v>2.65</v>
+      </c>
+      <c r="R58">
+        <v>2.2</v>
+      </c>
+      <c r="S58">
+        <v>4</v>
+      </c>
+      <c r="T58">
+        <v>1.38</v>
+      </c>
+      <c r="U58">
+        <v>3</v>
+      </c>
+      <c r="V58">
+        <v>2.8</v>
+      </c>
+      <c r="W58">
+        <v>1.42</v>
+      </c>
+      <c r="X58">
+        <v>7</v>
+      </c>
+      <c r="Y58">
+        <v>1.09</v>
+      </c>
+      <c r="Z58">
+        <v>2.07</v>
+      </c>
+      <c r="AA58">
+        <v>3.45</v>
+      </c>
+      <c r="AB58">
+        <v>3.25</v>
+      </c>
+      <c r="AC58">
+        <v>1.05</v>
+      </c>
+      <c r="AD58">
+        <v>11</v>
+      </c>
+      <c r="AE58">
+        <v>1.28</v>
+      </c>
+      <c r="AF58">
+        <v>3.6</v>
+      </c>
+      <c r="AG58">
+        <v>1.91</v>
+      </c>
+      <c r="AH58">
+        <v>1.95</v>
+      </c>
+      <c r="AI58">
+        <v>1.75</v>
+      </c>
+      <c r="AJ58">
+        <v>2.05</v>
+      </c>
+      <c r="AK58">
+        <v>1.33</v>
+      </c>
+      <c r="AL58">
+        <v>1.33</v>
+      </c>
+      <c r="AM58">
+        <v>1.87</v>
+      </c>
+      <c r="AN58">
+        <v>1</v>
+      </c>
+      <c r="AO58">
+        <v>0.5</v>
+      </c>
+      <c r="AP58">
+        <v>1.4</v>
+      </c>
+      <c r="AQ58">
+        <v>0.4</v>
+      </c>
+      <c r="AR58">
+        <v>1.58</v>
+      </c>
+      <c r="AS58">
+        <v>0.96</v>
+      </c>
+      <c r="AT58">
+        <v>2.54</v>
+      </c>
+      <c r="AU58">
+        <v>8</v>
+      </c>
+      <c r="AV58">
+        <v>3</v>
+      </c>
+      <c r="AW58">
+        <v>7</v>
+      </c>
+      <c r="AX58">
+        <v>7</v>
+      </c>
+      <c r="AY58">
+        <v>15</v>
+      </c>
+      <c r="AZ58">
+        <v>10</v>
+      </c>
+      <c r="BA58">
+        <v>6</v>
+      </c>
+      <c r="BB58">
+        <v>2</v>
+      </c>
+      <c r="BC58">
+        <v>8</v>
+      </c>
+      <c r="BD58">
+        <v>1.75</v>
+      </c>
+      <c r="BE58">
+        <v>8.5</v>
+      </c>
+      <c r="BF58">
+        <v>2.41</v>
+      </c>
+      <c r="BG58">
+        <v>1.16</v>
+      </c>
+      <c r="BH58">
+        <v>4.33</v>
+      </c>
+      <c r="BI58">
+        <v>1.33</v>
+      </c>
+      <c r="BJ58">
+        <v>2.93</v>
+      </c>
+      <c r="BK58">
+        <v>1.66</v>
+      </c>
+      <c r="BL58">
+        <v>2.19</v>
+      </c>
+      <c r="BM58">
+        <v>2</v>
+      </c>
+      <c r="BN58">
+        <v>1.8</v>
+      </c>
+      <c r="BO58">
+        <v>2.58</v>
+      </c>
+      <c r="BP58">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="59" spans="1:68">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+      <c r="B59">
+        <v>7325388</v>
+      </c>
+      <c r="C59" t="s">
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="2">
+        <v>45445.52083333334</v>
+      </c>
+      <c r="F59">
+        <v>9</v>
+      </c>
+      <c r="G59" t="s">
+        <v>80</v>
+      </c>
+      <c r="H59" t="s">
+        <v>77</v>
+      </c>
+      <c r="I59">
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>1</v>
+      </c>
+      <c r="M59">
+        <v>2</v>
+      </c>
+      <c r="N59">
+        <v>3</v>
+      </c>
+      <c r="O59" t="s">
+        <v>116</v>
+      </c>
+      <c r="P59" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q59">
+        <v>6</v>
+      </c>
+      <c r="R59">
+        <v>2.38</v>
+      </c>
+      <c r="S59">
+        <v>2.05</v>
+      </c>
+      <c r="T59">
+        <v>1.33</v>
+      </c>
+      <c r="U59">
+        <v>3.25</v>
+      </c>
+      <c r="V59">
+        <v>2.5</v>
+      </c>
+      <c r="W59">
+        <v>1.5</v>
+      </c>
+      <c r="X59">
+        <v>6.5</v>
+      </c>
+      <c r="Y59">
+        <v>1.11</v>
+      </c>
+      <c r="Z59">
+        <v>5.1</v>
+      </c>
+      <c r="AA59">
+        <v>4.05</v>
+      </c>
+      <c r="AB59">
+        <v>1.5</v>
+      </c>
+      <c r="AC59">
+        <v>1.03</v>
+      </c>
+      <c r="AD59">
+        <v>13</v>
+      </c>
+      <c r="AE59">
+        <v>1.22</v>
+      </c>
+      <c r="AF59">
+        <v>4.33</v>
+      </c>
+      <c r="AG59">
+        <v>1.65</v>
+      </c>
+      <c r="AH59">
+        <v>2.2</v>
+      </c>
+      <c r="AI59">
+        <v>1.91</v>
+      </c>
+      <c r="AJ59">
+        <v>1.91</v>
+      </c>
+      <c r="AK59">
+        <v>2.6</v>
+      </c>
+      <c r="AL59">
+        <v>1.25</v>
+      </c>
+      <c r="AM59">
+        <v>1.15</v>
+      </c>
+      <c r="AN59">
+        <v>0.67</v>
+      </c>
+      <c r="AO59">
+        <v>2.25</v>
+      </c>
+      <c r="AP59">
+        <v>0.5</v>
+      </c>
+      <c r="AQ59">
+        <v>2.4</v>
+      </c>
+      <c r="AR59">
+        <v>1.01</v>
+      </c>
+      <c r="AS59">
+        <v>1.28</v>
+      </c>
+      <c r="AT59">
+        <v>2.29</v>
+      </c>
+      <c r="AU59">
+        <v>8</v>
+      </c>
+      <c r="AV59">
+        <v>4</v>
+      </c>
+      <c r="AW59">
+        <v>5</v>
+      </c>
+      <c r="AX59">
+        <v>11</v>
+      </c>
+      <c r="AY59">
+        <v>13</v>
+      </c>
+      <c r="AZ59">
+        <v>15</v>
+      </c>
+      <c r="BA59">
+        <v>5</v>
+      </c>
+      <c r="BB59">
+        <v>3</v>
+      </c>
+      <c r="BC59">
+        <v>8</v>
+      </c>
+      <c r="BD59">
+        <v>2.78</v>
+      </c>
+      <c r="BE59">
+        <v>8.5</v>
+      </c>
+      <c r="BF59">
+        <v>1.59</v>
+      </c>
+      <c r="BG59">
+        <v>1.22</v>
+      </c>
+      <c r="BH59">
+        <v>4</v>
+      </c>
+      <c r="BI59">
+        <v>1.42</v>
+      </c>
+      <c r="BJ59">
+        <v>2.75</v>
+      </c>
+      <c r="BK59">
+        <v>1.73</v>
+      </c>
+      <c r="BL59">
+        <v>2</v>
+      </c>
+      <c r="BM59">
+        <v>2.23</v>
+      </c>
+      <c r="BN59">
+        <v>1.61</v>
+      </c>
+      <c r="BO59">
+        <v>3</v>
+      </c>
+      <c r="BP59">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="166">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,12 @@
     <t>['31', '64']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['23', '53']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -503,6 +509,9 @@
   </si>
   <si>
     <t>['70', '75']</t>
+  </si>
+  <si>
+    <t>['33', '89']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +873,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1132,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1204,7 +1213,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1535,7 +1544,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1741,7 +1750,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1947,7 +1956,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2025,7 +2034,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
         <v>2.4</v>
@@ -2153,7 +2162,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2565,7 +2574,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2643,7 +2652,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
         <v>0.2</v>
@@ -2771,7 +2780,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2849,7 +2858,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -2977,7 +2986,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3183,7 +3192,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3389,7 +3398,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3676,7 +3685,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ14">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -3801,7 +3810,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -4007,7 +4016,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4088,7 +4097,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4291,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
         <v>1</v>
@@ -4419,7 +4428,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4497,7 +4506,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4625,7 +4634,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4831,7 +4840,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5037,7 +5046,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5243,7 +5252,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5321,7 +5330,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
         <v>1</v>
@@ -5449,7 +5458,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5527,7 +5536,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
         <v>1.86</v>
@@ -5655,7 +5664,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5861,7 +5870,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -6067,7 +6076,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6148,7 +6157,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6351,7 +6360,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27">
         <v>0.4</v>
@@ -6479,7 +6488,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6891,7 +6900,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7097,7 +7106,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7303,7 +7312,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7384,7 +7393,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7509,7 +7518,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7793,7 +7802,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -7921,7 +7930,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8127,7 +8136,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8333,7 +8342,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8414,7 +8423,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8617,10 +8626,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8745,7 +8754,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8951,7 +8960,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9032,7 +9041,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9157,7 +9166,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9238,7 +9247,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9775,7 +9784,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9981,7 +9990,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10059,7 +10068,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45">
         <v>1.86</v>
@@ -10474,7 +10483,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10599,7 +10608,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10677,7 +10686,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
         <v>0.4</v>
@@ -10886,7 +10895,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ49">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11011,7 +11020,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11217,7 +11226,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11423,7 +11432,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11501,7 +11510,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52">
         <v>1.75</v>
@@ -11629,7 +11638,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11707,10 +11716,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -11835,7 +11844,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12041,7 +12050,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12247,7 +12256,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12328,7 +12337,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12659,7 +12668,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12865,7 +12874,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13022,6 +13031,624 @@
       </c>
       <c r="BP59">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7325389</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45450.5</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q60">
+        <v>3.4</v>
+      </c>
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <v>3</v>
+      </c>
+      <c r="T60">
+        <v>1.36</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>2.8</v>
+      </c>
+      <c r="AA60">
+        <v>3.48</v>
+      </c>
+      <c r="AB60">
+        <v>2.41</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>10.25</v>
+      </c>
+      <c r="AE60">
+        <v>1.22</v>
+      </c>
+      <c r="AF60">
+        <v>3.66</v>
+      </c>
+      <c r="AG60">
+        <v>1.8</v>
+      </c>
+      <c r="AH60">
+        <v>2</v>
+      </c>
+      <c r="AI60">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.57</v>
+      </c>
+      <c r="AL60">
+        <v>1.3</v>
+      </c>
+      <c r="AM60">
+        <v>1.44</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>1.75</v>
+      </c>
+      <c r="AP60">
+        <v>1.83</v>
+      </c>
+      <c r="AQ60">
+        <v>1.6</v>
+      </c>
+      <c r="AR60">
+        <v>1.91</v>
+      </c>
+      <c r="AS60">
+        <v>1.55</v>
+      </c>
+      <c r="AT60">
+        <v>3.46</v>
+      </c>
+      <c r="AU60">
+        <v>6</v>
+      </c>
+      <c r="AV60">
+        <v>2</v>
+      </c>
+      <c r="AW60">
+        <v>5</v>
+      </c>
+      <c r="AX60">
+        <v>2</v>
+      </c>
+      <c r="AY60">
+        <v>11</v>
+      </c>
+      <c r="AZ60">
+        <v>4</v>
+      </c>
+      <c r="BA60">
+        <v>9</v>
+      </c>
+      <c r="BB60">
+        <v>7</v>
+      </c>
+      <c r="BC60">
+        <v>16</v>
+      </c>
+      <c r="BD60">
+        <v>2.33</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>1.82</v>
+      </c>
+      <c r="BG60">
+        <v>1.2</v>
+      </c>
+      <c r="BH60">
+        <v>4.25</v>
+      </c>
+      <c r="BI60">
+        <v>1.38</v>
+      </c>
+      <c r="BJ60">
+        <v>2.9</v>
+      </c>
+      <c r="BK60">
+        <v>1.7</v>
+      </c>
+      <c r="BL60">
+        <v>2.05</v>
+      </c>
+      <c r="BM60">
+        <v>2</v>
+      </c>
+      <c r="BN60">
+        <v>1.73</v>
+      </c>
+      <c r="BO60">
+        <v>2.85</v>
+      </c>
+      <c r="BP60">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7325390</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45450.5</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>83</v>
+      </c>
+      <c r="P61" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>2.63</v>
+      </c>
+      <c r="T61">
+        <v>1.36</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>1.1</v>
+      </c>
+      <c r="Z61">
+        <v>2.54</v>
+      </c>
+      <c r="AA61">
+        <v>3.45</v>
+      </c>
+      <c r="AB61">
+        <v>2.69</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>10.25</v>
+      </c>
+      <c r="AE61">
+        <v>1.22</v>
+      </c>
+      <c r="AF61">
+        <v>3.66</v>
+      </c>
+      <c r="AG61">
+        <v>1.8</v>
+      </c>
+      <c r="AH61">
+        <v>2</v>
+      </c>
+      <c r="AI61">
+        <v>1.67</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.81</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.3</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0.8</v>
+      </c>
+      <c r="AQ61">
+        <v>0.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.58</v>
+      </c>
+      <c r="AS61">
+        <v>1.47</v>
+      </c>
+      <c r="AT61">
+        <v>3.05</v>
+      </c>
+      <c r="AU61">
+        <v>3</v>
+      </c>
+      <c r="AV61">
+        <v>3</v>
+      </c>
+      <c r="AW61">
+        <v>4</v>
+      </c>
+      <c r="AX61">
+        <v>3</v>
+      </c>
+      <c r="AY61">
+        <v>7</v>
+      </c>
+      <c r="AZ61">
+        <v>6</v>
+      </c>
+      <c r="BA61">
+        <v>1</v>
+      </c>
+      <c r="BB61">
+        <v>6</v>
+      </c>
+      <c r="BC61">
+        <v>7</v>
+      </c>
+      <c r="BD61">
+        <v>2.39</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>1.82</v>
+      </c>
+      <c r="BG61">
+        <v>1.2</v>
+      </c>
+      <c r="BH61">
+        <v>4.25</v>
+      </c>
+      <c r="BI61">
+        <v>1.38</v>
+      </c>
+      <c r="BJ61">
+        <v>2.88</v>
+      </c>
+      <c r="BK61">
+        <v>1.73</v>
+      </c>
+      <c r="BL61">
+        <v>2</v>
+      </c>
+      <c r="BM61">
+        <v>2.05</v>
+      </c>
+      <c r="BN61">
+        <v>1.7</v>
+      </c>
+      <c r="BO61">
+        <v>2.85</v>
+      </c>
+      <c r="BP61">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7325391</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45450.5</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>126</v>
+      </c>
+      <c r="P62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q62">
+        <v>2.5</v>
+      </c>
+      <c r="R62">
+        <v>2.25</v>
+      </c>
+      <c r="S62">
+        <v>4.2</v>
+      </c>
+      <c r="T62">
+        <v>1.35</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.65</v>
+      </c>
+      <c r="W62">
+        <v>1.45</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.1</v>
+      </c>
+      <c r="Z62">
+        <v>1.79</v>
+      </c>
+      <c r="AA62">
+        <v>3.9</v>
+      </c>
+      <c r="AB62">
+        <v>4.25</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62">
+        <v>1.25</v>
+      </c>
+      <c r="AF62">
+        <v>4</v>
+      </c>
+      <c r="AG62">
+        <v>1.8</v>
+      </c>
+      <c r="AH62">
+        <v>2</v>
+      </c>
+      <c r="AI62">
+        <v>1.7</v>
+      </c>
+      <c r="AJ62">
+        <v>2.1</v>
+      </c>
+      <c r="AK62">
+        <v>1.3</v>
+      </c>
+      <c r="AL62">
+        <v>1.3</v>
+      </c>
+      <c r="AM62">
+        <v>1.95</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>2.17</v>
+      </c>
+      <c r="AQ62">
+        <v>0.8</v>
+      </c>
+      <c r="AR62">
+        <v>1.44</v>
+      </c>
+      <c r="AS62">
+        <v>1.03</v>
+      </c>
+      <c r="AT62">
+        <v>2.47</v>
+      </c>
+      <c r="AU62">
+        <v>0</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>4</v>
+      </c>
+      <c r="AX62">
+        <v>6</v>
+      </c>
+      <c r="AY62">
+        <v>4</v>
+      </c>
+      <c r="AZ62">
+        <v>11</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>8</v>
+      </c>
+      <c r="BD62">
+        <v>1.64</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.64</v>
+      </c>
+      <c r="BG62">
+        <v>1.2</v>
+      </c>
+      <c r="BH62">
+        <v>4.25</v>
+      </c>
+      <c r="BI62">
+        <v>1.38</v>
+      </c>
+      <c r="BJ62">
+        <v>2.9</v>
+      </c>
+      <c r="BK62">
+        <v>1.7</v>
+      </c>
+      <c r="BL62">
+        <v>2.05</v>
+      </c>
+      <c r="BM62">
+        <v>2</v>
+      </c>
+      <c r="BN62">
+        <v>1.73</v>
+      </c>
+      <c r="BO62">
+        <v>2.85</v>
+      </c>
+      <c r="BP62">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="170">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -397,6 +397,15 @@
     <t>['23', '53']</t>
   </si>
   <si>
+    <t>['33', '77', '83', '90+4']</t>
+  </si>
+  <si>
+    <t>['43', '47', '48', '76']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -448,9 +457,6 @@
     <t>['59', '82']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -512,6 +518,12 @@
   </si>
   <si>
     <t>['33', '89']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['56']</t>
   </si>
 </sst>
 </file>
@@ -873,7 +885,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1132,7 +1144,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1544,7 +1556,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1625,7 +1637,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1750,7 +1762,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1956,7 +1968,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2162,7 +2174,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2446,7 +2458,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
         <v>0.4</v>
@@ -2574,7 +2586,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2780,7 +2792,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2861,7 +2873,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2986,7 +2998,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3067,7 +3079,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ11">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3192,7 +3204,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3273,7 +3285,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3398,7 +3410,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3810,7 +3822,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -4016,7 +4028,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4094,7 +4106,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
         <v>0.8</v>
@@ -4428,7 +4440,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4509,7 +4521,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4634,7 +4646,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4712,10 +4724,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4840,7 +4852,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5046,7 +5058,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5252,7 +5264,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5458,7 +5470,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5664,7 +5676,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5870,7 +5882,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5951,7 +5963,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6076,7 +6088,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6488,7 +6500,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6569,7 +6581,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6772,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
         <v>0.2</v>
@@ -6900,7 +6912,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7106,7 +7118,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7312,7 +7324,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7518,7 +7530,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7805,7 +7817,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -7930,7 +7942,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8011,7 +8023,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8136,7 +8148,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8342,7 +8354,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8420,7 +8432,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
         <v>1.6</v>
@@ -8754,7 +8766,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8832,7 +8844,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
         <v>2.4</v>
@@ -8960,7 +8972,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9166,7 +9178,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9784,7 +9796,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9862,7 +9874,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>0.4</v>
@@ -9990,7 +10002,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10274,10 +10286,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10608,7 +10620,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10689,7 +10701,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -10892,7 +10904,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ49">
         <v>1.6</v>
@@ -11020,7 +11032,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11226,7 +11238,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11307,7 +11319,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11432,7 +11444,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11513,7 +11525,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11638,7 +11650,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11844,7 +11856,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12050,7 +12062,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12256,7 +12268,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12668,7 +12680,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12874,7 +12886,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12952,7 +12964,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>2.4</v>
@@ -13080,7 +13092,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13173,31 +13185,31 @@
         <v>3.46</v>
       </c>
       <c r="AU60">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV60">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW60">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX60">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AY60">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ60">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="BA60">
         <v>9</v>
       </c>
       <c r="BB60">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BC60">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BD60">
         <v>2.33</v>
@@ -13286,7 +13298,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13379,31 +13391,31 @@
         <v>3.05</v>
       </c>
       <c r="AU61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV61">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW61">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX61">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY61">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ61">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="BA61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BB61">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BC61">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BD61">
         <v>2.39</v>
@@ -13585,22 +13597,22 @@
         <v>2.47</v>
       </c>
       <c r="AU62">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV62">
         <v>5</v>
       </c>
       <c r="AW62">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX62">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY62">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ62">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA62">
         <v>3</v>
@@ -13649,6 +13661,624 @@
       </c>
       <c r="BP62">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7325392</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45450.58333333334</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q63">
+        <v>2.65</v>
+      </c>
+      <c r="R63">
+        <v>2.25</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3.1</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.42</v>
+      </c>
+      <c r="X63">
+        <v>6.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.09</v>
+      </c>
+      <c r="Z63">
+        <v>1.84</v>
+      </c>
+      <c r="AA63">
+        <v>3.92</v>
+      </c>
+      <c r="AB63">
+        <v>3.96</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>9.9</v>
+      </c>
+      <c r="AE63">
+        <v>1.24</v>
+      </c>
+      <c r="AF63">
+        <v>3.5</v>
+      </c>
+      <c r="AG63">
+        <v>1.85</v>
+      </c>
+      <c r="AH63">
+        <v>1.95</v>
+      </c>
+      <c r="AI63">
+        <v>1.7</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.33</v>
+      </c>
+      <c r="AL63">
+        <v>1.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.85</v>
+      </c>
+      <c r="AN63">
+        <v>1.83</v>
+      </c>
+      <c r="AO63">
+        <v>1.75</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>1.4</v>
+      </c>
+      <c r="AR63">
+        <v>1.99</v>
+      </c>
+      <c r="AS63">
+        <v>1.62</v>
+      </c>
+      <c r="AT63">
+        <v>3.61</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>12</v>
+      </c>
+      <c r="AY63">
+        <v>15</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>13</v>
+      </c>
+      <c r="BB63">
+        <v>10</v>
+      </c>
+      <c r="BC63">
+        <v>23</v>
+      </c>
+      <c r="BD63">
+        <v>1.82</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>2.39</v>
+      </c>
+      <c r="BG63">
+        <v>1.23</v>
+      </c>
+      <c r="BH63">
+        <v>3.95</v>
+      </c>
+      <c r="BI63">
+        <v>1.42</v>
+      </c>
+      <c r="BJ63">
+        <v>2.75</v>
+      </c>
+      <c r="BK63">
+        <v>1.73</v>
+      </c>
+      <c r="BL63">
+        <v>2</v>
+      </c>
+      <c r="BM63">
+        <v>2.23</v>
+      </c>
+      <c r="BN63">
+        <v>1.6</v>
+      </c>
+      <c r="BO63">
+        <v>3.05</v>
+      </c>
+      <c r="BP63">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7325393</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45451.45833333334</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64" t="s">
+        <v>128</v>
+      </c>
+      <c r="P64" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q64">
+        <v>1.99</v>
+      </c>
+      <c r="R64">
+        <v>2.36</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>1.33</v>
+      </c>
+      <c r="U64">
+        <v>3.16</v>
+      </c>
+      <c r="V64">
+        <v>2.55</v>
+      </c>
+      <c r="W64">
+        <v>1.48</v>
+      </c>
+      <c r="X64">
+        <v>6.15</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.44</v>
+      </c>
+      <c r="AA64">
+        <v>4.2</v>
+      </c>
+      <c r="AB64">
+        <v>5.8</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>10.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.21</v>
+      </c>
+      <c r="AF64">
+        <v>3.75</v>
+      </c>
+      <c r="AG64">
+        <v>1.76</v>
+      </c>
+      <c r="AH64">
+        <v>2.06</v>
+      </c>
+      <c r="AI64">
+        <v>1.87</v>
+      </c>
+      <c r="AJ64">
+        <v>1.87</v>
+      </c>
+      <c r="AK64">
+        <v>1.11</v>
+      </c>
+      <c r="AL64">
+        <v>1.21</v>
+      </c>
+      <c r="AM64">
+        <v>2.62</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>0.4</v>
+      </c>
+      <c r="AP64">
+        <v>3</v>
+      </c>
+      <c r="AQ64">
+        <v>0.33</v>
+      </c>
+      <c r="AR64">
+        <v>1.36</v>
+      </c>
+      <c r="AS64">
+        <v>1.71</v>
+      </c>
+      <c r="AT64">
+        <v>3.07</v>
+      </c>
+      <c r="AU64">
+        <v>9</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>14</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>23</v>
+      </c>
+      <c r="AZ64">
+        <v>9</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>0</v>
+      </c>
+      <c r="BC64">
+        <v>3</v>
+      </c>
+      <c r="BD64">
+        <v>1.34</v>
+      </c>
+      <c r="BE64">
+        <v>9.5</v>
+      </c>
+      <c r="BF64">
+        <v>4.07</v>
+      </c>
+      <c r="BG64">
+        <v>1.18</v>
+      </c>
+      <c r="BH64">
+        <v>4.05</v>
+      </c>
+      <c r="BI64">
+        <v>1.38</v>
+      </c>
+      <c r="BJ64">
+        <v>2.8</v>
+      </c>
+      <c r="BK64">
+        <v>1.73</v>
+      </c>
+      <c r="BL64">
+        <v>2</v>
+      </c>
+      <c r="BM64">
+        <v>2.05</v>
+      </c>
+      <c r="BN64">
+        <v>1.7</v>
+      </c>
+      <c r="BO64">
+        <v>2.71</v>
+      </c>
+      <c r="BP64">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7325394</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45451.45833333334</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>129</v>
+      </c>
+      <c r="P65" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q65">
+        <v>3.75</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>2.75</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.63</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>3</v>
+      </c>
+      <c r="AA65">
+        <v>3.4</v>
+      </c>
+      <c r="AB65">
+        <v>2.1</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>10</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>3.64</v>
+      </c>
+      <c r="AG65">
+        <v>1.81</v>
+      </c>
+      <c r="AH65">
+        <v>2</v>
+      </c>
+      <c r="AI65">
+        <v>1.7</v>
+      </c>
+      <c r="AJ65">
+        <v>2.05</v>
+      </c>
+      <c r="AK65">
+        <v>1.62</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.4</v>
+      </c>
+      <c r="AN65">
+        <v>0.5</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>0.83</v>
+      </c>
+      <c r="AR65">
+        <v>1.2</v>
+      </c>
+      <c r="AS65">
+        <v>1.14</v>
+      </c>
+      <c r="AT65">
+        <v>2.34</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>9</v>
+      </c>
+      <c r="AZ65">
+        <v>12</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>8</v>
+      </c>
+      <c r="BD65">
+        <v>2.28</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>1.85</v>
+      </c>
+      <c r="BG65">
+        <v>1.26</v>
+      </c>
+      <c r="BH65">
+        <v>3.65</v>
+      </c>
+      <c r="BI65">
+        <v>1.48</v>
+      </c>
+      <c r="BJ65">
+        <v>2.55</v>
+      </c>
+      <c r="BK65">
+        <v>1.88</v>
+      </c>
+      <c r="BL65">
+        <v>1.92</v>
+      </c>
+      <c r="BM65">
+        <v>2.43</v>
+      </c>
+      <c r="BN65">
+        <v>1.52</v>
+      </c>
+      <c r="BO65">
+        <v>3.3</v>
+      </c>
+      <c r="BP65">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14030,10 +14030,10 @@
         <v>3</v>
       </c>
       <c r="BB64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BC64">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD64">
         <v>1.34</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -406,6 +406,12 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['6', '90+5']</t>
+  </si>
+  <si>
+    <t>['16', '49', '90+1']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -524,6 +530,18 @@
   </si>
   <si>
     <t>['56']</t>
+  </si>
+  <si>
+    <t>['45', '46']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['57', '90+5']</t>
+  </si>
+  <si>
+    <t>['2', '35', '82', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -885,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1144,7 +1162,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1222,7 +1240,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
         <v>0.5</v>
@@ -1431,7 +1449,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1556,7 +1574,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1634,7 +1652,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
         <v>0.33</v>
@@ -1762,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1840,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1968,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2049,7 +2067,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2174,7 +2192,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2252,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2461,7 +2479,7 @@
         <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2586,7 +2604,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2667,7 +2685,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2792,7 +2810,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2998,7 +3016,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3076,7 +3094,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
         <v>0.33</v>
@@ -3204,7 +3222,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3410,7 +3428,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3488,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.86</v>
@@ -3694,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
         <v>1.83</v>
-      </c>
-      <c r="AQ14">
-        <v>1.6</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -3822,7 +3840,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3900,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1.86</v>
@@ -4028,7 +4046,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4315,7 +4333,7 @@
         <v>0.8</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4440,7 +4458,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4646,7 +4664,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4852,7 +4870,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4930,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5058,7 +5076,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5136,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5264,7 +5282,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5345,7 +5363,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5470,7 +5488,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5676,7 +5694,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5754,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5960,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
         <v>1.4</v>
@@ -6088,7 +6106,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6166,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6375,7 +6393,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ27">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6500,7 +6518,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6787,7 +6805,7 @@
         <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -6912,7 +6930,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6990,7 +7008,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.86</v>
@@ -7118,7 +7136,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7196,10 +7214,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
+        <v>1.17</v>
+      </c>
+      <c r="AQ31">
         <v>1.4</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7324,7 +7342,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7402,7 +7420,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
         <v>0.5</v>
@@ -7530,7 +7548,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7608,10 +7626,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7942,7 +7960,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8020,7 +8038,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
         <v>0.83</v>
@@ -8148,7 +8166,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8226,10 +8244,10 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8354,7 +8372,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8435,7 +8453,7 @@
         <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8766,7 +8784,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8847,7 +8865,7 @@
         <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -8972,7 +8990,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9050,7 +9068,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
         <v>0.8</v>
@@ -9178,7 +9196,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9256,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.5</v>
@@ -9465,7 +9483,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9668,7 +9686,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1.86</v>
@@ -9796,7 +9814,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9877,7 +9895,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10002,7 +10020,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10620,7 +10638,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10907,7 +10925,7 @@
         <v>2</v>
       </c>
       <c r="AQ49">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11032,7 +11050,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11110,10 +11128,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11238,7 +11256,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11316,7 +11334,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
         <v>0.83</v>
@@ -11444,7 +11462,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11650,7 +11668,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11856,7 +11874,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11934,10 +11952,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12062,7 +12080,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12268,7 +12286,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12346,7 +12364,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>0.8</v>
@@ -12552,10 +12570,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12680,7 +12698,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12758,10 +12776,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -12886,7 +12904,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12967,7 +12985,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13092,7 +13110,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13173,7 +13191,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13298,7 +13316,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13710,7 +13728,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13916,7 +13934,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -13994,7 +14012,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
         <v>0.33</v>
@@ -14279,6 +14297,1242 @@
       </c>
       <c r="BP65">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7325399</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q66">
+        <v>2.3</v>
+      </c>
+      <c r="R66">
+        <v>2.24</v>
+      </c>
+      <c r="S66">
+        <v>4.75</v>
+      </c>
+      <c r="T66">
+        <v>1.36</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <v>2.67</v>
+      </c>
+      <c r="W66">
+        <v>1.44</v>
+      </c>
+      <c r="X66">
+        <v>6.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.09</v>
+      </c>
+      <c r="Z66">
+        <v>1.72</v>
+      </c>
+      <c r="AA66">
+        <v>3.68</v>
+      </c>
+      <c r="AB66">
+        <v>4.22</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE66">
+        <v>1.24</v>
+      </c>
+      <c r="AF66">
+        <v>3.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.78</v>
+      </c>
+      <c r="AH66">
+        <v>1.95</v>
+      </c>
+      <c r="AI66">
+        <v>1.75</v>
+      </c>
+      <c r="AJ66">
+        <v>2.01</v>
+      </c>
+      <c r="AK66">
+        <v>1.22</v>
+      </c>
+      <c r="AL66">
+        <v>1.23</v>
+      </c>
+      <c r="AM66">
+        <v>1.95</v>
+      </c>
+      <c r="AN66">
+        <v>1.25</v>
+      </c>
+      <c r="AO66">
+        <v>0.4</v>
+      </c>
+      <c r="AP66">
+        <v>1.2</v>
+      </c>
+      <c r="AQ66">
+        <v>0.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.29</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>2.29</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>9</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>1.69</v>
+      </c>
+      <c r="BE66">
+        <v>8.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.62</v>
+      </c>
+      <c r="BG66">
+        <v>1.19</v>
+      </c>
+      <c r="BH66">
+        <v>3.9</v>
+      </c>
+      <c r="BI66">
+        <v>1.4</v>
+      </c>
+      <c r="BJ66">
+        <v>2.72</v>
+      </c>
+      <c r="BK66">
+        <v>1.73</v>
+      </c>
+      <c r="BL66">
+        <v>2</v>
+      </c>
+      <c r="BM66">
+        <v>2.13</v>
+      </c>
+      <c r="BN66">
+        <v>1.68</v>
+      </c>
+      <c r="BO66">
+        <v>2.79</v>
+      </c>
+      <c r="BP66">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7325398</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>131</v>
+      </c>
+      <c r="P67" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q67">
+        <v>1.78</v>
+      </c>
+      <c r="R67">
+        <v>2.6</v>
+      </c>
+      <c r="S67">
+        <v>6.5</v>
+      </c>
+      <c r="T67">
+        <v>1.29</v>
+      </c>
+      <c r="U67">
+        <v>3.3</v>
+      </c>
+      <c r="V67">
+        <v>2.25</v>
+      </c>
+      <c r="W67">
+        <v>1.57</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>1.32</v>
+      </c>
+      <c r="AA67">
+        <v>5.05</v>
+      </c>
+      <c r="AB67">
+        <v>7.25</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.17</v>
+      </c>
+      <c r="AF67">
+        <v>4.5</v>
+      </c>
+      <c r="AG67">
+        <v>1.55</v>
+      </c>
+      <c r="AH67">
+        <v>2.3</v>
+      </c>
+      <c r="AI67">
+        <v>1.85</v>
+      </c>
+      <c r="AJ67">
+        <v>1.85</v>
+      </c>
+      <c r="AK67">
+        <v>1.08</v>
+      </c>
+      <c r="AL67">
+        <v>1.17</v>
+      </c>
+      <c r="AM67">
+        <v>3.2</v>
+      </c>
+      <c r="AN67">
+        <v>1.83</v>
+      </c>
+      <c r="AO67">
+        <v>0.2</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0.17</v>
+      </c>
+      <c r="AR67">
+        <v>1.63</v>
+      </c>
+      <c r="AS67">
+        <v>1.2</v>
+      </c>
+      <c r="AT67">
+        <v>2.83</v>
+      </c>
+      <c r="AU67">
+        <v>12</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
+        <v>14</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>26</v>
+      </c>
+      <c r="AZ67">
+        <v>8</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>1.31</v>
+      </c>
+      <c r="BE67">
+        <v>9.5</v>
+      </c>
+      <c r="BF67">
+        <v>4.13</v>
+      </c>
+      <c r="BG67">
+        <v>1.27</v>
+      </c>
+      <c r="BH67">
+        <v>3.55</v>
+      </c>
+      <c r="BI67">
+        <v>1.5</v>
+      </c>
+      <c r="BJ67">
+        <v>2.48</v>
+      </c>
+      <c r="BK67">
+        <v>1.88</v>
+      </c>
+      <c r="BL67">
+        <v>1.92</v>
+      </c>
+      <c r="BM67">
+        <v>2.45</v>
+      </c>
+      <c r="BN67">
+        <v>1.5</v>
+      </c>
+      <c r="BO67">
+        <v>3.4</v>
+      </c>
+      <c r="BP67">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7325396</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>83</v>
+      </c>
+      <c r="P68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q68">
+        <v>3.92</v>
+      </c>
+      <c r="R68">
+        <v>2.22</v>
+      </c>
+      <c r="S68">
+        <v>2.59</v>
+      </c>
+      <c r="T68">
+        <v>1.35</v>
+      </c>
+      <c r="U68">
+        <v>3.05</v>
+      </c>
+      <c r="V68">
+        <v>2.61</v>
+      </c>
+      <c r="W68">
+        <v>1.46</v>
+      </c>
+      <c r="X68">
+        <v>6.35</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>3.23</v>
+      </c>
+      <c r="AA68">
+        <v>3.52</v>
+      </c>
+      <c r="AB68">
+        <v>2.02</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>10.25</v>
+      </c>
+      <c r="AE68">
+        <v>1.22</v>
+      </c>
+      <c r="AF68">
+        <v>3.66</v>
+      </c>
+      <c r="AG68">
+        <v>1.75</v>
+      </c>
+      <c r="AH68">
+        <v>1.95</v>
+      </c>
+      <c r="AI68">
+        <v>1.66</v>
+      </c>
+      <c r="AJ68">
+        <v>2.14</v>
+      </c>
+      <c r="AK68">
+        <v>1.7</v>
+      </c>
+      <c r="AL68">
+        <v>1.25</v>
+      </c>
+      <c r="AM68">
+        <v>1.32</v>
+      </c>
+      <c r="AN68">
+        <v>1.6</v>
+      </c>
+      <c r="AO68">
+        <v>1.6</v>
+      </c>
+      <c r="AP68">
+        <v>1.33</v>
+      </c>
+      <c r="AQ68">
+        <v>1.83</v>
+      </c>
+      <c r="AR68">
+        <v>1.65</v>
+      </c>
+      <c r="AS68">
+        <v>1.59</v>
+      </c>
+      <c r="AT68">
+        <v>3.24</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
+        <v>10</v>
+      </c>
+      <c r="AY68">
+        <v>7</v>
+      </c>
+      <c r="AZ68">
+        <v>12</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>9</v>
+      </c>
+      <c r="BD68">
+        <v>2.33</v>
+      </c>
+      <c r="BE68">
+        <v>8</v>
+      </c>
+      <c r="BF68">
+        <v>1.82</v>
+      </c>
+      <c r="BG68">
+        <v>1.23</v>
+      </c>
+      <c r="BH68">
+        <v>3.95</v>
+      </c>
+      <c r="BI68">
+        <v>1.42</v>
+      </c>
+      <c r="BJ68">
+        <v>2.75</v>
+      </c>
+      <c r="BK68">
+        <v>1.73</v>
+      </c>
+      <c r="BL68">
+        <v>2</v>
+      </c>
+      <c r="BM68">
+        <v>2.23</v>
+      </c>
+      <c r="BN68">
+        <v>1.6</v>
+      </c>
+      <c r="BO68">
+        <v>3.05</v>
+      </c>
+      <c r="BP68">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7325397</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q69">
+        <v>2.15</v>
+      </c>
+      <c r="R69">
+        <v>2.27</v>
+      </c>
+      <c r="S69">
+        <v>5.56</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.67</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>6.6</v>
+      </c>
+      <c r="Y69">
+        <v>1.09</v>
+      </c>
+      <c r="Z69">
+        <v>1.56</v>
+      </c>
+      <c r="AA69">
+        <v>4.01</v>
+      </c>
+      <c r="AB69">
+        <v>5.39</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE69">
+        <v>1.24</v>
+      </c>
+      <c r="AF69">
+        <v>3.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.94</v>
+      </c>
+      <c r="AI69">
+        <v>1.87</v>
+      </c>
+      <c r="AJ69">
+        <v>1.87</v>
+      </c>
+      <c r="AK69">
+        <v>1.15</v>
+      </c>
+      <c r="AL69">
+        <v>1.24</v>
+      </c>
+      <c r="AM69">
+        <v>2.36</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>2.4</v>
+      </c>
+      <c r="AQ69">
+        <v>1.4</v>
+      </c>
+      <c r="AR69">
+        <v>1.62</v>
+      </c>
+      <c r="AS69">
+        <v>1.39</v>
+      </c>
+      <c r="AT69">
+        <v>3.01</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>4</v>
+      </c>
+      <c r="AW69">
+        <v>22</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>26</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>11</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>14</v>
+      </c>
+      <c r="BD69">
+        <v>1.26</v>
+      </c>
+      <c r="BE69">
+        <v>10</v>
+      </c>
+      <c r="BF69">
+        <v>4.64</v>
+      </c>
+      <c r="BG69">
+        <v>1.23</v>
+      </c>
+      <c r="BH69">
+        <v>3.95</v>
+      </c>
+      <c r="BI69">
+        <v>1.42</v>
+      </c>
+      <c r="BJ69">
+        <v>2.75</v>
+      </c>
+      <c r="BK69">
+        <v>1.73</v>
+      </c>
+      <c r="BL69">
+        <v>2</v>
+      </c>
+      <c r="BM69">
+        <v>2.23</v>
+      </c>
+      <c r="BN69">
+        <v>1.6</v>
+      </c>
+      <c r="BO69">
+        <v>3.05</v>
+      </c>
+      <c r="BP69">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7325395</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F70">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P70" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q70">
+        <v>4.33</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>2.4</v>
+      </c>
+      <c r="T70">
+        <v>1.38</v>
+      </c>
+      <c r="U70">
+        <v>2.8</v>
+      </c>
+      <c r="V70">
+        <v>2.7</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>6.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>3.7</v>
+      </c>
+      <c r="AA70">
+        <v>3.45</v>
+      </c>
+      <c r="AB70">
+        <v>1.89</v>
+      </c>
+      <c r="AC70">
+        <v>1.03</v>
+      </c>
+      <c r="AD70">
+        <v>9</v>
+      </c>
+      <c r="AE70">
+        <v>1.29</v>
+      </c>
+      <c r="AF70">
+        <v>3.3</v>
+      </c>
+      <c r="AG70">
+        <v>1.88</v>
+      </c>
+      <c r="AH70">
+        <v>1.82</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>1.88</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.23</v>
+      </c>
+      <c r="AN70">
+        <v>1.6</v>
+      </c>
+      <c r="AO70">
+        <v>2.4</v>
+      </c>
+      <c r="AP70">
+        <v>1.5</v>
+      </c>
+      <c r="AQ70">
+        <v>2.17</v>
+      </c>
+      <c r="AR70">
+        <v>1.19</v>
+      </c>
+      <c r="AS70">
+        <v>1.35</v>
+      </c>
+      <c r="AT70">
+        <v>2.54</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>11</v>
+      </c>
+      <c r="AY70">
+        <v>8</v>
+      </c>
+      <c r="AZ70">
+        <v>15</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>11</v>
+      </c>
+      <c r="BD70">
+        <v>2.78</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>1.59</v>
+      </c>
+      <c r="BG70">
+        <v>1.2</v>
+      </c>
+      <c r="BH70">
+        <v>4.25</v>
+      </c>
+      <c r="BI70">
+        <v>1.38</v>
+      </c>
+      <c r="BJ70">
+        <v>2.88</v>
+      </c>
+      <c r="BK70">
+        <v>1.73</v>
+      </c>
+      <c r="BL70">
+        <v>2</v>
+      </c>
+      <c r="BM70">
+        <v>2.12</v>
+      </c>
+      <c r="BN70">
+        <v>1.66</v>
+      </c>
+      <c r="BO70">
+        <v>2.85</v>
+      </c>
+      <c r="BP70">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7325400</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45455.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>83</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71">
+        <v>5.5</v>
+      </c>
+      <c r="R71">
+        <v>2.44</v>
+      </c>
+      <c r="S71">
+        <v>2.14</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.32</v>
+      </c>
+      <c r="V71">
+        <v>2.62</v>
+      </c>
+      <c r="W71">
+        <v>1.48</v>
+      </c>
+      <c r="X71">
+        <v>5.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>4.7</v>
+      </c>
+      <c r="AA71">
+        <v>3.88</v>
+      </c>
+      <c r="AB71">
+        <v>1.62</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.22</v>
+      </c>
+      <c r="AF71">
+        <v>3.8</v>
+      </c>
+      <c r="AG71">
+        <v>1.72</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>1.75</v>
+      </c>
+      <c r="AJ71">
+        <v>1.95</v>
+      </c>
+      <c r="AK71">
+        <v>2.29</v>
+      </c>
+      <c r="AL71">
+        <v>1.24</v>
+      </c>
+      <c r="AM71">
+        <v>1.16</v>
+      </c>
+      <c r="AN71">
+        <v>1.4</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1.17</v>
+      </c>
+      <c r="AQ71">
+        <v>1.33</v>
+      </c>
+      <c r="AR71">
+        <v>1.67</v>
+      </c>
+      <c r="AS71">
+        <v>1.23</v>
+      </c>
+      <c r="AT71">
+        <v>2.9</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>10</v>
+      </c>
+      <c r="AW71">
+        <v>7</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>17</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>9</v>
+      </c>
+      <c r="BD71">
+        <v>2.66</v>
+      </c>
+      <c r="BE71">
+        <v>8.5</v>
+      </c>
+      <c r="BF71">
+        <v>1.64</v>
+      </c>
+      <c r="BG71">
+        <v>1.13</v>
+      </c>
+      <c r="BH71">
+        <v>4.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.3</v>
+      </c>
+      <c r="BJ71">
+        <v>3.3</v>
+      </c>
+      <c r="BK71">
+        <v>1.55</v>
+      </c>
+      <c r="BL71">
+        <v>2.38</v>
+      </c>
+      <c r="BM71">
+        <v>2</v>
+      </c>
+      <c r="BN71">
+        <v>1.8</v>
+      </c>
+      <c r="BO71">
+        <v>2.5</v>
+      </c>
+      <c r="BP71">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="176">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -391,6 +391,27 @@
     <t>['31', '64']</t>
   </si>
   <si>
+    <t>['41']</t>
+  </si>
+  <si>
+    <t>['23', '53']</t>
+  </si>
+  <si>
+    <t>['33', '77', '83', '90+4']</t>
+  </si>
+  <si>
+    <t>['43', '47', '48', '76']</t>
+  </si>
+  <si>
+    <t>['90']</t>
+  </si>
+  <si>
+    <t>['6', '90+5']</t>
+  </si>
+  <si>
+    <t>['16', '49', '90+1']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -442,9 +463,6 @@
     <t>['59', '82']</t>
   </si>
   <si>
-    <t>['90']</t>
-  </si>
-  <si>
     <t>['48']</t>
   </si>
   <si>
@@ -503,6 +521,27 @@
   </si>
   <si>
     <t>['70', '75']</t>
+  </si>
+  <si>
+    <t>['33', '89']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['56']</t>
+  </si>
+  <si>
+    <t>['45', '46']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['57', '90+5']</t>
+  </si>
+  <si>
+    <t>['2', '35', '82', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -864,7 +903,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP59"/>
+  <dimension ref="A1:BP71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1123,7 +1162,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1201,10 +1240,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1410,7 +1449,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ3">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1535,7 +1574,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1613,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1741,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1819,10 +1858,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -1947,7 +1986,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2025,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ6">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2153,7 +2192,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2231,10 +2270,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2437,10 +2476,10 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ8">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2565,7 +2604,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2643,10 +2682,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ9">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2771,7 +2810,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2849,10 +2888,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -2977,7 +3016,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3055,10 +3094,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3183,7 +3222,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3264,7 +3303,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3389,7 +3428,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3467,7 +3506,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
         <v>1.86</v>
@@ -3673,10 +3712,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
+        <v>2</v>
+      </c>
+      <c r="AQ14">
         <v>1.83</v>
-      </c>
-      <c r="AQ14">
-        <v>1.75</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -3801,7 +3840,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3879,7 +3918,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
         <v>1.86</v>
@@ -4007,7 +4046,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4085,10 +4124,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4291,10 +4330,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4419,7 +4458,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4497,10 +4536,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4625,7 +4664,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4703,10 +4742,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4831,7 +4870,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4909,10 +4948,10 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5037,7 +5076,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5115,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5243,7 +5282,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5321,10 +5360,10 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ22">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5449,7 +5488,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5527,7 +5566,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ23">
         <v>1.86</v>
@@ -5655,7 +5694,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5733,10 +5772,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5861,7 +5900,7 @@
         <v>83</v>
       </c>
       <c r="P25" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="Q25">
         <v>3.4</v>
@@ -5939,10 +5978,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
+        <v>1.17</v>
+      </c>
+      <c r="AQ25">
         <v>1.4</v>
-      </c>
-      <c r="AQ25">
-        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6067,7 +6106,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6145,10 +6184,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6351,10 +6390,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ27">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6479,7 +6518,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6560,7 +6599,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6763,10 +6802,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ29">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -6891,7 +6930,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -6969,7 +7008,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.86</v>
@@ -7097,7 +7136,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7175,10 +7214,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
+        <v>1.17</v>
+      </c>
+      <c r="AQ31">
         <v>1.4</v>
-      </c>
-      <c r="AQ31">
-        <v>1</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7303,7 +7342,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7381,10 +7420,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7509,7 +7548,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7587,10 +7626,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7793,10 +7832,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -7921,7 +7960,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -7999,10 +8038,10 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8127,7 +8166,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8205,10 +8244,10 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8333,7 +8372,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8411,10 +8450,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ37">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8617,10 +8656,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8745,7 +8784,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8823,10 +8862,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ39">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -8951,7 +8990,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9029,10 +9068,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9157,7 +9196,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9235,10 +9274,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9444,7 +9483,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ42">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9647,7 +9686,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ43">
         <v>1.86</v>
@@ -9775,7 +9814,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9853,10 +9892,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
+        <v>1</v>
+      </c>
+      <c r="AQ44">
         <v>0.5</v>
-      </c>
-      <c r="AQ44">
-        <v>0.4</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -9981,7 +10020,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10059,7 +10098,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ45">
         <v>1.86</v>
@@ -10265,10 +10304,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10474,7 +10513,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ47">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10599,7 +10638,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10677,10 +10716,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ48">
-        <v>0.4</v>
+        <v>0.33</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -10883,10 +10922,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
+        <v>2</v>
+      </c>
+      <c r="AQ49">
         <v>1.83</v>
-      </c>
-      <c r="AQ49">
-        <v>1.75</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11011,7 +11050,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11089,10 +11128,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11217,7 +11256,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11295,10 +11334,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11423,7 +11462,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11501,10 +11540,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11629,7 +11668,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11707,10 +11746,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ53">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -11835,7 +11874,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11913,10 +11952,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12041,7 +12080,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12247,7 +12286,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12325,10 +12364,10 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12531,10 +12570,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12659,7 +12698,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12737,10 +12776,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -12865,7 +12904,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12943,10 +12982,10 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13022,6 +13061,2478 @@
       </c>
       <c r="BP59">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="60" spans="1:68">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60">
+        <v>7325389</v>
+      </c>
+      <c r="C60" t="s">
+        <v>68</v>
+      </c>
+      <c r="D60" t="s">
+        <v>69</v>
+      </c>
+      <c r="E60" s="2">
+        <v>45450.5</v>
+      </c>
+      <c r="F60">
+        <v>10</v>
+      </c>
+      <c r="G60" t="s">
+        <v>77</v>
+      </c>
+      <c r="H60" t="s">
+        <v>71</v>
+      </c>
+      <c r="I60">
+        <v>1</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>1</v>
+      </c>
+      <c r="L60">
+        <v>1</v>
+      </c>
+      <c r="M60">
+        <v>1</v>
+      </c>
+      <c r="N60">
+        <v>2</v>
+      </c>
+      <c r="O60" t="s">
+        <v>125</v>
+      </c>
+      <c r="P60" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q60">
+        <v>3.4</v>
+      </c>
+      <c r="R60">
+        <v>2.25</v>
+      </c>
+      <c r="S60">
+        <v>3</v>
+      </c>
+      <c r="T60">
+        <v>1.36</v>
+      </c>
+      <c r="U60">
+        <v>3</v>
+      </c>
+      <c r="V60">
+        <v>2.63</v>
+      </c>
+      <c r="W60">
+        <v>1.44</v>
+      </c>
+      <c r="X60">
+        <v>7</v>
+      </c>
+      <c r="Y60">
+        <v>1.1</v>
+      </c>
+      <c r="Z60">
+        <v>2.8</v>
+      </c>
+      <c r="AA60">
+        <v>3.48</v>
+      </c>
+      <c r="AB60">
+        <v>2.41</v>
+      </c>
+      <c r="AC60">
+        <v>1.01</v>
+      </c>
+      <c r="AD60">
+        <v>10.25</v>
+      </c>
+      <c r="AE60">
+        <v>1.22</v>
+      </c>
+      <c r="AF60">
+        <v>3.66</v>
+      </c>
+      <c r="AG60">
+        <v>1.8</v>
+      </c>
+      <c r="AH60">
+        <v>2</v>
+      </c>
+      <c r="AI60">
+        <v>1.67</v>
+      </c>
+      <c r="AJ60">
+        <v>2.1</v>
+      </c>
+      <c r="AK60">
+        <v>1.57</v>
+      </c>
+      <c r="AL60">
+        <v>1.3</v>
+      </c>
+      <c r="AM60">
+        <v>1.44</v>
+      </c>
+      <c r="AN60">
+        <v>2</v>
+      </c>
+      <c r="AO60">
+        <v>1.75</v>
+      </c>
+      <c r="AP60">
+        <v>1.83</v>
+      </c>
+      <c r="AQ60">
+        <v>1.83</v>
+      </c>
+      <c r="AR60">
+        <v>1.91</v>
+      </c>
+      <c r="AS60">
+        <v>1.55</v>
+      </c>
+      <c r="AT60">
+        <v>3.46</v>
+      </c>
+      <c r="AU60">
+        <v>5</v>
+      </c>
+      <c r="AV60">
+        <v>4</v>
+      </c>
+      <c r="AW60">
+        <v>8</v>
+      </c>
+      <c r="AX60">
+        <v>10</v>
+      </c>
+      <c r="AY60">
+        <v>13</v>
+      </c>
+      <c r="AZ60">
+        <v>14</v>
+      </c>
+      <c r="BA60">
+        <v>9</v>
+      </c>
+      <c r="BB60">
+        <v>9</v>
+      </c>
+      <c r="BC60">
+        <v>18</v>
+      </c>
+      <c r="BD60">
+        <v>2.33</v>
+      </c>
+      <c r="BE60">
+        <v>8</v>
+      </c>
+      <c r="BF60">
+        <v>1.82</v>
+      </c>
+      <c r="BG60">
+        <v>1.2</v>
+      </c>
+      <c r="BH60">
+        <v>4.25</v>
+      </c>
+      <c r="BI60">
+        <v>1.38</v>
+      </c>
+      <c r="BJ60">
+        <v>2.9</v>
+      </c>
+      <c r="BK60">
+        <v>1.7</v>
+      </c>
+      <c r="BL60">
+        <v>2.05</v>
+      </c>
+      <c r="BM60">
+        <v>2</v>
+      </c>
+      <c r="BN60">
+        <v>1.73</v>
+      </c>
+      <c r="BO60">
+        <v>2.85</v>
+      </c>
+      <c r="BP60">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:68">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61">
+        <v>7325390</v>
+      </c>
+      <c r="C61" t="s">
+        <v>68</v>
+      </c>
+      <c r="D61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="2">
+        <v>45450.5</v>
+      </c>
+      <c r="F61">
+        <v>10</v>
+      </c>
+      <c r="G61" t="s">
+        <v>79</v>
+      </c>
+      <c r="H61" t="s">
+        <v>78</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>1</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>2</v>
+      </c>
+      <c r="N61">
+        <v>2</v>
+      </c>
+      <c r="O61" t="s">
+        <v>83</v>
+      </c>
+      <c r="P61" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q61">
+        <v>4</v>
+      </c>
+      <c r="R61">
+        <v>2.25</v>
+      </c>
+      <c r="S61">
+        <v>2.63</v>
+      </c>
+      <c r="T61">
+        <v>1.36</v>
+      </c>
+      <c r="U61">
+        <v>3</v>
+      </c>
+      <c r="V61">
+        <v>2.63</v>
+      </c>
+      <c r="W61">
+        <v>1.44</v>
+      </c>
+      <c r="X61">
+        <v>7</v>
+      </c>
+      <c r="Y61">
+        <v>1.1</v>
+      </c>
+      <c r="Z61">
+        <v>2.54</v>
+      </c>
+      <c r="AA61">
+        <v>3.45</v>
+      </c>
+      <c r="AB61">
+        <v>2.69</v>
+      </c>
+      <c r="AC61">
+        <v>1.01</v>
+      </c>
+      <c r="AD61">
+        <v>10.25</v>
+      </c>
+      <c r="AE61">
+        <v>1.22</v>
+      </c>
+      <c r="AF61">
+        <v>3.66</v>
+      </c>
+      <c r="AG61">
+        <v>1.8</v>
+      </c>
+      <c r="AH61">
+        <v>2</v>
+      </c>
+      <c r="AI61">
+        <v>1.67</v>
+      </c>
+      <c r="AJ61">
+        <v>2.1</v>
+      </c>
+      <c r="AK61">
+        <v>1.81</v>
+      </c>
+      <c r="AL61">
+        <v>1.28</v>
+      </c>
+      <c r="AM61">
+        <v>1.3</v>
+      </c>
+      <c r="AN61">
+        <v>1</v>
+      </c>
+      <c r="AO61">
+        <v>0</v>
+      </c>
+      <c r="AP61">
+        <v>0.8</v>
+      </c>
+      <c r="AQ61">
+        <v>0.5</v>
+      </c>
+      <c r="AR61">
+        <v>1.58</v>
+      </c>
+      <c r="AS61">
+        <v>1.47</v>
+      </c>
+      <c r="AT61">
+        <v>3.05</v>
+      </c>
+      <c r="AU61">
+        <v>4</v>
+      </c>
+      <c r="AV61">
+        <v>4</v>
+      </c>
+      <c r="AW61">
+        <v>8</v>
+      </c>
+      <c r="AX61">
+        <v>10</v>
+      </c>
+      <c r="AY61">
+        <v>12</v>
+      </c>
+      <c r="AZ61">
+        <v>14</v>
+      </c>
+      <c r="BA61">
+        <v>2</v>
+      </c>
+      <c r="BB61">
+        <v>8</v>
+      </c>
+      <c r="BC61">
+        <v>10</v>
+      </c>
+      <c r="BD61">
+        <v>2.39</v>
+      </c>
+      <c r="BE61">
+        <v>8</v>
+      </c>
+      <c r="BF61">
+        <v>1.82</v>
+      </c>
+      <c r="BG61">
+        <v>1.2</v>
+      </c>
+      <c r="BH61">
+        <v>4.25</v>
+      </c>
+      <c r="BI61">
+        <v>1.38</v>
+      </c>
+      <c r="BJ61">
+        <v>2.88</v>
+      </c>
+      <c r="BK61">
+        <v>1.73</v>
+      </c>
+      <c r="BL61">
+        <v>2</v>
+      </c>
+      <c r="BM61">
+        <v>2.05</v>
+      </c>
+      <c r="BN61">
+        <v>1.7</v>
+      </c>
+      <c r="BO61">
+        <v>2.85</v>
+      </c>
+      <c r="BP61">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="62" spans="1:68">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62">
+        <v>7325391</v>
+      </c>
+      <c r="C62" t="s">
+        <v>68</v>
+      </c>
+      <c r="D62" t="s">
+        <v>69</v>
+      </c>
+      <c r="E62" s="2">
+        <v>45450.5</v>
+      </c>
+      <c r="F62">
+        <v>10</v>
+      </c>
+      <c r="G62" t="s">
+        <v>74</v>
+      </c>
+      <c r="H62" t="s">
+        <v>73</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>1</v>
+      </c>
+      <c r="L62">
+        <v>2</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>2</v>
+      </c>
+      <c r="O62" t="s">
+        <v>126</v>
+      </c>
+      <c r="P62" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q62">
+        <v>2.5</v>
+      </c>
+      <c r="R62">
+        <v>2.25</v>
+      </c>
+      <c r="S62">
+        <v>4.2</v>
+      </c>
+      <c r="T62">
+        <v>1.35</v>
+      </c>
+      <c r="U62">
+        <v>3.25</v>
+      </c>
+      <c r="V62">
+        <v>2.65</v>
+      </c>
+      <c r="W62">
+        <v>1.45</v>
+      </c>
+      <c r="X62">
+        <v>6.5</v>
+      </c>
+      <c r="Y62">
+        <v>1.1</v>
+      </c>
+      <c r="Z62">
+        <v>1.79</v>
+      </c>
+      <c r="AA62">
+        <v>3.9</v>
+      </c>
+      <c r="AB62">
+        <v>4.25</v>
+      </c>
+      <c r="AC62">
+        <v>1.03</v>
+      </c>
+      <c r="AD62">
+        <v>13</v>
+      </c>
+      <c r="AE62">
+        <v>1.25</v>
+      </c>
+      <c r="AF62">
+        <v>4</v>
+      </c>
+      <c r="AG62">
+        <v>1.8</v>
+      </c>
+      <c r="AH62">
+        <v>2</v>
+      </c>
+      <c r="AI62">
+        <v>1.7</v>
+      </c>
+      <c r="AJ62">
+        <v>2.1</v>
+      </c>
+      <c r="AK62">
+        <v>1.3</v>
+      </c>
+      <c r="AL62">
+        <v>1.3</v>
+      </c>
+      <c r="AM62">
+        <v>1.95</v>
+      </c>
+      <c r="AN62">
+        <v>2</v>
+      </c>
+      <c r="AO62">
+        <v>1</v>
+      </c>
+      <c r="AP62">
+        <v>2.17</v>
+      </c>
+      <c r="AQ62">
+        <v>0.8</v>
+      </c>
+      <c r="AR62">
+        <v>1.44</v>
+      </c>
+      <c r="AS62">
+        <v>1.03</v>
+      </c>
+      <c r="AT62">
+        <v>2.47</v>
+      </c>
+      <c r="AU62">
+        <v>4</v>
+      </c>
+      <c r="AV62">
+        <v>5</v>
+      </c>
+      <c r="AW62">
+        <v>5</v>
+      </c>
+      <c r="AX62">
+        <v>10</v>
+      </c>
+      <c r="AY62">
+        <v>9</v>
+      </c>
+      <c r="AZ62">
+        <v>15</v>
+      </c>
+      <c r="BA62">
+        <v>3</v>
+      </c>
+      <c r="BB62">
+        <v>5</v>
+      </c>
+      <c r="BC62">
+        <v>8</v>
+      </c>
+      <c r="BD62">
+        <v>1.64</v>
+      </c>
+      <c r="BE62">
+        <v>8.5</v>
+      </c>
+      <c r="BF62">
+        <v>2.64</v>
+      </c>
+      <c r="BG62">
+        <v>1.2</v>
+      </c>
+      <c r="BH62">
+        <v>4.25</v>
+      </c>
+      <c r="BI62">
+        <v>1.38</v>
+      </c>
+      <c r="BJ62">
+        <v>2.9</v>
+      </c>
+      <c r="BK62">
+        <v>1.7</v>
+      </c>
+      <c r="BL62">
+        <v>2.05</v>
+      </c>
+      <c r="BM62">
+        <v>2</v>
+      </c>
+      <c r="BN62">
+        <v>1.73</v>
+      </c>
+      <c r="BO62">
+        <v>2.85</v>
+      </c>
+      <c r="BP62">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="63" spans="1:68">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63">
+        <v>7325392</v>
+      </c>
+      <c r="C63" t="s">
+        <v>68</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="2">
+        <v>45450.58333333334</v>
+      </c>
+      <c r="F63">
+        <v>10</v>
+      </c>
+      <c r="G63" t="s">
+        <v>76</v>
+      </c>
+      <c r="H63" t="s">
+        <v>72</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>2</v>
+      </c>
+      <c r="L63">
+        <v>4</v>
+      </c>
+      <c r="M63">
+        <v>1</v>
+      </c>
+      <c r="N63">
+        <v>5</v>
+      </c>
+      <c r="O63" t="s">
+        <v>127</v>
+      </c>
+      <c r="P63" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q63">
+        <v>2.65</v>
+      </c>
+      <c r="R63">
+        <v>2.25</v>
+      </c>
+      <c r="S63">
+        <v>4</v>
+      </c>
+      <c r="T63">
+        <v>1.36</v>
+      </c>
+      <c r="U63">
+        <v>3.1</v>
+      </c>
+      <c r="V63">
+        <v>2.75</v>
+      </c>
+      <c r="W63">
+        <v>1.42</v>
+      </c>
+      <c r="X63">
+        <v>6.5</v>
+      </c>
+      <c r="Y63">
+        <v>1.09</v>
+      </c>
+      <c r="Z63">
+        <v>1.84</v>
+      </c>
+      <c r="AA63">
+        <v>3.92</v>
+      </c>
+      <c r="AB63">
+        <v>3.96</v>
+      </c>
+      <c r="AC63">
+        <v>1.01</v>
+      </c>
+      <c r="AD63">
+        <v>9.9</v>
+      </c>
+      <c r="AE63">
+        <v>1.24</v>
+      </c>
+      <c r="AF63">
+        <v>3.5</v>
+      </c>
+      <c r="AG63">
+        <v>1.85</v>
+      </c>
+      <c r="AH63">
+        <v>1.95</v>
+      </c>
+      <c r="AI63">
+        <v>1.7</v>
+      </c>
+      <c r="AJ63">
+        <v>2.1</v>
+      </c>
+      <c r="AK63">
+        <v>1.33</v>
+      </c>
+      <c r="AL63">
+        <v>1.3</v>
+      </c>
+      <c r="AM63">
+        <v>1.85</v>
+      </c>
+      <c r="AN63">
+        <v>1.83</v>
+      </c>
+      <c r="AO63">
+        <v>1.75</v>
+      </c>
+      <c r="AP63">
+        <v>2</v>
+      </c>
+      <c r="AQ63">
+        <v>1.4</v>
+      </c>
+      <c r="AR63">
+        <v>1.99</v>
+      </c>
+      <c r="AS63">
+        <v>1.62</v>
+      </c>
+      <c r="AT63">
+        <v>3.61</v>
+      </c>
+      <c r="AU63">
+        <v>5</v>
+      </c>
+      <c r="AV63">
+        <v>3</v>
+      </c>
+      <c r="AW63">
+        <v>10</v>
+      </c>
+      <c r="AX63">
+        <v>12</v>
+      </c>
+      <c r="AY63">
+        <v>15</v>
+      </c>
+      <c r="AZ63">
+        <v>15</v>
+      </c>
+      <c r="BA63">
+        <v>13</v>
+      </c>
+      <c r="BB63">
+        <v>10</v>
+      </c>
+      <c r="BC63">
+        <v>23</v>
+      </c>
+      <c r="BD63">
+        <v>1.82</v>
+      </c>
+      <c r="BE63">
+        <v>8</v>
+      </c>
+      <c r="BF63">
+        <v>2.39</v>
+      </c>
+      <c r="BG63">
+        <v>1.23</v>
+      </c>
+      <c r="BH63">
+        <v>3.95</v>
+      </c>
+      <c r="BI63">
+        <v>1.42</v>
+      </c>
+      <c r="BJ63">
+        <v>2.75</v>
+      </c>
+      <c r="BK63">
+        <v>1.73</v>
+      </c>
+      <c r="BL63">
+        <v>2</v>
+      </c>
+      <c r="BM63">
+        <v>2.23</v>
+      </c>
+      <c r="BN63">
+        <v>1.6</v>
+      </c>
+      <c r="BO63">
+        <v>3.05</v>
+      </c>
+      <c r="BP63">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="64" spans="1:68">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64">
+        <v>7325393</v>
+      </c>
+      <c r="C64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>69</v>
+      </c>
+      <c r="E64" s="2">
+        <v>45451.45833333334</v>
+      </c>
+      <c r="F64">
+        <v>10</v>
+      </c>
+      <c r="G64" t="s">
+        <v>75</v>
+      </c>
+      <c r="H64" t="s">
+        <v>81</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>1</v>
+      </c>
+      <c r="L64">
+        <v>4</v>
+      </c>
+      <c r="M64">
+        <v>1</v>
+      </c>
+      <c r="N64">
+        <v>5</v>
+      </c>
+      <c r="O64" t="s">
+        <v>128</v>
+      </c>
+      <c r="P64" t="s">
+        <v>171</v>
+      </c>
+      <c r="Q64">
+        <v>1.99</v>
+      </c>
+      <c r="R64">
+        <v>2.36</v>
+      </c>
+      <c r="S64">
+        <v>6</v>
+      </c>
+      <c r="T64">
+        <v>1.33</v>
+      </c>
+      <c r="U64">
+        <v>3.16</v>
+      </c>
+      <c r="V64">
+        <v>2.55</v>
+      </c>
+      <c r="W64">
+        <v>1.48</v>
+      </c>
+      <c r="X64">
+        <v>6.15</v>
+      </c>
+      <c r="Y64">
+        <v>1.1</v>
+      </c>
+      <c r="Z64">
+        <v>1.44</v>
+      </c>
+      <c r="AA64">
+        <v>4.2</v>
+      </c>
+      <c r="AB64">
+        <v>5.8</v>
+      </c>
+      <c r="AC64">
+        <v>1.02</v>
+      </c>
+      <c r="AD64">
+        <v>10.5</v>
+      </c>
+      <c r="AE64">
+        <v>1.21</v>
+      </c>
+      <c r="AF64">
+        <v>3.75</v>
+      </c>
+      <c r="AG64">
+        <v>1.76</v>
+      </c>
+      <c r="AH64">
+        <v>2.06</v>
+      </c>
+      <c r="AI64">
+        <v>1.87</v>
+      </c>
+      <c r="AJ64">
+        <v>1.87</v>
+      </c>
+      <c r="AK64">
+        <v>1.11</v>
+      </c>
+      <c r="AL64">
+        <v>1.21</v>
+      </c>
+      <c r="AM64">
+        <v>2.62</v>
+      </c>
+      <c r="AN64">
+        <v>3</v>
+      </c>
+      <c r="AO64">
+        <v>0.4</v>
+      </c>
+      <c r="AP64">
+        <v>2.4</v>
+      </c>
+      <c r="AQ64">
+        <v>0.33</v>
+      </c>
+      <c r="AR64">
+        <v>1.36</v>
+      </c>
+      <c r="AS64">
+        <v>1.71</v>
+      </c>
+      <c r="AT64">
+        <v>3.07</v>
+      </c>
+      <c r="AU64">
+        <v>9</v>
+      </c>
+      <c r="AV64">
+        <v>4</v>
+      </c>
+      <c r="AW64">
+        <v>14</v>
+      </c>
+      <c r="AX64">
+        <v>5</v>
+      </c>
+      <c r="AY64">
+        <v>23</v>
+      </c>
+      <c r="AZ64">
+        <v>9</v>
+      </c>
+      <c r="BA64">
+        <v>3</v>
+      </c>
+      <c r="BB64">
+        <v>1</v>
+      </c>
+      <c r="BC64">
+        <v>4</v>
+      </c>
+      <c r="BD64">
+        <v>1.34</v>
+      </c>
+      <c r="BE64">
+        <v>9.5</v>
+      </c>
+      <c r="BF64">
+        <v>4.07</v>
+      </c>
+      <c r="BG64">
+        <v>1.18</v>
+      </c>
+      <c r="BH64">
+        <v>4.05</v>
+      </c>
+      <c r="BI64">
+        <v>1.38</v>
+      </c>
+      <c r="BJ64">
+        <v>2.8</v>
+      </c>
+      <c r="BK64">
+        <v>1.73</v>
+      </c>
+      <c r="BL64">
+        <v>2</v>
+      </c>
+      <c r="BM64">
+        <v>2.05</v>
+      </c>
+      <c r="BN64">
+        <v>1.7</v>
+      </c>
+      <c r="BO64">
+        <v>2.71</v>
+      </c>
+      <c r="BP64">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="65" spans="1:68">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65">
+        <v>7325394</v>
+      </c>
+      <c r="C65" t="s">
+        <v>68</v>
+      </c>
+      <c r="D65" t="s">
+        <v>69</v>
+      </c>
+      <c r="E65" s="2">
+        <v>45451.45833333334</v>
+      </c>
+      <c r="F65">
+        <v>10</v>
+      </c>
+      <c r="G65" t="s">
+        <v>80</v>
+      </c>
+      <c r="H65" t="s">
+        <v>70</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>1</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>1</v>
+      </c>
+      <c r="O65" t="s">
+        <v>129</v>
+      </c>
+      <c r="P65" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q65">
+        <v>3.75</v>
+      </c>
+      <c r="R65">
+        <v>2.2</v>
+      </c>
+      <c r="S65">
+        <v>2.75</v>
+      </c>
+      <c r="T65">
+        <v>1.36</v>
+      </c>
+      <c r="U65">
+        <v>3</v>
+      </c>
+      <c r="V65">
+        <v>2.63</v>
+      </c>
+      <c r="W65">
+        <v>1.44</v>
+      </c>
+      <c r="X65">
+        <v>7</v>
+      </c>
+      <c r="Y65">
+        <v>1.1</v>
+      </c>
+      <c r="Z65">
+        <v>3</v>
+      </c>
+      <c r="AA65">
+        <v>3.4</v>
+      </c>
+      <c r="AB65">
+        <v>2.1</v>
+      </c>
+      <c r="AC65">
+        <v>1.01</v>
+      </c>
+      <c r="AD65">
+        <v>10</v>
+      </c>
+      <c r="AE65">
+        <v>1.22</v>
+      </c>
+      <c r="AF65">
+        <v>3.64</v>
+      </c>
+      <c r="AG65">
+        <v>1.81</v>
+      </c>
+      <c r="AH65">
+        <v>2</v>
+      </c>
+      <c r="AI65">
+        <v>1.7</v>
+      </c>
+      <c r="AJ65">
+        <v>2.05</v>
+      </c>
+      <c r="AK65">
+        <v>1.62</v>
+      </c>
+      <c r="AL65">
+        <v>1.3</v>
+      </c>
+      <c r="AM65">
+        <v>1.4</v>
+      </c>
+      <c r="AN65">
+        <v>0.5</v>
+      </c>
+      <c r="AO65">
+        <v>1</v>
+      </c>
+      <c r="AP65">
+        <v>1</v>
+      </c>
+      <c r="AQ65">
+        <v>0.83</v>
+      </c>
+      <c r="AR65">
+        <v>1.2</v>
+      </c>
+      <c r="AS65">
+        <v>1.14</v>
+      </c>
+      <c r="AT65">
+        <v>2.34</v>
+      </c>
+      <c r="AU65">
+        <v>5</v>
+      </c>
+      <c r="AV65">
+        <v>6</v>
+      </c>
+      <c r="AW65">
+        <v>4</v>
+      </c>
+      <c r="AX65">
+        <v>6</v>
+      </c>
+      <c r="AY65">
+        <v>9</v>
+      </c>
+      <c r="AZ65">
+        <v>12</v>
+      </c>
+      <c r="BA65">
+        <v>4</v>
+      </c>
+      <c r="BB65">
+        <v>4</v>
+      </c>
+      <c r="BC65">
+        <v>8</v>
+      </c>
+      <c r="BD65">
+        <v>2.28</v>
+      </c>
+      <c r="BE65">
+        <v>8</v>
+      </c>
+      <c r="BF65">
+        <v>1.85</v>
+      </c>
+      <c r="BG65">
+        <v>1.26</v>
+      </c>
+      <c r="BH65">
+        <v>3.65</v>
+      </c>
+      <c r="BI65">
+        <v>1.48</v>
+      </c>
+      <c r="BJ65">
+        <v>2.55</v>
+      </c>
+      <c r="BK65">
+        <v>1.88</v>
+      </c>
+      <c r="BL65">
+        <v>1.92</v>
+      </c>
+      <c r="BM65">
+        <v>2.43</v>
+      </c>
+      <c r="BN65">
+        <v>1.52</v>
+      </c>
+      <c r="BO65">
+        <v>3.3</v>
+      </c>
+      <c r="BP65">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:68">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66">
+        <v>7325399</v>
+      </c>
+      <c r="C66" t="s">
+        <v>68</v>
+      </c>
+      <c r="D66" t="s">
+        <v>69</v>
+      </c>
+      <c r="E66" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F66">
+        <v>11</v>
+      </c>
+      <c r="G66" t="s">
+        <v>81</v>
+      </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>2</v>
+      </c>
+      <c r="L66">
+        <v>2</v>
+      </c>
+      <c r="M66">
+        <v>2</v>
+      </c>
+      <c r="N66">
+        <v>4</v>
+      </c>
+      <c r="O66" t="s">
+        <v>130</v>
+      </c>
+      <c r="P66" t="s">
+        <v>172</v>
+      </c>
+      <c r="Q66">
+        <v>2.3</v>
+      </c>
+      <c r="R66">
+        <v>2.24</v>
+      </c>
+      <c r="S66">
+        <v>4.75</v>
+      </c>
+      <c r="T66">
+        <v>1.36</v>
+      </c>
+      <c r="U66">
+        <v>3</v>
+      </c>
+      <c r="V66">
+        <v>2.67</v>
+      </c>
+      <c r="W66">
+        <v>1.44</v>
+      </c>
+      <c r="X66">
+        <v>6.5</v>
+      </c>
+      <c r="Y66">
+        <v>1.09</v>
+      </c>
+      <c r="Z66">
+        <v>1.72</v>
+      </c>
+      <c r="AA66">
+        <v>3.68</v>
+      </c>
+      <c r="AB66">
+        <v>4.22</v>
+      </c>
+      <c r="AC66">
+        <v>1.01</v>
+      </c>
+      <c r="AD66">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE66">
+        <v>1.24</v>
+      </c>
+      <c r="AF66">
+        <v>3.5</v>
+      </c>
+      <c r="AG66">
+        <v>1.78</v>
+      </c>
+      <c r="AH66">
+        <v>1.95</v>
+      </c>
+      <c r="AI66">
+        <v>1.75</v>
+      </c>
+      <c r="AJ66">
+        <v>2.01</v>
+      </c>
+      <c r="AK66">
+        <v>1.22</v>
+      </c>
+      <c r="AL66">
+        <v>1.23</v>
+      </c>
+      <c r="AM66">
+        <v>1.95</v>
+      </c>
+      <c r="AN66">
+        <v>1.25</v>
+      </c>
+      <c r="AO66">
+        <v>0.4</v>
+      </c>
+      <c r="AP66">
+        <v>1.2</v>
+      </c>
+      <c r="AQ66">
+        <v>0.5</v>
+      </c>
+      <c r="AR66">
+        <v>1.29</v>
+      </c>
+      <c r="AS66">
+        <v>1</v>
+      </c>
+      <c r="AT66">
+        <v>2.29</v>
+      </c>
+      <c r="AU66">
+        <v>5</v>
+      </c>
+      <c r="AV66">
+        <v>3</v>
+      </c>
+      <c r="AW66">
+        <v>4</v>
+      </c>
+      <c r="AX66">
+        <v>3</v>
+      </c>
+      <c r="AY66">
+        <v>9</v>
+      </c>
+      <c r="AZ66">
+        <v>6</v>
+      </c>
+      <c r="BA66">
+        <v>6</v>
+      </c>
+      <c r="BB66">
+        <v>4</v>
+      </c>
+      <c r="BC66">
+        <v>10</v>
+      </c>
+      <c r="BD66">
+        <v>1.69</v>
+      </c>
+      <c r="BE66">
+        <v>8.5</v>
+      </c>
+      <c r="BF66">
+        <v>2.62</v>
+      </c>
+      <c r="BG66">
+        <v>1.19</v>
+      </c>
+      <c r="BH66">
+        <v>3.9</v>
+      </c>
+      <c r="BI66">
+        <v>1.4</v>
+      </c>
+      <c r="BJ66">
+        <v>2.72</v>
+      </c>
+      <c r="BK66">
+        <v>1.73</v>
+      </c>
+      <c r="BL66">
+        <v>2</v>
+      </c>
+      <c r="BM66">
+        <v>2.13</v>
+      </c>
+      <c r="BN66">
+        <v>1.68</v>
+      </c>
+      <c r="BO66">
+        <v>2.79</v>
+      </c>
+      <c r="BP66">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:68">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67">
+        <v>7325398</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>69</v>
+      </c>
+      <c r="E67" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F67">
+        <v>11</v>
+      </c>
+      <c r="G67" t="s">
+        <v>72</v>
+      </c>
+      <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>2</v>
+      </c>
+      <c r="L67">
+        <v>3</v>
+      </c>
+      <c r="M67">
+        <v>1</v>
+      </c>
+      <c r="N67">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>131</v>
+      </c>
+      <c r="P67" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q67">
+        <v>1.78</v>
+      </c>
+      <c r="R67">
+        <v>2.6</v>
+      </c>
+      <c r="S67">
+        <v>6.5</v>
+      </c>
+      <c r="T67">
+        <v>1.29</v>
+      </c>
+      <c r="U67">
+        <v>3.3</v>
+      </c>
+      <c r="V67">
+        <v>2.25</v>
+      </c>
+      <c r="W67">
+        <v>1.57</v>
+      </c>
+      <c r="X67">
+        <v>5</v>
+      </c>
+      <c r="Y67">
+        <v>1.13</v>
+      </c>
+      <c r="Z67">
+        <v>1.32</v>
+      </c>
+      <c r="AA67">
+        <v>5.05</v>
+      </c>
+      <c r="AB67">
+        <v>7.25</v>
+      </c>
+      <c r="AC67">
+        <v>1.03</v>
+      </c>
+      <c r="AD67">
+        <v>10</v>
+      </c>
+      <c r="AE67">
+        <v>1.17</v>
+      </c>
+      <c r="AF67">
+        <v>4.5</v>
+      </c>
+      <c r="AG67">
+        <v>1.55</v>
+      </c>
+      <c r="AH67">
+        <v>2.3</v>
+      </c>
+      <c r="AI67">
+        <v>1.85</v>
+      </c>
+      <c r="AJ67">
+        <v>1.85</v>
+      </c>
+      <c r="AK67">
+        <v>1.08</v>
+      </c>
+      <c r="AL67">
+        <v>1.17</v>
+      </c>
+      <c r="AM67">
+        <v>3.2</v>
+      </c>
+      <c r="AN67">
+        <v>1.83</v>
+      </c>
+      <c r="AO67">
+        <v>0.2</v>
+      </c>
+      <c r="AP67">
+        <v>2</v>
+      </c>
+      <c r="AQ67">
+        <v>0.17</v>
+      </c>
+      <c r="AR67">
+        <v>1.63</v>
+      </c>
+      <c r="AS67">
+        <v>1.2</v>
+      </c>
+      <c r="AT67">
+        <v>2.83</v>
+      </c>
+      <c r="AU67">
+        <v>12</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
+        <v>14</v>
+      </c>
+      <c r="AX67">
+        <v>6</v>
+      </c>
+      <c r="AY67">
+        <v>26</v>
+      </c>
+      <c r="AZ67">
+        <v>8</v>
+      </c>
+      <c r="BA67">
+        <v>5</v>
+      </c>
+      <c r="BB67">
+        <v>5</v>
+      </c>
+      <c r="BC67">
+        <v>10</v>
+      </c>
+      <c r="BD67">
+        <v>1.31</v>
+      </c>
+      <c r="BE67">
+        <v>9.5</v>
+      </c>
+      <c r="BF67">
+        <v>4.13</v>
+      </c>
+      <c r="BG67">
+        <v>1.27</v>
+      </c>
+      <c r="BH67">
+        <v>3.55</v>
+      </c>
+      <c r="BI67">
+        <v>1.5</v>
+      </c>
+      <c r="BJ67">
+        <v>2.48</v>
+      </c>
+      <c r="BK67">
+        <v>1.88</v>
+      </c>
+      <c r="BL67">
+        <v>1.92</v>
+      </c>
+      <c r="BM67">
+        <v>2.45</v>
+      </c>
+      <c r="BN67">
+        <v>1.5</v>
+      </c>
+      <c r="BO67">
+        <v>3.4</v>
+      </c>
+      <c r="BP67">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="68" spans="1:68">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68">
+        <v>7325396</v>
+      </c>
+      <c r="C68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>69</v>
+      </c>
+      <c r="E68" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F68">
+        <v>11</v>
+      </c>
+      <c r="G68" t="s">
+        <v>78</v>
+      </c>
+      <c r="H68" t="s">
+        <v>71</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>2</v>
+      </c>
+      <c r="N68">
+        <v>2</v>
+      </c>
+      <c r="O68" t="s">
+        <v>83</v>
+      </c>
+      <c r="P68" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q68">
+        <v>3.92</v>
+      </c>
+      <c r="R68">
+        <v>2.22</v>
+      </c>
+      <c r="S68">
+        <v>2.59</v>
+      </c>
+      <c r="T68">
+        <v>1.35</v>
+      </c>
+      <c r="U68">
+        <v>3.05</v>
+      </c>
+      <c r="V68">
+        <v>2.61</v>
+      </c>
+      <c r="W68">
+        <v>1.46</v>
+      </c>
+      <c r="X68">
+        <v>6.35</v>
+      </c>
+      <c r="Y68">
+        <v>1.1</v>
+      </c>
+      <c r="Z68">
+        <v>3.23</v>
+      </c>
+      <c r="AA68">
+        <v>3.52</v>
+      </c>
+      <c r="AB68">
+        <v>2.02</v>
+      </c>
+      <c r="AC68">
+        <v>1.02</v>
+      </c>
+      <c r="AD68">
+        <v>10.25</v>
+      </c>
+      <c r="AE68">
+        <v>1.22</v>
+      </c>
+      <c r="AF68">
+        <v>3.66</v>
+      </c>
+      <c r="AG68">
+        <v>1.75</v>
+      </c>
+      <c r="AH68">
+        <v>1.95</v>
+      </c>
+      <c r="AI68">
+        <v>1.66</v>
+      </c>
+      <c r="AJ68">
+        <v>2.14</v>
+      </c>
+      <c r="AK68">
+        <v>1.7</v>
+      </c>
+      <c r="AL68">
+        <v>1.25</v>
+      </c>
+      <c r="AM68">
+        <v>1.32</v>
+      </c>
+      <c r="AN68">
+        <v>1.6</v>
+      </c>
+      <c r="AO68">
+        <v>1.6</v>
+      </c>
+      <c r="AP68">
+        <v>1.33</v>
+      </c>
+      <c r="AQ68">
+        <v>1.83</v>
+      </c>
+      <c r="AR68">
+        <v>1.65</v>
+      </c>
+      <c r="AS68">
+        <v>1.59</v>
+      </c>
+      <c r="AT68">
+        <v>3.24</v>
+      </c>
+      <c r="AU68">
+        <v>3</v>
+      </c>
+      <c r="AV68">
+        <v>2</v>
+      </c>
+      <c r="AW68">
+        <v>4</v>
+      </c>
+      <c r="AX68">
+        <v>10</v>
+      </c>
+      <c r="AY68">
+        <v>7</v>
+      </c>
+      <c r="AZ68">
+        <v>12</v>
+      </c>
+      <c r="BA68">
+        <v>3</v>
+      </c>
+      <c r="BB68">
+        <v>6</v>
+      </c>
+      <c r="BC68">
+        <v>9</v>
+      </c>
+      <c r="BD68">
+        <v>2.33</v>
+      </c>
+      <c r="BE68">
+        <v>8</v>
+      </c>
+      <c r="BF68">
+        <v>1.82</v>
+      </c>
+      <c r="BG68">
+        <v>1.23</v>
+      </c>
+      <c r="BH68">
+        <v>3.95</v>
+      </c>
+      <c r="BI68">
+        <v>1.42</v>
+      </c>
+      <c r="BJ68">
+        <v>2.75</v>
+      </c>
+      <c r="BK68">
+        <v>1.73</v>
+      </c>
+      <c r="BL68">
+        <v>2</v>
+      </c>
+      <c r="BM68">
+        <v>2.23</v>
+      </c>
+      <c r="BN68">
+        <v>1.6</v>
+      </c>
+      <c r="BO68">
+        <v>3.05</v>
+      </c>
+      <c r="BP68">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="69" spans="1:68">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69">
+        <v>7325397</v>
+      </c>
+      <c r="C69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F69">
+        <v>11</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>74</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>1</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>1</v>
+      </c>
+      <c r="N69">
+        <v>1</v>
+      </c>
+      <c r="O69" t="s">
+        <v>83</v>
+      </c>
+      <c r="P69" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q69">
+        <v>2.15</v>
+      </c>
+      <c r="R69">
+        <v>2.27</v>
+      </c>
+      <c r="S69">
+        <v>5.56</v>
+      </c>
+      <c r="T69">
+        <v>1.36</v>
+      </c>
+      <c r="U69">
+        <v>3</v>
+      </c>
+      <c r="V69">
+        <v>2.67</v>
+      </c>
+      <c r="W69">
+        <v>1.44</v>
+      </c>
+      <c r="X69">
+        <v>6.6</v>
+      </c>
+      <c r="Y69">
+        <v>1.09</v>
+      </c>
+      <c r="Z69">
+        <v>1.56</v>
+      </c>
+      <c r="AA69">
+        <v>4.01</v>
+      </c>
+      <c r="AB69">
+        <v>5.39</v>
+      </c>
+      <c r="AC69">
+        <v>1.01</v>
+      </c>
+      <c r="AD69">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE69">
+        <v>1.24</v>
+      </c>
+      <c r="AF69">
+        <v>3.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.83</v>
+      </c>
+      <c r="AH69">
+        <v>1.94</v>
+      </c>
+      <c r="AI69">
+        <v>1.87</v>
+      </c>
+      <c r="AJ69">
+        <v>1.87</v>
+      </c>
+      <c r="AK69">
+        <v>1.15</v>
+      </c>
+      <c r="AL69">
+        <v>1.24</v>
+      </c>
+      <c r="AM69">
+        <v>2.36</v>
+      </c>
+      <c r="AN69">
+        <v>3</v>
+      </c>
+      <c r="AO69">
+        <v>1</v>
+      </c>
+      <c r="AP69">
+        <v>2.4</v>
+      </c>
+      <c r="AQ69">
+        <v>1.4</v>
+      </c>
+      <c r="AR69">
+        <v>1.62</v>
+      </c>
+      <c r="AS69">
+        <v>1.39</v>
+      </c>
+      <c r="AT69">
+        <v>3.01</v>
+      </c>
+      <c r="AU69">
+        <v>4</v>
+      </c>
+      <c r="AV69">
+        <v>4</v>
+      </c>
+      <c r="AW69">
+        <v>22</v>
+      </c>
+      <c r="AX69">
+        <v>3</v>
+      </c>
+      <c r="AY69">
+        <v>26</v>
+      </c>
+      <c r="AZ69">
+        <v>7</v>
+      </c>
+      <c r="BA69">
+        <v>11</v>
+      </c>
+      <c r="BB69">
+        <v>3</v>
+      </c>
+      <c r="BC69">
+        <v>14</v>
+      </c>
+      <c r="BD69">
+        <v>1.26</v>
+      </c>
+      <c r="BE69">
+        <v>10</v>
+      </c>
+      <c r="BF69">
+        <v>4.64</v>
+      </c>
+      <c r="BG69">
+        <v>1.23</v>
+      </c>
+      <c r="BH69">
+        <v>3.95</v>
+      </c>
+      <c r="BI69">
+        <v>1.42</v>
+      </c>
+      <c r="BJ69">
+        <v>2.75</v>
+      </c>
+      <c r="BK69">
+        <v>1.73</v>
+      </c>
+      <c r="BL69">
+        <v>2</v>
+      </c>
+      <c r="BM69">
+        <v>2.23</v>
+      </c>
+      <c r="BN69">
+        <v>1.6</v>
+      </c>
+      <c r="BO69">
+        <v>3.05</v>
+      </c>
+      <c r="BP69">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="70" spans="1:68">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70">
+        <v>7325395</v>
+      </c>
+      <c r="C70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>69</v>
+      </c>
+      <c r="E70" s="2">
+        <v>45455.5</v>
+      </c>
+      <c r="F70">
+        <v>11</v>
+      </c>
+      <c r="G70" t="s">
+        <v>73</v>
+      </c>
+      <c r="H70" t="s">
+        <v>77</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0</v>
+      </c>
+      <c r="O70" t="s">
+        <v>83</v>
+      </c>
+      <c r="P70" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q70">
+        <v>4.33</v>
+      </c>
+      <c r="R70">
+        <v>2.2</v>
+      </c>
+      <c r="S70">
+        <v>2.4</v>
+      </c>
+      <c r="T70">
+        <v>1.38</v>
+      </c>
+      <c r="U70">
+        <v>2.8</v>
+      </c>
+      <c r="V70">
+        <v>2.7</v>
+      </c>
+      <c r="W70">
+        <v>1.4</v>
+      </c>
+      <c r="X70">
+        <v>6.5</v>
+      </c>
+      <c r="Y70">
+        <v>1.08</v>
+      </c>
+      <c r="Z70">
+        <v>3.7</v>
+      </c>
+      <c r="AA70">
+        <v>3.45</v>
+      </c>
+      <c r="AB70">
+        <v>1.89</v>
+      </c>
+      <c r="AC70">
+        <v>1.03</v>
+      </c>
+      <c r="AD70">
+        <v>9</v>
+      </c>
+      <c r="AE70">
+        <v>1.29</v>
+      </c>
+      <c r="AF70">
+        <v>3.3</v>
+      </c>
+      <c r="AG70">
+        <v>1.88</v>
+      </c>
+      <c r="AH70">
+        <v>1.82</v>
+      </c>
+      <c r="AI70">
+        <v>1.8</v>
+      </c>
+      <c r="AJ70">
+        <v>1.91</v>
+      </c>
+      <c r="AK70">
+        <v>1.88</v>
+      </c>
+      <c r="AL70">
+        <v>1.25</v>
+      </c>
+      <c r="AM70">
+        <v>1.23</v>
+      </c>
+      <c r="AN70">
+        <v>1.6</v>
+      </c>
+      <c r="AO70">
+        <v>2.4</v>
+      </c>
+      <c r="AP70">
+        <v>1.5</v>
+      </c>
+      <c r="AQ70">
+        <v>2.17</v>
+      </c>
+      <c r="AR70">
+        <v>1.19</v>
+      </c>
+      <c r="AS70">
+        <v>1.35</v>
+      </c>
+      <c r="AT70">
+        <v>2.54</v>
+      </c>
+      <c r="AU70">
+        <v>3</v>
+      </c>
+      <c r="AV70">
+        <v>4</v>
+      </c>
+      <c r="AW70">
+        <v>5</v>
+      </c>
+      <c r="AX70">
+        <v>11</v>
+      </c>
+      <c r="AY70">
+        <v>8</v>
+      </c>
+      <c r="AZ70">
+        <v>15</v>
+      </c>
+      <c r="BA70">
+        <v>7</v>
+      </c>
+      <c r="BB70">
+        <v>4</v>
+      </c>
+      <c r="BC70">
+        <v>11</v>
+      </c>
+      <c r="BD70">
+        <v>2.78</v>
+      </c>
+      <c r="BE70">
+        <v>8.5</v>
+      </c>
+      <c r="BF70">
+        <v>1.59</v>
+      </c>
+      <c r="BG70">
+        <v>1.2</v>
+      </c>
+      <c r="BH70">
+        <v>4.25</v>
+      </c>
+      <c r="BI70">
+        <v>1.38</v>
+      </c>
+      <c r="BJ70">
+        <v>2.88</v>
+      </c>
+      <c r="BK70">
+        <v>1.73</v>
+      </c>
+      <c r="BL70">
+        <v>2</v>
+      </c>
+      <c r="BM70">
+        <v>2.12</v>
+      </c>
+      <c r="BN70">
+        <v>1.66</v>
+      </c>
+      <c r="BO70">
+        <v>2.85</v>
+      </c>
+      <c r="BP70">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:68">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71">
+        <v>7325400</v>
+      </c>
+      <c r="C71" t="s">
+        <v>68</v>
+      </c>
+      <c r="D71" t="s">
+        <v>69</v>
+      </c>
+      <c r="E71" s="2">
+        <v>45455.54166666666</v>
+      </c>
+      <c r="F71">
+        <v>11</v>
+      </c>
+      <c r="G71" t="s">
+        <v>70</v>
+      </c>
+      <c r="H71" t="s">
+        <v>76</v>
+      </c>
+      <c r="I71">
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <v>2</v>
+      </c>
+      <c r="K71">
+        <v>2</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>4</v>
+      </c>
+      <c r="N71">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>83</v>
+      </c>
+      <c r="P71" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q71">
+        <v>5.5</v>
+      </c>
+      <c r="R71">
+        <v>2.44</v>
+      </c>
+      <c r="S71">
+        <v>2.14</v>
+      </c>
+      <c r="T71">
+        <v>1.33</v>
+      </c>
+      <c r="U71">
+        <v>3.32</v>
+      </c>
+      <c r="V71">
+        <v>2.62</v>
+      </c>
+      <c r="W71">
+        <v>1.48</v>
+      </c>
+      <c r="X71">
+        <v>5.5</v>
+      </c>
+      <c r="Y71">
+        <v>1.11</v>
+      </c>
+      <c r="Z71">
+        <v>4.7</v>
+      </c>
+      <c r="AA71">
+        <v>3.88</v>
+      </c>
+      <c r="AB71">
+        <v>1.62</v>
+      </c>
+      <c r="AC71">
+        <v>1.02</v>
+      </c>
+      <c r="AD71">
+        <v>10</v>
+      </c>
+      <c r="AE71">
+        <v>1.22</v>
+      </c>
+      <c r="AF71">
+        <v>3.8</v>
+      </c>
+      <c r="AG71">
+        <v>1.72</v>
+      </c>
+      <c r="AH71">
+        <v>2</v>
+      </c>
+      <c r="AI71">
+        <v>1.75</v>
+      </c>
+      <c r="AJ71">
+        <v>1.95</v>
+      </c>
+      <c r="AK71">
+        <v>2.29</v>
+      </c>
+      <c r="AL71">
+        <v>1.24</v>
+      </c>
+      <c r="AM71">
+        <v>1.16</v>
+      </c>
+      <c r="AN71">
+        <v>1.4</v>
+      </c>
+      <c r="AO71">
+        <v>1</v>
+      </c>
+      <c r="AP71">
+        <v>1.17</v>
+      </c>
+      <c r="AQ71">
+        <v>1.33</v>
+      </c>
+      <c r="AR71">
+        <v>1.67</v>
+      </c>
+      <c r="AS71">
+        <v>1.23</v>
+      </c>
+      <c r="AT71">
+        <v>2.9</v>
+      </c>
+      <c r="AU71">
+        <v>4</v>
+      </c>
+      <c r="AV71">
+        <v>10</v>
+      </c>
+      <c r="AW71">
+        <v>7</v>
+      </c>
+      <c r="AX71">
+        <v>7</v>
+      </c>
+      <c r="AY71">
+        <v>11</v>
+      </c>
+      <c r="AZ71">
+        <v>17</v>
+      </c>
+      <c r="BA71">
+        <v>4</v>
+      </c>
+      <c r="BB71">
+        <v>5</v>
+      </c>
+      <c r="BC71">
+        <v>9</v>
+      </c>
+      <c r="BD71">
+        <v>2.66</v>
+      </c>
+      <c r="BE71">
+        <v>8.5</v>
+      </c>
+      <c r="BF71">
+        <v>1.64</v>
+      </c>
+      <c r="BG71">
+        <v>1.13</v>
+      </c>
+      <c r="BH71">
+        <v>4.8</v>
+      </c>
+      <c r="BI71">
+        <v>1.3</v>
+      </c>
+      <c r="BJ71">
+        <v>3.3</v>
+      </c>
+      <c r="BK71">
+        <v>1.55</v>
+      </c>
+      <c r="BL71">
+        <v>2.38</v>
+      </c>
+      <c r="BM71">
+        <v>2</v>
+      </c>
+      <c r="BN71">
+        <v>1.8</v>
+      </c>
+      <c r="BO71">
+        <v>2.5</v>
+      </c>
+      <c r="BP71">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="185">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -412,6 +412,21 @@
     <t>['16', '49', '90+1']</t>
   </si>
   <si>
+    <t>['21', '50', '61']</t>
+  </si>
+  <si>
+    <t>['14']</t>
+  </si>
+  <si>
+    <t>['30', '81']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['81', '83', '90+3']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -481,9 +496,6 @@
     <t>['32']</t>
   </si>
   <si>
-    <t>['39']</t>
-  </si>
-  <si>
     <t>['40', '80']</t>
   </si>
   <si>
@@ -542,6 +554,21 @@
   </si>
   <si>
     <t>['2', '35', '82', '90+1']</t>
+  </si>
+  <si>
+    <t>['5', '29', '90']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['12', '77']</t>
+  </si>
+  <si>
+    <t>['31', '65']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
 </sst>
 </file>
@@ -903,7 +930,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP71"/>
+  <dimension ref="A1:BP77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1162,7 +1189,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1243,7 +1270,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ2">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1446,7 +1473,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1574,7 +1601,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1655,7 +1682,7 @@
         <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1780,7 +1807,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1986,7 +2013,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2064,7 +2091,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
         <v>2.17</v>
@@ -2192,7 +2219,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2476,7 +2503,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2604,7 +2631,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2682,7 +2709,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
         <v>0.17</v>
@@ -2810,7 +2837,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2888,10 +2915,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3016,7 +3043,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3097,7 +3124,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3222,7 +3249,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3300,10 +3327,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3428,7 +3455,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3509,7 +3536,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3840,7 +3867,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3921,7 +3948,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4046,7 +4073,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4124,10 +4151,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4330,7 +4357,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ17">
         <v>1.4</v>
@@ -4458,7 +4485,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4536,10 +4563,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4664,7 +4691,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4742,10 +4769,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4870,7 +4897,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5076,7 +5103,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5282,7 +5309,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5360,7 +5387,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
         <v>1.33</v>
@@ -5488,7 +5515,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5566,10 +5593,10 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ23">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5694,7 +5721,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5981,7 +6008,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6106,7 +6133,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6390,7 +6417,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6518,7 +6545,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6596,10 +6623,10 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6802,7 +6829,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
         <v>0.17</v>
@@ -6930,7 +6957,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7011,7 +7038,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7136,7 +7163,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7342,7 +7369,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>152</v>
+        <v>157</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7423,7 +7450,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7548,7 +7575,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7832,10 +7859,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -7960,7 +7987,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8041,7 +8068,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8166,7 +8193,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -8372,7 +8399,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8450,7 +8477,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
         <v>1.83</v>
@@ -8656,10 +8683,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8784,7 +8811,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8862,7 +8889,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
         <v>2.17</v>
@@ -8990,7 +9017,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9071,7 +9098,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ40">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9196,7 +9223,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9277,7 +9304,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9480,7 +9507,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
         <v>1.4</v>
@@ -9689,7 +9716,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9814,7 +9841,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9892,7 +9919,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10020,7 +10047,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10098,10 +10125,10 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10304,10 +10331,10 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10510,10 +10537,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10638,7 +10665,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10716,10 +10743,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -10922,7 +10949,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
         <v>1.83</v>
@@ -11050,7 +11077,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11256,7 +11283,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11337,7 +11364,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11462,7 +11489,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11540,10 +11567,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11668,7 +11695,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11746,10 +11773,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -11874,7 +11901,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12080,7 +12107,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12158,10 +12185,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12286,7 +12313,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12367,7 +12394,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12698,7 +12725,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12904,7 +12931,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -12982,7 +13009,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
         <v>2.17</v>
@@ -13110,7 +13137,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13188,7 +13215,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
         <v>1.83</v>
@@ -13316,7 +13343,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13394,10 +13421,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AQ61">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13600,10 +13627,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>0.8</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13728,7 +13755,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13806,10 +13833,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -13934,7 +13961,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14015,7 +14042,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ64">
-        <v>0.33</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14218,10 +14245,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14346,7 +14373,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14552,7 +14579,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14758,7 +14785,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15376,7 +15403,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15533,6 +15560,1242 @@
       </c>
       <c r="BP71">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:68">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72">
+        <v>7325401</v>
+      </c>
+      <c r="C72" t="s">
+        <v>68</v>
+      </c>
+      <c r="D72" t="s">
+        <v>69</v>
+      </c>
+      <c r="E72" s="2">
+        <v>45462.625</v>
+      </c>
+      <c r="F72">
+        <v>12</v>
+      </c>
+      <c r="G72" t="s">
+        <v>79</v>
+      </c>
+      <c r="H72" t="s">
+        <v>70</v>
+      </c>
+      <c r="I72">
+        <v>1</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72">
+        <v>3</v>
+      </c>
+      <c r="L72">
+        <v>3</v>
+      </c>
+      <c r="M72">
+        <v>3</v>
+      </c>
+      <c r="N72">
+        <v>6</v>
+      </c>
+      <c r="O72" t="s">
+        <v>132</v>
+      </c>
+      <c r="P72" t="s">
+        <v>180</v>
+      </c>
+      <c r="Q72">
+        <v>3.4</v>
+      </c>
+      <c r="R72">
+        <v>2.05</v>
+      </c>
+      <c r="S72">
+        <v>2.95</v>
+      </c>
+      <c r="T72">
+        <v>1.4</v>
+      </c>
+      <c r="U72">
+        <v>2.75</v>
+      </c>
+      <c r="V72">
+        <v>2.8</v>
+      </c>
+      <c r="W72">
+        <v>1.37</v>
+      </c>
+      <c r="X72">
+        <v>6.5</v>
+      </c>
+      <c r="Y72">
+        <v>1.08</v>
+      </c>
+      <c r="Z72">
+        <v>2.91</v>
+      </c>
+      <c r="AA72">
+        <v>3.15</v>
+      </c>
+      <c r="AB72">
+        <v>2.39</v>
+      </c>
+      <c r="AC72">
+        <v>1.03</v>
+      </c>
+      <c r="AD72">
+        <v>8.5</v>
+      </c>
+      <c r="AE72">
+        <v>1.3</v>
+      </c>
+      <c r="AF72">
+        <v>3.2</v>
+      </c>
+      <c r="AG72">
+        <v>2.05</v>
+      </c>
+      <c r="AH72">
+        <v>1.81</v>
+      </c>
+      <c r="AI72">
+        <v>1.7</v>
+      </c>
+      <c r="AJ72">
+        <v>2</v>
+      </c>
+      <c r="AK72">
+        <v>1.4</v>
+      </c>
+      <c r="AL72">
+        <v>1.35</v>
+      </c>
+      <c r="AM72">
+        <v>1.4</v>
+      </c>
+      <c r="AN72">
+        <v>0.8</v>
+      </c>
+      <c r="AO72">
+        <v>0.83</v>
+      </c>
+      <c r="AP72">
+        <v>0.83</v>
+      </c>
+      <c r="AQ72">
+        <v>0.86</v>
+      </c>
+      <c r="AR72">
+        <v>1.51</v>
+      </c>
+      <c r="AS72">
+        <v>1.22</v>
+      </c>
+      <c r="AT72">
+        <v>2.73</v>
+      </c>
+      <c r="AU72">
+        <v>5</v>
+      </c>
+      <c r="AV72">
+        <v>9</v>
+      </c>
+      <c r="AW72">
+        <v>5</v>
+      </c>
+      <c r="AX72">
+        <v>10</v>
+      </c>
+      <c r="AY72">
+        <v>10</v>
+      </c>
+      <c r="AZ72">
+        <v>19</v>
+      </c>
+      <c r="BA72">
+        <v>4</v>
+      </c>
+      <c r="BB72">
+        <v>5</v>
+      </c>
+      <c r="BC72">
+        <v>9</v>
+      </c>
+      <c r="BD72">
+        <v>1.95</v>
+      </c>
+      <c r="BE72">
+        <v>8</v>
+      </c>
+      <c r="BF72">
+        <v>2.1</v>
+      </c>
+      <c r="BG72">
+        <v>1.19</v>
+      </c>
+      <c r="BH72">
+        <v>3.94</v>
+      </c>
+      <c r="BI72">
+        <v>1.39</v>
+      </c>
+      <c r="BJ72">
+        <v>2.76</v>
+      </c>
+      <c r="BK72">
+        <v>1.71</v>
+      </c>
+      <c r="BL72">
+        <v>2.06</v>
+      </c>
+      <c r="BM72">
+        <v>2.14</v>
+      </c>
+      <c r="BN72">
+        <v>1.63</v>
+      </c>
+      <c r="BO72">
+        <v>2.79</v>
+      </c>
+      <c r="BP72">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:68">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73">
+        <v>7325402</v>
+      </c>
+      <c r="C73" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" t="s">
+        <v>69</v>
+      </c>
+      <c r="E73" s="2">
+        <v>45462.625</v>
+      </c>
+      <c r="F73">
+        <v>12</v>
+      </c>
+      <c r="G73" t="s">
+        <v>74</v>
+      </c>
+      <c r="H73" t="s">
+        <v>78</v>
+      </c>
+      <c r="I73">
+        <v>0</v>
+      </c>
+      <c r="J73">
+        <v>0</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>0</v>
+      </c>
+      <c r="O73" t="s">
+        <v>83</v>
+      </c>
+      <c r="P73" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q73">
+        <v>2.9</v>
+      </c>
+      <c r="R73">
+        <v>2.3</v>
+      </c>
+      <c r="S73">
+        <v>2.9</v>
+      </c>
+      <c r="T73">
+        <v>1.31</v>
+      </c>
+      <c r="U73">
+        <v>3.28</v>
+      </c>
+      <c r="V73">
+        <v>2.46</v>
+      </c>
+      <c r="W73">
+        <v>1.51</v>
+      </c>
+      <c r="X73">
+        <v>5.8</v>
+      </c>
+      <c r="Y73">
+        <v>1.12</v>
+      </c>
+      <c r="Z73">
+        <v>2.44</v>
+      </c>
+      <c r="AA73">
+        <v>3.4</v>
+      </c>
+      <c r="AB73">
+        <v>2.66</v>
+      </c>
+      <c r="AC73">
+        <v>1.01</v>
+      </c>
+      <c r="AD73">
+        <v>10.5</v>
+      </c>
+      <c r="AE73">
+        <v>1.18</v>
+      </c>
+      <c r="AF73">
+        <v>4.1</v>
+      </c>
+      <c r="AG73">
+        <v>1.71</v>
+      </c>
+      <c r="AH73">
+        <v>2.14</v>
+      </c>
+      <c r="AI73">
+        <v>1.5</v>
+      </c>
+      <c r="AJ73">
+        <v>2.4</v>
+      </c>
+      <c r="AK73">
+        <v>1.33</v>
+      </c>
+      <c r="AL73">
+        <v>1.3</v>
+      </c>
+      <c r="AM73">
+        <v>1.55</v>
+      </c>
+      <c r="AN73">
+        <v>2.17</v>
+      </c>
+      <c r="AO73">
+        <v>0.5</v>
+      </c>
+      <c r="AP73">
+        <v>2</v>
+      </c>
+      <c r="AQ73">
+        <v>0.57</v>
+      </c>
+      <c r="AR73">
+        <v>1.38</v>
+      </c>
+      <c r="AS73">
+        <v>1.48</v>
+      </c>
+      <c r="AT73">
+        <v>2.86</v>
+      </c>
+      <c r="AU73">
+        <v>5</v>
+      </c>
+      <c r="AV73">
+        <v>8</v>
+      </c>
+      <c r="AW73">
+        <v>4</v>
+      </c>
+      <c r="AX73">
+        <v>16</v>
+      </c>
+      <c r="AY73">
+        <v>9</v>
+      </c>
+      <c r="AZ73">
+        <v>24</v>
+      </c>
+      <c r="BA73">
+        <v>3</v>
+      </c>
+      <c r="BB73">
+        <v>11</v>
+      </c>
+      <c r="BC73">
+        <v>14</v>
+      </c>
+      <c r="BD73">
+        <v>2.62</v>
+      </c>
+      <c r="BE73">
+        <v>8.5</v>
+      </c>
+      <c r="BF73">
+        <v>1.69</v>
+      </c>
+      <c r="BG73">
+        <v>1.11</v>
+      </c>
+      <c r="BH73">
+        <v>5.2</v>
+      </c>
+      <c r="BI73">
+        <v>1.25</v>
+      </c>
+      <c r="BJ73">
+        <v>3.42</v>
+      </c>
+      <c r="BK73">
+        <v>1.46</v>
+      </c>
+      <c r="BL73">
+        <v>2.52</v>
+      </c>
+      <c r="BM73">
+        <v>1.8</v>
+      </c>
+      <c r="BN73">
+        <v>1.95</v>
+      </c>
+      <c r="BO73">
+        <v>2.25</v>
+      </c>
+      <c r="BP73">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="74" spans="1:68">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74">
+        <v>7325403</v>
+      </c>
+      <c r="C74" t="s">
+        <v>68</v>
+      </c>
+      <c r="D74" t="s">
+        <v>69</v>
+      </c>
+      <c r="E74" s="2">
+        <v>45462.625</v>
+      </c>
+      <c r="F74">
+        <v>12</v>
+      </c>
+      <c r="G74" t="s">
+        <v>77</v>
+      </c>
+      <c r="H74" t="s">
+        <v>81</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>2</v>
+      </c>
+      <c r="L74">
+        <v>1</v>
+      </c>
+      <c r="M74">
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <v>2</v>
+      </c>
+      <c r="O74" t="s">
+        <v>133</v>
+      </c>
+      <c r="P74" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q74">
+        <v>2.08</v>
+      </c>
+      <c r="R74">
+        <v>2.55</v>
+      </c>
+      <c r="S74">
+        <v>5.76</v>
+      </c>
+      <c r="T74">
+        <v>1.33</v>
+      </c>
+      <c r="U74">
+        <v>3.35</v>
+      </c>
+      <c r="V74">
+        <v>2.53</v>
+      </c>
+      <c r="W74">
+        <v>1.54</v>
+      </c>
+      <c r="X74">
+        <v>5.3</v>
+      </c>
+      <c r="Y74">
+        <v>1.12</v>
+      </c>
+      <c r="Z74">
+        <v>1.61</v>
+      </c>
+      <c r="AA74">
+        <v>3.9</v>
+      </c>
+      <c r="AB74">
+        <v>4.95</v>
+      </c>
+      <c r="AC74">
+        <v>1.04</v>
+      </c>
+      <c r="AD74">
+        <v>12</v>
+      </c>
+      <c r="AE74">
+        <v>1.17</v>
+      </c>
+      <c r="AF74">
+        <v>4.3</v>
+      </c>
+      <c r="AG74">
+        <v>1.93</v>
+      </c>
+      <c r="AH74">
+        <v>1.88</v>
+      </c>
+      <c r="AI74">
+        <v>1.7</v>
+      </c>
+      <c r="AJ74">
+        <v>2.08</v>
+      </c>
+      <c r="AK74">
+        <v>1.08</v>
+      </c>
+      <c r="AL74">
+        <v>1.22</v>
+      </c>
+      <c r="AM74">
+        <v>2.4</v>
+      </c>
+      <c r="AN74">
+        <v>1.83</v>
+      </c>
+      <c r="AO74">
+        <v>0.33</v>
+      </c>
+      <c r="AP74">
+        <v>1.71</v>
+      </c>
+      <c r="AQ74">
+        <v>0.43</v>
+      </c>
+      <c r="AR74">
+        <v>1.86</v>
+      </c>
+      <c r="AS74">
+        <v>1.59</v>
+      </c>
+      <c r="AT74">
+        <v>3.45</v>
+      </c>
+      <c r="AU74">
+        <v>3</v>
+      </c>
+      <c r="AV74">
+        <v>8</v>
+      </c>
+      <c r="AW74">
+        <v>10</v>
+      </c>
+      <c r="AX74">
+        <v>5</v>
+      </c>
+      <c r="AY74">
+        <v>13</v>
+      </c>
+      <c r="AZ74">
+        <v>13</v>
+      </c>
+      <c r="BA74">
+        <v>5</v>
+      </c>
+      <c r="BB74">
+        <v>1</v>
+      </c>
+      <c r="BC74">
+        <v>6</v>
+      </c>
+      <c r="BD74">
+        <v>1.51</v>
+      </c>
+      <c r="BE74">
+        <v>9</v>
+      </c>
+      <c r="BF74">
+        <v>3.14</v>
+      </c>
+      <c r="BG74">
+        <v>1.15</v>
+      </c>
+      <c r="BH74">
+        <v>4.55</v>
+      </c>
+      <c r="BI74">
+        <v>1.3</v>
+      </c>
+      <c r="BJ74">
+        <v>3.08</v>
+      </c>
+      <c r="BK74">
+        <v>1.56</v>
+      </c>
+      <c r="BL74">
+        <v>2.27</v>
+      </c>
+      <c r="BM74">
+        <v>1.95</v>
+      </c>
+      <c r="BN74">
+        <v>1.8</v>
+      </c>
+      <c r="BO74">
+        <v>2.49</v>
+      </c>
+      <c r="BP74">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="75" spans="1:68">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75">
+        <v>7325404</v>
+      </c>
+      <c r="C75" t="s">
+        <v>68</v>
+      </c>
+      <c r="D75" t="s">
+        <v>69</v>
+      </c>
+      <c r="E75" s="2">
+        <v>45462.625</v>
+      </c>
+      <c r="F75">
+        <v>12</v>
+      </c>
+      <c r="G75" t="s">
+        <v>71</v>
+      </c>
+      <c r="H75" t="s">
+        <v>72</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>2</v>
+      </c>
+      <c r="L75">
+        <v>2</v>
+      </c>
+      <c r="M75">
+        <v>2</v>
+      </c>
+      <c r="N75">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>134</v>
+      </c>
+      <c r="P75" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q75">
+        <v>2.38</v>
+      </c>
+      <c r="R75">
+        <v>2.31</v>
+      </c>
+      <c r="S75">
+        <v>4.32</v>
+      </c>
+      <c r="T75">
+        <v>1.31</v>
+      </c>
+      <c r="U75">
+        <v>3.28</v>
+      </c>
+      <c r="V75">
+        <v>2.46</v>
+      </c>
+      <c r="W75">
+        <v>1.51</v>
+      </c>
+      <c r="X75">
+        <v>5.8</v>
+      </c>
+      <c r="Y75">
+        <v>1.12</v>
+      </c>
+      <c r="Z75">
+        <v>1.86</v>
+      </c>
+      <c r="AA75">
+        <v>3.6</v>
+      </c>
+      <c r="AB75">
+        <v>3.8</v>
+      </c>
+      <c r="AC75">
+        <v>1.04</v>
+      </c>
+      <c r="AD75">
+        <v>12</v>
+      </c>
+      <c r="AE75">
+        <v>1.17</v>
+      </c>
+      <c r="AF75">
+        <v>4.3</v>
+      </c>
+      <c r="AG75">
+        <v>1.93</v>
+      </c>
+      <c r="AH75">
+        <v>1.88</v>
+      </c>
+      <c r="AI75">
+        <v>1.55</v>
+      </c>
+      <c r="AJ75">
+        <v>2.25</v>
+      </c>
+      <c r="AK75">
+        <v>1.17</v>
+      </c>
+      <c r="AL75">
+        <v>1.27</v>
+      </c>
+      <c r="AM75">
+        <v>1.9</v>
+      </c>
+      <c r="AN75">
+        <v>1.67</v>
+      </c>
+      <c r="AO75">
+        <v>1.4</v>
+      </c>
+      <c r="AP75">
+        <v>1.57</v>
+      </c>
+      <c r="AQ75">
+        <v>1.33</v>
+      </c>
+      <c r="AR75">
+        <v>1.91</v>
+      </c>
+      <c r="AS75">
+        <v>1.61</v>
+      </c>
+      <c r="AT75">
+        <v>3.52</v>
+      </c>
+      <c r="AU75">
+        <v>6</v>
+      </c>
+      <c r="AV75">
+        <v>4</v>
+      </c>
+      <c r="AW75">
+        <v>6</v>
+      </c>
+      <c r="AX75">
+        <v>5</v>
+      </c>
+      <c r="AY75">
+        <v>12</v>
+      </c>
+      <c r="AZ75">
+        <v>9</v>
+      </c>
+      <c r="BA75">
+        <v>3</v>
+      </c>
+      <c r="BB75">
+        <v>6</v>
+      </c>
+      <c r="BC75">
+        <v>9</v>
+      </c>
+      <c r="BD75">
+        <v>1.45</v>
+      </c>
+      <c r="BE75">
+        <v>9</v>
+      </c>
+      <c r="BF75">
+        <v>3.28</v>
+      </c>
+      <c r="BG75">
+        <v>1.19</v>
+      </c>
+      <c r="BH75">
+        <v>4.3</v>
+      </c>
+      <c r="BI75">
+        <v>1.37</v>
+      </c>
+      <c r="BJ75">
+        <v>3</v>
+      </c>
+      <c r="BK75">
+        <v>1.61</v>
+      </c>
+      <c r="BL75">
+        <v>2.22</v>
+      </c>
+      <c r="BM75">
+        <v>2</v>
+      </c>
+      <c r="BN75">
+        <v>1.76</v>
+      </c>
+      <c r="BO75">
+        <v>2.5</v>
+      </c>
+      <c r="BP75">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="76" spans="1:68">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76">
+        <v>7325405</v>
+      </c>
+      <c r="C76" t="s">
+        <v>68</v>
+      </c>
+      <c r="D76" t="s">
+        <v>69</v>
+      </c>
+      <c r="E76" s="2">
+        <v>45462.625</v>
+      </c>
+      <c r="F76">
+        <v>12</v>
+      </c>
+      <c r="G76" t="s">
+        <v>80</v>
+      </c>
+      <c r="H76" t="s">
+        <v>73</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>2</v>
+      </c>
+      <c r="L76">
+        <v>1</v>
+      </c>
+      <c r="M76">
+        <v>2</v>
+      </c>
+      <c r="N76">
+        <v>3</v>
+      </c>
+      <c r="O76" t="s">
+        <v>135</v>
+      </c>
+      <c r="P76" t="s">
+        <v>183</v>
+      </c>
+      <c r="Q76">
+        <v>3.52</v>
+      </c>
+      <c r="R76">
+        <v>2.05</v>
+      </c>
+      <c r="S76">
+        <v>3.12</v>
+      </c>
+      <c r="T76">
+        <v>1.45</v>
+      </c>
+      <c r="U76">
+        <v>2.64</v>
+      </c>
+      <c r="V76">
+        <v>3.1</v>
+      </c>
+      <c r="W76">
+        <v>1.34</v>
+      </c>
+      <c r="X76">
+        <v>8.1</v>
+      </c>
+      <c r="Y76">
+        <v>1.06</v>
+      </c>
+      <c r="Z76">
+        <v>2.79</v>
+      </c>
+      <c r="AA76">
+        <v>3.15</v>
+      </c>
+      <c r="AB76">
+        <v>2.46</v>
+      </c>
+      <c r="AC76">
+        <v>1.03</v>
+      </c>
+      <c r="AD76">
+        <v>7.9</v>
+      </c>
+      <c r="AE76">
+        <v>1.34</v>
+      </c>
+      <c r="AF76">
+        <v>2.89</v>
+      </c>
+      <c r="AG76">
+        <v>2.1</v>
+      </c>
+      <c r="AH76">
+        <v>1.74</v>
+      </c>
+      <c r="AI76">
+        <v>1.86</v>
+      </c>
+      <c r="AJ76">
+        <v>1.88</v>
+      </c>
+      <c r="AK76">
+        <v>1.5</v>
+      </c>
+      <c r="AL76">
+        <v>1.35</v>
+      </c>
+      <c r="AM76">
+        <v>1.32</v>
+      </c>
+      <c r="AN76">
+        <v>1</v>
+      </c>
+      <c r="AO76">
+        <v>0.8</v>
+      </c>
+      <c r="AP76">
+        <v>0.83</v>
+      </c>
+      <c r="AQ76">
+        <v>1.17</v>
+      </c>
+      <c r="AR76">
+        <v>1.23</v>
+      </c>
+      <c r="AS76">
+        <v>1.18</v>
+      </c>
+      <c r="AT76">
+        <v>2.41</v>
+      </c>
+      <c r="AU76">
+        <v>2</v>
+      </c>
+      <c r="AV76">
+        <v>6</v>
+      </c>
+      <c r="AW76">
+        <v>5</v>
+      </c>
+      <c r="AX76">
+        <v>6</v>
+      </c>
+      <c r="AY76">
+        <v>7</v>
+      </c>
+      <c r="AZ76">
+        <v>12</v>
+      </c>
+      <c r="BA76">
+        <v>2</v>
+      </c>
+      <c r="BB76">
+        <v>7</v>
+      </c>
+      <c r="BC76">
+        <v>9</v>
+      </c>
+      <c r="BD76">
+        <v>1.82</v>
+      </c>
+      <c r="BE76">
+        <v>8</v>
+      </c>
+      <c r="BF76">
+        <v>2.39</v>
+      </c>
+      <c r="BG76">
+        <v>1.23</v>
+      </c>
+      <c r="BH76">
+        <v>3.56</v>
+      </c>
+      <c r="BI76">
+        <v>1.46</v>
+      </c>
+      <c r="BJ76">
+        <v>2.52</v>
+      </c>
+      <c r="BK76">
+        <v>1.82</v>
+      </c>
+      <c r="BL76">
+        <v>1.98</v>
+      </c>
+      <c r="BM76">
+        <v>2.32</v>
+      </c>
+      <c r="BN76">
+        <v>1.54</v>
+      </c>
+      <c r="BO76">
+        <v>3.08</v>
+      </c>
+      <c r="BP76">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:68">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77">
+        <v>7325406</v>
+      </c>
+      <c r="C77" t="s">
+        <v>68</v>
+      </c>
+      <c r="D77" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2">
+        <v>45462.625</v>
+      </c>
+      <c r="F77">
+        <v>12</v>
+      </c>
+      <c r="G77" t="s">
+        <v>76</v>
+      </c>
+      <c r="H77" t="s">
+        <v>75</v>
+      </c>
+      <c r="I77">
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>1</v>
+      </c>
+      <c r="L77">
+        <v>3</v>
+      </c>
+      <c r="M77">
+        <v>1</v>
+      </c>
+      <c r="N77">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>136</v>
+      </c>
+      <c r="P77" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q77">
+        <v>2.75</v>
+      </c>
+      <c r="R77">
+        <v>2.05</v>
+      </c>
+      <c r="S77">
+        <v>3.6</v>
+      </c>
+      <c r="T77">
+        <v>1.4</v>
+      </c>
+      <c r="U77">
+        <v>2.7</v>
+      </c>
+      <c r="V77">
+        <v>3</v>
+      </c>
+      <c r="W77">
+        <v>1.33</v>
+      </c>
+      <c r="X77">
+        <v>6.8</v>
+      </c>
+      <c r="Y77">
+        <v>1.07</v>
+      </c>
+      <c r="Z77">
+        <v>2.15</v>
+      </c>
+      <c r="AA77">
+        <v>3.2</v>
+      </c>
+      <c r="AB77">
+        <v>3.3</v>
+      </c>
+      <c r="AC77">
+        <v>1.03</v>
+      </c>
+      <c r="AD77">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AE77">
+        <v>1.32</v>
+      </c>
+      <c r="AF77">
+        <v>2.98</v>
+      </c>
+      <c r="AG77">
+        <v>2.1</v>
+      </c>
+      <c r="AH77">
+        <v>1.74</v>
+      </c>
+      <c r="AI77">
+        <v>1.77</v>
+      </c>
+      <c r="AJ77">
+        <v>1.93</v>
+      </c>
+      <c r="AK77">
+        <v>1.25</v>
+      </c>
+      <c r="AL77">
+        <v>1.33</v>
+      </c>
+      <c r="AM77">
+        <v>1.62</v>
+      </c>
+      <c r="AN77">
+        <v>2</v>
+      </c>
+      <c r="AO77">
+        <v>1.86</v>
+      </c>
+      <c r="AP77">
+        <v>2.13</v>
+      </c>
+      <c r="AQ77">
+        <v>1.63</v>
+      </c>
+      <c r="AR77">
+        <v>1.95</v>
+      </c>
+      <c r="AS77">
+        <v>1.63</v>
+      </c>
+      <c r="AT77">
+        <v>3.58</v>
+      </c>
+      <c r="AU77">
+        <v>6</v>
+      </c>
+      <c r="AV77">
+        <v>3</v>
+      </c>
+      <c r="AW77">
+        <v>7</v>
+      </c>
+      <c r="AX77">
+        <v>5</v>
+      </c>
+      <c r="AY77">
+        <v>13</v>
+      </c>
+      <c r="AZ77">
+        <v>8</v>
+      </c>
+      <c r="BA77">
+        <v>3</v>
+      </c>
+      <c r="BB77">
+        <v>4</v>
+      </c>
+      <c r="BC77">
+        <v>7</v>
+      </c>
+      <c r="BD77">
+        <v>2.05</v>
+      </c>
+      <c r="BE77">
+        <v>8</v>
+      </c>
+      <c r="BF77">
+        <v>1.95</v>
+      </c>
+      <c r="BG77">
+        <v>1.16</v>
+      </c>
+      <c r="BH77">
+        <v>4.4</v>
+      </c>
+      <c r="BI77">
+        <v>1.32</v>
+      </c>
+      <c r="BJ77">
+        <v>2.98</v>
+      </c>
+      <c r="BK77">
+        <v>1.59</v>
+      </c>
+      <c r="BL77">
+        <v>2.21</v>
+      </c>
+      <c r="BM77">
+        <v>2</v>
+      </c>
+      <c r="BN77">
+        <v>1.76</v>
+      </c>
+      <c r="BO77">
+        <v>2.58</v>
+      </c>
+      <c r="BP77">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>0.92</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ4">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1885,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ6">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2709,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ9">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2909,16 +2909,16 @@
         <v>1.53</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3121,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AQ11">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3324,13 +3324,13 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3530,13 +3530,13 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3733,16 +3733,16 @@
         <v>1.55</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ14">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -3939,16 +3939,16 @@
         <v>1.48</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4145,16 +4145,16 @@
         <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4351,16 +4351,16 @@
         <v>1.4</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4557,16 +4557,16 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4769,10 +4769,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4969,16 +4969,16 @@
         <v>1.32</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5175,16 +5175,16 @@
         <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5381,16 +5381,16 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO22">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5587,16 +5587,16 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AQ23">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5793,16 +5793,16 @@
         <v>1.32</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ24">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5999,16 +5999,16 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6205,16 +6205,16 @@
         <v>1.3</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6411,16 +6411,16 @@
         <v>2.15</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6617,16 +6617,16 @@
         <v>2.06</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>0.67</v>
-      </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AQ28">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6823,16 +6823,16 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ29">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -7029,16 +7029,16 @@
         <v>1.45</v>
       </c>
       <c r="AN30">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7238,13 +7238,13 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7441,16 +7441,16 @@
         <v>1.28</v>
       </c>
       <c r="AN32">
+        <v>1</v>
+      </c>
+      <c r="AO32">
+        <v>1.25</v>
+      </c>
+      <c r="AP32">
         <v>1.33</v>
       </c>
-      <c r="AO32">
-        <v>0</v>
-      </c>
-      <c r="AP32">
-        <v>1.5</v>
-      </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.92</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7647,16 +7647,16 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AQ33">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7853,16 +7853,16 @@
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8059,16 +8059,16 @@
         <v>1.75</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ35">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8265,16 +8265,16 @@
         <v>1.33</v>
       </c>
       <c r="AN36">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8471,16 +8471,16 @@
         <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AQ37">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8677,16 +8677,16 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP38">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8883,16 +8883,16 @@
         <v>1.94</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ39">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9092,13 +9092,13 @@
         <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9295,16 +9295,16 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.92</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9501,16 +9501,16 @@
         <v>1.89</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9707,16 +9707,16 @@
         <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9913,16 +9913,16 @@
         <v>1.45</v>
       </c>
       <c r="AN44">
+        <v>0.33</v>
+      </c>
+      <c r="AO44">
+        <v>0.83</v>
+      </c>
+      <c r="AP44">
         <v>0.5</v>
       </c>
-      <c r="AO44">
-        <v>0.33</v>
-      </c>
-      <c r="AP44">
-        <v>0.83</v>
-      </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10119,16 +10119,16 @@
         <v>1.56</v>
       </c>
       <c r="AN45">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10325,16 +10325,16 @@
         <v>3</v>
       </c>
       <c r="AN46">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10531,16 +10531,16 @@
         <v>1.87</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>0.92</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10737,16 +10737,16 @@
         <v>1.84</v>
       </c>
       <c r="AN48">
+        <v>1.57</v>
+      </c>
+      <c r="AO48">
+        <v>0.57</v>
+      </c>
+      <c r="AP48">
         <v>1.75</v>
       </c>
-      <c r="AO48">
-        <v>0.5</v>
-      </c>
-      <c r="AP48">
-        <v>2</v>
-      </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -10943,16 +10943,16 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ49">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11149,16 +11149,16 @@
         <v>3</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AQ50">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11355,16 +11355,16 @@
         <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AO51">
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11561,16 +11561,16 @@
         <v>1.29</v>
       </c>
       <c r="AN52">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP52">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11767,16 +11767,16 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AQ53">
-        <v>0.57</v>
+        <v>0.92</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -11973,16 +11973,16 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12179,16 +12179,16 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="AP55">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12385,16 +12385,16 @@
         <v>2.38</v>
       </c>
       <c r="AN56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>0.33</v>
+        <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12591,16 +12591,16 @@
         <v>1.19</v>
       </c>
       <c r="AN57">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12800,13 +12800,13 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13003,16 +13003,16 @@
         <v>1.15</v>
       </c>
       <c r="AN59">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="AO59">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13209,16 +13209,16 @@
         <v>1.44</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO60">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13415,16 +13415,16 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>0.92</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13621,16 +13621,16 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13827,16 +13827,16 @@
         <v>1.85</v>
       </c>
       <c r="AN63">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AO63">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14033,16 +14033,16 @@
         <v>2.62</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AQ64">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14239,16 +14239,16 @@
         <v>1.4</v>
       </c>
       <c r="AN65">
+        <v>0.33</v>
+      </c>
+      <c r="AO65">
+        <v>1.2</v>
+      </c>
+      <c r="AP65">
         <v>0.5</v>
       </c>
-      <c r="AO65">
-        <v>1</v>
-      </c>
-      <c r="AP65">
-        <v>0.83</v>
-      </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14445,16 +14445,16 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>1.25</v>
+        <v>0.7</v>
       </c>
       <c r="AO66">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14651,16 +14651,16 @@
         <v>3.2</v>
       </c>
       <c r="AN67">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AO67">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AQ67">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AR67">
         <v>1.63</v>
@@ -14857,16 +14857,16 @@
         <v>1.32</v>
       </c>
       <c r="AN68">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -15063,16 +15063,16 @@
         <v>2.36</v>
       </c>
       <c r="AN69">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AP69">
-        <v>2.4</v>
+        <v>1.92</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15269,16 +15269,16 @@
         <v>1.23</v>
       </c>
       <c r="AN70">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ70">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15475,16 +15475,16 @@
         <v>1.16</v>
       </c>
       <c r="AN71">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AP71">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -15681,16 +15681,16 @@
         <v>1.4</v>
       </c>
       <c r="AN72">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AO72">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AQ72">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -15887,16 +15887,16 @@
         <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>0.92</v>
       </c>
       <c r="AR73">
         <v>1.38</v>
@@ -16093,16 +16093,16 @@
         <v>2.4</v>
       </c>
       <c r="AN74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.92</v>
       </c>
       <c r="AQ74">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.86</v>
@@ -16299,16 +16299,16 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO75">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.69</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.69</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16505,16 +16505,16 @@
         <v>1.32</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AO76">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AP76">
-        <v>0.83</v>
+        <v>0.5</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.33</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16711,16 +16711,16 @@
         <v>1.62</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AO77">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>1.79</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AR77">
         <v>1.95</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -1267,10 +1267,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ2">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1473,10 +1473,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1679,10 +1679,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1885,10 +1885,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2091,10 +2091,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2297,10 +2297,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2503,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2709,10 +2709,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2909,16 +2909,16 @@
         <v>1.53</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AQ10">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3121,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3324,13 +3324,13 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3530,13 +3530,13 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3733,16 +3733,16 @@
         <v>1.55</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -3939,16 +3939,16 @@
         <v>1.48</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AQ15">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4145,16 +4145,16 @@
         <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4351,16 +4351,16 @@
         <v>1.4</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ17">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4557,16 +4557,16 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4769,10 +4769,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4969,16 +4969,16 @@
         <v>1.32</v>
       </c>
       <c r="AN20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5175,16 +5175,16 @@
         <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AQ21">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5381,16 +5381,16 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
+        <v>1.5</v>
+      </c>
+      <c r="AO22">
+        <v>0.5</v>
+      </c>
+      <c r="AP22">
+        <v>2</v>
+      </c>
+      <c r="AQ22">
         <v>1.33</v>
-      </c>
-      <c r="AO22">
-        <v>1.75</v>
-      </c>
-      <c r="AP22">
-        <v>1.75</v>
-      </c>
-      <c r="AQ22">
-        <v>1.79</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5587,16 +5587,16 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ23">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5793,16 +5793,16 @@
         <v>1.32</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -5999,16 +5999,16 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ25">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6205,16 +6205,16 @@
         <v>1.3</v>
       </c>
       <c r="AN26">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6411,16 +6411,16 @@
         <v>2.15</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AQ27">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6617,16 +6617,16 @@
         <v>2.06</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6823,16 +6823,16 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -7029,16 +7029,16 @@
         <v>1.45</v>
       </c>
       <c r="AN30">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7238,13 +7238,13 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7441,16 +7441,16 @@
         <v>1.28</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ32">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7647,16 +7647,16 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO33">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7853,16 +7853,16 @@
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8059,16 +8059,16 @@
         <v>1.75</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
+        <v>1.5</v>
+      </c>
+      <c r="AP35">
         <v>1.2</v>
       </c>
-      <c r="AP35">
-        <v>0.75</v>
-      </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8265,16 +8265,16 @@
         <v>1.33</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AQ36">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8471,16 +8471,16 @@
         <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8677,16 +8677,16 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ38">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8883,16 +8883,16 @@
         <v>1.94</v>
       </c>
       <c r="AN39">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
+        <v>2</v>
+      </c>
+      <c r="AP39">
+        <v>2.13</v>
+      </c>
+      <c r="AQ39">
         <v>2.17</v>
-      </c>
-      <c r="AP39">
-        <v>1.79</v>
-      </c>
-      <c r="AQ39">
-        <v>1.92</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9092,13 +9092,13 @@
         <v>0.5</v>
       </c>
       <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1.2</v>
+      </c>
+      <c r="AQ40">
         <v>1.17</v>
-      </c>
-      <c r="AP40">
-        <v>0.75</v>
-      </c>
-      <c r="AQ40">
-        <v>1.33</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9295,16 +9295,16 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9501,16 +9501,16 @@
         <v>1.89</v>
       </c>
       <c r="AN42">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9707,16 +9707,16 @@
         <v>1.22</v>
       </c>
       <c r="AN43">
+        <v>1</v>
+      </c>
+      <c r="AO43">
+        <v>1.5</v>
+      </c>
+      <c r="AP43">
         <v>1.17</v>
       </c>
-      <c r="AO43">
-        <v>2</v>
-      </c>
-      <c r="AP43">
-        <v>1</v>
-      </c>
       <c r="AQ43">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9913,16 +9913,16 @@
         <v>1.45</v>
       </c>
       <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
         <v>0.33</v>
       </c>
-      <c r="AO44">
+      <c r="AP44">
         <v>0.83</v>
       </c>
-      <c r="AP44">
+      <c r="AQ44">
         <v>0.5</v>
-      </c>
-      <c r="AQ44">
-        <v>0.67</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10119,16 +10119,16 @@
         <v>1.56</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO45">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AQ45">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10325,16 +10325,16 @@
         <v>3</v>
       </c>
       <c r="AN46">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO46">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10531,16 +10531,16 @@
         <v>1.87</v>
       </c>
       <c r="AN47">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ47">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10737,16 +10737,16 @@
         <v>1.84</v>
       </c>
       <c r="AN48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -10943,16 +10943,16 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO49">
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11149,16 +11149,16 @@
         <v>3</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11355,16 +11355,16 @@
         <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AO51">
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11561,16 +11561,16 @@
         <v>1.29</v>
       </c>
       <c r="AN52">
-        <v>0.86</v>
+        <v>1.33</v>
       </c>
       <c r="AO52">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ52">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11767,16 +11767,16 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO53">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AQ53">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -11973,16 +11973,16 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="AO54">
-        <v>1.75</v>
+        <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AQ54">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12179,16 +12179,16 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AO55">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ55">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12385,16 +12385,16 @@
         <v>2.38</v>
       </c>
       <c r="AN56">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO56">
-        <v>1.13</v>
+        <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12591,16 +12591,16 @@
         <v>1.19</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO57">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ57">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12800,13 +12800,13 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ58">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13003,16 +13003,16 @@
         <v>1.15</v>
       </c>
       <c r="AN59">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AO59">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13209,16 +13209,16 @@
         <v>1.44</v>
       </c>
       <c r="AN60">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13415,16 +13415,16 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO61">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ61">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13621,16 +13621,16 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13827,16 +13827,16 @@
         <v>1.85</v>
       </c>
       <c r="AN63">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14033,16 +14033,16 @@
         <v>2.62</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14239,16 +14239,16 @@
         <v>1.4</v>
       </c>
       <c r="AN65">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14445,16 +14445,16 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14651,16 +14651,16 @@
         <v>3.2</v>
       </c>
       <c r="AN67">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AO67">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP67">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AR67">
         <v>1.63</v>
@@ -14857,16 +14857,16 @@
         <v>1.32</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO68">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AQ68">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -15063,16 +15063,16 @@
         <v>2.36</v>
       </c>
       <c r="AN69">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="AO69">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.92</v>
+        <v>2.4</v>
       </c>
       <c r="AQ69">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15269,16 +15269,16 @@
         <v>1.23</v>
       </c>
       <c r="AN70">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO70">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="AP70">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15475,16 +15475,16 @@
         <v>1.16</v>
       </c>
       <c r="AN71">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AO71">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AQ71">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -15681,16 +15681,16 @@
         <v>1.4</v>
       </c>
       <c r="AN72">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -15887,16 +15887,16 @@
         <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AO73">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.92</v>
+        <v>0.57</v>
       </c>
       <c r="AR73">
         <v>1.38</v>
@@ -16093,16 +16093,16 @@
         <v>2.4</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO74">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.92</v>
+        <v>1.71</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.43</v>
       </c>
       <c r="AR74">
         <v>1.86</v>
@@ -16299,16 +16299,16 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AO75">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AP75">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AQ75">
-        <v>1.69</v>
+        <v>1.33</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16505,16 +16505,16 @@
         <v>1.32</v>
       </c>
       <c r="AN76">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.5</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76">
-        <v>1.33</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16711,16 +16711,16 @@
         <v>1.62</v>
       </c>
       <c r="AN77">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AP77">
-        <v>1.79</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AR77">
         <v>1.95</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="524" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -427,6 +427,12 @@
     <t>['81', '83', '90+3']</t>
   </si>
   <si>
+    <t>['11', '22', '79']</t>
+  </si>
+  <si>
+    <t>['79']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -454,9 +460,6 @@
     <t>['45+1', '90+2']</t>
   </si>
   <si>
-    <t>['79']</t>
-  </si>
-  <si>
     <t>['89']</t>
   </si>
   <si>
@@ -569,6 +572,9 @@
   </si>
   <si>
     <t>['38']</t>
+  </si>
+  <si>
+    <t>['76']</t>
   </si>
 </sst>
 </file>
@@ -930,7 +936,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP77"/>
+  <dimension ref="A1:BP79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1189,7 +1195,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1601,7 +1607,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1807,7 +1813,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2013,7 +2019,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2094,7 +2100,7 @@
         <v>2</v>
       </c>
       <c r="AQ6">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2219,7 +2225,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2631,7 +2637,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2837,7 +2843,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3043,7 +3049,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3121,7 +3127,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ11">
         <v>0.43</v>
@@ -3249,7 +3255,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3455,7 +3461,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3536,7 +3542,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ13">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3867,7 +3873,7 @@
         <v>95</v>
       </c>
       <c r="P15" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="Q15">
         <v>3.36</v>
@@ -3945,10 +3951,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ15">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4073,7 +4079,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4485,7 +4491,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4691,7 +4697,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4897,7 +4903,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5103,7 +5109,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5181,7 +5187,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ21">
         <v>0.17</v>
@@ -5309,7 +5315,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5515,7 +5521,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5596,7 +5602,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ23">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5721,7 +5727,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5799,10 +5805,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6133,7 +6139,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6545,7 +6551,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6957,7 +6963,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7038,7 +7044,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7163,7 +7169,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7369,7 +7375,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7575,7 +7581,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7656,7 +7662,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ33">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7987,7 +7993,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8065,7 +8071,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>0.86</v>
@@ -8271,7 +8277,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ36">
         <v>1.33</v>
@@ -8399,7 +8405,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8811,7 +8817,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8892,7 +8898,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9017,7 +9023,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9095,7 +9101,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9223,7 +9229,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9716,7 +9722,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ43">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -9841,7 +9847,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10047,7 +10053,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10128,7 +10134,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ45">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10665,7 +10671,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11077,7 +11083,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11283,7 +11289,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11489,7 +11495,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11695,7 +11701,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11901,7 +11907,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11979,7 +11985,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ54">
         <v>1.4</v>
@@ -12107,7 +12113,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12188,7 +12194,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ55">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12313,7 +12319,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12597,7 +12603,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.33</v>
@@ -12725,7 +12731,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12931,7 +12937,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13012,7 +13018,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13137,7 +13143,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13343,7 +13349,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13755,7 +13761,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13961,7 +13967,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14373,7 +14379,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14451,7 +14457,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14579,7 +14585,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14785,7 +14791,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14863,7 +14869,7 @@
         <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AQ68">
         <v>1.83</v>
@@ -15278,7 +15284,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AR70">
         <v>1.19</v>
@@ -15403,7 +15409,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15609,7 +15615,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16021,7 +16027,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q74">
         <v>2.08</v>
@@ -16227,7 +16233,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16433,7 +16439,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16639,7 +16645,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16720,7 +16726,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16796,6 +16802,418 @@
       </c>
       <c r="BP77">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:68">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78">
+        <v>7325407</v>
+      </c>
+      <c r="C78" t="s">
+        <v>68</v>
+      </c>
+      <c r="D78" t="s">
+        <v>69</v>
+      </c>
+      <c r="E78" s="2">
+        <v>45471.5</v>
+      </c>
+      <c r="F78">
+        <v>13</v>
+      </c>
+      <c r="G78" t="s">
+        <v>78</v>
+      </c>
+      <c r="H78" t="s">
+        <v>77</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78">
+        <v>2</v>
+      </c>
+      <c r="L78">
+        <v>3</v>
+      </c>
+      <c r="M78">
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>137</v>
+      </c>
+      <c r="P78" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q78">
+        <v>3.22</v>
+      </c>
+      <c r="R78">
+        <v>2.19</v>
+      </c>
+      <c r="S78">
+        <v>3.08</v>
+      </c>
+      <c r="T78">
+        <v>1.36</v>
+      </c>
+      <c r="U78">
+        <v>3</v>
+      </c>
+      <c r="V78">
+        <v>2.66</v>
+      </c>
+      <c r="W78">
+        <v>1.44</v>
+      </c>
+      <c r="X78">
+        <v>6.45</v>
+      </c>
+      <c r="Y78">
+        <v>1.09</v>
+      </c>
+      <c r="Z78">
+        <v>2.48</v>
+      </c>
+      <c r="AA78">
+        <v>3.43</v>
+      </c>
+      <c r="AB78">
+        <v>2.53</v>
+      </c>
+      <c r="AC78">
+        <v>1.01</v>
+      </c>
+      <c r="AD78">
+        <v>9.9</v>
+      </c>
+      <c r="AE78">
+        <v>1.26</v>
+      </c>
+      <c r="AF78">
+        <v>4.01</v>
+      </c>
+      <c r="AG78">
+        <v>1.75</v>
+      </c>
+      <c r="AH78">
+        <v>1.95</v>
+      </c>
+      <c r="AI78">
+        <v>1.67</v>
+      </c>
+      <c r="AJ78">
+        <v>2.1</v>
+      </c>
+      <c r="AK78">
+        <v>1.53</v>
+      </c>
+      <c r="AL78">
+        <v>1.33</v>
+      </c>
+      <c r="AM78">
+        <v>1.55</v>
+      </c>
+      <c r="AN78">
+        <v>1.33</v>
+      </c>
+      <c r="AO78">
+        <v>2.17</v>
+      </c>
+      <c r="AP78">
+        <v>1.57</v>
+      </c>
+      <c r="AQ78">
+        <v>1.86</v>
+      </c>
+      <c r="AR78">
+        <v>1.54</v>
+      </c>
+      <c r="AS78">
+        <v>1.42</v>
+      </c>
+      <c r="AT78">
+        <v>2.96</v>
+      </c>
+      <c r="AU78">
+        <v>7</v>
+      </c>
+      <c r="AV78">
+        <v>4</v>
+      </c>
+      <c r="AW78">
+        <v>11</v>
+      </c>
+      <c r="AX78">
+        <v>6</v>
+      </c>
+      <c r="AY78">
+        <v>18</v>
+      </c>
+      <c r="AZ78">
+        <v>10</v>
+      </c>
+      <c r="BA78">
+        <v>8</v>
+      </c>
+      <c r="BB78">
+        <v>6</v>
+      </c>
+      <c r="BC78">
+        <v>14</v>
+      </c>
+      <c r="BD78">
+        <v>1.69</v>
+      </c>
+      <c r="BE78">
+        <v>8.5</v>
+      </c>
+      <c r="BF78">
+        <v>2.53</v>
+      </c>
+      <c r="BG78">
+        <v>1.12</v>
+      </c>
+      <c r="BH78">
+        <v>5</v>
+      </c>
+      <c r="BI78">
+        <v>1.3</v>
+      </c>
+      <c r="BJ78">
+        <v>3.3</v>
+      </c>
+      <c r="BK78">
+        <v>1.55</v>
+      </c>
+      <c r="BL78">
+        <v>2.38</v>
+      </c>
+      <c r="BM78">
+        <v>2</v>
+      </c>
+      <c r="BN78">
+        <v>1.8</v>
+      </c>
+      <c r="BO78">
+        <v>2.5</v>
+      </c>
+      <c r="BP78">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="79" spans="1:68">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>7325408</v>
+      </c>
+      <c r="C79" t="s">
+        <v>68</v>
+      </c>
+      <c r="D79" t="s">
+        <v>69</v>
+      </c>
+      <c r="E79" s="2">
+        <v>45471.58333333334</v>
+      </c>
+      <c r="F79">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>81</v>
+      </c>
+      <c r="H79" t="s">
+        <v>75</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>1</v>
+      </c>
+      <c r="M79">
+        <v>0</v>
+      </c>
+      <c r="N79">
+        <v>1</v>
+      </c>
+      <c r="O79" t="s">
+        <v>138</v>
+      </c>
+      <c r="P79" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q79">
+        <v>4.02</v>
+      </c>
+      <c r="R79">
+        <v>2.25</v>
+      </c>
+      <c r="S79">
+        <v>2.19</v>
+      </c>
+      <c r="T79">
+        <v>1.32</v>
+      </c>
+      <c r="U79">
+        <v>3.22</v>
+      </c>
+      <c r="V79">
+        <v>2.49</v>
+      </c>
+      <c r="W79">
+        <v>1.5</v>
+      </c>
+      <c r="X79">
+        <v>5.95</v>
+      </c>
+      <c r="Y79">
+        <v>1.11</v>
+      </c>
+      <c r="Z79">
+        <v>3.72</v>
+      </c>
+      <c r="AA79">
+        <v>3.56</v>
+      </c>
+      <c r="AB79">
+        <v>1.98</v>
+      </c>
+      <c r="AC79">
+        <v>1.03</v>
+      </c>
+      <c r="AD79">
+        <v>10.5</v>
+      </c>
+      <c r="AE79">
+        <v>1.19</v>
+      </c>
+      <c r="AF79">
+        <v>3.94</v>
+      </c>
+      <c r="AG79">
+        <v>1.77</v>
+      </c>
+      <c r="AH79">
+        <v>1.93</v>
+      </c>
+      <c r="AI79">
+        <v>1.7</v>
+      </c>
+      <c r="AJ79">
+        <v>2.05</v>
+      </c>
+      <c r="AK79">
+        <v>2.12</v>
+      </c>
+      <c r="AL79">
+        <v>1.25</v>
+      </c>
+      <c r="AM79">
+        <v>1.21</v>
+      </c>
+      <c r="AN79">
+        <v>1.2</v>
+      </c>
+      <c r="AO79">
+        <v>1.63</v>
+      </c>
+      <c r="AP79">
+        <v>1.5</v>
+      </c>
+      <c r="AQ79">
+        <v>1.44</v>
+      </c>
+      <c r="AR79">
+        <v>1.28</v>
+      </c>
+      <c r="AS79">
+        <v>1.56</v>
+      </c>
+      <c r="AT79">
+        <v>2.84</v>
+      </c>
+      <c r="AU79">
+        <v>2</v>
+      </c>
+      <c r="AV79">
+        <v>2</v>
+      </c>
+      <c r="AW79">
+        <v>7</v>
+      </c>
+      <c r="AX79">
+        <v>8</v>
+      </c>
+      <c r="AY79">
+        <v>9</v>
+      </c>
+      <c r="AZ79">
+        <v>10</v>
+      </c>
+      <c r="BA79">
+        <v>1</v>
+      </c>
+      <c r="BB79">
+        <v>7</v>
+      </c>
+      <c r="BC79">
+        <v>8</v>
+      </c>
+      <c r="BD79">
+        <v>3.16</v>
+      </c>
+      <c r="BE79">
+        <v>8.5</v>
+      </c>
+      <c r="BF79">
+        <v>1.51</v>
+      </c>
+      <c r="BG79">
+        <v>1.22</v>
+      </c>
+      <c r="BH79">
+        <v>3.65</v>
+      </c>
+      <c r="BI79">
+        <v>1.44</v>
+      </c>
+      <c r="BJ79">
+        <v>2.58</v>
+      </c>
+      <c r="BK79">
+        <v>1.88</v>
+      </c>
+      <c r="BL79">
+        <v>1.92</v>
+      </c>
+      <c r="BM79">
+        <v>2.25</v>
+      </c>
+      <c r="BN79">
+        <v>1.57</v>
+      </c>
+      <c r="BO79">
+        <v>2.98</v>
+      </c>
+      <c r="BP79">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="191">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -433,6 +433,12 @@
     <t>['79']</t>
   </si>
   <si>
+    <t>['33', '41']</t>
+  </si>
+  <si>
+    <t>['3', '82']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -575,6 +581,12 @@
   </si>
   <si>
     <t>['76']</t>
+  </si>
+  <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['14', '31']</t>
   </si>
 </sst>
 </file>
@@ -936,7 +948,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP79"/>
+  <dimension ref="A1:BP81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1195,7 +1207,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1607,7 +1619,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1685,7 +1697,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ4">
         <v>0.43</v>
@@ -1813,7 +1825,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2019,7 +2031,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2225,7 +2237,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2637,7 +2649,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2843,7 +2855,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3049,7 +3061,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3255,7 +3267,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3461,7 +3473,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3745,10 +3757,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -4079,7 +4091,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4363,10 +4375,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4491,7 +4503,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4697,7 +4709,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4903,7 +4915,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4981,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
         <v>1.33</v>
@@ -5109,7 +5121,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5315,7 +5327,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5521,7 +5533,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5599,7 +5611,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -5727,7 +5739,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6139,7 +6151,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6220,7 +6232,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ26">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6551,7 +6563,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6963,7 +6975,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7041,7 +7053,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -7169,7 +7181,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7250,7 +7262,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ31">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7375,7 +7387,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7581,7 +7593,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7993,7 +8005,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8405,7 +8417,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8486,7 +8498,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8689,7 +8701,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -8817,7 +8829,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9023,7 +9035,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9229,7 +9241,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9307,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ41">
         <v>0.57</v>
@@ -9516,7 +9528,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ42">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9847,7 +9859,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10053,7 +10065,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10671,7 +10683,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10958,7 +10970,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11083,7 +11095,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11289,7 +11301,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11495,7 +11507,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11573,7 +11585,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -11701,7 +11713,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11907,7 +11919,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -11988,7 +12000,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12113,7 +12125,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12319,7 +12331,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12397,7 +12409,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
@@ -12731,7 +12743,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12937,7 +12949,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13143,7 +13155,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13224,7 +13236,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ60">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13349,7 +13361,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13427,7 +13439,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
         <v>0.57</v>
@@ -13761,7 +13773,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13967,7 +13979,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14379,7 +14391,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14585,7 +14597,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14663,7 +14675,7 @@
         <v>0.2</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
         <v>0.17</v>
@@ -14791,7 +14803,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14872,7 +14884,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ68">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -15078,7 +15090,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ69">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15409,7 +15421,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15615,7 +15627,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15693,7 +15705,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ72">
         <v>0.86</v>
@@ -16027,7 +16039,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q74">
         <v>2.08</v>
@@ -16233,7 +16245,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16439,7 +16451,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16645,7 +16657,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16851,7 +16863,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17214,6 +17226,418 @@
       </c>
       <c r="BP79">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:68">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80">
+        <v>7325409</v>
+      </c>
+      <c r="C80" t="s">
+        <v>68</v>
+      </c>
+      <c r="D80" t="s">
+        <v>69</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45472.25</v>
+      </c>
+      <c r="F80">
+        <v>13</v>
+      </c>
+      <c r="G80" t="s">
+        <v>72</v>
+      </c>
+      <c r="H80" t="s">
+        <v>74</v>
+      </c>
+      <c r="I80">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>0</v>
+      </c>
+      <c r="K80">
+        <v>2</v>
+      </c>
+      <c r="L80">
+        <v>2</v>
+      </c>
+      <c r="M80">
+        <v>1</v>
+      </c>
+      <c r="N80">
+        <v>3</v>
+      </c>
+      <c r="O80" t="s">
+        <v>139</v>
+      </c>
+      <c r="P80" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q80">
+        <v>2.25</v>
+      </c>
+      <c r="R80">
+        <v>2.45</v>
+      </c>
+      <c r="S80">
+        <v>4.5</v>
+      </c>
+      <c r="T80">
+        <v>1.28</v>
+      </c>
+      <c r="U80">
+        <v>3.6</v>
+      </c>
+      <c r="V80">
+        <v>2.35</v>
+      </c>
+      <c r="W80">
+        <v>1.55</v>
+      </c>
+      <c r="X80">
+        <v>5.5</v>
+      </c>
+      <c r="Y80">
+        <v>1.14</v>
+      </c>
+      <c r="Z80">
+        <v>1.73</v>
+      </c>
+      <c r="AA80">
+        <v>4</v>
+      </c>
+      <c r="AB80">
+        <v>4.2</v>
+      </c>
+      <c r="AC80">
+        <v>1.02</v>
+      </c>
+      <c r="AD80">
+        <v>17</v>
+      </c>
+      <c r="AE80">
+        <v>1.18</v>
+      </c>
+      <c r="AF80">
+        <v>4.75</v>
+      </c>
+      <c r="AG80">
+        <v>1.64</v>
+      </c>
+      <c r="AH80">
+        <v>2.26</v>
+      </c>
+      <c r="AI80">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80">
+        <v>2.25</v>
+      </c>
+      <c r="AK80">
+        <v>1.25</v>
+      </c>
+      <c r="AL80">
+        <v>1.25</v>
+      </c>
+      <c r="AM80">
+        <v>2.2</v>
+      </c>
+      <c r="AN80">
+        <v>2</v>
+      </c>
+      <c r="AO80">
+        <v>1.4</v>
+      </c>
+      <c r="AP80">
+        <v>2.13</v>
+      </c>
+      <c r="AQ80">
+        <v>1.17</v>
+      </c>
+      <c r="AR80">
+        <v>1.84</v>
+      </c>
+      <c r="AS80">
+        <v>1.3</v>
+      </c>
+      <c r="AT80">
+        <v>3.14</v>
+      </c>
+      <c r="AU80">
+        <v>5</v>
+      </c>
+      <c r="AV80">
+        <v>4</v>
+      </c>
+      <c r="AW80">
+        <v>11</v>
+      </c>
+      <c r="AX80">
+        <v>9</v>
+      </c>
+      <c r="AY80">
+        <v>16</v>
+      </c>
+      <c r="AZ80">
+        <v>13</v>
+      </c>
+      <c r="BA80">
+        <v>7</v>
+      </c>
+      <c r="BB80">
+        <v>5</v>
+      </c>
+      <c r="BC80">
+        <v>12</v>
+      </c>
+      <c r="BD80">
+        <v>1.53</v>
+      </c>
+      <c r="BE80">
+        <v>8</v>
+      </c>
+      <c r="BF80">
+        <v>3.1</v>
+      </c>
+      <c r="BG80">
+        <v>1.18</v>
+      </c>
+      <c r="BH80">
+        <v>4.6</v>
+      </c>
+      <c r="BI80">
+        <v>1.34</v>
+      </c>
+      <c r="BJ80">
+        <v>3.1</v>
+      </c>
+      <c r="BK80">
+        <v>1.6</v>
+      </c>
+      <c r="BL80">
+        <v>2.23</v>
+      </c>
+      <c r="BM80">
+        <v>2</v>
+      </c>
+      <c r="BN80">
+        <v>1.73</v>
+      </c>
+      <c r="BO80">
+        <v>2.65</v>
+      </c>
+      <c r="BP80">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="81" spans="1:68">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>7325410</v>
+      </c>
+      <c r="C81" t="s">
+        <v>68</v>
+      </c>
+      <c r="D81" t="s">
+        <v>69</v>
+      </c>
+      <c r="E81" s="2">
+        <v>45472.54166666666</v>
+      </c>
+      <c r="F81">
+        <v>13</v>
+      </c>
+      <c r="G81" t="s">
+        <v>79</v>
+      </c>
+      <c r="H81" t="s">
+        <v>71</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>2</v>
+      </c>
+      <c r="K81">
+        <v>3</v>
+      </c>
+      <c r="L81">
+        <v>2</v>
+      </c>
+      <c r="M81">
+        <v>2</v>
+      </c>
+      <c r="N81">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>140</v>
+      </c>
+      <c r="P81" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q81">
+        <v>6</v>
+      </c>
+      <c r="R81">
+        <v>2.5</v>
+      </c>
+      <c r="S81">
+        <v>1.95</v>
+      </c>
+      <c r="T81">
+        <v>1.3</v>
+      </c>
+      <c r="U81">
+        <v>3.2</v>
+      </c>
+      <c r="V81">
+        <v>2.4</v>
+      </c>
+      <c r="W81">
+        <v>1.5</v>
+      </c>
+      <c r="X81">
+        <v>5.3</v>
+      </c>
+      <c r="Y81">
+        <v>1.11</v>
+      </c>
+      <c r="Z81">
+        <v>6.25</v>
+      </c>
+      <c r="AA81">
+        <v>4.5</v>
+      </c>
+      <c r="AB81">
+        <v>1.46</v>
+      </c>
+      <c r="AC81">
+        <v>1.04</v>
+      </c>
+      <c r="AD81">
+        <v>9.5</v>
+      </c>
+      <c r="AE81">
+        <v>1.2</v>
+      </c>
+      <c r="AF81">
+        <v>4.2</v>
+      </c>
+      <c r="AG81">
+        <v>1.7</v>
+      </c>
+      <c r="AH81">
+        <v>2.16</v>
+      </c>
+      <c r="AI81">
+        <v>1.91</v>
+      </c>
+      <c r="AJ81">
+        <v>1.91</v>
+      </c>
+      <c r="AK81">
+        <v>2.9</v>
+      </c>
+      <c r="AL81">
+        <v>1.22</v>
+      </c>
+      <c r="AM81">
+        <v>1.12</v>
+      </c>
+      <c r="AN81">
+        <v>0.83</v>
+      </c>
+      <c r="AO81">
+        <v>1.83</v>
+      </c>
+      <c r="AP81">
+        <v>0.86</v>
+      </c>
+      <c r="AQ81">
+        <v>1.71</v>
+      </c>
+      <c r="AR81">
+        <v>1.47</v>
+      </c>
+      <c r="AS81">
+        <v>1.56</v>
+      </c>
+      <c r="AT81">
+        <v>3.03</v>
+      </c>
+      <c r="AU81">
+        <v>4</v>
+      </c>
+      <c r="AV81">
+        <v>7</v>
+      </c>
+      <c r="AW81">
+        <v>8</v>
+      </c>
+      <c r="AX81">
+        <v>11</v>
+      </c>
+      <c r="AY81">
+        <v>12</v>
+      </c>
+      <c r="AZ81">
+        <v>18</v>
+      </c>
+      <c r="BA81">
+        <v>4</v>
+      </c>
+      <c r="BB81">
+        <v>6</v>
+      </c>
+      <c r="BC81">
+        <v>10</v>
+      </c>
+      <c r="BD81">
+        <v>3.1</v>
+      </c>
+      <c r="BE81">
+        <v>8</v>
+      </c>
+      <c r="BF81">
+        <v>1.52</v>
+      </c>
+      <c r="BG81">
+        <v>1.16</v>
+      </c>
+      <c r="BH81">
+        <v>4.35</v>
+      </c>
+      <c r="BI81">
+        <v>1.3</v>
+      </c>
+      <c r="BJ81">
+        <v>3.3</v>
+      </c>
+      <c r="BK81">
+        <v>1.55</v>
+      </c>
+      <c r="BL81">
+        <v>2.38</v>
+      </c>
+      <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
+        <v>1.8</v>
+      </c>
+      <c r="BO81">
+        <v>2.5</v>
+      </c>
+      <c r="BP81">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="193">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -439,6 +439,12 @@
     <t>['3', '82']</t>
   </si>
   <si>
+    <t>['90+2']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -532,9 +538,6 @@
     <t>['9', '14', '28', '43']</t>
   </si>
   <si>
-    <t>['90+2']</t>
-  </si>
-  <si>
     <t>['5', '90+4']</t>
   </si>
   <si>
@@ -568,9 +571,6 @@
     <t>['5', '29', '90']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['12', '77']</t>
   </si>
   <si>
@@ -587,6 +587,12 @@
   </si>
   <si>
     <t>['14', '31']</t>
+  </si>
+  <si>
+    <t>['35', '68']</t>
+  </si>
+  <si>
+    <t>['5', '64']</t>
   </si>
 </sst>
 </file>
@@ -948,7 +954,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP81"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1207,7 +1213,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1285,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
         <v>0.57</v>
@@ -1619,7 +1625,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1825,7 +1831,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1903,10 +1909,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ5">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2031,7 +2037,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2237,7 +2243,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2318,7 +2324,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ7">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2649,7 +2655,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2730,7 +2736,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2855,7 +2861,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3061,7 +3067,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3267,7 +3273,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3473,7 +3479,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3551,7 +3557,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ13">
         <v>1.44</v>
@@ -4091,7 +4097,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4503,7 +4509,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4709,7 +4715,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4915,7 +4921,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -4996,7 +5002,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5121,7 +5127,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5202,7 +5208,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5327,7 +5333,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5408,7 +5414,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5533,7 +5539,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5739,7 +5745,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6023,7 +6029,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
         <v>1.33</v>
@@ -6151,7 +6157,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6229,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6563,7 +6569,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6850,7 +6856,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -6975,7 +6981,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7181,7 +7187,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7259,7 +7265,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
         <v>1.17</v>
@@ -7387,7 +7393,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7465,7 +7471,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ32">
         <v>0.57</v>
@@ -7593,7 +7599,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8005,7 +8011,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8292,7 +8298,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ36">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8417,7 +8423,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8829,7 +8835,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9035,7 +9041,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9241,7 +9247,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9731,7 +9737,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
         <v>1.44</v>
@@ -9859,7 +9865,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10065,7 +10071,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10683,7 +10689,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11095,7 +11101,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11176,7 +11182,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ50">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11301,7 +11307,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11379,7 +11385,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ51">
         <v>0.86</v>
@@ -11507,7 +11513,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11713,7 +11719,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>172</v>
+        <v>141</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11919,7 +11925,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12125,7 +12131,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12331,7 +12337,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12618,7 +12624,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12743,7 +12749,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12821,7 +12827,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -12949,7 +12955,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13155,7 +13161,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13361,7 +13367,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13773,7 +13779,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13979,7 +13985,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14391,7 +14397,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14597,7 +14603,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14678,7 +14684,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.17</v>
+        <v>0.57</v>
       </c>
       <c r="AR67">
         <v>1.63</v>
@@ -14803,7 +14809,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15293,7 +15299,7 @@
         <v>2.4</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ70">
         <v>1.86</v>
@@ -15421,7 +15427,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15499,10 +15505,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -15627,7 +15633,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16039,7 +16045,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>184</v>
+        <v>142</v>
       </c>
       <c r="Q74">
         <v>2.08</v>
@@ -17638,6 +17644,418 @@
       </c>
       <c r="BP81">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="82" spans="1:68">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82">
+        <v>7325411</v>
+      </c>
+      <c r="C82" t="s">
+        <v>68</v>
+      </c>
+      <c r="D82" t="s">
+        <v>69</v>
+      </c>
+      <c r="E82" s="2">
+        <v>45473.41666666666</v>
+      </c>
+      <c r="F82">
+        <v>13</v>
+      </c>
+      <c r="G82" t="s">
+        <v>70</v>
+      </c>
+      <c r="H82" t="s">
+        <v>80</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>1</v>
+      </c>
+      <c r="L82">
+        <v>1</v>
+      </c>
+      <c r="M82">
+        <v>2</v>
+      </c>
+      <c r="N82">
+        <v>3</v>
+      </c>
+      <c r="O82" t="s">
+        <v>141</v>
+      </c>
+      <c r="P82" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q82">
+        <v>2.25</v>
+      </c>
+      <c r="R82">
+        <v>2.3</v>
+      </c>
+      <c r="S82">
+        <v>5</v>
+      </c>
+      <c r="T82">
+        <v>1.36</v>
+      </c>
+      <c r="U82">
+        <v>3.2</v>
+      </c>
+      <c r="V82">
+        <v>2.65</v>
+      </c>
+      <c r="W82">
+        <v>1.44</v>
+      </c>
+      <c r="X82">
+        <v>6.5</v>
+      </c>
+      <c r="Y82">
+        <v>1.09</v>
+      </c>
+      <c r="Z82">
+        <v>1.7</v>
+      </c>
+      <c r="AA82">
+        <v>4</v>
+      </c>
+      <c r="AB82">
+        <v>4.25</v>
+      </c>
+      <c r="AC82">
+        <v>1.04</v>
+      </c>
+      <c r="AD82">
+        <v>13</v>
+      </c>
+      <c r="AE82">
+        <v>1.28</v>
+      </c>
+      <c r="AF82">
+        <v>3.75</v>
+      </c>
+      <c r="AG82">
+        <v>1.79</v>
+      </c>
+      <c r="AH82">
+        <v>2.02</v>
+      </c>
+      <c r="AI82">
+        <v>1.8</v>
+      </c>
+      <c r="AJ82">
+        <v>1.95</v>
+      </c>
+      <c r="AK82">
+        <v>1.2</v>
+      </c>
+      <c r="AL82">
+        <v>1.28</v>
+      </c>
+      <c r="AM82">
+        <v>2.3</v>
+      </c>
+      <c r="AN82">
+        <v>1.17</v>
+      </c>
+      <c r="AO82">
+        <v>0.17</v>
+      </c>
+      <c r="AP82">
+        <v>1</v>
+      </c>
+      <c r="AQ82">
+        <v>0.57</v>
+      </c>
+      <c r="AR82">
+        <v>1.64</v>
+      </c>
+      <c r="AS82">
+        <v>1.19</v>
+      </c>
+      <c r="AT82">
+        <v>2.83</v>
+      </c>
+      <c r="AU82">
+        <v>7</v>
+      </c>
+      <c r="AV82">
+        <v>5</v>
+      </c>
+      <c r="AW82">
+        <v>5</v>
+      </c>
+      <c r="AX82">
+        <v>4</v>
+      </c>
+      <c r="AY82">
+        <v>12</v>
+      </c>
+      <c r="AZ82">
+        <v>9</v>
+      </c>
+      <c r="BA82">
+        <v>8</v>
+      </c>
+      <c r="BB82">
+        <v>4</v>
+      </c>
+      <c r="BC82">
+        <v>12</v>
+      </c>
+      <c r="BD82">
+        <v>1.53</v>
+      </c>
+      <c r="BE82">
+        <v>7.5</v>
+      </c>
+      <c r="BF82">
+        <v>3.1</v>
+      </c>
+      <c r="BG82">
+        <v>1.2</v>
+      </c>
+      <c r="BH82">
+        <v>4.25</v>
+      </c>
+      <c r="BI82">
+        <v>1.38</v>
+      </c>
+      <c r="BJ82">
+        <v>2.9</v>
+      </c>
+      <c r="BK82">
+        <v>1.7</v>
+      </c>
+      <c r="BL82">
+        <v>2.05</v>
+      </c>
+      <c r="BM82">
+        <v>2.12</v>
+      </c>
+      <c r="BN82">
+        <v>1.67</v>
+      </c>
+      <c r="BO82">
+        <v>2.85</v>
+      </c>
+      <c r="BP82">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:68">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83">
+        <v>7325412</v>
+      </c>
+      <c r="C83" t="s">
+        <v>68</v>
+      </c>
+      <c r="D83" t="s">
+        <v>69</v>
+      </c>
+      <c r="E83" s="2">
+        <v>45473.41666666666</v>
+      </c>
+      <c r="F83">
+        <v>13</v>
+      </c>
+      <c r="G83" t="s">
+        <v>73</v>
+      </c>
+      <c r="H83" t="s">
+        <v>76</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>2</v>
+      </c>
+      <c r="L83">
+        <v>1</v>
+      </c>
+      <c r="M83">
+        <v>2</v>
+      </c>
+      <c r="N83">
+        <v>3</v>
+      </c>
+      <c r="O83" t="s">
+        <v>142</v>
+      </c>
+      <c r="P83" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q83">
+        <v>5.5</v>
+      </c>
+      <c r="R83">
+        <v>2.2</v>
+      </c>
+      <c r="S83">
+        <v>2.25</v>
+      </c>
+      <c r="T83">
+        <v>1.4</v>
+      </c>
+      <c r="U83">
+        <v>2.75</v>
+      </c>
+      <c r="V83">
+        <v>2.75</v>
+      </c>
+      <c r="W83">
+        <v>1.4</v>
+      </c>
+      <c r="X83">
+        <v>8</v>
+      </c>
+      <c r="Y83">
+        <v>1.08</v>
+      </c>
+      <c r="Z83">
+        <v>5.75</v>
+      </c>
+      <c r="AA83">
+        <v>3.95</v>
+      </c>
+      <c r="AB83">
+        <v>1.55</v>
+      </c>
+      <c r="AC83">
+        <v>1.05</v>
+      </c>
+      <c r="AD83">
+        <v>11</v>
+      </c>
+      <c r="AE83">
+        <v>1.28</v>
+      </c>
+      <c r="AF83">
+        <v>3.6</v>
+      </c>
+      <c r="AG83">
+        <v>1.9</v>
+      </c>
+      <c r="AH83">
+        <v>1.91</v>
+      </c>
+      <c r="AI83">
+        <v>1.91</v>
+      </c>
+      <c r="AJ83">
+        <v>1.91</v>
+      </c>
+      <c r="AK83">
+        <v>2.3</v>
+      </c>
+      <c r="AL83">
+        <v>1.28</v>
+      </c>
+      <c r="AM83">
+        <v>1.2</v>
+      </c>
+      <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
+        <v>1.33</v>
+      </c>
+      <c r="AP83">
+        <v>1.29</v>
+      </c>
+      <c r="AQ83">
+        <v>1.57</v>
+      </c>
+      <c r="AR83">
+        <v>1.17</v>
+      </c>
+      <c r="AS83">
+        <v>1.39</v>
+      </c>
+      <c r="AT83">
+        <v>2.56</v>
+      </c>
+      <c r="AU83">
+        <v>4</v>
+      </c>
+      <c r="AV83">
+        <v>2</v>
+      </c>
+      <c r="AW83">
+        <v>2</v>
+      </c>
+      <c r="AX83">
+        <v>4</v>
+      </c>
+      <c r="AY83">
+        <v>6</v>
+      </c>
+      <c r="AZ83">
+        <v>6</v>
+      </c>
+      <c r="BA83">
+        <v>5</v>
+      </c>
+      <c r="BB83">
+        <v>6</v>
+      </c>
+      <c r="BC83">
+        <v>11</v>
+      </c>
+      <c r="BD83">
+        <v>2.9</v>
+      </c>
+      <c r="BE83">
+        <v>7.5</v>
+      </c>
+      <c r="BF83">
+        <v>1.58</v>
+      </c>
+      <c r="BG83">
+        <v>1.18</v>
+      </c>
+      <c r="BH83">
+        <v>4.6</v>
+      </c>
+      <c r="BI83">
+        <v>1.34</v>
+      </c>
+      <c r="BJ83">
+        <v>3.1</v>
+      </c>
+      <c r="BK83">
+        <v>1.6</v>
+      </c>
+      <c r="BL83">
+        <v>2.23</v>
+      </c>
+      <c r="BM83">
+        <v>2</v>
+      </c>
+      <c r="BN83">
+        <v>1.73</v>
+      </c>
+      <c r="BO83">
+        <v>2.65</v>
+      </c>
+      <c r="BP83">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -17786,22 +17786,22 @@
         <v>2.83</v>
       </c>
       <c r="AU82">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV82">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW82">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AX82">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY82">
+        <v>20</v>
+      </c>
+      <c r="AZ82">
         <v>12</v>
-      </c>
-      <c r="AZ82">
-        <v>9</v>
       </c>
       <c r="BA82">
         <v>8</v>
@@ -17995,19 +17995,19 @@
         <v>4</v>
       </c>
       <c r="AV83">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW83">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AX83">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY83">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ83">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BA83">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="560" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="198">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -445,6 +445,15 @@
     <t>['28']</t>
   </si>
   <si>
+    <t>['4', '13', '77']</t>
+  </si>
+  <si>
+    <t>['36', '90+8']</t>
+  </si>
+  <si>
+    <t>['14', '20', '29']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -593,6 +602,12 @@
   </si>
   <si>
     <t>['5', '64']</t>
+  </si>
+  <si>
+    <t>['22', '68', '87']</t>
+  </si>
+  <si>
+    <t>['18', '24', '81']</t>
   </si>
 </sst>
 </file>
@@ -954,7 +969,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1213,7 +1228,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1497,7 +1512,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1625,7 +1640,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1831,7 +1846,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1909,10 +1924,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2037,7 +2052,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2243,7 +2258,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2321,10 +2336,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2655,7 +2670,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2736,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2861,7 +2876,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2939,7 +2954,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
         <v>1.33</v>
@@ -3067,7 +3082,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3273,7 +3288,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3351,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3479,7 +3494,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3557,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
         <v>1.44</v>
@@ -4097,7 +4112,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4384,7 +4399,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4509,7 +4524,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4587,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4715,7 +4730,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4921,7 +4936,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5002,7 +5017,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5127,7 +5142,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5208,7 +5223,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ21">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5333,7 +5348,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5414,7 +5429,7 @@
         <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5539,7 +5554,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5745,7 +5760,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6157,7 +6172,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6235,7 +6250,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>1.71</v>
@@ -6441,7 +6456,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -6569,7 +6584,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6647,7 +6662,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
         <v>0.43</v>
@@ -6856,7 +6871,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -6981,7 +6996,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7187,7 +7202,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7268,7 +7283,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7393,7 +7408,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7471,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
         <v>0.57</v>
@@ -7599,7 +7614,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7677,7 +7692,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
         <v>1.86</v>
@@ -8011,7 +8026,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8092,7 +8107,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8298,7 +8313,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ36">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8423,7 +8438,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8835,7 +8850,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9041,7 +9056,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9247,7 +9262,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9531,10 +9546,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9865,7 +9880,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10071,7 +10086,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10149,7 +10164,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
         <v>1.44</v>
@@ -10358,7 +10373,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10561,7 +10576,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>0.57</v>
@@ -10689,7 +10704,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11101,7 +11116,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11179,10 +11194,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11307,7 +11322,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11385,10 +11400,10 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11513,7 +11528,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11797,7 +11812,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
         <v>0.57</v>
@@ -11925,7 +11940,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12006,7 +12021,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ54">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12131,7 +12146,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12209,7 +12224,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
         <v>1.44</v>
@@ -12337,7 +12352,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12624,7 +12639,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12749,7 +12764,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12955,7 +12970,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13161,7 +13176,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13239,7 +13254,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
         <v>1.71</v>
@@ -13367,7 +13382,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13779,7 +13794,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13985,7 +14000,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14063,7 +14078,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
         <v>0.43</v>
@@ -14272,7 +14287,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14397,7 +14412,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14603,7 +14618,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14684,7 +14699,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>1.63</v>
@@ -14809,7 +14824,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15093,10 +15108,10 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
         <v>1.62</v>
@@ -15299,7 +15314,7 @@
         <v>2.4</v>
       </c>
       <c r="AP70">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
         <v>1.86</v>
@@ -15427,7 +15442,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15508,7 +15523,7 @@
         <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -15633,7 +15648,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15714,7 +15729,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ72">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16123,7 +16138,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
         <v>0.43</v>
@@ -16251,7 +16266,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16329,7 +16344,7 @@
         <v>1.4</v>
       </c>
       <c r="AP75">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ75">
         <v>1.33</v>
@@ -16457,7 +16472,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16663,7 +16678,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16869,7 +16884,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17281,7 +17296,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17362,7 +17377,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ80">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -17487,7 +17502,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17693,7 +17708,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q82">
         <v>2.25</v>
@@ -17774,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
         <v>1.64</v>
@@ -17899,7 +17914,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q83">
         <v>5.5</v>
@@ -17977,10 +17992,10 @@
         <v>1.33</v>
       </c>
       <c r="AP83">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
         <v>1.17</v>
@@ -18056,6 +18071,830 @@
       </c>
       <c r="BP83">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="84" spans="1:68">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84">
+        <v>7325413</v>
+      </c>
+      <c r="C84" t="s">
+        <v>68</v>
+      </c>
+      <c r="D84" t="s">
+        <v>69</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45479.375</v>
+      </c>
+      <c r="F84">
+        <v>14</v>
+      </c>
+      <c r="G84" t="s">
+        <v>71</v>
+      </c>
+      <c r="H84" t="s">
+        <v>76</v>
+      </c>
+      <c r="I84">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>0</v>
+      </c>
+      <c r="K84">
+        <v>2</v>
+      </c>
+      <c r="L84">
+        <v>3</v>
+      </c>
+      <c r="M84">
+        <v>0</v>
+      </c>
+      <c r="N84">
+        <v>3</v>
+      </c>
+      <c r="O84" t="s">
+        <v>143</v>
+      </c>
+      <c r="P84" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q84">
+        <v>2.95</v>
+      </c>
+      <c r="R84">
+        <v>2.25</v>
+      </c>
+      <c r="S84">
+        <v>3.4</v>
+      </c>
+      <c r="T84">
+        <v>1.35</v>
+      </c>
+      <c r="U84">
+        <v>3.2</v>
+      </c>
+      <c r="V84">
+        <v>2.6</v>
+      </c>
+      <c r="W84">
+        <v>1.47</v>
+      </c>
+      <c r="X84">
+        <v>6</v>
+      </c>
+      <c r="Y84">
+        <v>1.11</v>
+      </c>
+      <c r="Z84">
+        <v>2.36</v>
+      </c>
+      <c r="AA84">
+        <v>3.6</v>
+      </c>
+      <c r="AB84">
+        <v>2.95</v>
+      </c>
+      <c r="AC84">
+        <v>1.04</v>
+      </c>
+      <c r="AD84">
+        <v>13</v>
+      </c>
+      <c r="AE84">
+        <v>1.25</v>
+      </c>
+      <c r="AF84">
+        <v>4</v>
+      </c>
+      <c r="AG84">
+        <v>1.75</v>
+      </c>
+      <c r="AH84">
+        <v>2.05</v>
+      </c>
+      <c r="AI84">
+        <v>1.6</v>
+      </c>
+      <c r="AJ84">
+        <v>2.25</v>
+      </c>
+      <c r="AK84">
+        <v>1.45</v>
+      </c>
+      <c r="AL84">
+        <v>1.33</v>
+      </c>
+      <c r="AM84">
+        <v>1.65</v>
+      </c>
+      <c r="AN84">
+        <v>1.57</v>
+      </c>
+      <c r="AO84">
+        <v>1.57</v>
+      </c>
+      <c r="AP84">
+        <v>1.75</v>
+      </c>
+      <c r="AQ84">
+        <v>1.38</v>
+      </c>
+      <c r="AR84">
+        <v>1.87</v>
+      </c>
+      <c r="AS84">
+        <v>1.41</v>
+      </c>
+      <c r="AT84">
+        <v>3.28</v>
+      </c>
+      <c r="AU84">
+        <v>6</v>
+      </c>
+      <c r="AV84">
+        <v>4</v>
+      </c>
+      <c r="AW84">
+        <v>5</v>
+      </c>
+      <c r="AX84">
+        <v>12</v>
+      </c>
+      <c r="AY84">
+        <v>11</v>
+      </c>
+      <c r="AZ84">
+        <v>16</v>
+      </c>
+      <c r="BA84">
+        <v>7</v>
+      </c>
+      <c r="BB84">
+        <v>8</v>
+      </c>
+      <c r="BC84">
+        <v>15</v>
+      </c>
+      <c r="BD84">
+        <v>1.55</v>
+      </c>
+      <c r="BE84">
+        <v>8.5</v>
+      </c>
+      <c r="BF84">
+        <v>2.91</v>
+      </c>
+      <c r="BG84">
+        <v>1.16</v>
+      </c>
+      <c r="BH84">
+        <v>4.35</v>
+      </c>
+      <c r="BI84">
+        <v>1.33</v>
+      </c>
+      <c r="BJ84">
+        <v>2.93</v>
+      </c>
+      <c r="BK84">
+        <v>1.6</v>
+      </c>
+      <c r="BL84">
+        <v>2.19</v>
+      </c>
+      <c r="BM84">
+        <v>2.01</v>
+      </c>
+      <c r="BN84">
+        <v>1.75</v>
+      </c>
+      <c r="BO84">
+        <v>2.58</v>
+      </c>
+      <c r="BP84">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="85" spans="1:68">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85">
+        <v>7325414</v>
+      </c>
+      <c r="C85" t="s">
+        <v>68</v>
+      </c>
+      <c r="D85" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85" s="2">
+        <v>45479.45833333334</v>
+      </c>
+      <c r="F85">
+        <v>14</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>2</v>
+      </c>
+      <c r="L85">
+        <v>2</v>
+      </c>
+      <c r="M85">
+        <v>3</v>
+      </c>
+      <c r="N85">
+        <v>5</v>
+      </c>
+      <c r="O85" t="s">
+        <v>144</v>
+      </c>
+      <c r="P85" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q85">
+        <v>1.72</v>
+      </c>
+      <c r="R85">
+        <v>2.73</v>
+      </c>
+      <c r="S85">
+        <v>8.73</v>
+      </c>
+      <c r="T85">
+        <v>1.28</v>
+      </c>
+      <c r="U85">
+        <v>3.6</v>
+      </c>
+      <c r="V85">
+        <v>2.48</v>
+      </c>
+      <c r="W85">
+        <v>1.54</v>
+      </c>
+      <c r="X85">
+        <v>5.5</v>
+      </c>
+      <c r="Y85">
+        <v>1.12</v>
+      </c>
+      <c r="Z85">
+        <v>1.27</v>
+      </c>
+      <c r="AA85">
+        <v>5.6</v>
+      </c>
+      <c r="AB85">
+        <v>9.6</v>
+      </c>
+      <c r="AC85">
+        <v>1.02</v>
+      </c>
+      <c r="AD85">
+        <v>17</v>
+      </c>
+      <c r="AE85">
+        <v>1.2</v>
+      </c>
+      <c r="AF85">
+        <v>4.5</v>
+      </c>
+      <c r="AG85">
+        <v>1.66</v>
+      </c>
+      <c r="AH85">
+        <v>2.2</v>
+      </c>
+      <c r="AI85">
+        <v>2.05</v>
+      </c>
+      <c r="AJ85">
+        <v>1.75</v>
+      </c>
+      <c r="AK85">
+        <v>1.08</v>
+      </c>
+      <c r="AL85">
+        <v>1.17</v>
+      </c>
+      <c r="AM85">
+        <v>3.75</v>
+      </c>
+      <c r="AN85">
+        <v>1.71</v>
+      </c>
+      <c r="AO85">
+        <v>0.57</v>
+      </c>
+      <c r="AP85">
+        <v>1.5</v>
+      </c>
+      <c r="AQ85">
+        <v>0.88</v>
+      </c>
+      <c r="AR85">
+        <v>1.85</v>
+      </c>
+      <c r="AS85">
+        <v>1.24</v>
+      </c>
+      <c r="AT85">
+        <v>3.09</v>
+      </c>
+      <c r="AU85">
+        <v>4</v>
+      </c>
+      <c r="AV85">
+        <v>7</v>
+      </c>
+      <c r="AW85">
+        <v>11</v>
+      </c>
+      <c r="AX85">
+        <v>5</v>
+      </c>
+      <c r="AY85">
+        <v>15</v>
+      </c>
+      <c r="AZ85">
+        <v>12</v>
+      </c>
+      <c r="BA85">
+        <v>3</v>
+      </c>
+      <c r="BB85">
+        <v>5</v>
+      </c>
+      <c r="BC85">
+        <v>8</v>
+      </c>
+      <c r="BD85">
+        <v>1.34</v>
+      </c>
+      <c r="BE85">
+        <v>9.5</v>
+      </c>
+      <c r="BF85">
+        <v>3.86</v>
+      </c>
+      <c r="BG85">
+        <v>1.21</v>
+      </c>
+      <c r="BH85">
+        <v>3.74</v>
+      </c>
+      <c r="BI85">
+        <v>1.42</v>
+      </c>
+      <c r="BJ85">
+        <v>2.65</v>
+      </c>
+      <c r="BK85">
+        <v>1.75</v>
+      </c>
+      <c r="BL85">
+        <v>2.01</v>
+      </c>
+      <c r="BM85">
+        <v>2.19</v>
+      </c>
+      <c r="BN85">
+        <v>1.6</v>
+      </c>
+      <c r="BO85">
+        <v>2.91</v>
+      </c>
+      <c r="BP85">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:68">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86">
+        <v>7325415</v>
+      </c>
+      <c r="C86" t="s">
+        <v>68</v>
+      </c>
+      <c r="D86" t="s">
+        <v>69</v>
+      </c>
+      <c r="E86" s="2">
+        <v>45480.52083333334</v>
+      </c>
+      <c r="F86">
+        <v>14</v>
+      </c>
+      <c r="G86" t="s">
+        <v>73</v>
+      </c>
+      <c r="H86" t="s">
+        <v>74</v>
+      </c>
+      <c r="I86">
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+      <c r="K86">
+        <v>2</v>
+      </c>
+      <c r="L86">
+        <v>0</v>
+      </c>
+      <c r="M86">
+        <v>3</v>
+      </c>
+      <c r="N86">
+        <v>3</v>
+      </c>
+      <c r="O86" t="s">
+        <v>83</v>
+      </c>
+      <c r="P86" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q86">
+        <v>3</v>
+      </c>
+      <c r="R86">
+        <v>2.15</v>
+      </c>
+      <c r="S86">
+        <v>3.6</v>
+      </c>
+      <c r="T86">
+        <v>1.4</v>
+      </c>
+      <c r="U86">
+        <v>2.9</v>
+      </c>
+      <c r="V86">
+        <v>2.85</v>
+      </c>
+      <c r="W86">
+        <v>1.4</v>
+      </c>
+      <c r="X86">
+        <v>7</v>
+      </c>
+      <c r="Y86">
+        <v>1.08</v>
+      </c>
+      <c r="Z86">
+        <v>2.35</v>
+      </c>
+      <c r="AA86">
+        <v>3.18</v>
+      </c>
+      <c r="AB86">
+        <v>2.77</v>
+      </c>
+      <c r="AC86">
+        <v>1.05</v>
+      </c>
+      <c r="AD86">
+        <v>10</v>
+      </c>
+      <c r="AE86">
+        <v>1.3</v>
+      </c>
+      <c r="AF86">
+        <v>3.5</v>
+      </c>
+      <c r="AG86">
+        <v>2</v>
+      </c>
+      <c r="AH86">
+        <v>1.88</v>
+      </c>
+      <c r="AI86">
+        <v>1.75</v>
+      </c>
+      <c r="AJ86">
+        <v>2.05</v>
+      </c>
+      <c r="AK86">
+        <v>1.42</v>
+      </c>
+      <c r="AL86">
+        <v>1.35</v>
+      </c>
+      <c r="AM86">
+        <v>1.65</v>
+      </c>
+      <c r="AN86">
+        <v>1.29</v>
+      </c>
+      <c r="AO86">
+        <v>1.17</v>
+      </c>
+      <c r="AP86">
+        <v>1.13</v>
+      </c>
+      <c r="AQ86">
+        <v>1.43</v>
+      </c>
+      <c r="AR86">
+        <v>1.21</v>
+      </c>
+      <c r="AS86">
+        <v>1.34</v>
+      </c>
+      <c r="AT86">
+        <v>2.55</v>
+      </c>
+      <c r="AU86">
+        <v>7</v>
+      </c>
+      <c r="AV86">
+        <v>3</v>
+      </c>
+      <c r="AW86">
+        <v>6</v>
+      </c>
+      <c r="AX86">
+        <v>5</v>
+      </c>
+      <c r="AY86">
+        <v>13</v>
+      </c>
+      <c r="AZ86">
+        <v>8</v>
+      </c>
+      <c r="BA86">
+        <v>4</v>
+      </c>
+      <c r="BB86">
+        <v>2</v>
+      </c>
+      <c r="BC86">
+        <v>6</v>
+      </c>
+      <c r="BD86">
+        <v>1.85</v>
+      </c>
+      <c r="BE86">
+        <v>8</v>
+      </c>
+      <c r="BF86">
+        <v>2.28</v>
+      </c>
+      <c r="BG86">
+        <v>1.16</v>
+      </c>
+      <c r="BH86">
+        <v>4.33</v>
+      </c>
+      <c r="BI86">
+        <v>1.33</v>
+      </c>
+      <c r="BJ86">
+        <v>2.93</v>
+      </c>
+      <c r="BK86">
+        <v>1.6</v>
+      </c>
+      <c r="BL86">
+        <v>2.19</v>
+      </c>
+      <c r="BM86">
+        <v>2.01</v>
+      </c>
+      <c r="BN86">
+        <v>1.75</v>
+      </c>
+      <c r="BO86">
+        <v>2.58</v>
+      </c>
+      <c r="BP86">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="87" spans="1:68">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87">
+        <v>7325416</v>
+      </c>
+      <c r="C87" t="s">
+        <v>68</v>
+      </c>
+      <c r="D87" t="s">
+        <v>69</v>
+      </c>
+      <c r="E87" s="2">
+        <v>45480.52083333334</v>
+      </c>
+      <c r="F87">
+        <v>14</v>
+      </c>
+      <c r="G87" t="s">
+        <v>75</v>
+      </c>
+      <c r="H87" t="s">
+        <v>70</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>4</v>
+      </c>
+      <c r="L87">
+        <v>3</v>
+      </c>
+      <c r="M87">
+        <v>1</v>
+      </c>
+      <c r="N87">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>145</v>
+      </c>
+      <c r="P87" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q87">
+        <v>1.95</v>
+      </c>
+      <c r="R87">
+        <v>2.45</v>
+      </c>
+      <c r="S87">
+        <v>6.5</v>
+      </c>
+      <c r="T87">
+        <v>1.33</v>
+      </c>
+      <c r="U87">
+        <v>3.3</v>
+      </c>
+      <c r="V87">
+        <v>2.55</v>
+      </c>
+      <c r="W87">
+        <v>1.5</v>
+      </c>
+      <c r="X87">
+        <v>6</v>
+      </c>
+      <c r="Y87">
+        <v>1.11</v>
+      </c>
+      <c r="Z87">
+        <v>1.41</v>
+      </c>
+      <c r="AA87">
+        <v>4.2</v>
+      </c>
+      <c r="AB87">
+        <v>6.4</v>
+      </c>
+      <c r="AC87">
+        <v>1.03</v>
+      </c>
+      <c r="AD87">
+        <v>15</v>
+      </c>
+      <c r="AE87">
+        <v>1.22</v>
+      </c>
+      <c r="AF87">
+        <v>4.33</v>
+      </c>
+      <c r="AG87">
+        <v>1.68</v>
+      </c>
+      <c r="AH87">
+        <v>2.05</v>
+      </c>
+      <c r="AI87">
+        <v>1.87</v>
+      </c>
+      <c r="AJ87">
+        <v>1.87</v>
+      </c>
+      <c r="AK87">
+        <v>1.12</v>
+      </c>
+      <c r="AL87">
+        <v>1.22</v>
+      </c>
+      <c r="AM87">
+        <v>2.95</v>
+      </c>
+      <c r="AN87">
+        <v>2.4</v>
+      </c>
+      <c r="AO87">
+        <v>0.86</v>
+      </c>
+      <c r="AP87">
+        <v>2.5</v>
+      </c>
+      <c r="AQ87">
+        <v>0.75</v>
+      </c>
+      <c r="AR87">
+        <v>1.85</v>
+      </c>
+      <c r="AS87">
+        <v>1.38</v>
+      </c>
+      <c r="AT87">
+        <v>3.23</v>
+      </c>
+      <c r="AU87">
+        <v>5</v>
+      </c>
+      <c r="AV87">
+        <v>7</v>
+      </c>
+      <c r="AW87">
+        <v>7</v>
+      </c>
+      <c r="AX87">
+        <v>6</v>
+      </c>
+      <c r="AY87">
+        <v>12</v>
+      </c>
+      <c r="AZ87">
+        <v>13</v>
+      </c>
+      <c r="BA87">
+        <v>2</v>
+      </c>
+      <c r="BB87">
+        <v>7</v>
+      </c>
+      <c r="BC87">
+        <v>9</v>
+      </c>
+      <c r="BD87">
+        <v>1.31</v>
+      </c>
+      <c r="BE87">
+        <v>9.5</v>
+      </c>
+      <c r="BF87">
+        <v>4.13</v>
+      </c>
+      <c r="BG87">
+        <v>1.19</v>
+      </c>
+      <c r="BH87">
+        <v>3.98</v>
+      </c>
+      <c r="BI87">
+        <v>1.39</v>
+      </c>
+      <c r="BJ87">
+        <v>2.76</v>
+      </c>
+      <c r="BK87">
+        <v>1.7</v>
+      </c>
+      <c r="BL87">
+        <v>2.09</v>
+      </c>
+      <c r="BM87">
+        <v>2.14</v>
+      </c>
+      <c r="BN87">
+        <v>1.67</v>
+      </c>
+      <c r="BO87">
+        <v>2.75</v>
+      </c>
+      <c r="BP87">
+        <v>1.37</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="201">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -454,6 +454,12 @@
     <t>['14', '20', '29']</t>
   </si>
   <si>
+    <t>['8']</t>
+  </si>
+  <si>
+    <t>['3', '35', '64']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -608,6 +614,9 @@
   </si>
   <si>
     <t>['18', '24', '81']</t>
+  </si>
+  <si>
+    <t>['41', '45+3']</t>
   </si>
 </sst>
 </file>
@@ -969,7 +978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP87"/>
+  <dimension ref="A1:BP89"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1228,7 +1237,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1515,7 +1524,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1640,7 +1649,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1846,7 +1855,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2052,7 +2061,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2258,7 +2267,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2545,7 +2554,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2670,7 +2679,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2876,7 +2885,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2957,7 +2966,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3082,7 +3091,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3160,7 +3169,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
         <v>0.43</v>
@@ -3288,7 +3297,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3494,7 +3503,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3984,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4112,7 +4121,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4524,7 +4533,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4730,7 +4739,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4936,7 +4945,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5142,7 +5151,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5220,7 +5229,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
         <v>0.88</v>
@@ -5348,7 +5357,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5554,7 +5563,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5760,7 +5769,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5838,7 +5847,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>1.86</v>
@@ -6047,7 +6056,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6172,7 +6181,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6459,7 +6468,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6584,7 +6593,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6996,7 +7005,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7202,7 +7211,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7408,7 +7417,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7614,7 +7623,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7901,7 +7910,7 @@
         <v>2</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8026,7 +8035,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8104,7 +8113,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
         <v>0.75</v>
@@ -8310,7 +8319,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8438,7 +8447,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8850,7 +8859,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9056,7 +9065,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9134,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9262,7 +9271,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9880,7 +9889,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9961,7 +9970,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10086,7 +10095,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10704,7 +10713,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11116,7 +11125,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11322,7 +11331,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11528,7 +11537,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11609,7 +11618,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11940,7 +11949,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12018,7 +12027,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ54">
         <v>1.43</v>
@@ -12146,7 +12155,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12352,7 +12361,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12636,7 +12645,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -12764,7 +12773,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12845,7 +12854,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -12970,7 +12979,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13176,7 +13185,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13382,7 +13391,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13794,7 +13803,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13875,7 +13884,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14000,7 +14009,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14412,7 +14421,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14490,10 +14499,10 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14618,7 +14627,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14824,7 +14833,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14902,7 +14911,7 @@
         <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
         <v>1.71</v>
@@ -15442,7 +15451,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15648,7 +15657,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16266,7 +16275,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16347,7 +16356,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ75">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16472,7 +16481,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16678,7 +16687,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16884,7 +16893,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -16962,7 +16971,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
         <v>1.86</v>
@@ -17168,7 +17177,7 @@
         <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AQ79">
         <v>1.44</v>
@@ -17296,7 +17305,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17502,7 +17511,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17708,7 +17717,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q82">
         <v>2.25</v>
@@ -17914,7 +17923,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q83">
         <v>5.5</v>
@@ -18326,7 +18335,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18532,7 +18541,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18738,7 +18747,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18895,6 +18904,418 @@
       </c>
       <c r="BP87">
         <v>1.37</v>
+      </c>
+    </row>
+    <row r="88" spans="1:68">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88">
+        <v>7325417</v>
+      </c>
+      <c r="C88" t="s">
+        <v>68</v>
+      </c>
+      <c r="D88" t="s">
+        <v>69</v>
+      </c>
+      <c r="E88" s="2">
+        <v>45481.5</v>
+      </c>
+      <c r="F88">
+        <v>14</v>
+      </c>
+      <c r="G88" t="s">
+        <v>81</v>
+      </c>
+      <c r="H88" t="s">
+        <v>72</v>
+      </c>
+      <c r="I88">
+        <v>1</v>
+      </c>
+      <c r="J88">
+        <v>2</v>
+      </c>
+      <c r="K88">
+        <v>3</v>
+      </c>
+      <c r="L88">
+        <v>1</v>
+      </c>
+      <c r="M88">
+        <v>2</v>
+      </c>
+      <c r="N88">
+        <v>3</v>
+      </c>
+      <c r="O88" t="s">
+        <v>146</v>
+      </c>
+      <c r="P88" t="s">
+        <v>200</v>
+      </c>
+      <c r="Q88">
+        <v>3.75</v>
+      </c>
+      <c r="R88">
+        <v>2.25</v>
+      </c>
+      <c r="S88">
+        <v>2.7</v>
+      </c>
+      <c r="T88">
+        <v>1.33</v>
+      </c>
+      <c r="U88">
+        <v>3.3</v>
+      </c>
+      <c r="V88">
+        <v>2.55</v>
+      </c>
+      <c r="W88">
+        <v>1.5</v>
+      </c>
+      <c r="X88">
+        <v>6</v>
+      </c>
+      <c r="Y88">
+        <v>1.11</v>
+      </c>
+      <c r="Z88">
+        <v>3.04</v>
+      </c>
+      <c r="AA88">
+        <v>3.23</v>
+      </c>
+      <c r="AB88">
+        <v>2.04</v>
+      </c>
+      <c r="AC88">
+        <v>1.03</v>
+      </c>
+      <c r="AD88">
+        <v>13</v>
+      </c>
+      <c r="AE88">
+        <v>1.22</v>
+      </c>
+      <c r="AF88">
+        <v>4.33</v>
+      </c>
+      <c r="AG88">
+        <v>1.72</v>
+      </c>
+      <c r="AH88">
+        <v>2</v>
+      </c>
+      <c r="AI88">
+        <v>1.57</v>
+      </c>
+      <c r="AJ88">
+        <v>2.3</v>
+      </c>
+      <c r="AK88">
+        <v>1.8</v>
+      </c>
+      <c r="AL88">
+        <v>1.33</v>
+      </c>
+      <c r="AM88">
+        <v>1.36</v>
+      </c>
+      <c r="AN88">
+        <v>1.5</v>
+      </c>
+      <c r="AO88">
+        <v>1.33</v>
+      </c>
+      <c r="AP88">
+        <v>1.29</v>
+      </c>
+      <c r="AQ88">
+        <v>1.57</v>
+      </c>
+      <c r="AR88">
+        <v>1.22</v>
+      </c>
+      <c r="AS88">
+        <v>1.54</v>
+      </c>
+      <c r="AT88">
+        <v>2.76</v>
+      </c>
+      <c r="AU88">
+        <v>7</v>
+      </c>
+      <c r="AV88">
+        <v>4</v>
+      </c>
+      <c r="AW88">
+        <v>3</v>
+      </c>
+      <c r="AX88">
+        <v>10</v>
+      </c>
+      <c r="AY88">
+        <v>10</v>
+      </c>
+      <c r="AZ88">
+        <v>14</v>
+      </c>
+      <c r="BA88">
+        <v>5</v>
+      </c>
+      <c r="BB88">
+        <v>6</v>
+      </c>
+      <c r="BC88">
+        <v>11</v>
+      </c>
+      <c r="BD88">
+        <v>2.44</v>
+      </c>
+      <c r="BE88">
+        <v>8</v>
+      </c>
+      <c r="BF88">
+        <v>1.75</v>
+      </c>
+      <c r="BG88">
+        <v>1.23</v>
+      </c>
+      <c r="BH88">
+        <v>4</v>
+      </c>
+      <c r="BI88">
+        <v>1.42</v>
+      </c>
+      <c r="BJ88">
+        <v>2.75</v>
+      </c>
+      <c r="BK88">
+        <v>1.7</v>
+      </c>
+      <c r="BL88">
+        <v>2.05</v>
+      </c>
+      <c r="BM88">
+        <v>2.12</v>
+      </c>
+      <c r="BN88">
+        <v>1.67</v>
+      </c>
+      <c r="BO88">
+        <v>2.7</v>
+      </c>
+      <c r="BP88">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="89" spans="1:68">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89">
+        <v>7325418</v>
+      </c>
+      <c r="C89" t="s">
+        <v>68</v>
+      </c>
+      <c r="D89" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="2">
+        <v>45481.5</v>
+      </c>
+      <c r="F89">
+        <v>14</v>
+      </c>
+      <c r="G89" t="s">
+        <v>78</v>
+      </c>
+      <c r="H89" t="s">
+        <v>79</v>
+      </c>
+      <c r="I89">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>0</v>
+      </c>
+      <c r="K89">
+        <v>2</v>
+      </c>
+      <c r="L89">
+        <v>3</v>
+      </c>
+      <c r="M89">
+        <v>0</v>
+      </c>
+      <c r="N89">
+        <v>3</v>
+      </c>
+      <c r="O89" t="s">
+        <v>147</v>
+      </c>
+      <c r="P89" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q89">
+        <v>1.98</v>
+      </c>
+      <c r="R89">
+        <v>2.54</v>
+      </c>
+      <c r="S89">
+        <v>6.19</v>
+      </c>
+      <c r="T89">
+        <v>1.31</v>
+      </c>
+      <c r="U89">
+        <v>3.28</v>
+      </c>
+      <c r="V89">
+        <v>2.53</v>
+      </c>
+      <c r="W89">
+        <v>1.52</v>
+      </c>
+      <c r="X89">
+        <v>5.8</v>
+      </c>
+      <c r="Y89">
+        <v>1.12</v>
+      </c>
+      <c r="Z89">
+        <v>1.47</v>
+      </c>
+      <c r="AA89">
+        <v>3.91</v>
+      </c>
+      <c r="AB89">
+        <v>5.22</v>
+      </c>
+      <c r="AC89">
+        <v>1.01</v>
+      </c>
+      <c r="AD89">
+        <v>11</v>
+      </c>
+      <c r="AE89">
+        <v>1.18</v>
+      </c>
+      <c r="AF89">
+        <v>4.05</v>
+      </c>
+      <c r="AG89">
+        <v>1.64</v>
+      </c>
+      <c r="AH89">
+        <v>2.12</v>
+      </c>
+      <c r="AI89">
+        <v>1.75</v>
+      </c>
+      <c r="AJ89">
+        <v>1.95</v>
+      </c>
+      <c r="AK89">
+        <v>1.13</v>
+      </c>
+      <c r="AL89">
+        <v>1.2</v>
+      </c>
+      <c r="AM89">
+        <v>2.6</v>
+      </c>
+      <c r="AN89">
+        <v>1.57</v>
+      </c>
+      <c r="AO89">
+        <v>0.5</v>
+      </c>
+      <c r="AP89">
+        <v>1.75</v>
+      </c>
+      <c r="AQ89">
+        <v>0.43</v>
+      </c>
+      <c r="AR89">
+        <v>1.58</v>
+      </c>
+      <c r="AS89">
+        <v>0.98</v>
+      </c>
+      <c r="AT89">
+        <v>2.56</v>
+      </c>
+      <c r="AU89">
+        <v>9</v>
+      </c>
+      <c r="AV89">
+        <v>0</v>
+      </c>
+      <c r="AW89">
+        <v>9</v>
+      </c>
+      <c r="AX89">
+        <v>6</v>
+      </c>
+      <c r="AY89">
+        <v>18</v>
+      </c>
+      <c r="AZ89">
+        <v>6</v>
+      </c>
+      <c r="BA89">
+        <v>6</v>
+      </c>
+      <c r="BB89">
+        <v>0</v>
+      </c>
+      <c r="BC89">
+        <v>6</v>
+      </c>
+      <c r="BD89">
+        <v>1.37</v>
+      </c>
+      <c r="BE89">
+        <v>9.5</v>
+      </c>
+      <c r="BF89">
+        <v>3.69</v>
+      </c>
+      <c r="BG89">
+        <v>1.18</v>
+      </c>
+      <c r="BH89">
+        <v>4.5</v>
+      </c>
+      <c r="BI89">
+        <v>1.34</v>
+      </c>
+      <c r="BJ89">
+        <v>3.1</v>
+      </c>
+      <c r="BK89">
+        <v>1.61</v>
+      </c>
+      <c r="BL89">
+        <v>2.23</v>
+      </c>
+      <c r="BM89">
+        <v>2.02</v>
+      </c>
+      <c r="BN89">
+        <v>1.74</v>
+      </c>
+      <c r="BO89">
+        <v>2.7</v>
+      </c>
+      <c r="BP89">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ3">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ4">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ6">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2551,19 +2551,19 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AS8">
         <v>0.73</v>
       </c>
       <c r="AT8">
-        <v>0.73</v>
+        <v>2.13</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2957,25 +2957,25 @@
         <v>1.53</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3169,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ11">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS11">
         <v>1.24</v>
       </c>
       <c r="AT11">
-        <v>1.24</v>
+        <v>2.71</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3372,22 +3372,22 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>2.37</v>
+        <v>3.15</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3578,22 +3578,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AT13">
-        <v>1.18</v>
+        <v>2.5</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3781,25 +3781,25 @@
         <v>1.55</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ14">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR14">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AT14">
-        <v>1.95</v>
+        <v>3.56</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -3987,25 +3987,25 @@
         <v>1.48</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR15">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AS15">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4193,25 +4193,25 @@
         <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR16">
-        <v>2.63</v>
+        <v>2.02</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AT16">
-        <v>2.63</v>
+        <v>3.12</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4399,25 +4399,25 @@
         <v>1.4</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4605,25 +4605,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR18">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
       <c r="AS18">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT18">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="AU18">
         <v>6</v>
@@ -4817,19 +4817,19 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AS19">
         <v>1.46</v>
       </c>
       <c r="AT19">
-        <v>1.46</v>
+        <v>2.9</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5017,25 +5017,25 @@
         <v>1.32</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="AT20">
-        <v>3.11</v>
+        <v>3.67</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5223,25 +5223,25 @@
         <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR21">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS21">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT21">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5429,25 +5429,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO22">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="AT22">
-        <v>2.67</v>
+        <v>3.23</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5635,25 +5635,25 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR23">
-        <v>2.91</v>
+        <v>1.6</v>
       </c>
       <c r="AS23">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT23">
-        <v>4.71</v>
+        <v>3.24</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5841,25 +5841,25 @@
         <v>1.32</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AS24">
-        <v>0.62</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>0.62</v>
+        <v>3.33</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6047,25 +6047,25 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR25">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="AS25">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AT25">
-        <v>2.19</v>
+        <v>2.59</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6253,25 +6253,25 @@
         <v>1.3</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
       </c>
       <c r="AS26">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="AT26">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6459,25 +6459,25 @@
         <v>2.15</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="AR27">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AS27">
-        <v>0.95</v>
+        <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="AU27">
         <v>10</v>
@@ -6665,25 +6665,25 @@
         <v>2.06</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>0.67</v>
-      </c>
       <c r="AP28">
+        <v>1.73</v>
+      </c>
+      <c r="AQ28">
+        <v>0.86</v>
+      </c>
+      <c r="AR28">
+        <v>1.77</v>
+      </c>
+      <c r="AS28">
         <v>1.75</v>
       </c>
-      <c r="AQ28">
-        <v>0.43</v>
-      </c>
-      <c r="AR28">
-        <v>1.88</v>
-      </c>
-      <c r="AS28">
-        <v>1.9</v>
-      </c>
       <c r="AT28">
-        <v>3.78</v>
+        <v>3.52</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6871,25 +6871,25 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR29">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="AS29">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AT29">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7077,25 +7077,25 @@
         <v>1.45</v>
       </c>
       <c r="AN30">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ30">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR30">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AS30">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT30">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7286,22 +7286,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR31">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7489,25 +7489,25 @@
         <v>1.28</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP32">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR32">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AS32">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7695,25 +7695,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS33">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>2.76</v>
+        <v>3.36</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7901,25 +7901,25 @@
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR34">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AS34">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>2.98</v>
+        <v>3.02</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8107,25 +8107,25 @@
         <v>1.75</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR35">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AT35">
-        <v>2.37</v>
+        <v>2.91</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8313,25 +8313,25 @@
         <v>1.33</v>
       </c>
       <c r="AN36">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
+        <v>1.2</v>
+      </c>
+      <c r="AQ36">
         <v>1.75</v>
       </c>
-      <c r="AQ36">
-        <v>1.38</v>
-      </c>
       <c r="AR36">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS36">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="AT36">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8519,25 +8519,25 @@
         <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR37">
-        <v>0.83</v>
+        <v>1.06</v>
       </c>
       <c r="AS37">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="AT37">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8725,25 +8725,25 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="AS38">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT38">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -8931,25 +8931,25 @@
         <v>1.94</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="AS39">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>3.81</v>
+        <v>3.51</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9140,22 +9140,22 @@
         <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS40">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>2.24</v>
+        <v>2.65</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9343,25 +9343,25 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR41">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AS41">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AT41">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9549,25 +9549,25 @@
         <v>1.89</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR42">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="AS42">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="AT42">
-        <v>3.77</v>
+        <v>3.24</v>
       </c>
       <c r="AU42">
         <v>2</v>
@@ -9755,25 +9755,25 @@
         <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR43">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AS43">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9961,25 +9961,25 @@
         <v>1.45</v>
       </c>
       <c r="AN44">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO44">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP44">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="AR44">
-        <v>0.85</v>
+        <v>1.03</v>
       </c>
       <c r="AS44">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="AT44">
-        <v>1.77</v>
+        <v>2.37</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10167,25 +10167,25 @@
         <v>1.56</v>
       </c>
       <c r="AN45">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR45">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AT45">
-        <v>3.63</v>
+        <v>2.99</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10373,25 +10373,25 @@
         <v>3</v>
       </c>
       <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>1.14</v>
+      </c>
+      <c r="AP46">
         <v>1.75</v>
       </c>
-      <c r="AO46">
-        <v>1.33</v>
-      </c>
-      <c r="AP46">
-        <v>2.13</v>
-      </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR46">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="AS46">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
       <c r="AT46">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10579,25 +10579,25 @@
         <v>1.87</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS47">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AT47">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10785,25 +10785,25 @@
         <v>1.84</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AO48">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR48">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS48">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT48">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="AU48">
         <v>11</v>
@@ -10991,25 +10991,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR49">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="AS49">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="AT49">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11197,25 +11197,25 @@
         <v>3</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR50">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AS50">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT50">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="AU50">
         <v>9</v>
@@ -11403,25 +11403,25 @@
         <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AO51">
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR51">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AS51">
-        <v>0.98</v>
+        <v>1.28</v>
       </c>
       <c r="AT51">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11609,25 +11609,25 @@
         <v>1.29</v>
       </c>
       <c r="AN52">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AQ52">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR52">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AS52">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT52">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11815,25 +11815,25 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR53">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AT53">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12021,25 +12021,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS54">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT54">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12227,25 +12227,25 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR55">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="AS55">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>3.68</v>
+        <v>3.37</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12433,25 +12433,25 @@
         <v>2.38</v>
       </c>
       <c r="AN56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>0.33</v>
+        <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR56">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT56">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12639,25 +12639,25 @@
         <v>1.19</v>
       </c>
       <c r="AN57">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR57">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS57">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="AT57">
-        <v>2.73</v>
+        <v>3.32</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -12848,22 +12848,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ58">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="AR58">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AS58">
-        <v>0.96</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13051,25 +13051,25 @@
         <v>1.15</v>
       </c>
       <c r="AN59">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="AO59">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AS59">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="AT59">
-        <v>2.29</v>
+        <v>2.76</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13257,25 +13257,25 @@
         <v>1.44</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO60">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR60">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="AT60">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13463,25 +13463,25 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR61">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="AS61">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT61">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13669,25 +13669,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS62">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -13875,25 +13875,25 @@
         <v>1.85</v>
       </c>
       <c r="AN63">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AO63">
+        <v>1.8</v>
+      </c>
+      <c r="AP63">
         <v>1.75</v>
       </c>
-      <c r="AP63">
-        <v>2.13</v>
-      </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR63">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
       <c r="AS63">
         <v>1.62</v>
       </c>
       <c r="AT63">
-        <v>3.61</v>
+        <v>3.26</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14081,22 +14081,22 @@
         <v>2.62</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ64">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR64">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AS64">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AT64">
         <v>3.07</v>
@@ -14287,25 +14287,25 @@
         <v>1.4</v>
       </c>
       <c r="AN65">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>2.34</v>
+        <v>2.61</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14493,25 +14493,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
+        <v>0.7</v>
+      </c>
+      <c r="AO66">
+        <v>0.6</v>
+      </c>
+      <c r="AP66">
+        <v>0.86</v>
+      </c>
+      <c r="AQ66">
+        <v>0.64</v>
+      </c>
+      <c r="AR66">
+        <v>1.47</v>
+      </c>
+      <c r="AS66">
         <v>1.25</v>
       </c>
-      <c r="AO66">
-        <v>0.4</v>
-      </c>
-      <c r="AP66">
-        <v>1.29</v>
-      </c>
-      <c r="AQ66">
-        <v>0.43</v>
-      </c>
-      <c r="AR66">
-        <v>1.29</v>
-      </c>
-      <c r="AS66">
-        <v>1</v>
-      </c>
       <c r="AT66">
-        <v>2.29</v>
+        <v>2.72</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14699,22 +14699,22 @@
         <v>3.2</v>
       </c>
       <c r="AN67">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AO67">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AS67">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT67">
         <v>2.83</v>
@@ -14905,25 +14905,25 @@
         <v>1.32</v>
       </c>
       <c r="AN68">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ68">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR68">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS68">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AT68">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15111,25 +15111,25 @@
         <v>2.36</v>
       </c>
       <c r="AN69">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="AO69">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AP69">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ69">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR69">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS69">
         <v>1.39</v>
       </c>
       <c r="AT69">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15317,25 +15317,25 @@
         <v>1.23</v>
       </c>
       <c r="AN70">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO70">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ70">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AS70">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AT70">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15523,25 +15523,25 @@
         <v>1.16</v>
       </c>
       <c r="AN71">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AS71">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AT71">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15729,25 +15729,25 @@
         <v>1.4</v>
       </c>
       <c r="AN72">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AO72">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR72">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="AS72">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AT72">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -15935,22 +15935,22 @@
         <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AR73">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS73">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AT73">
         <v>2.86</v>
@@ -16141,25 +16141,25 @@
         <v>2.4</v>
       </c>
       <c r="AN74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.43</v>
+        <v>0.86</v>
       </c>
       <c r="AR74">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="AS74">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AT74">
-        <v>3.45</v>
+        <v>3.09</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16347,25 +16347,25 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO75">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="AQ75">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR75">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="AS75">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT75">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -16553,25 +16553,25 @@
         <v>1.32</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AO76">
-        <v>0.8</v>
+        <v>1.18</v>
       </c>
       <c r="AP76">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AS76">
         <v>1.18</v>
       </c>
       <c r="AT76">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="AU76">
         <v>2</v>
@@ -16759,25 +16759,25 @@
         <v>1.62</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AO77">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR77">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AS77">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AT77">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -16965,25 +16965,25 @@
         <v>1.55</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AO78">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS78">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AT78">
-        <v>2.96</v>
+        <v>3.26</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17171,25 +17171,25 @@
         <v>1.21</v>
       </c>
       <c r="AN79">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AO79">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AQ79">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR79">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AS79">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -17377,25 +17377,25 @@
         <v>2.2</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AO80">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AS80">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>3.14</v>
+        <v>3.03</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17583,25 +17583,25 @@
         <v>1.12</v>
       </c>
       <c r="AN81">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO81">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AP81">
-        <v>0.86</v>
+        <v>0.64</v>
       </c>
       <c r="AQ81">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AR81">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AS81">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17789,25 +17789,25 @@
         <v>2.3</v>
       </c>
       <c r="AN82">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO82">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ82">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR82">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS82">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT82">
-        <v>2.83</v>
+        <v>2.66</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -17995,25 +17995,25 @@
         <v>1.2</v>
       </c>
       <c r="AN83">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO83">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR83">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS83">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AT83">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18201,25 +18201,25 @@
         <v>1.65</v>
       </c>
       <c r="AN84">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO84">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AP84">
+        <v>1.73</v>
+      </c>
+      <c r="AQ84">
         <v>1.75</v>
       </c>
-      <c r="AQ84">
-        <v>1.38</v>
-      </c>
       <c r="AR84">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AS84">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="AT84">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18407,25 +18407,25 @@
         <v>3.75</v>
       </c>
       <c r="AN85">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AO85">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="AR85">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AS85">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AT85">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18613,25 +18613,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AO86">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>1.43</v>
+        <v>1.71</v>
       </c>
       <c r="AR86">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS86">
         <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -18819,25 +18819,25 @@
         <v>2.95</v>
       </c>
       <c r="AN87">
-        <v>2.4</v>
+        <v>1.79</v>
       </c>
       <c r="AO87">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP87">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR87">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AS87">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT87">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19025,25 +19025,25 @@
         <v>1.36</v>
       </c>
       <c r="AN88">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="AO88">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>0.86</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR88">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AS88">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AT88">
-        <v>2.76</v>
+        <v>3.14</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19231,25 +19231,25 @@
         <v>2.6</v>
       </c>
       <c r="AN89">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AO89">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.2</v>
       </c>
       <c r="AQ89">
-        <v>0.43</v>
+        <v>0.64</v>
       </c>
       <c r="AR89">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AS89">
-        <v>0.98</v>
+        <v>1.24</v>
       </c>
       <c r="AT89">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="AU89">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -1315,10 +1315,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1521,10 +1521,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1727,10 +1727,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1933,10 +1933,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2139,10 +2139,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2345,10 +2345,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2551,19 +2551,19 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="AR8">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>0.73</v>
       </c>
       <c r="AT8">
-        <v>2.13</v>
+        <v>0.73</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2757,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2957,25 +2957,25 @@
         <v>1.53</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3169,19 +3169,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AR11">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.24</v>
       </c>
       <c r="AT11">
-        <v>2.71</v>
+        <v>1.24</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3372,22 +3372,22 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
       </c>
       <c r="AS12">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.15</v>
+        <v>2.37</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3578,22 +3578,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
       </c>
       <c r="AS13">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.5</v>
+        <v>1.18</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3781,25 +3781,25 @@
         <v>1.55</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AR14">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AS14">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>3.56</v>
+        <v>1.95</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -3987,25 +3987,25 @@
         <v>1.48</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AS15">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="AT15">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4193,25 +4193,25 @@
         <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
-        <v>2.02</v>
+        <v>2.63</v>
       </c>
       <c r="AS16">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4399,25 +4399,25 @@
         <v>1.4</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4605,25 +4605,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="AS18">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="AT18">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="AU18">
         <v>6</v>
@@ -4817,19 +4817,19 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AQ19">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AR19">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <v>1.46</v>
       </c>
       <c r="AT19">
-        <v>2.9</v>
+        <v>1.46</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5017,25 +5017,25 @@
         <v>1.32</v>
       </c>
       <c r="AN20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="AS20">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="AT20">
-        <v>3.67</v>
+        <v>3.11</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5223,25 +5223,25 @@
         <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS21">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5429,25 +5429,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO22">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR22">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS22">
-        <v>1.9</v>
+        <v>1.41</v>
       </c>
       <c r="AT22">
-        <v>3.23</v>
+        <v>2.67</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5635,25 +5635,25 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AQ23">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
-        <v>1.6</v>
+        <v>2.91</v>
       </c>
       <c r="AS23">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AT23">
-        <v>3.24</v>
+        <v>4.71</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5841,25 +5841,25 @@
         <v>1.32</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR24">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>0.62</v>
       </c>
       <c r="AT24">
-        <v>3.33</v>
+        <v>0.62</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6047,25 +6047,25 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="AS25">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="AT25">
-        <v>2.59</v>
+        <v>2.19</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6253,25 +6253,25 @@
         <v>1.3</v>
       </c>
       <c r="AN26">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
       </c>
       <c r="AS26">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="AT26">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6459,25 +6459,25 @@
         <v>2.15</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="AR27">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AS27">
-        <v>1.42</v>
+        <v>0.95</v>
       </c>
       <c r="AT27">
-        <v>3.06</v>
+        <v>2.79</v>
       </c>
       <c r="AU27">
         <v>10</v>
@@ -6665,25 +6665,25 @@
         <v>2.06</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AR28">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AS28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AT28">
-        <v>3.52</v>
+        <v>3.78</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6871,25 +6871,25 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="AS29">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AT29">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7077,25 +7077,25 @@
         <v>1.45</v>
       </c>
       <c r="AN30">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AT30">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7286,22 +7286,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="AS31">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT31">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7489,25 +7489,25 @@
         <v>1.28</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR32">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AS32">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AT32">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7695,25 +7695,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO33">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="AT33">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7901,25 +7901,25 @@
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
         <v>2</v>
       </c>
       <c r="AP34">
+        <v>2</v>
+      </c>
+      <c r="AQ34">
+        <v>1.57</v>
+      </c>
+      <c r="AR34">
+        <v>1.27</v>
+      </c>
+      <c r="AS34">
         <v>1.71</v>
       </c>
-      <c r="AQ34">
-        <v>1.87</v>
-      </c>
-      <c r="AR34">
-        <v>1.43</v>
-      </c>
-      <c r="AS34">
-        <v>1.59</v>
-      </c>
       <c r="AT34">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8107,25 +8107,25 @@
         <v>1.75</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AS35">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
-        <v>2.91</v>
+        <v>2.37</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8313,25 +8313,25 @@
         <v>1.33</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS36">
-        <v>1.93</v>
+        <v>1.46</v>
       </c>
       <c r="AT36">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8519,25 +8519,25 @@
         <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AQ37">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="AS37">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="AT37">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8725,25 +8725,25 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
-        <v>1.31</v>
+        <v>1.9</v>
       </c>
       <c r="AS38">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>3.01</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -8931,25 +8931,25 @@
         <v>1.94</v>
       </c>
       <c r="AN39">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="AT39">
-        <v>3.51</v>
+        <v>3.81</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9140,22 +9140,22 @@
         <v>0.5</v>
       </c>
       <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1.29</v>
+      </c>
+      <c r="AQ40">
         <v>1.17</v>
       </c>
-      <c r="AP40">
-        <v>0.86</v>
-      </c>
-      <c r="AQ40">
-        <v>1.14</v>
-      </c>
       <c r="AR40">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AS40">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="AT40">
-        <v>2.65</v>
+        <v>2.24</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9343,25 +9343,25 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ41">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR41">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AS41">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AT41">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9549,25 +9549,25 @@
         <v>1.89</v>
       </c>
       <c r="AN42">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR42">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="AS42">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AT42">
-        <v>3.24</v>
+        <v>3.77</v>
       </c>
       <c r="AU42">
         <v>2</v>
@@ -9755,25 +9755,25 @@
         <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR43">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="AS43">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="AT43">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9961,25 +9961,25 @@
         <v>1.45</v>
       </c>
       <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
         <v>0.33</v>
       </c>
-      <c r="AO44">
+      <c r="AP44">
         <v>0.83</v>
       </c>
-      <c r="AP44">
-        <v>0.86</v>
-      </c>
       <c r="AQ44">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="AS44">
-        <v>1.34</v>
+        <v>0.92</v>
       </c>
       <c r="AT44">
-        <v>2.37</v>
+        <v>1.77</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10167,25 +10167,25 @@
         <v>1.56</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO45">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="AS45">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AT45">
-        <v>2.99</v>
+        <v>3.63</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10373,25 +10373,25 @@
         <v>3</v>
       </c>
       <c r="AN46">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO46">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
-        <v>1.81</v>
+        <v>2.34</v>
       </c>
       <c r="AS46">
-        <v>1.31</v>
+        <v>0.95</v>
       </c>
       <c r="AT46">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10579,25 +10579,25 @@
         <v>1.87</v>
       </c>
       <c r="AN47">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS47">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AT47">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10785,25 +10785,25 @@
         <v>1.84</v>
       </c>
       <c r="AN48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AR48">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AS48">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT48">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="AU48">
         <v>11</v>
@@ -10991,25 +10991,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO49">
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AR49">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="AS49">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="AT49">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11197,25 +11197,25 @@
         <v>3</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AS50">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT50">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="AU50">
         <v>9</v>
@@ -11403,25 +11403,25 @@
         <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AO51">
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AS51">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="AT51">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11609,25 +11609,25 @@
         <v>1.29</v>
       </c>
       <c r="AN52">
+        <v>1.33</v>
+      </c>
+      <c r="AO52">
+        <v>1.33</v>
+      </c>
+      <c r="AP52">
         <v>0.86</v>
       </c>
-      <c r="AO52">
-        <v>1.88</v>
-      </c>
-      <c r="AP52">
-        <v>0.64</v>
-      </c>
       <c r="AQ52">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR52">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT52">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11815,25 +11815,25 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO53">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="AS53">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AT53">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12021,25 +12021,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="AO54">
+        <v>1.33</v>
+      </c>
+      <c r="AP54">
         <v>1.75</v>
       </c>
-      <c r="AP54">
-        <v>1.2</v>
-      </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS54">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT54">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12227,25 +12227,25 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AO55">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="AS55">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>3.37</v>
+        <v>3.68</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12433,25 +12433,25 @@
         <v>2.38</v>
       </c>
       <c r="AN56">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO56">
-        <v>1.13</v>
+        <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS56">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12639,25 +12639,25 @@
         <v>1.19</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO57">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS57">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="AT57">
-        <v>3.32</v>
+        <v>2.73</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -12848,22 +12848,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="AR58">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>0.96</v>
       </c>
       <c r="AT58">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13051,25 +13051,25 @@
         <v>1.15</v>
       </c>
       <c r="AN59">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AO59">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AS59">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="AT59">
-        <v>2.76</v>
+        <v>2.29</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13257,25 +13257,25 @@
         <v>1.44</v>
       </c>
       <c r="AN60">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AR60">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AS60">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13463,25 +13463,25 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO61">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR61">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="AS61">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT61">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13669,25 +13669,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -13875,25 +13875,25 @@
         <v>1.85</v>
       </c>
       <c r="AN63">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="AS63">
         <v>1.62</v>
       </c>
       <c r="AT63">
-        <v>3.26</v>
+        <v>3.61</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14081,22 +14081,22 @@
         <v>2.62</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AR64">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AS64">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AT64">
         <v>3.07</v>
@@ -14287,25 +14287,25 @@
         <v>1.4</v>
       </c>
       <c r="AN65">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AQ65">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
-        <v>2.61</v>
+        <v>2.34</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14493,25 +14493,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.72</v>
+        <v>2.29</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14699,22 +14699,22 @@
         <v>3.2</v>
       </c>
       <c r="AN67">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AO67">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP67">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS67">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT67">
         <v>2.83</v>
@@ -14905,25 +14905,25 @@
         <v>1.32</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO68">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AR68">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AS68">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AT68">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15111,25 +15111,25 @@
         <v>2.36</v>
       </c>
       <c r="AN69">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="AO69">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ69">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR69">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AS69">
         <v>1.39</v>
       </c>
       <c r="AT69">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AU69">
         <v>4</v>
@@ -15317,25 +15317,25 @@
         <v>1.23</v>
       </c>
       <c r="AN70">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO70">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="AP70">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ70">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR70">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AS70">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AT70">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AU70">
         <v>3</v>
@@ -15523,25 +15523,25 @@
         <v>1.16</v>
       </c>
       <c r="AN71">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AO71">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AS71">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="AT71">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15729,25 +15729,25 @@
         <v>1.4</v>
       </c>
       <c r="AN72">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AQ72">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
+        <v>1.51</v>
+      </c>
+      <c r="AS72">
         <v>1.22</v>
       </c>
-      <c r="AS72">
-        <v>1.43</v>
-      </c>
       <c r="AT72">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -15935,22 +15935,22 @@
         <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AO73">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AQ73">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AR73">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS73">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AT73">
         <v>2.86</v>
@@ -16141,25 +16141,25 @@
         <v>2.4</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO74">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AR74">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="AS74">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AT74">
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16347,25 +16347,25 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
+        <v>1.67</v>
+      </c>
+      <c r="AO75">
+        <v>1.4</v>
+      </c>
+      <c r="AP75">
         <v>1.75</v>
       </c>
-      <c r="AO75">
-        <v>1.75</v>
-      </c>
-      <c r="AP75">
-        <v>1.73</v>
-      </c>
       <c r="AQ75">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR75">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AS75">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT75">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -16553,25 +16553,25 @@
         <v>1.32</v>
       </c>
       <c r="AN76">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AS76">
         <v>1.18</v>
       </c>
       <c r="AT76">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="AU76">
         <v>2</v>
@@ -16759,25 +16759,25 @@
         <v>1.62</v>
       </c>
       <c r="AN77">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AS77">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT77">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -16965,25 +16965,25 @@
         <v>1.55</v>
       </c>
       <c r="AN78">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS78">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AT78">
-        <v>3.26</v>
+        <v>2.96</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17171,25 +17171,25 @@
         <v>1.21</v>
       </c>
       <c r="AN79">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO79">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AQ79">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR79">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT79">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -17377,25 +17377,25 @@
         <v>2.2</v>
       </c>
       <c r="AN80">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AO80">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AP80">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT80">
-        <v>3.03</v>
+        <v>3.14</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17583,25 +17583,25 @@
         <v>1.12</v>
       </c>
       <c r="AN81">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO81">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AQ81">
-        <v>1.73</v>
+        <v>1.71</v>
       </c>
       <c r="AR81">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AS81">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AT81">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17789,25 +17789,25 @@
         <v>2.3</v>
       </c>
       <c r="AN82">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO82">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AP82">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR82">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS82">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT82">
-        <v>2.66</v>
+        <v>2.83</v>
       </c>
       <c r="AU82">
         <v>6</v>
@@ -17995,25 +17995,25 @@
         <v>1.2</v>
       </c>
       <c r="AN83">
+        <v>1.5</v>
+      </c>
+      <c r="AO83">
         <v>1.33</v>
       </c>
-      <c r="AO83">
-        <v>1.79</v>
-      </c>
       <c r="AP83">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ83">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR83">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AS83">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="AT83">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="AU83">
         <v>4</v>
@@ -18201,25 +18201,25 @@
         <v>1.65</v>
       </c>
       <c r="AN84">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO84">
+        <v>1.57</v>
+      </c>
+      <c r="AP84">
+        <v>1.75</v>
+      </c>
+      <c r="AQ84">
+        <v>1.38</v>
+      </c>
+      <c r="AR84">
         <v>1.87</v>
       </c>
-      <c r="AP84">
-        <v>1.73</v>
-      </c>
-      <c r="AQ84">
-        <v>1.75</v>
-      </c>
-      <c r="AR84">
-        <v>1.76</v>
-      </c>
       <c r="AS84">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="AT84">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18407,25 +18407,25 @@
         <v>3.75</v>
       </c>
       <c r="AN85">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AO85">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>0.86</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AS85">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AT85">
-        <v>2.79</v>
+        <v>3.09</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18613,25 +18613,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.71</v>
+        <v>1.43</v>
       </c>
       <c r="AR86">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AS86">
         <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -18819,25 +18819,25 @@
         <v>2.95</v>
       </c>
       <c r="AN87">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="AO87">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ87">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AS87">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AT87">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19025,25 +19025,25 @@
         <v>1.36</v>
       </c>
       <c r="AN88">
-        <v>0.92</v>
+        <v>1.5</v>
       </c>
       <c r="AO88">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>0.86</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR88">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AS88">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AT88">
-        <v>3.14</v>
+        <v>2.76</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19231,25 +19231,25 @@
         <v>2.6</v>
       </c>
       <c r="AN89">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AO89">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>0.64</v>
+        <v>0.43</v>
       </c>
       <c r="AR89">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AS89">
-        <v>1.24</v>
+        <v>0.98</v>
       </c>
       <c r="AT89">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="AU89">
         <v>9</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -439,12 +439,12 @@
     <t>['3', '82']</t>
   </si>
   <si>
+    <t>['28']</t>
+  </si>
+  <si>
     <t>['90+2']</t>
   </si>
   <si>
-    <t>['28']</t>
-  </si>
-  <si>
     <t>['4', '13', '77']</t>
   </si>
   <si>
@@ -604,10 +604,10 @@
     <t>['14', '31']</t>
   </si>
   <si>
+    <t>['5', '64']</t>
+  </si>
+  <si>
     <t>['35', '68']</t>
-  </si>
-  <si>
-    <t>['5', '64']</t>
   </si>
   <si>
     <t>['22', '68', '87']</t>
@@ -11743,7 +11743,7 @@
         <v>122</v>
       </c>
       <c r="P53" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -14997,7 +14997,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7325397</v>
+        <v>7325395</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15012,172 +15012,172 @@
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H69" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I69">
         <v>0</v>
       </c>
       <c r="J69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L69">
         <v>0</v>
       </c>
       <c r="M69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O69" t="s">
         <v>83</v>
       </c>
       <c r="P69" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="Q69">
-        <v>2.15</v>
+        <v>4.33</v>
       </c>
       <c r="R69">
-        <v>2.27</v>
+        <v>2.2</v>
       </c>
       <c r="S69">
-        <v>5.56</v>
+        <v>2.4</v>
       </c>
       <c r="T69">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="U69">
+        <v>2.8</v>
+      </c>
+      <c r="V69">
+        <v>2.7</v>
+      </c>
+      <c r="W69">
+        <v>1.4</v>
+      </c>
+      <c r="X69">
+        <v>6.5</v>
+      </c>
+      <c r="Y69">
+        <v>1.08</v>
+      </c>
+      <c r="Z69">
+        <v>3.7</v>
+      </c>
+      <c r="AA69">
+        <v>3.45</v>
+      </c>
+      <c r="AB69">
+        <v>1.89</v>
+      </c>
+      <c r="AC69">
+        <v>1.03</v>
+      </c>
+      <c r="AD69">
+        <v>9</v>
+      </c>
+      <c r="AE69">
+        <v>1.29</v>
+      </c>
+      <c r="AF69">
+        <v>3.3</v>
+      </c>
+      <c r="AG69">
+        <v>1.88</v>
+      </c>
+      <c r="AH69">
+        <v>1.82</v>
+      </c>
+      <c r="AI69">
+        <v>1.8</v>
+      </c>
+      <c r="AJ69">
+        <v>1.91</v>
+      </c>
+      <c r="AK69">
+        <v>1.88</v>
+      </c>
+      <c r="AL69">
+        <v>1.25</v>
+      </c>
+      <c r="AM69">
+        <v>1.23</v>
+      </c>
+      <c r="AN69">
+        <v>1.6</v>
+      </c>
+      <c r="AO69">
+        <v>2.4</v>
+      </c>
+      <c r="AP69">
+        <v>1.13</v>
+      </c>
+      <c r="AQ69">
+        <v>1.86</v>
+      </c>
+      <c r="AR69">
+        <v>1.19</v>
+      </c>
+      <c r="AS69">
+        <v>1.35</v>
+      </c>
+      <c r="AT69">
+        <v>2.54</v>
+      </c>
+      <c r="AU69">
         <v>3</v>
-      </c>
-      <c r="V69">
-        <v>2.67</v>
-      </c>
-      <c r="W69">
-        <v>1.44</v>
-      </c>
-      <c r="X69">
-        <v>6.6</v>
-      </c>
-      <c r="Y69">
-        <v>1.09</v>
-      </c>
-      <c r="Z69">
-        <v>1.56</v>
-      </c>
-      <c r="AA69">
-        <v>4.01</v>
-      </c>
-      <c r="AB69">
-        <v>5.39</v>
-      </c>
-      <c r="AC69">
-        <v>1.01</v>
-      </c>
-      <c r="AD69">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="AE69">
-        <v>1.24</v>
-      </c>
-      <c r="AF69">
-        <v>3.5</v>
-      </c>
-      <c r="AG69">
-        <v>1.83</v>
-      </c>
-      <c r="AH69">
-        <v>1.94</v>
-      </c>
-      <c r="AI69">
-        <v>1.87</v>
-      </c>
-      <c r="AJ69">
-        <v>1.87</v>
-      </c>
-      <c r="AK69">
-        <v>1.15</v>
-      </c>
-      <c r="AL69">
-        <v>1.24</v>
-      </c>
-      <c r="AM69">
-        <v>2.36</v>
-      </c>
-      <c r="AN69">
-        <v>3</v>
-      </c>
-      <c r="AO69">
-        <v>1</v>
-      </c>
-      <c r="AP69">
-        <v>2.5</v>
-      </c>
-      <c r="AQ69">
-        <v>1.43</v>
-      </c>
-      <c r="AR69">
-        <v>1.62</v>
-      </c>
-      <c r="AS69">
-        <v>1.39</v>
-      </c>
-      <c r="AT69">
-        <v>3.01</v>
-      </c>
-      <c r="AU69">
-        <v>4</v>
       </c>
       <c r="AV69">
         <v>4</v>
       </c>
       <c r="AW69">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="AX69">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AY69">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="AZ69">
+        <v>15</v>
+      </c>
+      <c r="BA69">
         <v>7</v>
       </c>
-      <c r="BA69">
+      <c r="BB69">
+        <v>4</v>
+      </c>
+      <c r="BC69">
         <v>11</v>
       </c>
-      <c r="BB69">
-        <v>3</v>
-      </c>
-      <c r="BC69">
-        <v>14</v>
-      </c>
       <c r="BD69">
-        <v>1.26</v>
+        <v>2.78</v>
       </c>
       <c r="BE69">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF69">
-        <v>4.64</v>
+        <v>1.59</v>
       </c>
       <c r="BG69">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="BH69">
-        <v>3.95</v>
+        <v>4.25</v>
       </c>
       <c r="BI69">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="BJ69">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="BK69">
         <v>1.73</v>
@@ -15186,16 +15186,16 @@
         <v>2</v>
       </c>
       <c r="BM69">
-        <v>2.23</v>
+        <v>2.12</v>
       </c>
       <c r="BN69">
-        <v>1.6</v>
+        <v>1.66</v>
       </c>
       <c r="BO69">
-        <v>3.05</v>
+        <v>2.85</v>
       </c>
       <c r="BP69">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15203,7 +15203,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7325395</v>
+        <v>7325397</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15218,172 +15218,172 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="H70" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I70">
         <v>0</v>
       </c>
       <c r="J70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L70">
         <v>0</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O70" t="s">
         <v>83</v>
       </c>
       <c r="P70" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="Q70">
-        <v>4.33</v>
+        <v>2.15</v>
       </c>
       <c r="R70">
-        <v>2.2</v>
+        <v>2.27</v>
       </c>
       <c r="S70">
-        <v>2.4</v>
+        <v>5.56</v>
       </c>
       <c r="T70">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="U70">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="V70">
-        <v>2.7</v>
+        <v>2.67</v>
       </c>
       <c r="W70">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X70">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Y70">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z70">
-        <v>3.7</v>
+        <v>1.56</v>
       </c>
       <c r="AA70">
-        <v>3.45</v>
+        <v>4.01</v>
       </c>
       <c r="AB70">
-        <v>1.89</v>
+        <v>5.39</v>
       </c>
       <c r="AC70">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD70">
-        <v>9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE70">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="AF70">
-        <v>3.3</v>
+        <v>3.5</v>
       </c>
       <c r="AG70">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AH70">
-        <v>1.82</v>
+        <v>1.94</v>
       </c>
       <c r="AI70">
-        <v>1.8</v>
+        <v>1.87</v>
       </c>
       <c r="AJ70">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="AK70">
-        <v>1.88</v>
+        <v>1.15</v>
       </c>
       <c r="AL70">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AM70">
-        <v>1.23</v>
+        <v>2.36</v>
       </c>
       <c r="AN70">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO70">
-        <v>2.4</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.13</v>
+        <v>2.5</v>
       </c>
       <c r="AQ70">
-        <v>1.86</v>
+        <v>1.43</v>
       </c>
       <c r="AR70">
-        <v>1.19</v>
+        <v>1.62</v>
       </c>
       <c r="AS70">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>2.54</v>
+        <v>3.01</v>
       </c>
       <c r="AU70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV70">
         <v>4</v>
       </c>
       <c r="AW70">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="AX70">
+        <v>3</v>
+      </c>
+      <c r="AY70">
+        <v>26</v>
+      </c>
+      <c r="AZ70">
+        <v>7</v>
+      </c>
+      <c r="BA70">
         <v>11</v>
       </c>
-      <c r="AY70">
-        <v>8</v>
-      </c>
-      <c r="AZ70">
-        <v>15</v>
-      </c>
-      <c r="BA70">
-        <v>7</v>
-      </c>
       <c r="BB70">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BC70">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD70">
-        <v>2.78</v>
+        <v>1.26</v>
       </c>
       <c r="BE70">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="BF70">
-        <v>1.59</v>
+        <v>4.64</v>
       </c>
       <c r="BG70">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="BH70">
-        <v>4.25</v>
+        <v>3.95</v>
       </c>
       <c r="BI70">
-        <v>1.38</v>
+        <v>1.42</v>
       </c>
       <c r="BJ70">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="BK70">
         <v>1.73</v>
@@ -15392,16 +15392,16 @@
         <v>2</v>
       </c>
       <c r="BM70">
-        <v>2.12</v>
+        <v>2.23</v>
       </c>
       <c r="BN70">
-        <v>1.66</v>
+        <v>1.6</v>
       </c>
       <c r="BO70">
-        <v>2.85</v>
+        <v>3.05</v>
       </c>
       <c r="BP70">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -16069,7 +16069,7 @@
         <v>133</v>
       </c>
       <c r="P74" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="Q74">
         <v>2.08</v>
@@ -17675,7 +17675,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7325411</v>
+        <v>7325412</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17690,19 +17690,19 @@
         <v>13</v>
       </c>
       <c r="G82" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="H82" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J82">
         <v>1</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L82">
         <v>1</v>
@@ -17720,160 +17720,160 @@
         <v>196</v>
       </c>
       <c r="Q82">
+        <v>5.5</v>
+      </c>
+      <c r="R82">
+        <v>2.2</v>
+      </c>
+      <c r="S82">
         <v>2.25</v>
       </c>
-      <c r="R82">
-        <v>2.3</v>
-      </c>
-      <c r="S82">
-        <v>5</v>
-      </c>
       <c r="T82">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U82">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="V82">
-        <v>2.65</v>
+        <v>2.75</v>
       </c>
       <c r="W82">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X82">
-        <v>6.5</v>
+        <v>8</v>
       </c>
       <c r="Y82">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z82">
-        <v>1.7</v>
+        <v>5.75</v>
       </c>
       <c r="AA82">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="AB82">
-        <v>4.25</v>
+        <v>1.55</v>
       </c>
       <c r="AC82">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD82">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AE82">
         <v>1.28</v>
       </c>
       <c r="AF82">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="AG82">
-        <v>1.79</v>
+        <v>1.9</v>
       </c>
       <c r="AH82">
-        <v>2.02</v>
+        <v>1.91</v>
       </c>
       <c r="AI82">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AJ82">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="AK82">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="AL82">
         <v>1.28</v>
       </c>
       <c r="AM82">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="AN82">
+        <v>1.5</v>
+      </c>
+      <c r="AO82">
+        <v>1.33</v>
+      </c>
+      <c r="AP82">
+        <v>1.13</v>
+      </c>
+      <c r="AQ82">
+        <v>1.38</v>
+      </c>
+      <c r="AR82">
         <v>1.17</v>
       </c>
-      <c r="AO82">
-        <v>0.17</v>
-      </c>
-      <c r="AP82">
-        <v>1</v>
-      </c>
-      <c r="AQ82">
-        <v>0.88</v>
-      </c>
-      <c r="AR82">
-        <v>1.64</v>
-      </c>
       <c r="AS82">
-        <v>1.19</v>
+        <v>1.39</v>
       </c>
       <c r="AT82">
-        <v>2.83</v>
+        <v>2.56</v>
       </c>
       <c r="AU82">
+        <v>4</v>
+      </c>
+      <c r="AV82">
+        <v>3</v>
+      </c>
+      <c r="AW82">
         <v>6</v>
       </c>
-      <c r="AV82">
+      <c r="AX82">
+        <v>8</v>
+      </c>
+      <c r="AY82">
+        <v>10</v>
+      </c>
+      <c r="AZ82">
+        <v>11</v>
+      </c>
+      <c r="BA82">
+        <v>5</v>
+      </c>
+      <c r="BB82">
         <v>6</v>
       </c>
-      <c r="AW82">
-        <v>14</v>
-      </c>
-      <c r="AX82">
-        <v>6</v>
-      </c>
-      <c r="AY82">
-        <v>20</v>
-      </c>
-      <c r="AZ82">
-        <v>12</v>
-      </c>
-      <c r="BA82">
-        <v>8</v>
-      </c>
-      <c r="BB82">
-        <v>4</v>
-      </c>
       <c r="BC82">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD82">
-        <v>1.53</v>
+        <v>2.9</v>
       </c>
       <c r="BE82">
         <v>7.5</v>
       </c>
       <c r="BF82">
+        <v>1.58</v>
+      </c>
+      <c r="BG82">
+        <v>1.18</v>
+      </c>
+      <c r="BH82">
+        <v>4.6</v>
+      </c>
+      <c r="BI82">
+        <v>1.34</v>
+      </c>
+      <c r="BJ82">
         <v>3.1</v>
       </c>
-      <c r="BG82">
-        <v>1.2</v>
-      </c>
-      <c r="BH82">
-        <v>4.25</v>
-      </c>
-      <c r="BI82">
-        <v>1.38</v>
-      </c>
-      <c r="BJ82">
-        <v>2.9</v>
-      </c>
       <c r="BK82">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="BL82">
-        <v>2.05</v>
+        <v>2.23</v>
       </c>
       <c r="BM82">
-        <v>2.12</v>
+        <v>2</v>
       </c>
       <c r="BN82">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="BO82">
-        <v>2.85</v>
+        <v>2.65</v>
       </c>
       <c r="BP82">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -17881,7 +17881,7 @@
         <v>82</v>
       </c>
       <c r="B83">
-        <v>7325412</v>
+        <v>7325411</v>
       </c>
       <c r="C83" t="s">
         <v>68</v>
@@ -17896,19 +17896,19 @@
         <v>13</v>
       </c>
       <c r="G83" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H83" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="I83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J83">
         <v>1</v>
       </c>
       <c r="K83">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L83">
         <v>1</v>
@@ -17926,160 +17926,160 @@
         <v>197</v>
       </c>
       <c r="Q83">
-        <v>5.5</v>
+        <v>2.25</v>
       </c>
       <c r="R83">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S83">
-        <v>2.25</v>
+        <v>5</v>
       </c>
       <c r="T83">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U83">
-        <v>2.75</v>
+        <v>3.2</v>
       </c>
       <c r="V83">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="W83">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X83">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Y83">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="Z83">
-        <v>5.75</v>
+        <v>1.7</v>
       </c>
       <c r="AA83">
-        <v>3.95</v>
+        <v>4</v>
       </c>
       <c r="AB83">
-        <v>1.55</v>
+        <v>4.25</v>
       </c>
       <c r="AC83">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD83">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AE83">
         <v>1.28</v>
       </c>
       <c r="AF83">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="AG83">
-        <v>1.9</v>
+        <v>1.79</v>
       </c>
       <c r="AH83">
-        <v>1.91</v>
+        <v>2.02</v>
       </c>
       <c r="AI83">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AJ83">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="AK83">
-        <v>2.3</v>
+        <v>1.2</v>
       </c>
       <c r="AL83">
         <v>1.28</v>
       </c>
       <c r="AM83">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="AN83">
-        <v>1.5</v>
+        <v>1.17</v>
       </c>
       <c r="AO83">
-        <v>1.33</v>
+        <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.38</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
-        <v>1.17</v>
+        <v>1.64</v>
       </c>
       <c r="AS83">
-        <v>1.39</v>
+        <v>1.19</v>
       </c>
       <c r="AT83">
-        <v>2.56</v>
+        <v>2.83</v>
       </c>
       <c r="AU83">
+        <v>6</v>
+      </c>
+      <c r="AV83">
+        <v>6</v>
+      </c>
+      <c r="AW83">
+        <v>14</v>
+      </c>
+      <c r="AX83">
+        <v>6</v>
+      </c>
+      <c r="AY83">
+        <v>20</v>
+      </c>
+      <c r="AZ83">
+        <v>12</v>
+      </c>
+      <c r="BA83">
+        <v>8</v>
+      </c>
+      <c r="BB83">
         <v>4</v>
       </c>
-      <c r="AV83">
-        <v>3</v>
-      </c>
-      <c r="AW83">
-        <v>6</v>
-      </c>
-      <c r="AX83">
-        <v>8</v>
-      </c>
-      <c r="AY83">
-        <v>10</v>
-      </c>
-      <c r="AZ83">
-        <v>11</v>
-      </c>
-      <c r="BA83">
-        <v>5</v>
-      </c>
-      <c r="BB83">
-        <v>6</v>
-      </c>
       <c r="BC83">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BD83">
-        <v>2.9</v>
+        <v>1.53</v>
       </c>
       <c r="BE83">
         <v>7.5</v>
       </c>
       <c r="BF83">
-        <v>1.58</v>
+        <v>3.1</v>
       </c>
       <c r="BG83">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH83">
-        <v>4.6</v>
+        <v>4.25</v>
       </c>
       <c r="BI83">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="BJ83">
-        <v>3.1</v>
+        <v>2.9</v>
       </c>
       <c r="BK83">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="BL83">
-        <v>2.23</v>
+        <v>2.05</v>
       </c>
       <c r="BM83">
-        <v>2</v>
+        <v>2.12</v>
       </c>
       <c r="BN83">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="BO83">
-        <v>2.65</v>
+        <v>2.85</v>
       </c>
       <c r="BP83">
-        <v>1.44</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="84" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="203">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -617,6 +617,12 @@
   </si>
   <si>
     <t>['41', '45+3']</t>
+  </si>
+  <si>
+    <t>['25', '34', '54', '78', '81', '86', '90+1']</t>
+  </si>
+  <si>
+    <t>['74', '79']</t>
   </si>
 </sst>
 </file>
@@ -978,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP89"/>
+  <dimension ref="A1:BP91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1318,7 +1324,7 @@
         <v>1</v>
       </c>
       <c r="AQ2">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1730,7 +1736,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ4">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -3172,7 +3178,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4405,7 +4411,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17">
         <v>1.43</v>
@@ -4817,10 +4823,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ19">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5641,7 +5647,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
         <v>1.44</v>
@@ -6674,7 +6680,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -7498,7 +7504,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ32">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -8525,7 +8531,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
         <v>1.71</v>
@@ -8731,7 +8737,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.17</v>
@@ -9352,7 +9358,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ41">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9967,7 +9973,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44">
         <v>0.43</v>
@@ -10588,7 +10594,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10794,7 +10800,7 @@
         <v>2</v>
       </c>
       <c r="AQ48">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11615,7 +11621,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52">
         <v>1.57</v>
@@ -11824,7 +11830,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -13057,7 +13063,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ59">
         <v>1.86</v>
@@ -13469,10 +13475,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -14090,7 +14096,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14293,7 +14299,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ65">
         <v>0.75</v>
@@ -15735,7 +15741,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72">
         <v>0.75</v>
@@ -15944,7 +15950,7 @@
         <v>2</v>
       </c>
       <c r="AQ73">
-        <v>0.57</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
         <v>1.38</v>
@@ -16150,7 +16156,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
         <v>1.86</v>
@@ -16559,7 +16565,7 @@
         <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ76">
         <v>1.17</v>
@@ -17589,7 +17595,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ81">
         <v>1.71</v>
@@ -19316,6 +19322,418 @@
       </c>
       <c r="BP89">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="90" spans="1:68">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90">
+        <v>7325420</v>
+      </c>
+      <c r="C90" t="s">
+        <v>68</v>
+      </c>
+      <c r="D90" t="s">
+        <v>69</v>
+      </c>
+      <c r="E90" s="2">
+        <v>45487.45833333334</v>
+      </c>
+      <c r="F90">
+        <v>15</v>
+      </c>
+      <c r="G90" t="s">
+        <v>80</v>
+      </c>
+      <c r="H90" t="s">
+        <v>78</v>
+      </c>
+      <c r="I90">
+        <v>0</v>
+      </c>
+      <c r="J90">
+        <v>2</v>
+      </c>
+      <c r="K90">
+        <v>2</v>
+      </c>
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <v>7</v>
+      </c>
+      <c r="N90">
+        <v>7</v>
+      </c>
+      <c r="O90" t="s">
+        <v>83</v>
+      </c>
+      <c r="P90" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q90">
+        <v>5.5</v>
+      </c>
+      <c r="R90">
+        <v>2.38</v>
+      </c>
+      <c r="S90">
+        <v>2.05</v>
+      </c>
+      <c r="T90">
+        <v>1.33</v>
+      </c>
+      <c r="U90">
+        <v>3.25</v>
+      </c>
+      <c r="V90">
+        <v>2.5</v>
+      </c>
+      <c r="W90">
+        <v>1.5</v>
+      </c>
+      <c r="X90">
+        <v>6.5</v>
+      </c>
+      <c r="Y90">
+        <v>1.11</v>
+      </c>
+      <c r="Z90">
+        <v>5.2</v>
+      </c>
+      <c r="AA90">
+        <v>3.92</v>
+      </c>
+      <c r="AB90">
+        <v>1.48</v>
+      </c>
+      <c r="AC90">
+        <v>1.02</v>
+      </c>
+      <c r="AD90">
+        <v>15</v>
+      </c>
+      <c r="AE90">
+        <v>1.18</v>
+      </c>
+      <c r="AF90">
+        <v>4.15</v>
+      </c>
+      <c r="AG90">
+        <v>1.62</v>
+      </c>
+      <c r="AH90">
+        <v>2.15</v>
+      </c>
+      <c r="AI90">
+        <v>1.8</v>
+      </c>
+      <c r="AJ90">
+        <v>1.95</v>
+      </c>
+      <c r="AK90">
+        <v>2.48</v>
+      </c>
+      <c r="AL90">
+        <v>1.22</v>
+      </c>
+      <c r="AM90">
+        <v>1.14</v>
+      </c>
+      <c r="AN90">
+        <v>0.83</v>
+      </c>
+      <c r="AO90">
+        <v>0.57</v>
+      </c>
+      <c r="AP90">
+        <v>0.71</v>
+      </c>
+      <c r="AQ90">
+        <v>0.88</v>
+      </c>
+      <c r="AR90">
+        <v>1.13</v>
+      </c>
+      <c r="AS90">
+        <v>1.66</v>
+      </c>
+      <c r="AT90">
+        <v>2.79</v>
+      </c>
+      <c r="AU90">
+        <v>0</v>
+      </c>
+      <c r="AV90">
+        <v>8</v>
+      </c>
+      <c r="AW90">
+        <v>7</v>
+      </c>
+      <c r="AX90">
+        <v>2</v>
+      </c>
+      <c r="AY90">
+        <v>7</v>
+      </c>
+      <c r="AZ90">
+        <v>10</v>
+      </c>
+      <c r="BA90">
+        <v>3</v>
+      </c>
+      <c r="BB90">
+        <v>2</v>
+      </c>
+      <c r="BC90">
+        <v>5</v>
+      </c>
+      <c r="BD90">
+        <v>3.25</v>
+      </c>
+      <c r="BE90">
+        <v>9.5</v>
+      </c>
+      <c r="BF90">
+        <v>1.4</v>
+      </c>
+      <c r="BG90">
+        <v>1.15</v>
+      </c>
+      <c r="BH90">
+        <v>4.5</v>
+      </c>
+      <c r="BI90">
+        <v>1.31</v>
+      </c>
+      <c r="BJ90">
+        <v>3.04</v>
+      </c>
+      <c r="BK90">
+        <v>1.57</v>
+      </c>
+      <c r="BL90">
+        <v>2.25</v>
+      </c>
+      <c r="BM90">
+        <v>1.97</v>
+      </c>
+      <c r="BN90">
+        <v>1.78</v>
+      </c>
+      <c r="BO90">
+        <v>2.52</v>
+      </c>
+      <c r="BP90">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="91" spans="1:68">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91">
+        <v>7325421</v>
+      </c>
+      <c r="C91" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" t="s">
+        <v>69</v>
+      </c>
+      <c r="E91" s="2">
+        <v>45487.52083333334</v>
+      </c>
+      <c r="F91">
+        <v>15</v>
+      </c>
+      <c r="G91" t="s">
+        <v>79</v>
+      </c>
+      <c r="H91" t="s">
+        <v>81</v>
+      </c>
+      <c r="I91">
+        <v>0</v>
+      </c>
+      <c r="J91">
+        <v>0</v>
+      </c>
+      <c r="K91">
+        <v>0</v>
+      </c>
+      <c r="L91">
+        <v>1</v>
+      </c>
+      <c r="M91">
+        <v>2</v>
+      </c>
+      <c r="N91">
+        <v>3</v>
+      </c>
+      <c r="O91" t="s">
+        <v>90</v>
+      </c>
+      <c r="P91" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q91">
+        <v>3.6</v>
+      </c>
+      <c r="R91">
+        <v>2.2</v>
+      </c>
+      <c r="S91">
+        <v>2.88</v>
+      </c>
+      <c r="T91">
+        <v>1.36</v>
+      </c>
+      <c r="U91">
+        <v>3</v>
+      </c>
+      <c r="V91">
+        <v>2.75</v>
+      </c>
+      <c r="W91">
+        <v>1.4</v>
+      </c>
+      <c r="X91">
+        <v>7</v>
+      </c>
+      <c r="Y91">
+        <v>1.1</v>
+      </c>
+      <c r="Z91">
+        <v>2.88</v>
+      </c>
+      <c r="AA91">
+        <v>3.17</v>
+      </c>
+      <c r="AB91">
+        <v>2.18</v>
+      </c>
+      <c r="AC91">
+        <v>1.05</v>
+      </c>
+      <c r="AD91">
+        <v>11</v>
+      </c>
+      <c r="AE91">
+        <v>1.28</v>
+      </c>
+      <c r="AF91">
+        <v>3.6</v>
+      </c>
+      <c r="AG91">
+        <v>1.89</v>
+      </c>
+      <c r="AH91">
+        <v>1.95</v>
+      </c>
+      <c r="AI91">
+        <v>1.7</v>
+      </c>
+      <c r="AJ91">
+        <v>2.05</v>
+      </c>
+      <c r="AK91">
+        <v>1.7</v>
+      </c>
+      <c r="AL91">
+        <v>1.35</v>
+      </c>
+      <c r="AM91">
+        <v>1.38</v>
+      </c>
+      <c r="AN91">
+        <v>0.86</v>
+      </c>
+      <c r="AO91">
+        <v>0.43</v>
+      </c>
+      <c r="AP91">
+        <v>0.75</v>
+      </c>
+      <c r="AQ91">
+        <v>0.75</v>
+      </c>
+      <c r="AR91">
+        <v>1.47</v>
+      </c>
+      <c r="AS91">
+        <v>1.61</v>
+      </c>
+      <c r="AT91">
+        <v>3.08</v>
+      </c>
+      <c r="AU91">
+        <v>8</v>
+      </c>
+      <c r="AV91">
+        <v>3</v>
+      </c>
+      <c r="AW91">
+        <v>7</v>
+      </c>
+      <c r="AX91">
+        <v>4</v>
+      </c>
+      <c r="AY91">
+        <v>15</v>
+      </c>
+      <c r="AZ91">
+        <v>7</v>
+      </c>
+      <c r="BA91">
+        <v>7</v>
+      </c>
+      <c r="BB91">
+        <v>1</v>
+      </c>
+      <c r="BC91">
+        <v>8</v>
+      </c>
+      <c r="BD91">
+        <v>2.1</v>
+      </c>
+      <c r="BE91">
+        <v>8</v>
+      </c>
+      <c r="BF91">
+        <v>1.91</v>
+      </c>
+      <c r="BG91">
+        <v>1.2</v>
+      </c>
+      <c r="BH91">
+        <v>3.84</v>
+      </c>
+      <c r="BI91">
+        <v>1.41</v>
+      </c>
+      <c r="BJ91">
+        <v>2.69</v>
+      </c>
+      <c r="BK91">
+        <v>1.73</v>
+      </c>
+      <c r="BL91">
+        <v>2.04</v>
+      </c>
+      <c r="BM91">
+        <v>2.17</v>
+      </c>
+      <c r="BN91">
+        <v>1.61</v>
+      </c>
+      <c r="BO91">
+        <v>2.84</v>
+      </c>
+      <c r="BP91">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="205">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -460,6 +460,9 @@
     <t>['3', '35', '64']</t>
   </si>
   <si>
+    <t>['30', '46', '85', '90+1']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -623,6 +626,9 @@
   </si>
   <si>
     <t>['74', '79']</t>
+  </si>
+  <si>
+    <t>['31', '41', '80']</t>
   </si>
 </sst>
 </file>
@@ -984,7 +990,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP91"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1243,7 +1249,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1655,7 +1661,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1861,7 +1867,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2067,7 +2073,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2145,7 +2151,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
         <v>1.86</v>
@@ -2273,7 +2279,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2685,7 +2691,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2763,7 +2769,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
         <v>0.88</v>
@@ -2891,7 +2897,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3097,7 +3103,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3303,7 +3309,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3509,7 +3515,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3796,7 +3802,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -4127,7 +4133,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4539,7 +4545,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4745,7 +4751,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4951,7 +4957,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5157,7 +5163,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5363,7 +5369,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5441,7 +5447,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ22">
         <v>1.38</v>
@@ -5569,7 +5575,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5775,7 +5781,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6187,7 +6193,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6268,7 +6274,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6599,7 +6605,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7011,7 +7017,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7217,7 +7223,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7423,7 +7429,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7629,7 +7635,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7913,7 +7919,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ34">
         <v>1.57</v>
@@ -8041,7 +8047,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8453,7 +8459,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8534,7 +8540,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8865,7 +8871,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9071,7 +9077,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9277,7 +9283,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9895,7 +9901,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -10101,7 +10107,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10719,7 +10725,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10797,7 +10803,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ48">
         <v>0.75</v>
@@ -11006,7 +11012,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11131,7 +11137,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11337,7 +11343,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11543,7 +11549,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11955,7 +11961,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12161,7 +12167,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12367,7 +12373,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12779,7 +12785,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12985,7 +12991,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13191,7 +13197,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13272,7 +13278,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13397,7 +13403,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13681,7 +13687,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
         <v>1.17</v>
@@ -13809,7 +13815,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14015,7 +14021,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14427,7 +14433,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14633,7 +14639,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14839,7 +14845,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14920,7 +14926,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -15457,7 +15463,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15663,7 +15669,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15947,7 +15953,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16281,7 +16287,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16487,7 +16493,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16693,7 +16699,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16899,7 +16905,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17311,7 +17317,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17517,7 +17523,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17598,7 +17604,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ81">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.47</v>
@@ -17723,7 +17729,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17929,7 +17935,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18341,7 +18347,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18547,7 +18553,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18753,7 +18759,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18959,7 +18965,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19371,7 +19377,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19577,7 +19583,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19734,6 +19740,212 @@
       </c>
       <c r="BP91">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="92" spans="1:68">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92">
+        <v>7325422</v>
+      </c>
+      <c r="C92" t="s">
+        <v>68</v>
+      </c>
+      <c r="D92" t="s">
+        <v>69</v>
+      </c>
+      <c r="E92" s="2">
+        <v>45488.54166666666</v>
+      </c>
+      <c r="F92">
+        <v>15</v>
+      </c>
+      <c r="G92" t="s">
+        <v>74</v>
+      </c>
+      <c r="H92" t="s">
+        <v>71</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>2</v>
+      </c>
+      <c r="K92">
+        <v>3</v>
+      </c>
+      <c r="L92">
+        <v>4</v>
+      </c>
+      <c r="M92">
+        <v>3</v>
+      </c>
+      <c r="N92">
+        <v>7</v>
+      </c>
+      <c r="O92" t="s">
+        <v>148</v>
+      </c>
+      <c r="P92" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q92">
+        <v>4.33</v>
+      </c>
+      <c r="R92">
+        <v>2.38</v>
+      </c>
+      <c r="S92">
+        <v>2.38</v>
+      </c>
+      <c r="T92">
+        <v>1.3</v>
+      </c>
+      <c r="U92">
+        <v>3.4</v>
+      </c>
+      <c r="V92">
+        <v>2.5</v>
+      </c>
+      <c r="W92">
+        <v>1.5</v>
+      </c>
+      <c r="X92">
+        <v>6</v>
+      </c>
+      <c r="Y92">
+        <v>1.13</v>
+      </c>
+      <c r="Z92">
+        <v>3.4</v>
+      </c>
+      <c r="AA92">
+        <v>3.6</v>
+      </c>
+      <c r="AB92">
+        <v>1.83</v>
+      </c>
+      <c r="AC92">
+        <v>1.02</v>
+      </c>
+      <c r="AD92">
+        <v>15</v>
+      </c>
+      <c r="AE92">
+        <v>1.22</v>
+      </c>
+      <c r="AF92">
+        <v>4.33</v>
+      </c>
+      <c r="AG92">
+        <v>1.65</v>
+      </c>
+      <c r="AH92">
+        <v>2.1</v>
+      </c>
+      <c r="AI92">
+        <v>1.62</v>
+      </c>
+      <c r="AJ92">
+        <v>2.2</v>
+      </c>
+      <c r="AK92">
+        <v>2.1</v>
+      </c>
+      <c r="AL92">
+        <v>1.28</v>
+      </c>
+      <c r="AM92">
+        <v>1.25</v>
+      </c>
+      <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
+        <v>1.71</v>
+      </c>
+      <c r="AP92">
+        <v>2.13</v>
+      </c>
+      <c r="AQ92">
+        <v>1.5</v>
+      </c>
+      <c r="AR92">
+        <v>1.34</v>
+      </c>
+      <c r="AS92">
+        <v>1.65</v>
+      </c>
+      <c r="AT92">
+        <v>2.99</v>
+      </c>
+      <c r="AU92">
+        <v>10</v>
+      </c>
+      <c r="AV92">
+        <v>7</v>
+      </c>
+      <c r="AW92">
+        <v>6</v>
+      </c>
+      <c r="AX92">
+        <v>9</v>
+      </c>
+      <c r="AY92">
+        <v>16</v>
+      </c>
+      <c r="AZ92">
+        <v>16</v>
+      </c>
+      <c r="BA92">
+        <v>6</v>
+      </c>
+      <c r="BB92">
+        <v>3</v>
+      </c>
+      <c r="BC92">
+        <v>9</v>
+      </c>
+      <c r="BD92">
+        <v>3.9</v>
+      </c>
+      <c r="BE92">
+        <v>7.8</v>
+      </c>
+      <c r="BF92">
+        <v>1.41</v>
+      </c>
+      <c r="BG92">
+        <v>1.11</v>
+      </c>
+      <c r="BH92">
+        <v>5.1</v>
+      </c>
+      <c r="BI92">
+        <v>1.25</v>
+      </c>
+      <c r="BJ92">
+        <v>3.42</v>
+      </c>
+      <c r="BK92">
+        <v>1.49</v>
+      </c>
+      <c r="BL92">
+        <v>2.48</v>
+      </c>
+      <c r="BM92">
+        <v>1.83</v>
+      </c>
+      <c r="BN92">
+        <v>1.97</v>
+      </c>
+      <c r="BO92">
+        <v>2.22</v>
+      </c>
+      <c r="BP92">
+        <v>1.61</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ3">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ8">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AS8">
         <v>0.73</v>
       </c>
       <c r="AT8">
-        <v>0.73</v>
+        <v>2.13</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2969,25 +2969,25 @@
         <v>1.53</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3181,19 +3181,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS11">
         <v>1.24</v>
       </c>
       <c r="AT11">
-        <v>1.24</v>
+        <v>2.71</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3384,22 +3384,22 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>2.37</v>
+        <v>3.15</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3590,22 +3590,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AT13">
-        <v>1.18</v>
+        <v>2.5</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3793,25 +3793,25 @@
         <v>1.55</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR14">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AT14">
-        <v>1.95</v>
+        <v>3.56</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>1.48</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR15">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AS15">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4205,25 +4205,25 @@
         <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR16">
-        <v>2.63</v>
+        <v>2.02</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AT16">
-        <v>2.63</v>
+        <v>3.12</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4411,25 +4411,25 @@
         <v>1.4</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4617,25 +4617,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR18">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
       <c r="AS18">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT18">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="AU18">
         <v>6</v>
@@ -4829,19 +4829,19 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AS19">
         <v>1.46</v>
       </c>
       <c r="AT19">
-        <v>1.46</v>
+        <v>2.9</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5029,25 +5029,25 @@
         <v>1.32</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR20">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="AT20">
-        <v>3.11</v>
+        <v>3.67</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5235,25 +5235,25 @@
         <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR21">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS21">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT21">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5441,25 +5441,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO22">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP22">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="AT22">
-        <v>2.67</v>
+        <v>3.23</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5647,25 +5647,25 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR23">
-        <v>2.91</v>
+        <v>1.6</v>
       </c>
       <c r="AS23">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT23">
-        <v>4.71</v>
+        <v>3.24</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5853,25 +5853,25 @@
         <v>1.32</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AS24">
-        <v>0.62</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>0.62</v>
+        <v>3.33</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6059,25 +6059,25 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR25">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="AS25">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AT25">
-        <v>2.19</v>
+        <v>2.59</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6265,25 +6265,25 @@
         <v>1.3</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
       </c>
       <c r="AS26">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="AT26">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6471,25 +6471,25 @@
         <v>2.15</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR27">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AS27">
-        <v>0.95</v>
+        <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="AU27">
         <v>10</v>
@@ -6677,25 +6677,25 @@
         <v>2.06</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>0.67</v>
-      </c>
       <c r="AP28">
+        <v>1.63</v>
+      </c>
+      <c r="AQ28">
+        <v>1</v>
+      </c>
+      <c r="AR28">
+        <v>1.77</v>
+      </c>
+      <c r="AS28">
         <v>1.75</v>
       </c>
-      <c r="AQ28">
-        <v>0.75</v>
-      </c>
-      <c r="AR28">
-        <v>1.88</v>
-      </c>
-      <c r="AS28">
-        <v>1.9</v>
-      </c>
       <c r="AT28">
-        <v>3.78</v>
+        <v>3.52</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6883,25 +6883,25 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR29">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="AS29">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AT29">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7089,25 +7089,25 @@
         <v>1.45</v>
       </c>
       <c r="AN30">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ30">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR30">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AS30">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT30">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7298,22 +7298,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AR31">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7501,25 +7501,25 @@
         <v>1.28</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP32">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR32">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AS32">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR33">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS33">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>2.76</v>
+        <v>3.36</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7913,25 +7913,25 @@
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR34">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AS34">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>2.98</v>
+        <v>3.02</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8119,25 +8119,25 @@
         <v>1.75</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR35">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AT35">
-        <v>2.37</v>
+        <v>2.91</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8325,25 +8325,25 @@
         <v>1.33</v>
       </c>
       <c r="AN36">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AO36">
-        <v>0.67</v>
+        <v>1.5</v>
       </c>
       <c r="AP36">
+        <v>1.31</v>
+      </c>
+      <c r="AQ36">
         <v>1.75</v>
       </c>
-      <c r="AQ36">
-        <v>1.38</v>
-      </c>
       <c r="AR36">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS36">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="AT36">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8531,25 +8531,25 @@
         <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR37">
-        <v>0.83</v>
+        <v>1.06</v>
       </c>
       <c r="AS37">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="AT37">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8737,25 +8737,25 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR38">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="AS38">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT38">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -8943,25 +8943,25 @@
         <v>1.94</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR39">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="AS39">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>3.81</v>
+        <v>3.51</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9152,22 +9152,22 @@
         <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR40">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS40">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>2.24</v>
+        <v>2.65</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9355,25 +9355,25 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR41">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AS41">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AT41">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9561,25 +9561,25 @@
         <v>1.89</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AR42">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="AS42">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="AT42">
-        <v>3.77</v>
+        <v>3.24</v>
       </c>
       <c r="AU42">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR43">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AS43">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9973,25 +9973,25 @@
         <v>1.45</v>
       </c>
       <c r="AN44">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO44">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP44">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR44">
-        <v>0.85</v>
+        <v>1.03</v>
       </c>
       <c r="AS44">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="AT44">
-        <v>1.77</v>
+        <v>2.37</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10179,25 +10179,25 @@
         <v>1.56</v>
       </c>
       <c r="AN45">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR45">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AT45">
-        <v>3.63</v>
+        <v>2.99</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10385,25 +10385,25 @@
         <v>3</v>
       </c>
       <c r="AN46">
+        <v>1.5</v>
+      </c>
+      <c r="AO46">
+        <v>1.14</v>
+      </c>
+      <c r="AP46">
         <v>1.75</v>
       </c>
-      <c r="AO46">
-        <v>1.33</v>
-      </c>
-      <c r="AP46">
-        <v>2.13</v>
-      </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR46">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="AS46">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
       <c r="AT46">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10591,25 +10591,25 @@
         <v>1.87</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS47">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AT47">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10797,25 +10797,25 @@
         <v>1.84</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AO48">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AP48">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR48">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS48">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT48">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="AU48">
         <v>11</v>
@@ -11003,25 +11003,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR49">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="AS49">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="AT49">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11209,25 +11209,25 @@
         <v>3</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR50">
-        <v>0.93</v>
+        <v>1.47</v>
       </c>
       <c r="AS50">
-        <v>1.12</v>
+        <v>1.07</v>
       </c>
       <c r="AT50">
-        <v>2.05</v>
+        <v>2.54</v>
       </c>
       <c r="AU50">
         <v>9</v>
@@ -11415,25 +11415,25 @@
         <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AO51">
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR51">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AS51">
-        <v>0.98</v>
+        <v>1.28</v>
       </c>
       <c r="AT51">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11621,25 +11621,25 @@
         <v>1.29</v>
       </c>
       <c r="AN52">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP52">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ52">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR52">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AS52">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT52">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11827,25 +11827,25 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR53">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AT53">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12033,25 +12033,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AR54">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS54">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT54">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12239,25 +12239,25 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR55">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="AS55">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>3.68</v>
+        <v>3.37</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12445,25 +12445,25 @@
         <v>2.38</v>
       </c>
       <c r="AN56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>0.33</v>
+        <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR56">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT56">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12651,25 +12651,25 @@
         <v>1.19</v>
       </c>
       <c r="AN57">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR57">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS57">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="AT57">
-        <v>2.73</v>
+        <v>3.32</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -12860,22 +12860,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ58">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR58">
-        <v>1.58</v>
+        <v>1.34</v>
       </c>
       <c r="AS58">
-        <v>0.96</v>
+        <v>1.27</v>
       </c>
       <c r="AT58">
-        <v>2.54</v>
+        <v>2.61</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13063,25 +13063,25 @@
         <v>1.15</v>
       </c>
       <c r="AN59">
-        <v>0.67</v>
+        <v>0.38</v>
       </c>
       <c r="AO59">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR59">
-        <v>1.01</v>
+        <v>1.13</v>
       </c>
       <c r="AS59">
-        <v>1.28</v>
+        <v>1.63</v>
       </c>
       <c r="AT59">
-        <v>2.29</v>
+        <v>2.76</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13269,25 +13269,25 @@
         <v>1.44</v>
       </c>
       <c r="AN60">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO60">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR60">
-        <v>1.91</v>
+        <v>1.63</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.77</v>
       </c>
       <c r="AT60">
-        <v>3.46</v>
+        <v>3.4</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13475,25 +13475,25 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ61">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR61">
-        <v>1.58</v>
+        <v>1.26</v>
       </c>
       <c r="AS61">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AT61">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13681,25 +13681,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>2</v>
+        <v>1.56</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
       <c r="AS62">
-        <v>1.03</v>
+        <v>1.12</v>
       </c>
       <c r="AT62">
-        <v>2.47</v>
+        <v>2.54</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -13887,25 +13887,25 @@
         <v>1.85</v>
       </c>
       <c r="AN63">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AO63">
+        <v>1.8</v>
+      </c>
+      <c r="AP63">
         <v>1.75</v>
       </c>
-      <c r="AP63">
-        <v>2.13</v>
-      </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR63">
-        <v>1.99</v>
+        <v>1.64</v>
       </c>
       <c r="AS63">
         <v>1.62</v>
       </c>
       <c r="AT63">
-        <v>3.61</v>
+        <v>3.26</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14093,22 +14093,22 @@
         <v>2.62</v>
       </c>
       <c r="AN64">
-        <v>3</v>
+        <v>2.2</v>
       </c>
       <c r="AO64">
-        <v>0.4</v>
+        <v>0.78</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR64">
-        <v>1.36</v>
+        <v>1.55</v>
       </c>
       <c r="AS64">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AT64">
         <v>3.07</v>
@@ -14299,25 +14299,25 @@
         <v>1.4</v>
       </c>
       <c r="AN65">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO65">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AP65">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>1.14</v>
+        <v>1.41</v>
       </c>
       <c r="AT65">
-        <v>2.34</v>
+        <v>2.61</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14505,25 +14505,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
+        <v>0.7</v>
+      </c>
+      <c r="AO66">
+        <v>0.6</v>
+      </c>
+      <c r="AP66">
+        <v>1</v>
+      </c>
+      <c r="AQ66">
+        <v>0.6</v>
+      </c>
+      <c r="AR66">
+        <v>1.47</v>
+      </c>
+      <c r="AS66">
         <v>1.25</v>
       </c>
-      <c r="AO66">
-        <v>0.4</v>
-      </c>
-      <c r="AP66">
-        <v>1.29</v>
-      </c>
-      <c r="AQ66">
-        <v>0.43</v>
-      </c>
-      <c r="AR66">
-        <v>1.29</v>
-      </c>
-      <c r="AS66">
-        <v>1</v>
-      </c>
       <c r="AT66">
-        <v>2.29</v>
+        <v>2.72</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14711,22 +14711,22 @@
         <v>3.2</v>
       </c>
       <c r="AN67">
-        <v>1.83</v>
+        <v>1.64</v>
       </c>
       <c r="AO67">
-        <v>0.2</v>
+        <v>0.6</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR67">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AS67">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AT67">
         <v>2.83</v>
@@ -14917,25 +14917,25 @@
         <v>1.32</v>
       </c>
       <c r="AN68">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AO68">
-        <v>1.6</v>
+        <v>1.64</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR68">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AS68">
-        <v>1.59</v>
+        <v>1.76</v>
       </c>
       <c r="AT68">
-        <v>3.24</v>
+        <v>3.32</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15123,25 +15123,25 @@
         <v>1.23</v>
       </c>
       <c r="AN69">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AO69">
-        <v>2.4</v>
+        <v>2.09</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ69">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR69">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AS69">
-        <v>1.35</v>
+        <v>1.63</v>
       </c>
       <c r="AT69">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15329,25 +15329,25 @@
         <v>2.36</v>
       </c>
       <c r="AN70">
-        <v>3</v>
+        <v>2.27</v>
       </c>
       <c r="AO70">
-        <v>1</v>
+        <v>1.7</v>
       </c>
       <c r="AP70">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ70">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AR70">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS70">
         <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>3.01</v>
+        <v>3.02</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -15535,25 +15535,25 @@
         <v>1.16</v>
       </c>
       <c r="AN71">
-        <v>1.4</v>
+        <v>1.09</v>
       </c>
       <c r="AO71">
-        <v>1</v>
+        <v>1.58</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR71">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AS71">
-        <v>1.23</v>
+        <v>1.65</v>
       </c>
       <c r="AT71">
-        <v>2.9</v>
+        <v>3.08</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15741,25 +15741,25 @@
         <v>1.4</v>
       </c>
       <c r="AN72">
-        <v>0.8</v>
+        <v>0.64</v>
       </c>
       <c r="AO72">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR72">
-        <v>1.51</v>
+        <v>1.22</v>
       </c>
       <c r="AS72">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AT72">
-        <v>2.73</v>
+        <v>2.65</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -15947,22 +15947,22 @@
         <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>2.17</v>
+        <v>1.82</v>
       </c>
       <c r="AO73">
-        <v>0.5</v>
+        <v>0.92</v>
       </c>
       <c r="AP73">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR73">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="AS73">
-        <v>1.48</v>
+        <v>1.51</v>
       </c>
       <c r="AT73">
         <v>2.86</v>
@@ -16153,25 +16153,25 @@
         <v>2.4</v>
       </c>
       <c r="AN74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AO74">
-        <v>0.33</v>
+        <v>0.73</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR74">
-        <v>1.86</v>
+        <v>1.64</v>
       </c>
       <c r="AS74">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AT74">
-        <v>3.45</v>
+        <v>3.09</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16359,25 +16359,25 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="AO75">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP75">
-        <v>1.75</v>
+        <v>1.63</v>
       </c>
       <c r="AQ75">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR75">
-        <v>1.91</v>
+        <v>1.74</v>
       </c>
       <c r="AS75">
-        <v>1.61</v>
+        <v>1.74</v>
       </c>
       <c r="AT75">
-        <v>3.52</v>
+        <v>3.48</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -16565,25 +16565,25 @@
         <v>1.32</v>
       </c>
       <c r="AN76">
-        <v>1</v>
+        <v>0.55</v>
       </c>
       <c r="AO76">
+        <v>1.18</v>
+      </c>
+      <c r="AP76">
         <v>0.8</v>
       </c>
-      <c r="AP76">
-        <v>0.71</v>
-      </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AS76">
         <v>1.18</v>
       </c>
       <c r="AT76">
-        <v>2.41</v>
+        <v>2.39</v>
       </c>
       <c r="AU76">
         <v>2</v>
@@ -16771,25 +16771,25 @@
         <v>1.62</v>
       </c>
       <c r="AN77">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AO77">
-        <v>1.86</v>
+        <v>2.08</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR77">
-        <v>1.95</v>
+        <v>1.69</v>
       </c>
       <c r="AS77">
-        <v>1.63</v>
+        <v>1.72</v>
       </c>
       <c r="AT77">
-        <v>3.58</v>
+        <v>3.41</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -16977,25 +16977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN78">
-        <v>1.33</v>
+        <v>0.92</v>
       </c>
       <c r="AO78">
-        <v>2.17</v>
+        <v>1.92</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR78">
-        <v>1.54</v>
+        <v>1.61</v>
       </c>
       <c r="AS78">
-        <v>1.42</v>
+        <v>1.65</v>
       </c>
       <c r="AT78">
-        <v>2.96</v>
+        <v>3.26</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17183,25 +17183,25 @@
         <v>1.21</v>
       </c>
       <c r="AN79">
-        <v>1.2</v>
+        <v>0.75</v>
       </c>
       <c r="AO79">
-        <v>1.63</v>
+        <v>1.92</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ79">
-        <v>1.44</v>
+        <v>1.87</v>
       </c>
       <c r="AR79">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AS79">
-        <v>1.56</v>
+        <v>1.67</v>
       </c>
       <c r="AT79">
-        <v>2.84</v>
+        <v>3.14</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -17389,25 +17389,25 @@
         <v>2.2</v>
       </c>
       <c r="AN80">
-        <v>2</v>
+        <v>1.69</v>
       </c>
       <c r="AO80">
-        <v>1.4</v>
+        <v>1.75</v>
       </c>
       <c r="AP80">
-        <v>2.13</v>
+        <v>1.87</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AR80">
-        <v>1.84</v>
+        <v>1.7</v>
       </c>
       <c r="AS80">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AT80">
-        <v>3.14</v>
+        <v>3.03</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17595,25 +17595,25 @@
         <v>1.12</v>
       </c>
       <c r="AN81">
-        <v>0.83</v>
+        <v>0.67</v>
       </c>
       <c r="AO81">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AP81">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR81">
-        <v>1.47</v>
+        <v>1.23</v>
       </c>
       <c r="AS81">
-        <v>1.56</v>
+        <v>1.73</v>
       </c>
       <c r="AT81">
-        <v>3.03</v>
+        <v>2.96</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17801,25 +17801,25 @@
         <v>1.2</v>
       </c>
       <c r="AN82">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO82">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AP82">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.75</v>
       </c>
       <c r="AR82">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AS82">
-        <v>1.39</v>
+        <v>1.68</v>
       </c>
       <c r="AT82">
-        <v>2.56</v>
+        <v>2.88</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18007,25 +18007,25 @@
         <v>2.3</v>
       </c>
       <c r="AN83">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO83">
-        <v>0.17</v>
+        <v>0.5</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.87</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR83">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AS83">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AT83">
-        <v>2.83</v>
+        <v>2.66</v>
       </c>
       <c r="AU83">
         <v>6</v>
@@ -18213,25 +18213,25 @@
         <v>1.65</v>
       </c>
       <c r="AN84">
-        <v>1.57</v>
+        <v>1.64</v>
       </c>
       <c r="AO84">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AP84">
+        <v>1.63</v>
+      </c>
+      <c r="AQ84">
         <v>1.75</v>
       </c>
-      <c r="AQ84">
-        <v>1.38</v>
-      </c>
       <c r="AR84">
-        <v>1.87</v>
+        <v>1.76</v>
       </c>
       <c r="AS84">
-        <v>1.41</v>
+        <v>1.68</v>
       </c>
       <c r="AT84">
-        <v>3.28</v>
+        <v>3.44</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18419,25 +18419,25 @@
         <v>3.75</v>
       </c>
       <c r="AN85">
-        <v>1.71</v>
+        <v>1.79</v>
       </c>
       <c r="AO85">
-        <v>0.57</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>0.8</v>
       </c>
       <c r="AR85">
-        <v>1.85</v>
+        <v>1.6</v>
       </c>
       <c r="AS85">
-        <v>1.24</v>
+        <v>1.19</v>
       </c>
       <c r="AT85">
-        <v>3.09</v>
+        <v>2.79</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18625,25 +18625,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>1.29</v>
+        <v>1.23</v>
       </c>
       <c r="AO86">
-        <v>1.17</v>
+        <v>1.62</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="AQ86">
-        <v>1.43</v>
+        <v>1.8</v>
       </c>
       <c r="AR86">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AS86">
         <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.55</v>
+        <v>2.56</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -18831,25 +18831,25 @@
         <v>2.95</v>
       </c>
       <c r="AN87">
-        <v>2.4</v>
+        <v>1.79</v>
       </c>
       <c r="AO87">
-        <v>0.86</v>
+        <v>0.93</v>
       </c>
       <c r="AP87">
-        <v>2.5</v>
+        <v>1.87</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.87</v>
       </c>
       <c r="AR87">
-        <v>1.85</v>
+        <v>1.65</v>
       </c>
       <c r="AS87">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AT87">
-        <v>3.23</v>
+        <v>3.21</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19037,25 +19037,25 @@
         <v>1.36</v>
       </c>
       <c r="AN88">
-        <v>1.5</v>
+        <v>0.92</v>
       </c>
       <c r="AO88">
-        <v>1.33</v>
+        <v>1.79</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.87</v>
       </c>
       <c r="AR88">
-        <v>1.22</v>
+        <v>1.43</v>
       </c>
       <c r="AS88">
-        <v>1.54</v>
+        <v>1.71</v>
       </c>
       <c r="AT88">
-        <v>2.76</v>
+        <v>3.14</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19243,25 +19243,25 @@
         <v>2.6</v>
       </c>
       <c r="AN89">
-        <v>1.57</v>
+        <v>1.07</v>
       </c>
       <c r="AO89">
-        <v>0.5</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.31</v>
       </c>
       <c r="AQ89">
-        <v>0.43</v>
+        <v>0.6</v>
       </c>
       <c r="AR89">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="AS89">
-        <v>0.98</v>
+        <v>1.24</v>
       </c>
       <c r="AT89">
-        <v>2.56</v>
+        <v>2.86</v>
       </c>
       <c r="AU89">
         <v>9</v>
@@ -19449,25 +19449,25 @@
         <v>1.14</v>
       </c>
       <c r="AN90">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AO90">
-        <v>0.57</v>
+        <v>1.2</v>
       </c>
       <c r="AP90">
-        <v>0.71</v>
+        <v>0.8</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>1.31</v>
       </c>
       <c r="AR90">
-        <v>1.13</v>
+        <v>1.22</v>
       </c>
       <c r="AS90">
         <v>1.66</v>
       </c>
       <c r="AT90">
-        <v>2.79</v>
+        <v>2.88</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -19655,25 +19655,25 @@
         <v>1.38</v>
       </c>
       <c r="AN91">
+        <v>0.64</v>
+      </c>
+      <c r="AO91">
         <v>0.86</v>
       </c>
-      <c r="AO91">
-        <v>0.43</v>
-      </c>
       <c r="AP91">
-        <v>0.75</v>
+        <v>0.6</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR91">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AS91">
-        <v>1.61</v>
+        <v>1.43</v>
       </c>
       <c r="AT91">
-        <v>3.08</v>
+        <v>2.63</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -19861,25 +19861,25 @@
         <v>1.25</v>
       </c>
       <c r="AN92">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO92">
-        <v>1.71</v>
+        <v>1.73</v>
       </c>
       <c r="AP92">
-        <v>2.13</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.63</v>
       </c>
       <c r="AR92">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="AS92">
-        <v>1.65</v>
+        <v>1.74</v>
       </c>
       <c r="AT92">
-        <v>2.99</v>
+        <v>3.06</v>
       </c>
       <c r="AU92">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -1327,10 +1327,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ2">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1533,10 +1533,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1739,10 +1739,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1945,10 +1945,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ5">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2151,10 +2151,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2357,10 +2357,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2563,19 +2563,19 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ8">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AR8">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AS8">
         <v>0.73</v>
       </c>
       <c r="AT8">
-        <v>2.13</v>
+        <v>0.73</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2769,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2969,25 +2969,25 @@
         <v>1.53</v>
       </c>
       <c r="AN10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AO10">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR10">
-        <v>0.62</v>
+        <v>0</v>
       </c>
       <c r="AS10">
-        <v>1.95</v>
+        <v>0</v>
       </c>
       <c r="AT10">
-        <v>2.57</v>
+        <v>0</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3181,19 +3181,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR11">
-        <v>1.47</v>
+        <v>0</v>
       </c>
       <c r="AS11">
         <v>1.24</v>
       </c>
       <c r="AT11">
-        <v>2.71</v>
+        <v>1.24</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3384,22 +3384,22 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ12">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
       </c>
       <c r="AS12">
-        <v>0.78</v>
+        <v>0</v>
       </c>
       <c r="AT12">
-        <v>3.15</v>
+        <v>2.37</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3590,22 +3590,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ13">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
       </c>
       <c r="AS13">
-        <v>1.32</v>
+        <v>0</v>
       </c>
       <c r="AT13">
-        <v>2.5</v>
+        <v>1.18</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3793,25 +3793,25 @@
         <v>1.55</v>
       </c>
       <c r="AN14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO14">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ14">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
-        <v>1.68</v>
+        <v>1.95</v>
       </c>
       <c r="AS14">
-        <v>1.88</v>
+        <v>0</v>
       </c>
       <c r="AT14">
-        <v>3.56</v>
+        <v>1.95</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -3999,25 +3999,25 @@
         <v>1.48</v>
       </c>
       <c r="AN15">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="AO15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AQ15">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR15">
-        <v>1.42</v>
+        <v>1.37</v>
       </c>
       <c r="AS15">
-        <v>1.62</v>
+        <v>1.93</v>
       </c>
       <c r="AT15">
-        <v>3.04</v>
+        <v>3.3</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4205,25 +4205,25 @@
         <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="AO16">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ16">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR16">
-        <v>2.02</v>
+        <v>2.63</v>
       </c>
       <c r="AS16">
-        <v>1.1</v>
+        <v>0</v>
       </c>
       <c r="AT16">
-        <v>3.12</v>
+        <v>2.63</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4411,25 +4411,25 @@
         <v>1.4</v>
       </c>
       <c r="AN17">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="AO17">
-        <v>1.5</v>
+        <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR17">
-        <v>0.95</v>
+        <v>0</v>
       </c>
       <c r="AS17">
-        <v>1.26</v>
+        <v>0</v>
       </c>
       <c r="AT17">
-        <v>2.21</v>
+        <v>0</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4617,25 +4617,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR18">
-        <v>1.14</v>
+        <v>1.66</v>
       </c>
       <c r="AS18">
-        <v>0.9</v>
+        <v>1.02</v>
       </c>
       <c r="AT18">
-        <v>2.04</v>
+        <v>2.68</v>
       </c>
       <c r="AU18">
         <v>6</v>
@@ -4829,19 +4829,19 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AQ19">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR19">
-        <v>1.44</v>
+        <v>0</v>
       </c>
       <c r="AS19">
         <v>1.46</v>
       </c>
       <c r="AT19">
-        <v>2.9</v>
+        <v>1.46</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5029,25 +5029,25 @@
         <v>1.32</v>
       </c>
       <c r="AN20">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AO20">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ20">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR20">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="AS20">
-        <v>2.06</v>
+        <v>1.4</v>
       </c>
       <c r="AT20">
-        <v>3.67</v>
+        <v>3.11</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5235,25 +5235,25 @@
         <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO21">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AS21">
-        <v>1.24</v>
+        <v>1.44</v>
       </c>
       <c r="AT21">
-        <v>2.5</v>
+        <v>2.59</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5441,25 +5441,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AO22">
-        <v>1.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR22">
-        <v>1.33</v>
+        <v>1.26</v>
       </c>
       <c r="AS22">
-        <v>1.9</v>
+        <v>1.41</v>
       </c>
       <c r="AT22">
-        <v>3.23</v>
+        <v>2.67</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5647,25 +5647,25 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO23">
-        <v>1.67</v>
+        <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR23">
-        <v>1.6</v>
+        <v>2.91</v>
       </c>
       <c r="AS23">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="AT23">
-        <v>3.24</v>
+        <v>4.71</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5853,25 +5853,25 @@
         <v>1.32</v>
       </c>
       <c r="AN24">
-        <v>0.67</v>
+        <v>0</v>
       </c>
       <c r="AO24">
-        <v>2.33</v>
+        <v>3</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR24">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="AS24">
-        <v>1.43</v>
+        <v>0.62</v>
       </c>
       <c r="AT24">
-        <v>3.33</v>
+        <v>0.62</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6059,25 +6059,25 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AP25">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR25">
-        <v>0.98</v>
+        <v>0.78</v>
       </c>
       <c r="AS25">
-        <v>1.61</v>
+        <v>1.41</v>
       </c>
       <c r="AT25">
-        <v>2.59</v>
+        <v>2.19</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6265,25 +6265,25 @@
         <v>1.3</v>
       </c>
       <c r="AN26">
-        <v>1.33</v>
+        <v>2</v>
       </c>
       <c r="AO26">
-        <v>0.33</v>
+        <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
       </c>
       <c r="AS26">
-        <v>1.98</v>
+        <v>2.16</v>
       </c>
       <c r="AT26">
-        <v>3.08</v>
+        <v>3.26</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6471,25 +6471,25 @@
         <v>2.15</v>
       </c>
       <c r="AN27">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="AO27">
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AR27">
-        <v>1.64</v>
+        <v>1.84</v>
       </c>
       <c r="AS27">
-        <v>1.42</v>
+        <v>0.95</v>
       </c>
       <c r="AT27">
-        <v>3.06</v>
+        <v>2.79</v>
       </c>
       <c r="AU27">
         <v>10</v>
@@ -6677,25 +6677,25 @@
         <v>2.06</v>
       </c>
       <c r="AN28">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO28">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ28">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR28">
-        <v>1.77</v>
+        <v>1.88</v>
       </c>
       <c r="AS28">
-        <v>1.75</v>
+        <v>1.9</v>
       </c>
       <c r="AT28">
-        <v>3.52</v>
+        <v>3.78</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -6883,25 +6883,25 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO29">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="AP29">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ29">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
-        <v>1.83</v>
+        <v>2.39</v>
       </c>
       <c r="AS29">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AT29">
-        <v>2.98</v>
+        <v>3.65</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7089,25 +7089,25 @@
         <v>1.45</v>
       </c>
       <c r="AN30">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AO30">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ30">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR30">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="AS30">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="AT30">
-        <v>3.24</v>
+        <v>3.3</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7298,22 +7298,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR31">
-        <v>1.16</v>
+        <v>1.24</v>
       </c>
       <c r="AS31">
-        <v>1.32</v>
+        <v>1.46</v>
       </c>
       <c r="AT31">
-        <v>2.48</v>
+        <v>2.7</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7501,25 +7501,25 @@
         <v>1.28</v>
       </c>
       <c r="AN32">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AO32">
-        <v>1.25</v>
+        <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ32">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR32">
-        <v>1.2</v>
+        <v>1.23</v>
       </c>
       <c r="AS32">
-        <v>1.4</v>
+        <v>1.47</v>
       </c>
       <c r="AT32">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7707,25 +7707,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>1.8</v>
+        <v>3</v>
       </c>
       <c r="AO33">
-        <v>2.6</v>
+        <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR33">
-        <v>1.53</v>
+        <v>1.32</v>
       </c>
       <c r="AS33">
-        <v>1.83</v>
+        <v>1.44</v>
       </c>
       <c r="AT33">
-        <v>3.36</v>
+        <v>2.76</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -7913,25 +7913,25 @@
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <v>1.6</v>
+        <v>1.33</v>
       </c>
       <c r="AO34">
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ34">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR34">
-        <v>1.43</v>
+        <v>1.27</v>
       </c>
       <c r="AS34">
-        <v>1.59</v>
+        <v>1.71</v>
       </c>
       <c r="AT34">
-        <v>3.02</v>
+        <v>2.98</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8119,25 +8119,25 @@
         <v>1.75</v>
       </c>
       <c r="AN35">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="AO35">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ35">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR35">
-        <v>1.57</v>
+        <v>1.29</v>
       </c>
       <c r="AS35">
-        <v>1.34</v>
+        <v>1.08</v>
       </c>
       <c r="AT35">
-        <v>2.91</v>
+        <v>2.37</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8325,25 +8325,25 @@
         <v>1.33</v>
       </c>
       <c r="AN36">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO36">
-        <v>1.5</v>
+        <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AQ36">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR36">
-        <v>1.47</v>
+        <v>1.37</v>
       </c>
       <c r="AS36">
-        <v>1.93</v>
+        <v>1.46</v>
       </c>
       <c r="AT36">
-        <v>3.4</v>
+        <v>2.83</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8531,25 +8531,25 @@
         <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="AO37">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AQ37">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
-        <v>1.06</v>
+        <v>0.83</v>
       </c>
       <c r="AS37">
-        <v>1.92</v>
+        <v>1.66</v>
       </c>
       <c r="AT37">
-        <v>2.98</v>
+        <v>2.49</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8737,25 +8737,25 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AO38">
-        <v>1.4</v>
+        <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR38">
-        <v>1.31</v>
+        <v>1.9</v>
       </c>
       <c r="AS38">
-        <v>1.19</v>
+        <v>1.11</v>
       </c>
       <c r="AT38">
-        <v>2.5</v>
+        <v>3.01</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -8943,25 +8943,25 @@
         <v>1.94</v>
       </c>
       <c r="AN39">
-        <v>1.71</v>
+        <v>2.33</v>
       </c>
       <c r="AO39">
-        <v>2.17</v>
+        <v>2</v>
       </c>
       <c r="AP39">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ39">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR39">
-        <v>1.76</v>
+        <v>2.4</v>
       </c>
       <c r="AS39">
-        <v>1.75</v>
+        <v>1.41</v>
       </c>
       <c r="AT39">
-        <v>3.51</v>
+        <v>3.81</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9152,22 +9152,22 @@
         <v>0.5</v>
       </c>
       <c r="AO40">
+        <v>0</v>
+      </c>
+      <c r="AP40">
+        <v>1.29</v>
+      </c>
+      <c r="AQ40">
         <v>1.17</v>
       </c>
-      <c r="AP40">
-        <v>1</v>
-      </c>
-      <c r="AQ40">
-        <v>1.14</v>
-      </c>
       <c r="AR40">
-        <v>1.54</v>
+        <v>1.32</v>
       </c>
       <c r="AS40">
-        <v>1.11</v>
+        <v>0.92</v>
       </c>
       <c r="AT40">
-        <v>2.65</v>
+        <v>2.24</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9355,25 +9355,25 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AO41">
-        <v>0.83</v>
+        <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ41">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR41">
-        <v>1.58</v>
+        <v>1.53</v>
       </c>
       <c r="AS41">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="AT41">
-        <v>3.15</v>
+        <v>3.14</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9561,25 +9561,25 @@
         <v>1.89</v>
       </c>
       <c r="AN42">
-        <v>1.67</v>
+        <v>1.33</v>
       </c>
       <c r="AO42">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ42">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR42">
-        <v>1.87</v>
+        <v>2.09</v>
       </c>
       <c r="AS42">
-        <v>1.37</v>
+        <v>1.68</v>
       </c>
       <c r="AT42">
-        <v>3.24</v>
+        <v>3.77</v>
       </c>
       <c r="AU42">
         <v>2</v>
@@ -9767,25 +9767,25 @@
         <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AO43">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR43">
-        <v>1.24</v>
+        <v>1.52</v>
       </c>
       <c r="AS43">
-        <v>1.36</v>
+        <v>1.58</v>
       </c>
       <c r="AT43">
-        <v>2.6</v>
+        <v>3.1</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -9973,25 +9973,25 @@
         <v>1.45</v>
       </c>
       <c r="AN44">
+        <v>0.5</v>
+      </c>
+      <c r="AO44">
         <v>0.33</v>
       </c>
-      <c r="AO44">
-        <v>0.83</v>
-      </c>
       <c r="AP44">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AR44">
-        <v>1.03</v>
+        <v>0.85</v>
       </c>
       <c r="AS44">
-        <v>1.34</v>
+        <v>0.92</v>
       </c>
       <c r="AT44">
-        <v>2.37</v>
+        <v>1.77</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10179,25 +10179,25 @@
         <v>1.56</v>
       </c>
       <c r="AN45">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AO45">
-        <v>1.86</v>
+        <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ45">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR45">
-        <v>1.62</v>
+        <v>2.08</v>
       </c>
       <c r="AS45">
-        <v>1.37</v>
+        <v>1.55</v>
       </c>
       <c r="AT45">
-        <v>2.99</v>
+        <v>3.63</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10385,25 +10385,25 @@
         <v>3</v>
       </c>
       <c r="AN46">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AO46">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ46">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR46">
-        <v>1.81</v>
+        <v>2.34</v>
       </c>
       <c r="AS46">
-        <v>1.31</v>
+        <v>0.95</v>
       </c>
       <c r="AT46">
-        <v>3.12</v>
+        <v>3.29</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10591,25 +10591,25 @@
         <v>1.87</v>
       </c>
       <c r="AN47">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AO47">
-        <v>0.71</v>
+        <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR47">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="AS47">
-        <v>1.49</v>
+        <v>1.4</v>
       </c>
       <c r="AT47">
-        <v>3.29</v>
+        <v>3.3</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10797,25 +10797,25 @@
         <v>1.84</v>
       </c>
       <c r="AN48">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AO48">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR48">
-        <v>1.27</v>
+        <v>1.21</v>
       </c>
       <c r="AS48">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AT48">
-        <v>2.83</v>
+        <v>2.86</v>
       </c>
       <c r="AU48">
         <v>11</v>
@@ -11003,25 +11003,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AO49">
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ49">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
-        <v>1.76</v>
+        <v>2.14</v>
       </c>
       <c r="AS49">
-        <v>1.9</v>
+        <v>1.66</v>
       </c>
       <c r="AT49">
-        <v>3.66</v>
+        <v>3.8</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11209,25 +11209,25 @@
         <v>3</v>
       </c>
       <c r="AN50">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO50">
-        <v>0.43</v>
+        <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR50">
-        <v>1.47</v>
+        <v>0.93</v>
       </c>
       <c r="AS50">
-        <v>1.07</v>
+        <v>1.12</v>
       </c>
       <c r="AT50">
-        <v>2.54</v>
+        <v>2.05</v>
       </c>
       <c r="AU50">
         <v>9</v>
@@ -11415,25 +11415,25 @@
         <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.14</v>
+        <v>1.75</v>
       </c>
       <c r="AO51">
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR51">
-        <v>1.12</v>
+        <v>1.21</v>
       </c>
       <c r="AS51">
-        <v>1.28</v>
+        <v>0.98</v>
       </c>
       <c r="AT51">
-        <v>2.4</v>
+        <v>2.19</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11621,25 +11621,25 @@
         <v>1.29</v>
       </c>
       <c r="AN52">
-        <v>0.86</v>
+        <v>1.33</v>
       </c>
       <c r="AO52">
-        <v>1.88</v>
+        <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR52">
-        <v>1.3</v>
+        <v>1.75</v>
       </c>
       <c r="AS52">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AT52">
-        <v>2.88</v>
+        <v>3.4</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -11827,25 +11827,25 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO53">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ53">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
-        <v>1.56</v>
+        <v>1.84</v>
       </c>
       <c r="AS53">
-        <v>1.45</v>
+        <v>1.35</v>
       </c>
       <c r="AT53">
-        <v>3.01</v>
+        <v>3.19</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12033,25 +12033,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>0.5600000000000001</v>
+        <v>1.25</v>
       </c>
       <c r="AO54">
+        <v>1.33</v>
+      </c>
+      <c r="AP54">
         <v>1.75</v>
       </c>
-      <c r="AP54">
-        <v>1.31</v>
-      </c>
       <c r="AQ54">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR54">
-        <v>1.51</v>
+        <v>1.56</v>
       </c>
       <c r="AS54">
-        <v>1.4</v>
+        <v>1.34</v>
       </c>
       <c r="AT54">
-        <v>2.91</v>
+        <v>2.9</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12239,25 +12239,25 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AO55">
-        <v>2.11</v>
+        <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AQ55">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR55">
-        <v>1.82</v>
+        <v>2.04</v>
       </c>
       <c r="AS55">
-        <v>1.55</v>
+        <v>1.64</v>
       </c>
       <c r="AT55">
-        <v>3.37</v>
+        <v>3.68</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12445,25 +12445,25 @@
         <v>2.38</v>
       </c>
       <c r="AN56">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AO56">
-        <v>1.13</v>
+        <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ56">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR56">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="AS56">
-        <v>1.12</v>
+        <v>1</v>
       </c>
       <c r="AT56">
-        <v>2.69</v>
+        <v>2.54</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12651,25 +12651,25 @@
         <v>1.19</v>
       </c>
       <c r="AN57">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AO57">
-        <v>1.6</v>
+        <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ57">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
-        <v>1.61</v>
+        <v>1.45</v>
       </c>
       <c r="AS57">
-        <v>1.71</v>
+        <v>1.28</v>
       </c>
       <c r="AT57">
-        <v>3.32</v>
+        <v>2.73</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -12860,22 +12860,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AR58">
-        <v>1.34</v>
+        <v>1.58</v>
       </c>
       <c r="AS58">
-        <v>1.27</v>
+        <v>0.96</v>
       </c>
       <c r="AT58">
-        <v>2.61</v>
+        <v>2.54</v>
       </c>
       <c r="AU58">
         <v>8</v>
@@ -13063,25 +13063,25 @@
         <v>1.15</v>
       </c>
       <c r="AN59">
-        <v>0.38</v>
+        <v>0.67</v>
       </c>
       <c r="AO59">
-        <v>2.11</v>
+        <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AQ59">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR59">
-        <v>1.13</v>
+        <v>1.01</v>
       </c>
       <c r="AS59">
-        <v>1.63</v>
+        <v>1.28</v>
       </c>
       <c r="AT59">
-        <v>2.76</v>
+        <v>2.29</v>
       </c>
       <c r="AU59">
         <v>8</v>
@@ -13269,25 +13269,25 @@
         <v>1.44</v>
       </c>
       <c r="AN60">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO60">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ60">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
-        <v>1.63</v>
+        <v>1.91</v>
       </c>
       <c r="AS60">
-        <v>1.77</v>
+        <v>1.55</v>
       </c>
       <c r="AT60">
-        <v>3.4</v>
+        <v>3.46</v>
       </c>
       <c r="AU60">
         <v>5</v>
@@ -13475,25 +13475,25 @@
         <v>1.3</v>
       </c>
       <c r="AN61">
-        <v>0.67</v>
+        <v>1</v>
       </c>
       <c r="AO61">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
-        <v>1.26</v>
+        <v>1.58</v>
       </c>
       <c r="AS61">
-        <v>1.56</v>
+        <v>1.47</v>
       </c>
       <c r="AT61">
-        <v>2.82</v>
+        <v>3.05</v>
       </c>
       <c r="AU61">
         <v>4</v>
@@ -13681,25 +13681,25 @@
         <v>1.95</v>
       </c>
       <c r="AN62">
-        <v>1.56</v>
+        <v>2</v>
       </c>
       <c r="AO62">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR62">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="AS62">
-        <v>1.12</v>
+        <v>1.03</v>
       </c>
       <c r="AT62">
-        <v>2.54</v>
+        <v>2.47</v>
       </c>
       <c r="AU62">
         <v>4</v>
@@ -13887,25 +13887,25 @@
         <v>1.85</v>
       </c>
       <c r="AN63">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AO63">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ63">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR63">
-        <v>1.64</v>
+        <v>1.99</v>
       </c>
       <c r="AS63">
         <v>1.62</v>
       </c>
       <c r="AT63">
-        <v>3.26</v>
+        <v>3.61</v>
       </c>
       <c r="AU63">
         <v>5</v>
@@ -14093,22 +14093,22 @@
         <v>2.62</v>
       </c>
       <c r="AN64">
-        <v>2.2</v>
+        <v>3</v>
       </c>
       <c r="AO64">
-        <v>0.78</v>
+        <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR64">
-        <v>1.55</v>
+        <v>1.36</v>
       </c>
       <c r="AS64">
-        <v>1.52</v>
+        <v>1.71</v>
       </c>
       <c r="AT64">
         <v>3.07</v>
@@ -14299,25 +14299,25 @@
         <v>1.4</v>
       </c>
       <c r="AN65">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AO65">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AQ65">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
       </c>
       <c r="AS65">
-        <v>1.41</v>
+        <v>1.14</v>
       </c>
       <c r="AT65">
-        <v>2.61</v>
+        <v>2.34</v>
       </c>
       <c r="AU65">
         <v>5</v>
@@ -14505,25 +14505,25 @@
         <v>1.95</v>
       </c>
       <c r="AN66">
-        <v>0.7</v>
+        <v>1.25</v>
       </c>
       <c r="AO66">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AR66">
-        <v>1.47</v>
+        <v>1.29</v>
       </c>
       <c r="AS66">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AT66">
-        <v>2.72</v>
+        <v>2.29</v>
       </c>
       <c r="AU66">
         <v>5</v>
@@ -14711,22 +14711,22 @@
         <v>3.2</v>
       </c>
       <c r="AN67">
-        <v>1.64</v>
+        <v>1.83</v>
       </c>
       <c r="AO67">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="AP67">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS67">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="AT67">
         <v>2.83</v>
@@ -14917,25 +14917,25 @@
         <v>1.32</v>
       </c>
       <c r="AN68">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="AO68">
-        <v>1.64</v>
+        <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="AS68">
-        <v>1.76</v>
+        <v>1.59</v>
       </c>
       <c r="AT68">
-        <v>3.32</v>
+        <v>3.24</v>
       </c>
       <c r="AU68">
         <v>3</v>
@@ -15123,25 +15123,25 @@
         <v>1.23</v>
       </c>
       <c r="AN69">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AO69">
-        <v>2.09</v>
+        <v>2.4</v>
       </c>
       <c r="AP69">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ69">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR69">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="AS69">
-        <v>1.63</v>
+        <v>1.35</v>
       </c>
       <c r="AT69">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AU69">
         <v>3</v>
@@ -15329,25 +15329,25 @@
         <v>2.36</v>
       </c>
       <c r="AN70">
-        <v>2.27</v>
+        <v>3</v>
       </c>
       <c r="AO70">
-        <v>1.7</v>
+        <v>1</v>
       </c>
       <c r="AP70">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ70">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR70">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AS70">
         <v>1.39</v>
       </c>
       <c r="AT70">
-        <v>3.02</v>
+        <v>3.01</v>
       </c>
       <c r="AU70">
         <v>4</v>
@@ -15535,25 +15535,25 @@
         <v>1.16</v>
       </c>
       <c r="AN71">
-        <v>1.09</v>
+        <v>1.4</v>
       </c>
       <c r="AO71">
-        <v>1.58</v>
+        <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ71">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR71">
-        <v>1.43</v>
+        <v>1.67</v>
       </c>
       <c r="AS71">
-        <v>1.65</v>
+        <v>1.23</v>
       </c>
       <c r="AT71">
-        <v>3.08</v>
+        <v>2.9</v>
       </c>
       <c r="AU71">
         <v>4</v>
@@ -15741,25 +15741,25 @@
         <v>1.4</v>
       </c>
       <c r="AN72">
-        <v>0.64</v>
+        <v>0.8</v>
       </c>
       <c r="AO72">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR72">
+        <v>1.51</v>
+      </c>
+      <c r="AS72">
         <v>1.22</v>
       </c>
-      <c r="AS72">
-        <v>1.43</v>
-      </c>
       <c r="AT72">
-        <v>2.65</v>
+        <v>2.73</v>
       </c>
       <c r="AU72">
         <v>5</v>
@@ -15947,22 +15947,22 @@
         <v>1.55</v>
       </c>
       <c r="AN73">
-        <v>1.82</v>
+        <v>2.17</v>
       </c>
       <c r="AO73">
-        <v>0.92</v>
+        <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ73">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR73">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="AS73">
-        <v>1.51</v>
+        <v>1.48</v>
       </c>
       <c r="AT73">
         <v>2.86</v>
@@ -16153,25 +16153,25 @@
         <v>2.4</v>
       </c>
       <c r="AN74">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AO74">
-        <v>0.73</v>
+        <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR74">
-        <v>1.64</v>
+        <v>1.86</v>
       </c>
       <c r="AS74">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AT74">
-        <v>3.09</v>
+        <v>3.45</v>
       </c>
       <c r="AU74">
         <v>3</v>
@@ -16359,25 +16359,25 @@
         <v>1.9</v>
       </c>
       <c r="AN75">
+        <v>1.67</v>
+      </c>
+      <c r="AO75">
+        <v>1.4</v>
+      </c>
+      <c r="AP75">
         <v>1.75</v>
       </c>
-      <c r="AO75">
-        <v>1.75</v>
-      </c>
-      <c r="AP75">
-        <v>1.63</v>
-      </c>
       <c r="AQ75">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR75">
-        <v>1.74</v>
+        <v>1.91</v>
       </c>
       <c r="AS75">
-        <v>1.74</v>
+        <v>1.61</v>
       </c>
       <c r="AT75">
-        <v>3.48</v>
+        <v>3.52</v>
       </c>
       <c r="AU75">
         <v>6</v>
@@ -16565,25 +16565,25 @@
         <v>1.32</v>
       </c>
       <c r="AN76">
-        <v>0.55</v>
+        <v>1</v>
       </c>
       <c r="AO76">
-        <v>1.18</v>
+        <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="AR76">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="AS76">
         <v>1.18</v>
       </c>
       <c r="AT76">
-        <v>2.39</v>
+        <v>2.41</v>
       </c>
       <c r="AU76">
         <v>2</v>
@@ -16771,25 +16771,25 @@
         <v>1.62</v>
       </c>
       <c r="AN77">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AO77">
-        <v>2.08</v>
+        <v>1.86</v>
       </c>
       <c r="AP77">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="AQ77">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR77">
-        <v>1.69</v>
+        <v>1.95</v>
       </c>
       <c r="AS77">
-        <v>1.72</v>
+        <v>1.63</v>
       </c>
       <c r="AT77">
-        <v>3.41</v>
+        <v>3.58</v>
       </c>
       <c r="AU77">
         <v>6</v>
@@ -16977,25 +16977,25 @@
         <v>1.55</v>
       </c>
       <c r="AN78">
-        <v>0.92</v>
+        <v>1.33</v>
       </c>
       <c r="AO78">
-        <v>1.92</v>
+        <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.67</v>
+        <v>1.86</v>
       </c>
       <c r="AR78">
-        <v>1.61</v>
+        <v>1.54</v>
       </c>
       <c r="AS78">
-        <v>1.65</v>
+        <v>1.42</v>
       </c>
       <c r="AT78">
-        <v>3.26</v>
+        <v>2.96</v>
       </c>
       <c r="AU78">
         <v>7</v>
@@ -17183,25 +17183,25 @@
         <v>1.21</v>
       </c>
       <c r="AN79">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AO79">
-        <v>1.92</v>
+        <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ79">
-        <v>1.87</v>
+        <v>1.44</v>
       </c>
       <c r="AR79">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AS79">
-        <v>1.67</v>
+        <v>1.56</v>
       </c>
       <c r="AT79">
-        <v>3.14</v>
+        <v>2.84</v>
       </c>
       <c r="AU79">
         <v>2</v>
@@ -17389,25 +17389,25 @@
         <v>2.2</v>
       </c>
       <c r="AN80">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AO80">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AP80">
-        <v>1.87</v>
+        <v>2.13</v>
       </c>
       <c r="AQ80">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR80">
-        <v>1.7</v>
+        <v>1.84</v>
       </c>
       <c r="AS80">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AT80">
-        <v>3.03</v>
+        <v>3.14</v>
       </c>
       <c r="AU80">
         <v>5</v>
@@ -17595,25 +17595,25 @@
         <v>1.12</v>
       </c>
       <c r="AN81">
-        <v>0.67</v>
+        <v>0.83</v>
       </c>
       <c r="AO81">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ81">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
-        <v>1.23</v>
+        <v>1.47</v>
       </c>
       <c r="AS81">
-        <v>1.73</v>
+        <v>1.56</v>
       </c>
       <c r="AT81">
-        <v>2.96</v>
+        <v>3.03</v>
       </c>
       <c r="AU81">
         <v>4</v>
@@ -17801,25 +17801,25 @@
         <v>1.2</v>
       </c>
       <c r="AN82">
+        <v>1.5</v>
+      </c>
+      <c r="AO82">
         <v>1.33</v>
       </c>
-      <c r="AO82">
-        <v>1.79</v>
-      </c>
       <c r="AP82">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ82">
-        <v>1.75</v>
+        <v>1.38</v>
       </c>
       <c r="AR82">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AS82">
-        <v>1.68</v>
+        <v>1.39</v>
       </c>
       <c r="AT82">
-        <v>2.88</v>
+        <v>2.56</v>
       </c>
       <c r="AU82">
         <v>4</v>
@@ -18007,25 +18007,25 @@
         <v>2.3</v>
       </c>
       <c r="AN83">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO83">
-        <v>0.5</v>
+        <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>0.87</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR83">
-        <v>1.5</v>
+        <v>1.64</v>
       </c>
       <c r="AS83">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AT83">
-        <v>2.66</v>
+        <v>2.83</v>
       </c>
       <c r="AU83">
         <v>6</v>
@@ -18213,25 +18213,25 @@
         <v>1.65</v>
       </c>
       <c r="AN84">
-        <v>1.64</v>
+        <v>1.57</v>
       </c>
       <c r="AO84">
+        <v>1.57</v>
+      </c>
+      <c r="AP84">
+        <v>1.75</v>
+      </c>
+      <c r="AQ84">
+        <v>1.38</v>
+      </c>
+      <c r="AR84">
         <v>1.87</v>
       </c>
-      <c r="AP84">
-        <v>1.63</v>
-      </c>
-      <c r="AQ84">
-        <v>1.75</v>
-      </c>
-      <c r="AR84">
-        <v>1.76</v>
-      </c>
       <c r="AS84">
-        <v>1.68</v>
+        <v>1.41</v>
       </c>
       <c r="AT84">
-        <v>3.44</v>
+        <v>3.28</v>
       </c>
       <c r="AU84">
         <v>6</v>
@@ -18419,25 +18419,25 @@
         <v>3.75</v>
       </c>
       <c r="AN85">
-        <v>1.79</v>
+        <v>1.71</v>
       </c>
       <c r="AO85">
-        <v>0.6899999999999999</v>
+        <v>0.57</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>0.8</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
-        <v>1.6</v>
+        <v>1.85</v>
       </c>
       <c r="AS85">
-        <v>1.19</v>
+        <v>1.24</v>
       </c>
       <c r="AT85">
-        <v>2.79</v>
+        <v>3.09</v>
       </c>
       <c r="AU85">
         <v>4</v>
@@ -18625,25 +18625,25 @@
         <v>1.65</v>
       </c>
       <c r="AN86">
-        <v>1.23</v>
+        <v>1.29</v>
       </c>
       <c r="AO86">
-        <v>1.62</v>
+        <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ86">
-        <v>1.8</v>
+        <v>1.43</v>
       </c>
       <c r="AR86">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AS86">
         <v>1.34</v>
       </c>
       <c r="AT86">
-        <v>2.56</v>
+        <v>2.55</v>
       </c>
       <c r="AU86">
         <v>7</v>
@@ -18831,25 +18831,25 @@
         <v>2.95</v>
       </c>
       <c r="AN87">
-        <v>1.79</v>
+        <v>2.4</v>
       </c>
       <c r="AO87">
-        <v>0.93</v>
+        <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>1.87</v>
+        <v>2.5</v>
       </c>
       <c r="AQ87">
-        <v>0.87</v>
+        <v>0.75</v>
       </c>
       <c r="AR87">
-        <v>1.65</v>
+        <v>1.85</v>
       </c>
       <c r="AS87">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AT87">
-        <v>3.21</v>
+        <v>3.23</v>
       </c>
       <c r="AU87">
         <v>5</v>
@@ -19037,25 +19037,25 @@
         <v>1.36</v>
       </c>
       <c r="AN88">
-        <v>0.92</v>
+        <v>1.5</v>
       </c>
       <c r="AO88">
-        <v>1.79</v>
+        <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AQ88">
-        <v>1.87</v>
+        <v>1.57</v>
       </c>
       <c r="AR88">
-        <v>1.43</v>
+        <v>1.22</v>
       </c>
       <c r="AS88">
-        <v>1.71</v>
+        <v>1.54</v>
       </c>
       <c r="AT88">
-        <v>3.14</v>
+        <v>2.76</v>
       </c>
       <c r="AU88">
         <v>7</v>
@@ -19243,25 +19243,25 @@
         <v>2.6</v>
       </c>
       <c r="AN89">
-        <v>1.07</v>
+        <v>1.57</v>
       </c>
       <c r="AO89">
-        <v>0.6899999999999999</v>
+        <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.31</v>
+        <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>0.6</v>
+        <v>0.43</v>
       </c>
       <c r="AR89">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AS89">
-        <v>1.24</v>
+        <v>0.98</v>
       </c>
       <c r="AT89">
-        <v>2.86</v>
+        <v>2.56</v>
       </c>
       <c r="AU89">
         <v>9</v>
@@ -19449,25 +19449,25 @@
         <v>1.14</v>
       </c>
       <c r="AN90">
-        <v>0.86</v>
+        <v>0.83</v>
       </c>
       <c r="AO90">
-        <v>1.2</v>
+        <v>0.57</v>
       </c>
       <c r="AP90">
-        <v>0.8</v>
+        <v>0.71</v>
       </c>
       <c r="AQ90">
-        <v>1.31</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
-        <v>1.22</v>
+        <v>1.13</v>
       </c>
       <c r="AS90">
         <v>1.66</v>
       </c>
       <c r="AT90">
-        <v>2.88</v>
+        <v>2.79</v>
       </c>
       <c r="AU90">
         <v>0</v>
@@ -19655,25 +19655,25 @@
         <v>1.38</v>
       </c>
       <c r="AN91">
-        <v>0.64</v>
+        <v>0.86</v>
       </c>
       <c r="AO91">
-        <v>0.86</v>
+        <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>0.6</v>
+        <v>0.75</v>
       </c>
       <c r="AQ91">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AR91">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AS91">
-        <v>1.43</v>
+        <v>1.61</v>
       </c>
       <c r="AT91">
-        <v>2.63</v>
+        <v>3.08</v>
       </c>
       <c r="AU91">
         <v>8</v>
@@ -19861,25 +19861,25 @@
         <v>1.25</v>
       </c>
       <c r="AN92">
+        <v>2</v>
+      </c>
+      <c r="AO92">
         <v>1.71</v>
       </c>
-      <c r="AO92">
-        <v>1.73</v>
-      </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>2.13</v>
       </c>
       <c r="AQ92">
-        <v>1.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="AS92">
-        <v>1.74</v>
+        <v>1.65</v>
       </c>
       <c r="AT92">
-        <v>3.06</v>
+        <v>2.99</v>
       </c>
       <c r="AU92">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="614" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="209">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -463,6 +463,15 @@
     <t>['30', '46', '85', '90+1']</t>
   </si>
   <si>
+    <t>['68', '80']</t>
+  </si>
+  <si>
+    <t>['10', '77', '90']</t>
+  </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -536,9 +545,6 @@
   </si>
   <si>
     <t>['77']</t>
-  </si>
-  <si>
-    <t>['73']</t>
   </si>
   <si>
     <t>['21', '49', '59']</t>
@@ -629,6 +635,12 @@
   </si>
   <si>
     <t>['31', '41', '80']</t>
+  </si>
+  <si>
+    <t>['59', '67', '82', '87']</t>
+  </si>
+  <si>
+    <t>['34', '45']</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1002,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP97"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1249,7 +1261,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1533,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ3">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1661,7 +1673,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1867,7 +1879,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -1945,10 +1957,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2073,7 +2085,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2154,7 +2166,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ6">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2279,7 +2291,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2357,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ7">
         <v>1.38</v>
@@ -2563,10 +2575,10 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ8">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2691,7 +2703,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2772,7 +2784,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ9">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2897,7 +2909,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -2978,7 +2990,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3103,7 +3115,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3309,7 +3321,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3387,7 +3399,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ12">
         <v>0.75</v>
@@ -3515,7 +3527,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3593,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>1.44</v>
@@ -4133,7 +4145,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4211,7 +4223,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
@@ -4420,7 +4432,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ17">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4545,7 +4557,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4751,7 +4763,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4957,7 +4969,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5163,7 +5175,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5244,7 +5256,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5369,7 +5381,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5575,7 +5587,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5781,7 +5793,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5859,10 +5871,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6068,7 +6080,7 @@
         <v>1</v>
       </c>
       <c r="AQ25">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6193,7 +6205,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6271,7 +6283,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ26">
         <v>1.5</v>
@@ -6480,7 +6492,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6605,7 +6617,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6683,7 +6695,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ28">
         <v>0.75</v>
@@ -6889,10 +6901,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ29">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -7017,7 +7029,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7223,7 +7235,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7304,7 +7316,7 @@
         <v>1</v>
       </c>
       <c r="AQ31">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7429,7 +7441,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7507,7 +7519,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ32">
         <v>0.88</v>
@@ -7635,7 +7647,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7713,10 +7725,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ33">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7922,7 +7934,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ34">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8047,7 +8059,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8125,7 +8137,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>0.75</v>
@@ -8459,7 +8471,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8871,7 +8883,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8949,10 +8961,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ39">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9077,7 +9089,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9155,7 +9167,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
         <v>1.17</v>
@@ -9283,7 +9295,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9567,10 +9579,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ42">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9901,7 +9913,7 @@
         <v>115</v>
       </c>
       <c r="P44" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="Q44">
         <v>3.3</v>
@@ -9982,7 +9994,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10107,7 +10119,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10391,7 +10403,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ46">
         <v>0.75</v>
@@ -10597,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ47">
         <v>0.88</v>
@@ -10725,7 +10737,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11009,7 +11021,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11137,7 +11149,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11215,10 +11227,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ50">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11343,7 +11355,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11421,7 +11433,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ51">
         <v>0.75</v>
@@ -11549,7 +11561,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11630,7 +11642,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ52">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11961,7 +11973,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12042,7 +12054,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ54">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12167,7 +12179,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12245,7 +12257,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ55">
         <v>1.44</v>
@@ -12373,7 +12385,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12657,7 +12669,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.38</v>
@@ -12785,7 +12797,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12866,7 +12878,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -12991,7 +13003,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13072,7 +13084,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ59">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13197,7 +13209,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="Q60">
         <v>3.4</v>
@@ -13403,7 +13415,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13815,7 +13827,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13893,10 +13905,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ63">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14021,7 +14033,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14099,7 +14111,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ64">
         <v>0.75</v>
@@ -14433,7 +14445,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14511,10 +14523,10 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14639,7 +14651,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14720,7 +14732,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR67">
         <v>1.63</v>
@@ -14845,7 +14857,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15129,10 +15141,10 @@
         <v>2.4</v>
       </c>
       <c r="AP69">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15335,10 +15347,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ70">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15463,7 +15475,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15669,7 +15681,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16287,7 +16299,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16365,10 +16377,10 @@
         <v>1.4</v>
       </c>
       <c r="AP75">
+        <v>1.89</v>
+      </c>
+      <c r="AQ75">
         <v>1.75</v>
-      </c>
-      <c r="AQ75">
-        <v>1.57</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16493,7 +16505,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16699,7 +16711,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16777,7 +16789,7 @@
         <v>1.86</v>
       </c>
       <c r="AP77">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AQ77">
         <v>1.44</v>
@@ -16905,7 +16917,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -16986,7 +16998,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ78">
-        <v>1.86</v>
+        <v>1.63</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17189,7 +17201,7 @@
         <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.44</v>
@@ -17317,7 +17329,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17398,7 +17410,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ80">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -17523,7 +17535,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17729,7 +17741,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17807,7 +17819,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ82">
         <v>1.38</v>
@@ -17935,7 +17947,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18016,7 +18028,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR83">
         <v>1.64</v>
@@ -18219,7 +18231,7 @@
         <v>1.57</v>
       </c>
       <c r="AP84">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ84">
         <v>1.38</v>
@@ -18347,7 +18359,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18428,7 +18440,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR85">
         <v>1.85</v>
@@ -18553,7 +18565,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18631,10 +18643,10 @@
         <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.43</v>
+        <v>1.25</v>
       </c>
       <c r="AR86">
         <v>1.21</v>
@@ -18759,7 +18771,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18837,7 +18849,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="AQ87">
         <v>0.75</v>
@@ -18965,7 +18977,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19043,10 +19055,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19252,7 +19264,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ89">
-        <v>0.43</v>
+        <v>0.38</v>
       </c>
       <c r="AR89">
         <v>1.58</v>
@@ -19377,7 +19389,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19583,7 +19595,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19789,7 +19801,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -19946,6 +19958,1036 @@
       </c>
       <c r="BP92">
         <v>1.61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:68">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93">
+        <v>7325423</v>
+      </c>
+      <c r="C93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F93">
+        <v>16</v>
+      </c>
+      <c r="G93" t="s">
+        <v>76</v>
+      </c>
+      <c r="H93" t="s">
+        <v>74</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93">
+        <v>0</v>
+      </c>
+      <c r="K93">
+        <v>1</v>
+      </c>
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>0</v>
+      </c>
+      <c r="N93">
+        <v>2</v>
+      </c>
+      <c r="O93" t="s">
+        <v>126</v>
+      </c>
+      <c r="P93" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q93">
+        <v>2</v>
+      </c>
+      <c r="R93">
+        <v>2.4</v>
+      </c>
+      <c r="S93">
+        <v>6</v>
+      </c>
+      <c r="T93">
+        <v>1.33</v>
+      </c>
+      <c r="U93">
+        <v>3.25</v>
+      </c>
+      <c r="V93">
+        <v>2.5</v>
+      </c>
+      <c r="W93">
+        <v>1.5</v>
+      </c>
+      <c r="X93">
+        <v>6</v>
+      </c>
+      <c r="Y93">
+        <v>1.13</v>
+      </c>
+      <c r="Z93">
+        <v>1.57</v>
+      </c>
+      <c r="AA93">
+        <v>3.75</v>
+      </c>
+      <c r="AB93">
+        <v>5.25</v>
+      </c>
+      <c r="AC93">
+        <v>1.03</v>
+      </c>
+      <c r="AD93">
+        <v>13</v>
+      </c>
+      <c r="AE93">
+        <v>1.22</v>
+      </c>
+      <c r="AF93">
+        <v>4.33</v>
+      </c>
+      <c r="AG93">
+        <v>1.71</v>
+      </c>
+      <c r="AH93">
+        <v>2.14</v>
+      </c>
+      <c r="AI93">
+        <v>1.8</v>
+      </c>
+      <c r="AJ93">
+        <v>1.95</v>
+      </c>
+      <c r="AK93">
+        <v>1.13</v>
+      </c>
+      <c r="AL93">
+        <v>1.22</v>
+      </c>
+      <c r="AM93">
+        <v>2.5</v>
+      </c>
+      <c r="AN93">
+        <v>2.13</v>
+      </c>
+      <c r="AO93">
+        <v>1.43</v>
+      </c>
+      <c r="AP93">
+        <v>2.22</v>
+      </c>
+      <c r="AQ93">
+        <v>1.25</v>
+      </c>
+      <c r="AR93">
+        <v>1.91</v>
+      </c>
+      <c r="AS93">
+        <v>1.29</v>
+      </c>
+      <c r="AT93">
+        <v>3.2</v>
+      </c>
+      <c r="AU93">
+        <v>10</v>
+      </c>
+      <c r="AV93">
+        <v>2</v>
+      </c>
+      <c r="AW93">
+        <v>8</v>
+      </c>
+      <c r="AX93">
+        <v>7</v>
+      </c>
+      <c r="AY93">
+        <v>18</v>
+      </c>
+      <c r="AZ93">
+        <v>9</v>
+      </c>
+      <c r="BA93">
+        <v>6</v>
+      </c>
+      <c r="BB93">
+        <v>4</v>
+      </c>
+      <c r="BC93">
+        <v>10</v>
+      </c>
+      <c r="BD93">
+        <v>1.18</v>
+      </c>
+      <c r="BE93">
+        <v>10</v>
+      </c>
+      <c r="BF93">
+        <v>6.95</v>
+      </c>
+      <c r="BG93">
+        <v>1.15</v>
+      </c>
+      <c r="BH93">
+        <v>4.5</v>
+      </c>
+      <c r="BI93">
+        <v>1.31</v>
+      </c>
+      <c r="BJ93">
+        <v>3.04</v>
+      </c>
+      <c r="BK93">
+        <v>1.57</v>
+      </c>
+      <c r="BL93">
+        <v>2.25</v>
+      </c>
+      <c r="BM93">
+        <v>2</v>
+      </c>
+      <c r="BN93">
+        <v>1.8</v>
+      </c>
+      <c r="BO93">
+        <v>2.52</v>
+      </c>
+      <c r="BP93">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:68">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94">
+        <v>7325424</v>
+      </c>
+      <c r="C94" t="s">
+        <v>68</v>
+      </c>
+      <c r="D94" t="s">
+        <v>69</v>
+      </c>
+      <c r="E94" s="2">
+        <v>45493.45833333334</v>
+      </c>
+      <c r="F94">
+        <v>16</v>
+      </c>
+      <c r="G94" t="s">
+        <v>81</v>
+      </c>
+      <c r="H94" t="s">
+        <v>80</v>
+      </c>
+      <c r="I94">
+        <v>0</v>
+      </c>
+      <c r="J94">
+        <v>0</v>
+      </c>
+      <c r="K94">
+        <v>0</v>
+      </c>
+      <c r="L94">
+        <v>2</v>
+      </c>
+      <c r="M94">
+        <v>0</v>
+      </c>
+      <c r="N94">
+        <v>2</v>
+      </c>
+      <c r="O94" t="s">
+        <v>149</v>
+      </c>
+      <c r="P94" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q94">
+        <v>2.25</v>
+      </c>
+      <c r="R94">
+        <v>2.3</v>
+      </c>
+      <c r="S94">
+        <v>5</v>
+      </c>
+      <c r="T94">
+        <v>1.33</v>
+      </c>
+      <c r="U94">
+        <v>3.25</v>
+      </c>
+      <c r="V94">
+        <v>2.63</v>
+      </c>
+      <c r="W94">
+        <v>1.44</v>
+      </c>
+      <c r="X94">
+        <v>6.5</v>
+      </c>
+      <c r="Y94">
+        <v>1.11</v>
+      </c>
+      <c r="Z94">
+        <v>1.66</v>
+      </c>
+      <c r="AA94">
+        <v>3.7</v>
+      </c>
+      <c r="AB94">
+        <v>4.35</v>
+      </c>
+      <c r="AC94">
+        <v>1.02</v>
+      </c>
+      <c r="AD94">
+        <v>10.5</v>
+      </c>
+      <c r="AE94">
+        <v>1.18</v>
+      </c>
+      <c r="AF94">
+        <v>4.05</v>
+      </c>
+      <c r="AG94">
+        <v>1.75</v>
+      </c>
+      <c r="AH94">
+        <v>2.08</v>
+      </c>
+      <c r="AI94">
+        <v>1.75</v>
+      </c>
+      <c r="AJ94">
+        <v>2</v>
+      </c>
+      <c r="AK94">
+        <v>1.19</v>
+      </c>
+      <c r="AL94">
+        <v>1.24</v>
+      </c>
+      <c r="AM94">
+        <v>2.18</v>
+      </c>
+      <c r="AN94">
+        <v>1.29</v>
+      </c>
+      <c r="AO94">
+        <v>0.88</v>
+      </c>
+      <c r="AP94">
+        <v>1.5</v>
+      </c>
+      <c r="AQ94">
+        <v>0.78</v>
+      </c>
+      <c r="AR94">
+        <v>1.25</v>
+      </c>
+      <c r="AS94">
+        <v>1.29</v>
+      </c>
+      <c r="AT94">
+        <v>2.54</v>
+      </c>
+      <c r="AU94">
+        <v>6</v>
+      </c>
+      <c r="AV94">
+        <v>3</v>
+      </c>
+      <c r="AW94">
+        <v>0</v>
+      </c>
+      <c r="AX94">
+        <v>7</v>
+      </c>
+      <c r="AY94">
+        <v>6</v>
+      </c>
+      <c r="AZ94">
+        <v>10</v>
+      </c>
+      <c r="BA94">
+        <v>3</v>
+      </c>
+      <c r="BB94">
+        <v>3</v>
+      </c>
+      <c r="BC94">
+        <v>6</v>
+      </c>
+      <c r="BD94">
+        <v>1.59</v>
+      </c>
+      <c r="BE94">
+        <v>6.9</v>
+      </c>
+      <c r="BF94">
+        <v>3.12</v>
+      </c>
+      <c r="BG94">
+        <v>1.25</v>
+      </c>
+      <c r="BH94">
+        <v>3.42</v>
+      </c>
+      <c r="BI94">
+        <v>1.48</v>
+      </c>
+      <c r="BJ94">
+        <v>2.47</v>
+      </c>
+      <c r="BK94">
+        <v>1.88</v>
+      </c>
+      <c r="BL94">
+        <v>1.92</v>
+      </c>
+      <c r="BM94">
+        <v>2.36</v>
+      </c>
+      <c r="BN94">
+        <v>1.52</v>
+      </c>
+      <c r="BO94">
+        <v>3.18</v>
+      </c>
+      <c r="BP94">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:68">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95">
+        <v>7325425</v>
+      </c>
+      <c r="C95" t="s">
+        <v>68</v>
+      </c>
+      <c r="D95" t="s">
+        <v>69</v>
+      </c>
+      <c r="E95" s="2">
+        <v>45494.375</v>
+      </c>
+      <c r="F95">
+        <v>16</v>
+      </c>
+      <c r="G95" t="s">
+        <v>73</v>
+      </c>
+      <c r="H95" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95">
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <v>0</v>
+      </c>
+      <c r="K95">
+        <v>0</v>
+      </c>
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <v>4</v>
+      </c>
+      <c r="N95">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>83</v>
+      </c>
+      <c r="P95" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q95">
+        <v>4.75</v>
+      </c>
+      <c r="R95">
+        <v>2.3</v>
+      </c>
+      <c r="S95">
+        <v>2.3</v>
+      </c>
+      <c r="T95">
+        <v>1.33</v>
+      </c>
+      <c r="U95">
+        <v>3.25</v>
+      </c>
+      <c r="V95">
+        <v>2.63</v>
+      </c>
+      <c r="W95">
+        <v>1.44</v>
+      </c>
+      <c r="X95">
+        <v>6.5</v>
+      </c>
+      <c r="Y95">
+        <v>1.11</v>
+      </c>
+      <c r="Z95">
+        <v>4.5</v>
+      </c>
+      <c r="AA95">
+        <v>3.9</v>
+      </c>
+      <c r="AB95">
+        <v>1.74</v>
+      </c>
+      <c r="AC95">
+        <v>1.04</v>
+      </c>
+      <c r="AD95">
+        <v>13</v>
+      </c>
+      <c r="AE95">
+        <v>1.25</v>
+      </c>
+      <c r="AF95">
+        <v>4</v>
+      </c>
+      <c r="AG95">
+        <v>1.73</v>
+      </c>
+      <c r="AH95">
+        <v>1.99</v>
+      </c>
+      <c r="AI95">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95">
+        <v>2.05</v>
+      </c>
+      <c r="AK95">
+        <v>2.15</v>
+      </c>
+      <c r="AL95">
+        <v>1.3</v>
+      </c>
+      <c r="AM95">
+        <v>1.22</v>
+      </c>
+      <c r="AN95">
+        <v>1.13</v>
+      </c>
+      <c r="AO95">
+        <v>1.57</v>
+      </c>
+      <c r="AP95">
+        <v>1</v>
+      </c>
+      <c r="AQ95">
+        <v>1.75</v>
+      </c>
+      <c r="AR95">
+        <v>1.27</v>
+      </c>
+      <c r="AS95">
+        <v>1.54</v>
+      </c>
+      <c r="AT95">
+        <v>2.81</v>
+      </c>
+      <c r="AU95">
+        <v>0</v>
+      </c>
+      <c r="AV95">
+        <v>10</v>
+      </c>
+      <c r="AW95">
+        <v>4</v>
+      </c>
+      <c r="AX95">
+        <v>17</v>
+      </c>
+      <c r="AY95">
+        <v>4</v>
+      </c>
+      <c r="AZ95">
+        <v>27</v>
+      </c>
+      <c r="BA95">
+        <v>2</v>
+      </c>
+      <c r="BB95">
+        <v>10</v>
+      </c>
+      <c r="BC95">
+        <v>12</v>
+      </c>
+      <c r="BD95">
+        <v>2.9</v>
+      </c>
+      <c r="BE95">
+        <v>7.5</v>
+      </c>
+      <c r="BF95">
+        <v>1.58</v>
+      </c>
+      <c r="BG95">
+        <v>1.18</v>
+      </c>
+      <c r="BH95">
+        <v>4.5</v>
+      </c>
+      <c r="BI95">
+        <v>1.34</v>
+      </c>
+      <c r="BJ95">
+        <v>3.1</v>
+      </c>
+      <c r="BK95">
+        <v>1.61</v>
+      </c>
+      <c r="BL95">
+        <v>2.23</v>
+      </c>
+      <c r="BM95">
+        <v>2.02</v>
+      </c>
+      <c r="BN95">
+        <v>1.74</v>
+      </c>
+      <c r="BO95">
+        <v>2.7</v>
+      </c>
+      <c r="BP95">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="96" spans="1:68">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96">
+        <v>7325426</v>
+      </c>
+      <c r="C96" t="s">
+        <v>68</v>
+      </c>
+      <c r="D96" t="s">
+        <v>69</v>
+      </c>
+      <c r="E96" s="2">
+        <v>45494.45833333334</v>
+      </c>
+      <c r="F96">
+        <v>16</v>
+      </c>
+      <c r="G96" t="s">
+        <v>71</v>
+      </c>
+      <c r="H96" t="s">
+        <v>77</v>
+      </c>
+      <c r="I96">
+        <v>1</v>
+      </c>
+      <c r="J96">
+        <v>2</v>
+      </c>
+      <c r="K96">
+        <v>3</v>
+      </c>
+      <c r="L96">
+        <v>3</v>
+      </c>
+      <c r="M96">
+        <v>2</v>
+      </c>
+      <c r="N96">
+        <v>5</v>
+      </c>
+      <c r="O96" t="s">
+        <v>150</v>
+      </c>
+      <c r="P96" t="s">
+        <v>208</v>
+      </c>
+      <c r="Q96">
+        <v>2.25</v>
+      </c>
+      <c r="R96">
+        <v>2.4</v>
+      </c>
+      <c r="S96">
+        <v>4.5</v>
+      </c>
+      <c r="T96">
+        <v>1.3</v>
+      </c>
+      <c r="U96">
+        <v>3.4</v>
+      </c>
+      <c r="V96">
+        <v>2.38</v>
+      </c>
+      <c r="W96">
+        <v>1.53</v>
+      </c>
+      <c r="X96">
+        <v>6</v>
+      </c>
+      <c r="Y96">
+        <v>1.13</v>
+      </c>
+      <c r="Z96">
+        <v>1.64</v>
+      </c>
+      <c r="AA96">
+        <v>3.56</v>
+      </c>
+      <c r="AB96">
+        <v>4</v>
+      </c>
+      <c r="AC96">
+        <v>1.02</v>
+      </c>
+      <c r="AD96">
+        <v>17</v>
+      </c>
+      <c r="AE96">
+        <v>1.18</v>
+      </c>
+      <c r="AF96">
+        <v>4.75</v>
+      </c>
+      <c r="AG96">
+        <v>1.62</v>
+      </c>
+      <c r="AH96">
+        <v>2.25</v>
+      </c>
+      <c r="AI96">
+        <v>1.62</v>
+      </c>
+      <c r="AJ96">
+        <v>2.2</v>
+      </c>
+      <c r="AK96">
+        <v>1.22</v>
+      </c>
+      <c r="AL96">
+        <v>1.25</v>
+      </c>
+      <c r="AM96">
+        <v>2.2</v>
+      </c>
+      <c r="AN96">
+        <v>1.75</v>
+      </c>
+      <c r="AO96">
+        <v>1.86</v>
+      </c>
+      <c r="AP96">
+        <v>1.89</v>
+      </c>
+      <c r="AQ96">
+        <v>1.63</v>
+      </c>
+      <c r="AR96">
+        <v>1.83</v>
+      </c>
+      <c r="AS96">
+        <v>1.35</v>
+      </c>
+      <c r="AT96">
+        <v>3.18</v>
+      </c>
+      <c r="AU96">
+        <v>4</v>
+      </c>
+      <c r="AV96">
+        <v>4</v>
+      </c>
+      <c r="AW96">
+        <v>5</v>
+      </c>
+      <c r="AX96">
+        <v>11</v>
+      </c>
+      <c r="AY96">
+        <v>9</v>
+      </c>
+      <c r="AZ96">
+        <v>15</v>
+      </c>
+      <c r="BA96">
+        <v>2</v>
+      </c>
+      <c r="BB96">
+        <v>7</v>
+      </c>
+      <c r="BC96">
+        <v>9</v>
+      </c>
+      <c r="BD96">
+        <v>1.43</v>
+      </c>
+      <c r="BE96">
+        <v>7.6</v>
+      </c>
+      <c r="BF96">
+        <v>3.8</v>
+      </c>
+      <c r="BG96">
+        <v>1.12</v>
+      </c>
+      <c r="BH96">
+        <v>4.95</v>
+      </c>
+      <c r="BI96">
+        <v>1.27</v>
+      </c>
+      <c r="BJ96">
+        <v>3.28</v>
+      </c>
+      <c r="BK96">
+        <v>1.5</v>
+      </c>
+      <c r="BL96">
+        <v>2.41</v>
+      </c>
+      <c r="BM96">
+        <v>2</v>
+      </c>
+      <c r="BN96">
+        <v>1.8</v>
+      </c>
+      <c r="BO96">
+        <v>2.34</v>
+      </c>
+      <c r="BP96">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="97" spans="1:68">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97">
+        <v>7325427</v>
+      </c>
+      <c r="C97" t="s">
+        <v>68</v>
+      </c>
+      <c r="D97" t="s">
+        <v>69</v>
+      </c>
+      <c r="E97" s="2">
+        <v>45494.52083333334</v>
+      </c>
+      <c r="F97">
+        <v>16</v>
+      </c>
+      <c r="G97" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" t="s">
+        <v>79</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97">
+        <v>0</v>
+      </c>
+      <c r="L97">
+        <v>1</v>
+      </c>
+      <c r="M97">
+        <v>0</v>
+      </c>
+      <c r="N97">
+        <v>1</v>
+      </c>
+      <c r="O97" t="s">
+        <v>151</v>
+      </c>
+      <c r="P97" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q97">
+        <v>1.83</v>
+      </c>
+      <c r="R97">
+        <v>2.5</v>
+      </c>
+      <c r="S97">
+        <v>7.5</v>
+      </c>
+      <c r="T97">
+        <v>1.33</v>
+      </c>
+      <c r="U97">
+        <v>3.25</v>
+      </c>
+      <c r="V97">
+        <v>2.5</v>
+      </c>
+      <c r="W97">
+        <v>1.5</v>
+      </c>
+      <c r="X97">
+        <v>6.5</v>
+      </c>
+      <c r="Y97">
+        <v>1.11</v>
+      </c>
+      <c r="Z97">
+        <v>1.4</v>
+      </c>
+      <c r="AA97">
+        <v>4.5</v>
+      </c>
+      <c r="AB97">
+        <v>6.5</v>
+      </c>
+      <c r="AC97">
+        <v>1.03</v>
+      </c>
+      <c r="AD97">
+        <v>13</v>
+      </c>
+      <c r="AE97">
+        <v>1.22</v>
+      </c>
+      <c r="AF97">
+        <v>4.2</v>
+      </c>
+      <c r="AG97">
+        <v>1.73</v>
+      </c>
+      <c r="AH97">
+        <v>2.12</v>
+      </c>
+      <c r="AI97">
+        <v>2</v>
+      </c>
+      <c r="AJ97">
+        <v>1.75</v>
+      </c>
+      <c r="AK97">
+        <v>1.08</v>
+      </c>
+      <c r="AL97">
+        <v>1.2</v>
+      </c>
+      <c r="AM97">
+        <v>3.5</v>
+      </c>
+      <c r="AN97">
+        <v>2.5</v>
+      </c>
+      <c r="AO97">
+        <v>0.43</v>
+      </c>
+      <c r="AP97">
+        <v>2.57</v>
+      </c>
+      <c r="AQ97">
+        <v>0.38</v>
+      </c>
+      <c r="AR97">
+        <v>1.79</v>
+      </c>
+      <c r="AS97">
+        <v>0.93</v>
+      </c>
+      <c r="AT97">
+        <v>2.72</v>
+      </c>
+      <c r="AU97">
+        <v>3</v>
+      </c>
+      <c r="AV97">
+        <v>0</v>
+      </c>
+      <c r="AW97">
+        <v>3</v>
+      </c>
+      <c r="AX97">
+        <v>2</v>
+      </c>
+      <c r="AY97">
+        <v>6</v>
+      </c>
+      <c r="AZ97">
+        <v>2</v>
+      </c>
+      <c r="BA97">
+        <v>5</v>
+      </c>
+      <c r="BB97">
+        <v>6</v>
+      </c>
+      <c r="BC97">
+        <v>11</v>
+      </c>
+      <c r="BD97">
+        <v>1.12</v>
+      </c>
+      <c r="BE97">
+        <v>11.25</v>
+      </c>
+      <c r="BF97">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BG97">
+        <v>1.19</v>
+      </c>
+      <c r="BH97">
+        <v>3.92</v>
+      </c>
+      <c r="BI97">
+        <v>1.39</v>
+      </c>
+      <c r="BJ97">
+        <v>2.76</v>
+      </c>
+      <c r="BK97">
+        <v>1.71</v>
+      </c>
+      <c r="BL97">
+        <v>2.06</v>
+      </c>
+      <c r="BM97">
+        <v>2.14</v>
+      </c>
+      <c r="BN97">
+        <v>1.63</v>
+      </c>
+      <c r="BO97">
+        <v>2.79</v>
+      </c>
+      <c r="BP97">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="211">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -472,6 +472,9 @@
     <t>['73']</t>
   </si>
   <si>
+    <t>['27', '71']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -641,6 +644,9 @@
   </si>
   <si>
     <t>['34', '45']</t>
+  </si>
+  <si>
+    <t>['32', '82']</t>
   </si>
 </sst>
 </file>
@@ -1002,7 +1008,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP97"/>
+  <dimension ref="A1:BP98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1261,7 +1267,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1673,7 +1679,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1879,7 +1885,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2085,7 +2091,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2291,7 +2297,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2703,7 +2709,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2909,7 +2915,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3115,7 +3121,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3193,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ11">
         <v>0.75</v>
@@ -3321,7 +3327,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3402,7 +3408,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3527,7 +3533,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4017,7 +4023,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ15">
         <v>1.44</v>
@@ -4145,7 +4151,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4557,7 +4563,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4638,7 +4644,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ18">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4763,7 +4769,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4969,7 +4975,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5175,7 +5181,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5253,7 +5259,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21">
         <v>0.78</v>
@@ -5381,7 +5387,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5587,7 +5593,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5793,7 +5799,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6205,7 +6211,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6617,7 +6623,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7029,7 +7035,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7235,7 +7241,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7441,7 +7447,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7647,7 +7653,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8059,7 +8065,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8140,7 +8146,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8343,7 +8349,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8471,7 +8477,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8883,7 +8889,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9089,7 +9095,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9295,7 +9301,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10119,7 +10125,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10406,7 +10412,7 @@
         <v>2.22</v>
       </c>
       <c r="AQ46">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10737,7 +10743,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11149,7 +11155,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11355,7 +11361,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11436,7 +11442,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11561,7 +11567,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11973,7 +11979,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12051,7 +12057,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12179,7 +12185,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12385,7 +12391,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12797,7 +12803,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13003,7 +13009,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13415,7 +13421,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13827,7 +13833,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14033,7 +14039,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14320,7 +14326,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ65">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14445,7 +14451,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14651,7 +14657,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14857,7 +14863,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14935,7 +14941,7 @@
         <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15475,7 +15481,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15681,7 +15687,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15762,7 +15768,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -16299,7 +16305,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16505,7 +16511,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16711,7 +16717,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16917,7 +16923,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -16995,7 +17001,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ78">
         <v>1.63</v>
@@ -17329,7 +17335,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17535,7 +17541,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17741,7 +17747,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17947,7 +17953,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18359,7 +18365,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18565,7 +18571,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18771,7 +18777,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18852,7 +18858,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ87">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AR87">
         <v>1.85</v>
@@ -18977,7 +18983,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19261,7 +19267,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ89">
         <v>0.38</v>
@@ -19389,7 +19395,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19595,7 +19601,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19801,7 +19807,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20419,7 +20425,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20625,7 +20631,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20988,6 +20994,212 @@
       </c>
       <c r="BP97">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="98" spans="1:68">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98">
+        <v>7325428</v>
+      </c>
+      <c r="C98" t="s">
+        <v>68</v>
+      </c>
+      <c r="D98" t="s">
+        <v>69</v>
+      </c>
+      <c r="E98" s="2">
+        <v>45495.5</v>
+      </c>
+      <c r="F98">
+        <v>16</v>
+      </c>
+      <c r="G98" t="s">
+        <v>78</v>
+      </c>
+      <c r="H98" t="s">
+        <v>70</v>
+      </c>
+      <c r="I98">
+        <v>1</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>2</v>
+      </c>
+      <c r="L98">
+        <v>2</v>
+      </c>
+      <c r="M98">
+        <v>2</v>
+      </c>
+      <c r="N98">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>152</v>
+      </c>
+      <c r="P98" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q98">
+        <v>2.2</v>
+      </c>
+      <c r="R98">
+        <v>2.4</v>
+      </c>
+      <c r="S98">
+        <v>4.75</v>
+      </c>
+      <c r="T98">
+        <v>1.3</v>
+      </c>
+      <c r="U98">
+        <v>3.4</v>
+      </c>
+      <c r="V98">
+        <v>2.38</v>
+      </c>
+      <c r="W98">
+        <v>1.53</v>
+      </c>
+      <c r="X98">
+        <v>6</v>
+      </c>
+      <c r="Y98">
+        <v>1.13</v>
+      </c>
+      <c r="Z98">
+        <v>1.6</v>
+      </c>
+      <c r="AA98">
+        <v>3.7</v>
+      </c>
+      <c r="AB98">
+        <v>4.5</v>
+      </c>
+      <c r="AC98">
+        <v>1.02</v>
+      </c>
+      <c r="AD98">
+        <v>15</v>
+      </c>
+      <c r="AE98">
+        <v>1.16</v>
+      </c>
+      <c r="AF98">
+        <v>4.3</v>
+      </c>
+      <c r="AG98">
+        <v>1.61</v>
+      </c>
+      <c r="AH98">
+        <v>2.15</v>
+      </c>
+      <c r="AI98">
+        <v>1.67</v>
+      </c>
+      <c r="AJ98">
+        <v>2.1</v>
+      </c>
+      <c r="AK98">
+        <v>1.19</v>
+      </c>
+      <c r="AL98">
+        <v>1.23</v>
+      </c>
+      <c r="AM98">
+        <v>2.24</v>
+      </c>
+      <c r="AN98">
+        <v>1.75</v>
+      </c>
+      <c r="AO98">
+        <v>0.75</v>
+      </c>
+      <c r="AP98">
+        <v>1.67</v>
+      </c>
+      <c r="AQ98">
+        <v>0.78</v>
+      </c>
+      <c r="AR98">
+        <v>1.67</v>
+      </c>
+      <c r="AS98">
+        <v>1.44</v>
+      </c>
+      <c r="AT98">
+        <v>3.11</v>
+      </c>
+      <c r="AU98">
+        <v>3</v>
+      </c>
+      <c r="AV98">
+        <v>10</v>
+      </c>
+      <c r="AW98">
+        <v>6</v>
+      </c>
+      <c r="AX98">
+        <v>10</v>
+      </c>
+      <c r="AY98">
+        <v>9</v>
+      </c>
+      <c r="AZ98">
+        <v>20</v>
+      </c>
+      <c r="BA98">
+        <v>3</v>
+      </c>
+      <c r="BB98">
+        <v>9</v>
+      </c>
+      <c r="BC98">
+        <v>12</v>
+      </c>
+      <c r="BD98">
+        <v>1.41</v>
+      </c>
+      <c r="BE98">
+        <v>7.7</v>
+      </c>
+      <c r="BF98">
+        <v>3.94</v>
+      </c>
+      <c r="BG98">
+        <v>1.16</v>
+      </c>
+      <c r="BH98">
+        <v>4.35</v>
+      </c>
+      <c r="BI98">
+        <v>1.32</v>
+      </c>
+      <c r="BJ98">
+        <v>2.98</v>
+      </c>
+      <c r="BK98">
+        <v>1.62</v>
+      </c>
+      <c r="BL98">
+        <v>2.24</v>
+      </c>
+      <c r="BM98">
+        <v>2.01</v>
+      </c>
+      <c r="BN98">
+        <v>1.78</v>
+      </c>
+      <c r="BO98">
+        <v>2.58</v>
+      </c>
+      <c r="BP98">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="214">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -475,6 +475,12 @@
     <t>['27', '71']</t>
   </si>
   <si>
+    <t>['45+4', '66', '72']</t>
+  </si>
+  <si>
+    <t>['2', '23', '47', '71', '90+4']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -647,6 +653,9 @@
   </si>
   <si>
     <t>['32', '82']</t>
+  </si>
+  <si>
+    <t>['15', '34', '54', '59', '87']</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1017,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP98"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1267,7 +1276,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1554,7 +1563,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ3">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1679,7 +1688,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1757,10 +1766,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1885,7 +1894,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2091,7 +2100,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2297,7 +2306,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2581,10 +2590,10 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ8">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2709,7 +2718,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2915,7 +2924,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3121,7 +3130,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3202,7 +3211,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ11">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3327,7 +3336,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3533,7 +3542,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3817,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4151,7 +4160,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4229,7 +4238,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ16">
         <v>1.17</v>
@@ -4563,7 +4572,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4769,7 +4778,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4850,7 +4859,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ19">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -4975,7 +4984,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5053,7 +5062,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ20">
         <v>1.38</v>
@@ -5181,7 +5190,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5387,7 +5396,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5593,7 +5602,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5799,7 +5808,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6211,7 +6220,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6498,7 +6507,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ27">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6623,7 +6632,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6704,7 +6713,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ28">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -6907,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ29">
         <v>0.78</v>
@@ -7035,7 +7044,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7113,7 +7122,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ30">
         <v>1.44</v>
@@ -7241,7 +7250,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7447,7 +7456,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7653,7 +7662,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8065,7 +8074,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8477,7 +8486,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8889,7 +8898,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8967,7 +8976,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ39">
         <v>1.63</v>
@@ -9095,7 +9104,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9301,7 +9310,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9379,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ41">
         <v>0.88</v>
@@ -10000,7 +10009,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ44">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10125,7 +10134,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10409,7 +10418,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ46">
         <v>0.78</v>
@@ -10743,7 +10752,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10824,7 +10833,7 @@
         <v>2.13</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11027,7 +11036,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11155,7 +11164,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11361,7 +11370,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11567,7 +11576,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11979,7 +11988,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12185,7 +12194,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12391,7 +12400,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12469,7 +12478,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ56">
         <v>1.17</v>
@@ -12803,7 +12812,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12884,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13009,7 +13018,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13421,7 +13430,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13833,7 +13842,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13911,7 +13920,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ63">
         <v>1.75</v>
@@ -14039,7 +14048,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14120,7 +14129,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ64">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14451,7 +14460,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14532,7 +14541,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14657,7 +14666,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14735,7 +14744,7 @@
         <v>0.2</v>
       </c>
       <c r="AP67">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ67">
         <v>0.78</v>
@@ -14863,7 +14872,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15481,7 +15490,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15687,7 +15696,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16180,7 +16189,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ74">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR74">
         <v>1.86</v>
@@ -16305,7 +16314,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16511,7 +16520,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16717,7 +16726,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16795,7 +16804,7 @@
         <v>1.86</v>
       </c>
       <c r="AP77">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ77">
         <v>1.44</v>
@@ -16923,7 +16932,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17335,7 +17344,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17413,7 +17422,7 @@
         <v>1.4</v>
       </c>
       <c r="AP80">
-        <v>2.13</v>
+        <v>2</v>
       </c>
       <c r="AQ80">
         <v>1.25</v>
@@ -17541,7 +17550,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17747,7 +17756,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17953,7 +17962,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18365,7 +18374,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18571,7 +18580,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18777,7 +18786,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18983,7 +18992,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19270,7 +19279,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ89">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR89">
         <v>1.58</v>
@@ -19395,7 +19404,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19601,7 +19610,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19682,7 +19691,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ91">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="AR91">
         <v>1.47</v>
@@ -19807,7 +19816,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20091,7 +20100,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ93">
         <v>1.25</v>
@@ -20425,7 +20434,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20631,7 +20640,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20918,7 +20927,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ97">
-        <v>0.38</v>
+        <v>0.44</v>
       </c>
       <c r="AR97">
         <v>1.79</v>
@@ -21043,7 +21052,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21200,6 +21209,418 @@
       </c>
       <c r="BP98">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="99" spans="1:68">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99">
+        <v>7325429</v>
+      </c>
+      <c r="C99" t="s">
+        <v>68</v>
+      </c>
+      <c r="D99" t="s">
+        <v>69</v>
+      </c>
+      <c r="E99" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F99">
+        <v>17</v>
+      </c>
+      <c r="G99" t="s">
+        <v>76</v>
+      </c>
+      <c r="H99" t="s">
+        <v>81</v>
+      </c>
+      <c r="I99">
+        <v>1</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
+      </c>
+      <c r="K99">
+        <v>1</v>
+      </c>
+      <c r="L99">
+        <v>3</v>
+      </c>
+      <c r="M99">
+        <v>0</v>
+      </c>
+      <c r="N99">
+        <v>3</v>
+      </c>
+      <c r="O99" t="s">
+        <v>153</v>
+      </c>
+      <c r="P99" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q99">
+        <v>1.9</v>
+      </c>
+      <c r="R99">
+        <v>2.44</v>
+      </c>
+      <c r="S99">
+        <v>6.35</v>
+      </c>
+      <c r="T99">
+        <v>1.32</v>
+      </c>
+      <c r="U99">
+        <v>3.22</v>
+      </c>
+      <c r="V99">
+        <v>2.49</v>
+      </c>
+      <c r="W99">
+        <v>1.5</v>
+      </c>
+      <c r="X99">
+        <v>5.85</v>
+      </c>
+      <c r="Y99">
+        <v>1.11</v>
+      </c>
+      <c r="Z99">
+        <v>1.6</v>
+      </c>
+      <c r="AA99">
+        <v>4.07</v>
+      </c>
+      <c r="AB99">
+        <v>5.15</v>
+      </c>
+      <c r="AC99">
+        <v>1.02</v>
+      </c>
+      <c r="AD99">
+        <v>10</v>
+      </c>
+      <c r="AE99">
+        <v>1.19</v>
+      </c>
+      <c r="AF99">
+        <v>3.98</v>
+      </c>
+      <c r="AG99">
+        <v>1.63</v>
+      </c>
+      <c r="AH99">
+        <v>2.12</v>
+      </c>
+      <c r="AI99">
+        <v>1.89</v>
+      </c>
+      <c r="AJ99">
+        <v>1.85</v>
+      </c>
+      <c r="AK99">
+        <v>1.09</v>
+      </c>
+      <c r="AL99">
+        <v>1.19</v>
+      </c>
+      <c r="AM99">
+        <v>2.86</v>
+      </c>
+      <c r="AN99">
+        <v>2.22</v>
+      </c>
+      <c r="AO99">
+        <v>0.75</v>
+      </c>
+      <c r="AP99">
+        <v>2.3</v>
+      </c>
+      <c r="AQ99">
+        <v>0.67</v>
+      </c>
+      <c r="AR99">
+        <v>1.91</v>
+      </c>
+      <c r="AS99">
+        <v>1.53</v>
+      </c>
+      <c r="AT99">
+        <v>3.44</v>
+      </c>
+      <c r="AU99">
+        <v>7</v>
+      </c>
+      <c r="AV99">
+        <v>3</v>
+      </c>
+      <c r="AW99">
+        <v>10</v>
+      </c>
+      <c r="AX99">
+        <v>9</v>
+      </c>
+      <c r="AY99">
+        <v>17</v>
+      </c>
+      <c r="AZ99">
+        <v>12</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>4</v>
+      </c>
+      <c r="BC99">
+        <v>9</v>
+      </c>
+      <c r="BD99">
+        <v>1.26</v>
+      </c>
+      <c r="BE99">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF99">
+        <v>5.4</v>
+      </c>
+      <c r="BG99">
+        <v>1.15</v>
+      </c>
+      <c r="BH99">
+        <v>4.45</v>
+      </c>
+      <c r="BI99">
+        <v>1.32</v>
+      </c>
+      <c r="BJ99">
+        <v>2.98</v>
+      </c>
+      <c r="BK99">
+        <v>1.58</v>
+      </c>
+      <c r="BL99">
+        <v>2.23</v>
+      </c>
+      <c r="BM99">
+        <v>1.98</v>
+      </c>
+      <c r="BN99">
+        <v>1.77</v>
+      </c>
+      <c r="BO99">
+        <v>2.55</v>
+      </c>
+      <c r="BP99">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="100" spans="1:68">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100">
+        <v>7325430</v>
+      </c>
+      <c r="C100" t="s">
+        <v>68</v>
+      </c>
+      <c r="D100" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2">
+        <v>45500.45833333334</v>
+      </c>
+      <c r="F100">
+        <v>17</v>
+      </c>
+      <c r="G100" t="s">
+        <v>72</v>
+      </c>
+      <c r="H100" t="s">
+        <v>79</v>
+      </c>
+      <c r="I100">
+        <v>2</v>
+      </c>
+      <c r="J100">
+        <v>2</v>
+      </c>
+      <c r="K100">
+        <v>4</v>
+      </c>
+      <c r="L100">
+        <v>5</v>
+      </c>
+      <c r="M100">
+        <v>5</v>
+      </c>
+      <c r="N100">
+        <v>10</v>
+      </c>
+      <c r="O100" t="s">
+        <v>154</v>
+      </c>
+      <c r="P100" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q100">
+        <v>1.8</v>
+      </c>
+      <c r="R100">
+        <v>2.71</v>
+      </c>
+      <c r="S100">
+        <v>7.31</v>
+      </c>
+      <c r="T100">
+        <v>1.28</v>
+      </c>
+      <c r="U100">
+        <v>3.44</v>
+      </c>
+      <c r="V100">
+        <v>2.39</v>
+      </c>
+      <c r="W100">
+        <v>1.58</v>
+      </c>
+      <c r="X100">
+        <v>5.45</v>
+      </c>
+      <c r="Y100">
+        <v>1.13</v>
+      </c>
+      <c r="Z100">
+        <v>1.48</v>
+      </c>
+      <c r="AA100">
+        <v>4.42</v>
+      </c>
+      <c r="AB100">
+        <v>6.01</v>
+      </c>
+      <c r="AC100">
+        <v>1.01</v>
+      </c>
+      <c r="AD100">
+        <v>12</v>
+      </c>
+      <c r="AE100">
+        <v>1.16</v>
+      </c>
+      <c r="AF100">
+        <v>4.35</v>
+      </c>
+      <c r="AG100">
+        <v>1.58</v>
+      </c>
+      <c r="AH100">
+        <v>2.22</v>
+      </c>
+      <c r="AI100">
+        <v>1.85</v>
+      </c>
+      <c r="AJ100">
+        <v>1.89</v>
+      </c>
+      <c r="AK100">
+        <v>1.09</v>
+      </c>
+      <c r="AL100">
+        <v>1.17</v>
+      </c>
+      <c r="AM100">
+        <v>2.99</v>
+      </c>
+      <c r="AN100">
+        <v>2.13</v>
+      </c>
+      <c r="AO100">
+        <v>0.38</v>
+      </c>
+      <c r="AP100">
+        <v>2</v>
+      </c>
+      <c r="AQ100">
+        <v>0.44</v>
+      </c>
+      <c r="AR100">
+        <v>1.83</v>
+      </c>
+      <c r="AS100">
+        <v>0.87</v>
+      </c>
+      <c r="AT100">
+        <v>2.7</v>
+      </c>
+      <c r="AU100">
+        <v>11</v>
+      </c>
+      <c r="AV100">
+        <v>8</v>
+      </c>
+      <c r="AW100">
+        <v>13</v>
+      </c>
+      <c r="AX100">
+        <v>5</v>
+      </c>
+      <c r="AY100">
+        <v>24</v>
+      </c>
+      <c r="AZ100">
+        <v>13</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>3</v>
+      </c>
+      <c r="BC100">
+        <v>8</v>
+      </c>
+      <c r="BD100">
+        <v>1.15</v>
+      </c>
+      <c r="BE100">
+        <v>10.75</v>
+      </c>
+      <c r="BF100">
+        <v>7.9</v>
+      </c>
+      <c r="BG100">
+        <v>1.18</v>
+      </c>
+      <c r="BH100">
+        <v>4.1</v>
+      </c>
+      <c r="BI100">
+        <v>1.35</v>
+      </c>
+      <c r="BJ100">
+        <v>2.95</v>
+      </c>
+      <c r="BK100">
+        <v>1.63</v>
+      </c>
+      <c r="BL100">
+        <v>2.13</v>
+      </c>
+      <c r="BM100">
+        <v>2.1</v>
+      </c>
+      <c r="BN100">
+        <v>1.65</v>
+      </c>
+      <c r="BO100">
+        <v>2.75</v>
+      </c>
+      <c r="BP100">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="217">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -481,6 +481,12 @@
     <t>['2', '23', '47', '71', '90+4']</t>
   </si>
   <si>
+    <t>['21']</t>
+  </si>
+  <si>
+    <t>['44', '50']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -656,6 +662,9 @@
   </si>
   <si>
     <t>['15', '34', '54', '59', '87']</t>
+  </si>
+  <si>
+    <t>['74', '87']</t>
   </si>
 </sst>
 </file>
@@ -1017,7 +1026,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1276,7 +1285,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1688,7 +1697,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1894,7 +1903,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2100,7 +2109,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2178,7 +2187,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ6">
         <v>1.63</v>
@@ -2306,7 +2315,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2718,7 +2727,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2796,7 +2805,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ9">
         <v>0.78</v>
@@ -2924,7 +2933,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3002,7 +3011,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -3130,7 +3139,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3336,7 +3345,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3417,7 +3426,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ12">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3542,7 +3551,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3623,7 +3632,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -4035,7 +4044,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ15">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4160,7 +4169,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4241,7 +4250,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ16">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4572,7 +4581,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4650,10 +4659,10 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4778,7 +4787,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4856,7 +4865,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -4984,7 +4993,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5190,7 +5199,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5396,7 +5405,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5474,7 +5483,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ22">
         <v>1.38</v>
@@ -5602,7 +5611,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5683,7 +5692,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ23">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5808,7 +5817,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6220,7 +6229,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6504,7 +6513,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ27">
         <v>0.44</v>
@@ -6632,7 +6641,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7044,7 +7053,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7125,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7250,7 +7259,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7456,7 +7465,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7662,7 +7671,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7946,7 +7955,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ34">
         <v>1.75</v>
@@ -8074,7 +8083,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8155,7 +8164,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8486,7 +8495,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8564,7 +8573,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -8773,7 +8782,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8898,7 +8907,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9104,7 +9113,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9185,7 +9194,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9310,7 +9319,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9803,7 +9812,7 @@
         <v>1</v>
       </c>
       <c r="AQ43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10006,7 +10015,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ44">
         <v>0.44</v>
@@ -10134,7 +10143,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10212,10 +10221,10 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10421,7 +10430,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ46">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10752,7 +10761,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10830,7 +10839,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11164,7 +11173,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11370,7 +11379,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11451,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11576,7 +11585,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11860,7 +11869,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ53">
         <v>0.88</v>
@@ -11988,7 +11997,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12194,7 +12203,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12275,7 +12284,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ55">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12400,7 +12409,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12481,7 +12490,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12812,7 +12821,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13018,7 +13027,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13096,7 +13105,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ59">
         <v>1.63</v>
@@ -13302,7 +13311,7 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60">
         <v>1.5</v>
@@ -13430,7 +13439,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13714,10 +13723,10 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ62">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13842,7 +13851,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14048,7 +14057,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14332,10 +14341,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ65">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14460,7 +14469,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14666,7 +14675,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14872,7 +14881,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15490,7 +15499,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15696,7 +15705,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15777,7 +15786,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ72">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -15980,7 +15989,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ73">
         <v>0.88</v>
@@ -16186,7 +16195,7 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ74">
         <v>0.67</v>
@@ -16314,7 +16323,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16520,7 +16529,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16598,10 +16607,10 @@
         <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ76">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16726,7 +16735,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16807,7 +16816,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ77">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16932,7 +16941,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17219,7 +17228,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17344,7 +17353,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17550,7 +17559,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17756,7 +17765,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17962,7 +17971,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18374,7 +18383,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18452,7 +18461,7 @@
         <v>0.57</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AQ85">
         <v>0.78</v>
@@ -18580,7 +18589,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18786,7 +18795,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18867,7 +18876,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ87">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.85</v>
@@ -18992,7 +19001,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19404,7 +19413,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19482,7 +19491,7 @@
         <v>0.57</v>
       </c>
       <c r="AP90">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AQ90">
         <v>0.88</v>
@@ -19610,7 +19619,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19816,7 +19825,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -19894,7 +19903,7 @@
         <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>2.13</v>
+        <v>1.89</v>
       </c>
       <c r="AQ92">
         <v>1.5</v>
@@ -20434,7 +20443,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20640,7 +20649,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21052,7 +21061,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21133,7 +21142,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ98">
-        <v>0.78</v>
+        <v>1</v>
       </c>
       <c r="AR98">
         <v>1.67</v>
@@ -21464,7 +21473,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21621,6 +21630,624 @@
       </c>
       <c r="BP100">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:68">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101">
+        <v>7325431</v>
+      </c>
+      <c r="C101" t="s">
+        <v>68</v>
+      </c>
+      <c r="D101" t="s">
+        <v>69</v>
+      </c>
+      <c r="E101" s="2">
+        <v>45501.375</v>
+      </c>
+      <c r="F101">
+        <v>17</v>
+      </c>
+      <c r="G101" t="s">
+        <v>74</v>
+      </c>
+      <c r="H101" t="s">
+        <v>70</v>
+      </c>
+      <c r="I101">
+        <v>0</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>1</v>
+      </c>
+      <c r="L101">
+        <v>1</v>
+      </c>
+      <c r="M101">
+        <v>2</v>
+      </c>
+      <c r="N101">
+        <v>3</v>
+      </c>
+      <c r="O101" t="s">
+        <v>103</v>
+      </c>
+      <c r="P101" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q101">
+        <v>2.67</v>
+      </c>
+      <c r="R101">
+        <v>2.33</v>
+      </c>
+      <c r="S101">
+        <v>3.45</v>
+      </c>
+      <c r="T101">
+        <v>1.29</v>
+      </c>
+      <c r="U101">
+        <v>3.42</v>
+      </c>
+      <c r="V101">
+        <v>2.34</v>
+      </c>
+      <c r="W101">
+        <v>1.56</v>
+      </c>
+      <c r="X101">
+        <v>5.4</v>
+      </c>
+      <c r="Y101">
+        <v>1.13</v>
+      </c>
+      <c r="Z101">
+        <v>2.23</v>
+      </c>
+      <c r="AA101">
+        <v>3.7</v>
+      </c>
+      <c r="AB101">
+        <v>2.8</v>
+      </c>
+      <c r="AC101">
+        <v>1.01</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.16</v>
+      </c>
+      <c r="AF101">
+        <v>4.4</v>
+      </c>
+      <c r="AG101">
+        <v>1.61</v>
+      </c>
+      <c r="AH101">
+        <v>2.33</v>
+      </c>
+      <c r="AI101">
+        <v>1.52</v>
+      </c>
+      <c r="AJ101">
+        <v>2.43</v>
+      </c>
+      <c r="AK101">
+        <v>1.39</v>
+      </c>
+      <c r="AL101">
+        <v>1.28</v>
+      </c>
+      <c r="AM101">
+        <v>1.67</v>
+      </c>
+      <c r="AN101">
+        <v>2.13</v>
+      </c>
+      <c r="AO101">
+        <v>0.78</v>
+      </c>
+      <c r="AP101">
+        <v>1.89</v>
+      </c>
+      <c r="AQ101">
+        <v>1</v>
+      </c>
+      <c r="AR101">
+        <v>1.44</v>
+      </c>
+      <c r="AS101">
+        <v>1.55</v>
+      </c>
+      <c r="AT101">
+        <v>2.99</v>
+      </c>
+      <c r="AU101">
+        <v>9</v>
+      </c>
+      <c r="AV101">
+        <v>4</v>
+      </c>
+      <c r="AW101">
+        <v>15</v>
+      </c>
+      <c r="AX101">
+        <v>5</v>
+      </c>
+      <c r="AY101">
+        <v>24</v>
+      </c>
+      <c r="AZ101">
+        <v>9</v>
+      </c>
+      <c r="BA101">
+        <v>13</v>
+      </c>
+      <c r="BB101">
+        <v>7</v>
+      </c>
+      <c r="BC101">
+        <v>20</v>
+      </c>
+      <c r="BD101">
+        <v>2.07</v>
+      </c>
+      <c r="BE101">
+        <v>6.7</v>
+      </c>
+      <c r="BF101">
+        <v>2.17</v>
+      </c>
+      <c r="BG101">
+        <v>1.16</v>
+      </c>
+      <c r="BH101">
+        <v>4.4</v>
+      </c>
+      <c r="BI101">
+        <v>1.32</v>
+      </c>
+      <c r="BJ101">
+        <v>2.98</v>
+      </c>
+      <c r="BK101">
+        <v>1.59</v>
+      </c>
+      <c r="BL101">
+        <v>2.21</v>
+      </c>
+      <c r="BM101">
+        <v>2</v>
+      </c>
+      <c r="BN101">
+        <v>1.76</v>
+      </c>
+      <c r="BO101">
+        <v>2.57</v>
+      </c>
+      <c r="BP101">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:68">
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102">
+        <v>7325432</v>
+      </c>
+      <c r="C102" t="s">
+        <v>68</v>
+      </c>
+      <c r="D102" t="s">
+        <v>69</v>
+      </c>
+      <c r="E102" s="2">
+        <v>45501.45833333334</v>
+      </c>
+      <c r="F102">
+        <v>17</v>
+      </c>
+      <c r="G102" t="s">
+        <v>80</v>
+      </c>
+      <c r="H102" t="s">
+        <v>75</v>
+      </c>
+      <c r="I102">
+        <v>1</v>
+      </c>
+      <c r="J102">
+        <v>0</v>
+      </c>
+      <c r="K102">
+        <v>1</v>
+      </c>
+      <c r="L102">
+        <v>1</v>
+      </c>
+      <c r="M102">
+        <v>2</v>
+      </c>
+      <c r="N102">
+        <v>3</v>
+      </c>
+      <c r="O102" t="s">
+        <v>155</v>
+      </c>
+      <c r="P102" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q102">
+        <v>6</v>
+      </c>
+      <c r="R102">
+        <v>2.3</v>
+      </c>
+      <c r="S102">
+        <v>2</v>
+      </c>
+      <c r="T102">
+        <v>1.35</v>
+      </c>
+      <c r="U102">
+        <v>3</v>
+      </c>
+      <c r="V102">
+        <v>2.6</v>
+      </c>
+      <c r="W102">
+        <v>1.45</v>
+      </c>
+      <c r="X102">
+        <v>6.75</v>
+      </c>
+      <c r="Y102">
+        <v>1.1</v>
+      </c>
+      <c r="Z102">
+        <v>6.25</v>
+      </c>
+      <c r="AA102">
+        <v>4.2</v>
+      </c>
+      <c r="AB102">
+        <v>1.4</v>
+      </c>
+      <c r="AC102">
+        <v>1.03</v>
+      </c>
+      <c r="AD102">
+        <v>14</v>
+      </c>
+      <c r="AE102">
+        <v>1.24</v>
+      </c>
+      <c r="AF102">
+        <v>3.7</v>
+      </c>
+      <c r="AG102">
+        <v>1.75</v>
+      </c>
+      <c r="AH102">
+        <v>1.95</v>
+      </c>
+      <c r="AI102">
+        <v>1.9</v>
+      </c>
+      <c r="AJ102">
+        <v>1.78</v>
+      </c>
+      <c r="AK102">
+        <v>2.55</v>
+      </c>
+      <c r="AL102">
+        <v>1.18</v>
+      </c>
+      <c r="AM102">
+        <v>1.11</v>
+      </c>
+      <c r="AN102">
+        <v>0.71</v>
+      </c>
+      <c r="AO102">
+        <v>1.44</v>
+      </c>
+      <c r="AP102">
+        <v>0.63</v>
+      </c>
+      <c r="AQ102">
+        <v>1.6</v>
+      </c>
+      <c r="AR102">
+        <v>1.08</v>
+      </c>
+      <c r="AS102">
+        <v>1.54</v>
+      </c>
+      <c r="AT102">
+        <v>2.62</v>
+      </c>
+      <c r="AU102">
+        <v>6</v>
+      </c>
+      <c r="AV102">
+        <v>8</v>
+      </c>
+      <c r="AW102">
+        <v>4</v>
+      </c>
+      <c r="AX102">
+        <v>19</v>
+      </c>
+      <c r="AY102">
+        <v>10</v>
+      </c>
+      <c r="AZ102">
+        <v>27</v>
+      </c>
+      <c r="BA102">
+        <v>2</v>
+      </c>
+      <c r="BB102">
+        <v>14</v>
+      </c>
+      <c r="BC102">
+        <v>16</v>
+      </c>
+      <c r="BD102">
+        <v>4.65</v>
+      </c>
+      <c r="BE102">
+        <v>7.9</v>
+      </c>
+      <c r="BF102">
+        <v>1.33</v>
+      </c>
+      <c r="BG102">
+        <v>1.28</v>
+      </c>
+      <c r="BH102">
+        <v>3.2</v>
+      </c>
+      <c r="BI102">
+        <v>1.53</v>
+      </c>
+      <c r="BJ102">
+        <v>2.33</v>
+      </c>
+      <c r="BK102">
+        <v>1.93</v>
+      </c>
+      <c r="BL102">
+        <v>1.81</v>
+      </c>
+      <c r="BM102">
+        <v>2.52</v>
+      </c>
+      <c r="BN102">
+        <v>1.46</v>
+      </c>
+      <c r="BO102">
+        <v>3.42</v>
+      </c>
+      <c r="BP102">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="103" spans="1:68">
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103">
+        <v>7325433</v>
+      </c>
+      <c r="C103" t="s">
+        <v>68</v>
+      </c>
+      <c r="D103" t="s">
+        <v>69</v>
+      </c>
+      <c r="E103" s="2">
+        <v>45501.52083333334</v>
+      </c>
+      <c r="F103">
+        <v>17</v>
+      </c>
+      <c r="G103" t="s">
+        <v>77</v>
+      </c>
+      <c r="H103" t="s">
+        <v>73</v>
+      </c>
+      <c r="I103">
+        <v>1</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>1</v>
+      </c>
+      <c r="L103">
+        <v>2</v>
+      </c>
+      <c r="M103">
+        <v>1</v>
+      </c>
+      <c r="N103">
+        <v>3</v>
+      </c>
+      <c r="O103" t="s">
+        <v>156</v>
+      </c>
+      <c r="P103" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q103">
+        <v>2.2</v>
+      </c>
+      <c r="R103">
+        <v>2.3</v>
+      </c>
+      <c r="S103">
+        <v>5</v>
+      </c>
+      <c r="T103">
+        <v>1.33</v>
+      </c>
+      <c r="U103">
+        <v>3.25</v>
+      </c>
+      <c r="V103">
+        <v>2.63</v>
+      </c>
+      <c r="W103">
+        <v>1.44</v>
+      </c>
+      <c r="X103">
+        <v>7</v>
+      </c>
+      <c r="Y103">
+        <v>1.1</v>
+      </c>
+      <c r="Z103">
+        <v>1.57</v>
+      </c>
+      <c r="AA103">
+        <v>3.85</v>
+      </c>
+      <c r="AB103">
+        <v>4.5</v>
+      </c>
+      <c r="AC103">
+        <v>1.03</v>
+      </c>
+      <c r="AD103">
+        <v>14</v>
+      </c>
+      <c r="AE103">
+        <v>1.23</v>
+      </c>
+      <c r="AF103">
+        <v>3.75</v>
+      </c>
+      <c r="AG103">
+        <v>1.7</v>
+      </c>
+      <c r="AH103">
+        <v>2</v>
+      </c>
+      <c r="AI103">
+        <v>1.78</v>
+      </c>
+      <c r="AJ103">
+        <v>1.95</v>
+      </c>
+      <c r="AK103">
+        <v>1.16</v>
+      </c>
+      <c r="AL103">
+        <v>1.24</v>
+      </c>
+      <c r="AM103">
+        <v>2.29</v>
+      </c>
+      <c r="AN103">
+        <v>1.5</v>
+      </c>
+      <c r="AO103">
+        <v>1.17</v>
+      </c>
+      <c r="AP103">
+        <v>1.67</v>
+      </c>
+      <c r="AQ103">
+        <v>1</v>
+      </c>
+      <c r="AR103">
+        <v>1.84</v>
+      </c>
+      <c r="AS103">
+        <v>1.22</v>
+      </c>
+      <c r="AT103">
+        <v>3.06</v>
+      </c>
+      <c r="AU103">
+        <v>5</v>
+      </c>
+      <c r="AV103">
+        <v>2</v>
+      </c>
+      <c r="AW103">
+        <v>7</v>
+      </c>
+      <c r="AX103">
+        <v>6</v>
+      </c>
+      <c r="AY103">
+        <v>12</v>
+      </c>
+      <c r="AZ103">
+        <v>8</v>
+      </c>
+      <c r="BA103">
+        <v>6</v>
+      </c>
+      <c r="BB103">
+        <v>3</v>
+      </c>
+      <c r="BC103">
+        <v>9</v>
+      </c>
+      <c r="BD103">
+        <v>1.35</v>
+      </c>
+      <c r="BE103">
+        <v>8</v>
+      </c>
+      <c r="BF103">
+        <v>4.4</v>
+      </c>
+      <c r="BG103">
+        <v>1.16</v>
+      </c>
+      <c r="BH103">
+        <v>4.35</v>
+      </c>
+      <c r="BI103">
+        <v>1.32</v>
+      </c>
+      <c r="BJ103">
+        <v>2.98</v>
+      </c>
+      <c r="BK103">
+        <v>1.59</v>
+      </c>
+      <c r="BL103">
+        <v>2.21</v>
+      </c>
+      <c r="BM103">
+        <v>2.01</v>
+      </c>
+      <c r="BN103">
+        <v>1.75</v>
+      </c>
+      <c r="BO103">
+        <v>2.58</v>
+      </c>
+      <c r="BP103">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -21378,13 +21378,13 @@
         <v>12</v>
       </c>
       <c r="BA99">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB99">
         <v>4</v>
       </c>
       <c r="BC99">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BD99">
         <v>1.26</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="218">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -485,6 +485,9 @@
   </si>
   <si>
     <t>['44', '50']</t>
+  </si>
+  <si>
+    <t>['44', '72', '78']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1026,7 +1029,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP103"/>
+  <dimension ref="A1:BP104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1285,7 +1288,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1697,7 +1700,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1903,7 +1906,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2109,7 +2112,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2315,7 +2318,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2727,7 +2730,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2933,7 +2936,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3139,7 +3142,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3217,7 +3220,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3345,7 +3348,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3551,7 +3554,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4041,7 +4044,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>1.6</v>
@@ -4169,7 +4172,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4250,7 +4253,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ16">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4581,7 +4584,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4787,7 +4790,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4993,7 +4996,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5199,7 +5202,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5277,7 +5280,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>0.78</v>
@@ -5405,7 +5408,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5611,7 +5614,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5817,7 +5820,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6229,7 +6232,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6641,7 +6644,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7053,7 +7056,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7259,7 +7262,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7465,7 +7468,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7671,7 +7674,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8083,7 +8086,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8367,7 +8370,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>1.38</v>
@@ -8495,7 +8498,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8782,7 +8785,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8907,7 +8910,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9113,7 +9116,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9194,7 +9197,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9319,7 +9322,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10143,7 +10146,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10761,7 +10764,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11173,7 +11176,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11379,7 +11382,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11585,7 +11588,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11997,7 +12000,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12075,7 +12078,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54">
         <v>1.25</v>
@@ -12203,7 +12206,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12409,7 +12412,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12490,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12821,7 +12824,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13027,7 +13030,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13439,7 +13442,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13726,7 +13729,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13851,7 +13854,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14057,7 +14060,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14469,7 +14472,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14675,7 +14678,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14881,7 +14884,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14959,7 +14962,7 @@
         <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>1.5</v>
@@ -15499,7 +15502,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15705,7 +15708,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16323,7 +16326,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16529,7 +16532,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16610,7 +16613,7 @@
         <v>0.63</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16735,7 +16738,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16941,7 +16944,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17019,7 +17022,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>1.63</v>
@@ -17353,7 +17356,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17559,7 +17562,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17765,7 +17768,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17971,7 +17974,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18383,7 +18386,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18589,7 +18592,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18795,7 +18798,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19001,7 +19004,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19285,7 +19288,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>0.44</v>
@@ -19413,7 +19416,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19619,7 +19622,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19825,7 +19828,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20443,7 +20446,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20649,7 +20652,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21061,7 +21064,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21139,7 +21142,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21473,7 +21476,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21885,7 +21888,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22172,7 +22175,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR103">
         <v>1.84</v>
@@ -22248,6 +22251,212 @@
       </c>
       <c r="BP103">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="104" spans="1:68">
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104">
+        <v>7325434</v>
+      </c>
+      <c r="C104" t="s">
+        <v>68</v>
+      </c>
+      <c r="D104" t="s">
+        <v>69</v>
+      </c>
+      <c r="E104" s="2">
+        <v>45506.5</v>
+      </c>
+      <c r="F104">
+        <v>18</v>
+      </c>
+      <c r="G104" t="s">
+        <v>78</v>
+      </c>
+      <c r="H104" t="s">
+        <v>73</v>
+      </c>
+      <c r="I104">
+        <v>1</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
+        <v>1</v>
+      </c>
+      <c r="L104">
+        <v>3</v>
+      </c>
+      <c r="M104">
+        <v>0</v>
+      </c>
+      <c r="N104">
+        <v>3</v>
+      </c>
+      <c r="O104" t="s">
+        <v>157</v>
+      </c>
+      <c r="P104" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q104">
+        <v>2</v>
+      </c>
+      <c r="R104">
+        <v>2.4</v>
+      </c>
+      <c r="S104">
+        <v>6</v>
+      </c>
+      <c r="T104">
+        <v>1.33</v>
+      </c>
+      <c r="U104">
+        <v>3.25</v>
+      </c>
+      <c r="V104">
+        <v>2.5</v>
+      </c>
+      <c r="W104">
+        <v>1.5</v>
+      </c>
+      <c r="X104">
+        <v>6.5</v>
+      </c>
+      <c r="Y104">
+        <v>1.11</v>
+      </c>
+      <c r="Z104">
+        <v>1.4</v>
+      </c>
+      <c r="AA104">
+        <v>4.33</v>
+      </c>
+      <c r="AB104">
+        <v>6.5</v>
+      </c>
+      <c r="AC104">
+        <v>1.03</v>
+      </c>
+      <c r="AD104">
+        <v>10.5</v>
+      </c>
+      <c r="AE104">
+        <v>1.19</v>
+      </c>
+      <c r="AF104">
+        <v>3.92</v>
+      </c>
+      <c r="AG104">
+        <v>1.71</v>
+      </c>
+      <c r="AH104">
+        <v>2.15</v>
+      </c>
+      <c r="AI104">
+        <v>1.91</v>
+      </c>
+      <c r="AJ104">
+        <v>1.91</v>
+      </c>
+      <c r="AK104">
+        <v>1.11</v>
+      </c>
+      <c r="AL104">
+        <v>1.21</v>
+      </c>
+      <c r="AM104">
+        <v>2.68</v>
+      </c>
+      <c r="AN104">
+        <v>1.67</v>
+      </c>
+      <c r="AO104">
+        <v>1</v>
+      </c>
+      <c r="AP104">
+        <v>1.8</v>
+      </c>
+      <c r="AQ104">
+        <v>0.88</v>
+      </c>
+      <c r="AR104">
+        <v>1.61</v>
+      </c>
+      <c r="AS104">
+        <v>1.19</v>
+      </c>
+      <c r="AT104">
+        <v>2.8</v>
+      </c>
+      <c r="AU104">
+        <v>4</v>
+      </c>
+      <c r="AV104">
+        <v>3</v>
+      </c>
+      <c r="AW104">
+        <v>7</v>
+      </c>
+      <c r="AX104">
+        <v>1</v>
+      </c>
+      <c r="AY104">
+        <v>11</v>
+      </c>
+      <c r="AZ104">
+        <v>4</v>
+      </c>
+      <c r="BA104">
+        <v>5</v>
+      </c>
+      <c r="BB104">
+        <v>1</v>
+      </c>
+      <c r="BC104">
+        <v>6</v>
+      </c>
+      <c r="BD104">
+        <v>1.21</v>
+      </c>
+      <c r="BE104">
+        <v>11</v>
+      </c>
+      <c r="BF104">
+        <v>5.17</v>
+      </c>
+      <c r="BG104">
+        <v>1.17</v>
+      </c>
+      <c r="BH104">
+        <v>4.2</v>
+      </c>
+      <c r="BI104">
+        <v>1.41</v>
+      </c>
+      <c r="BJ104">
+        <v>2.75</v>
+      </c>
+      <c r="BK104">
+        <v>1.64</v>
+      </c>
+      <c r="BL104">
+        <v>2.2</v>
+      </c>
+      <c r="BM104">
+        <v>2.04</v>
+      </c>
+      <c r="BN104">
+        <v>1.74</v>
+      </c>
+      <c r="BO104">
+        <v>3</v>
+      </c>
+      <c r="BP104">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="686" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="224">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -490,6 +490,18 @@
     <t>['44', '72', '78']</t>
   </si>
   <si>
+    <t>['34', '56']</t>
+  </si>
+  <si>
+    <t>['18', '31', '69']</t>
+  </si>
+  <si>
+    <t>['28', '84']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -668,6 +680,12 @@
   </si>
   <si>
     <t>['74', '87']</t>
+  </si>
+  <si>
+    <t>['55']</t>
+  </si>
+  <si>
+    <t>['59', '78']</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1047,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP104"/>
+  <dimension ref="A1:BP109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1288,7 +1306,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1366,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ2">
         <v>0.88</v>
@@ -1700,7 +1718,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1906,7 +1924,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2112,7 +2130,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2193,7 +2211,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ6">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2318,7 +2336,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2396,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ7">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2730,7 +2748,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2936,7 +2954,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3017,7 +3035,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3142,7 +3160,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3348,7 +3366,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3554,7 +3572,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3841,7 +3859,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -4172,7 +4190,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4456,10 +4474,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ17">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4584,7 +4602,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4790,7 +4808,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4868,7 +4886,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -4996,7 +5014,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5077,7 +5095,7 @@
         <v>2</v>
       </c>
       <c r="AQ20">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5202,7 +5220,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5408,7 +5426,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5489,7 +5507,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5614,7 +5632,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5692,7 +5710,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.6</v>
@@ -5820,7 +5838,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5898,10 +5916,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ24">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6104,10 +6122,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6232,7 +6250,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6313,7 +6331,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6644,7 +6662,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7056,7 +7074,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7262,7 +7280,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7340,10 +7358,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ31">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7468,7 +7486,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7674,7 +7692,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7752,10 +7770,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ33">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -7961,7 +7979,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8086,7 +8104,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8164,7 +8182,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8373,7 +8391,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ36">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8498,7 +8516,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8576,10 +8594,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8782,7 +8800,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -8910,7 +8928,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -8991,7 +9009,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ39">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9116,7 +9134,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9194,7 +9212,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ40">
         <v>0.88</v>
@@ -9322,7 +9340,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9609,7 +9627,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9812,7 +9830,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ43">
         <v>1.6</v>
@@ -10018,7 +10036,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ44">
         <v>0.44</v>
@@ -10146,7 +10164,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10764,7 +10782,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11051,7 +11069,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11176,7 +11194,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11254,7 +11272,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ50">
         <v>0.78</v>
@@ -11382,7 +11400,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11588,7 +11606,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11666,10 +11684,10 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ52">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -12000,7 +12018,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12081,7 +12099,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ54">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12206,7 +12224,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12412,7 +12430,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12696,10 +12714,10 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ57">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12824,7 +12842,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12902,7 +12920,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ58">
         <v>0.44</v>
@@ -13030,7 +13048,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13108,10 +13126,10 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ59">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13317,7 +13335,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13442,7 +13460,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13520,7 +13538,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ61">
         <v>0.88</v>
@@ -13854,7 +13872,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13935,7 +13953,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14060,7 +14078,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14138,7 +14156,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ64">
         <v>0.67</v>
@@ -14344,7 +14362,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14472,7 +14490,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14550,7 +14568,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
         <v>0.44</v>
@@ -14678,7 +14696,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14884,7 +14902,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14965,7 +14983,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -15171,7 +15189,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15374,10 +15392,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ70">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15502,7 +15520,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15580,10 +15598,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -15708,7 +15726,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15786,7 +15804,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16326,7 +16344,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16407,7 +16425,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ75">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16532,7 +16550,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16610,7 +16628,7 @@
         <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ76">
         <v>0.88</v>
@@ -16738,7 +16756,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16944,7 +16962,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17025,7 +17043,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ78">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17228,7 +17246,7 @@
         <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ79">
         <v>1.6</v>
@@ -17356,7 +17374,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17437,7 +17455,7 @@
         <v>2</v>
       </c>
       <c r="AQ80">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -17562,7 +17580,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17640,10 +17658,10 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR81">
         <v>1.47</v>
@@ -17768,7 +17786,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17849,7 +17867,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR82">
         <v>1.17</v>
@@ -17974,7 +17992,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18052,7 +18070,7 @@
         <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AQ83">
         <v>0.78</v>
@@ -18261,7 +18279,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ84">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AR84">
         <v>1.87</v>
@@ -18386,7 +18404,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18592,7 +18610,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18673,7 +18691,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR86">
         <v>1.21</v>
@@ -18798,7 +18816,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18876,7 +18894,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19004,7 +19022,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19082,10 +19100,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ88">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19416,7 +19434,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19494,7 +19512,7 @@
         <v>0.57</v>
       </c>
       <c r="AP90">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ90">
         <v>0.88</v>
@@ -19622,7 +19640,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19700,7 +19718,7 @@
         <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -19828,7 +19846,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -19909,7 +19927,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR92">
         <v>1.34</v>
@@ -20115,7 +20133,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ93">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AR93">
         <v>1.91</v>
@@ -20318,7 +20336,7 @@
         <v>0.88</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AQ94">
         <v>0.78</v>
@@ -20446,7 +20464,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20527,7 +20545,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20652,7 +20670,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20733,7 +20751,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ96">
-        <v>1.63</v>
+        <v>1.44</v>
       </c>
       <c r="AR96">
         <v>1.83</v>
@@ -20936,7 +20954,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ97">
         <v>0.44</v>
@@ -21064,7 +21082,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21476,7 +21494,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21888,7 +21906,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21966,7 +21984,7 @@
         <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>0.63</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AQ102">
         <v>1.6</v>
@@ -22393,22 +22411,22 @@
         <v>2.8</v>
       </c>
       <c r="AU104">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV104">
         <v>3</v>
       </c>
       <c r="AW104">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX104">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AY104">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AZ104">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22457,6 +22475,1036 @@
       </c>
       <c r="BP104">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="105" spans="1:68">
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105">
+        <v>7325435</v>
+      </c>
+      <c r="C105" t="s">
+        <v>68</v>
+      </c>
+      <c r="D105" t="s">
+        <v>69</v>
+      </c>
+      <c r="E105" s="2">
+        <v>45507.54166666666</v>
+      </c>
+      <c r="F105">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s">
+        <v>79</v>
+      </c>
+      <c r="H105" t="s">
+        <v>76</v>
+      </c>
+      <c r="I105">
+        <v>1</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>2</v>
+      </c>
+      <c r="L105">
+        <v>2</v>
+      </c>
+      <c r="M105">
+        <v>1</v>
+      </c>
+      <c r="N105">
+        <v>3</v>
+      </c>
+      <c r="O105" t="s">
+        <v>158</v>
+      </c>
+      <c r="P105" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q105">
+        <v>5.9</v>
+      </c>
+      <c r="R105">
+        <v>2.45</v>
+      </c>
+      <c r="S105">
+        <v>1.94</v>
+      </c>
+      <c r="T105">
+        <v>1.3</v>
+      </c>
+      <c r="U105">
+        <v>3.34</v>
+      </c>
+      <c r="V105">
+        <v>2.4</v>
+      </c>
+      <c r="W105">
+        <v>1.53</v>
+      </c>
+      <c r="X105">
+        <v>5.55</v>
+      </c>
+      <c r="Y105">
+        <v>1.12</v>
+      </c>
+      <c r="Z105">
+        <v>6</v>
+      </c>
+      <c r="AA105">
+        <v>4.5</v>
+      </c>
+      <c r="AB105">
+        <v>1.4</v>
+      </c>
+      <c r="AC105">
+        <v>1.01</v>
+      </c>
+      <c r="AD105">
+        <v>10.5</v>
+      </c>
+      <c r="AE105">
+        <v>1.17</v>
+      </c>
+      <c r="AF105">
+        <v>4.25</v>
+      </c>
+      <c r="AG105">
+        <v>1.6</v>
+      </c>
+      <c r="AH105">
+        <v>2.1</v>
+      </c>
+      <c r="AI105">
+        <v>1.79</v>
+      </c>
+      <c r="AJ105">
+        <v>1.96</v>
+      </c>
+      <c r="AK105">
+        <v>2.71</v>
+      </c>
+      <c r="AL105">
+        <v>1.19</v>
+      </c>
+      <c r="AM105">
+        <v>1.11</v>
+      </c>
+      <c r="AN105">
+        <v>0.75</v>
+      </c>
+      <c r="AO105">
+        <v>1.38</v>
+      </c>
+      <c r="AP105">
+        <v>1</v>
+      </c>
+      <c r="AQ105">
+        <v>1.22</v>
+      </c>
+      <c r="AR105">
+        <v>1.53</v>
+      </c>
+      <c r="AS105">
+        <v>1.47</v>
+      </c>
+      <c r="AT105">
+        <v>3</v>
+      </c>
+      <c r="AU105">
+        <v>5</v>
+      </c>
+      <c r="AV105">
+        <v>8</v>
+      </c>
+      <c r="AW105">
+        <v>2</v>
+      </c>
+      <c r="AX105">
+        <v>5</v>
+      </c>
+      <c r="AY105">
+        <v>7</v>
+      </c>
+      <c r="AZ105">
+        <v>13</v>
+      </c>
+      <c r="BA105">
+        <v>1</v>
+      </c>
+      <c r="BB105">
+        <v>9</v>
+      </c>
+      <c r="BC105">
+        <v>10</v>
+      </c>
+      <c r="BD105">
+        <v>3.35</v>
+      </c>
+      <c r="BE105">
+        <v>9.5</v>
+      </c>
+      <c r="BF105">
+        <v>1.41</v>
+      </c>
+      <c r="BG105">
+        <v>1.16</v>
+      </c>
+      <c r="BH105">
+        <v>4.35</v>
+      </c>
+      <c r="BI105">
+        <v>1.32</v>
+      </c>
+      <c r="BJ105">
+        <v>2.98</v>
+      </c>
+      <c r="BK105">
+        <v>1.5</v>
+      </c>
+      <c r="BL105">
+        <v>2.45</v>
+      </c>
+      <c r="BM105">
+        <v>1.85</v>
+      </c>
+      <c r="BN105">
+        <v>1.95</v>
+      </c>
+      <c r="BO105">
+        <v>2.43</v>
+      </c>
+      <c r="BP105">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="106" spans="1:68">
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106">
+        <v>7325438</v>
+      </c>
+      <c r="C106" t="s">
+        <v>68</v>
+      </c>
+      <c r="D106" t="s">
+        <v>69</v>
+      </c>
+      <c r="E106" s="2">
+        <v>45508.41666666666</v>
+      </c>
+      <c r="F106">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s">
+        <v>81</v>
+      </c>
+      <c r="H106" t="s">
+        <v>71</v>
+      </c>
+      <c r="I106">
+        <v>0</v>
+      </c>
+      <c r="J106">
+        <v>0</v>
+      </c>
+      <c r="K106">
+        <v>0</v>
+      </c>
+      <c r="L106">
+        <v>0</v>
+      </c>
+      <c r="M106">
+        <v>1</v>
+      </c>
+      <c r="N106">
+        <v>1</v>
+      </c>
+      <c r="O106" t="s">
+        <v>83</v>
+      </c>
+      <c r="P106" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q106">
+        <v>4.33</v>
+      </c>
+      <c r="R106">
+        <v>2.38</v>
+      </c>
+      <c r="S106">
+        <v>2.38</v>
+      </c>
+      <c r="T106">
+        <v>1.3</v>
+      </c>
+      <c r="U106">
+        <v>3.4</v>
+      </c>
+      <c r="V106">
+        <v>2.5</v>
+      </c>
+      <c r="W106">
+        <v>1.5</v>
+      </c>
+      <c r="X106">
+        <v>6</v>
+      </c>
+      <c r="Y106">
+        <v>1.13</v>
+      </c>
+      <c r="Z106">
+        <v>4.1</v>
+      </c>
+      <c r="AA106">
+        <v>3.8</v>
+      </c>
+      <c r="AB106">
+        <v>1.75</v>
+      </c>
+      <c r="AC106">
+        <v>1.01</v>
+      </c>
+      <c r="AD106">
+        <v>11</v>
+      </c>
+      <c r="AE106">
+        <v>1.17</v>
+      </c>
+      <c r="AF106">
+        <v>4.25</v>
+      </c>
+      <c r="AG106">
+        <v>1.68</v>
+      </c>
+      <c r="AH106">
+        <v>2.2</v>
+      </c>
+      <c r="AI106">
+        <v>1.62</v>
+      </c>
+      <c r="AJ106">
+        <v>2.2</v>
+      </c>
+      <c r="AK106">
+        <v>1.99</v>
+      </c>
+      <c r="AL106">
+        <v>1.25</v>
+      </c>
+      <c r="AM106">
+        <v>1.25</v>
+      </c>
+      <c r="AN106">
+        <v>1.5</v>
+      </c>
+      <c r="AO106">
+        <v>1.5</v>
+      </c>
+      <c r="AP106">
+        <v>1.33</v>
+      </c>
+      <c r="AQ106">
+        <v>1.67</v>
+      </c>
+      <c r="AR106">
+        <v>1.22</v>
+      </c>
+      <c r="AS106">
+        <v>1.67</v>
+      </c>
+      <c r="AT106">
+        <v>2.89</v>
+      </c>
+      <c r="AU106">
+        <v>3</v>
+      </c>
+      <c r="AV106">
+        <v>4</v>
+      </c>
+      <c r="AW106">
+        <v>1</v>
+      </c>
+      <c r="AX106">
+        <v>0</v>
+      </c>
+      <c r="AY106">
+        <v>4</v>
+      </c>
+      <c r="AZ106">
+        <v>4</v>
+      </c>
+      <c r="BA106">
+        <v>1</v>
+      </c>
+      <c r="BB106">
+        <v>4</v>
+      </c>
+      <c r="BC106">
+        <v>5</v>
+      </c>
+      <c r="BD106">
+        <v>3.14</v>
+      </c>
+      <c r="BE106">
+        <v>9</v>
+      </c>
+      <c r="BF106">
+        <v>1.51</v>
+      </c>
+      <c r="BG106">
+        <v>1.19</v>
+      </c>
+      <c r="BH106">
+        <v>3.92</v>
+      </c>
+      <c r="BI106">
+        <v>1.4</v>
+      </c>
+      <c r="BJ106">
+        <v>2.72</v>
+      </c>
+      <c r="BK106">
+        <v>1.71</v>
+      </c>
+      <c r="BL106">
+        <v>2.06</v>
+      </c>
+      <c r="BM106">
+        <v>1.92</v>
+      </c>
+      <c r="BN106">
+        <v>1.88</v>
+      </c>
+      <c r="BO106">
+        <v>2.79</v>
+      </c>
+      <c r="BP106">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="107" spans="1:68">
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107">
+        <v>7325439</v>
+      </c>
+      <c r="C107" t="s">
+        <v>68</v>
+      </c>
+      <c r="D107" t="s">
+        <v>69</v>
+      </c>
+      <c r="E107" s="2">
+        <v>45508.52083333334</v>
+      </c>
+      <c r="F107">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s">
+        <v>70</v>
+      </c>
+      <c r="H107" t="s">
+        <v>77</v>
+      </c>
+      <c r="I107">
+        <v>2</v>
+      </c>
+      <c r="J107">
+        <v>0</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>3</v>
+      </c>
+      <c r="M107">
+        <v>0</v>
+      </c>
+      <c r="N107">
+        <v>3</v>
+      </c>
+      <c r="O107" t="s">
+        <v>159</v>
+      </c>
+      <c r="P107" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q107">
+        <v>3.25</v>
+      </c>
+      <c r="R107">
+        <v>2.3</v>
+      </c>
+      <c r="S107">
+        <v>2.88</v>
+      </c>
+      <c r="T107">
+        <v>1.33</v>
+      </c>
+      <c r="U107">
+        <v>3.25</v>
+      </c>
+      <c r="V107">
+        <v>2.5</v>
+      </c>
+      <c r="W107">
+        <v>1.5</v>
+      </c>
+      <c r="X107">
+        <v>6.5</v>
+      </c>
+      <c r="Y107">
+        <v>1.11</v>
+      </c>
+      <c r="Z107">
+        <v>2.88</v>
+      </c>
+      <c r="AA107">
+        <v>3.36</v>
+      </c>
+      <c r="AB107">
+        <v>2.41</v>
+      </c>
+      <c r="AC107">
+        <v>1.01</v>
+      </c>
+      <c r="AD107">
+        <v>10.25</v>
+      </c>
+      <c r="AE107">
+        <v>1.18</v>
+      </c>
+      <c r="AF107">
+        <v>4.15</v>
+      </c>
+      <c r="AG107">
+        <v>1.88</v>
+      </c>
+      <c r="AH107">
+        <v>1.92</v>
+      </c>
+      <c r="AI107">
+        <v>1.57</v>
+      </c>
+      <c r="AJ107">
+        <v>2.25</v>
+      </c>
+      <c r="AK107">
+        <v>1.61</v>
+      </c>
+      <c r="AL107">
+        <v>1.28</v>
+      </c>
+      <c r="AM107">
+        <v>1.43</v>
+      </c>
+      <c r="AN107">
+        <v>1</v>
+      </c>
+      <c r="AO107">
+        <v>1.63</v>
+      </c>
+      <c r="AP107">
+        <v>1.25</v>
+      </c>
+      <c r="AQ107">
+        <v>1.44</v>
+      </c>
+      <c r="AR107">
+        <v>1.75</v>
+      </c>
+      <c r="AS107">
+        <v>1.39</v>
+      </c>
+      <c r="AT107">
+        <v>3.14</v>
+      </c>
+      <c r="AU107">
+        <v>2</v>
+      </c>
+      <c r="AV107">
+        <v>5</v>
+      </c>
+      <c r="AW107">
+        <v>2</v>
+      </c>
+      <c r="AX107">
+        <v>5</v>
+      </c>
+      <c r="AY107">
+        <v>4</v>
+      </c>
+      <c r="AZ107">
+        <v>10</v>
+      </c>
+      <c r="BA107">
+        <v>5</v>
+      </c>
+      <c r="BB107">
+        <v>4</v>
+      </c>
+      <c r="BC107">
+        <v>9</v>
+      </c>
+      <c r="BD107">
+        <v>1.75</v>
+      </c>
+      <c r="BE107">
+        <v>8.5</v>
+      </c>
+      <c r="BF107">
+        <v>2.41</v>
+      </c>
+      <c r="BG107">
+        <v>1.16</v>
+      </c>
+      <c r="BH107">
+        <v>4.33</v>
+      </c>
+      <c r="BI107">
+        <v>1.33</v>
+      </c>
+      <c r="BJ107">
+        <v>2.93</v>
+      </c>
+      <c r="BK107">
+        <v>1.5</v>
+      </c>
+      <c r="BL107">
+        <v>2.45</v>
+      </c>
+      <c r="BM107">
+        <v>1.95</v>
+      </c>
+      <c r="BN107">
+        <v>1.85</v>
+      </c>
+      <c r="BO107">
+        <v>2.43</v>
+      </c>
+      <c r="BP107">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="108" spans="1:68">
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108">
+        <v>7325436</v>
+      </c>
+      <c r="C108" t="s">
+        <v>68</v>
+      </c>
+      <c r="D108" t="s">
+        <v>69</v>
+      </c>
+      <c r="E108" s="2">
+        <v>45508.52083333334</v>
+      </c>
+      <c r="F108">
+        <v>18</v>
+      </c>
+      <c r="G108" t="s">
+        <v>75</v>
+      </c>
+      <c r="H108" t="s">
+        <v>72</v>
+      </c>
+      <c r="I108">
+        <v>1</v>
+      </c>
+      <c r="J108">
+        <v>0</v>
+      </c>
+      <c r="K108">
+        <v>1</v>
+      </c>
+      <c r="L108">
+        <v>2</v>
+      </c>
+      <c r="M108">
+        <v>1</v>
+      </c>
+      <c r="N108">
+        <v>3</v>
+      </c>
+      <c r="O108" t="s">
+        <v>160</v>
+      </c>
+      <c r="P108" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q108">
+        <v>2.88</v>
+      </c>
+      <c r="R108">
+        <v>2.25</v>
+      </c>
+      <c r="S108">
+        <v>3.5</v>
+      </c>
+      <c r="T108">
+        <v>1.33</v>
+      </c>
+      <c r="U108">
+        <v>3.25</v>
+      </c>
+      <c r="V108">
+        <v>2.63</v>
+      </c>
+      <c r="W108">
+        <v>1.44</v>
+      </c>
+      <c r="X108">
+        <v>6.5</v>
+      </c>
+      <c r="Y108">
+        <v>1.11</v>
+      </c>
+      <c r="Z108">
+        <v>2.16</v>
+      </c>
+      <c r="AA108">
+        <v>3.42</v>
+      </c>
+      <c r="AB108">
+        <v>3.27</v>
+      </c>
+      <c r="AC108">
+        <v>1.04</v>
+      </c>
+      <c r="AD108">
+        <v>13</v>
+      </c>
+      <c r="AE108">
+        <v>1.25</v>
+      </c>
+      <c r="AF108">
+        <v>4</v>
+      </c>
+      <c r="AG108">
+        <v>1.9</v>
+      </c>
+      <c r="AH108">
+        <v>1.9</v>
+      </c>
+      <c r="AI108">
+        <v>1.62</v>
+      </c>
+      <c r="AJ108">
+        <v>2.2</v>
+      </c>
+      <c r="AK108">
+        <v>1.42</v>
+      </c>
+      <c r="AL108">
+        <v>1.33</v>
+      </c>
+      <c r="AM108">
+        <v>1.7</v>
+      </c>
+      <c r="AN108">
+        <v>2.57</v>
+      </c>
+      <c r="AO108">
+        <v>1.75</v>
+      </c>
+      <c r="AP108">
+        <v>2.63</v>
+      </c>
+      <c r="AQ108">
+        <v>1.56</v>
+      </c>
+      <c r="AR108">
+        <v>1.71</v>
+      </c>
+      <c r="AS108">
+        <v>1.72</v>
+      </c>
+      <c r="AT108">
+        <v>3.43</v>
+      </c>
+      <c r="AU108">
+        <v>5</v>
+      </c>
+      <c r="AV108">
+        <v>3</v>
+      </c>
+      <c r="AW108">
+        <v>1</v>
+      </c>
+      <c r="AX108">
+        <v>5</v>
+      </c>
+      <c r="AY108">
+        <v>6</v>
+      </c>
+      <c r="AZ108">
+        <v>8</v>
+      </c>
+      <c r="BA108">
+        <v>2</v>
+      </c>
+      <c r="BB108">
+        <v>5</v>
+      </c>
+      <c r="BC108">
+        <v>7</v>
+      </c>
+      <c r="BD108">
+        <v>1.69</v>
+      </c>
+      <c r="BE108">
+        <v>8.5</v>
+      </c>
+      <c r="BF108">
+        <v>2.62</v>
+      </c>
+      <c r="BG108">
+        <v>1.17</v>
+      </c>
+      <c r="BH108">
+        <v>4.15</v>
+      </c>
+      <c r="BI108">
+        <v>1.38</v>
+      </c>
+      <c r="BJ108">
+        <v>2.88</v>
+      </c>
+      <c r="BK108">
+        <v>1.67</v>
+      </c>
+      <c r="BL108">
+        <v>2.12</v>
+      </c>
+      <c r="BM108">
+        <v>2.12</v>
+      </c>
+      <c r="BN108">
+        <v>1.66</v>
+      </c>
+      <c r="BO108">
+        <v>2.85</v>
+      </c>
+      <c r="BP108">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="109" spans="1:68">
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109">
+        <v>7325437</v>
+      </c>
+      <c r="C109" t="s">
+        <v>68</v>
+      </c>
+      <c r="D109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="2">
+        <v>45508.52083333334</v>
+      </c>
+      <c r="F109">
+        <v>18</v>
+      </c>
+      <c r="G109" t="s">
+        <v>80</v>
+      </c>
+      <c r="H109" t="s">
+        <v>74</v>
+      </c>
+      <c r="I109">
+        <v>1</v>
+      </c>
+      <c r="J109">
+        <v>0</v>
+      </c>
+      <c r="K109">
+        <v>1</v>
+      </c>
+      <c r="L109">
+        <v>1</v>
+      </c>
+      <c r="M109">
+        <v>2</v>
+      </c>
+      <c r="N109">
+        <v>3</v>
+      </c>
+      <c r="O109" t="s">
+        <v>161</v>
+      </c>
+      <c r="P109" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q109">
+        <v>4.33</v>
+      </c>
+      <c r="R109">
+        <v>2.3</v>
+      </c>
+      <c r="S109">
+        <v>2.5</v>
+      </c>
+      <c r="T109">
+        <v>1.33</v>
+      </c>
+      <c r="U109">
+        <v>3.25</v>
+      </c>
+      <c r="V109">
+        <v>2.63</v>
+      </c>
+      <c r="W109">
+        <v>1.44</v>
+      </c>
+      <c r="X109">
+        <v>6.5</v>
+      </c>
+      <c r="Y109">
+        <v>1.11</v>
+      </c>
+      <c r="Z109">
+        <v>3.9</v>
+      </c>
+      <c r="AA109">
+        <v>3.78</v>
+      </c>
+      <c r="AB109">
+        <v>1.84</v>
+      </c>
+      <c r="AC109">
+        <v>1.03</v>
+      </c>
+      <c r="AD109">
+        <v>15</v>
+      </c>
+      <c r="AE109">
+        <v>1.25</v>
+      </c>
+      <c r="AF109">
+        <v>4</v>
+      </c>
+      <c r="AG109">
+        <v>1.65</v>
+      </c>
+      <c r="AH109">
+        <v>2.1</v>
+      </c>
+      <c r="AI109">
+        <v>1.67</v>
+      </c>
+      <c r="AJ109">
+        <v>2.1</v>
+      </c>
+      <c r="AK109">
+        <v>2</v>
+      </c>
+      <c r="AL109">
+        <v>1.28</v>
+      </c>
+      <c r="AM109">
+        <v>1.28</v>
+      </c>
+      <c r="AN109">
+        <v>0.63</v>
+      </c>
+      <c r="AO109">
+        <v>1.25</v>
+      </c>
+      <c r="AP109">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AQ109">
+        <v>1.44</v>
+      </c>
+      <c r="AR109">
+        <v>1.12</v>
+      </c>
+      <c r="AS109">
+        <v>1.24</v>
+      </c>
+      <c r="AT109">
+        <v>2.36</v>
+      </c>
+      <c r="AU109">
+        <v>3</v>
+      </c>
+      <c r="AV109">
+        <v>6</v>
+      </c>
+      <c r="AW109">
+        <v>3</v>
+      </c>
+      <c r="AX109">
+        <v>3</v>
+      </c>
+      <c r="AY109">
+        <v>6</v>
+      </c>
+      <c r="AZ109">
+        <v>9</v>
+      </c>
+      <c r="BA109">
+        <v>4</v>
+      </c>
+      <c r="BB109">
+        <v>8</v>
+      </c>
+      <c r="BC109">
+        <v>12</v>
+      </c>
+      <c r="BD109">
+        <v>2.1</v>
+      </c>
+      <c r="BE109">
+        <v>8</v>
+      </c>
+      <c r="BF109">
+        <v>1.91</v>
+      </c>
+      <c r="BG109">
+        <v>1.16</v>
+      </c>
+      <c r="BH109">
+        <v>4.3</v>
+      </c>
+      <c r="BI109">
+        <v>1.5</v>
+      </c>
+      <c r="BJ109">
+        <v>2.48</v>
+      </c>
+      <c r="BK109">
+        <v>1.85</v>
+      </c>
+      <c r="BL109">
+        <v>1.95</v>
+      </c>
+      <c r="BM109">
+        <v>2.45</v>
+      </c>
+      <c r="BN109">
+        <v>1.5</v>
+      </c>
+      <c r="BO109">
+        <v>3.4</v>
+      </c>
+      <c r="BP109">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -22411,22 +22411,22 @@
         <v>2.8</v>
       </c>
       <c r="AU104">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV104">
         <v>3</v>
       </c>
       <c r="AW104">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX104">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY104">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ104">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22617,22 +22617,22 @@
         <v>3</v>
       </c>
       <c r="AU105">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV105">
         <v>8</v>
       </c>
       <c r="AW105">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AX105">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="AY105">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ105">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="BA105">
         <v>1</v>
@@ -22823,22 +22823,22 @@
         <v>2.89</v>
       </c>
       <c r="AU106">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV106">
         <v>4</v>
       </c>
       <c r="AW106">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX106">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AY106">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AZ106">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA106">
         <v>1</v>
@@ -23032,19 +23032,19 @@
         <v>2</v>
       </c>
       <c r="AV107">
+        <v>3</v>
+      </c>
+      <c r="AW107">
+        <v>1</v>
+      </c>
+      <c r="AX107">
+        <v>2</v>
+      </c>
+      <c r="AY107">
+        <v>3</v>
+      </c>
+      <c r="AZ107">
         <v>5</v>
-      </c>
-      <c r="AW107">
-        <v>2</v>
-      </c>
-      <c r="AX107">
-        <v>5</v>
-      </c>
-      <c r="AY107">
-        <v>4</v>
-      </c>
-      <c r="AZ107">
-        <v>10</v>
       </c>
       <c r="BA107">
         <v>5</v>
@@ -23235,22 +23235,22 @@
         <v>3.43</v>
       </c>
       <c r="AU108">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV108">
+        <v>0</v>
+      </c>
+      <c r="AW108">
+        <v>1</v>
+      </c>
+      <c r="AX108">
+        <v>2</v>
+      </c>
+      <c r="AY108">
         <v>3</v>
       </c>
-      <c r="AW108">
-        <v>1</v>
-      </c>
-      <c r="AX108">
-        <v>5</v>
-      </c>
-      <c r="AY108">
-        <v>6</v>
-      </c>
       <c r="AZ108">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="BA108">
         <v>2</v>
@@ -23441,22 +23441,22 @@
         <v>2.36</v>
       </c>
       <c r="AU109">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV109">
+        <v>5</v>
+      </c>
+      <c r="AW109">
         <v>6</v>
       </c>
-      <c r="AW109">
-        <v>3</v>
-      </c>
       <c r="AX109">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY109">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AZ109">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA109">
         <v>4</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="225">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['6', '38', '89', '90+1']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1047,7 +1050,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1306,7 +1309,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1718,7 +1721,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1924,7 +1927,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2005,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2130,7 +2133,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2336,7 +2339,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2748,7 +2751,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2829,7 +2832,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ9">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2954,7 +2957,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3160,7 +3163,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3366,7 +3369,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3572,7 +3575,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4190,7 +4193,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4474,7 +4477,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ17">
         <v>1.44</v>
@@ -4602,7 +4605,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4808,7 +4811,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5014,7 +5017,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5220,7 +5223,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5301,7 +5304,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ21">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5426,7 +5429,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5632,7 +5635,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5710,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ23">
         <v>1.6</v>
@@ -5838,7 +5841,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6250,7 +6253,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6662,7 +6665,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6949,7 +6952,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ29">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -7074,7 +7077,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7280,7 +7283,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7486,7 +7489,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7692,7 +7695,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8104,7 +8107,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8516,7 +8519,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8800,7 +8803,7 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ38">
         <v>0.88</v>
@@ -8928,7 +8931,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9134,7 +9137,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9340,7 +9343,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10164,7 +10167,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10782,7 +10785,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11194,7 +11197,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11275,7 +11278,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ50">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11400,7 +11403,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11606,7 +11609,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11684,7 +11687,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ52">
         <v>1.56</v>
@@ -12018,7 +12021,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12224,7 +12227,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12430,7 +12433,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12842,7 +12845,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13048,7 +13051,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13460,7 +13463,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13538,7 +13541,7 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ61">
         <v>0.88</v>
@@ -13872,7 +13875,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14078,7 +14081,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14490,7 +14493,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14696,7 +14699,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14777,7 +14780,7 @@
         <v>2</v>
       </c>
       <c r="AQ67">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR67">
         <v>1.63</v>
@@ -14902,7 +14905,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15520,7 +15523,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15726,7 +15729,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15804,7 +15807,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16344,7 +16347,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16550,7 +16553,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16756,7 +16759,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16962,7 +16965,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17374,7 +17377,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17580,7 +17583,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17658,7 +17661,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ81">
         <v>1.67</v>
@@ -17786,7 +17789,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17992,7 +17995,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18073,7 +18076,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ83">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR83">
         <v>1.64</v>
@@ -18404,7 +18407,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18485,7 +18488,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ85">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR85">
         <v>1.85</v>
@@ -18610,7 +18613,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18816,7 +18819,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19022,7 +19025,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19434,7 +19437,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19640,7 +19643,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19718,7 +19721,7 @@
         <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ91">
         <v>0.67</v>
@@ -19846,7 +19849,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20339,7 +20342,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ94">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR94">
         <v>1.25</v>
@@ -20464,7 +20467,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20670,7 +20673,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21082,7 +21085,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21494,7 +21497,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21906,7 +21909,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22524,7 +22527,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22602,7 +22605,7 @@
         <v>1.38</v>
       </c>
       <c r="AP105">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AQ105">
         <v>1.22</v>
@@ -22730,7 +22733,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23142,7 +23145,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23348,7 +23351,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23505,6 +23508,212 @@
       </c>
       <c r="BP109">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7325440</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45513.5</v>
+      </c>
+      <c r="F110">
+        <v>19</v>
+      </c>
+      <c r="G110" t="s">
+        <v>79</v>
+      </c>
+      <c r="H110" t="s">
+        <v>80</v>
+      </c>
+      <c r="I110">
+        <v>2</v>
+      </c>
+      <c r="J110">
+        <v>0</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>4</v>
+      </c>
+      <c r="M110">
+        <v>0</v>
+      </c>
+      <c r="N110">
+        <v>4</v>
+      </c>
+      <c r="O110" t="s">
+        <v>162</v>
+      </c>
+      <c r="P110" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q110">
+        <v>2.38</v>
+      </c>
+      <c r="R110">
+        <v>2.38</v>
+      </c>
+      <c r="S110">
+        <v>4.33</v>
+      </c>
+      <c r="T110">
+        <v>1.3</v>
+      </c>
+      <c r="U110">
+        <v>3.4</v>
+      </c>
+      <c r="V110">
+        <v>2.5</v>
+      </c>
+      <c r="W110">
+        <v>1.5</v>
+      </c>
+      <c r="X110">
+        <v>6</v>
+      </c>
+      <c r="Y110">
+        <v>1.13</v>
+      </c>
+      <c r="Z110">
+        <v>1.93</v>
+      </c>
+      <c r="AA110">
+        <v>3.74</v>
+      </c>
+      <c r="AB110">
+        <v>3.58</v>
+      </c>
+      <c r="AC110">
+        <v>1.03</v>
+      </c>
+      <c r="AD110">
+        <v>16</v>
+      </c>
+      <c r="AE110">
+        <v>1.16</v>
+      </c>
+      <c r="AF110">
+        <v>4.33</v>
+      </c>
+      <c r="AG110">
+        <v>1.6</v>
+      </c>
+      <c r="AH110">
+        <v>2.2</v>
+      </c>
+      <c r="AI110">
+        <v>1.62</v>
+      </c>
+      <c r="AJ110">
+        <v>2.2</v>
+      </c>
+      <c r="AK110">
+        <v>1.25</v>
+      </c>
+      <c r="AL110">
+        <v>1.25</v>
+      </c>
+      <c r="AM110">
+        <v>1.99</v>
+      </c>
+      <c r="AN110">
+        <v>1</v>
+      </c>
+      <c r="AO110">
+        <v>0.78</v>
+      </c>
+      <c r="AP110">
+        <v>1.2</v>
+      </c>
+      <c r="AQ110">
+        <v>0.7</v>
+      </c>
+      <c r="AR110">
+        <v>1.51</v>
+      </c>
+      <c r="AS110">
+        <v>1.29</v>
+      </c>
+      <c r="AT110">
+        <v>2.8</v>
+      </c>
+      <c r="AU110">
+        <v>6</v>
+      </c>
+      <c r="AV110">
+        <v>4</v>
+      </c>
+      <c r="AW110">
+        <v>6</v>
+      </c>
+      <c r="AX110">
+        <v>9</v>
+      </c>
+      <c r="AY110">
+        <v>12</v>
+      </c>
+      <c r="AZ110">
+        <v>13</v>
+      </c>
+      <c r="BA110">
+        <v>1</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
+        <v>6</v>
+      </c>
+      <c r="BD110">
+        <v>1.59</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.78</v>
+      </c>
+      <c r="BG110">
+        <v>1.24</v>
+      </c>
+      <c r="BH110">
+        <v>3.48</v>
+      </c>
+      <c r="BI110">
+        <v>1.51</v>
+      </c>
+      <c r="BJ110">
+        <v>2.43</v>
+      </c>
+      <c r="BK110">
+        <v>1.88</v>
+      </c>
+      <c r="BL110">
+        <v>1.92</v>
+      </c>
+      <c r="BM110">
+        <v>2.35</v>
+      </c>
+      <c r="BN110">
+        <v>1.54</v>
+      </c>
+      <c r="BO110">
+        <v>3.08</v>
+      </c>
+      <c r="BP110">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="227">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -503,6 +503,12 @@
   </si>
   <si>
     <t>['6', '38', '89', '90+1']</t>
+  </si>
+  <si>
+    <t>['12']</t>
+  </si>
+  <si>
+    <t>['25', '49']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1050,7 +1056,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1309,7 +1315,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1390,7 +1396,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ2">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1593,7 +1599,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
         <v>0.44</v>
@@ -1721,7 +1727,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1927,7 +1933,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2133,7 +2139,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2339,7 +2345,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2751,7 +2757,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2957,7 +2963,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3163,7 +3169,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3369,7 +3375,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3447,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3575,7 +3581,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4193,7 +4199,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4274,7 +4280,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ16">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4605,7 +4611,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4811,7 +4817,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5017,7 +5023,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5223,7 +5229,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5429,7 +5435,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5635,7 +5641,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5841,7 +5847,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5919,7 +5925,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
         <v>1.44</v>
@@ -6253,7 +6259,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6665,7 +6671,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6743,7 +6749,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
         <v>0.67</v>
@@ -7077,7 +7083,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7283,7 +7289,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7489,7 +7495,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7570,7 +7576,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7695,7 +7701,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8107,7 +8113,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8185,7 +8191,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8519,7 +8525,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8806,7 +8812,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8931,7 +8937,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9137,7 +9143,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9215,10 +9221,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9343,7 +9349,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9424,7 +9430,7 @@
         <v>2</v>
       </c>
       <c r="AQ41">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9627,7 +9633,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
         <v>1.44</v>
@@ -10167,7 +10173,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10657,10 +10663,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10785,7 +10791,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11197,7 +11203,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11403,7 +11409,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11609,7 +11615,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11896,7 +11902,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -12021,7 +12027,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12227,7 +12233,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12305,7 +12311,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
         <v>1.6</v>
@@ -12433,7 +12439,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12514,7 +12520,7 @@
         <v>2</v>
       </c>
       <c r="AQ56">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12717,7 +12723,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.22</v>
@@ -12845,7 +12851,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13051,7 +13057,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13463,7 +13469,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13544,7 +13550,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ61">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13750,7 +13756,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ62">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13875,7 +13881,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14081,7 +14087,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14493,7 +14499,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14571,7 +14577,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66">
         <v>0.44</v>
@@ -14699,7 +14705,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14905,7 +14911,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15523,7 +15529,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15729,7 +15735,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16016,7 +16022,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ73">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR73">
         <v>1.38</v>
@@ -16347,7 +16353,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16425,7 +16431,7 @@
         <v>1.4</v>
       </c>
       <c r="AP75">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ75">
         <v>1.56</v>
@@ -16553,7 +16559,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16634,7 +16640,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ76">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16759,7 +16765,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16965,7 +16971,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17249,7 +17255,7 @@
         <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.6</v>
@@ -17377,7 +17383,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17583,7 +17589,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17789,7 +17795,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17995,7 +18001,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18279,7 +18285,7 @@
         <v>1.57</v>
       </c>
       <c r="AP84">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ84">
         <v>1.22</v>
@@ -18407,7 +18413,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18613,7 +18619,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18819,7 +18825,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19025,7 +19031,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19103,7 +19109,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
         <v>1.56</v>
@@ -19437,7 +19443,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19518,7 +19524,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ90">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR90">
         <v>1.13</v>
@@ -19643,7 +19649,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19849,7 +19855,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20339,7 +20345,7 @@
         <v>0.88</v>
       </c>
       <c r="AP94">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>0.7</v>
@@ -20467,7 +20473,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20673,7 +20679,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20751,7 +20757,7 @@
         <v>1.86</v>
       </c>
       <c r="AP96">
-        <v>1.89</v>
+        <v>2</v>
       </c>
       <c r="AQ96">
         <v>1.44</v>
@@ -21085,7 +21091,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21497,7 +21503,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21909,7 +21915,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22196,7 +22202,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ103">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR103">
         <v>1.84</v>
@@ -22402,7 +22408,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ104">
-        <v>0.88</v>
+        <v>0.78</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22527,7 +22533,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22733,7 +22739,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22811,7 +22817,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.33</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>1.67</v>
@@ -23145,7 +23151,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23351,7 +23357,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23714,6 +23720,418 @@
       </c>
       <c r="BP110">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7325441</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45514.45833333334</v>
+      </c>
+      <c r="F111">
+        <v>19</v>
+      </c>
+      <c r="G111" t="s">
+        <v>81</v>
+      </c>
+      <c r="H111" t="s">
+        <v>78</v>
+      </c>
+      <c r="I111">
+        <v>1</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>1</v>
+      </c>
+      <c r="L111">
+        <v>1</v>
+      </c>
+      <c r="M111">
+        <v>0</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>163</v>
+      </c>
+      <c r="P111" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q111">
+        <v>4</v>
+      </c>
+      <c r="R111">
+        <v>2.2</v>
+      </c>
+      <c r="S111">
+        <v>2.6</v>
+      </c>
+      <c r="T111">
+        <v>1.36</v>
+      </c>
+      <c r="U111">
+        <v>3</v>
+      </c>
+      <c r="V111">
+        <v>2.75</v>
+      </c>
+      <c r="W111">
+        <v>1.4</v>
+      </c>
+      <c r="X111">
+        <v>7</v>
+      </c>
+      <c r="Y111">
+        <v>1.1</v>
+      </c>
+      <c r="Z111">
+        <v>3.4</v>
+      </c>
+      <c r="AA111">
+        <v>3.5</v>
+      </c>
+      <c r="AB111">
+        <v>1.95</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>9.800000000000001</v>
+      </c>
+      <c r="AE111">
+        <v>1.24</v>
+      </c>
+      <c r="AF111">
+        <v>3.5</v>
+      </c>
+      <c r="AG111">
+        <v>1.8</v>
+      </c>
+      <c r="AH111">
+        <v>1.91</v>
+      </c>
+      <c r="AI111">
+        <v>1.75</v>
+      </c>
+      <c r="AJ111">
+        <v>2</v>
+      </c>
+      <c r="AK111">
+        <v>1.83</v>
+      </c>
+      <c r="AL111">
+        <v>1.3</v>
+      </c>
+      <c r="AM111">
+        <v>1.29</v>
+      </c>
+      <c r="AN111">
+        <v>1.33</v>
+      </c>
+      <c r="AO111">
+        <v>0.88</v>
+      </c>
+      <c r="AP111">
+        <v>1.5</v>
+      </c>
+      <c r="AQ111">
+        <v>0.78</v>
+      </c>
+      <c r="AR111">
+        <v>1.2</v>
+      </c>
+      <c r="AS111">
+        <v>1.64</v>
+      </c>
+      <c r="AT111">
+        <v>2.84</v>
+      </c>
+      <c r="AU111">
+        <v>2</v>
+      </c>
+      <c r="AV111">
+        <v>6</v>
+      </c>
+      <c r="AW111">
+        <v>3</v>
+      </c>
+      <c r="AX111">
+        <v>10</v>
+      </c>
+      <c r="AY111">
+        <v>5</v>
+      </c>
+      <c r="AZ111">
+        <v>16</v>
+      </c>
+      <c r="BA111">
+        <v>2</v>
+      </c>
+      <c r="BB111">
+        <v>3</v>
+      </c>
+      <c r="BC111">
+        <v>5</v>
+      </c>
+      <c r="BD111">
+        <v>3.07</v>
+      </c>
+      <c r="BE111">
+        <v>8.5</v>
+      </c>
+      <c r="BF111">
+        <v>1.51</v>
+      </c>
+      <c r="BG111">
+        <v>1.19</v>
+      </c>
+      <c r="BH111">
+        <v>3.92</v>
+      </c>
+      <c r="BI111">
+        <v>1.39</v>
+      </c>
+      <c r="BJ111">
+        <v>2.76</v>
+      </c>
+      <c r="BK111">
+        <v>1.73</v>
+      </c>
+      <c r="BL111">
+        <v>2</v>
+      </c>
+      <c r="BM111">
+        <v>2.14</v>
+      </c>
+      <c r="BN111">
+        <v>1.63</v>
+      </c>
+      <c r="BO111">
+        <v>2.79</v>
+      </c>
+      <c r="BP111">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7325442</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45515.375</v>
+      </c>
+      <c r="F112">
+        <v>19</v>
+      </c>
+      <c r="G112" t="s">
+        <v>71</v>
+      </c>
+      <c r="H112" t="s">
+        <v>73</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112">
+        <v>1</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>0</v>
+      </c>
+      <c r="N112">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>164</v>
+      </c>
+      <c r="P112" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q112">
+        <v>1.8</v>
+      </c>
+      <c r="R112">
+        <v>2.6</v>
+      </c>
+      <c r="S112">
+        <v>7</v>
+      </c>
+      <c r="T112">
+        <v>1.29</v>
+      </c>
+      <c r="U112">
+        <v>3.5</v>
+      </c>
+      <c r="V112">
+        <v>2.38</v>
+      </c>
+      <c r="W112">
+        <v>1.53</v>
+      </c>
+      <c r="X112">
+        <v>5.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.14</v>
+      </c>
+      <c r="Z112">
+        <v>1.37</v>
+      </c>
+      <c r="AA112">
+        <v>4.9</v>
+      </c>
+      <c r="AB112">
+        <v>7.4</v>
+      </c>
+      <c r="AC112">
+        <v>1.01</v>
+      </c>
+      <c r="AD112">
+        <v>12</v>
+      </c>
+      <c r="AE112">
+        <v>1.16</v>
+      </c>
+      <c r="AF112">
+        <v>4.4</v>
+      </c>
+      <c r="AG112">
+        <v>1.51</v>
+      </c>
+      <c r="AH112">
+        <v>2.37</v>
+      </c>
+      <c r="AI112">
+        <v>1.91</v>
+      </c>
+      <c r="AJ112">
+        <v>1.91</v>
+      </c>
+      <c r="AK112">
+        <v>1.06</v>
+      </c>
+      <c r="AL112">
+        <v>1.16</v>
+      </c>
+      <c r="AM112">
+        <v>3.32</v>
+      </c>
+      <c r="AN112">
+        <v>1.89</v>
+      </c>
+      <c r="AO112">
+        <v>0.88</v>
+      </c>
+      <c r="AP112">
+        <v>2</v>
+      </c>
+      <c r="AQ112">
+        <v>0.78</v>
+      </c>
+      <c r="AR112">
+        <v>1.76</v>
+      </c>
+      <c r="AS112">
+        <v>1.11</v>
+      </c>
+      <c r="AT112">
+        <v>2.87</v>
+      </c>
+      <c r="AU112">
+        <v>0</v>
+      </c>
+      <c r="AV112">
+        <v>0</v>
+      </c>
+      <c r="AW112">
+        <v>0</v>
+      </c>
+      <c r="AX112">
+        <v>0</v>
+      </c>
+      <c r="AY112">
+        <v>0</v>
+      </c>
+      <c r="AZ112">
+        <v>0</v>
+      </c>
+      <c r="BA112">
+        <v>0</v>
+      </c>
+      <c r="BB112">
+        <v>0</v>
+      </c>
+      <c r="BC112">
+        <v>0</v>
+      </c>
+      <c r="BD112">
+        <v>1.14</v>
+      </c>
+      <c r="BE112">
+        <v>12</v>
+      </c>
+      <c r="BF112">
+        <v>6.54</v>
+      </c>
+      <c r="BG112">
+        <v>1.16</v>
+      </c>
+      <c r="BH112">
+        <v>4.3</v>
+      </c>
+      <c r="BI112">
+        <v>1.33</v>
+      </c>
+      <c r="BJ112">
+        <v>2.93</v>
+      </c>
+      <c r="BK112">
+        <v>1.61</v>
+      </c>
+      <c r="BL112">
+        <v>2.17</v>
+      </c>
+      <c r="BM112">
+        <v>1.9</v>
+      </c>
+      <c r="BN112">
+        <v>1.9</v>
+      </c>
+      <c r="BO112">
+        <v>2.62</v>
+      </c>
+      <c r="BP112">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="229">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -511,6 +511,9 @@
     <t>['25', '49']</t>
   </si>
   <si>
+    <t>['71', '81']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -695,6 +698,9 @@
   </si>
   <si>
     <t>['59', '78']</t>
+  </si>
+  <si>
+    <t>['29', '32']</t>
   </si>
 </sst>
 </file>
@@ -1056,7 +1062,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP112"/>
+  <dimension ref="A1:BP113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1315,7 +1321,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1727,7 +1733,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1933,7 +1939,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2139,7 +2145,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2217,7 +2223,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ6">
         <v>1.44</v>
@@ -2345,7 +2351,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2757,7 +2763,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2835,7 +2841,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ9">
         <v>0.7</v>
@@ -2963,7 +2969,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3169,7 +3175,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3375,7 +3381,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3581,7 +3587,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3662,7 +3668,7 @@
         <v>1</v>
       </c>
       <c r="AQ13">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -4074,7 +4080,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ15">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4199,7 +4205,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4611,7 +4617,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4817,7 +4823,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5023,7 +5029,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5229,7 +5235,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5435,7 +5441,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5513,7 +5519,7 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ22">
         <v>1.22</v>
@@ -5641,7 +5647,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5722,7 +5728,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ23">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5847,7 +5853,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6259,7 +6265,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6671,7 +6677,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7083,7 +7089,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7164,7 +7170,7 @@
         <v>2</v>
       </c>
       <c r="AQ30">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7289,7 +7295,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7495,7 +7501,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7701,7 +7707,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7985,7 +7991,7 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ34">
         <v>1.56</v>
@@ -8113,7 +8119,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8525,7 +8531,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8937,7 +8943,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9143,7 +9149,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9349,7 +9355,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9842,7 +9848,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ43">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10173,7 +10179,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10254,7 +10260,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ45">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10791,7 +10797,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10869,7 +10875,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ48">
         <v>0.67</v>
@@ -11203,7 +11209,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11409,7 +11415,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11615,7 +11621,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12027,7 +12033,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12233,7 +12239,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12314,7 +12320,7 @@
         <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12439,7 +12445,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12851,7 +12857,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13057,7 +13063,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13469,7 +13475,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13753,7 +13759,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ62">
         <v>0.78</v>
@@ -13881,7 +13887,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14087,7 +14093,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14499,7 +14505,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14705,7 +14711,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14911,7 +14917,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15529,7 +15535,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15735,7 +15741,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16019,7 +16025,7 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ73">
         <v>0.78</v>
@@ -16353,7 +16359,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16559,7 +16565,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16765,7 +16771,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16846,7 +16852,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ77">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR77">
         <v>1.95</v>
@@ -16971,7 +16977,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17258,7 +17264,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17383,7 +17389,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17589,7 +17595,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17795,7 +17801,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18001,7 +18007,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18413,7 +18419,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18619,7 +18625,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18825,7 +18831,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19031,7 +19037,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19443,7 +19449,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19649,7 +19655,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19855,7 +19861,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -19933,7 +19939,7 @@
         <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ92">
         <v>1.67</v>
@@ -20473,7 +20479,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20679,7 +20685,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21091,7 +21097,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21503,7 +21509,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21787,7 +21793,7 @@
         <v>0.78</v>
       </c>
       <c r="AP101">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -21915,7 +21921,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -21996,7 +22002,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ102">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AR102">
         <v>1.08</v>
@@ -22533,7 +22539,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22739,7 +22745,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23151,7 +23157,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23357,7 +23363,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24132,6 +24138,212 @@
       </c>
       <c r="BP112">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7325443</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45515.45833333334</v>
+      </c>
+      <c r="F113">
+        <v>19</v>
+      </c>
+      <c r="G113" t="s">
+        <v>74</v>
+      </c>
+      <c r="H113" t="s">
+        <v>75</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>2</v>
+      </c>
+      <c r="K113">
+        <v>2</v>
+      </c>
+      <c r="L113">
+        <v>2</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>4</v>
+      </c>
+      <c r="O113" t="s">
+        <v>165</v>
+      </c>
+      <c r="P113" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q113">
+        <v>4</v>
+      </c>
+      <c r="R113">
+        <v>2.3</v>
+      </c>
+      <c r="S113">
+        <v>2.5</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.25</v>
+      </c>
+      <c r="V113">
+        <v>2.5</v>
+      </c>
+      <c r="W113">
+        <v>1.5</v>
+      </c>
+      <c r="X113">
+        <v>6.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.11</v>
+      </c>
+      <c r="Z113">
+        <v>3.53</v>
+      </c>
+      <c r="AA113">
+        <v>3.84</v>
+      </c>
+      <c r="AB113">
+        <v>1.88</v>
+      </c>
+      <c r="AC113">
+        <v>1.02</v>
+      </c>
+      <c r="AD113">
+        <v>10.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.19</v>
+      </c>
+      <c r="AF113">
+        <v>3.98</v>
+      </c>
+      <c r="AG113">
+        <v>1.7</v>
+      </c>
+      <c r="AH113">
+        <v>2.1</v>
+      </c>
+      <c r="AI113">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.86</v>
+      </c>
+      <c r="AL113">
+        <v>1.27</v>
+      </c>
+      <c r="AM113">
+        <v>1.28</v>
+      </c>
+      <c r="AN113">
+        <v>1.89</v>
+      </c>
+      <c r="AO113">
+        <v>1.6</v>
+      </c>
+      <c r="AP113">
+        <v>1.8</v>
+      </c>
+      <c r="AQ113">
+        <v>1.55</v>
+      </c>
+      <c r="AR113">
+        <v>1.59</v>
+      </c>
+      <c r="AS113">
+        <v>1.7</v>
+      </c>
+      <c r="AT113">
+        <v>3.29</v>
+      </c>
+      <c r="AU113">
+        <v>6</v>
+      </c>
+      <c r="AV113">
+        <v>6</v>
+      </c>
+      <c r="AW113">
+        <v>8</v>
+      </c>
+      <c r="AX113">
+        <v>6</v>
+      </c>
+      <c r="AY113">
+        <v>14</v>
+      </c>
+      <c r="AZ113">
+        <v>12</v>
+      </c>
+      <c r="BA113">
+        <v>4</v>
+      </c>
+      <c r="BB113">
+        <v>3</v>
+      </c>
+      <c r="BC113">
+        <v>7</v>
+      </c>
+      <c r="BD113">
+        <v>3.16</v>
+      </c>
+      <c r="BE113">
+        <v>8.5</v>
+      </c>
+      <c r="BF113">
+        <v>1.51</v>
+      </c>
+      <c r="BG113">
+        <v>1.14</v>
+      </c>
+      <c r="BH113">
+        <v>4.65</v>
+      </c>
+      <c r="BI113">
+        <v>1.29</v>
+      </c>
+      <c r="BJ113">
+        <v>3.14</v>
+      </c>
+      <c r="BK113">
+        <v>1.73</v>
+      </c>
+      <c r="BL113">
+        <v>2</v>
+      </c>
+      <c r="BM113">
+        <v>1.92</v>
+      </c>
+      <c r="BN113">
+        <v>1.82</v>
+      </c>
+      <c r="BO113">
+        <v>2.46</v>
+      </c>
+      <c r="BP113">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -512,6 +512,9 @@
   </si>
   <si>
     <t>['71', '81']</t>
+  </si>
+  <si>
+    <t>['19', '29', '51']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1062,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP113"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1324,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1733,7 +1736,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1811,7 +1814,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ4">
         <v>0.67</v>
@@ -1939,7 +1942,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2145,7 +2148,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2226,7 +2229,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2351,7 +2354,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2763,7 +2766,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2969,7 +2972,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3175,7 +3178,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3381,7 +3384,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3587,7 +3590,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3871,7 +3874,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ14">
         <v>1.67</v>
@@ -4205,7 +4208,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4617,7 +4620,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4823,7 +4826,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5029,7 +5032,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5107,7 +5110,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ20">
         <v>1.22</v>
@@ -5235,7 +5238,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5441,7 +5444,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5647,7 +5650,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5853,7 +5856,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5934,7 +5937,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6265,7 +6268,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6677,7 +6680,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7089,7 +7092,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7167,7 +7170,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ30">
         <v>1.55</v>
@@ -7295,7 +7298,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7501,7 +7504,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7707,7 +7710,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7788,7 +7791,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ33">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -8119,7 +8122,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8531,7 +8534,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8943,7 +8946,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9024,7 +9027,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ39">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9149,7 +9152,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9355,7 +9358,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9433,7 +9436,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ41">
         <v>0.78</v>
@@ -10179,7 +10182,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10797,7 +10800,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11209,7 +11212,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11415,7 +11418,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11621,7 +11624,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12033,7 +12036,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12239,7 +12242,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12445,7 +12448,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12523,7 +12526,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ56">
         <v>0.78</v>
@@ -12857,7 +12860,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13063,7 +13066,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13144,7 +13147,7 @@
         <v>0.5600000000000001</v>
       </c>
       <c r="AQ59">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13475,7 +13478,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13887,7 +13890,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14093,7 +14096,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14505,7 +14508,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14711,7 +14714,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14789,7 +14792,7 @@
         <v>0.2</v>
       </c>
       <c r="AP67">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ67">
         <v>0.7</v>
@@ -14917,7 +14920,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15204,7 +15207,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15535,7 +15538,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15741,7 +15744,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16359,7 +16362,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16565,7 +16568,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16771,7 +16774,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16977,7 +16980,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17058,7 +17061,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ78">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17389,7 +17392,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17467,7 +17470,7 @@
         <v>1.4</v>
       </c>
       <c r="AP80">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ80">
         <v>1.44</v>
@@ -17595,7 +17598,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17801,7 +17804,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18007,7 +18010,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18419,7 +18422,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18625,7 +18628,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18831,7 +18834,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19037,7 +19040,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19449,7 +19452,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19655,7 +19658,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19861,7 +19864,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20479,7 +20482,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20685,7 +20688,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20766,7 +20769,7 @@
         <v>2</v>
       </c>
       <c r="AQ96">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR96">
         <v>1.83</v>
@@ -21097,7 +21100,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21509,7 +21512,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21587,7 +21590,7 @@
         <v>0.38</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="AQ100">
         <v>0.44</v>
@@ -21921,7 +21924,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22539,7 +22542,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22745,7 +22748,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23032,7 +23035,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR107">
         <v>1.75</v>
@@ -23157,7 +23160,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23363,7 +23366,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24074,31 +24077,31 @@
         <v>2.87</v>
       </c>
       <c r="AU112">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AV112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AW112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AX112">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY112">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BA112">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="BB112">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BC112">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="BD112">
         <v>1.14</v>
@@ -24187,7 +24190,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24344,6 +24347,212 @@
       </c>
       <c r="BP113">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7325444</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45516.54166666666</v>
+      </c>
+      <c r="F114">
+        <v>19</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>77</v>
+      </c>
+      <c r="I114">
+        <v>2</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>2</v>
+      </c>
+      <c r="L114">
+        <v>3</v>
+      </c>
+      <c r="M114">
+        <v>1</v>
+      </c>
+      <c r="N114">
+        <v>4</v>
+      </c>
+      <c r="O114" t="s">
+        <v>166</v>
+      </c>
+      <c r="P114" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q114">
+        <v>2.4</v>
+      </c>
+      <c r="R114">
+        <v>2.4</v>
+      </c>
+      <c r="S114">
+        <v>4</v>
+      </c>
+      <c r="T114">
+        <v>1.29</v>
+      </c>
+      <c r="U114">
+        <v>3.5</v>
+      </c>
+      <c r="V114">
+        <v>2.38</v>
+      </c>
+      <c r="W114">
+        <v>1.53</v>
+      </c>
+      <c r="X114">
+        <v>5.5</v>
+      </c>
+      <c r="Y114">
+        <v>1.14</v>
+      </c>
+      <c r="Z114">
+        <v>1.91</v>
+      </c>
+      <c r="AA114">
+        <v>3.55</v>
+      </c>
+      <c r="AB114">
+        <v>3.65</v>
+      </c>
+      <c r="AC114">
+        <v>1.03</v>
+      </c>
+      <c r="AD114">
+        <v>12</v>
+      </c>
+      <c r="AE114">
+        <v>1.15</v>
+      </c>
+      <c r="AF114">
+        <v>4.5</v>
+      </c>
+      <c r="AG114">
+        <v>1.66</v>
+      </c>
+      <c r="AH114">
+        <v>2.07</v>
+      </c>
+      <c r="AI114">
+        <v>1.53</v>
+      </c>
+      <c r="AJ114">
+        <v>2.38</v>
+      </c>
+      <c r="AK114">
+        <v>1.19</v>
+      </c>
+      <c r="AL114">
+        <v>1.19</v>
+      </c>
+      <c r="AM114">
+        <v>1.95</v>
+      </c>
+      <c r="AN114">
+        <v>2</v>
+      </c>
+      <c r="AO114">
+        <v>1.44</v>
+      </c>
+      <c r="AP114">
+        <v>2.1</v>
+      </c>
+      <c r="AQ114">
+        <v>1.3</v>
+      </c>
+      <c r="AR114">
+        <v>1.9</v>
+      </c>
+      <c r="AS114">
+        <v>1.33</v>
+      </c>
+      <c r="AT114">
+        <v>3.23</v>
+      </c>
+      <c r="AU114">
+        <v>6</v>
+      </c>
+      <c r="AV114">
+        <v>7</v>
+      </c>
+      <c r="AW114">
+        <v>15</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>21</v>
+      </c>
+      <c r="AZ114">
+        <v>12</v>
+      </c>
+      <c r="BA114">
+        <v>4</v>
+      </c>
+      <c r="BB114">
+        <v>1</v>
+      </c>
+      <c r="BC114">
+        <v>5</v>
+      </c>
+      <c r="BD114">
+        <v>1.42</v>
+      </c>
+      <c r="BE114">
+        <v>7.8</v>
+      </c>
+      <c r="BF114">
+        <v>3.96</v>
+      </c>
+      <c r="BG114">
+        <v>1.13</v>
+      </c>
+      <c r="BH114">
+        <v>4.8</v>
+      </c>
+      <c r="BI114">
+        <v>1.28</v>
+      </c>
+      <c r="BJ114">
+        <v>3.2</v>
+      </c>
+      <c r="BK114">
+        <v>1.52</v>
+      </c>
+      <c r="BL114">
+        <v>2.36</v>
+      </c>
+      <c r="BM114">
+        <v>1.88</v>
+      </c>
+      <c r="BN114">
+        <v>1.86</v>
+      </c>
+      <c r="BO114">
+        <v>2.41</v>
+      </c>
+      <c r="BP114">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -515,6 +515,9 @@
   </si>
   <si>
     <t>['19', '29', '51']</t>
+  </si>
+  <si>
+    <t>['76', '88', '90+1']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1065,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1327,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1736,7 +1739,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1942,7 +1945,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2148,7 +2151,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2354,7 +2357,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2766,7 +2769,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2972,7 +2975,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3053,7 +3056,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3178,7 +3181,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3256,7 +3259,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3384,7 +3387,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3590,7 +3593,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4080,7 +4083,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ15">
         <v>1.55</v>
@@ -4208,7 +4211,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4620,7 +4623,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4826,7 +4829,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5032,7 +5035,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5238,7 +5241,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5316,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ21">
         <v>0.7</v>
@@ -5444,7 +5447,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5650,7 +5653,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5856,7 +5859,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6143,7 +6146,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6268,7 +6271,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6680,7 +6683,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7092,7 +7095,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7298,7 +7301,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7504,7 +7507,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7710,7 +7713,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7997,7 +8000,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8122,7 +8125,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8406,7 +8409,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8534,7 +8537,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8946,7 +8949,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9152,7 +9155,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9358,7 +9361,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10182,7 +10185,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10800,7 +10803,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11212,7 +11215,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11418,7 +11421,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11624,7 +11627,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11705,7 +11708,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -12036,7 +12039,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12114,7 +12117,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ54">
         <v>1.44</v>
@@ -12242,7 +12245,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12448,7 +12451,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12860,7 +12863,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13066,7 +13069,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13478,7 +13481,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13890,7 +13893,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13971,7 +13974,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ63">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14096,7 +14099,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14508,7 +14511,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14714,7 +14717,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14920,7 +14923,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14998,7 +15001,7 @@
         <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ68">
         <v>1.67</v>
@@ -15538,7 +15541,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15744,7 +15747,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16362,7 +16365,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16443,7 +16446,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16568,7 +16571,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16774,7 +16777,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16980,7 +16983,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17058,7 +17061,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
         <v>1.3</v>
@@ -17392,7 +17395,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17598,7 +17601,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17804,7 +17807,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18010,7 +18013,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18422,7 +18425,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18628,7 +18631,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18834,7 +18837,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19040,7 +19043,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19121,7 +19124,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19324,7 +19327,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ89">
         <v>0.44</v>
@@ -19452,7 +19455,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19658,7 +19661,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19864,7 +19867,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20482,7 +20485,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20563,7 +20566,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20688,7 +20691,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21100,7 +21103,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21178,7 +21181,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21512,7 +21515,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21924,7 +21927,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22414,7 +22417,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ104">
         <v>0.78</v>
@@ -22542,7 +22545,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22748,7 +22751,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23160,7 +23163,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23241,7 +23244,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ108">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23366,7 +23369,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24190,7 +24193,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24553,6 +24556,212 @@
       </c>
       <c r="BP114">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7325445</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45520.51041666666</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>167</v>
+      </c>
+      <c r="P115" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q115">
+        <v>3.1</v>
+      </c>
+      <c r="R115">
+        <v>2.25</v>
+      </c>
+      <c r="S115">
+        <v>3.2</v>
+      </c>
+      <c r="T115">
+        <v>1.33</v>
+      </c>
+      <c r="U115">
+        <v>3.25</v>
+      </c>
+      <c r="V115">
+        <v>2.63</v>
+      </c>
+      <c r="W115">
+        <v>1.44</v>
+      </c>
+      <c r="X115">
+        <v>6.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.11</v>
+      </c>
+      <c r="Z115">
+        <v>2.28</v>
+      </c>
+      <c r="AA115">
+        <v>3.19</v>
+      </c>
+      <c r="AB115">
+        <v>2.46</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.22</v>
+      </c>
+      <c r="AF115">
+        <v>3.8</v>
+      </c>
+      <c r="AG115">
+        <v>1.68</v>
+      </c>
+      <c r="AH115">
+        <v>2.05</v>
+      </c>
+      <c r="AI115">
+        <v>1.57</v>
+      </c>
+      <c r="AJ115">
+        <v>2.25</v>
+      </c>
+      <c r="AK115">
+        <v>1.48</v>
+      </c>
+      <c r="AL115">
+        <v>1.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.53</v>
+      </c>
+      <c r="AN115">
+        <v>1.8</v>
+      </c>
+      <c r="AO115">
+        <v>1.56</v>
+      </c>
+      <c r="AP115">
+        <v>1.91</v>
+      </c>
+      <c r="AQ115">
+        <v>1.4</v>
+      </c>
+      <c r="AR115">
+        <v>1.56</v>
+      </c>
+      <c r="AS115">
+        <v>1.55</v>
+      </c>
+      <c r="AT115">
+        <v>3.11</v>
+      </c>
+      <c r="AU115">
+        <v>8</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>16</v>
+      </c>
+      <c r="AX115">
+        <v>9</v>
+      </c>
+      <c r="AY115">
+        <v>24</v>
+      </c>
+      <c r="AZ115">
+        <v>11</v>
+      </c>
+      <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
+        <v>3</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>1.82</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>2.39</v>
+      </c>
+      <c r="BG115">
+        <v>1.17</v>
+      </c>
+      <c r="BH115">
+        <v>4.2</v>
+      </c>
+      <c r="BI115">
+        <v>1.35</v>
+      </c>
+      <c r="BJ115">
+        <v>2.84</v>
+      </c>
+      <c r="BK115">
+        <v>1.63</v>
+      </c>
+      <c r="BL115">
+        <v>2.14</v>
+      </c>
+      <c r="BM115">
+        <v>2.05</v>
+      </c>
+      <c r="BN115">
+        <v>1.7</v>
+      </c>
+      <c r="BO115">
+        <v>2.69</v>
+      </c>
+      <c r="BP115">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="230">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -515,9 +515,6 @@
   </si>
   <si>
     <t>['19', '29', '51']</t>
-  </si>
-  <si>
-    <t>['76', '88', '90+1']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1068,7 +1065,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1324,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1739,7 +1736,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1945,7 +1942,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2151,7 +2148,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2357,7 +2354,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2769,7 +2766,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2975,7 +2972,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3056,7 +3053,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3181,7 +3178,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3259,7 +3256,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
         <v>0.67</v>
@@ -3387,7 +3384,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3593,7 +3590,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4083,7 +4080,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ15">
         <v>1.55</v>
@@ -4211,7 +4208,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4623,7 +4620,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4829,7 +4826,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5035,7 +5032,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5241,7 +5238,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5319,7 +5316,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21">
         <v>0.7</v>
@@ -5447,7 +5444,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5653,7 +5650,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5859,7 +5856,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6146,7 +6143,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6271,7 +6268,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6683,7 +6680,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7095,7 +7092,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7301,7 +7298,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7507,7 +7504,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7713,7 +7710,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8000,7 +7997,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8125,7 +8122,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8409,7 +8406,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36">
         <v>1.22</v>
@@ -8537,7 +8534,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8949,7 +8946,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9155,7 +9152,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9361,7 +9358,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10185,7 +10182,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10803,7 +10800,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11215,7 +11212,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11421,7 +11418,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11627,7 +11624,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11708,7 +11705,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -12039,7 +12036,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12117,7 +12114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ54">
         <v>1.44</v>
@@ -12245,7 +12242,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12451,7 +12448,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12863,7 +12860,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13069,7 +13066,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13481,7 +13478,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13893,7 +13890,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13974,7 +13971,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14099,7 +14096,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14511,7 +14508,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14717,7 +14714,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14923,7 +14920,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15001,7 +14998,7 @@
         <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68">
         <v>1.67</v>
@@ -15541,7 +15538,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15747,7 +15744,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16365,7 +16362,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16446,7 +16443,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16571,7 +16568,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16777,7 +16774,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16983,7 +16980,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17061,7 +17058,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78">
         <v>1.3</v>
@@ -17395,7 +17392,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17601,7 +17598,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17807,7 +17804,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18013,7 +18010,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18425,7 +18422,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18631,7 +18628,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18837,7 +18834,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19043,7 +19040,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19124,7 +19121,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19327,7 +19324,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89">
         <v>0.44</v>
@@ -19455,7 +19452,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19661,7 +19658,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19867,7 +19864,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20485,7 +20482,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20566,7 +20563,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20691,7 +20688,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21103,7 +21100,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21181,7 +21178,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21515,7 +21512,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21927,7 +21924,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22417,7 +22414,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="AQ104">
         <v>0.78</v>
@@ -22545,7 +22542,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22751,7 +22748,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23163,7 +23160,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23244,7 +23241,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1.56</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23369,7 +23366,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24193,7 +24190,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24556,212 +24553,6 @@
       </c>
       <c r="BP114">
         <v>1.5</v>
-      </c>
-    </row>
-    <row r="115" spans="1:68">
-      <c r="A115" s="1">
-        <v>114</v>
-      </c>
-      <c r="B115">
-        <v>7325445</v>
-      </c>
-      <c r="C115" t="s">
-        <v>68</v>
-      </c>
-      <c r="D115" t="s">
-        <v>69</v>
-      </c>
-      <c r="E115" s="2">
-        <v>45520.51041666666</v>
-      </c>
-      <c r="F115">
-        <v>20</v>
-      </c>
-      <c r="G115" t="s">
-        <v>78</v>
-      </c>
-      <c r="H115" t="s">
-        <v>72</v>
-      </c>
-      <c r="I115">
-        <v>0</v>
-      </c>
-      <c r="J115">
-        <v>0</v>
-      </c>
-      <c r="K115">
-        <v>0</v>
-      </c>
-      <c r="L115">
-        <v>3</v>
-      </c>
-      <c r="M115">
-        <v>0</v>
-      </c>
-      <c r="N115">
-        <v>3</v>
-      </c>
-      <c r="O115" t="s">
-        <v>167</v>
-      </c>
-      <c r="P115" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q115">
-        <v>3.1</v>
-      </c>
-      <c r="R115">
-        <v>2.25</v>
-      </c>
-      <c r="S115">
-        <v>3.2</v>
-      </c>
-      <c r="T115">
-        <v>1.33</v>
-      </c>
-      <c r="U115">
-        <v>3.25</v>
-      </c>
-      <c r="V115">
-        <v>2.63</v>
-      </c>
-      <c r="W115">
-        <v>1.44</v>
-      </c>
-      <c r="X115">
-        <v>6.5</v>
-      </c>
-      <c r="Y115">
-        <v>1.11</v>
-      </c>
-      <c r="Z115">
-        <v>2.28</v>
-      </c>
-      <c r="AA115">
-        <v>3.19</v>
-      </c>
-      <c r="AB115">
-        <v>2.46</v>
-      </c>
-      <c r="AC115">
-        <v>1.02</v>
-      </c>
-      <c r="AD115">
-        <v>10</v>
-      </c>
-      <c r="AE115">
-        <v>1.22</v>
-      </c>
-      <c r="AF115">
-        <v>3.8</v>
-      </c>
-      <c r="AG115">
-        <v>1.68</v>
-      </c>
-      <c r="AH115">
-        <v>2.05</v>
-      </c>
-      <c r="AI115">
-        <v>1.57</v>
-      </c>
-      <c r="AJ115">
-        <v>2.25</v>
-      </c>
-      <c r="AK115">
-        <v>1.48</v>
-      </c>
-      <c r="AL115">
-        <v>1.3</v>
-      </c>
-      <c r="AM115">
-        <v>1.53</v>
-      </c>
-      <c r="AN115">
-        <v>1.8</v>
-      </c>
-      <c r="AO115">
-        <v>1.56</v>
-      </c>
-      <c r="AP115">
-        <v>1.91</v>
-      </c>
-      <c r="AQ115">
-        <v>1.4</v>
-      </c>
-      <c r="AR115">
-        <v>1.56</v>
-      </c>
-      <c r="AS115">
-        <v>1.55</v>
-      </c>
-      <c r="AT115">
-        <v>3.11</v>
-      </c>
-      <c r="AU115">
-        <v>8</v>
-      </c>
-      <c r="AV115">
-        <v>2</v>
-      </c>
-      <c r="AW115">
-        <v>16</v>
-      </c>
-      <c r="AX115">
-        <v>9</v>
-      </c>
-      <c r="AY115">
-        <v>24</v>
-      </c>
-      <c r="AZ115">
-        <v>11</v>
-      </c>
-      <c r="BA115">
-        <v>8</v>
-      </c>
-      <c r="BB115">
-        <v>3</v>
-      </c>
-      <c r="BC115">
-        <v>11</v>
-      </c>
-      <c r="BD115">
-        <v>1.82</v>
-      </c>
-      <c r="BE115">
-        <v>8</v>
-      </c>
-      <c r="BF115">
-        <v>2.39</v>
-      </c>
-      <c r="BG115">
-        <v>1.17</v>
-      </c>
-      <c r="BH115">
-        <v>4.2</v>
-      </c>
-      <c r="BI115">
-        <v>1.35</v>
-      </c>
-      <c r="BJ115">
-        <v>2.84</v>
-      </c>
-      <c r="BK115">
-        <v>1.63</v>
-      </c>
-      <c r="BL115">
-        <v>2.14</v>
-      </c>
-      <c r="BM115">
-        <v>2.05</v>
-      </c>
-      <c r="BN115">
-        <v>1.7</v>
-      </c>
-      <c r="BO115">
-        <v>2.69</v>
-      </c>
-      <c r="BP115">
-        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="235">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,15 @@
     <t>['19', '29', '51']</t>
   </si>
   <si>
+    <t>['76', '88', '90+1']</t>
+  </si>
+  <si>
+    <t>['9', '43']</t>
+  </si>
+  <si>
+    <t>['71', '90', '90+2']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -704,6 +713,12 @@
   </si>
   <si>
     <t>['29', '32']</t>
+  </si>
+  <si>
+    <t>['56', '72', '79']</t>
+  </si>
+  <si>
+    <t>['50', '56']</t>
   </si>
 </sst>
 </file>
@@ -1065,7 +1080,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1324,7 +1339,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1402,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ2">
         <v>0.78</v>
@@ -1611,7 +1626,7 @@
         <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1736,7 +1751,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1817,7 +1832,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ4">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1942,7 +1957,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2148,7 +2163,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2354,7 +2369,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2432,10 +2447,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ7">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2641,7 +2656,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ8">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2766,7 +2781,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2972,7 +2987,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3050,10 +3065,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ10">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3178,7 +3193,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3256,10 +3271,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ11">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3384,7 +3399,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3590,7 +3605,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3877,7 +3892,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ14">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -4080,7 +4095,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ15">
         <v>1.55</v>
@@ -4208,7 +4223,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4495,7 +4510,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4620,7 +4635,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4698,7 +4713,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -4826,7 +4841,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4904,10 +4919,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5032,7 +5047,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5113,7 +5128,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ20">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5238,7 +5253,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5316,7 +5331,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ21">
         <v>0.7</v>
@@ -5444,7 +5459,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5525,7 +5540,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ22">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5650,7 +5665,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5856,7 +5871,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6140,10 +6155,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ25">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6268,7 +6283,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6349,7 +6364,7 @@
         <v>1</v>
       </c>
       <c r="AQ26">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6552,10 +6567,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ27">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6680,7 +6695,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6761,7 +6776,7 @@
         <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -7092,7 +7107,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7298,7 +7313,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7376,10 +7391,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ31">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7504,7 +7519,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7710,7 +7725,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7788,7 +7803,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ33">
         <v>1.3</v>
@@ -7997,7 +8012,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ34">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8122,7 +8137,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8406,10 +8421,10 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ36">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8534,7 +8549,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8612,10 +8627,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ37">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8946,7 +8961,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9152,7 +9167,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9358,7 +9373,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9645,7 +9660,7 @@
         <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9848,7 +9863,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43">
         <v>1.55</v>
@@ -10054,10 +10069,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ44">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10182,7 +10197,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10260,7 +10275,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ45">
         <v>1.55</v>
@@ -10800,7 +10815,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10881,7 +10896,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ48">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11087,7 +11102,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ49">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11212,7 +11227,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11290,7 +11305,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ50">
         <v>0.7</v>
@@ -11418,7 +11433,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11624,7 +11639,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11705,7 +11720,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ52">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11908,7 +11923,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ53">
         <v>0.78</v>
@@ -12036,7 +12051,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12114,10 +12129,10 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ54">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12242,7 +12257,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12448,7 +12463,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12735,7 +12750,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12860,7 +12875,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12938,10 +12953,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ58">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13066,7 +13081,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13144,7 +13159,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ59">
         <v>1.3</v>
@@ -13350,10 +13365,10 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13478,7 +13493,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13890,7 +13905,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13971,7 +13986,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ63">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14096,7 +14111,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14174,10 +14189,10 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ64">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14380,7 +14395,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ65">
         <v>1</v>
@@ -14508,7 +14523,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14589,7 +14604,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14714,7 +14729,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14920,7 +14935,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -14998,10 +15013,10 @@
         <v>1.6</v>
       </c>
       <c r="AP68">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ68">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -15410,10 +15425,10 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ70">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15538,7 +15553,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15616,10 +15631,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ71">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -15744,7 +15759,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16234,10 +16249,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ74">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR74">
         <v>1.86</v>
@@ -16362,7 +16377,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16443,7 +16458,7 @@
         <v>2</v>
       </c>
       <c r="AQ75">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16568,7 +16583,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16646,7 +16661,7 @@
         <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ76">
         <v>0.78</v>
@@ -16774,7 +16789,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16980,7 +16995,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17058,7 +17073,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ78">
         <v>1.3</v>
@@ -17392,7 +17407,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17473,7 +17488,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ80">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -17598,7 +17613,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17679,7 +17694,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ81">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR81">
         <v>1.47</v>
@@ -17804,7 +17819,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17885,7 +17900,7 @@
         <v>1</v>
       </c>
       <c r="AQ82">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR82">
         <v>1.17</v>
@@ -18010,7 +18025,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18088,7 +18103,7 @@
         <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ83">
         <v>0.7</v>
@@ -18297,7 +18312,7 @@
         <v>2</v>
       </c>
       <c r="AQ84">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR84">
         <v>1.87</v>
@@ -18422,7 +18437,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18500,7 +18515,7 @@
         <v>0.57</v>
       </c>
       <c r="AP85">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85">
         <v>0.7</v>
@@ -18628,7 +18643,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18709,7 +18724,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR86">
         <v>1.21</v>
@@ -18834,7 +18849,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18912,7 +18927,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19040,7 +19055,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19121,7 +19136,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19324,10 +19339,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ89">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.58</v>
@@ -19452,7 +19467,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19530,7 +19545,7 @@
         <v>0.57</v>
       </c>
       <c r="AP90">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ90">
         <v>0.78</v>
@@ -19658,7 +19673,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19739,7 +19754,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ91">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR91">
         <v>1.47</v>
@@ -19864,7 +19879,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -19945,7 +19960,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ92">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR92">
         <v>1.34</v>
@@ -20151,7 +20166,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ93">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR93">
         <v>1.91</v>
@@ -20482,7 +20497,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20563,7 +20578,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20688,7 +20703,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20972,10 +20987,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ97">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.79</v>
@@ -21100,7 +21115,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21178,7 +21193,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ98">
         <v>1</v>
@@ -21387,7 +21402,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ99">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="AR99">
         <v>1.91</v>
@@ -21512,7 +21527,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21593,7 +21608,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ100">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.83</v>
@@ -21924,7 +21939,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22002,7 +22017,7 @@
         <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ102">
         <v>1.55</v>
@@ -22208,7 +22223,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ103">
         <v>0.78</v>
@@ -22414,7 +22429,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ104">
         <v>0.78</v>
@@ -22542,7 +22557,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22623,7 +22638,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ105">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AR105">
         <v>1.53</v>
@@ -22748,7 +22763,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22829,7 +22844,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ106">
-        <v>1.67</v>
+        <v>1.5</v>
       </c>
       <c r="AR106">
         <v>1.22</v>
@@ -23032,7 +23047,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ107">
         <v>1.3</v>
@@ -23160,7 +23175,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23238,10 +23253,10 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>2.63</v>
+        <v>2.67</v>
       </c>
       <c r="AQ108">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23366,7 +23381,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23444,10 +23459,10 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>0.5600000000000001</v>
+        <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AR109">
         <v>1.12</v>
@@ -24190,7 +24205,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24553,6 +24568,1242 @@
       </c>
       <c r="BP114">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7325445</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45520.51041666666</v>
+      </c>
+      <c r="F115">
+        <v>20</v>
+      </c>
+      <c r="G115" t="s">
+        <v>78</v>
+      </c>
+      <c r="H115" t="s">
+        <v>72</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>3</v>
+      </c>
+      <c r="M115">
+        <v>0</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>167</v>
+      </c>
+      <c r="P115" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q115">
+        <v>3.1</v>
+      </c>
+      <c r="R115">
+        <v>2.25</v>
+      </c>
+      <c r="S115">
+        <v>3.2</v>
+      </c>
+      <c r="T115">
+        <v>1.33</v>
+      </c>
+      <c r="U115">
+        <v>3.25</v>
+      </c>
+      <c r="V115">
+        <v>2.63</v>
+      </c>
+      <c r="W115">
+        <v>1.44</v>
+      </c>
+      <c r="X115">
+        <v>6.5</v>
+      </c>
+      <c r="Y115">
+        <v>1.11</v>
+      </c>
+      <c r="Z115">
+        <v>2.28</v>
+      </c>
+      <c r="AA115">
+        <v>3.19</v>
+      </c>
+      <c r="AB115">
+        <v>2.46</v>
+      </c>
+      <c r="AC115">
+        <v>1.02</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.22</v>
+      </c>
+      <c r="AF115">
+        <v>3.8</v>
+      </c>
+      <c r="AG115">
+        <v>1.68</v>
+      </c>
+      <c r="AH115">
+        <v>2.05</v>
+      </c>
+      <c r="AI115">
+        <v>1.57</v>
+      </c>
+      <c r="AJ115">
+        <v>2.25</v>
+      </c>
+      <c r="AK115">
+        <v>1.48</v>
+      </c>
+      <c r="AL115">
+        <v>1.3</v>
+      </c>
+      <c r="AM115">
+        <v>1.53</v>
+      </c>
+      <c r="AN115">
+        <v>1.8</v>
+      </c>
+      <c r="AO115">
+        <v>1.56</v>
+      </c>
+      <c r="AP115">
+        <v>1.91</v>
+      </c>
+      <c r="AQ115">
+        <v>1.4</v>
+      </c>
+      <c r="AR115">
+        <v>1.56</v>
+      </c>
+      <c r="AS115">
+        <v>1.55</v>
+      </c>
+      <c r="AT115">
+        <v>3.11</v>
+      </c>
+      <c r="AU115">
+        <v>8</v>
+      </c>
+      <c r="AV115">
+        <v>2</v>
+      </c>
+      <c r="AW115">
+        <v>16</v>
+      </c>
+      <c r="AX115">
+        <v>9</v>
+      </c>
+      <c r="AY115">
+        <v>24</v>
+      </c>
+      <c r="AZ115">
+        <v>11</v>
+      </c>
+      <c r="BA115">
+        <v>8</v>
+      </c>
+      <c r="BB115">
+        <v>3</v>
+      </c>
+      <c r="BC115">
+        <v>11</v>
+      </c>
+      <c r="BD115">
+        <v>1.82</v>
+      </c>
+      <c r="BE115">
+        <v>8</v>
+      </c>
+      <c r="BF115">
+        <v>2.39</v>
+      </c>
+      <c r="BG115">
+        <v>1.17</v>
+      </c>
+      <c r="BH115">
+        <v>4.2</v>
+      </c>
+      <c r="BI115">
+        <v>1.35</v>
+      </c>
+      <c r="BJ115">
+        <v>2.84</v>
+      </c>
+      <c r="BK115">
+        <v>1.63</v>
+      </c>
+      <c r="BL115">
+        <v>2.14</v>
+      </c>
+      <c r="BM115">
+        <v>2.05</v>
+      </c>
+      <c r="BN115">
+        <v>1.7</v>
+      </c>
+      <c r="BO115">
+        <v>2.69</v>
+      </c>
+      <c r="BP115">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7325446</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45522.41666666666</v>
+      </c>
+      <c r="F116">
+        <v>20</v>
+      </c>
+      <c r="G116" t="s">
+        <v>80</v>
+      </c>
+      <c r="H116" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116">
+        <v>0</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>0</v>
+      </c>
+      <c r="L116">
+        <v>0</v>
+      </c>
+      <c r="M116">
+        <v>3</v>
+      </c>
+      <c r="N116">
+        <v>3</v>
+      </c>
+      <c r="O116" t="s">
+        <v>83</v>
+      </c>
+      <c r="P116" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q116">
+        <v>7</v>
+      </c>
+      <c r="R116">
+        <v>2.5</v>
+      </c>
+      <c r="S116">
+        <v>1.83</v>
+      </c>
+      <c r="T116">
+        <v>1.3</v>
+      </c>
+      <c r="U116">
+        <v>3.4</v>
+      </c>
+      <c r="V116">
+        <v>2.38</v>
+      </c>
+      <c r="W116">
+        <v>1.53</v>
+      </c>
+      <c r="X116">
+        <v>6</v>
+      </c>
+      <c r="Y116">
+        <v>1.13</v>
+      </c>
+      <c r="Z116">
+        <v>6.3</v>
+      </c>
+      <c r="AA116">
+        <v>4.6</v>
+      </c>
+      <c r="AB116">
+        <v>1.42</v>
+      </c>
+      <c r="AC116">
+        <v>1.02</v>
+      </c>
+      <c r="AD116">
+        <v>17</v>
+      </c>
+      <c r="AE116">
+        <v>1.18</v>
+      </c>
+      <c r="AF116">
+        <v>4.75</v>
+      </c>
+      <c r="AG116">
+        <v>1.57</v>
+      </c>
+      <c r="AH116">
+        <v>2.25</v>
+      </c>
+      <c r="AI116">
+        <v>1.91</v>
+      </c>
+      <c r="AJ116">
+        <v>1.91</v>
+      </c>
+      <c r="AK116">
+        <v>2.9</v>
+      </c>
+      <c r="AL116">
+        <v>1.18</v>
+      </c>
+      <c r="AM116">
+        <v>1.1</v>
+      </c>
+      <c r="AN116">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="AO116">
+        <v>1.22</v>
+      </c>
+      <c r="AP116">
+        <v>0.5</v>
+      </c>
+      <c r="AQ116">
+        <v>1.4</v>
+      </c>
+      <c r="AR116">
+        <v>1.15</v>
+      </c>
+      <c r="AS116">
+        <v>1.63</v>
+      </c>
+      <c r="AT116">
+        <v>2.78</v>
+      </c>
+      <c r="AU116">
+        <v>5</v>
+      </c>
+      <c r="AV116">
+        <v>8</v>
+      </c>
+      <c r="AW116">
+        <v>9</v>
+      </c>
+      <c r="AX116">
+        <v>12</v>
+      </c>
+      <c r="AY116">
+        <v>14</v>
+      </c>
+      <c r="AZ116">
+        <v>20</v>
+      </c>
+      <c r="BA116">
+        <v>5</v>
+      </c>
+      <c r="BB116">
+        <v>5</v>
+      </c>
+      <c r="BC116">
+        <v>10</v>
+      </c>
+      <c r="BD116">
+        <v>3.49</v>
+      </c>
+      <c r="BE116">
+        <v>9</v>
+      </c>
+      <c r="BF116">
+        <v>1.41</v>
+      </c>
+      <c r="BG116">
+        <v>1.22</v>
+      </c>
+      <c r="BH116">
+        <v>3.65</v>
+      </c>
+      <c r="BI116">
+        <v>1.43</v>
+      </c>
+      <c r="BJ116">
+        <v>2.62</v>
+      </c>
+      <c r="BK116">
+        <v>1.85</v>
+      </c>
+      <c r="BL116">
+        <v>1.95</v>
+      </c>
+      <c r="BM116">
+        <v>2.04</v>
+      </c>
+      <c r="BN116">
+        <v>1.74</v>
+      </c>
+      <c r="BO116">
+        <v>2.93</v>
+      </c>
+      <c r="BP116">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7325447</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45522.41666666666</v>
+      </c>
+      <c r="F117">
+        <v>20</v>
+      </c>
+      <c r="G117" t="s">
+        <v>70</v>
+      </c>
+      <c r="H117" t="s">
+        <v>81</v>
+      </c>
+      <c r="I117">
+        <v>2</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117">
+        <v>2</v>
+      </c>
+      <c r="L117">
+        <v>2</v>
+      </c>
+      <c r="M117">
+        <v>0</v>
+      </c>
+      <c r="N117">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>168</v>
+      </c>
+      <c r="P117" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q117">
+        <v>2.75</v>
+      </c>
+      <c r="R117">
+        <v>2.25</v>
+      </c>
+      <c r="S117">
+        <v>3.75</v>
+      </c>
+      <c r="T117">
+        <v>1.36</v>
+      </c>
+      <c r="U117">
+        <v>3</v>
+      </c>
+      <c r="V117">
+        <v>2.63</v>
+      </c>
+      <c r="W117">
+        <v>1.44</v>
+      </c>
+      <c r="X117">
+        <v>7</v>
+      </c>
+      <c r="Y117">
+        <v>1.1</v>
+      </c>
+      <c r="Z117">
+        <v>2.12</v>
+      </c>
+      <c r="AA117">
+        <v>3.5</v>
+      </c>
+      <c r="AB117">
+        <v>3.1</v>
+      </c>
+      <c r="AC117">
+        <v>1.01</v>
+      </c>
+      <c r="AD117">
+        <v>10</v>
+      </c>
+      <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>3.66</v>
+      </c>
+      <c r="AG117">
+        <v>1.81</v>
+      </c>
+      <c r="AH117">
+        <v>2</v>
+      </c>
+      <c r="AI117">
+        <v>1.67</v>
+      </c>
+      <c r="AJ117">
+        <v>2.1</v>
+      </c>
+      <c r="AK117">
+        <v>1.22</v>
+      </c>
+      <c r="AL117">
+        <v>1.28</v>
+      </c>
+      <c r="AM117">
+        <v>1.77</v>
+      </c>
+      <c r="AN117">
+        <v>1.25</v>
+      </c>
+      <c r="AO117">
+        <v>0.67</v>
+      </c>
+      <c r="AP117">
+        <v>1.44</v>
+      </c>
+      <c r="AQ117">
+        <v>0.6</v>
+      </c>
+      <c r="AR117">
+        <v>1.59</v>
+      </c>
+      <c r="AS117">
+        <v>1.49</v>
+      </c>
+      <c r="AT117">
+        <v>3.08</v>
+      </c>
+      <c r="AU117">
+        <v>10</v>
+      </c>
+      <c r="AV117">
+        <v>3</v>
+      </c>
+      <c r="AW117">
+        <v>9</v>
+      </c>
+      <c r="AX117">
+        <v>4</v>
+      </c>
+      <c r="AY117">
+        <v>19</v>
+      </c>
+      <c r="AZ117">
+        <v>7</v>
+      </c>
+      <c r="BA117">
+        <v>2</v>
+      </c>
+      <c r="BB117">
+        <v>1</v>
+      </c>
+      <c r="BC117">
+        <v>3</v>
+      </c>
+      <c r="BD117">
+        <v>1.64</v>
+      </c>
+      <c r="BE117">
+        <v>8.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.76</v>
+      </c>
+      <c r="BG117">
+        <v>1.21</v>
+      </c>
+      <c r="BH117">
+        <v>3.74</v>
+      </c>
+      <c r="BI117">
+        <v>1.47</v>
+      </c>
+      <c r="BJ117">
+        <v>2.55</v>
+      </c>
+      <c r="BK117">
+        <v>1.81</v>
+      </c>
+      <c r="BL117">
+        <v>1.98</v>
+      </c>
+      <c r="BM117">
+        <v>2.05</v>
+      </c>
+      <c r="BN117">
+        <v>1.7</v>
+      </c>
+      <c r="BO117">
+        <v>2.93</v>
+      </c>
+      <c r="BP117">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7325448</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45522.41666666666</v>
+      </c>
+      <c r="F118">
+        <v>20</v>
+      </c>
+      <c r="G118" t="s">
+        <v>75</v>
+      </c>
+      <c r="H118" t="s">
+        <v>71</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>0</v>
+      </c>
+      <c r="K118">
+        <v>0</v>
+      </c>
+      <c r="L118">
+        <v>1</v>
+      </c>
+      <c r="M118">
+        <v>0</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>151</v>
+      </c>
+      <c r="P118" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q118">
+        <v>2.88</v>
+      </c>
+      <c r="R118">
+        <v>2.2</v>
+      </c>
+      <c r="S118">
+        <v>3.6</v>
+      </c>
+      <c r="T118">
+        <v>1.36</v>
+      </c>
+      <c r="U118">
+        <v>3</v>
+      </c>
+      <c r="V118">
+        <v>2.75</v>
+      </c>
+      <c r="W118">
+        <v>1.4</v>
+      </c>
+      <c r="X118">
+        <v>7</v>
+      </c>
+      <c r="Y118">
+        <v>1.1</v>
+      </c>
+      <c r="Z118">
+        <v>2.2</v>
+      </c>
+      <c r="AA118">
+        <v>3.3</v>
+      </c>
+      <c r="AB118">
+        <v>3</v>
+      </c>
+      <c r="AC118">
+        <v>1.01</v>
+      </c>
+      <c r="AD118">
+        <v>10.5</v>
+      </c>
+      <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>3.7</v>
+      </c>
+      <c r="AG118">
+        <v>1.85</v>
+      </c>
+      <c r="AH118">
+        <v>1.95</v>
+      </c>
+      <c r="AI118">
+        <v>1.67</v>
+      </c>
+      <c r="AJ118">
+        <v>2.1</v>
+      </c>
+      <c r="AK118">
+        <v>1.4</v>
+      </c>
+      <c r="AL118">
+        <v>1.33</v>
+      </c>
+      <c r="AM118">
+        <v>1.68</v>
+      </c>
+      <c r="AN118">
+        <v>2.63</v>
+      </c>
+      <c r="AO118">
+        <v>1.67</v>
+      </c>
+      <c r="AP118">
+        <v>2.67</v>
+      </c>
+      <c r="AQ118">
+        <v>1.5</v>
+      </c>
+      <c r="AR118">
+        <v>1.56</v>
+      </c>
+      <c r="AS118">
+        <v>1.64</v>
+      </c>
+      <c r="AT118">
+        <v>3.2</v>
+      </c>
+      <c r="AU118">
+        <v>5</v>
+      </c>
+      <c r="AV118">
+        <v>3</v>
+      </c>
+      <c r="AW118">
+        <v>6</v>
+      </c>
+      <c r="AX118">
+        <v>7</v>
+      </c>
+      <c r="AY118">
+        <v>11</v>
+      </c>
+      <c r="AZ118">
+        <v>10</v>
+      </c>
+      <c r="BA118">
+        <v>5</v>
+      </c>
+      <c r="BB118">
+        <v>2</v>
+      </c>
+      <c r="BC118">
+        <v>7</v>
+      </c>
+      <c r="BD118">
+        <v>1.82</v>
+      </c>
+      <c r="BE118">
+        <v>8</v>
+      </c>
+      <c r="BF118">
+        <v>2.33</v>
+      </c>
+      <c r="BG118">
+        <v>1.19</v>
+      </c>
+      <c r="BH118">
+        <v>3.9</v>
+      </c>
+      <c r="BI118">
+        <v>1.4</v>
+      </c>
+      <c r="BJ118">
+        <v>2.72</v>
+      </c>
+      <c r="BK118">
+        <v>1.75</v>
+      </c>
+      <c r="BL118">
+        <v>2.05</v>
+      </c>
+      <c r="BM118">
+        <v>2</v>
+      </c>
+      <c r="BN118">
+        <v>1.73</v>
+      </c>
+      <c r="BO118">
+        <v>2.79</v>
+      </c>
+      <c r="BP118">
+        <v>1.36</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7325450</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45522.52083333334</v>
+      </c>
+      <c r="F119">
+        <v>20</v>
+      </c>
+      <c r="G119" t="s">
+        <v>77</v>
+      </c>
+      <c r="H119" t="s">
+        <v>74</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>3</v>
+      </c>
+      <c r="M119">
+        <v>2</v>
+      </c>
+      <c r="N119">
+        <v>5</v>
+      </c>
+      <c r="O119" t="s">
+        <v>169</v>
+      </c>
+      <c r="P119" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q119">
+        <v>2.5</v>
+      </c>
+      <c r="R119">
+        <v>2.38</v>
+      </c>
+      <c r="S119">
+        <v>3.75</v>
+      </c>
+      <c r="T119">
+        <v>1.3</v>
+      </c>
+      <c r="U119">
+        <v>3.4</v>
+      </c>
+      <c r="V119">
+        <v>2.38</v>
+      </c>
+      <c r="W119">
+        <v>1.53</v>
+      </c>
+      <c r="X119">
+        <v>6</v>
+      </c>
+      <c r="Y119">
+        <v>1.13</v>
+      </c>
+      <c r="Z119">
+        <v>2.18</v>
+      </c>
+      <c r="AA119">
+        <v>3.26</v>
+      </c>
+      <c r="AB119">
+        <v>2.54</v>
+      </c>
+      <c r="AC119">
+        <v>1.02</v>
+      </c>
+      <c r="AD119">
+        <v>15</v>
+      </c>
+      <c r="AE119">
+        <v>1.14</v>
+      </c>
+      <c r="AF119">
+        <v>4.55</v>
+      </c>
+      <c r="AG119">
+        <v>1.58</v>
+      </c>
+      <c r="AH119">
+        <v>2.18</v>
+      </c>
+      <c r="AI119">
+        <v>1.53</v>
+      </c>
+      <c r="AJ119">
+        <v>2.38</v>
+      </c>
+      <c r="AK119">
+        <v>1.4</v>
+      </c>
+      <c r="AL119">
+        <v>1.3</v>
+      </c>
+      <c r="AM119">
+        <v>1.83</v>
+      </c>
+      <c r="AN119">
+        <v>1.67</v>
+      </c>
+      <c r="AO119">
+        <v>1.44</v>
+      </c>
+      <c r="AP119">
+        <v>1.8</v>
+      </c>
+      <c r="AQ119">
+        <v>1.3</v>
+      </c>
+      <c r="AR119">
+        <v>1.82</v>
+      </c>
+      <c r="AS119">
+        <v>1.27</v>
+      </c>
+      <c r="AT119">
+        <v>3.09</v>
+      </c>
+      <c r="AU119">
+        <v>7</v>
+      </c>
+      <c r="AV119">
+        <v>6</v>
+      </c>
+      <c r="AW119">
+        <v>6</v>
+      </c>
+      <c r="AX119">
+        <v>5</v>
+      </c>
+      <c r="AY119">
+        <v>13</v>
+      </c>
+      <c r="AZ119">
+        <v>11</v>
+      </c>
+      <c r="BA119">
+        <v>7</v>
+      </c>
+      <c r="BB119">
+        <v>3</v>
+      </c>
+      <c r="BC119">
+        <v>10</v>
+      </c>
+      <c r="BD119">
+        <v>1.69</v>
+      </c>
+      <c r="BE119">
+        <v>8.5</v>
+      </c>
+      <c r="BF119">
+        <v>2.62</v>
+      </c>
+      <c r="BG119">
+        <v>1.11</v>
+      </c>
+      <c r="BH119">
+        <v>5.15</v>
+      </c>
+      <c r="BI119">
+        <v>1.25</v>
+      </c>
+      <c r="BJ119">
+        <v>3.42</v>
+      </c>
+      <c r="BK119">
+        <v>1.48</v>
+      </c>
+      <c r="BL119">
+        <v>2.5</v>
+      </c>
+      <c r="BM119">
+        <v>2</v>
+      </c>
+      <c r="BN119">
+        <v>1.73</v>
+      </c>
+      <c r="BO119">
+        <v>2.24</v>
+      </c>
+      <c r="BP119">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7325449</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45522.52083333334</v>
+      </c>
+      <c r="F120">
+        <v>20</v>
+      </c>
+      <c r="G120" t="s">
+        <v>73</v>
+      </c>
+      <c r="H120" t="s">
+        <v>79</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>0</v>
+      </c>
+      <c r="K120">
+        <v>0</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>0</v>
+      </c>
+      <c r="N120">
+        <v>0</v>
+      </c>
+      <c r="O120" t="s">
+        <v>83</v>
+      </c>
+      <c r="P120" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q120">
+        <v>3.1</v>
+      </c>
+      <c r="R120">
+        <v>2.2</v>
+      </c>
+      <c r="S120">
+        <v>3.4</v>
+      </c>
+      <c r="T120">
+        <v>1.36</v>
+      </c>
+      <c r="U120">
+        <v>3</v>
+      </c>
+      <c r="V120">
+        <v>2.75</v>
+      </c>
+      <c r="W120">
+        <v>1.4</v>
+      </c>
+      <c r="X120">
+        <v>7</v>
+      </c>
+      <c r="Y120">
+        <v>1.1</v>
+      </c>
+      <c r="Z120">
+        <v>2.04</v>
+      </c>
+      <c r="AA120">
+        <v>3.18</v>
+      </c>
+      <c r="AB120">
+        <v>2.81</v>
+      </c>
+      <c r="AC120">
+        <v>1.02</v>
+      </c>
+      <c r="AD120">
+        <v>9.5</v>
+      </c>
+      <c r="AE120">
+        <v>1.22</v>
+      </c>
+      <c r="AF120">
+        <v>3.7</v>
+      </c>
+      <c r="AG120">
+        <v>1.9</v>
+      </c>
+      <c r="AH120">
+        <v>1.98</v>
+      </c>
+      <c r="AI120">
+        <v>1.7</v>
+      </c>
+      <c r="AJ120">
+        <v>2.05</v>
+      </c>
+      <c r="AK120">
+        <v>1.47</v>
+      </c>
+      <c r="AL120">
+        <v>1.33</v>
+      </c>
+      <c r="AM120">
+        <v>1.57</v>
+      </c>
+      <c r="AN120">
+        <v>1</v>
+      </c>
+      <c r="AO120">
+        <v>0.44</v>
+      </c>
+      <c r="AP120">
+        <v>1</v>
+      </c>
+      <c r="AQ120">
+        <v>0.5</v>
+      </c>
+      <c r="AR120">
+        <v>1.18</v>
+      </c>
+      <c r="AS120">
+        <v>0.95</v>
+      </c>
+      <c r="AT120">
+        <v>2.13</v>
+      </c>
+      <c r="AU120">
+        <v>5</v>
+      </c>
+      <c r="AV120">
+        <v>2</v>
+      </c>
+      <c r="AW120">
+        <v>15</v>
+      </c>
+      <c r="AX120">
+        <v>3</v>
+      </c>
+      <c r="AY120">
+        <v>20</v>
+      </c>
+      <c r="AZ120">
+        <v>5</v>
+      </c>
+      <c r="BA120">
+        <v>9</v>
+      </c>
+      <c r="BB120">
+        <v>1</v>
+      </c>
+      <c r="BC120">
+        <v>10</v>
+      </c>
+      <c r="BD120">
+        <v>2.1</v>
+      </c>
+      <c r="BE120">
+        <v>8</v>
+      </c>
+      <c r="BF120">
+        <v>1.95</v>
+      </c>
+      <c r="BG120">
+        <v>1.25</v>
+      </c>
+      <c r="BH120">
+        <v>3.7</v>
+      </c>
+      <c r="BI120">
+        <v>1.48</v>
+      </c>
+      <c r="BJ120">
+        <v>2.5</v>
+      </c>
+      <c r="BK120">
+        <v>1.73</v>
+      </c>
+      <c r="BL120">
+        <v>2</v>
+      </c>
+      <c r="BM120">
+        <v>2.28</v>
+      </c>
+      <c r="BN120">
+        <v>1.58</v>
+      </c>
+      <c r="BO120">
+        <v>3.25</v>
+      </c>
+      <c r="BP120">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,9 @@
     <t>['71', '90', '90+2']</t>
   </si>
   <si>
+    <t>['47', '84']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -719,6 +722,9 @@
   </si>
   <si>
     <t>['50', '56']</t>
+  </si>
+  <si>
+    <t>['7']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP120"/>
+  <dimension ref="A1:BP121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1345,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1417,7 +1423,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ2">
         <v>0.78</v>
@@ -1751,7 +1757,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1957,7 +1963,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2163,7 +2169,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2369,7 +2375,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2781,7 +2787,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2987,7 +2993,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3193,7 +3199,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3399,7 +3405,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3605,7 +3611,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4223,7 +4229,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4304,7 +4310,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ16">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4635,7 +4641,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4841,7 +4847,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5047,7 +5053,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5253,7 +5259,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5459,7 +5465,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5665,7 +5671,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5871,7 +5877,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6155,7 +6161,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ25">
         <v>1.4</v>
@@ -6283,7 +6289,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6695,7 +6701,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7107,7 +7113,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7313,7 +7319,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7391,7 +7397,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ31">
         <v>1.3</v>
@@ -7519,7 +7525,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7725,7 +7731,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8137,7 +8143,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8549,7 +8555,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8836,7 +8842,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ38">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8961,7 +8967,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9167,7 +9173,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9248,7 +9254,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9373,7 +9379,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9863,7 +9869,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ43">
         <v>1.55</v>
@@ -10197,7 +10203,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10815,7 +10821,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11227,7 +11233,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11433,7 +11439,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11639,7 +11645,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12051,7 +12057,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12257,7 +12263,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12463,7 +12469,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12544,7 +12550,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ56">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12875,7 +12881,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12953,7 +12959,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13081,7 +13087,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13493,7 +13499,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13780,7 +13786,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13905,7 +13911,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14111,7 +14117,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14523,7 +14529,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14729,7 +14735,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14935,7 +14941,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15553,7 +15559,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15631,7 +15637,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ71">
         <v>1.4</v>
@@ -15759,7 +15765,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16377,7 +16383,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16583,7 +16589,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16664,7 +16670,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ76">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16789,7 +16795,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16995,7 +17001,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17407,7 +17413,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17613,7 +17619,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17819,7 +17825,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18025,7 +18031,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18103,7 +18109,7 @@
         <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ83">
         <v>0.7</v>
@@ -18437,7 +18443,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18643,7 +18649,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18849,7 +18855,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19055,7 +19061,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19467,7 +19473,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19673,7 +19679,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19879,7 +19885,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20497,7 +20503,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20703,7 +20709,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21115,7 +21121,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21527,7 +21533,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21939,7 +21945,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22226,7 +22232,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ103">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR103">
         <v>1.84</v>
@@ -22432,7 +22438,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ104">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22557,7 +22563,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22763,7 +22769,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23047,7 +23053,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ107">
         <v>1.3</v>
@@ -23175,7 +23181,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23381,7 +23387,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -24080,7 +24086,7 @@
         <v>2</v>
       </c>
       <c r="AQ112">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24205,7 +24211,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24823,7 +24829,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25107,7 +25113,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.44</v>
+        <v>1.6</v>
       </c>
       <c r="AQ117">
         <v>0.6</v>
@@ -25441,7 +25447,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25804,6 +25810,212 @@
       </c>
       <c r="BP120">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7325419</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45525.5</v>
+      </c>
+      <c r="F121">
+        <v>15</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" t="s">
+        <v>73</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>1</v>
+      </c>
+      <c r="N121">
+        <v>3</v>
+      </c>
+      <c r="O121" t="s">
+        <v>170</v>
+      </c>
+      <c r="P121" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q121">
+        <v>2.8</v>
+      </c>
+      <c r="R121">
+        <v>2.19</v>
+      </c>
+      <c r="S121">
+        <v>3.58</v>
+      </c>
+      <c r="T121">
+        <v>1.36</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.66</v>
+      </c>
+      <c r="W121">
+        <v>1.44</v>
+      </c>
+      <c r="X121">
+        <v>6.5</v>
+      </c>
+      <c r="Y121">
+        <v>1.09</v>
+      </c>
+      <c r="Z121">
+        <v>1.8</v>
+      </c>
+      <c r="AA121">
+        <v>3.54</v>
+      </c>
+      <c r="AB121">
+        <v>4.05</v>
+      </c>
+      <c r="AC121">
+        <v>1.01</v>
+      </c>
+      <c r="AD121">
+        <v>9.9</v>
+      </c>
+      <c r="AE121">
+        <v>1.23</v>
+      </c>
+      <c r="AF121">
+        <v>3.58</v>
+      </c>
+      <c r="AG121">
+        <v>1.85</v>
+      </c>
+      <c r="AH121">
+        <v>1.87</v>
+      </c>
+      <c r="AI121">
+        <v>1.83</v>
+      </c>
+      <c r="AJ121">
+        <v>2.2</v>
+      </c>
+      <c r="AK121">
+        <v>1.39</v>
+      </c>
+      <c r="AL121">
+        <v>1.3</v>
+      </c>
+      <c r="AM121">
+        <v>1.64</v>
+      </c>
+      <c r="AN121">
+        <v>1.44</v>
+      </c>
+      <c r="AO121">
+        <v>0.78</v>
+      </c>
+      <c r="AP121">
+        <v>1.6</v>
+      </c>
+      <c r="AQ121">
+        <v>0.7</v>
+      </c>
+      <c r="AR121">
+        <v>1.67</v>
+      </c>
+      <c r="AS121">
+        <v>1.08</v>
+      </c>
+      <c r="AT121">
+        <v>2.75</v>
+      </c>
+      <c r="AU121">
+        <v>2</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>8</v>
+      </c>
+      <c r="AX121">
+        <v>1</v>
+      </c>
+      <c r="AY121">
+        <v>10</v>
+      </c>
+      <c r="AZ121">
+        <v>4</v>
+      </c>
+      <c r="BA121">
+        <v>10</v>
+      </c>
+      <c r="BB121">
+        <v>1</v>
+      </c>
+      <c r="BC121">
+        <v>11</v>
+      </c>
+      <c r="BD121">
+        <v>1.62</v>
+      </c>
+      <c r="BE121">
+        <v>8.5</v>
+      </c>
+      <c r="BF121">
+        <v>2.6</v>
+      </c>
+      <c r="BG121">
+        <v>1.19</v>
+      </c>
+      <c r="BH121">
+        <v>3.95</v>
+      </c>
+      <c r="BI121">
+        <v>1.39</v>
+      </c>
+      <c r="BJ121">
+        <v>2.76</v>
+      </c>
+      <c r="BK121">
+        <v>1.7</v>
+      </c>
+      <c r="BL121">
+        <v>2.08</v>
+      </c>
+      <c r="BM121">
+        <v>2.12</v>
+      </c>
+      <c r="BN121">
+        <v>1.64</v>
+      </c>
+      <c r="BO121">
+        <v>2.79</v>
+      </c>
+      <c r="BP121">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="788" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="238">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -527,6 +527,9 @@
   </si>
   <si>
     <t>['47', '84']</t>
+  </si>
+  <si>
+    <t>['11', '18', '30', '34', '52']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1086,7 +1089,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP121"/>
+  <dimension ref="A1:BP123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1348,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1629,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1757,7 +1760,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1963,7 +1966,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2044,7 +2047,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2169,7 +2172,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2375,7 +2378,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2787,7 +2790,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2868,7 +2871,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ9">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -2993,7 +2996,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3199,7 +3202,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3405,7 +3408,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3483,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3611,7 +3614,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4229,7 +4232,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4516,7 +4519,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ17">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4641,7 +4644,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4847,7 +4850,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5053,7 +5056,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5259,7 +5262,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5340,7 +5343,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ21">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5465,7 +5468,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5671,7 +5674,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5877,7 +5880,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5955,7 +5958,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ24">
         <v>1.3</v>
@@ -6289,7 +6292,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6701,7 +6704,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6779,7 +6782,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ28">
         <v>0.6</v>
@@ -6988,7 +6991,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ29">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -7113,7 +7116,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7319,7 +7322,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7400,7 +7403,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ31">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7525,7 +7528,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7731,7 +7734,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8143,7 +8146,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8221,7 +8224,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8555,7 +8558,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8967,7 +8970,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9173,7 +9176,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9251,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ40">
         <v>0.7</v>
@@ -9379,7 +9382,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9663,10 +9666,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ42">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -10203,7 +10206,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10693,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ47">
         <v>0.78</v>
@@ -10821,7 +10824,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11233,7 +11236,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11314,7 +11317,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ50">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11439,7 +11442,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11645,7 +11648,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12057,7 +12060,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12138,7 +12141,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ54">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12263,7 +12266,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12341,7 +12344,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ55">
         <v>1.55</v>
@@ -12469,7 +12472,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12753,7 +12756,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ57">
         <v>1.4</v>
@@ -12881,7 +12884,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13087,7 +13090,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13499,7 +13502,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13911,7 +13914,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -14117,7 +14120,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14529,7 +14532,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14607,7 +14610,7 @@
         <v>0.4</v>
       </c>
       <c r="AP66">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ66">
         <v>0.5</v>
@@ -14735,7 +14738,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14816,7 +14819,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ67">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR67">
         <v>1.63</v>
@@ -14941,7 +14944,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15434,7 +15437,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ70">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR70">
         <v>1.62</v>
@@ -15559,7 +15562,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15765,7 +15768,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16383,7 +16386,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16461,7 +16464,7 @@
         <v>1.4</v>
       </c>
       <c r="AP75">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ75">
         <v>1.4</v>
@@ -16589,7 +16592,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16795,7 +16798,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17001,7 +17004,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17285,7 +17288,7 @@
         <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ79">
         <v>1.55</v>
@@ -17413,7 +17416,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17494,7 +17497,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ80">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -17619,7 +17622,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17825,7 +17828,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18031,7 +18034,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18112,7 +18115,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ83">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR83">
         <v>1.64</v>
@@ -18315,7 +18318,7 @@
         <v>1.57</v>
       </c>
       <c r="AP84">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ84">
         <v>1.4</v>
@@ -18443,7 +18446,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18524,7 +18527,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ85">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR85">
         <v>1.85</v>
@@ -18649,7 +18652,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18730,7 +18733,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR86">
         <v>1.21</v>
@@ -18855,7 +18858,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19061,7 +19064,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19139,7 +19142,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ88">
         <v>1.4</v>
@@ -19473,7 +19476,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19679,7 +19682,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19885,7 +19888,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20172,7 +20175,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ93">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR93">
         <v>1.91</v>
@@ -20375,10 +20378,10 @@
         <v>0.88</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ94">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR94">
         <v>1.25</v>
@@ -20503,7 +20506,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20709,7 +20712,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20787,7 +20790,7 @@
         <v>1.86</v>
       </c>
       <c r="AP96">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ96">
         <v>1.3</v>
@@ -21121,7 +21124,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21533,7 +21536,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21945,7 +21948,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22563,7 +22566,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22769,7 +22772,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22847,7 +22850,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ106">
         <v>1.5</v>
@@ -23181,7 +23184,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23387,7 +23390,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23468,7 +23471,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ109">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR109">
         <v>1.12</v>
@@ -23674,7 +23677,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ110">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -23877,7 +23880,7 @@
         <v>0.88</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="AQ111">
         <v>0.78</v>
@@ -24083,7 +24086,7 @@
         <v>0.88</v>
       </c>
       <c r="AP112">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ112">
         <v>0.7</v>
@@ -24211,7 +24214,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24829,7 +24832,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25447,7 +25450,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25528,7 +25531,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ119">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AR119">
         <v>1.82</v>
@@ -25859,7 +25862,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -26016,6 +26019,418 @@
       </c>
       <c r="BP121">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7325453</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F122">
+        <v>21</v>
+      </c>
+      <c r="G122" t="s">
+        <v>81</v>
+      </c>
+      <c r="H122" t="s">
+        <v>74</v>
+      </c>
+      <c r="I122">
+        <v>0</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>1</v>
+      </c>
+      <c r="L122">
+        <v>0</v>
+      </c>
+      <c r="M122">
+        <v>1</v>
+      </c>
+      <c r="N122">
+        <v>1</v>
+      </c>
+      <c r="O122" t="s">
+        <v>83</v>
+      </c>
+      <c r="P122" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q122">
+        <v>3.24</v>
+      </c>
+      <c r="R122">
+        <v>2.11</v>
+      </c>
+      <c r="S122">
+        <v>3.24</v>
+      </c>
+      <c r="T122">
+        <v>1.39</v>
+      </c>
+      <c r="U122">
+        <v>2.86</v>
+      </c>
+      <c r="V122">
+        <v>2.67</v>
+      </c>
+      <c r="W122">
+        <v>1.44</v>
+      </c>
+      <c r="X122">
+        <v>6.6</v>
+      </c>
+      <c r="Y122">
+        <v>1.09</v>
+      </c>
+      <c r="Z122">
+        <v>2.5</v>
+      </c>
+      <c r="AA122">
+        <v>3.25</v>
+      </c>
+      <c r="AB122">
+        <v>2.7</v>
+      </c>
+      <c r="AC122">
+        <v>1.02</v>
+      </c>
+      <c r="AD122">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE122">
+        <v>1.24</v>
+      </c>
+      <c r="AF122">
+        <v>3.5</v>
+      </c>
+      <c r="AG122">
+        <v>1.86</v>
+      </c>
+      <c r="AH122">
+        <v>1.98</v>
+      </c>
+      <c r="AI122">
+        <v>1.65</v>
+      </c>
+      <c r="AJ122">
+        <v>2.18</v>
+      </c>
+      <c r="AK122">
+        <v>1.48</v>
+      </c>
+      <c r="AL122">
+        <v>1.33</v>
+      </c>
+      <c r="AM122">
+        <v>1.49</v>
+      </c>
+      <c r="AN122">
+        <v>1.5</v>
+      </c>
+      <c r="AO122">
+        <v>1.3</v>
+      </c>
+      <c r="AP122">
+        <v>1.36</v>
+      </c>
+      <c r="AQ122">
+        <v>1.45</v>
+      </c>
+      <c r="AR122">
+        <v>1.14</v>
+      </c>
+      <c r="AS122">
+        <v>1.29</v>
+      </c>
+      <c r="AT122">
+        <v>2.43</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>5</v>
+      </c>
+      <c r="AW122">
+        <v>7</v>
+      </c>
+      <c r="AX122">
+        <v>4</v>
+      </c>
+      <c r="AY122">
+        <v>10</v>
+      </c>
+      <c r="AZ122">
+        <v>9</v>
+      </c>
+      <c r="BA122">
+        <v>7</v>
+      </c>
+      <c r="BB122">
+        <v>4</v>
+      </c>
+      <c r="BC122">
+        <v>11</v>
+      </c>
+      <c r="BD122">
+        <v>1.91</v>
+      </c>
+      <c r="BE122">
+        <v>8</v>
+      </c>
+      <c r="BF122">
+        <v>2.1</v>
+      </c>
+      <c r="BG122">
+        <v>1.17</v>
+      </c>
+      <c r="BH122">
+        <v>4.25</v>
+      </c>
+      <c r="BI122">
+        <v>1.34</v>
+      </c>
+      <c r="BJ122">
+        <v>2.88</v>
+      </c>
+      <c r="BK122">
+        <v>1.82</v>
+      </c>
+      <c r="BL122">
+        <v>1.98</v>
+      </c>
+      <c r="BM122">
+        <v>2.07</v>
+      </c>
+      <c r="BN122">
+        <v>1.72</v>
+      </c>
+      <c r="BO122">
+        <v>2.65</v>
+      </c>
+      <c r="BP122">
+        <v>1.42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7325454</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45528.45833333334</v>
+      </c>
+      <c r="F123">
+        <v>21</v>
+      </c>
+      <c r="G123" t="s">
+        <v>71</v>
+      </c>
+      <c r="H123" t="s">
+        <v>80</v>
+      </c>
+      <c r="I123">
+        <v>4</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>4</v>
+      </c>
+      <c r="L123">
+        <v>5</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>5</v>
+      </c>
+      <c r="O123" t="s">
+        <v>171</v>
+      </c>
+      <c r="P123" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q123">
+        <v>1.5</v>
+      </c>
+      <c r="R123">
+        <v>3.28</v>
+      </c>
+      <c r="S123">
+        <v>10.13</v>
+      </c>
+      <c r="T123">
+        <v>1.2</v>
+      </c>
+      <c r="U123">
+        <v>4.25</v>
+      </c>
+      <c r="V123">
+        <v>2.01</v>
+      </c>
+      <c r="W123">
+        <v>1.8</v>
+      </c>
+      <c r="X123">
+        <v>4</v>
+      </c>
+      <c r="Y123">
+        <v>1.22</v>
+      </c>
+      <c r="Z123">
+        <v>1.17</v>
+      </c>
+      <c r="AA123">
+        <v>6.5</v>
+      </c>
+      <c r="AB123">
+        <v>11</v>
+      </c>
+      <c r="AC123">
+        <v>1.01</v>
+      </c>
+      <c r="AD123">
+        <v>30</v>
+      </c>
+      <c r="AE123">
+        <v>1.08</v>
+      </c>
+      <c r="AF123">
+        <v>6</v>
+      </c>
+      <c r="AG123">
+        <v>1.36</v>
+      </c>
+      <c r="AH123">
+        <v>2.89</v>
+      </c>
+      <c r="AI123">
+        <v>1.91</v>
+      </c>
+      <c r="AJ123">
+        <v>1.8</v>
+      </c>
+      <c r="AK123">
+        <v>1.04</v>
+      </c>
+      <c r="AL123">
+        <v>1.07</v>
+      </c>
+      <c r="AM123">
+        <v>4.5</v>
+      </c>
+      <c r="AN123">
+        <v>2</v>
+      </c>
+      <c r="AO123">
+        <v>0.7</v>
+      </c>
+      <c r="AP123">
+        <v>2.09</v>
+      </c>
+      <c r="AQ123">
+        <v>0.64</v>
+      </c>
+      <c r="AR123">
+        <v>1.71</v>
+      </c>
+      <c r="AS123">
+        <v>1.32</v>
+      </c>
+      <c r="AT123">
+        <v>3.03</v>
+      </c>
+      <c r="AU123">
+        <v>9</v>
+      </c>
+      <c r="AV123">
+        <v>2</v>
+      </c>
+      <c r="AW123">
+        <v>7</v>
+      </c>
+      <c r="AX123">
+        <v>8</v>
+      </c>
+      <c r="AY123">
+        <v>16</v>
+      </c>
+      <c r="AZ123">
+        <v>10</v>
+      </c>
+      <c r="BA123">
+        <v>6</v>
+      </c>
+      <c r="BB123">
+        <v>3</v>
+      </c>
+      <c r="BC123">
+        <v>9</v>
+      </c>
+      <c r="BD123">
+        <v>1.21</v>
+      </c>
+      <c r="BE123">
+        <v>11</v>
+      </c>
+      <c r="BF123">
+        <v>5.6</v>
+      </c>
+      <c r="BG123">
+        <v>1.18</v>
+      </c>
+      <c r="BH123">
+        <v>4.5</v>
+      </c>
+      <c r="BI123">
+        <v>1.34</v>
+      </c>
+      <c r="BJ123">
+        <v>3.1</v>
+      </c>
+      <c r="BK123">
+        <v>1.85</v>
+      </c>
+      <c r="BL123">
+        <v>1.95</v>
+      </c>
+      <c r="BM123">
+        <v>2.02</v>
+      </c>
+      <c r="BN123">
+        <v>1.74</v>
+      </c>
+      <c r="BO123">
+        <v>2.7</v>
+      </c>
+      <c r="BP123">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -530,6 +530,9 @@
   </si>
   <si>
     <t>['11', '18', '30', '34', '52']</t>
+  </si>
+  <si>
+    <t>['35', '51', '85']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1089,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP123"/>
+  <dimension ref="A1:BP126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1348,7 +1351,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1429,7 +1432,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ2">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1760,7 +1763,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1966,7 +1969,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2172,7 +2175,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2253,7 +2256,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ6">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2378,7 +2381,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2456,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ7">
         <v>1.4</v>
@@ -2662,7 +2665,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2790,7 +2793,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2996,7 +2999,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3202,7 +3205,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3408,7 +3411,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3614,7 +3617,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4232,7 +4235,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4310,10 +4313,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ16">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4516,7 +4519,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ17">
         <v>1.45</v>
@@ -4644,7 +4647,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4850,7 +4853,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5056,7 +5059,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5262,7 +5265,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5468,7 +5471,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5674,7 +5677,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5752,7 +5755,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ23">
         <v>1.55</v>
@@ -5880,7 +5883,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5961,7 +5964,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ24">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6292,7 +6295,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6704,7 +6707,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6988,7 +6991,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ29">
         <v>0.64</v>
@@ -7116,7 +7119,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7322,7 +7325,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7528,7 +7531,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7609,7 +7612,7 @@
         <v>1</v>
       </c>
       <c r="AQ32">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7734,7 +7737,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7812,10 +7815,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ33">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -8146,7 +8149,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8558,7 +8561,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8842,10 +8845,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ38">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8970,7 +8973,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9048,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ39">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9176,7 +9179,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9257,7 +9260,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ40">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9382,7 +9385,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9463,7 +9466,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ41">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -10206,7 +10209,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10490,7 +10493,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ46">
         <v>1</v>
@@ -10699,7 +10702,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ47">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10824,7 +10827,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11108,7 +11111,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ49">
         <v>1.5</v>
@@ -11236,7 +11239,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11314,7 +11317,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ50">
         <v>0.64</v>
@@ -11442,7 +11445,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11648,7 +11651,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11726,7 +11729,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ52">
         <v>1.4</v>
@@ -11935,7 +11938,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ53">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -12060,7 +12063,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12266,7 +12269,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12472,7 +12475,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12553,7 +12556,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ56">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12884,7 +12887,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13090,7 +13093,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13171,7 +13174,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ59">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13502,7 +13505,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13580,10 +13583,10 @@
         <v>0</v>
       </c>
       <c r="AP61">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ61">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13789,7 +13792,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ62">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR62">
         <v>1.44</v>
@@ -13914,7 +13917,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13992,7 +13995,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ63">
         <v>1.4</v>
@@ -14120,7 +14123,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14198,7 +14201,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ64">
         <v>0.6</v>
@@ -14532,7 +14535,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14738,7 +14741,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14944,7 +14947,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15231,7 +15234,7 @@
         <v>1</v>
       </c>
       <c r="AQ69">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR69">
         <v>1.19</v>
@@ -15434,7 +15437,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ70">
         <v>1.45</v>
@@ -15562,7 +15565,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15768,7 +15771,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -15846,7 +15849,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ72">
         <v>1</v>
@@ -16055,7 +16058,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ73">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR73">
         <v>1.38</v>
@@ -16386,7 +16389,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16592,7 +16595,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16673,7 +16676,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ76">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR76">
         <v>1.23</v>
@@ -16798,7 +16801,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -16876,7 +16879,7 @@
         <v>1.86</v>
       </c>
       <c r="AP77">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ77">
         <v>1.55</v>
@@ -17004,7 +17007,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17085,7 +17088,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ78">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17416,7 +17419,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17622,7 +17625,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17700,7 +17703,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ81">
         <v>1.5</v>
@@ -17828,7 +17831,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18034,7 +18037,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18446,7 +18449,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18652,7 +18655,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18858,7 +18861,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18936,7 +18939,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19064,7 +19067,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19476,7 +19479,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19557,7 +19560,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ90">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR90">
         <v>1.13</v>
@@ -19682,7 +19685,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19760,7 +19763,7 @@
         <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ91">
         <v>0.6</v>
@@ -19888,7 +19891,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20172,7 +20175,7 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ93">
         <v>1.45</v>
@@ -20506,7 +20509,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20712,7 +20715,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20793,7 +20796,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ96">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR96">
         <v>1.83</v>
@@ -20996,7 +20999,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ97">
         <v>0.5</v>
@@ -21124,7 +21127,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21408,7 +21411,7 @@
         <v>0.75</v>
       </c>
       <c r="AP99">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ99">
         <v>0.6</v>
@@ -21536,7 +21539,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21948,7 +21951,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22235,7 +22238,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ103">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR103">
         <v>1.84</v>
@@ -22441,7 +22444,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ104">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22566,7 +22569,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22644,7 +22647,7 @@
         <v>1.38</v>
       </c>
       <c r="AP105">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ105">
         <v>1.4</v>
@@ -22772,7 +22775,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -23059,7 +23062,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ107">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR107">
         <v>1.75</v>
@@ -23184,7 +23187,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23262,7 +23265,7 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ108">
         <v>1.4</v>
@@ -23390,7 +23393,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23674,7 +23677,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AQ110">
         <v>0.64</v>
@@ -23883,7 +23886,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ111">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AR111">
         <v>1.2</v>
@@ -24089,7 +24092,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ112">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24214,7 +24217,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24501,7 +24504,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ114">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AR114">
         <v>1.9</v>
@@ -24832,7 +24835,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25322,7 +25325,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="AQ118">
         <v>1.5</v>
@@ -25450,7 +25453,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25862,7 +25865,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -25943,7 +25946,7 @@
         <v>1.6</v>
       </c>
       <c r="AQ121">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26068,7 +26071,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q122">
         <v>3.24</v>
@@ -26431,6 +26434,624 @@
       </c>
       <c r="BP123">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7325452</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45529.41666666666</v>
+      </c>
+      <c r="F124">
+        <v>21</v>
+      </c>
+      <c r="G124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s">
+        <v>78</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>1</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>1</v>
+      </c>
+      <c r="O124" t="s">
+        <v>103</v>
+      </c>
+      <c r="P124" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q124">
+        <v>2.63</v>
+      </c>
+      <c r="R124">
+        <v>2.25</v>
+      </c>
+      <c r="S124">
+        <v>4</v>
+      </c>
+      <c r="T124">
+        <v>1.36</v>
+      </c>
+      <c r="U124">
+        <v>3</v>
+      </c>
+      <c r="V124">
+        <v>2.63</v>
+      </c>
+      <c r="W124">
+        <v>1.44</v>
+      </c>
+      <c r="X124">
+        <v>7</v>
+      </c>
+      <c r="Y124">
+        <v>1.1</v>
+      </c>
+      <c r="Z124">
+        <v>2</v>
+      </c>
+      <c r="AA124">
+        <v>3.3</v>
+      </c>
+      <c r="AB124">
+        <v>3.4</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>13</v>
+      </c>
+      <c r="AE124">
+        <v>1.23</v>
+      </c>
+      <c r="AF124">
+        <v>3.75</v>
+      </c>
+      <c r="AG124">
+        <v>1.8</v>
+      </c>
+      <c r="AH124">
+        <v>2</v>
+      </c>
+      <c r="AI124">
+        <v>1.67</v>
+      </c>
+      <c r="AJ124">
+        <v>2.1</v>
+      </c>
+      <c r="AK124">
+        <v>1.3</v>
+      </c>
+      <c r="AL124">
+        <v>1.27</v>
+      </c>
+      <c r="AM124">
+        <v>1.72</v>
+      </c>
+      <c r="AN124">
+        <v>2.3</v>
+      </c>
+      <c r="AO124">
+        <v>0.78</v>
+      </c>
+      <c r="AP124">
+        <v>2.36</v>
+      </c>
+      <c r="AQ124">
+        <v>0.7</v>
+      </c>
+      <c r="AR124">
+        <v>1.93</v>
+      </c>
+      <c r="AS124">
+        <v>1.67</v>
+      </c>
+      <c r="AT124">
+        <v>3.6</v>
+      </c>
+      <c r="AU124">
+        <v>5</v>
+      </c>
+      <c r="AV124">
+        <v>6</v>
+      </c>
+      <c r="AW124">
+        <v>12</v>
+      </c>
+      <c r="AX124">
+        <v>7</v>
+      </c>
+      <c r="AY124">
+        <v>17</v>
+      </c>
+      <c r="AZ124">
+        <v>13</v>
+      </c>
+      <c r="BA124">
+        <v>4</v>
+      </c>
+      <c r="BB124">
+        <v>4</v>
+      </c>
+      <c r="BC124">
+        <v>8</v>
+      </c>
+      <c r="BD124">
+        <v>1.95</v>
+      </c>
+      <c r="BE124">
+        <v>8</v>
+      </c>
+      <c r="BF124">
+        <v>2.1</v>
+      </c>
+      <c r="BG124">
+        <v>1.18</v>
+      </c>
+      <c r="BH124">
+        <v>4.5</v>
+      </c>
+      <c r="BI124">
+        <v>1.34</v>
+      </c>
+      <c r="BJ124">
+        <v>3.1</v>
+      </c>
+      <c r="BK124">
+        <v>1.61</v>
+      </c>
+      <c r="BL124">
+        <v>2.23</v>
+      </c>
+      <c r="BM124">
+        <v>2.02</v>
+      </c>
+      <c r="BN124">
+        <v>1.74</v>
+      </c>
+      <c r="BO124">
+        <v>2.7</v>
+      </c>
+      <c r="BP124">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7325455</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45529.41666666666</v>
+      </c>
+      <c r="F125">
+        <v>21</v>
+      </c>
+      <c r="G125" t="s">
+        <v>75</v>
+      </c>
+      <c r="H125" t="s">
+        <v>73</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>0</v>
+      </c>
+      <c r="K125">
+        <v>1</v>
+      </c>
+      <c r="L125">
+        <v>3</v>
+      </c>
+      <c r="M125">
+        <v>0</v>
+      </c>
+      <c r="N125">
+        <v>3</v>
+      </c>
+      <c r="O125" t="s">
+        <v>172</v>
+      </c>
+      <c r="P125" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q125">
+        <v>1.82</v>
+      </c>
+      <c r="R125">
+        <v>2.52</v>
+      </c>
+      <c r="S125">
+        <v>7.95</v>
+      </c>
+      <c r="T125">
+        <v>1.34</v>
+      </c>
+      <c r="U125">
+        <v>3.2</v>
+      </c>
+      <c r="V125">
+        <v>2.7</v>
+      </c>
+      <c r="W125">
+        <v>1.45</v>
+      </c>
+      <c r="X125">
+        <v>6.75</v>
+      </c>
+      <c r="Y125">
+        <v>1.11</v>
+      </c>
+      <c r="Z125">
+        <v>1.3</v>
+      </c>
+      <c r="AA125">
+        <v>4.6</v>
+      </c>
+      <c r="AB125">
+        <v>7.5</v>
+      </c>
+      <c r="AC125">
+        <v>1.04</v>
+      </c>
+      <c r="AD125">
+        <v>9</v>
+      </c>
+      <c r="AE125">
+        <v>1.25</v>
+      </c>
+      <c r="AF125">
+        <v>3.7</v>
+      </c>
+      <c r="AG125">
+        <v>1.7</v>
+      </c>
+      <c r="AH125">
+        <v>1.95</v>
+      </c>
+      <c r="AI125">
+        <v>2.12</v>
+      </c>
+      <c r="AJ125">
+        <v>1.7</v>
+      </c>
+      <c r="AK125">
+        <v>1.07</v>
+      </c>
+      <c r="AL125">
+        <v>1.15</v>
+      </c>
+      <c r="AM125">
+        <v>2.7</v>
+      </c>
+      <c r="AN125">
+        <v>2.67</v>
+      </c>
+      <c r="AO125">
+        <v>0.7</v>
+      </c>
+      <c r="AP125">
+        <v>2.7</v>
+      </c>
+      <c r="AQ125">
+        <v>0.64</v>
+      </c>
+      <c r="AR125">
+        <v>1.53</v>
+      </c>
+      <c r="AS125">
+        <v>1.03</v>
+      </c>
+      <c r="AT125">
+        <v>2.56</v>
+      </c>
+      <c r="AU125">
+        <v>11</v>
+      </c>
+      <c r="AV125">
+        <v>4</v>
+      </c>
+      <c r="AW125">
+        <v>9</v>
+      </c>
+      <c r="AX125">
+        <v>2</v>
+      </c>
+      <c r="AY125">
+        <v>20</v>
+      </c>
+      <c r="AZ125">
+        <v>6</v>
+      </c>
+      <c r="BA125">
+        <v>17</v>
+      </c>
+      <c r="BB125">
+        <v>4</v>
+      </c>
+      <c r="BC125">
+        <v>21</v>
+      </c>
+      <c r="BD125">
+        <v>1.23</v>
+      </c>
+      <c r="BE125">
+        <v>13.2</v>
+      </c>
+      <c r="BF125">
+        <v>5.08</v>
+      </c>
+      <c r="BG125">
+        <v>1.22</v>
+      </c>
+      <c r="BH125">
+        <v>3.65</v>
+      </c>
+      <c r="BI125">
+        <v>1.42</v>
+      </c>
+      <c r="BJ125">
+        <v>2.65</v>
+      </c>
+      <c r="BK125">
+        <v>1.74</v>
+      </c>
+      <c r="BL125">
+        <v>2.02</v>
+      </c>
+      <c r="BM125">
+        <v>2.17</v>
+      </c>
+      <c r="BN125">
+        <v>1.61</v>
+      </c>
+      <c r="BO125">
+        <v>2.84</v>
+      </c>
+      <c r="BP125">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7325456</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45529.52083333334</v>
+      </c>
+      <c r="F126">
+        <v>21</v>
+      </c>
+      <c r="G126" t="s">
+        <v>79</v>
+      </c>
+      <c r="H126" t="s">
+        <v>77</v>
+      </c>
+      <c r="I126">
+        <v>0</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>0</v>
+      </c>
+      <c r="L126">
+        <v>0</v>
+      </c>
+      <c r="M126">
+        <v>0</v>
+      </c>
+      <c r="N126">
+        <v>0</v>
+      </c>
+      <c r="O126" t="s">
+        <v>83</v>
+      </c>
+      <c r="P126" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q126">
+        <v>3.4</v>
+      </c>
+      <c r="R126">
+        <v>2.25</v>
+      </c>
+      <c r="S126">
+        <v>2.88</v>
+      </c>
+      <c r="T126">
+        <v>1.36</v>
+      </c>
+      <c r="U126">
+        <v>3</v>
+      </c>
+      <c r="V126">
+        <v>2.63</v>
+      </c>
+      <c r="W126">
+        <v>1.44</v>
+      </c>
+      <c r="X126">
+        <v>7</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>2.85</v>
+      </c>
+      <c r="AA126">
+        <v>3.5</v>
+      </c>
+      <c r="AB126">
+        <v>2.3</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>10</v>
+      </c>
+      <c r="AE126">
+        <v>1.22</v>
+      </c>
+      <c r="AF126">
+        <v>3.66</v>
+      </c>
+      <c r="AG126">
+        <v>1.75</v>
+      </c>
+      <c r="AH126">
+        <v>1.95</v>
+      </c>
+      <c r="AI126">
+        <v>1.62</v>
+      </c>
+      <c r="AJ126">
+        <v>2.2</v>
+      </c>
+      <c r="AK126">
+        <v>1.53</v>
+      </c>
+      <c r="AL126">
+        <v>1.26</v>
+      </c>
+      <c r="AM126">
+        <v>1.34</v>
+      </c>
+      <c r="AN126">
+        <v>1.2</v>
+      </c>
+      <c r="AO126">
+        <v>1.3</v>
+      </c>
+      <c r="AP126">
+        <v>1.18</v>
+      </c>
+      <c r="AQ126">
+        <v>1.27</v>
+      </c>
+      <c r="AR126">
+        <v>1.51</v>
+      </c>
+      <c r="AS126">
+        <v>1.35</v>
+      </c>
+      <c r="AT126">
+        <v>2.86</v>
+      </c>
+      <c r="AU126">
+        <v>5</v>
+      </c>
+      <c r="AV126">
+        <v>3</v>
+      </c>
+      <c r="AW126">
+        <v>7</v>
+      </c>
+      <c r="AX126">
+        <v>0</v>
+      </c>
+      <c r="AY126">
+        <v>12</v>
+      </c>
+      <c r="AZ126">
+        <v>3</v>
+      </c>
+      <c r="BA126">
+        <v>2</v>
+      </c>
+      <c r="BB126">
+        <v>2</v>
+      </c>
+      <c r="BC126">
+        <v>4</v>
+      </c>
+      <c r="BD126">
+        <v>2.1</v>
+      </c>
+      <c r="BE126">
+        <v>8</v>
+      </c>
+      <c r="BF126">
+        <v>1.91</v>
+      </c>
+      <c r="BG126">
+        <v>1.2</v>
+      </c>
+      <c r="BH126">
+        <v>4.25</v>
+      </c>
+      <c r="BI126">
+        <v>1.38</v>
+      </c>
+      <c r="BJ126">
+        <v>2.9</v>
+      </c>
+      <c r="BK126">
+        <v>1.7</v>
+      </c>
+      <c r="BL126">
+        <v>2.1</v>
+      </c>
+      <c r="BM126">
+        <v>2.1</v>
+      </c>
+      <c r="BN126">
+        <v>1.7</v>
+      </c>
+      <c r="BO126">
+        <v>2.85</v>
+      </c>
+      <c r="BP126">
+        <v>1.38</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1092,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1841,7 +1841,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ4">
         <v>0.6</v>
@@ -3492,7 +3492,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3901,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ14">
         <v>1.5</v>
@@ -4728,7 +4728,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -5137,7 +5137,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ20">
         <v>1.4</v>
@@ -7197,7 +7197,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ30">
         <v>1.55</v>
@@ -8230,7 +8230,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -9463,7 +9463,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ41">
         <v>0.7</v>
@@ -10496,7 +10496,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ46">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -11526,7 +11526,7 @@
         <v>1</v>
       </c>
       <c r="AQ51">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -12553,7 +12553,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ56">
         <v>0.64</v>
@@ -14410,7 +14410,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ65">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14819,7 +14819,7 @@
         <v>0.2</v>
       </c>
       <c r="AP67">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ67">
         <v>0.64</v>
@@ -15852,7 +15852,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR72">
         <v>1.51</v>
@@ -17497,7 +17497,7 @@
         <v>1.4</v>
       </c>
       <c r="AP80">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ80">
         <v>1.45</v>
@@ -18942,7 +18942,7 @@
         <v>2.7</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR87">
         <v>1.85</v>
@@ -21208,7 +21208,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ98">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR98">
         <v>1.67</v>
@@ -21617,7 +21617,7 @@
         <v>0.38</v>
       </c>
       <c r="AP100">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -21826,7 +21826,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AR101">
         <v>1.44</v>
@@ -24501,7 +24501,7 @@
         <v>1.44</v>
       </c>
       <c r="AP114">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="AQ114">
         <v>1.27</v>
@@ -26991,16 +26991,16 @@
         <v>5</v>
       </c>
       <c r="AV126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW126">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AX126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY126">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ126">
         <v>3</v>
@@ -27052,6 +27052,212 @@
       </c>
       <c r="BP126">
         <v>1.38</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7325451</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45530.54166666666</v>
+      </c>
+      <c r="F127">
+        <v>21</v>
+      </c>
+      <c r="G127" t="s">
+        <v>72</v>
+      </c>
+      <c r="H127" t="s">
+        <v>70</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>1</v>
+      </c>
+      <c r="L127">
+        <v>0</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>1</v>
+      </c>
+      <c r="O127" t="s">
+        <v>83</v>
+      </c>
+      <c r="P127" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q127">
+        <v>2.25</v>
+      </c>
+      <c r="R127">
+        <v>2.54</v>
+      </c>
+      <c r="S127">
+        <v>4.6</v>
+      </c>
+      <c r="T127">
+        <v>1.29</v>
+      </c>
+      <c r="U127">
+        <v>3.42</v>
+      </c>
+      <c r="V127">
+        <v>2.35</v>
+      </c>
+      <c r="W127">
+        <v>1.6</v>
+      </c>
+      <c r="X127">
+        <v>5.45</v>
+      </c>
+      <c r="Y127">
+        <v>1.13</v>
+      </c>
+      <c r="Z127">
+        <v>1.61</v>
+      </c>
+      <c r="AA127">
+        <v>3.8</v>
+      </c>
+      <c r="AB127">
+        <v>4.2</v>
+      </c>
+      <c r="AC127">
+        <v>1.03</v>
+      </c>
+      <c r="AD127">
+        <v>12</v>
+      </c>
+      <c r="AE127">
+        <v>1.15</v>
+      </c>
+      <c r="AF127">
+        <v>4.45</v>
+      </c>
+      <c r="AG127">
+        <v>1.55</v>
+      </c>
+      <c r="AH127">
+        <v>2.2</v>
+      </c>
+      <c r="AI127">
+        <v>1.58</v>
+      </c>
+      <c r="AJ127">
+        <v>2.29</v>
+      </c>
+      <c r="AK127">
+        <v>1.2</v>
+      </c>
+      <c r="AL127">
+        <v>1.22</v>
+      </c>
+      <c r="AM127">
+        <v>2</v>
+      </c>
+      <c r="AN127">
+        <v>2.1</v>
+      </c>
+      <c r="AO127">
+        <v>1</v>
+      </c>
+      <c r="AP127">
+        <v>1.91</v>
+      </c>
+      <c r="AQ127">
+        <v>1.18</v>
+      </c>
+      <c r="AR127">
+        <v>1.92</v>
+      </c>
+      <c r="AS127">
+        <v>1.51</v>
+      </c>
+      <c r="AT127">
+        <v>3.43</v>
+      </c>
+      <c r="AU127">
+        <v>8</v>
+      </c>
+      <c r="AV127">
+        <v>4</v>
+      </c>
+      <c r="AW127">
+        <v>11</v>
+      </c>
+      <c r="AX127">
+        <v>5</v>
+      </c>
+      <c r="AY127">
+        <v>19</v>
+      </c>
+      <c r="AZ127">
+        <v>9</v>
+      </c>
+      <c r="BA127">
+        <v>9</v>
+      </c>
+      <c r="BB127">
+        <v>2</v>
+      </c>
+      <c r="BC127">
+        <v>11</v>
+      </c>
+      <c r="BD127">
+        <v>1.64</v>
+      </c>
+      <c r="BE127">
+        <v>8.5</v>
+      </c>
+      <c r="BF127">
+        <v>2.66</v>
+      </c>
+      <c r="BG127">
+        <v>1.22</v>
+      </c>
+      <c r="BH127">
+        <v>4</v>
+      </c>
+      <c r="BI127">
+        <v>1.42</v>
+      </c>
+      <c r="BJ127">
+        <v>2.75</v>
+      </c>
+      <c r="BK127">
+        <v>1.6</v>
+      </c>
+      <c r="BL127">
+        <v>2.24</v>
+      </c>
+      <c r="BM127">
+        <v>2</v>
+      </c>
+      <c r="BN127">
+        <v>1.8</v>
+      </c>
+      <c r="BO127">
+        <v>2.52</v>
+      </c>
+      <c r="BP127">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="245">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,21 @@
     <t>['35', '51', '85']</t>
   </si>
   <si>
+    <t>['61']</t>
+  </si>
+  <si>
+    <t>['47', '53']</t>
+  </si>
+  <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -637,9 +652,6 @@
     <t>['33', '89']</t>
   </si>
   <si>
-    <t>['5']</t>
-  </si>
-  <si>
     <t>['56']</t>
   </si>
   <si>
@@ -662,9 +674,6 @@
   </si>
   <si>
     <t>['31', '65']</t>
-  </si>
-  <si>
-    <t>['38']</t>
   </si>
   <si>
     <t>['76']</t>
@@ -731,6 +740,15 @@
   </si>
   <si>
     <t>['7']</t>
+  </si>
+  <si>
+    <t>['82']</t>
+  </si>
+  <si>
+    <t>['12', '26']</t>
+  </si>
+  <si>
+    <t>['10', '50', '84']</t>
   </si>
 </sst>
 </file>
@@ -1092,7 +1110,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1351,7 +1369,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1429,10 +1447,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ2">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1638,7 +1656,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1763,7 +1781,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1844,7 +1862,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ4">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1969,7 +1987,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2047,7 +2065,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ5">
         <v>0.64</v>
@@ -2175,7 +2193,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2253,7 +2271,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ6">
         <v>1.27</v>
@@ -2381,7 +2399,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2459,10 +2477,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ7">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2668,7 +2686,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2793,7 +2811,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2871,7 +2889,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ9">
         <v>0.64</v>
@@ -2999,7 +3017,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3077,10 +3095,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ10">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3205,7 +3223,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3286,7 +3304,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ11">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3411,7 +3429,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3617,7 +3635,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3695,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ13">
         <v>1.55</v>
@@ -3904,7 +3922,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ14">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -4235,7 +4253,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4647,7 +4665,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4725,7 +4743,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ18">
         <v>1.18</v>
@@ -4853,7 +4871,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4931,10 +4949,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ19">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5059,7 +5077,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5140,7 +5158,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ20">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5265,7 +5283,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5471,7 +5489,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5549,10 +5567,10 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ22">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5677,7 +5695,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5883,7 +5901,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6167,10 +6185,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ25">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6295,7 +6313,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6373,10 +6391,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ26">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6579,10 +6597,10 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6707,7 +6725,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6788,7 +6806,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ28">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -7119,7 +7137,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7325,7 +7343,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7403,7 +7421,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ31">
         <v>1.45</v>
@@ -7531,7 +7549,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7609,10 +7627,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7737,7 +7755,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7815,7 +7833,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ33">
         <v>1.27</v>
@@ -8021,10 +8039,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ34">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8149,7 +8167,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8436,7 +8454,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ36">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -8561,7 +8579,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8639,10 +8657,10 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -8973,7 +8991,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9179,7 +9197,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9385,7 +9403,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9466,7 +9484,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ41">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9875,7 +9893,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ43">
         <v>1.55</v>
@@ -10081,10 +10099,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10209,7 +10227,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10287,7 +10305,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ45">
         <v>1.55</v>
@@ -10702,7 +10720,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ47">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10827,7 +10845,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10905,10 +10923,10 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ48">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11114,7 +11132,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ49">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11239,7 +11257,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11317,7 +11335,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ50">
         <v>0.64</v>
@@ -11445,7 +11463,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11523,7 +11541,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ51">
         <v>1.18</v>
@@ -11651,7 +11669,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11732,7 +11750,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ52">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11935,10 +11953,10 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ53">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -12063,7 +12081,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12269,7 +12287,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12475,7 +12493,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12762,7 +12780,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ57">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -12887,7 +12905,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12965,10 +12983,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13093,7 +13111,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13171,7 +13189,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ59">
         <v>1.27</v>
@@ -13377,10 +13395,10 @@
         <v>1.75</v>
       </c>
       <c r="AP60">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ60">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR60">
         <v>1.91</v>
@@ -13505,7 +13523,7 @@
         <v>83</v>
       </c>
       <c r="P61" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q61">
         <v>4</v>
@@ -13586,7 +13604,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ61">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR61">
         <v>1.58</v>
@@ -13789,7 +13807,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ62">
         <v>0.64</v>
@@ -13917,7 +13935,7 @@
         <v>127</v>
       </c>
       <c r="P63" t="s">
-        <v>207</v>
+        <v>177</v>
       </c>
       <c r="Q63">
         <v>2.65</v>
@@ -13998,7 +14016,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ63">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14123,7 +14141,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14201,10 +14219,10 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ64">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14407,7 +14425,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ65">
         <v>1.18</v>
@@ -14535,7 +14553,7 @@
         <v>130</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>2.3</v>
@@ -14616,7 +14634,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ66">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR66">
         <v>1.29</v>
@@ -14741,7 +14759,7 @@
         <v>131</v>
       </c>
       <c r="P67" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>1.78</v>
@@ -14947,7 +14965,7 @@
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q68">
         <v>3.92</v>
@@ -15028,7 +15046,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ68">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR68">
         <v>1.65</v>
@@ -15231,7 +15249,7 @@
         <v>2.4</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ69">
         <v>1.27</v>
@@ -15437,7 +15455,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ70">
         <v>1.45</v>
@@ -15565,7 +15583,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15643,10 +15661,10 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ71">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -15771,7 +15789,7 @@
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q72">
         <v>3.4</v>
@@ -16055,10 +16073,10 @@
         <v>0.5</v>
       </c>
       <c r="AP73">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ73">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR73">
         <v>1.38</v>
@@ -16261,10 +16279,10 @@
         <v>0.33</v>
       </c>
       <c r="AP74">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ74">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR74">
         <v>1.86</v>
@@ -16389,7 +16407,7 @@
         <v>134</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.38</v>
@@ -16470,7 +16488,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ75">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR75">
         <v>1.91</v>
@@ -16595,7 +16613,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>3.52</v>
@@ -16673,7 +16691,7 @@
         <v>0.8</v>
       </c>
       <c r="AP76">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ76">
         <v>0.64</v>
@@ -16801,7 +16819,7 @@
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>176</v>
       </c>
       <c r="Q77">
         <v>2.75</v>
@@ -17007,7 +17025,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17419,7 +17437,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17625,7 +17643,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17706,7 +17724,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ81">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR81">
         <v>1.47</v>
@@ -17831,7 +17849,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17909,10 +17927,10 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ82">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR82">
         <v>1.17</v>
@@ -18037,7 +18055,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18115,7 +18133,7 @@
         <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ83">
         <v>0.64</v>
@@ -18324,7 +18342,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ84">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR84">
         <v>1.87</v>
@@ -18449,7 +18467,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18527,7 +18545,7 @@
         <v>0.57</v>
       </c>
       <c r="AP85">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ85">
         <v>0.64</v>
@@ -18655,7 +18673,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18733,7 +18751,7 @@
         <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ86">
         <v>1.45</v>
@@ -18861,7 +18879,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18939,7 +18957,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ87">
         <v>1.18</v>
@@ -19067,7 +19085,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19148,7 +19166,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ88">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19354,7 +19372,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR89">
         <v>1.58</v>
@@ -19479,7 +19497,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19557,10 +19575,10 @@
         <v>0.57</v>
       </c>
       <c r="AP90">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ90">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR90">
         <v>1.13</v>
@@ -19685,7 +19703,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19766,7 +19784,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ91">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR91">
         <v>1.47</v>
@@ -19891,7 +19909,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -19969,10 +19987,10 @@
         <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ92">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR92">
         <v>1.34</v>
@@ -20509,7 +20527,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20587,10 +20605,10 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20715,7 +20733,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20999,10 +21017,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR97">
         <v>1.79</v>
@@ -21127,7 +21145,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21414,7 +21432,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ99">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR99">
         <v>1.91</v>
@@ -21539,7 +21557,7 @@
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>1.8</v>
@@ -21620,7 +21638,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ100">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR100">
         <v>1.83</v>
@@ -21823,7 +21841,7 @@
         <v>0.78</v>
       </c>
       <c r="AP101">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ101">
         <v>1.18</v>
@@ -21951,7 +21969,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22029,7 +22047,7 @@
         <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ102">
         <v>1.55</v>
@@ -22235,7 +22253,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ103">
         <v>0.64</v>
@@ -22569,7 +22587,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22650,7 +22668,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ105">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR105">
         <v>1.53</v>
@@ -22775,7 +22793,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22856,7 +22874,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ106">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR106">
         <v>1.22</v>
@@ -23059,7 +23077,7 @@
         <v>1.63</v>
       </c>
       <c r="AP107">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ107">
         <v>1.27</v>
@@ -23187,7 +23205,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q108">
         <v>2.88</v>
@@ -23265,10 +23283,10 @@
         <v>1.75</v>
       </c>
       <c r="AP108">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ108">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR108">
         <v>1.71</v>
@@ -23393,7 +23411,7 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>4.33</v>
@@ -23471,7 +23489,7 @@
         <v>1.25</v>
       </c>
       <c r="AP109">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ109">
         <v>1.45</v>
@@ -23886,7 +23904,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ111">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR111">
         <v>1.2</v>
@@ -24217,7 +24235,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24295,7 +24313,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="AQ113">
         <v>1.55</v>
@@ -24710,7 +24728,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ115">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AR115">
         <v>1.56</v>
@@ -24835,7 +24853,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -24913,10 +24931,10 @@
         <v>1.22</v>
       </c>
       <c r="AP116">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AQ116">
-        <v>1.4</v>
+        <v>1.55</v>
       </c>
       <c r="AR116">
         <v>1.15</v>
@@ -25119,10 +25137,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ117">
-        <v>0.6</v>
+        <v>0.55</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25325,10 +25343,10 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ118">
-        <v>1.5</v>
+        <v>1.45</v>
       </c>
       <c r="AR118">
         <v>1.56</v>
@@ -25453,7 +25471,7 @@
         <v>169</v>
       </c>
       <c r="P119" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q119">
         <v>2.5</v>
@@ -25531,7 +25549,7 @@
         <v>1.44</v>
       </c>
       <c r="AP119">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ119">
         <v>1.45</v>
@@ -25737,10 +25755,10 @@
         <v>0.44</v>
       </c>
       <c r="AP120">
-        <v>1</v>
+        <v>1.18</v>
       </c>
       <c r="AQ120">
-        <v>0.5</v>
+        <v>0.55</v>
       </c>
       <c r="AR120">
         <v>1.18</v>
@@ -25865,7 +25883,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -25943,7 +25961,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AQ121">
         <v>0.64</v>
@@ -26071,7 +26089,7 @@
         <v>83</v>
       </c>
       <c r="P122" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q122">
         <v>3.24</v>
@@ -26564,7 +26582,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ124">
-        <v>0.7</v>
+        <v>0.91</v>
       </c>
       <c r="AR124">
         <v>1.93</v>
@@ -26767,7 +26785,7 @@
         <v>0.7</v>
       </c>
       <c r="AP125">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="AQ125">
         <v>0.64</v>
@@ -27258,6 +27276,1242 @@
       </c>
       <c r="BP127">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7325460</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F128">
+        <v>22</v>
+      </c>
+      <c r="G128" t="s">
+        <v>80</v>
+      </c>
+      <c r="H128" t="s">
+        <v>72</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>0</v>
+      </c>
+      <c r="K128">
+        <v>0</v>
+      </c>
+      <c r="L128">
+        <v>1</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>2</v>
+      </c>
+      <c r="O128" t="s">
+        <v>86</v>
+      </c>
+      <c r="P128" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q128">
+        <v>5.5</v>
+      </c>
+      <c r="R128">
+        <v>2.63</v>
+      </c>
+      <c r="S128">
+        <v>1.95</v>
+      </c>
+      <c r="T128">
+        <v>1.25</v>
+      </c>
+      <c r="U128">
+        <v>3.75</v>
+      </c>
+      <c r="V128">
+        <v>2.1</v>
+      </c>
+      <c r="W128">
+        <v>1.67</v>
+      </c>
+      <c r="X128">
+        <v>4.5</v>
+      </c>
+      <c r="Y128">
+        <v>1.18</v>
+      </c>
+      <c r="Z128">
+        <v>4.5</v>
+      </c>
+      <c r="AA128">
+        <v>4.35</v>
+      </c>
+      <c r="AB128">
+        <v>1.6</v>
+      </c>
+      <c r="AC128">
+        <v>1.01</v>
+      </c>
+      <c r="AD128">
+        <v>17</v>
+      </c>
+      <c r="AE128">
+        <v>1.08</v>
+      </c>
+      <c r="AF128">
+        <v>6.5</v>
+      </c>
+      <c r="AG128">
+        <v>1.42</v>
+      </c>
+      <c r="AH128">
+        <v>2.65</v>
+      </c>
+      <c r="AI128">
+        <v>1.62</v>
+      </c>
+      <c r="AJ128">
+        <v>2.2</v>
+      </c>
+      <c r="AK128">
+        <v>2.68</v>
+      </c>
+      <c r="AL128">
+        <v>1.18</v>
+      </c>
+      <c r="AM128">
+        <v>1.13</v>
+      </c>
+      <c r="AN128">
+        <v>0.5</v>
+      </c>
+      <c r="AO128">
+        <v>1.4</v>
+      </c>
+      <c r="AP128">
+        <v>0.55</v>
+      </c>
+      <c r="AQ128">
+        <v>1.36</v>
+      </c>
+      <c r="AR128">
+        <v>1.2</v>
+      </c>
+      <c r="AS128">
+        <v>1.52</v>
+      </c>
+      <c r="AT128">
+        <v>2.72</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>8</v>
+      </c>
+      <c r="AW128">
+        <v>6</v>
+      </c>
+      <c r="AX128">
+        <v>12</v>
+      </c>
+      <c r="AY128">
+        <v>10</v>
+      </c>
+      <c r="AZ128">
+        <v>20</v>
+      </c>
+      <c r="BA128">
+        <v>3</v>
+      </c>
+      <c r="BB128">
+        <v>9</v>
+      </c>
+      <c r="BC128">
+        <v>12</v>
+      </c>
+      <c r="BD128">
+        <v>3.6</v>
+      </c>
+      <c r="BE128">
+        <v>10</v>
+      </c>
+      <c r="BF128">
+        <v>1.33</v>
+      </c>
+      <c r="BG128">
+        <v>1.18</v>
+      </c>
+      <c r="BH128">
+        <v>4.1</v>
+      </c>
+      <c r="BI128">
+        <v>1.36</v>
+      </c>
+      <c r="BJ128">
+        <v>2.79</v>
+      </c>
+      <c r="BK128">
+        <v>1.82</v>
+      </c>
+      <c r="BL128">
+        <v>1.98</v>
+      </c>
+      <c r="BM128">
+        <v>2.05</v>
+      </c>
+      <c r="BN128">
+        <v>1.74</v>
+      </c>
+      <c r="BO128">
+        <v>2.72</v>
+      </c>
+      <c r="BP128">
+        <v>1.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7325459</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F129">
+        <v>22</v>
+      </c>
+      <c r="G129" t="s">
+        <v>70</v>
+      </c>
+      <c r="H129" t="s">
+        <v>71</v>
+      </c>
+      <c r="I129">
+        <v>0</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>0</v>
+      </c>
+      <c r="L129">
+        <v>1</v>
+      </c>
+      <c r="M129">
+        <v>1</v>
+      </c>
+      <c r="N129">
+        <v>2</v>
+      </c>
+      <c r="O129" t="s">
+        <v>173</v>
+      </c>
+      <c r="P129" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q129">
+        <v>3.75</v>
+      </c>
+      <c r="R129">
+        <v>2.38</v>
+      </c>
+      <c r="S129">
+        <v>2.5</v>
+      </c>
+      <c r="T129">
+        <v>1.3</v>
+      </c>
+      <c r="U129">
+        <v>3.4</v>
+      </c>
+      <c r="V129">
+        <v>2.38</v>
+      </c>
+      <c r="W129">
+        <v>1.53</v>
+      </c>
+      <c r="X129">
+        <v>6</v>
+      </c>
+      <c r="Y129">
+        <v>1.13</v>
+      </c>
+      <c r="Z129">
+        <v>3.3</v>
+      </c>
+      <c r="AA129">
+        <v>3.9</v>
+      </c>
+      <c r="AB129">
+        <v>1.94</v>
+      </c>
+      <c r="AC129">
+        <v>1.01</v>
+      </c>
+      <c r="AD129">
+        <v>13</v>
+      </c>
+      <c r="AE129">
+        <v>1.11</v>
+      </c>
+      <c r="AF129">
+        <v>5.5</v>
+      </c>
+      <c r="AG129">
+        <v>1.55</v>
+      </c>
+      <c r="AH129">
+        <v>2.29</v>
+      </c>
+      <c r="AI129">
+        <v>1.53</v>
+      </c>
+      <c r="AJ129">
+        <v>2.38</v>
+      </c>
+      <c r="AK129">
+        <v>1.81</v>
+      </c>
+      <c r="AL129">
+        <v>1.26</v>
+      </c>
+      <c r="AM129">
+        <v>1.32</v>
+      </c>
+      <c r="AN129">
+        <v>1.6</v>
+      </c>
+      <c r="AO129">
+        <v>1.5</v>
+      </c>
+      <c r="AP129">
+        <v>1.55</v>
+      </c>
+      <c r="AQ129">
+        <v>1.45</v>
+      </c>
+      <c r="AR129">
+        <v>1.63</v>
+      </c>
+      <c r="AS129">
+        <v>1.6</v>
+      </c>
+      <c r="AT129">
+        <v>3.23</v>
+      </c>
+      <c r="AU129">
+        <v>3</v>
+      </c>
+      <c r="AV129">
+        <v>3</v>
+      </c>
+      <c r="AW129">
+        <v>8</v>
+      </c>
+      <c r="AX129">
+        <v>5</v>
+      </c>
+      <c r="AY129">
+        <v>11</v>
+      </c>
+      <c r="AZ129">
+        <v>8</v>
+      </c>
+      <c r="BA129">
+        <v>6</v>
+      </c>
+      <c r="BB129">
+        <v>7</v>
+      </c>
+      <c r="BC129">
+        <v>13</v>
+      </c>
+      <c r="BD129">
+        <v>2.15</v>
+      </c>
+      <c r="BE129">
+        <v>8.5</v>
+      </c>
+      <c r="BF129">
+        <v>1.85</v>
+      </c>
+      <c r="BG129">
+        <v>1.17</v>
+      </c>
+      <c r="BH129">
+        <v>4.2</v>
+      </c>
+      <c r="BI129">
+        <v>1.35</v>
+      </c>
+      <c r="BJ129">
+        <v>2.84</v>
+      </c>
+      <c r="BK129">
+        <v>1.68</v>
+      </c>
+      <c r="BL129">
+        <v>2.16</v>
+      </c>
+      <c r="BM129">
+        <v>2.07</v>
+      </c>
+      <c r="BN129">
+        <v>1.74</v>
+      </c>
+      <c r="BO129">
+        <v>2.69</v>
+      </c>
+      <c r="BP129">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7325461</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F130">
+        <v>22</v>
+      </c>
+      <c r="G130" t="s">
+        <v>73</v>
+      </c>
+      <c r="H130" t="s">
+        <v>81</v>
+      </c>
+      <c r="I130">
+        <v>0</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>2</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>3</v>
+      </c>
+      <c r="O130" t="s">
+        <v>174</v>
+      </c>
+      <c r="P130" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q130">
+        <v>3.36</v>
+      </c>
+      <c r="R130">
+        <v>2.15</v>
+      </c>
+      <c r="S130">
+        <v>3.4</v>
+      </c>
+      <c r="T130">
+        <v>1.43</v>
+      </c>
+      <c r="U130">
+        <v>2.82</v>
+      </c>
+      <c r="V130">
+        <v>3.14</v>
+      </c>
+      <c r="W130">
+        <v>1.36</v>
+      </c>
+      <c r="X130">
+        <v>7</v>
+      </c>
+      <c r="Y130">
+        <v>1.07</v>
+      </c>
+      <c r="Z130">
+        <v>2.5</v>
+      </c>
+      <c r="AA130">
+        <v>3.25</v>
+      </c>
+      <c r="AB130">
+        <v>2.7</v>
+      </c>
+      <c r="AC130">
+        <v>1.08</v>
+      </c>
+      <c r="AD130">
+        <v>9.75</v>
+      </c>
+      <c r="AE130">
+        <v>1.32</v>
+      </c>
+      <c r="AF130">
+        <v>3.05</v>
+      </c>
+      <c r="AG130">
+        <v>2.04</v>
+      </c>
+      <c r="AH130">
+        <v>1.78</v>
+      </c>
+      <c r="AI130">
+        <v>1.8</v>
+      </c>
+      <c r="AJ130">
+        <v>1.91</v>
+      </c>
+      <c r="AK130">
+        <v>1.45</v>
+      </c>
+      <c r="AL130">
+        <v>1.28</v>
+      </c>
+      <c r="AM130">
+        <v>1.47</v>
+      </c>
+      <c r="AN130">
+        <v>1</v>
+      </c>
+      <c r="AO130">
+        <v>0.6</v>
+      </c>
+      <c r="AP130">
+        <v>1.18</v>
+      </c>
+      <c r="AQ130">
+        <v>0.55</v>
+      </c>
+      <c r="AR130">
+        <v>1.28</v>
+      </c>
+      <c r="AS130">
+        <v>1.44</v>
+      </c>
+      <c r="AT130">
+        <v>2.72</v>
+      </c>
+      <c r="AU130">
+        <v>10</v>
+      </c>
+      <c r="AV130">
+        <v>3</v>
+      </c>
+      <c r="AW130">
+        <v>10</v>
+      </c>
+      <c r="AX130">
+        <v>6</v>
+      </c>
+      <c r="AY130">
+        <v>20</v>
+      </c>
+      <c r="AZ130">
+        <v>9</v>
+      </c>
+      <c r="BA130">
+        <v>10</v>
+      </c>
+      <c r="BB130">
+        <v>10</v>
+      </c>
+      <c r="BC130">
+        <v>20</v>
+      </c>
+      <c r="BD130">
+        <v>1.91</v>
+      </c>
+      <c r="BE130">
+        <v>8</v>
+      </c>
+      <c r="BF130">
+        <v>2.1</v>
+      </c>
+      <c r="BG130">
+        <v>1.26</v>
+      </c>
+      <c r="BH130">
+        <v>3.34</v>
+      </c>
+      <c r="BI130">
+        <v>1.55</v>
+      </c>
+      <c r="BJ130">
+        <v>2.37</v>
+      </c>
+      <c r="BK130">
+        <v>1.85</v>
+      </c>
+      <c r="BL130">
+        <v>1.95</v>
+      </c>
+      <c r="BM130">
+        <v>2.42</v>
+      </c>
+      <c r="BN130">
+        <v>1.53</v>
+      </c>
+      <c r="BO130">
+        <v>3.28</v>
+      </c>
+      <c r="BP130">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7325457</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F131">
+        <v>22</v>
+      </c>
+      <c r="G131" t="s">
+        <v>74</v>
+      </c>
+      <c r="H131" t="s">
+        <v>79</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>1</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>2</v>
+      </c>
+      <c r="O131" t="s">
+        <v>175</v>
+      </c>
+      <c r="P131" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q131">
+        <v>2.39</v>
+      </c>
+      <c r="R131">
+        <v>2.44</v>
+      </c>
+      <c r="S131">
+        <v>4.39</v>
+      </c>
+      <c r="T131">
+        <v>1.26</v>
+      </c>
+      <c r="U131">
+        <v>3.5</v>
+      </c>
+      <c r="V131">
+        <v>2.51</v>
+      </c>
+      <c r="W131">
+        <v>1.53</v>
+      </c>
+      <c r="X131">
+        <v>6.1</v>
+      </c>
+      <c r="Y131">
+        <v>1.1</v>
+      </c>
+      <c r="Z131">
+        <v>1.76</v>
+      </c>
+      <c r="AA131">
+        <v>3.9</v>
+      </c>
+      <c r="AB131">
+        <v>3.95</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>11</v>
+      </c>
+      <c r="AE131">
+        <v>1.18</v>
+      </c>
+      <c r="AF131">
+        <v>4.1</v>
+      </c>
+      <c r="AG131">
+        <v>1.66</v>
+      </c>
+      <c r="AH131">
+        <v>2.23</v>
+      </c>
+      <c r="AI131">
+        <v>1.63</v>
+      </c>
+      <c r="AJ131">
+        <v>2.2</v>
+      </c>
+      <c r="AK131">
+        <v>1.25</v>
+      </c>
+      <c r="AL131">
+        <v>1.25</v>
+      </c>
+      <c r="AM131">
+        <v>1.95</v>
+      </c>
+      <c r="AN131">
+        <v>1.8</v>
+      </c>
+      <c r="AO131">
+        <v>0.5</v>
+      </c>
+      <c r="AP131">
+        <v>1.73</v>
+      </c>
+      <c r="AQ131">
+        <v>0.55</v>
+      </c>
+      <c r="AR131">
+        <v>1.6</v>
+      </c>
+      <c r="AS131">
+        <v>0.93</v>
+      </c>
+      <c r="AT131">
+        <v>2.53</v>
+      </c>
+      <c r="AU131">
+        <v>10</v>
+      </c>
+      <c r="AV131">
+        <v>3</v>
+      </c>
+      <c r="AW131">
+        <v>6</v>
+      </c>
+      <c r="AX131">
+        <v>9</v>
+      </c>
+      <c r="AY131">
+        <v>16</v>
+      </c>
+      <c r="AZ131">
+        <v>12</v>
+      </c>
+      <c r="BA131">
+        <v>8</v>
+      </c>
+      <c r="BB131">
+        <v>4</v>
+      </c>
+      <c r="BC131">
+        <v>12</v>
+      </c>
+      <c r="BD131">
+        <v>1.53</v>
+      </c>
+      <c r="BE131">
+        <v>9</v>
+      </c>
+      <c r="BF131">
+        <v>2.75</v>
+      </c>
+      <c r="BG131">
+        <v>1.16</v>
+      </c>
+      <c r="BH131">
+        <v>4.4</v>
+      </c>
+      <c r="BI131">
+        <v>1.32</v>
+      </c>
+      <c r="BJ131">
+        <v>2.98</v>
+      </c>
+      <c r="BK131">
+        <v>1.6</v>
+      </c>
+      <c r="BL131">
+        <v>2.24</v>
+      </c>
+      <c r="BM131">
+        <v>1.99</v>
+      </c>
+      <c r="BN131">
+        <v>1.8</v>
+      </c>
+      <c r="BO131">
+        <v>2.51</v>
+      </c>
+      <c r="BP131">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7325347</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F132">
+        <v>22</v>
+      </c>
+      <c r="G132" t="s">
+        <v>75</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>1</v>
+      </c>
+      <c r="J132">
+        <v>2</v>
+      </c>
+      <c r="K132">
+        <v>3</v>
+      </c>
+      <c r="L132">
+        <v>1</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>3</v>
+      </c>
+      <c r="O132" t="s">
+        <v>176</v>
+      </c>
+      <c r="P132" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q132">
+        <v>2.33</v>
+      </c>
+      <c r="R132">
+        <v>2.28</v>
+      </c>
+      <c r="S132">
+        <v>4.6</v>
+      </c>
+      <c r="T132">
+        <v>1.33</v>
+      </c>
+      <c r="U132">
+        <v>3</v>
+      </c>
+      <c r="V132">
+        <v>2.4</v>
+      </c>
+      <c r="W132">
+        <v>1.5</v>
+      </c>
+      <c r="X132">
+        <v>5.5</v>
+      </c>
+      <c r="Y132">
+        <v>1.11</v>
+      </c>
+      <c r="Z132">
+        <v>1.73</v>
+      </c>
+      <c r="AA132">
+        <v>3.6</v>
+      </c>
+      <c r="AB132">
+        <v>4.2</v>
+      </c>
+      <c r="AC132">
+        <v>1.02</v>
+      </c>
+      <c r="AD132">
+        <v>10.5</v>
+      </c>
+      <c r="AE132">
+        <v>1.21</v>
+      </c>
+      <c r="AF132">
+        <v>3.75</v>
+      </c>
+      <c r="AG132">
+        <v>1.77</v>
+      </c>
+      <c r="AH132">
+        <v>2.06</v>
+      </c>
+      <c r="AI132">
+        <v>1.7</v>
+      </c>
+      <c r="AJ132">
+        <v>2</v>
+      </c>
+      <c r="AK132">
+        <v>1.22</v>
+      </c>
+      <c r="AL132">
+        <v>1.29</v>
+      </c>
+      <c r="AM132">
+        <v>2</v>
+      </c>
+      <c r="AN132">
+        <v>2.7</v>
+      </c>
+      <c r="AO132">
+        <v>0.7</v>
+      </c>
+      <c r="AP132">
+        <v>2.45</v>
+      </c>
+      <c r="AQ132">
+        <v>0.91</v>
+      </c>
+      <c r="AR132">
+        <v>1.65</v>
+      </c>
+      <c r="AS132">
+        <v>1.66</v>
+      </c>
+      <c r="AT132">
+        <v>3.31</v>
+      </c>
+      <c r="AU132">
+        <v>6</v>
+      </c>
+      <c r="AV132">
+        <v>5</v>
+      </c>
+      <c r="AW132">
+        <v>8</v>
+      </c>
+      <c r="AX132">
+        <v>7</v>
+      </c>
+      <c r="AY132">
+        <v>14</v>
+      </c>
+      <c r="AZ132">
+        <v>12</v>
+      </c>
+      <c r="BA132">
+        <v>9</v>
+      </c>
+      <c r="BB132">
+        <v>4</v>
+      </c>
+      <c r="BC132">
+        <v>13</v>
+      </c>
+      <c r="BD132">
+        <v>1.55</v>
+      </c>
+      <c r="BE132">
+        <v>7.1</v>
+      </c>
+      <c r="BF132">
+        <v>3.26</v>
+      </c>
+      <c r="BG132">
+        <v>1.22</v>
+      </c>
+      <c r="BH132">
+        <v>3.65</v>
+      </c>
+      <c r="BI132">
+        <v>1.43</v>
+      </c>
+      <c r="BJ132">
+        <v>2.62</v>
+      </c>
+      <c r="BK132">
+        <v>1.85</v>
+      </c>
+      <c r="BL132">
+        <v>1.95</v>
+      </c>
+      <c r="BM132">
+        <v>2.22</v>
+      </c>
+      <c r="BN132">
+        <v>1.64</v>
+      </c>
+      <c r="BO132">
+        <v>2.93</v>
+      </c>
+      <c r="BP132">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7325462</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45536.41666666666</v>
+      </c>
+      <c r="F133">
+        <v>22</v>
+      </c>
+      <c r="G133" t="s">
+        <v>77</v>
+      </c>
+      <c r="H133" t="s">
+        <v>76</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>3</v>
+      </c>
+      <c r="N133">
+        <v>4</v>
+      </c>
+      <c r="O133" t="s">
+        <v>177</v>
+      </c>
+      <c r="P133" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q133">
+        <v>3.6</v>
+      </c>
+      <c r="R133">
+        <v>2.2</v>
+      </c>
+      <c r="S133">
+        <v>2.7</v>
+      </c>
+      <c r="T133">
+        <v>1.35</v>
+      </c>
+      <c r="U133">
+        <v>2.95</v>
+      </c>
+      <c r="V133">
+        <v>2.55</v>
+      </c>
+      <c r="W133">
+        <v>1.45</v>
+      </c>
+      <c r="X133">
+        <v>6.25</v>
+      </c>
+      <c r="Y133">
+        <v>1.1</v>
+      </c>
+      <c r="Z133">
+        <v>3</v>
+      </c>
+      <c r="AA133">
+        <v>3.6</v>
+      </c>
+      <c r="AB133">
+        <v>2.14</v>
+      </c>
+      <c r="AC133">
+        <v>1.01</v>
+      </c>
+      <c r="AD133">
+        <v>11</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.6</v>
+      </c>
+      <c r="AG133">
+        <v>1.77</v>
+      </c>
+      <c r="AH133">
+        <v>2.06</v>
+      </c>
+      <c r="AI133">
+        <v>1.65</v>
+      </c>
+      <c r="AJ133">
+        <v>2.1</v>
+      </c>
+      <c r="AK133">
+        <v>1.7</v>
+      </c>
+      <c r="AL133">
+        <v>1.29</v>
+      </c>
+      <c r="AM133">
+        <v>1.36</v>
+      </c>
+      <c r="AN133">
+        <v>1.8</v>
+      </c>
+      <c r="AO133">
+        <v>1.4</v>
+      </c>
+      <c r="AP133">
+        <v>1.64</v>
+      </c>
+      <c r="AQ133">
+        <v>1.55</v>
+      </c>
+      <c r="AR133">
+        <v>1.81</v>
+      </c>
+      <c r="AS133">
+        <v>1.7</v>
+      </c>
+      <c r="AT133">
+        <v>3.51</v>
+      </c>
+      <c r="AU133">
+        <v>3</v>
+      </c>
+      <c r="AV133">
+        <v>8</v>
+      </c>
+      <c r="AW133">
+        <v>6</v>
+      </c>
+      <c r="AX133">
+        <v>10</v>
+      </c>
+      <c r="AY133">
+        <v>9</v>
+      </c>
+      <c r="AZ133">
+        <v>18</v>
+      </c>
+      <c r="BA133">
+        <v>2</v>
+      </c>
+      <c r="BB133">
+        <v>10</v>
+      </c>
+      <c r="BC133">
+        <v>12</v>
+      </c>
+      <c r="BD133">
+        <v>2.38</v>
+      </c>
+      <c r="BE133">
+        <v>8.5</v>
+      </c>
+      <c r="BF133">
+        <v>1.7</v>
+      </c>
+      <c r="BG133">
+        <v>1.19</v>
+      </c>
+      <c r="BH133">
+        <v>3.98</v>
+      </c>
+      <c r="BI133">
+        <v>1.39</v>
+      </c>
+      <c r="BJ133">
+        <v>2.76</v>
+      </c>
+      <c r="BK133">
+        <v>1.7</v>
+      </c>
+      <c r="BL133">
+        <v>2.09</v>
+      </c>
+      <c r="BM133">
+        <v>2.14</v>
+      </c>
+      <c r="BN133">
+        <v>1.67</v>
+      </c>
+      <c r="BO133">
+        <v>2.48</v>
+      </c>
+      <c r="BP133">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -27642,13 +27642,13 @@
         <v>8</v>
       </c>
       <c r="BA129">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB129">
         <v>7</v>
       </c>
       <c r="BC129">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD129">
         <v>2.15</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -391,10 +391,10 @@
     <t>['31', '64']</t>
   </si>
   <si>
-    <t>['41']</t>
+    <t>['23', '53']</t>
   </si>
   <si>
-    <t>['23', '53']</t>
+    <t>['41']</t>
   </si>
   <si>
     <t>['33', '77', '83', '90+4']</t>
@@ -406,25 +406,25 @@
     <t>['90']</t>
   </si>
   <si>
+    <t>['16', '49', '90+1']</t>
+  </si>
+  <si>
     <t>['6', '90+5']</t>
   </si>
   <si>
-    <t>['16', '49', '90+1']</t>
+    <t>['81', '83', '90+3']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['30', '81']</t>
   </si>
   <si>
     <t>['21', '50', '61']</t>
   </si>
   <si>
     <t>['14']</t>
-  </si>
-  <si>
-    <t>['30', '81']</t>
-  </si>
-  <si>
-    <t>['39']</t>
-  </si>
-  <si>
-    <t>['81', '83', '90+3']</t>
   </si>
   <si>
     <t>['11', '22', '79']</t>
@@ -475,10 +475,10 @@
     <t>['27', '71']</t>
   </si>
   <si>
-    <t>['45+4', '66', '72']</t>
+    <t>['2', '23', '47', '71', '90+4']</t>
   </si>
   <si>
-    <t>['2', '23', '47', '71', '90+4']</t>
+    <t>['45+4', '66', '72']</t>
   </si>
   <si>
     <t>['21']</t>
@@ -493,13 +493,13 @@
     <t>['34', '56']</t>
   </si>
   <si>
-    <t>['18', '31', '69']</t>
-  </si>
-  <si>
     <t>['28', '84']</t>
   </si>
   <si>
     <t>['45+1']</t>
+  </si>
+  <si>
+    <t>['18', '31', '69']</t>
   </si>
   <si>
     <t>['6', '38', '89', '90+1']</t>
@@ -535,16 +535,16 @@
     <t>['35', '51', '85']</t>
   </si>
   <si>
+    <t>['72']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['61']</t>
   </si>
   <si>
     <t>['47', '53']</t>
-  </si>
-  <si>
-    <t>['72']</t>
-  </si>
-  <si>
-    <t>['38']</t>
   </si>
   <si>
     <t>['5']</t>
@@ -655,25 +655,25 @@
     <t>['56']</t>
   </si>
   <si>
-    <t>['45', '46']</t>
+    <t>['57', '90+5']</t>
   </si>
   <si>
     <t>['36']</t>
   </si>
   <si>
-    <t>['57', '90+5']</t>
+    <t>['45', '46']</t>
   </si>
   <si>
     <t>['2', '35', '82', '90+1']</t>
   </si>
   <si>
-    <t>['5', '29', '90']</t>
+    <t>['31', '65']</t>
   </si>
   <si>
     <t>['12', '77']</t>
   </si>
   <si>
-    <t>['31', '65']</t>
+    <t>['5', '29', '90']</t>
   </si>
   <si>
     <t>['76']</t>
@@ -742,10 +742,10 @@
     <t>['7']</t>
   </si>
   <si>
-    <t>['82']</t>
+    <t>['12', '26']</t>
   </si>
   <si>
-    <t>['12', '26']</t>
+    <t>['82']</t>
   </si>
   <si>
     <t>['10', '50', '84']</t>
@@ -8373,7 +8373,7 @@
         <v>83</v>
       </c>
       <c r="P36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="Q36">
         <v>3.82</v>
@@ -13275,7 +13275,7 @@
         <v>59</v>
       </c>
       <c r="B60">
-        <v>7325389</v>
+        <v>7325390</v>
       </c>
       <c r="C60" t="s">
         <v>68</v>
@@ -13290,43 +13290,43 @@
         <v>10</v>
       </c>
       <c r="G60" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="H60" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K60">
         <v>1</v>
       </c>
       <c r="L60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N60">
         <v>2</v>
       </c>
       <c r="O60" t="s">
-        <v>125</v>
+        <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>151</v>
+        <v>211</v>
       </c>
       <c r="Q60">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="R60">
         <v>2.25</v>
       </c>
       <c r="S60">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="T60">
         <v>1.36</v>
@@ -13347,13 +13347,13 @@
         <v>1.1</v>
       </c>
       <c r="Z60">
-        <v>2.8</v>
+        <v>2.54</v>
       </c>
       <c r="AA60">
-        <v>3.48</v>
+        <v>3.45</v>
       </c>
       <c r="AB60">
-        <v>2.41</v>
+        <v>2.69</v>
       </c>
       <c r="AC60">
         <v>1.01</v>
@@ -13380,37 +13380,37 @@
         <v>2.1</v>
       </c>
       <c r="AK60">
-        <v>1.57</v>
+        <v>1.81</v>
       </c>
       <c r="AL60">
+        <v>1.28</v>
+      </c>
+      <c r="AM60">
         <v>1.3</v>
       </c>
-      <c r="AM60">
-        <v>1.44</v>
-      </c>
       <c r="AN60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO60">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.64</v>
+        <v>1.18</v>
       </c>
       <c r="AQ60">
-        <v>1.45</v>
+        <v>0.91</v>
       </c>
       <c r="AR60">
-        <v>1.91</v>
+        <v>1.58</v>
       </c>
       <c r="AS60">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
       <c r="AT60">
-        <v>3.46</v>
+        <v>3.05</v>
       </c>
       <c r="AU60">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV60">
         <v>4</v>
@@ -13422,22 +13422,22 @@
         <v>10</v>
       </c>
       <c r="AY60">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ60">
         <v>14</v>
       </c>
       <c r="BA60">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="BB60">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BC60">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BD60">
-        <v>2.33</v>
+        <v>2.39</v>
       </c>
       <c r="BE60">
         <v>8</v>
@@ -13455,19 +13455,19 @@
         <v>1.38</v>
       </c>
       <c r="BJ60">
-        <v>2.9</v>
+        <v>2.88</v>
       </c>
       <c r="BK60">
+        <v>1.73</v>
+      </c>
+      <c r="BL60">
+        <v>2</v>
+      </c>
+      <c r="BM60">
+        <v>2.05</v>
+      </c>
+      <c r="BN60">
         <v>1.7</v>
-      </c>
-      <c r="BL60">
-        <v>2.05</v>
-      </c>
-      <c r="BM60">
-        <v>2</v>
-      </c>
-      <c r="BN60">
-        <v>1.73</v>
       </c>
       <c r="BO60">
         <v>2.85</v>
@@ -13481,7 +13481,7 @@
         <v>60</v>
       </c>
       <c r="B61">
-        <v>7325390</v>
+        <v>7325391</v>
       </c>
       <c r="C61" t="s">
         <v>68</v>
@@ -13496,82 +13496,82 @@
         <v>10</v>
       </c>
       <c r="G61" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>1</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M61">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N61">
         <v>2</v>
       </c>
       <c r="O61" t="s">
+        <v>125</v>
+      </c>
+      <c r="P61" t="s">
         <v>83</v>
       </c>
-      <c r="P61" t="s">
-        <v>211</v>
-      </c>
       <c r="Q61">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="R61">
         <v>2.25</v>
       </c>
       <c r="S61">
-        <v>2.63</v>
+        <v>4.2</v>
       </c>
       <c r="T61">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="U61">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V61">
-        <v>2.63</v>
+        <v>2.65</v>
       </c>
       <c r="W61">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X61">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y61">
         <v>1.1</v>
       </c>
       <c r="Z61">
-        <v>2.54</v>
+        <v>1.79</v>
       </c>
       <c r="AA61">
-        <v>3.45</v>
+        <v>3.9</v>
       </c>
       <c r="AB61">
-        <v>2.69</v>
+        <v>4.25</v>
       </c>
       <c r="AC61">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD61">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AE61">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AF61">
-        <v>3.66</v>
+        <v>4</v>
       </c>
       <c r="AG61">
         <v>1.8</v>
@@ -13580,76 +13580,76 @@
         <v>2</v>
       </c>
       <c r="AI61">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="AJ61">
         <v>2.1</v>
       </c>
       <c r="AK61">
-        <v>1.81</v>
+        <v>1.3</v>
       </c>
       <c r="AL61">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="AM61">
-        <v>1.3</v>
+        <v>1.95</v>
       </c>
       <c r="AN61">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.18</v>
+        <v>1.73</v>
       </c>
       <c r="AQ61">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="AR61">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AS61">
-        <v>1.47</v>
+        <v>1.03</v>
       </c>
       <c r="AT61">
-        <v>3.05</v>
+        <v>2.47</v>
       </c>
       <c r="AU61">
         <v>4</v>
       </c>
       <c r="AV61">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW61">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AX61">
         <v>10</v>
       </c>
       <c r="AY61">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AZ61">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA61">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BB61">
+        <v>5</v>
+      </c>
+      <c r="BC61">
         <v>8</v>
       </c>
-      <c r="BC61">
-        <v>10</v>
-      </c>
       <c r="BD61">
-        <v>2.39</v>
+        <v>1.64</v>
       </c>
       <c r="BE61">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF61">
-        <v>1.82</v>
+        <v>2.64</v>
       </c>
       <c r="BG61">
         <v>1.2</v>
@@ -13661,19 +13661,19 @@
         <v>1.38</v>
       </c>
       <c r="BJ61">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="BK61">
+        <v>1.7</v>
+      </c>
+      <c r="BL61">
+        <v>2.05</v>
+      </c>
+      <c r="BM61">
+        <v>2</v>
+      </c>
+      <c r="BN61">
         <v>1.73</v>
-      </c>
-      <c r="BL61">
-        <v>2</v>
-      </c>
-      <c r="BM61">
-        <v>2.05</v>
-      </c>
-      <c r="BN61">
-        <v>1.7</v>
       </c>
       <c r="BO61">
         <v>2.85</v>
@@ -13687,7 +13687,7 @@
         <v>61</v>
       </c>
       <c r="B62">
-        <v>7325391</v>
+        <v>7325389</v>
       </c>
       <c r="C62" t="s">
         <v>68</v>
@@ -13702,10 +13702,10 @@
         <v>10</v>
       </c>
       <c r="G62" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="H62" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I62">
         <v>1</v>
@@ -13717,10 +13717,10 @@
         <v>1</v>
       </c>
       <c r="L62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N62">
         <v>2</v>
@@ -13729,55 +13729,55 @@
         <v>126</v>
       </c>
       <c r="P62" t="s">
-        <v>83</v>
+        <v>151</v>
       </c>
       <c r="Q62">
-        <v>2.5</v>
+        <v>3.4</v>
       </c>
       <c r="R62">
         <v>2.25</v>
       </c>
       <c r="S62">
-        <v>4.2</v>
+        <v>3</v>
       </c>
       <c r="T62">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U62">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="V62">
-        <v>2.65</v>
+        <v>2.63</v>
       </c>
       <c r="W62">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X62">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y62">
         <v>1.1</v>
       </c>
       <c r="Z62">
-        <v>1.79</v>
+        <v>2.8</v>
       </c>
       <c r="AA62">
-        <v>3.9</v>
+        <v>3.48</v>
       </c>
       <c r="AB62">
-        <v>4.25</v>
+        <v>2.41</v>
       </c>
       <c r="AC62">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD62">
-        <v>13</v>
+        <v>10.25</v>
       </c>
       <c r="AE62">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AF62">
-        <v>4</v>
+        <v>3.66</v>
       </c>
       <c r="AG62">
         <v>1.8</v>
@@ -13786,76 +13786,76 @@
         <v>2</v>
       </c>
       <c r="AI62">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="AJ62">
         <v>2.1</v>
       </c>
       <c r="AK62">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AL62">
         <v>1.3</v>
       </c>
       <c r="AM62">
-        <v>1.95</v>
+        <v>1.44</v>
       </c>
       <c r="AN62">
         <v>2</v>
       </c>
       <c r="AO62">
-        <v>1</v>
+        <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.73</v>
+        <v>1.64</v>
       </c>
       <c r="AQ62">
-        <v>0.64</v>
+        <v>1.45</v>
       </c>
       <c r="AR62">
-        <v>1.44</v>
+        <v>1.91</v>
       </c>
       <c r="AS62">
-        <v>1.03</v>
+        <v>1.55</v>
       </c>
       <c r="AT62">
-        <v>2.47</v>
+        <v>3.46</v>
       </c>
       <c r="AU62">
+        <v>5</v>
+      </c>
+      <c r="AV62">
         <v>4</v>
       </c>
-      <c r="AV62">
-        <v>5</v>
-      </c>
       <c r="AW62">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX62">
         <v>10</v>
       </c>
       <c r="AY62">
+        <v>13</v>
+      </c>
+      <c r="AZ62">
+        <v>14</v>
+      </c>
+      <c r="BA62">
         <v>9</v>
       </c>
-      <c r="AZ62">
-        <v>15</v>
-      </c>
-      <c r="BA62">
-        <v>3</v>
-      </c>
       <c r="BB62">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BC62">
+        <v>18</v>
+      </c>
+      <c r="BD62">
+        <v>2.33</v>
+      </c>
+      <c r="BE62">
         <v>8</v>
       </c>
-      <c r="BD62">
-        <v>1.64</v>
-      </c>
-      <c r="BE62">
-        <v>8.5</v>
-      </c>
       <c r="BF62">
-        <v>2.64</v>
+        <v>1.82</v>
       </c>
       <c r="BG62">
         <v>1.2</v>
@@ -14511,7 +14511,7 @@
         <v>65</v>
       </c>
       <c r="B66">
-        <v>7325399</v>
+        <v>7325395</v>
       </c>
       <c r="C66" t="s">
         <v>68</v>
@@ -14526,172 +14526,172 @@
         <v>11</v>
       </c>
       <c r="G66" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="H66" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N66">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="O66" t="s">
-        <v>130</v>
+        <v>83</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>83</v>
       </c>
       <c r="Q66">
-        <v>2.3</v>
+        <v>4.33</v>
       </c>
       <c r="R66">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="S66">
-        <v>4.75</v>
+        <v>2.4</v>
       </c>
       <c r="T66">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
       <c r="U66">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="V66">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="W66">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X66">
         <v>6.5</v>
       </c>
       <c r="Y66">
-        <v>1.09</v>
+        <v>1.08</v>
       </c>
       <c r="Z66">
-        <v>1.72</v>
+        <v>3.7</v>
       </c>
       <c r="AA66">
-        <v>3.68</v>
+        <v>3.45</v>
       </c>
       <c r="AB66">
-        <v>4.22</v>
+        <v>1.89</v>
       </c>
       <c r="AC66">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD66">
-        <v>9.800000000000001</v>
+        <v>9</v>
       </c>
       <c r="AE66">
-        <v>1.24</v>
+        <v>1.29</v>
       </c>
       <c r="AF66">
-        <v>3.5</v>
+        <v>3.3</v>
       </c>
       <c r="AG66">
-        <v>1.78</v>
+        <v>1.88</v>
       </c>
       <c r="AH66">
-        <v>1.95</v>
+        <v>1.82</v>
       </c>
       <c r="AI66">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="AJ66">
-        <v>2.01</v>
+        <v>1.91</v>
       </c>
       <c r="AK66">
-        <v>1.22</v>
+        <v>1.88</v>
       </c>
       <c r="AL66">
+        <v>1.25</v>
+      </c>
+      <c r="AM66">
         <v>1.23</v>
       </c>
-      <c r="AM66">
-        <v>1.95</v>
-      </c>
       <c r="AN66">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AO66">
-        <v>0.4</v>
+        <v>2.4</v>
       </c>
       <c r="AP66">
-        <v>1.36</v>
+        <v>1.18</v>
       </c>
       <c r="AQ66">
-        <v>0.55</v>
+        <v>1.27</v>
       </c>
       <c r="AR66">
-        <v>1.29</v>
+        <v>1.19</v>
       </c>
       <c r="AS66">
-        <v>1</v>
+        <v>1.35</v>
       </c>
       <c r="AT66">
-        <v>2.29</v>
+        <v>2.54</v>
       </c>
       <c r="AU66">
+        <v>3</v>
+      </c>
+      <c r="AV66">
+        <v>4</v>
+      </c>
+      <c r="AW66">
         <v>5</v>
       </c>
-      <c r="AV66">
-        <v>3</v>
-      </c>
-      <c r="AW66">
-        <v>4</v>
-      </c>
       <c r="AX66">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="AY66">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ66">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="BA66">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB66">
         <v>4</v>
       </c>
       <c r="BC66">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD66">
-        <v>1.69</v>
+        <v>2.78</v>
       </c>
       <c r="BE66">
         <v>8.5</v>
       </c>
       <c r="BF66">
-        <v>2.62</v>
+        <v>1.59</v>
       </c>
       <c r="BG66">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BH66">
-        <v>3.9</v>
+        <v>4.25</v>
       </c>
       <c r="BI66">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="BJ66">
-        <v>2.72</v>
+        <v>2.88</v>
       </c>
       <c r="BK66">
         <v>1.73</v>
@@ -14700,16 +14700,16 @@
         <v>2</v>
       </c>
       <c r="BM66">
-        <v>2.13</v>
+        <v>2.12</v>
       </c>
       <c r="BN66">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
       <c r="BO66">
-        <v>2.79</v>
+        <v>2.85</v>
       </c>
       <c r="BP66">
-        <v>1.36</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="67" spans="1:68">
@@ -14717,7 +14717,7 @@
         <v>66</v>
       </c>
       <c r="B67">
-        <v>7325398</v>
+        <v>7325396</v>
       </c>
       <c r="C67" t="s">
         <v>68</v>
@@ -14732,190 +14732,190 @@
         <v>11</v>
       </c>
       <c r="G67" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="H67" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="I67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L67">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N67">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="Q67">
-        <v>1.78</v>
+        <v>3.92</v>
       </c>
       <c r="R67">
-        <v>2.6</v>
+        <v>2.22</v>
       </c>
       <c r="S67">
-        <v>6.5</v>
+        <v>2.59</v>
       </c>
       <c r="T67">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
       <c r="U67">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="V67">
-        <v>2.25</v>
+        <v>2.61</v>
       </c>
       <c r="W67">
-        <v>1.57</v>
+        <v>1.46</v>
       </c>
       <c r="X67">
-        <v>5</v>
+        <v>6.35</v>
       </c>
       <c r="Y67">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z67">
+        <v>3.23</v>
+      </c>
+      <c r="AA67">
+        <v>3.52</v>
+      </c>
+      <c r="AB67">
+        <v>2.02</v>
+      </c>
+      <c r="AC67">
+        <v>1.02</v>
+      </c>
+      <c r="AD67">
+        <v>10.25</v>
+      </c>
+      <c r="AE67">
+        <v>1.22</v>
+      </c>
+      <c r="AF67">
+        <v>3.66</v>
+      </c>
+      <c r="AG67">
+        <v>1.75</v>
+      </c>
+      <c r="AH67">
+        <v>1.95</v>
+      </c>
+      <c r="AI67">
+        <v>1.66</v>
+      </c>
+      <c r="AJ67">
+        <v>2.14</v>
+      </c>
+      <c r="AK67">
+        <v>1.7</v>
+      </c>
+      <c r="AL67">
+        <v>1.25</v>
+      </c>
+      <c r="AM67">
         <v>1.32</v>
       </c>
-      <c r="AA67">
-        <v>5.05</v>
-      </c>
-      <c r="AB67">
-        <v>7.25</v>
-      </c>
-      <c r="AC67">
-        <v>1.03</v>
-      </c>
-      <c r="AD67">
-        <v>10</v>
-      </c>
-      <c r="AE67">
-        <v>1.17</v>
-      </c>
-      <c r="AF67">
-        <v>4.5</v>
-      </c>
-      <c r="AG67">
-        <v>1.55</v>
-      </c>
-      <c r="AH67">
-        <v>2.3</v>
-      </c>
-      <c r="AI67">
-        <v>1.85</v>
-      </c>
-      <c r="AJ67">
-        <v>1.85</v>
-      </c>
-      <c r="AK67">
-        <v>1.08</v>
-      </c>
-      <c r="AL67">
-        <v>1.17</v>
-      </c>
-      <c r="AM67">
-        <v>3.2</v>
-      </c>
       <c r="AN67">
-        <v>1.83</v>
+        <v>1.6</v>
       </c>
       <c r="AO67">
-        <v>0.2</v>
+        <v>1.6</v>
       </c>
       <c r="AP67">
         <v>1.91</v>
       </c>
       <c r="AQ67">
-        <v>0.64</v>
+        <v>1.45</v>
       </c>
       <c r="AR67">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AS67">
-        <v>1.2</v>
+        <v>1.59</v>
       </c>
       <c r="AT67">
-        <v>2.83</v>
+        <v>3.24</v>
       </c>
       <c r="AU67">
+        <v>3</v>
+      </c>
+      <c r="AV67">
+        <v>2</v>
+      </c>
+      <c r="AW67">
+        <v>4</v>
+      </c>
+      <c r="AX67">
+        <v>10</v>
+      </c>
+      <c r="AY67">
+        <v>7</v>
+      </c>
+      <c r="AZ67">
         <v>12</v>
       </c>
-      <c r="AV67">
-        <v>2</v>
-      </c>
-      <c r="AW67">
-        <v>14</v>
-      </c>
-      <c r="AX67">
+      <c r="BA67">
+        <v>3</v>
+      </c>
+      <c r="BB67">
         <v>6</v>
       </c>
-      <c r="AY67">
-        <v>26</v>
-      </c>
-      <c r="AZ67">
+      <c r="BC67">
+        <v>9</v>
+      </c>
+      <c r="BD67">
+        <v>2.33</v>
+      </c>
+      <c r="BE67">
         <v>8</v>
       </c>
-      <c r="BA67">
-        <v>5</v>
-      </c>
-      <c r="BB67">
-        <v>5</v>
-      </c>
-      <c r="BC67">
-        <v>10</v>
-      </c>
-      <c r="BD67">
-        <v>1.31</v>
-      </c>
-      <c r="BE67">
-        <v>9.5</v>
-      </c>
       <c r="BF67">
-        <v>4.13</v>
+        <v>1.82</v>
       </c>
       <c r="BG67">
-        <v>1.27</v>
+        <v>1.23</v>
       </c>
       <c r="BH67">
-        <v>3.55</v>
+        <v>3.95</v>
       </c>
       <c r="BI67">
-        <v>1.5</v>
+        <v>1.42</v>
       </c>
       <c r="BJ67">
-        <v>2.48</v>
+        <v>2.75</v>
       </c>
       <c r="BK67">
-        <v>1.88</v>
+        <v>1.73</v>
       </c>
       <c r="BL67">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="BM67">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BN67">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="BO67">
-        <v>3.4</v>
+        <v>3.05</v>
       </c>
       <c r="BP67">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="68" spans="1:68">
@@ -14923,7 +14923,7 @@
         <v>67</v>
       </c>
       <c r="B68">
-        <v>7325396</v>
+        <v>7325397</v>
       </c>
       <c r="C68" t="s">
         <v>68</v>
@@ -14938,160 +14938,160 @@
         <v>11</v>
       </c>
       <c r="G68" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H68" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I68">
         <v>0</v>
       </c>
       <c r="J68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L68">
         <v>0</v>
       </c>
       <c r="M68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N68">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="O68" t="s">
         <v>83</v>
       </c>
       <c r="P68" t="s">
-        <v>215</v>
+        <v>102</v>
       </c>
       <c r="Q68">
-        <v>3.92</v>
+        <v>2.15</v>
       </c>
       <c r="R68">
-        <v>2.22</v>
+        <v>2.27</v>
       </c>
       <c r="S68">
-        <v>2.59</v>
+        <v>5.56</v>
       </c>
       <c r="T68">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
       <c r="U68">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="V68">
-        <v>2.61</v>
+        <v>2.67</v>
       </c>
       <c r="W68">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="X68">
-        <v>6.35</v>
+        <v>6.6</v>
       </c>
       <c r="Y68">
-        <v>1.1</v>
+        <v>1.09</v>
       </c>
       <c r="Z68">
-        <v>3.23</v>
+        <v>1.56</v>
       </c>
       <c r="AA68">
-        <v>3.52</v>
+        <v>4.01</v>
       </c>
       <c r="AB68">
-        <v>2.02</v>
+        <v>5.39</v>
       </c>
       <c r="AC68">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD68">
-        <v>10.25</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="AE68">
-        <v>1.22</v>
+        <v>1.24</v>
       </c>
       <c r="AF68">
-        <v>3.66</v>
+        <v>3.5</v>
       </c>
       <c r="AG68">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="AH68">
-        <v>1.95</v>
+        <v>1.94</v>
       </c>
       <c r="AI68">
-        <v>1.66</v>
+        <v>1.87</v>
       </c>
       <c r="AJ68">
-        <v>2.14</v>
+        <v>1.87</v>
       </c>
       <c r="AK68">
-        <v>1.7</v>
+        <v>1.15</v>
       </c>
       <c r="AL68">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="AM68">
-        <v>1.32</v>
+        <v>2.36</v>
       </c>
       <c r="AN68">
-        <v>1.6</v>
+        <v>3</v>
       </c>
       <c r="AO68">
-        <v>1.6</v>
+        <v>1</v>
       </c>
       <c r="AP68">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="AQ68">
         <v>1.45</v>
       </c>
       <c r="AR68">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="AS68">
-        <v>1.59</v>
+        <v>1.39</v>
       </c>
       <c r="AT68">
-        <v>3.24</v>
+        <v>3.01</v>
       </c>
       <c r="AU68">
+        <v>4</v>
+      </c>
+      <c r="AV68">
+        <v>4</v>
+      </c>
+      <c r="AW68">
+        <v>22</v>
+      </c>
+      <c r="AX68">
         <v>3</v>
       </c>
-      <c r="AV68">
-        <v>2</v>
-      </c>
-      <c r="AW68">
-        <v>4</v>
-      </c>
-      <c r="AX68">
+      <c r="AY68">
+        <v>26</v>
+      </c>
+      <c r="AZ68">
+        <v>7</v>
+      </c>
+      <c r="BA68">
+        <v>11</v>
+      </c>
+      <c r="BB68">
+        <v>3</v>
+      </c>
+      <c r="BC68">
+        <v>14</v>
+      </c>
+      <c r="BD68">
+        <v>1.26</v>
+      </c>
+      <c r="BE68">
         <v>10</v>
       </c>
-      <c r="AY68">
-        <v>7</v>
-      </c>
-      <c r="AZ68">
-        <v>12</v>
-      </c>
-      <c r="BA68">
-        <v>3</v>
-      </c>
-      <c r="BB68">
-        <v>6</v>
-      </c>
-      <c r="BC68">
-        <v>9</v>
-      </c>
-      <c r="BD68">
-        <v>2.33</v>
-      </c>
-      <c r="BE68">
-        <v>8</v>
-      </c>
       <c r="BF68">
-        <v>1.82</v>
+        <v>4.64</v>
       </c>
       <c r="BG68">
         <v>1.23</v>
@@ -15129,7 +15129,7 @@
         <v>68</v>
       </c>
       <c r="B69">
-        <v>7325395</v>
+        <v>7325398</v>
       </c>
       <c r="C69" t="s">
         <v>68</v>
@@ -15144,190 +15144,190 @@
         <v>11</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K69">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O69" t="s">
-        <v>83</v>
+        <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="Q69">
-        <v>4.33</v>
+        <v>1.78</v>
       </c>
       <c r="R69">
-        <v>2.2</v>
+        <v>2.6</v>
       </c>
       <c r="S69">
-        <v>2.4</v>
+        <v>6.5</v>
       </c>
       <c r="T69">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="U69">
-        <v>2.8</v>
+        <v>3.3</v>
       </c>
       <c r="V69">
-        <v>2.7</v>
+        <v>2.25</v>
       </c>
       <c r="W69">
-        <v>1.4</v>
+        <v>1.57</v>
       </c>
       <c r="X69">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="Y69">
-        <v>1.08</v>
+        <v>1.13</v>
       </c>
       <c r="Z69">
-        <v>3.7</v>
+        <v>1.32</v>
       </c>
       <c r="AA69">
-        <v>3.45</v>
+        <v>5.05</v>
       </c>
       <c r="AB69">
-        <v>1.89</v>
+        <v>7.25</v>
       </c>
       <c r="AC69">
         <v>1.03</v>
       </c>
       <c r="AD69">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AE69">
+        <v>1.17</v>
+      </c>
+      <c r="AF69">
+        <v>4.5</v>
+      </c>
+      <c r="AG69">
+        <v>1.55</v>
+      </c>
+      <c r="AH69">
+        <v>2.3</v>
+      </c>
+      <c r="AI69">
+        <v>1.85</v>
+      </c>
+      <c r="AJ69">
+        <v>1.85</v>
+      </c>
+      <c r="AK69">
+        <v>1.08</v>
+      </c>
+      <c r="AL69">
+        <v>1.17</v>
+      </c>
+      <c r="AM69">
+        <v>3.2</v>
+      </c>
+      <c r="AN69">
+        <v>1.83</v>
+      </c>
+      <c r="AO69">
+        <v>0.2</v>
+      </c>
+      <c r="AP69">
+        <v>1.91</v>
+      </c>
+      <c r="AQ69">
+        <v>0.64</v>
+      </c>
+      <c r="AR69">
+        <v>1.63</v>
+      </c>
+      <c r="AS69">
+        <v>1.2</v>
+      </c>
+      <c r="AT69">
+        <v>2.83</v>
+      </c>
+      <c r="AU69">
+        <v>12</v>
+      </c>
+      <c r="AV69">
+        <v>2</v>
+      </c>
+      <c r="AW69">
+        <v>14</v>
+      </c>
+      <c r="AX69">
+        <v>6</v>
+      </c>
+      <c r="AY69">
+        <v>26</v>
+      </c>
+      <c r="AZ69">
+        <v>8</v>
+      </c>
+      <c r="BA69">
+        <v>5</v>
+      </c>
+      <c r="BB69">
+        <v>5</v>
+      </c>
+      <c r="BC69">
+        <v>10</v>
+      </c>
+      <c r="BD69">
+        <v>1.31</v>
+      </c>
+      <c r="BE69">
+        <v>9.5</v>
+      </c>
+      <c r="BF69">
+        <v>4.13</v>
+      </c>
+      <c r="BG69">
+        <v>1.27</v>
+      </c>
+      <c r="BH69">
+        <v>3.55</v>
+      </c>
+      <c r="BI69">
+        <v>1.5</v>
+      </c>
+      <c r="BJ69">
+        <v>2.48</v>
+      </c>
+      <c r="BK69">
+        <v>1.88</v>
+      </c>
+      <c r="BL69">
+        <v>1.92</v>
+      </c>
+      <c r="BM69">
+        <v>2.45</v>
+      </c>
+      <c r="BN69">
+        <v>1.5</v>
+      </c>
+      <c r="BO69">
+        <v>3.4</v>
+      </c>
+      <c r="BP69">
         <v>1.29</v>
-      </c>
-      <c r="AF69">
-        <v>3.3</v>
-      </c>
-      <c r="AG69">
-        <v>1.88</v>
-      </c>
-      <c r="AH69">
-        <v>1.82</v>
-      </c>
-      <c r="AI69">
-        <v>1.8</v>
-      </c>
-      <c r="AJ69">
-        <v>1.91</v>
-      </c>
-      <c r="AK69">
-        <v>1.88</v>
-      </c>
-      <c r="AL69">
-        <v>1.25</v>
-      </c>
-      <c r="AM69">
-        <v>1.23</v>
-      </c>
-      <c r="AN69">
-        <v>1.6</v>
-      </c>
-      <c r="AO69">
-        <v>2.4</v>
-      </c>
-      <c r="AP69">
-        <v>1.18</v>
-      </c>
-      <c r="AQ69">
-        <v>1.27</v>
-      </c>
-      <c r="AR69">
-        <v>1.19</v>
-      </c>
-      <c r="AS69">
-        <v>1.35</v>
-      </c>
-      <c r="AT69">
-        <v>2.54</v>
-      </c>
-      <c r="AU69">
-        <v>3</v>
-      </c>
-      <c r="AV69">
-        <v>4</v>
-      </c>
-      <c r="AW69">
-        <v>5</v>
-      </c>
-      <c r="AX69">
-        <v>11</v>
-      </c>
-      <c r="AY69">
-        <v>8</v>
-      </c>
-      <c r="AZ69">
-        <v>15</v>
-      </c>
-      <c r="BA69">
-        <v>7</v>
-      </c>
-      <c r="BB69">
-        <v>4</v>
-      </c>
-      <c r="BC69">
-        <v>11</v>
-      </c>
-      <c r="BD69">
-        <v>2.78</v>
-      </c>
-      <c r="BE69">
-        <v>8.5</v>
-      </c>
-      <c r="BF69">
-        <v>1.59</v>
-      </c>
-      <c r="BG69">
-        <v>1.2</v>
-      </c>
-      <c r="BH69">
-        <v>4.25</v>
-      </c>
-      <c r="BI69">
-        <v>1.38</v>
-      </c>
-      <c r="BJ69">
-        <v>2.88</v>
-      </c>
-      <c r="BK69">
-        <v>1.73</v>
-      </c>
-      <c r="BL69">
-        <v>2</v>
-      </c>
-      <c r="BM69">
-        <v>2.12</v>
-      </c>
-      <c r="BN69">
-        <v>1.66</v>
-      </c>
-      <c r="BO69">
-        <v>2.85</v>
-      </c>
-      <c r="BP69">
-        <v>1.38</v>
       </c>
     </row>
     <row r="70" spans="1:68">
@@ -15335,7 +15335,7 @@
         <v>69</v>
       </c>
       <c r="B70">
-        <v>7325397</v>
+        <v>7325399</v>
       </c>
       <c r="C70" t="s">
         <v>68</v>
@@ -15350,43 +15350,43 @@
         <v>11</v>
       </c>
       <c r="G70" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="H70" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J70">
         <v>1</v>
       </c>
       <c r="K70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L70">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M70">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N70">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O70" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>102</v>
+        <v>215</v>
       </c>
       <c r="Q70">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R70">
-        <v>2.27</v>
+        <v>2.24</v>
       </c>
       <c r="S70">
-        <v>5.56</v>
+        <v>4.75</v>
       </c>
       <c r="T70">
         <v>1.36</v>
@@ -15401,19 +15401,19 @@
         <v>1.44</v>
       </c>
       <c r="X70">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="Y70">
         <v>1.09</v>
       </c>
       <c r="Z70">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="AA70">
-        <v>4.01</v>
+        <v>3.68</v>
       </c>
       <c r="AB70">
-        <v>5.39</v>
+        <v>4.22</v>
       </c>
       <c r="AC70">
         <v>1.01</v>
@@ -15428,94 +15428,94 @@
         <v>3.5</v>
       </c>
       <c r="AG70">
-        <v>1.83</v>
+        <v>1.78</v>
       </c>
       <c r="AH70">
-        <v>1.94</v>
+        <v>1.95</v>
       </c>
       <c r="AI70">
-        <v>1.87</v>
+        <v>1.75</v>
       </c>
       <c r="AJ70">
-        <v>1.87</v>
+        <v>2.01</v>
       </c>
       <c r="AK70">
-        <v>1.15</v>
+        <v>1.22</v>
       </c>
       <c r="AL70">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="AM70">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="AN70">
+        <v>1.25</v>
+      </c>
+      <c r="AO70">
+        <v>0.4</v>
+      </c>
+      <c r="AP70">
+        <v>1.36</v>
+      </c>
+      <c r="AQ70">
+        <v>0.55</v>
+      </c>
+      <c r="AR70">
+        <v>1.29</v>
+      </c>
+      <c r="AS70">
+        <v>1</v>
+      </c>
+      <c r="AT70">
+        <v>2.29</v>
+      </c>
+      <c r="AU70">
+        <v>5</v>
+      </c>
+      <c r="AV70">
         <v>3</v>
       </c>
-      <c r="AO70">
-        <v>1</v>
-      </c>
-      <c r="AP70">
-        <v>2.45</v>
-      </c>
-      <c r="AQ70">
-        <v>1.45</v>
-      </c>
-      <c r="AR70">
-        <v>1.62</v>
-      </c>
-      <c r="AS70">
-        <v>1.39</v>
-      </c>
-      <c r="AT70">
-        <v>3.01</v>
-      </c>
-      <c r="AU70">
+      <c r="AW70">
         <v>4</v>
-      </c>
-      <c r="AV70">
-        <v>4</v>
-      </c>
-      <c r="AW70">
-        <v>22</v>
       </c>
       <c r="AX70">
         <v>3</v>
       </c>
       <c r="AY70">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="AZ70">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA70">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BB70">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC70">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="BD70">
-        <v>1.26</v>
+        <v>1.69</v>
       </c>
       <c r="BE70">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="BF70">
-        <v>4.64</v>
+        <v>2.62</v>
       </c>
       <c r="BG70">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="BH70">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="BI70">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="BJ70">
-        <v>2.75</v>
+        <v>2.72</v>
       </c>
       <c r="BK70">
         <v>1.73</v>
@@ -15524,16 +15524,16 @@
         <v>2</v>
       </c>
       <c r="BM70">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="BN70">
-        <v>1.6</v>
+        <v>1.68</v>
       </c>
       <c r="BO70">
-        <v>3.05</v>
+        <v>2.79</v>
       </c>
       <c r="BP70">
-        <v>1.35</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="71" spans="1:68">
@@ -15747,7 +15747,7 @@
         <v>71</v>
       </c>
       <c r="B72">
-        <v>7325401</v>
+        <v>7325406</v>
       </c>
       <c r="C72" t="s">
         <v>68</v>
@@ -15762,190 +15762,190 @@
         <v>12</v>
       </c>
       <c r="G72" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H72" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="I72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L72">
         <v>3</v>
       </c>
       <c r="M72">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N72">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O72" t="s">
         <v>132</v>
       </c>
       <c r="P72" t="s">
-        <v>217</v>
+        <v>174</v>
       </c>
       <c r="Q72">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="R72">
         <v>2.05</v>
       </c>
       <c r="S72">
-        <v>2.95</v>
+        <v>3.6</v>
       </c>
       <c r="T72">
         <v>1.4</v>
       </c>
       <c r="U72">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="V72">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="W72">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="X72">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Y72">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="Z72">
-        <v>2.91</v>
+        <v>2.15</v>
       </c>
       <c r="AA72">
-        <v>3.15</v>
+        <v>3.2</v>
       </c>
       <c r="AB72">
-        <v>2.39</v>
+        <v>3.3</v>
       </c>
       <c r="AC72">
         <v>1.03</v>
       </c>
       <c r="AD72">
-        <v>8.5</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="AE72">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="AF72">
-        <v>3.2</v>
+        <v>2.98</v>
       </c>
       <c r="AG72">
+        <v>2.1</v>
+      </c>
+      <c r="AH72">
+        <v>1.74</v>
+      </c>
+      <c r="AI72">
+        <v>1.77</v>
+      </c>
+      <c r="AJ72">
+        <v>1.93</v>
+      </c>
+      <c r="AK72">
+        <v>1.25</v>
+      </c>
+      <c r="AL72">
+        <v>1.33</v>
+      </c>
+      <c r="AM72">
+        <v>1.62</v>
+      </c>
+      <c r="AN72">
+        <v>2</v>
+      </c>
+      <c r="AO72">
+        <v>1.86</v>
+      </c>
+      <c r="AP72">
+        <v>2.36</v>
+      </c>
+      <c r="AQ72">
+        <v>1.55</v>
+      </c>
+      <c r="AR72">
+        <v>1.95</v>
+      </c>
+      <c r="AS72">
+        <v>1.63</v>
+      </c>
+      <c r="AT72">
+        <v>3.58</v>
+      </c>
+      <c r="AU72">
+        <v>6</v>
+      </c>
+      <c r="AV72">
+        <v>3</v>
+      </c>
+      <c r="AW72">
+        <v>7</v>
+      </c>
+      <c r="AX72">
+        <v>5</v>
+      </c>
+      <c r="AY72">
+        <v>13</v>
+      </c>
+      <c r="AZ72">
+        <v>8</v>
+      </c>
+      <c r="BA72">
+        <v>3</v>
+      </c>
+      <c r="BB72">
+        <v>4</v>
+      </c>
+      <c r="BC72">
+        <v>7</v>
+      </c>
+      <c r="BD72">
         <v>2.05</v>
-      </c>
-      <c r="AH72">
-        <v>1.81</v>
-      </c>
-      <c r="AI72">
-        <v>1.7</v>
-      </c>
-      <c r="AJ72">
-        <v>2</v>
-      </c>
-      <c r="AK72">
-        <v>1.4</v>
-      </c>
-      <c r="AL72">
-        <v>1.35</v>
-      </c>
-      <c r="AM72">
-        <v>1.4</v>
-      </c>
-      <c r="AN72">
-        <v>0.8</v>
-      </c>
-      <c r="AO72">
-        <v>0.83</v>
-      </c>
-      <c r="AP72">
-        <v>1.18</v>
-      </c>
-      <c r="AQ72">
-        <v>1.18</v>
-      </c>
-      <c r="AR72">
-        <v>1.51</v>
-      </c>
-      <c r="AS72">
-        <v>1.22</v>
-      </c>
-      <c r="AT72">
-        <v>2.73</v>
-      </c>
-      <c r="AU72">
-        <v>5</v>
-      </c>
-      <c r="AV72">
-        <v>9</v>
-      </c>
-      <c r="AW72">
-        <v>5</v>
-      </c>
-      <c r="AX72">
-        <v>10</v>
-      </c>
-      <c r="AY72">
-        <v>10</v>
-      </c>
-      <c r="AZ72">
-        <v>19</v>
-      </c>
-      <c r="BA72">
-        <v>4</v>
-      </c>
-      <c r="BB72">
-        <v>5</v>
-      </c>
-      <c r="BC72">
-        <v>9</v>
-      </c>
-      <c r="BD72">
-        <v>1.95</v>
       </c>
       <c r="BE72">
         <v>8</v>
       </c>
       <c r="BF72">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="BG72">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="BH72">
-        <v>3.94</v>
+        <v>4.4</v>
       </c>
       <c r="BI72">
-        <v>1.39</v>
+        <v>1.32</v>
       </c>
       <c r="BJ72">
-        <v>2.76</v>
+        <v>2.98</v>
       </c>
       <c r="BK72">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="BL72">
-        <v>2.06</v>
+        <v>2.21</v>
       </c>
       <c r="BM72">
-        <v>2.14</v>
+        <v>2</v>
       </c>
       <c r="BN72">
-        <v>1.63</v>
+        <v>1.76</v>
       </c>
       <c r="BO72">
-        <v>2.79</v>
+        <v>2.58</v>
       </c>
       <c r="BP72">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="73" spans="1:68">
@@ -15953,7 +15953,7 @@
         <v>72</v>
       </c>
       <c r="B73">
-        <v>7325402</v>
+        <v>7325405</v>
       </c>
       <c r="C73" t="s">
         <v>68</v>
@@ -15968,190 +15968,190 @@
         <v>12</v>
       </c>
       <c r="G73" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H73" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O73" t="s">
-        <v>83</v>
+        <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>83</v>
+        <v>217</v>
       </c>
       <c r="Q73">
-        <v>2.9</v>
+        <v>3.52</v>
       </c>
       <c r="R73">
-        <v>2.3</v>
+        <v>2.05</v>
       </c>
       <c r="S73">
-        <v>2.9</v>
+        <v>3.12</v>
       </c>
       <c r="T73">
-        <v>1.31</v>
+        <v>1.45</v>
       </c>
       <c r="U73">
-        <v>3.28</v>
+        <v>2.64</v>
       </c>
       <c r="V73">
+        <v>3.1</v>
+      </c>
+      <c r="W73">
+        <v>1.34</v>
+      </c>
+      <c r="X73">
+        <v>8.1</v>
+      </c>
+      <c r="Y73">
+        <v>1.06</v>
+      </c>
+      <c r="Z73">
+        <v>2.79</v>
+      </c>
+      <c r="AA73">
+        <v>3.15</v>
+      </c>
+      <c r="AB73">
         <v>2.46</v>
       </c>
-      <c r="W73">
-        <v>1.51</v>
-      </c>
-      <c r="X73">
-        <v>5.8</v>
-      </c>
-      <c r="Y73">
-        <v>1.12</v>
-      </c>
-      <c r="Z73">
-        <v>2.44</v>
-      </c>
-      <c r="AA73">
-        <v>3.4</v>
-      </c>
-      <c r="AB73">
-        <v>2.66</v>
-      </c>
       <c r="AC73">
-        <v>1.01</v>
+        <v>1.03</v>
       </c>
       <c r="AD73">
-        <v>10.5</v>
+        <v>7.9</v>
       </c>
       <c r="AE73">
+        <v>1.34</v>
+      </c>
+      <c r="AF73">
+        <v>2.89</v>
+      </c>
+      <c r="AG73">
+        <v>2.1</v>
+      </c>
+      <c r="AH73">
+        <v>1.74</v>
+      </c>
+      <c r="AI73">
+        <v>1.86</v>
+      </c>
+      <c r="AJ73">
+        <v>1.88</v>
+      </c>
+      <c r="AK73">
+        <v>1.5</v>
+      </c>
+      <c r="AL73">
+        <v>1.35</v>
+      </c>
+      <c r="AM73">
+        <v>1.32</v>
+      </c>
+      <c r="AN73">
+        <v>1</v>
+      </c>
+      <c r="AO73">
+        <v>0.8</v>
+      </c>
+      <c r="AP73">
+        <v>0.55</v>
+      </c>
+      <c r="AQ73">
+        <v>0.64</v>
+      </c>
+      <c r="AR73">
+        <v>1.23</v>
+      </c>
+      <c r="AS73">
         <v>1.18</v>
       </c>
-      <c r="AF73">
-        <v>4.1</v>
-      </c>
-      <c r="AG73">
-        <v>1.71</v>
-      </c>
-      <c r="AH73">
-        <v>2.14</v>
-      </c>
-      <c r="AI73">
-        <v>1.5</v>
-      </c>
-      <c r="AJ73">
-        <v>2.4</v>
-      </c>
-      <c r="AK73">
-        <v>1.33</v>
-      </c>
-      <c r="AL73">
+      <c r="AT73">
+        <v>2.41</v>
+      </c>
+      <c r="AU73">
+        <v>2</v>
+      </c>
+      <c r="AV73">
+        <v>6</v>
+      </c>
+      <c r="AW73">
+        <v>5</v>
+      </c>
+      <c r="AX73">
+        <v>6</v>
+      </c>
+      <c r="AY73">
+        <v>7</v>
+      </c>
+      <c r="AZ73">
+        <v>12</v>
+      </c>
+      <c r="BA73">
+        <v>2</v>
+      </c>
+      <c r="BB73">
+        <v>7</v>
+      </c>
+      <c r="BC73">
+        <v>9</v>
+      </c>
+      <c r="BD73">
+        <v>1.82</v>
+      </c>
+      <c r="BE73">
+        <v>8</v>
+      </c>
+      <c r="BF73">
+        <v>2.39</v>
+      </c>
+      <c r="BG73">
+        <v>1.23</v>
+      </c>
+      <c r="BH73">
+        <v>3.56</v>
+      </c>
+      <c r="BI73">
+        <v>1.46</v>
+      </c>
+      <c r="BJ73">
+        <v>2.52</v>
+      </c>
+      <c r="BK73">
+        <v>1.82</v>
+      </c>
+      <c r="BL73">
+        <v>1.98</v>
+      </c>
+      <c r="BM73">
+        <v>2.32</v>
+      </c>
+      <c r="BN73">
+        <v>1.54</v>
+      </c>
+      <c r="BO73">
+        <v>3.08</v>
+      </c>
+      <c r="BP73">
         <v>1.3</v>
-      </c>
-      <c r="AM73">
-        <v>1.55</v>
-      </c>
-      <c r="AN73">
-        <v>2.17</v>
-      </c>
-      <c r="AO73">
-        <v>0.5</v>
-      </c>
-      <c r="AP73">
-        <v>1.73</v>
-      </c>
-      <c r="AQ73">
-        <v>0.91</v>
-      </c>
-      <c r="AR73">
-        <v>1.38</v>
-      </c>
-      <c r="AS73">
-        <v>1.48</v>
-      </c>
-      <c r="AT73">
-        <v>2.86</v>
-      </c>
-      <c r="AU73">
-        <v>5</v>
-      </c>
-      <c r="AV73">
-        <v>8</v>
-      </c>
-      <c r="AW73">
-        <v>4</v>
-      </c>
-      <c r="AX73">
-        <v>16</v>
-      </c>
-      <c r="AY73">
-        <v>9</v>
-      </c>
-      <c r="AZ73">
-        <v>24</v>
-      </c>
-      <c r="BA73">
-        <v>3</v>
-      </c>
-      <c r="BB73">
-        <v>11</v>
-      </c>
-      <c r="BC73">
-        <v>14</v>
-      </c>
-      <c r="BD73">
-        <v>2.62</v>
-      </c>
-      <c r="BE73">
-        <v>8.5</v>
-      </c>
-      <c r="BF73">
-        <v>1.69</v>
-      </c>
-      <c r="BG73">
-        <v>1.11</v>
-      </c>
-      <c r="BH73">
-        <v>5.2</v>
-      </c>
-      <c r="BI73">
-        <v>1.25</v>
-      </c>
-      <c r="BJ73">
-        <v>3.42</v>
-      </c>
-      <c r="BK73">
-        <v>1.46</v>
-      </c>
-      <c r="BL73">
-        <v>2.52</v>
-      </c>
-      <c r="BM73">
-        <v>1.8</v>
-      </c>
-      <c r="BN73">
-        <v>1.95</v>
-      </c>
-      <c r="BO73">
-        <v>2.25</v>
-      </c>
-      <c r="BP73">
-        <v>1.57</v>
       </c>
     </row>
     <row r="74" spans="1:68">
@@ -16159,7 +16159,7 @@
         <v>73</v>
       </c>
       <c r="B74">
-        <v>7325403</v>
+        <v>7325404</v>
       </c>
       <c r="C74" t="s">
         <v>68</v>
@@ -16174,10 +16174,10 @@
         <v>12</v>
       </c>
       <c r="G74" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H74" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I74">
         <v>1</v>
@@ -16189,55 +16189,55 @@
         <v>2</v>
       </c>
       <c r="L74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M74">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O74" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>141</v>
+        <v>218</v>
       </c>
       <c r="Q74">
-        <v>2.08</v>
+        <v>2.38</v>
       </c>
       <c r="R74">
-        <v>2.55</v>
+        <v>2.31</v>
       </c>
       <c r="S74">
-        <v>5.76</v>
+        <v>4.32</v>
       </c>
       <c r="T74">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="U74">
-        <v>3.35</v>
+        <v>3.28</v>
       </c>
       <c r="V74">
-        <v>2.53</v>
+        <v>2.46</v>
       </c>
       <c r="W74">
-        <v>1.54</v>
+        <v>1.51</v>
       </c>
       <c r="X74">
-        <v>5.3</v>
+        <v>5.8</v>
       </c>
       <c r="Y74">
         <v>1.12</v>
       </c>
       <c r="Z74">
-        <v>1.61</v>
+        <v>1.86</v>
       </c>
       <c r="AA74">
-        <v>3.9</v>
+        <v>3.6</v>
       </c>
       <c r="AB74">
-        <v>4.95</v>
+        <v>3.8</v>
       </c>
       <c r="AC74">
         <v>1.04</v>
@@ -16258,106 +16258,106 @@
         <v>1.88</v>
       </c>
       <c r="AI74">
-        <v>1.7</v>
+        <v>1.55</v>
       </c>
       <c r="AJ74">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="AK74">
-        <v>1.08</v>
+        <v>1.17</v>
       </c>
       <c r="AL74">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="AM74">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="AN74">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO74">
-        <v>0.33</v>
+        <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>1.64</v>
+        <v>2.09</v>
       </c>
       <c r="AQ74">
-        <v>0.55</v>
+        <v>1.36</v>
       </c>
       <c r="AR74">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="AS74">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AT74">
-        <v>3.45</v>
+        <v>3.52</v>
       </c>
       <c r="AU74">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV74">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AW74">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AX74">
         <v>5</v>
       </c>
       <c r="AY74">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ74">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA74">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BB74">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="BC74">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD74">
-        <v>1.51</v>
+        <v>1.45</v>
       </c>
       <c r="BE74">
         <v>9</v>
       </c>
       <c r="BF74">
-        <v>3.14</v>
+        <v>3.28</v>
       </c>
       <c r="BG74">
-        <v>1.15</v>
+        <v>1.19</v>
       </c>
       <c r="BH74">
-        <v>4.55</v>
+        <v>4.3</v>
       </c>
       <c r="BI74">
-        <v>1.3</v>
+        <v>1.37</v>
       </c>
       <c r="BJ74">
-        <v>3.08</v>
+        <v>3</v>
       </c>
       <c r="BK74">
-        <v>1.56</v>
+        <v>1.61</v>
       </c>
       <c r="BL74">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="BM74">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="BN74">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="BO74">
-        <v>2.49</v>
+        <v>2.5</v>
       </c>
       <c r="BP74">
-        <v>1.47</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="75" spans="1:68">
@@ -16365,7 +16365,7 @@
         <v>74</v>
       </c>
       <c r="B75">
-        <v>7325404</v>
+        <v>7325401</v>
       </c>
       <c r="C75" t="s">
         <v>68</v>
@@ -16380,190 +16380,190 @@
         <v>12</v>
       </c>
       <c r="G75" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H75" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I75">
         <v>1</v>
       </c>
       <c r="J75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M75">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N75">
+        <v>6</v>
+      </c>
+      <c r="O75" t="s">
+        <v>135</v>
+      </c>
+      <c r="P75" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q75">
+        <v>3.4</v>
+      </c>
+      <c r="R75">
+        <v>2.05</v>
+      </c>
+      <c r="S75">
+        <v>2.95</v>
+      </c>
+      <c r="T75">
+        <v>1.4</v>
+      </c>
+      <c r="U75">
+        <v>2.75</v>
+      </c>
+      <c r="V75">
+        <v>2.8</v>
+      </c>
+      <c r="W75">
+        <v>1.37</v>
+      </c>
+      <c r="X75">
+        <v>6.5</v>
+      </c>
+      <c r="Y75">
+        <v>1.08</v>
+      </c>
+      <c r="Z75">
+        <v>2.91</v>
+      </c>
+      <c r="AA75">
+        <v>3.15</v>
+      </c>
+      <c r="AB75">
+        <v>2.39</v>
+      </c>
+      <c r="AC75">
+        <v>1.03</v>
+      </c>
+      <c r="AD75">
+        <v>8.5</v>
+      </c>
+      <c r="AE75">
+        <v>1.3</v>
+      </c>
+      <c r="AF75">
+        <v>3.2</v>
+      </c>
+      <c r="AG75">
+        <v>2.05</v>
+      </c>
+      <c r="AH75">
+        <v>1.81</v>
+      </c>
+      <c r="AI75">
+        <v>1.7</v>
+      </c>
+      <c r="AJ75">
+        <v>2</v>
+      </c>
+      <c r="AK75">
+        <v>1.4</v>
+      </c>
+      <c r="AL75">
+        <v>1.35</v>
+      </c>
+      <c r="AM75">
+        <v>1.4</v>
+      </c>
+      <c r="AN75">
+        <v>0.8</v>
+      </c>
+      <c r="AO75">
+        <v>0.83</v>
+      </c>
+      <c r="AP75">
+        <v>1.18</v>
+      </c>
+      <c r="AQ75">
+        <v>1.18</v>
+      </c>
+      <c r="AR75">
+        <v>1.51</v>
+      </c>
+      <c r="AS75">
+        <v>1.22</v>
+      </c>
+      <c r="AT75">
+        <v>2.73</v>
+      </c>
+      <c r="AU75">
+        <v>5</v>
+      </c>
+      <c r="AV75">
+        <v>9</v>
+      </c>
+      <c r="AW75">
+        <v>5</v>
+      </c>
+      <c r="AX75">
+        <v>10</v>
+      </c>
+      <c r="AY75">
+        <v>10</v>
+      </c>
+      <c r="AZ75">
+        <v>19</v>
+      </c>
+      <c r="BA75">
         <v>4</v>
       </c>
-      <c r="O75" t="s">
-        <v>134</v>
-      </c>
-      <c r="P75" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q75">
-        <v>2.38</v>
-      </c>
-      <c r="R75">
-        <v>2.31</v>
-      </c>
-      <c r="S75">
-        <v>4.32</v>
-      </c>
-      <c r="T75">
-        <v>1.31</v>
-      </c>
-      <c r="U75">
-        <v>3.28</v>
-      </c>
-      <c r="V75">
-        <v>2.46</v>
-      </c>
-      <c r="W75">
-        <v>1.51</v>
-      </c>
-      <c r="X75">
-        <v>5.8</v>
-      </c>
-      <c r="Y75">
-        <v>1.12</v>
-      </c>
-      <c r="Z75">
-        <v>1.86</v>
-      </c>
-      <c r="AA75">
-        <v>3.6</v>
-      </c>
-      <c r="AB75">
-        <v>3.8</v>
-      </c>
-      <c r="AC75">
-        <v>1.04</v>
-      </c>
-      <c r="AD75">
-        <v>12</v>
-      </c>
-      <c r="AE75">
-        <v>1.17</v>
-      </c>
-      <c r="AF75">
-        <v>4.3</v>
-      </c>
-      <c r="AG75">
-        <v>1.93</v>
-      </c>
-      <c r="AH75">
-        <v>1.88</v>
-      </c>
-      <c r="AI75">
-        <v>1.55</v>
-      </c>
-      <c r="AJ75">
-        <v>2.25</v>
-      </c>
-      <c r="AK75">
-        <v>1.17</v>
-      </c>
-      <c r="AL75">
-        <v>1.27</v>
-      </c>
-      <c r="AM75">
-        <v>1.9</v>
-      </c>
-      <c r="AN75">
-        <v>1.67</v>
-      </c>
-      <c r="AO75">
-        <v>1.4</v>
-      </c>
-      <c r="AP75">
-        <v>2.09</v>
-      </c>
-      <c r="AQ75">
-        <v>1.36</v>
-      </c>
-      <c r="AR75">
-        <v>1.91</v>
-      </c>
-      <c r="AS75">
-        <v>1.61</v>
-      </c>
-      <c r="AT75">
-        <v>3.52</v>
-      </c>
-      <c r="AU75">
-        <v>6</v>
-      </c>
-      <c r="AV75">
-        <v>4</v>
-      </c>
-      <c r="AW75">
-        <v>6</v>
-      </c>
-      <c r="AX75">
+      <c r="BB75">
         <v>5</v>
-      </c>
-      <c r="AY75">
-        <v>12</v>
-      </c>
-      <c r="AZ75">
-        <v>9</v>
-      </c>
-      <c r="BA75">
-        <v>3</v>
-      </c>
-      <c r="BB75">
-        <v>6</v>
       </c>
       <c r="BC75">
         <v>9</v>
       </c>
       <c r="BD75">
-        <v>1.45</v>
+        <v>1.95</v>
       </c>
       <c r="BE75">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF75">
-        <v>3.28</v>
+        <v>2.1</v>
       </c>
       <c r="BG75">
         <v>1.19</v>
       </c>
       <c r="BH75">
-        <v>4.3</v>
+        <v>3.94</v>
       </c>
       <c r="BI75">
-        <v>1.37</v>
+        <v>1.39</v>
       </c>
       <c r="BJ75">
-        <v>3</v>
+        <v>2.76</v>
       </c>
       <c r="BK75">
-        <v>1.61</v>
+        <v>1.71</v>
       </c>
       <c r="BL75">
-        <v>2.22</v>
+        <v>2.06</v>
       </c>
       <c r="BM75">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="BN75">
-        <v>1.76</v>
+        <v>1.63</v>
       </c>
       <c r="BO75">
-        <v>2.5</v>
+        <v>2.79</v>
       </c>
       <c r="BP75">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
     </row>
     <row r="76" spans="1:68">
@@ -16571,7 +16571,7 @@
         <v>75</v>
       </c>
       <c r="B76">
-        <v>7325405</v>
+        <v>7325402</v>
       </c>
       <c r="C76" t="s">
         <v>68</v>
@@ -16586,190 +16586,190 @@
         <v>12</v>
       </c>
       <c r="G76" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M76">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N76">
+        <v>0</v>
+      </c>
+      <c r="O76" t="s">
+        <v>83</v>
+      </c>
+      <c r="P76" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q76">
+        <v>2.9</v>
+      </c>
+      <c r="R76">
+        <v>2.3</v>
+      </c>
+      <c r="S76">
+        <v>2.9</v>
+      </c>
+      <c r="T76">
+        <v>1.31</v>
+      </c>
+      <c r="U76">
+        <v>3.28</v>
+      </c>
+      <c r="V76">
+        <v>2.46</v>
+      </c>
+      <c r="W76">
+        <v>1.51</v>
+      </c>
+      <c r="X76">
+        <v>5.8</v>
+      </c>
+      <c r="Y76">
+        <v>1.12</v>
+      </c>
+      <c r="Z76">
+        <v>2.44</v>
+      </c>
+      <c r="AA76">
+        <v>3.4</v>
+      </c>
+      <c r="AB76">
+        <v>2.66</v>
+      </c>
+      <c r="AC76">
+        <v>1.01</v>
+      </c>
+      <c r="AD76">
+        <v>10.5</v>
+      </c>
+      <c r="AE76">
+        <v>1.18</v>
+      </c>
+      <c r="AF76">
+        <v>4.1</v>
+      </c>
+      <c r="AG76">
+        <v>1.71</v>
+      </c>
+      <c r="AH76">
+        <v>2.14</v>
+      </c>
+      <c r="AI76">
+        <v>1.5</v>
+      </c>
+      <c r="AJ76">
+        <v>2.4</v>
+      </c>
+      <c r="AK76">
+        <v>1.33</v>
+      </c>
+      <c r="AL76">
+        <v>1.3</v>
+      </c>
+      <c r="AM76">
+        <v>1.55</v>
+      </c>
+      <c r="AN76">
+        <v>2.17</v>
+      </c>
+      <c r="AO76">
+        <v>0.5</v>
+      </c>
+      <c r="AP76">
+        <v>1.73</v>
+      </c>
+      <c r="AQ76">
+        <v>0.91</v>
+      </c>
+      <c r="AR76">
+        <v>1.38</v>
+      </c>
+      <c r="AS76">
+        <v>1.48</v>
+      </c>
+      <c r="AT76">
+        <v>2.86</v>
+      </c>
+      <c r="AU76">
+        <v>5</v>
+      </c>
+      <c r="AV76">
+        <v>8</v>
+      </c>
+      <c r="AW76">
+        <v>4</v>
+      </c>
+      <c r="AX76">
+        <v>16</v>
+      </c>
+      <c r="AY76">
+        <v>9</v>
+      </c>
+      <c r="AZ76">
+        <v>24</v>
+      </c>
+      <c r="BA76">
         <v>3</v>
       </c>
-      <c r="O76" t="s">
-        <v>135</v>
-      </c>
-      <c r="P76" t="s">
-        <v>219</v>
-      </c>
-      <c r="Q76">
-        <v>3.52</v>
-      </c>
-      <c r="R76">
-        <v>2.05</v>
-      </c>
-      <c r="S76">
-        <v>3.12</v>
-      </c>
-      <c r="T76">
-        <v>1.45</v>
-      </c>
-      <c r="U76">
-        <v>2.64</v>
-      </c>
-      <c r="V76">
-        <v>3.1</v>
-      </c>
-      <c r="W76">
-        <v>1.34</v>
-      </c>
-      <c r="X76">
-        <v>8.1</v>
-      </c>
-      <c r="Y76">
-        <v>1.06</v>
-      </c>
-      <c r="Z76">
-        <v>2.79</v>
-      </c>
-      <c r="AA76">
-        <v>3.15</v>
-      </c>
-      <c r="AB76">
-        <v>2.46</v>
-      </c>
-      <c r="AC76">
-        <v>1.03</v>
-      </c>
-      <c r="AD76">
-        <v>7.9</v>
-      </c>
-      <c r="AE76">
-        <v>1.34</v>
-      </c>
-      <c r="AF76">
-        <v>2.89</v>
-      </c>
-      <c r="AG76">
-        <v>2.1</v>
-      </c>
-      <c r="AH76">
-        <v>1.74</v>
-      </c>
-      <c r="AI76">
-        <v>1.86</v>
-      </c>
-      <c r="AJ76">
-        <v>1.88</v>
-      </c>
-      <c r="AK76">
-        <v>1.5</v>
-      </c>
-      <c r="AL76">
-        <v>1.35</v>
-      </c>
-      <c r="AM76">
-        <v>1.32</v>
-      </c>
-      <c r="AN76">
-        <v>1</v>
-      </c>
-      <c r="AO76">
-        <v>0.8</v>
-      </c>
-      <c r="AP76">
-        <v>0.55</v>
-      </c>
-      <c r="AQ76">
-        <v>0.64</v>
-      </c>
-      <c r="AR76">
-        <v>1.23</v>
-      </c>
-      <c r="AS76">
-        <v>1.18</v>
-      </c>
-      <c r="AT76">
-        <v>2.41</v>
-      </c>
-      <c r="AU76">
-        <v>2</v>
-      </c>
-      <c r="AV76">
-        <v>6</v>
-      </c>
-      <c r="AW76">
-        <v>5</v>
-      </c>
-      <c r="AX76">
-        <v>6</v>
-      </c>
-      <c r="AY76">
-        <v>7</v>
-      </c>
-      <c r="AZ76">
-        <v>12</v>
-      </c>
-      <c r="BA76">
-        <v>2</v>
-      </c>
       <c r="BB76">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BC76">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="BD76">
-        <v>1.82</v>
+        <v>2.62</v>
       </c>
       <c r="BE76">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF76">
-        <v>2.39</v>
+        <v>1.69</v>
       </c>
       <c r="BG76">
-        <v>1.23</v>
+        <v>1.11</v>
       </c>
       <c r="BH76">
-        <v>3.56</v>
+        <v>5.2</v>
       </c>
       <c r="BI76">
+        <v>1.25</v>
+      </c>
+      <c r="BJ76">
+        <v>3.42</v>
+      </c>
+      <c r="BK76">
         <v>1.46</v>
       </c>
-      <c r="BJ76">
+      <c r="BL76">
         <v>2.52</v>
       </c>
-      <c r="BK76">
-        <v>1.82</v>
-      </c>
-      <c r="BL76">
-        <v>1.98</v>
-      </c>
       <c r="BM76">
-        <v>2.32</v>
+        <v>1.8</v>
       </c>
       <c r="BN76">
-        <v>1.54</v>
+        <v>1.95</v>
       </c>
       <c r="BO76">
-        <v>3.08</v>
+        <v>2.25</v>
       </c>
       <c r="BP76">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
     </row>
     <row r="77" spans="1:68">
@@ -16777,7 +16777,7 @@
         <v>76</v>
       </c>
       <c r="B77">
-        <v>7325406</v>
+        <v>7325403</v>
       </c>
       <c r="C77" t="s">
         <v>68</v>
@@ -16792,133 +16792,133 @@
         <v>12</v>
       </c>
       <c r="G77" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H77" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="I77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J77">
         <v>1</v>
       </c>
       <c r="K77">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L77">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M77">
         <v>1</v>
       </c>
       <c r="N77">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O77" t="s">
         <v>136</v>
       </c>
       <c r="P77" t="s">
-        <v>176</v>
+        <v>141</v>
       </c>
       <c r="Q77">
-        <v>2.75</v>
+        <v>2.08</v>
       </c>
       <c r="R77">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="S77">
-        <v>3.6</v>
+        <v>5.76</v>
       </c>
       <c r="T77">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="U77">
-        <v>2.7</v>
+        <v>3.35</v>
       </c>
       <c r="V77">
+        <v>2.53</v>
+      </c>
+      <c r="W77">
+        <v>1.54</v>
+      </c>
+      <c r="X77">
+        <v>5.3</v>
+      </c>
+      <c r="Y77">
+        <v>1.12</v>
+      </c>
+      <c r="Z77">
+        <v>1.61</v>
+      </c>
+      <c r="AA77">
+        <v>3.9</v>
+      </c>
+      <c r="AB77">
+        <v>4.95</v>
+      </c>
+      <c r="AC77">
+        <v>1.04</v>
+      </c>
+      <c r="AD77">
+        <v>12</v>
+      </c>
+      <c r="AE77">
+        <v>1.17</v>
+      </c>
+      <c r="AF77">
+        <v>4.3</v>
+      </c>
+      <c r="AG77">
+        <v>1.93</v>
+      </c>
+      <c r="AH77">
+        <v>1.88</v>
+      </c>
+      <c r="AI77">
+        <v>1.7</v>
+      </c>
+      <c r="AJ77">
+        <v>2.08</v>
+      </c>
+      <c r="AK77">
+        <v>1.08</v>
+      </c>
+      <c r="AL77">
+        <v>1.22</v>
+      </c>
+      <c r="AM77">
+        <v>2.4</v>
+      </c>
+      <c r="AN77">
+        <v>1.83</v>
+      </c>
+      <c r="AO77">
+        <v>0.33</v>
+      </c>
+      <c r="AP77">
+        <v>1.64</v>
+      </c>
+      <c r="AQ77">
+        <v>0.55</v>
+      </c>
+      <c r="AR77">
+        <v>1.86</v>
+      </c>
+      <c r="AS77">
+        <v>1.59</v>
+      </c>
+      <c r="AT77">
+        <v>3.45</v>
+      </c>
+      <c r="AU77">
         <v>3</v>
       </c>
-      <c r="W77">
-        <v>1.33</v>
-      </c>
-      <c r="X77">
-        <v>6.8</v>
-      </c>
-      <c r="Y77">
-        <v>1.07</v>
-      </c>
-      <c r="Z77">
-        <v>2.15</v>
-      </c>
-      <c r="AA77">
-        <v>3.2</v>
-      </c>
-      <c r="AB77">
-        <v>3.3</v>
-      </c>
-      <c r="AC77">
-        <v>1.03</v>
-      </c>
-      <c r="AD77">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="AE77">
-        <v>1.32</v>
-      </c>
-      <c r="AF77">
-        <v>2.98</v>
-      </c>
-      <c r="AG77">
-        <v>2.1</v>
-      </c>
-      <c r="AH77">
-        <v>1.74</v>
-      </c>
-      <c r="AI77">
-        <v>1.77</v>
-      </c>
-      <c r="AJ77">
-        <v>1.93</v>
-      </c>
-      <c r="AK77">
-        <v>1.25</v>
-      </c>
-      <c r="AL77">
-        <v>1.33</v>
-      </c>
-      <c r="AM77">
-        <v>1.62</v>
-      </c>
-      <c r="AN77">
-        <v>2</v>
-      </c>
-      <c r="AO77">
-        <v>1.86</v>
-      </c>
-      <c r="AP77">
-        <v>2.36</v>
-      </c>
-      <c r="AQ77">
-        <v>1.55</v>
-      </c>
-      <c r="AR77">
-        <v>1.95</v>
-      </c>
-      <c r="AS77">
-        <v>1.63</v>
-      </c>
-      <c r="AT77">
-        <v>3.58</v>
-      </c>
-      <c r="AU77">
-        <v>6</v>
-      </c>
       <c r="AV77">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW77">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AX77">
         <v>5</v>
@@ -16927,55 +16927,55 @@
         <v>13</v>
       </c>
       <c r="AZ77">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="BA77">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB77">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="BC77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BD77">
-        <v>2.05</v>
+        <v>1.51</v>
       </c>
       <c r="BE77">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF77">
+        <v>3.14</v>
+      </c>
+      <c r="BG77">
+        <v>1.15</v>
+      </c>
+      <c r="BH77">
+        <v>4.55</v>
+      </c>
+      <c r="BI77">
+        <v>1.3</v>
+      </c>
+      <c r="BJ77">
+        <v>3.08</v>
+      </c>
+      <c r="BK77">
+        <v>1.56</v>
+      </c>
+      <c r="BL77">
+        <v>2.27</v>
+      </c>
+      <c r="BM77">
         <v>1.95</v>
       </c>
-      <c r="BG77">
-        <v>1.16</v>
-      </c>
-      <c r="BH77">
-        <v>4.4</v>
-      </c>
-      <c r="BI77">
-        <v>1.32</v>
-      </c>
-      <c r="BJ77">
-        <v>2.98</v>
-      </c>
-      <c r="BK77">
-        <v>1.59</v>
-      </c>
-      <c r="BL77">
-        <v>2.21</v>
-      </c>
-      <c r="BM77">
-        <v>2</v>
-      </c>
       <c r="BN77">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="BO77">
-        <v>2.58</v>
+        <v>2.49</v>
       </c>
       <c r="BP77">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="78" spans="1:68">
@@ -20112,7 +20112,7 @@
         <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="P93" t="s">
         <v>83</v>
@@ -21309,7 +21309,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7325429</v>
+        <v>7325430</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21324,190 +21324,190 @@
         <v>17</v>
       </c>
       <c r="G99" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L99">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N99">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="O99" t="s">
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>83</v>
+        <v>234</v>
       </c>
       <c r="Q99">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="R99">
-        <v>2.44</v>
+        <v>2.71</v>
       </c>
       <c r="S99">
-        <v>6.35</v>
+        <v>7.31</v>
       </c>
       <c r="T99">
-        <v>1.32</v>
+        <v>1.28</v>
       </c>
       <c r="U99">
-        <v>3.22</v>
+        <v>3.44</v>
       </c>
       <c r="V99">
-        <v>2.49</v>
+        <v>2.39</v>
       </c>
       <c r="W99">
-        <v>1.5</v>
+        <v>1.58</v>
       </c>
       <c r="X99">
-        <v>5.85</v>
+        <v>5.45</v>
       </c>
       <c r="Y99">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="Z99">
-        <v>1.6</v>
+        <v>1.48</v>
       </c>
       <c r="AA99">
-        <v>4.07</v>
+        <v>4.42</v>
       </c>
       <c r="AB99">
-        <v>5.15</v>
+        <v>6.01</v>
       </c>
       <c r="AC99">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE99">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="AF99">
-        <v>3.98</v>
+        <v>4.35</v>
       </c>
       <c r="AG99">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="AH99">
-        <v>2.12</v>
+        <v>2.22</v>
       </c>
       <c r="AI99">
+        <v>1.85</v>
+      </c>
+      <c r="AJ99">
         <v>1.89</v>
-      </c>
-      <c r="AJ99">
-        <v>1.85</v>
       </c>
       <c r="AK99">
         <v>1.09</v>
       </c>
       <c r="AL99">
-        <v>1.19</v>
+        <v>1.17</v>
       </c>
       <c r="AM99">
-        <v>2.86</v>
+        <v>2.99</v>
       </c>
       <c r="AN99">
-        <v>2.22</v>
+        <v>2.13</v>
       </c>
       <c r="AO99">
-        <v>0.75</v>
+        <v>0.38</v>
       </c>
       <c r="AP99">
-        <v>2.36</v>
+        <v>1.91</v>
       </c>
       <c r="AQ99">
         <v>0.55</v>
       </c>
       <c r="AR99">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AS99">
-        <v>1.53</v>
+        <v>0.87</v>
       </c>
       <c r="AT99">
-        <v>3.44</v>
+        <v>2.7</v>
       </c>
       <c r="AU99">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV99">
+        <v>8</v>
+      </c>
+      <c r="AW99">
+        <v>13</v>
+      </c>
+      <c r="AX99">
+        <v>5</v>
+      </c>
+      <c r="AY99">
+        <v>24</v>
+      </c>
+      <c r="AZ99">
+        <v>13</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
         <v>3</v>
       </c>
-      <c r="AW99">
-        <v>10</v>
-      </c>
-      <c r="AX99">
-        <v>9</v>
-      </c>
-      <c r="AY99">
-        <v>17</v>
-      </c>
-      <c r="AZ99">
-        <v>12</v>
-      </c>
-      <c r="BA99">
-        <v>6</v>
-      </c>
-      <c r="BB99">
-        <v>4</v>
-      </c>
       <c r="BC99">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="BD99">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="BE99">
-        <v>8.699999999999999</v>
+        <v>10.75</v>
       </c>
       <c r="BF99">
-        <v>5.4</v>
+        <v>7.9</v>
       </c>
       <c r="BG99">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="BH99">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="BI99">
-        <v>1.32</v>
+        <v>1.35</v>
       </c>
       <c r="BJ99">
-        <v>2.98</v>
+        <v>2.95</v>
       </c>
       <c r="BK99">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BL99">
-        <v>2.23</v>
+        <v>2.13</v>
       </c>
       <c r="BM99">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="BN99">
-        <v>1.77</v>
+        <v>1.65</v>
       </c>
       <c r="BO99">
-        <v>2.55</v>
+        <v>2.75</v>
       </c>
       <c r="BP99">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21515,7 +21515,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7325430</v>
+        <v>7325429</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21530,190 +21530,190 @@
         <v>17</v>
       </c>
       <c r="G100" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="H100" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="I100">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K100">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M100">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="O100" t="s">
         <v>154</v>
       </c>
       <c r="P100" t="s">
-        <v>234</v>
+        <v>83</v>
       </c>
       <c r="Q100">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="R100">
-        <v>2.71</v>
+        <v>2.44</v>
       </c>
       <c r="S100">
-        <v>7.31</v>
+        <v>6.35</v>
       </c>
       <c r="T100">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="U100">
-        <v>3.44</v>
+        <v>3.22</v>
       </c>
       <c r="V100">
-        <v>2.39</v>
+        <v>2.49</v>
       </c>
       <c r="W100">
-        <v>1.58</v>
+        <v>1.5</v>
       </c>
       <c r="X100">
-        <v>5.45</v>
+        <v>5.85</v>
       </c>
       <c r="Y100">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z100">
-        <v>1.48</v>
+        <v>1.6</v>
       </c>
       <c r="AA100">
-        <v>4.42</v>
+        <v>4.07</v>
       </c>
       <c r="AB100">
-        <v>6.01</v>
+        <v>5.15</v>
       </c>
       <c r="AC100">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="AD100">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE100">
-        <v>1.16</v>
+        <v>1.19</v>
       </c>
       <c r="AF100">
-        <v>4.35</v>
+        <v>3.98</v>
       </c>
       <c r="AG100">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="AH100">
-        <v>2.22</v>
+        <v>2.12</v>
       </c>
       <c r="AI100">
+        <v>1.89</v>
+      </c>
+      <c r="AJ100">
         <v>1.85</v>
-      </c>
-      <c r="AJ100">
-        <v>1.89</v>
       </c>
       <c r="AK100">
         <v>1.09</v>
       </c>
       <c r="AL100">
-        <v>1.17</v>
+        <v>1.19</v>
       </c>
       <c r="AM100">
-        <v>2.99</v>
+        <v>2.86</v>
       </c>
       <c r="AN100">
-        <v>2.13</v>
+        <v>2.22</v>
       </c>
       <c r="AO100">
-        <v>0.38</v>
+        <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>1.91</v>
+        <v>2.36</v>
       </c>
       <c r="AQ100">
         <v>0.55</v>
       </c>
       <c r="AR100">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="AS100">
-        <v>0.87</v>
+        <v>1.53</v>
       </c>
       <c r="AT100">
-        <v>2.7</v>
+        <v>3.44</v>
       </c>
       <c r="AU100">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV100">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW100">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AX100">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AY100">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ100">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BA100">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BB100">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BC100">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BD100">
+        <v>1.26</v>
+      </c>
+      <c r="BE100">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BF100">
+        <v>5.4</v>
+      </c>
+      <c r="BG100">
         <v>1.15</v>
       </c>
-      <c r="BE100">
-        <v>10.75</v>
-      </c>
-      <c r="BF100">
-        <v>7.9</v>
-      </c>
-      <c r="BG100">
-        <v>1.18</v>
-      </c>
       <c r="BH100">
-        <v>4.1</v>
+        <v>4.45</v>
       </c>
       <c r="BI100">
-        <v>1.35</v>
+        <v>1.32</v>
       </c>
       <c r="BJ100">
-        <v>2.95</v>
+        <v>2.98</v>
       </c>
       <c r="BK100">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BL100">
-        <v>2.13</v>
+        <v>2.23</v>
       </c>
       <c r="BM100">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="BN100">
-        <v>1.65</v>
+        <v>1.77</v>
       </c>
       <c r="BO100">
-        <v>2.75</v>
+        <v>2.55</v>
       </c>
       <c r="BP100">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -22957,7 +22957,7 @@
         <v>106</v>
       </c>
       <c r="B107">
-        <v>7325439</v>
+        <v>7325436</v>
       </c>
       <c r="C107" t="s">
         <v>68</v>
@@ -22972,25 +22972,25 @@
         <v>18</v>
       </c>
       <c r="G107" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H107" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="I107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J107">
         <v>0</v>
       </c>
       <c r="K107">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L107">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M107">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N107">
         <v>3</v>
@@ -22999,16 +22999,16 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>83</v>
+        <v>221</v>
       </c>
       <c r="Q107">
-        <v>3.25</v>
+        <v>2.88</v>
       </c>
       <c r="R107">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S107">
-        <v>2.88</v>
+        <v>3.5</v>
       </c>
       <c r="T107">
         <v>1.33</v>
@@ -23017,10 +23017,10 @@
         <v>3.25</v>
       </c>
       <c r="V107">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W107">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X107">
         <v>6.5</v>
@@ -23029,73 +23029,73 @@
         <v>1.11</v>
       </c>
       <c r="Z107">
-        <v>2.88</v>
+        <v>2.16</v>
       </c>
       <c r="AA107">
-        <v>3.36</v>
+        <v>3.42</v>
       </c>
       <c r="AB107">
-        <v>2.41</v>
+        <v>3.27</v>
       </c>
       <c r="AC107">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD107">
-        <v>10.25</v>
+        <v>13</v>
       </c>
       <c r="AE107">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AF107">
-        <v>4.15</v>
+        <v>4</v>
       </c>
       <c r="AG107">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AH107">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="AI107">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ107">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK107">
-        <v>1.61</v>
+        <v>1.42</v>
       </c>
       <c r="AL107">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="AM107">
-        <v>1.43</v>
+        <v>1.7</v>
       </c>
       <c r="AN107">
-        <v>1</v>
+        <v>2.57</v>
       </c>
       <c r="AO107">
-        <v>1.63</v>
+        <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>1.55</v>
+        <v>2.45</v>
       </c>
       <c r="AQ107">
-        <v>1.27</v>
+        <v>1.36</v>
       </c>
       <c r="AR107">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="AS107">
-        <v>1.39</v>
+        <v>1.72</v>
       </c>
       <c r="AT107">
-        <v>3.14</v>
+        <v>3.43</v>
       </c>
       <c r="AU107">
         <v>2</v>
       </c>
       <c r="AV107">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AW107">
         <v>1</v>
@@ -23107,55 +23107,55 @@
         <v>3</v>
       </c>
       <c r="AZ107">
+        <v>2</v>
+      </c>
+      <c r="BA107">
+        <v>2</v>
+      </c>
+      <c r="BB107">
         <v>5</v>
       </c>
-      <c r="BA107">
-        <v>5</v>
-      </c>
-      <c r="BB107">
-        <v>4</v>
-      </c>
       <c r="BC107">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD107">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="BE107">
         <v>8.5</v>
       </c>
       <c r="BF107">
-        <v>2.41</v>
+        <v>2.62</v>
       </c>
       <c r="BG107">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH107">
-        <v>4.33</v>
+        <v>4.15</v>
       </c>
       <c r="BI107">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="BJ107">
-        <v>2.93</v>
+        <v>2.88</v>
       </c>
       <c r="BK107">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="BL107">
-        <v>2.45</v>
+        <v>2.12</v>
       </c>
       <c r="BM107">
-        <v>1.95</v>
+        <v>2.12</v>
       </c>
       <c r="BN107">
-        <v>1.85</v>
+        <v>1.66</v>
       </c>
       <c r="BO107">
-        <v>2.43</v>
+        <v>2.85</v>
       </c>
       <c r="BP107">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="108" spans="1:68">
@@ -23163,7 +23163,7 @@
         <v>107</v>
       </c>
       <c r="B108">
-        <v>7325436</v>
+        <v>7325437</v>
       </c>
       <c r="C108" t="s">
         <v>68</v>
@@ -23178,10 +23178,10 @@
         <v>18</v>
       </c>
       <c r="G108" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="H108" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I108">
         <v>1</v>
@@ -23193,10 +23193,10 @@
         <v>1</v>
       </c>
       <c r="L108">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M108">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N108">
         <v>3</v>
@@ -23205,16 +23205,16 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>221</v>
+        <v>237</v>
       </c>
       <c r="Q108">
-        <v>2.88</v>
+        <v>4.33</v>
       </c>
       <c r="R108">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S108">
-        <v>3.5</v>
+        <v>2.5</v>
       </c>
       <c r="T108">
         <v>1.33</v>
@@ -23235,19 +23235,19 @@
         <v>1.11</v>
       </c>
       <c r="Z108">
-        <v>2.16</v>
+        <v>3.9</v>
       </c>
       <c r="AA108">
-        <v>3.42</v>
+        <v>3.78</v>
       </c>
       <c r="AB108">
-        <v>3.27</v>
+        <v>1.84</v>
       </c>
       <c r="AC108">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD108">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AE108">
         <v>1.25</v>
@@ -23256,112 +23256,112 @@
         <v>4</v>
       </c>
       <c r="AG108">
-        <v>1.9</v>
+        <v>1.65</v>
       </c>
       <c r="AH108">
-        <v>1.9</v>
+        <v>2.1</v>
       </c>
       <c r="AI108">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="AJ108">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AK108">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AL108">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="AM108">
-        <v>1.7</v>
+        <v>1.28</v>
       </c>
       <c r="AN108">
-        <v>2.57</v>
+        <v>0.63</v>
       </c>
       <c r="AO108">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AP108">
+        <v>0.55</v>
+      </c>
+      <c r="AQ108">
+        <v>1.45</v>
+      </c>
+      <c r="AR108">
+        <v>1.12</v>
+      </c>
+      <c r="AS108">
+        <v>1.24</v>
+      </c>
+      <c r="AT108">
+        <v>2.36</v>
+      </c>
+      <c r="AU108">
+        <v>4</v>
+      </c>
+      <c r="AV108">
+        <v>5</v>
+      </c>
+      <c r="AW108">
+        <v>6</v>
+      </c>
+      <c r="AX108">
+        <v>7</v>
+      </c>
+      <c r="AY108">
+        <v>10</v>
+      </c>
+      <c r="AZ108">
+        <v>12</v>
+      </c>
+      <c r="BA108">
+        <v>4</v>
+      </c>
+      <c r="BB108">
+        <v>8</v>
+      </c>
+      <c r="BC108">
+        <v>12</v>
+      </c>
+      <c r="BD108">
+        <v>2.1</v>
+      </c>
+      <c r="BE108">
+        <v>8</v>
+      </c>
+      <c r="BF108">
+        <v>1.91</v>
+      </c>
+      <c r="BG108">
+        <v>1.16</v>
+      </c>
+      <c r="BH108">
+        <v>4.3</v>
+      </c>
+      <c r="BI108">
+        <v>1.5</v>
+      </c>
+      <c r="BJ108">
+        <v>2.48</v>
+      </c>
+      <c r="BK108">
+        <v>1.85</v>
+      </c>
+      <c r="BL108">
+        <v>1.95</v>
+      </c>
+      <c r="BM108">
         <v>2.45</v>
       </c>
-      <c r="AQ108">
-        <v>1.36</v>
-      </c>
-      <c r="AR108">
-        <v>1.71</v>
-      </c>
-      <c r="AS108">
-        <v>1.72</v>
-      </c>
-      <c r="AT108">
-        <v>3.43</v>
-      </c>
-      <c r="AU108">
-        <v>2</v>
-      </c>
-      <c r="AV108">
-        <v>0</v>
-      </c>
-      <c r="AW108">
-        <v>1</v>
-      </c>
-      <c r="AX108">
-        <v>2</v>
-      </c>
-      <c r="AY108">
-        <v>3</v>
-      </c>
-      <c r="AZ108">
-        <v>2</v>
-      </c>
-      <c r="BA108">
-        <v>2</v>
-      </c>
-      <c r="BB108">
-        <v>5</v>
-      </c>
-      <c r="BC108">
-        <v>7</v>
-      </c>
-      <c r="BD108">
-        <v>1.69</v>
-      </c>
-      <c r="BE108">
-        <v>8.5</v>
-      </c>
-      <c r="BF108">
-        <v>2.62</v>
-      </c>
-      <c r="BG108">
-        <v>1.17</v>
-      </c>
-      <c r="BH108">
-        <v>4.15</v>
-      </c>
-      <c r="BI108">
-        <v>1.38</v>
-      </c>
-      <c r="BJ108">
-        <v>2.88</v>
-      </c>
-      <c r="BK108">
-        <v>1.67</v>
-      </c>
-      <c r="BL108">
-        <v>2.12</v>
-      </c>
-      <c r="BM108">
-        <v>2.12</v>
-      </c>
       <c r="BN108">
-        <v>1.66</v>
+        <v>1.5</v>
       </c>
       <c r="BO108">
-        <v>2.85</v>
+        <v>3.4</v>
       </c>
       <c r="BP108">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="109" spans="1:68">
@@ -23369,7 +23369,7 @@
         <v>108</v>
       </c>
       <c r="B109">
-        <v>7325437</v>
+        <v>7325439</v>
       </c>
       <c r="C109" t="s">
         <v>68</v>
@@ -23384,25 +23384,25 @@
         <v>18</v>
       </c>
       <c r="G109" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="H109" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="I109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J109">
         <v>0</v>
       </c>
       <c r="K109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L109">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M109">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N109">
         <v>3</v>
@@ -23411,16 +23411,16 @@
         <v>161</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>83</v>
       </c>
       <c r="Q109">
-        <v>4.33</v>
+        <v>3.25</v>
       </c>
       <c r="R109">
         <v>2.3</v>
       </c>
       <c r="S109">
-        <v>2.5</v>
+        <v>2.88</v>
       </c>
       <c r="T109">
         <v>1.33</v>
@@ -23429,10 +23429,10 @@
         <v>3.25</v>
       </c>
       <c r="V109">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W109">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X109">
         <v>6.5</v>
@@ -23441,133 +23441,133 @@
         <v>1.11</v>
       </c>
       <c r="Z109">
-        <v>3.9</v>
+        <v>2.88</v>
       </c>
       <c r="AA109">
-        <v>3.78</v>
+        <v>3.36</v>
       </c>
       <c r="AB109">
-        <v>1.84</v>
+        <v>2.41</v>
       </c>
       <c r="AC109">
-        <v>1.03</v>
+        <v>1.01</v>
       </c>
       <c r="AD109">
-        <v>15</v>
+        <v>10.25</v>
       </c>
       <c r="AE109">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AF109">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="AG109">
-        <v>1.65</v>
+        <v>1.88</v>
       </c>
       <c r="AH109">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="AI109">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AJ109">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="AK109">
-        <v>2</v>
+        <v>1.61</v>
       </c>
       <c r="AL109">
         <v>1.28</v>
       </c>
       <c r="AM109">
-        <v>1.28</v>
+        <v>1.43</v>
       </c>
       <c r="AN109">
-        <v>0.63</v>
+        <v>1</v>
       </c>
       <c r="AO109">
-        <v>1.25</v>
+        <v>1.63</v>
       </c>
       <c r="AP109">
-        <v>0.55</v>
+        <v>1.55</v>
       </c>
       <c r="AQ109">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AR109">
-        <v>1.12</v>
+        <v>1.75</v>
       </c>
       <c r="AS109">
-        <v>1.24</v>
+        <v>1.39</v>
       </c>
       <c r="AT109">
-        <v>2.36</v>
+        <v>3.14</v>
       </c>
       <c r="AU109">
+        <v>2</v>
+      </c>
+      <c r="AV109">
+        <v>3</v>
+      </c>
+      <c r="AW109">
+        <v>1</v>
+      </c>
+      <c r="AX109">
+        <v>2</v>
+      </c>
+      <c r="AY109">
+        <v>3</v>
+      </c>
+      <c r="AZ109">
+        <v>5</v>
+      </c>
+      <c r="BA109">
+        <v>5</v>
+      </c>
+      <c r="BB109">
         <v>4</v>
       </c>
-      <c r="AV109">
-        <v>5</v>
-      </c>
-      <c r="AW109">
-        <v>6</v>
-      </c>
-      <c r="AX109">
-        <v>7</v>
-      </c>
-      <c r="AY109">
-        <v>10</v>
-      </c>
-      <c r="AZ109">
-        <v>12</v>
-      </c>
-      <c r="BA109">
-        <v>4</v>
-      </c>
-      <c r="BB109">
-        <v>8</v>
-      </c>
       <c r="BC109">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD109">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="BE109">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF109">
-        <v>1.91</v>
+        <v>2.41</v>
       </c>
       <c r="BG109">
         <v>1.16</v>
       </c>
       <c r="BH109">
-        <v>4.3</v>
+        <v>4.33</v>
       </c>
       <c r="BI109">
+        <v>1.33</v>
+      </c>
+      <c r="BJ109">
+        <v>2.93</v>
+      </c>
+      <c r="BK109">
         <v>1.5</v>
       </c>
-      <c r="BJ109">
-        <v>2.48</v>
-      </c>
-      <c r="BK109">
+      <c r="BL109">
+        <v>2.45</v>
+      </c>
+      <c r="BM109">
+        <v>1.95</v>
+      </c>
+      <c r="BN109">
         <v>1.85</v>
       </c>
-      <c r="BL109">
-        <v>1.95</v>
-      </c>
-      <c r="BM109">
-        <v>2.45</v>
-      </c>
-      <c r="BN109">
-        <v>1.5</v>
-      </c>
       <c r="BO109">
-        <v>3.4</v>
+        <v>2.43</v>
       </c>
       <c r="BP109">
-        <v>1.29</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="110" spans="1:68">
@@ -25429,7 +25429,7 @@
         <v>118</v>
       </c>
       <c r="B119">
-        <v>7325450</v>
+        <v>7325449</v>
       </c>
       <c r="C119" t="s">
         <v>68</v>
@@ -25444,10 +25444,10 @@
         <v>20</v>
       </c>
       <c r="G119" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H119" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="I119">
         <v>0</v>
@@ -25459,175 +25459,175 @@
         <v>0</v>
       </c>
       <c r="L119">
+        <v>0</v>
+      </c>
+      <c r="M119">
+        <v>0</v>
+      </c>
+      <c r="N119">
+        <v>0</v>
+      </c>
+      <c r="O119" t="s">
+        <v>83</v>
+      </c>
+      <c r="P119" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q119">
+        <v>3.1</v>
+      </c>
+      <c r="R119">
+        <v>2.2</v>
+      </c>
+      <c r="S119">
+        <v>3.4</v>
+      </c>
+      <c r="T119">
+        <v>1.36</v>
+      </c>
+      <c r="U119">
         <v>3</v>
       </c>
-      <c r="M119">
-        <v>2</v>
-      </c>
-      <c r="N119">
-        <v>5</v>
-      </c>
-      <c r="O119" t="s">
-        <v>169</v>
-      </c>
-      <c r="P119" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q119">
-        <v>2.5</v>
-      </c>
-      <c r="R119">
-        <v>2.38</v>
-      </c>
-      <c r="S119">
-        <v>3.75</v>
-      </c>
-      <c r="T119">
-        <v>1.3</v>
-      </c>
-      <c r="U119">
-        <v>3.4</v>
-      </c>
       <c r="V119">
-        <v>2.38</v>
+        <v>2.75</v>
       </c>
       <c r="W119">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="X119">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Y119">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="Z119">
-        <v>2.18</v>
+        <v>2.04</v>
       </c>
       <c r="AA119">
-        <v>3.26</v>
+        <v>3.18</v>
       </c>
       <c r="AB119">
-        <v>2.54</v>
+        <v>2.81</v>
       </c>
       <c r="AC119">
         <v>1.02</v>
       </c>
       <c r="AD119">
+        <v>9.5</v>
+      </c>
+      <c r="AE119">
+        <v>1.22</v>
+      </c>
+      <c r="AF119">
+        <v>3.7</v>
+      </c>
+      <c r="AG119">
+        <v>1.9</v>
+      </c>
+      <c r="AH119">
+        <v>1.98</v>
+      </c>
+      <c r="AI119">
+        <v>1.7</v>
+      </c>
+      <c r="AJ119">
+        <v>2.05</v>
+      </c>
+      <c r="AK119">
+        <v>1.47</v>
+      </c>
+      <c r="AL119">
+        <v>1.33</v>
+      </c>
+      <c r="AM119">
+        <v>1.57</v>
+      </c>
+      <c r="AN119">
+        <v>1</v>
+      </c>
+      <c r="AO119">
+        <v>0.44</v>
+      </c>
+      <c r="AP119">
+        <v>1.18</v>
+      </c>
+      <c r="AQ119">
+        <v>0.55</v>
+      </c>
+      <c r="AR119">
+        <v>1.18</v>
+      </c>
+      <c r="AS119">
+        <v>0.95</v>
+      </c>
+      <c r="AT119">
+        <v>2.13</v>
+      </c>
+      <c r="AU119">
+        <v>5</v>
+      </c>
+      <c r="AV119">
+        <v>2</v>
+      </c>
+      <c r="AW119">
         <v>15</v>
       </c>
-      <c r="AE119">
-        <v>1.14</v>
-      </c>
-      <c r="AF119">
-        <v>4.55</v>
-      </c>
-      <c r="AG119">
-        <v>1.58</v>
-      </c>
-      <c r="AH119">
-        <v>2.18</v>
-      </c>
-      <c r="AI119">
-        <v>1.53</v>
-      </c>
-      <c r="AJ119">
-        <v>2.38</v>
-      </c>
-      <c r="AK119">
-        <v>1.4</v>
-      </c>
-      <c r="AL119">
-        <v>1.3</v>
-      </c>
-      <c r="AM119">
-        <v>1.83</v>
-      </c>
-      <c r="AN119">
-        <v>1.67</v>
-      </c>
-      <c r="AO119">
-        <v>1.44</v>
-      </c>
-      <c r="AP119">
-        <v>1.64</v>
-      </c>
-      <c r="AQ119">
-        <v>1.45</v>
-      </c>
-      <c r="AR119">
-        <v>1.82</v>
-      </c>
-      <c r="AS119">
-        <v>1.27</v>
-      </c>
-      <c r="AT119">
-        <v>3.09</v>
-      </c>
-      <c r="AU119">
-        <v>7</v>
-      </c>
-      <c r="AV119">
-        <v>6</v>
-      </c>
-      <c r="AW119">
-        <v>6</v>
-      </c>
       <c r="AX119">
+        <v>3</v>
+      </c>
+      <c r="AY119">
+        <v>20</v>
+      </c>
+      <c r="AZ119">
         <v>5</v>
       </c>
-      <c r="AY119">
-        <v>13</v>
-      </c>
-      <c r="AZ119">
-        <v>11</v>
-      </c>
       <c r="BA119">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB119">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="BC119">
         <v>10</v>
       </c>
       <c r="BD119">
-        <v>1.69</v>
+        <v>2.1</v>
       </c>
       <c r="BE119">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF119">
-        <v>2.62</v>
+        <v>1.95</v>
       </c>
       <c r="BG119">
-        <v>1.11</v>
+        <v>1.25</v>
       </c>
       <c r="BH119">
-        <v>5.15</v>
+        <v>3.7</v>
       </c>
       <c r="BI119">
-        <v>1.25</v>
+        <v>1.48</v>
       </c>
       <c r="BJ119">
-        <v>3.42</v>
+        <v>2.5</v>
       </c>
       <c r="BK119">
-        <v>1.48</v>
+        <v>1.73</v>
       </c>
       <c r="BL119">
-        <v>2.5</v>
+        <v>2</v>
       </c>
       <c r="BM119">
-        <v>2</v>
+        <v>2.28</v>
       </c>
       <c r="BN119">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="BO119">
-        <v>2.24</v>
+        <v>3.25</v>
       </c>
       <c r="BP119">
-        <v>1.6</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="120" spans="1:68">
@@ -25635,7 +25635,7 @@
         <v>119</v>
       </c>
       <c r="B120">
-        <v>7325449</v>
+        <v>7325450</v>
       </c>
       <c r="C120" t="s">
         <v>68</v>
@@ -25650,10 +25650,10 @@
         <v>20</v>
       </c>
       <c r="G120" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H120" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I120">
         <v>0</v>
@@ -25665,175 +25665,175 @@
         <v>0</v>
       </c>
       <c r="L120">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M120">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N120">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="O120" t="s">
-        <v>83</v>
+        <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>83</v>
+        <v>240</v>
       </c>
       <c r="Q120">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R120">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="S120">
+        <v>3.75</v>
+      </c>
+      <c r="T120">
+        <v>1.3</v>
+      </c>
+      <c r="U120">
         <v>3.4</v>
       </c>
-      <c r="T120">
-        <v>1.36</v>
-      </c>
-      <c r="U120">
-        <v>3</v>
-      </c>
       <c r="V120">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="W120">
-        <v>1.4</v>
+        <v>1.53</v>
       </c>
       <c r="X120">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Y120">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="Z120">
-        <v>2.04</v>
+        <v>2.18</v>
       </c>
       <c r="AA120">
-        <v>3.18</v>
+        <v>3.26</v>
       </c>
       <c r="AB120">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="AC120">
         <v>1.02</v>
       </c>
       <c r="AD120">
-        <v>9.5</v>
+        <v>15</v>
       </c>
       <c r="AE120">
-        <v>1.22</v>
+        <v>1.14</v>
       </c>
       <c r="AF120">
-        <v>3.7</v>
+        <v>4.55</v>
       </c>
       <c r="AG120">
-        <v>1.9</v>
+        <v>1.58</v>
       </c>
       <c r="AH120">
-        <v>1.98</v>
+        <v>2.18</v>
       </c>
       <c r="AI120">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="AJ120">
-        <v>2.05</v>
+        <v>2.38</v>
       </c>
       <c r="AK120">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AL120">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AM120">
-        <v>1.57</v>
+        <v>1.83</v>
       </c>
       <c r="AN120">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AO120">
-        <v>0.44</v>
+        <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1.18</v>
+        <v>1.64</v>
       </c>
       <c r="AQ120">
-        <v>0.55</v>
+        <v>1.45</v>
       </c>
       <c r="AR120">
-        <v>1.18</v>
+        <v>1.82</v>
       </c>
       <c r="AS120">
-        <v>0.95</v>
+        <v>1.27</v>
       </c>
       <c r="AT120">
-        <v>2.13</v>
+        <v>3.09</v>
       </c>
       <c r="AU120">
+        <v>7</v>
+      </c>
+      <c r="AV120">
+        <v>6</v>
+      </c>
+      <c r="AW120">
+        <v>6</v>
+      </c>
+      <c r="AX120">
         <v>5</v>
       </c>
-      <c r="AV120">
-        <v>2</v>
-      </c>
-      <c r="AW120">
-        <v>15</v>
-      </c>
-      <c r="AX120">
+      <c r="AY120">
+        <v>13</v>
+      </c>
+      <c r="AZ120">
+        <v>11</v>
+      </c>
+      <c r="BA120">
+        <v>7</v>
+      </c>
+      <c r="BB120">
         <v>3</v>
-      </c>
-      <c r="AY120">
-        <v>20</v>
-      </c>
-      <c r="AZ120">
-        <v>5</v>
-      </c>
-      <c r="BA120">
-        <v>9</v>
-      </c>
-      <c r="BB120">
-        <v>1</v>
       </c>
       <c r="BC120">
         <v>10</v>
       </c>
       <c r="BD120">
-        <v>2.1</v>
+        <v>1.69</v>
       </c>
       <c r="BE120">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF120">
-        <v>1.95</v>
+        <v>2.62</v>
       </c>
       <c r="BG120">
+        <v>1.11</v>
+      </c>
+      <c r="BH120">
+        <v>5.15</v>
+      </c>
+      <c r="BI120">
         <v>1.25</v>
       </c>
-      <c r="BH120">
-        <v>3.7</v>
-      </c>
-      <c r="BI120">
+      <c r="BJ120">
+        <v>3.42</v>
+      </c>
+      <c r="BK120">
         <v>1.48</v>
       </c>
-      <c r="BJ120">
+      <c r="BL120">
         <v>2.5</v>
       </c>
-      <c r="BK120">
+      <c r="BM120">
+        <v>2</v>
+      </c>
+      <c r="BN120">
         <v>1.73</v>
       </c>
-      <c r="BL120">
-        <v>2</v>
-      </c>
-      <c r="BM120">
-        <v>2.28</v>
-      </c>
-      <c r="BN120">
-        <v>1.58</v>
-      </c>
       <c r="BO120">
-        <v>3.25</v>
+        <v>2.24</v>
       </c>
       <c r="BP120">
-        <v>1.3</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="121" spans="1:68">
@@ -26047,7 +26047,7 @@
         <v>121</v>
       </c>
       <c r="B122">
-        <v>7325453</v>
+        <v>7325454</v>
       </c>
       <c r="C122" t="s">
         <v>68</v>
@@ -26062,190 +26062,190 @@
         <v>21</v>
       </c>
       <c r="G122" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H122" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="I122">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K122">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="L122">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M122">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N122">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="O122" t="s">
+        <v>171</v>
+      </c>
+      <c r="P122" t="s">
         <v>83</v>
       </c>
-      <c r="P122" t="s">
-        <v>192</v>
-      </c>
       <c r="Q122">
-        <v>3.24</v>
+        <v>1.5</v>
       </c>
       <c r="R122">
-        <v>2.11</v>
+        <v>3.28</v>
       </c>
       <c r="S122">
-        <v>3.24</v>
+        <v>10.13</v>
       </c>
       <c r="T122">
-        <v>1.39</v>
+        <v>1.2</v>
       </c>
       <c r="U122">
-        <v>2.86</v>
+        <v>4.25</v>
       </c>
       <c r="V122">
-        <v>2.67</v>
+        <v>2.01</v>
       </c>
       <c r="W122">
-        <v>1.44</v>
+        <v>1.8</v>
       </c>
       <c r="X122">
-        <v>6.6</v>
+        <v>4</v>
       </c>
       <c r="Y122">
-        <v>1.09</v>
+        <v>1.22</v>
       </c>
       <c r="Z122">
-        <v>2.5</v>
+        <v>1.17</v>
       </c>
       <c r="AA122">
-        <v>3.25</v>
+        <v>6.5</v>
       </c>
       <c r="AB122">
-        <v>2.7</v>
+        <v>11</v>
       </c>
       <c r="AC122">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="AD122">
-        <v>9.199999999999999</v>
+        <v>30</v>
       </c>
       <c r="AE122">
-        <v>1.24</v>
+        <v>1.08</v>
       </c>
       <c r="AF122">
-        <v>3.5</v>
+        <v>6</v>
       </c>
       <c r="AG122">
-        <v>1.86</v>
+        <v>1.36</v>
       </c>
       <c r="AH122">
-        <v>1.98</v>
+        <v>2.89</v>
       </c>
       <c r="AI122">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="AJ122">
-        <v>2.18</v>
+        <v>1.8</v>
       </c>
       <c r="AK122">
-        <v>1.48</v>
+        <v>1.04</v>
       </c>
       <c r="AL122">
-        <v>1.33</v>
+        <v>1.07</v>
       </c>
       <c r="AM122">
-        <v>1.49</v>
+        <v>4.5</v>
       </c>
       <c r="AN122">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AO122">
-        <v>1.3</v>
+        <v>0.7</v>
       </c>
       <c r="AP122">
-        <v>1.36</v>
+        <v>2.09</v>
       </c>
       <c r="AQ122">
-        <v>1.45</v>
+        <v>0.64</v>
       </c>
       <c r="AR122">
-        <v>1.14</v>
+        <v>1.71</v>
       </c>
       <c r="AS122">
-        <v>1.29</v>
+        <v>1.32</v>
       </c>
       <c r="AT122">
-        <v>2.43</v>
+        <v>3.03</v>
       </c>
       <c r="AU122">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AV122">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW122">
         <v>7</v>
       </c>
       <c r="AX122">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AY122">
+        <v>16</v>
+      </c>
+      <c r="AZ122">
         <v>10</v>
       </c>
-      <c r="AZ122">
+      <c r="BA122">
+        <v>6</v>
+      </c>
+      <c r="BB122">
+        <v>3</v>
+      </c>
+      <c r="BC122">
         <v>9</v>
       </c>
-      <c r="BA122">
-        <v>7</v>
-      </c>
-      <c r="BB122">
-        <v>4</v>
-      </c>
-      <c r="BC122">
+      <c r="BD122">
+        <v>1.21</v>
+      </c>
+      <c r="BE122">
         <v>11</v>
       </c>
-      <c r="BD122">
-        <v>1.91</v>
-      </c>
-      <c r="BE122">
-        <v>8</v>
-      </c>
       <c r="BF122">
-        <v>2.1</v>
+        <v>5.6</v>
       </c>
       <c r="BG122">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="BH122">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="BI122">
         <v>1.34</v>
       </c>
       <c r="BJ122">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="BK122">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="BL122">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="BM122">
-        <v>2.07</v>
+        <v>2.02</v>
       </c>
       <c r="BN122">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BO122">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="BP122">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="123" spans="1:68">
@@ -26253,7 +26253,7 @@
         <v>122</v>
       </c>
       <c r="B123">
-        <v>7325454</v>
+        <v>7325453</v>
       </c>
       <c r="C123" t="s">
         <v>68</v>
@@ -26268,190 +26268,190 @@
         <v>21</v>
       </c>
       <c r="G123" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H123" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="I123">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J123">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K123">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>1</v>
+      </c>
+      <c r="N123">
+        <v>1</v>
+      </c>
+      <c r="O123" t="s">
+        <v>83</v>
+      </c>
+      <c r="P123" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q123">
+        <v>3.24</v>
+      </c>
+      <c r="R123">
+        <v>2.11</v>
+      </c>
+      <c r="S123">
+        <v>3.24</v>
+      </c>
+      <c r="T123">
+        <v>1.39</v>
+      </c>
+      <c r="U123">
+        <v>2.86</v>
+      </c>
+      <c r="V123">
+        <v>2.67</v>
+      </c>
+      <c r="W123">
+        <v>1.44</v>
+      </c>
+      <c r="X123">
+        <v>6.6</v>
+      </c>
+      <c r="Y123">
+        <v>1.09</v>
+      </c>
+      <c r="Z123">
+        <v>2.5</v>
+      </c>
+      <c r="AA123">
+        <v>3.25</v>
+      </c>
+      <c r="AB123">
+        <v>2.7</v>
+      </c>
+      <c r="AC123">
+        <v>1.02</v>
+      </c>
+      <c r="AD123">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="AE123">
+        <v>1.24</v>
+      </c>
+      <c r="AF123">
+        <v>3.5</v>
+      </c>
+      <c r="AG123">
+        <v>1.86</v>
+      </c>
+      <c r="AH123">
+        <v>1.98</v>
+      </c>
+      <c r="AI123">
+        <v>1.65</v>
+      </c>
+      <c r="AJ123">
+        <v>2.18</v>
+      </c>
+      <c r="AK123">
+        <v>1.48</v>
+      </c>
+      <c r="AL123">
+        <v>1.33</v>
+      </c>
+      <c r="AM123">
+        <v>1.49</v>
+      </c>
+      <c r="AN123">
+        <v>1.5</v>
+      </c>
+      <c r="AO123">
+        <v>1.3</v>
+      </c>
+      <c r="AP123">
+        <v>1.36</v>
+      </c>
+      <c r="AQ123">
+        <v>1.45</v>
+      </c>
+      <c r="AR123">
+        <v>1.14</v>
+      </c>
+      <c r="AS123">
+        <v>1.29</v>
+      </c>
+      <c r="AT123">
+        <v>2.43</v>
+      </c>
+      <c r="AU123">
+        <v>3</v>
+      </c>
+      <c r="AV123">
         <v>5</v>
-      </c>
-      <c r="M123">
-        <v>0</v>
-      </c>
-      <c r="N123">
-        <v>5</v>
-      </c>
-      <c r="O123" t="s">
-        <v>171</v>
-      </c>
-      <c r="P123" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q123">
-        <v>1.5</v>
-      </c>
-      <c r="R123">
-        <v>3.28</v>
-      </c>
-      <c r="S123">
-        <v>10.13</v>
-      </c>
-      <c r="T123">
-        <v>1.2</v>
-      </c>
-      <c r="U123">
-        <v>4.25</v>
-      </c>
-      <c r="V123">
-        <v>2.01</v>
-      </c>
-      <c r="W123">
-        <v>1.8</v>
-      </c>
-      <c r="X123">
-        <v>4</v>
-      </c>
-      <c r="Y123">
-        <v>1.22</v>
-      </c>
-      <c r="Z123">
-        <v>1.17</v>
-      </c>
-      <c r="AA123">
-        <v>6.5</v>
-      </c>
-      <c r="AB123">
-        <v>11</v>
-      </c>
-      <c r="AC123">
-        <v>1.01</v>
-      </c>
-      <c r="AD123">
-        <v>30</v>
-      </c>
-      <c r="AE123">
-        <v>1.08</v>
-      </c>
-      <c r="AF123">
-        <v>6</v>
-      </c>
-      <c r="AG123">
-        <v>1.36</v>
-      </c>
-      <c r="AH123">
-        <v>2.89</v>
-      </c>
-      <c r="AI123">
-        <v>1.91</v>
-      </c>
-      <c r="AJ123">
-        <v>1.8</v>
-      </c>
-      <c r="AK123">
-        <v>1.04</v>
-      </c>
-      <c r="AL123">
-        <v>1.07</v>
-      </c>
-      <c r="AM123">
-        <v>4.5</v>
-      </c>
-      <c r="AN123">
-        <v>2</v>
-      </c>
-      <c r="AO123">
-        <v>0.7</v>
-      </c>
-      <c r="AP123">
-        <v>2.09</v>
-      </c>
-      <c r="AQ123">
-        <v>0.64</v>
-      </c>
-      <c r="AR123">
-        <v>1.71</v>
-      </c>
-      <c r="AS123">
-        <v>1.32</v>
-      </c>
-      <c r="AT123">
-        <v>3.03</v>
-      </c>
-      <c r="AU123">
-        <v>9</v>
-      </c>
-      <c r="AV123">
-        <v>2</v>
       </c>
       <c r="AW123">
         <v>7</v>
       </c>
       <c r="AX123">
+        <v>4</v>
+      </c>
+      <c r="AY123">
+        <v>10</v>
+      </c>
+      <c r="AZ123">
+        <v>9</v>
+      </c>
+      <c r="BA123">
+        <v>7</v>
+      </c>
+      <c r="BB123">
+        <v>4</v>
+      </c>
+      <c r="BC123">
+        <v>11</v>
+      </c>
+      <c r="BD123">
+        <v>1.91</v>
+      </c>
+      <c r="BE123">
         <v>8</v>
       </c>
-      <c r="AY123">
-        <v>16</v>
-      </c>
-      <c r="AZ123">
-        <v>10</v>
-      </c>
-      <c r="BA123">
-        <v>6</v>
-      </c>
-      <c r="BB123">
-        <v>3</v>
-      </c>
-      <c r="BC123">
-        <v>9</v>
-      </c>
-      <c r="BD123">
-        <v>1.21</v>
-      </c>
-      <c r="BE123">
-        <v>11</v>
-      </c>
       <c r="BF123">
-        <v>5.6</v>
+        <v>2.1</v>
       </c>
       <c r="BG123">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="BH123">
-        <v>4.5</v>
+        <v>4.25</v>
       </c>
       <c r="BI123">
         <v>1.34</v>
       </c>
       <c r="BJ123">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="BK123">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="BL123">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="BM123">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="BN123">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BO123">
-        <v>2.7</v>
+        <v>2.65</v>
       </c>
       <c r="BP123">
-        <v>1.44</v>
+        <v>1.42</v>
       </c>
     </row>
     <row r="124" spans="1:68">
@@ -26459,7 +26459,7 @@
         <v>123</v>
       </c>
       <c r="B124">
-        <v>7325452</v>
+        <v>7325455</v>
       </c>
       <c r="C124" t="s">
         <v>68</v>
@@ -26474,190 +26474,190 @@
         <v>21</v>
       </c>
       <c r="G124" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H124" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J124">
         <v>0</v>
       </c>
       <c r="K124">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M124">
         <v>0</v>
       </c>
       <c r="N124">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O124" t="s">
-        <v>103</v>
+        <v>172</v>
       </c>
       <c r="P124" t="s">
         <v>83</v>
       </c>
       <c r="Q124">
-        <v>2.63</v>
+        <v>1.82</v>
       </c>
       <c r="R124">
-        <v>2.25</v>
+        <v>2.52</v>
       </c>
       <c r="S124">
-        <v>4</v>
+        <v>7.95</v>
       </c>
       <c r="T124">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="U124">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="V124">
-        <v>2.63</v>
+        <v>2.7</v>
       </c>
       <c r="W124">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="X124">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="Y124">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z124">
-        <v>2</v>
+        <v>1.3</v>
       </c>
       <c r="AA124">
-        <v>3.3</v>
+        <v>4.6</v>
       </c>
       <c r="AB124">
-        <v>3.4</v>
+        <v>7.5</v>
       </c>
       <c r="AC124">
         <v>1.04</v>
       </c>
       <c r="AD124">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE124">
-        <v>1.23</v>
+        <v>1.25</v>
       </c>
       <c r="AF124">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="AG124">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="AH124">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AI124">
-        <v>1.67</v>
+        <v>2.12</v>
       </c>
       <c r="AJ124">
-        <v>2.1</v>
+        <v>1.7</v>
       </c>
       <c r="AK124">
-        <v>1.3</v>
+        <v>1.07</v>
       </c>
       <c r="AL124">
-        <v>1.27</v>
+        <v>1.15</v>
       </c>
       <c r="AM124">
-        <v>1.72</v>
+        <v>2.7</v>
       </c>
       <c r="AN124">
-        <v>2.3</v>
+        <v>2.67</v>
       </c>
       <c r="AO124">
-        <v>0.78</v>
+        <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>2.36</v>
+        <v>2.45</v>
       </c>
       <c r="AQ124">
-        <v>0.91</v>
+        <v>0.64</v>
       </c>
       <c r="AR124">
-        <v>1.93</v>
+        <v>1.53</v>
       </c>
       <c r="AS124">
-        <v>1.67</v>
+        <v>1.03</v>
       </c>
       <c r="AT124">
-        <v>3.6</v>
+        <v>2.56</v>
       </c>
       <c r="AU124">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV124">
+        <v>4</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>20</v>
+      </c>
+      <c r="AZ124">
         <v>6</v>
       </c>
-      <c r="AW124">
-        <v>12</v>
-      </c>
-      <c r="AX124">
-        <v>7</v>
-      </c>
-      <c r="AY124">
+      <c r="BA124">
         <v>17</v>
-      </c>
-      <c r="AZ124">
-        <v>13</v>
-      </c>
-      <c r="BA124">
-        <v>4</v>
       </c>
       <c r="BB124">
         <v>4</v>
       </c>
       <c r="BC124">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="BD124">
-        <v>1.95</v>
+        <v>1.23</v>
       </c>
       <c r="BE124">
-        <v>8</v>
+        <v>13.2</v>
       </c>
       <c r="BF124">
-        <v>2.1</v>
+        <v>5.08</v>
       </c>
       <c r="BG124">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="BH124">
-        <v>4.5</v>
+        <v>3.65</v>
       </c>
       <c r="BI124">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="BJ124">
-        <v>3.1</v>
+        <v>2.65</v>
       </c>
       <c r="BK124">
+        <v>1.74</v>
+      </c>
+      <c r="BL124">
+        <v>2.02</v>
+      </c>
+      <c r="BM124">
+        <v>2.17</v>
+      </c>
+      <c r="BN124">
         <v>1.61</v>
       </c>
-      <c r="BL124">
-        <v>2.23</v>
-      </c>
-      <c r="BM124">
-        <v>2.02</v>
-      </c>
-      <c r="BN124">
-        <v>1.74</v>
-      </c>
       <c r="BO124">
-        <v>2.7</v>
+        <v>2.84</v>
       </c>
       <c r="BP124">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="125" spans="1:68">
@@ -26665,7 +26665,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7325455</v>
+        <v>7325452</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26680,190 +26680,190 @@
         <v>21</v>
       </c>
       <c r="G125" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H125" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J125">
         <v>0</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M125">
         <v>0</v>
       </c>
       <c r="N125">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O125" t="s">
-        <v>172</v>
+        <v>103</v>
       </c>
       <c r="P125" t="s">
         <v>83</v>
       </c>
       <c r="Q125">
-        <v>1.82</v>
+        <v>2.63</v>
       </c>
       <c r="R125">
-        <v>2.52</v>
+        <v>2.25</v>
       </c>
       <c r="S125">
-        <v>7.95</v>
+        <v>4</v>
       </c>
       <c r="T125">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="U125">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="V125">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="W125">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="X125">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="Y125">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z125">
-        <v>1.3</v>
+        <v>2</v>
       </c>
       <c r="AA125">
-        <v>4.6</v>
+        <v>3.3</v>
       </c>
       <c r="AB125">
-        <v>7.5</v>
+        <v>3.4</v>
       </c>
       <c r="AC125">
         <v>1.04</v>
       </c>
       <c r="AD125">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AE125">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AF125">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="AG125">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="AH125">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="AI125">
-        <v>2.12</v>
+        <v>1.67</v>
       </c>
       <c r="AJ125">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="AK125">
-        <v>1.07</v>
+        <v>1.3</v>
       </c>
       <c r="AL125">
-        <v>1.15</v>
+        <v>1.27</v>
       </c>
       <c r="AM125">
-        <v>2.7</v>
+        <v>1.72</v>
       </c>
       <c r="AN125">
-        <v>2.67</v>
+        <v>2.3</v>
       </c>
       <c r="AO125">
-        <v>0.7</v>
+        <v>0.78</v>
       </c>
       <c r="AP125">
-        <v>2.45</v>
+        <v>2.36</v>
       </c>
       <c r="AQ125">
-        <v>0.64</v>
+        <v>0.91</v>
       </c>
       <c r="AR125">
-        <v>1.53</v>
+        <v>1.93</v>
       </c>
       <c r="AS125">
-        <v>1.03</v>
+        <v>1.67</v>
       </c>
       <c r="AT125">
-        <v>2.56</v>
+        <v>3.6</v>
       </c>
       <c r="AU125">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV125">
+        <v>6</v>
+      </c>
+      <c r="AW125">
+        <v>12</v>
+      </c>
+      <c r="AX125">
+        <v>7</v>
+      </c>
+      <c r="AY125">
+        <v>17</v>
+      </c>
+      <c r="AZ125">
+        <v>13</v>
+      </c>
+      <c r="BA125">
         <v>4</v>
-      </c>
-      <c r="AW125">
-        <v>9</v>
-      </c>
-      <c r="AX125">
-        <v>2</v>
-      </c>
-      <c r="AY125">
-        <v>20</v>
-      </c>
-      <c r="AZ125">
-        <v>6</v>
-      </c>
-      <c r="BA125">
-        <v>17</v>
       </c>
       <c r="BB125">
         <v>4</v>
       </c>
       <c r="BC125">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="BD125">
-        <v>1.23</v>
+        <v>1.95</v>
       </c>
       <c r="BE125">
-        <v>13.2</v>
+        <v>8</v>
       </c>
       <c r="BF125">
-        <v>5.08</v>
+        <v>2.1</v>
       </c>
       <c r="BG125">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="BH125">
-        <v>3.65</v>
+        <v>4.5</v>
       </c>
       <c r="BI125">
-        <v>1.42</v>
+        <v>1.34</v>
       </c>
       <c r="BJ125">
-        <v>2.65</v>
+        <v>3.1</v>
       </c>
       <c r="BK125">
+        <v>1.61</v>
+      </c>
+      <c r="BL125">
+        <v>2.23</v>
+      </c>
+      <c r="BM125">
+        <v>2.02</v>
+      </c>
+      <c r="BN125">
         <v>1.74</v>
       </c>
-      <c r="BL125">
-        <v>2.02</v>
-      </c>
-      <c r="BM125">
-        <v>2.17</v>
-      </c>
-      <c r="BN125">
-        <v>1.61</v>
-      </c>
       <c r="BO125">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="BP125">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -27283,7 +27283,7 @@
         <v>127</v>
       </c>
       <c r="B128">
-        <v>7325460</v>
+        <v>7325457</v>
       </c>
       <c r="C128" t="s">
         <v>68</v>
@@ -27298,19 +27298,19 @@
         <v>22</v>
       </c>
       <c r="G128" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H128" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="I128">
         <v>0</v>
       </c>
       <c r="J128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K128">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L128">
         <v>1</v>
@@ -27322,166 +27322,166 @@
         <v>2</v>
       </c>
       <c r="O128" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="P128" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="Q128">
-        <v>5.5</v>
+        <v>2.39</v>
       </c>
       <c r="R128">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="S128">
-        <v>1.95</v>
+        <v>4.39</v>
       </c>
       <c r="T128">
-        <v>1.25</v>
+        <v>1.26</v>
       </c>
       <c r="U128">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="V128">
-        <v>2.1</v>
+        <v>2.51</v>
       </c>
       <c r="W128">
-        <v>1.67</v>
+        <v>1.53</v>
       </c>
       <c r="X128">
-        <v>4.5</v>
+        <v>6.1</v>
       </c>
       <c r="Y128">
-        <v>1.18</v>
+        <v>1.1</v>
       </c>
       <c r="Z128">
-        <v>4.5</v>
+        <v>1.76</v>
       </c>
       <c r="AA128">
-        <v>4.35</v>
+        <v>3.9</v>
       </c>
       <c r="AB128">
-        <v>1.6</v>
+        <v>3.95</v>
       </c>
       <c r="AC128">
         <v>1.01</v>
       </c>
       <c r="AD128">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="AE128">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="AF128">
-        <v>6.5</v>
+        <v>4.1</v>
       </c>
       <c r="AG128">
-        <v>1.42</v>
+        <v>1.66</v>
       </c>
       <c r="AH128">
-        <v>2.65</v>
+        <v>2.23</v>
       </c>
       <c r="AI128">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AJ128">
         <v>2.2</v>
       </c>
       <c r="AK128">
-        <v>2.68</v>
+        <v>1.25</v>
       </c>
       <c r="AL128">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM128">
-        <v>1.13</v>
+        <v>1.95</v>
       </c>
       <c r="AN128">
+        <v>1.8</v>
+      </c>
+      <c r="AO128">
         <v>0.5</v>
       </c>
-      <c r="AO128">
-        <v>1.4</v>
-      </c>
       <c r="AP128">
+        <v>1.73</v>
+      </c>
+      <c r="AQ128">
         <v>0.55</v>
       </c>
-      <c r="AQ128">
-        <v>1.36</v>
-      </c>
       <c r="AR128">
-        <v>1.2</v>
+        <v>1.6</v>
       </c>
       <c r="AS128">
-        <v>1.52</v>
+        <v>0.93</v>
       </c>
       <c r="AT128">
-        <v>2.72</v>
+        <v>2.53</v>
       </c>
       <c r="AU128">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AV128">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW128">
         <v>6</v>
       </c>
       <c r="AX128">
+        <v>9</v>
+      </c>
+      <c r="AY128">
+        <v>16</v>
+      </c>
+      <c r="AZ128">
         <v>12</v>
       </c>
-      <c r="AY128">
-        <v>10</v>
-      </c>
-      <c r="AZ128">
-        <v>20</v>
-      </c>
       <c r="BA128">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="BB128">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="BC128">
         <v>12</v>
       </c>
       <c r="BD128">
-        <v>3.6</v>
+        <v>1.53</v>
       </c>
       <c r="BE128">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BF128">
-        <v>1.33</v>
+        <v>2.75</v>
       </c>
       <c r="BG128">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="BH128">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BI128">
-        <v>1.36</v>
+        <v>1.32</v>
       </c>
       <c r="BJ128">
-        <v>2.79</v>
+        <v>2.98</v>
       </c>
       <c r="BK128">
-        <v>1.82</v>
+        <v>1.6</v>
       </c>
       <c r="BL128">
-        <v>1.98</v>
+        <v>2.24</v>
       </c>
       <c r="BM128">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="BN128">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="BO128">
-        <v>2.72</v>
+        <v>2.51</v>
       </c>
       <c r="BP128">
-        <v>1.4</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="129" spans="1:68">
@@ -27489,7 +27489,7 @@
         <v>128</v>
       </c>
       <c r="B129">
-        <v>7325459</v>
+        <v>7325347</v>
       </c>
       <c r="C129" t="s">
         <v>68</v>
@@ -27504,190 +27504,190 @@
         <v>22</v>
       </c>
       <c r="G129" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="H129" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I129">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J129">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K129">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L129">
         <v>1</v>
       </c>
       <c r="M129">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N129">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O129" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="Q129">
+        <v>2.33</v>
+      </c>
+      <c r="R129">
+        <v>2.28</v>
+      </c>
+      <c r="S129">
+        <v>4.6</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
+        <v>3</v>
+      </c>
+      <c r="V129">
+        <v>2.4</v>
+      </c>
+      <c r="W129">
+        <v>1.5</v>
+      </c>
+      <c r="X129">
+        <v>5.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.11</v>
+      </c>
+      <c r="Z129">
+        <v>1.73</v>
+      </c>
+      <c r="AA129">
+        <v>3.6</v>
+      </c>
+      <c r="AB129">
+        <v>4.2</v>
+      </c>
+      <c r="AC129">
+        <v>1.02</v>
+      </c>
+      <c r="AD129">
+        <v>10.5</v>
+      </c>
+      <c r="AE129">
+        <v>1.21</v>
+      </c>
+      <c r="AF129">
         <v>3.75</v>
       </c>
-      <c r="R129">
-        <v>2.38</v>
-      </c>
-      <c r="S129">
-        <v>2.5</v>
-      </c>
-      <c r="T129">
-        <v>1.3</v>
-      </c>
-      <c r="U129">
-        <v>3.4</v>
-      </c>
-      <c r="V129">
-        <v>2.38</v>
-      </c>
-      <c r="W129">
-        <v>1.53</v>
-      </c>
-      <c r="X129">
+      <c r="AG129">
+        <v>1.77</v>
+      </c>
+      <c r="AH129">
+        <v>2.06</v>
+      </c>
+      <c r="AI129">
+        <v>1.7</v>
+      </c>
+      <c r="AJ129">
+        <v>2</v>
+      </c>
+      <c r="AK129">
+        <v>1.22</v>
+      </c>
+      <c r="AL129">
+        <v>1.29</v>
+      </c>
+      <c r="AM129">
+        <v>2</v>
+      </c>
+      <c r="AN129">
+        <v>2.7</v>
+      </c>
+      <c r="AO129">
+        <v>0.7</v>
+      </c>
+      <c r="AP129">
+        <v>2.45</v>
+      </c>
+      <c r="AQ129">
+        <v>0.91</v>
+      </c>
+      <c r="AR129">
+        <v>1.65</v>
+      </c>
+      <c r="AS129">
+        <v>1.66</v>
+      </c>
+      <c r="AT129">
+        <v>3.31</v>
+      </c>
+      <c r="AU129">
         <v>6</v>
       </c>
-      <c r="Y129">
-        <v>1.13</v>
-      </c>
-      <c r="Z129">
-        <v>3.3</v>
-      </c>
-      <c r="AA129">
-        <v>3.9</v>
-      </c>
-      <c r="AB129">
-        <v>1.94</v>
-      </c>
-      <c r="AC129">
-        <v>1.01</v>
-      </c>
-      <c r="AD129">
-        <v>13</v>
-      </c>
-      <c r="AE129">
-        <v>1.11</v>
-      </c>
-      <c r="AF129">
-        <v>5.5</v>
-      </c>
-      <c r="AG129">
-        <v>1.55</v>
-      </c>
-      <c r="AH129">
-        <v>2.29</v>
-      </c>
-      <c r="AI129">
-        <v>1.53</v>
-      </c>
-      <c r="AJ129">
-        <v>2.38</v>
-      </c>
-      <c r="AK129">
-        <v>1.81</v>
-      </c>
-      <c r="AL129">
-        <v>1.26</v>
-      </c>
-      <c r="AM129">
-        <v>1.32</v>
-      </c>
-      <c r="AN129">
-        <v>1.6</v>
-      </c>
-      <c r="AO129">
-        <v>1.5</v>
-      </c>
-      <c r="AP129">
-        <v>1.55</v>
-      </c>
-      <c r="AQ129">
-        <v>1.45</v>
-      </c>
-      <c r="AR129">
-        <v>1.63</v>
-      </c>
-      <c r="AS129">
-        <v>1.6</v>
-      </c>
-      <c r="AT129">
-        <v>3.23</v>
-      </c>
-      <c r="AU129">
-        <v>3</v>
-      </c>
       <c r="AV129">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW129">
         <v>8</v>
       </c>
       <c r="AX129">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY129">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AZ129">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="BA129">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BB129">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BC129">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD129">
-        <v>2.15</v>
+        <v>1.55</v>
       </c>
       <c r="BE129">
-        <v>8.5</v>
+        <v>7.1</v>
       </c>
       <c r="BF129">
+        <v>3.26</v>
+      </c>
+      <c r="BG129">
+        <v>1.22</v>
+      </c>
+      <c r="BH129">
+        <v>3.65</v>
+      </c>
+      <c r="BI129">
+        <v>1.43</v>
+      </c>
+      <c r="BJ129">
+        <v>2.62</v>
+      </c>
+      <c r="BK129">
         <v>1.85</v>
       </c>
-      <c r="BG129">
-        <v>1.17</v>
-      </c>
-      <c r="BH129">
-        <v>4.2</v>
-      </c>
-      <c r="BI129">
-        <v>1.35</v>
-      </c>
-      <c r="BJ129">
-        <v>2.84</v>
-      </c>
-      <c r="BK129">
-        <v>1.68</v>
-      </c>
       <c r="BL129">
-        <v>2.16</v>
+        <v>1.95</v>
       </c>
       <c r="BM129">
-        <v>2.07</v>
+        <v>2.22</v>
       </c>
       <c r="BN129">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="BO129">
-        <v>2.69</v>
+        <v>2.93</v>
       </c>
       <c r="BP129">
-        <v>1.41</v>
+        <v>1.33</v>
       </c>
     </row>
     <row r="130" spans="1:68">
@@ -27695,7 +27695,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7325461</v>
+        <v>7325459</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27710,190 +27710,190 @@
         <v>22</v>
       </c>
       <c r="G130" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H130" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="I130">
         <v>0</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M130">
         <v>1</v>
       </c>
       <c r="N130">
+        <v>2</v>
+      </c>
+      <c r="O130" t="s">
+        <v>175</v>
+      </c>
+      <c r="P130" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q130">
+        <v>3.75</v>
+      </c>
+      <c r="R130">
+        <v>2.38</v>
+      </c>
+      <c r="S130">
+        <v>2.5</v>
+      </c>
+      <c r="T130">
+        <v>1.3</v>
+      </c>
+      <c r="U130">
+        <v>3.4</v>
+      </c>
+      <c r="V130">
+        <v>2.38</v>
+      </c>
+      <c r="W130">
+        <v>1.53</v>
+      </c>
+      <c r="X130">
+        <v>6</v>
+      </c>
+      <c r="Y130">
+        <v>1.13</v>
+      </c>
+      <c r="Z130">
+        <v>3.3</v>
+      </c>
+      <c r="AA130">
+        <v>3.9</v>
+      </c>
+      <c r="AB130">
+        <v>1.94</v>
+      </c>
+      <c r="AC130">
+        <v>1.01</v>
+      </c>
+      <c r="AD130">
+        <v>13</v>
+      </c>
+      <c r="AE130">
+        <v>1.11</v>
+      </c>
+      <c r="AF130">
+        <v>5.5</v>
+      </c>
+      <c r="AG130">
+        <v>1.55</v>
+      </c>
+      <c r="AH130">
+        <v>2.29</v>
+      </c>
+      <c r="AI130">
+        <v>1.53</v>
+      </c>
+      <c r="AJ130">
+        <v>2.38</v>
+      </c>
+      <c r="AK130">
+        <v>1.81</v>
+      </c>
+      <c r="AL130">
+        <v>1.26</v>
+      </c>
+      <c r="AM130">
+        <v>1.32</v>
+      </c>
+      <c r="AN130">
+        <v>1.6</v>
+      </c>
+      <c r="AO130">
+        <v>1.5</v>
+      </c>
+      <c r="AP130">
+        <v>1.55</v>
+      </c>
+      <c r="AQ130">
+        <v>1.45</v>
+      </c>
+      <c r="AR130">
+        <v>1.63</v>
+      </c>
+      <c r="AS130">
+        <v>1.6</v>
+      </c>
+      <c r="AT130">
+        <v>3.23</v>
+      </c>
+      <c r="AU130">
         <v>3</v>
-      </c>
-      <c r="O130" t="s">
-        <v>174</v>
-      </c>
-      <c r="P130" t="s">
-        <v>141</v>
-      </c>
-      <c r="Q130">
-        <v>3.36</v>
-      </c>
-      <c r="R130">
-        <v>2.15</v>
-      </c>
-      <c r="S130">
-        <v>3.4</v>
-      </c>
-      <c r="T130">
-        <v>1.43</v>
-      </c>
-      <c r="U130">
-        <v>2.82</v>
-      </c>
-      <c r="V130">
-        <v>3.14</v>
-      </c>
-      <c r="W130">
-        <v>1.36</v>
-      </c>
-      <c r="X130">
-        <v>7</v>
-      </c>
-      <c r="Y130">
-        <v>1.07</v>
-      </c>
-      <c r="Z130">
-        <v>2.5</v>
-      </c>
-      <c r="AA130">
-        <v>3.25</v>
-      </c>
-      <c r="AB130">
-        <v>2.7</v>
-      </c>
-      <c r="AC130">
-        <v>1.08</v>
-      </c>
-      <c r="AD130">
-        <v>9.75</v>
-      </c>
-      <c r="AE130">
-        <v>1.32</v>
-      </c>
-      <c r="AF130">
-        <v>3.05</v>
-      </c>
-      <c r="AG130">
-        <v>2.04</v>
-      </c>
-      <c r="AH130">
-        <v>1.78</v>
-      </c>
-      <c r="AI130">
-        <v>1.8</v>
-      </c>
-      <c r="AJ130">
-        <v>1.91</v>
-      </c>
-      <c r="AK130">
-        <v>1.45</v>
-      </c>
-      <c r="AL130">
-        <v>1.28</v>
-      </c>
-      <c r="AM130">
-        <v>1.47</v>
-      </c>
-      <c r="AN130">
-        <v>1</v>
-      </c>
-      <c r="AO130">
-        <v>0.6</v>
-      </c>
-      <c r="AP130">
-        <v>1.18</v>
-      </c>
-      <c r="AQ130">
-        <v>0.55</v>
-      </c>
-      <c r="AR130">
-        <v>1.28</v>
-      </c>
-      <c r="AS130">
-        <v>1.44</v>
-      </c>
-      <c r="AT130">
-        <v>2.72</v>
-      </c>
-      <c r="AU130">
-        <v>10</v>
       </c>
       <c r="AV130">
         <v>3</v>
       </c>
       <c r="AW130">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX130">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY130">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="AZ130">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BB130">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="BC130">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="BD130">
-        <v>1.91</v>
+        <v>2.15</v>
       </c>
       <c r="BE130">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF130">
-        <v>2.1</v>
+        <v>1.85</v>
       </c>
       <c r="BG130">
-        <v>1.26</v>
+        <v>1.17</v>
       </c>
       <c r="BH130">
-        <v>3.34</v>
+        <v>4.2</v>
       </c>
       <c r="BI130">
-        <v>1.55</v>
+        <v>1.35</v>
       </c>
       <c r="BJ130">
-        <v>2.37</v>
+        <v>2.84</v>
       </c>
       <c r="BK130">
-        <v>1.85</v>
+        <v>1.68</v>
       </c>
       <c r="BL130">
-        <v>1.95</v>
+        <v>2.16</v>
       </c>
       <c r="BM130">
-        <v>2.42</v>
+        <v>2.07</v>
       </c>
       <c r="BN130">
-        <v>1.53</v>
+        <v>1.74</v>
       </c>
       <c r="BO130">
-        <v>3.28</v>
+        <v>2.69</v>
       </c>
       <c r="BP130">
-        <v>1.27</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27901,7 +27901,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7325457</v>
+        <v>7325460</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27916,19 +27916,19 @@
         <v>22</v>
       </c>
       <c r="G131" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H131" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="I131">
         <v>0</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L131">
         <v>1</v>
@@ -27940,166 +27940,166 @@
         <v>2</v>
       </c>
       <c r="O131" t="s">
-        <v>175</v>
+        <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>125</v>
+        <v>243</v>
       </c>
       <c r="Q131">
-        <v>2.39</v>
+        <v>5.5</v>
       </c>
       <c r="R131">
-        <v>2.44</v>
+        <v>2.63</v>
       </c>
       <c r="S131">
-        <v>4.39</v>
+        <v>1.95</v>
       </c>
       <c r="T131">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="U131">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="V131">
-        <v>2.51</v>
+        <v>2.1</v>
       </c>
       <c r="W131">
-        <v>1.53</v>
+        <v>1.67</v>
       </c>
       <c r="X131">
-        <v>6.1</v>
+        <v>4.5</v>
       </c>
       <c r="Y131">
-        <v>1.1</v>
+        <v>1.18</v>
       </c>
       <c r="Z131">
-        <v>1.76</v>
+        <v>4.5</v>
       </c>
       <c r="AA131">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="AB131">
-        <v>3.95</v>
+        <v>1.6</v>
       </c>
       <c r="AC131">
         <v>1.01</v>
       </c>
       <c r="AD131">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AE131">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AF131">
-        <v>4.1</v>
+        <v>6.5</v>
       </c>
       <c r="AG131">
-        <v>1.66</v>
+        <v>1.42</v>
       </c>
       <c r="AH131">
-        <v>2.23</v>
+        <v>2.65</v>
       </c>
       <c r="AI131">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="AJ131">
         <v>2.2</v>
       </c>
       <c r="AK131">
-        <v>1.25</v>
+        <v>2.68</v>
       </c>
       <c r="AL131">
-        <v>1.25</v>
+        <v>1.18</v>
       </c>
       <c r="AM131">
-        <v>1.95</v>
+        <v>1.13</v>
       </c>
       <c r="AN131">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="AO131">
-        <v>0.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP131">
-        <v>1.73</v>
+        <v>0.55</v>
       </c>
       <c r="AQ131">
-        <v>0.55</v>
+        <v>1.36</v>
       </c>
       <c r="AR131">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="AS131">
-        <v>0.93</v>
+        <v>1.52</v>
       </c>
       <c r="AT131">
-        <v>2.53</v>
+        <v>2.72</v>
       </c>
       <c r="AU131">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AV131">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AW131">
         <v>6</v>
       </c>
       <c r="AX131">
+        <v>12</v>
+      </c>
+      <c r="AY131">
+        <v>10</v>
+      </c>
+      <c r="AZ131">
+        <v>20</v>
+      </c>
+      <c r="BA131">
+        <v>3</v>
+      </c>
+      <c r="BB131">
         <v>9</v>
-      </c>
-      <c r="AY131">
-        <v>16</v>
-      </c>
-      <c r="AZ131">
-        <v>12</v>
-      </c>
-      <c r="BA131">
-        <v>8</v>
-      </c>
-      <c r="BB131">
-        <v>4</v>
       </c>
       <c r="BC131">
         <v>12</v>
       </c>
       <c r="BD131">
-        <v>1.53</v>
+        <v>3.6</v>
       </c>
       <c r="BE131">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BF131">
-        <v>2.75</v>
+        <v>1.33</v>
       </c>
       <c r="BG131">
-        <v>1.16</v>
+        <v>1.18</v>
       </c>
       <c r="BH131">
-        <v>4.4</v>
+        <v>4.1</v>
       </c>
       <c r="BI131">
-        <v>1.32</v>
+        <v>1.36</v>
       </c>
       <c r="BJ131">
-        <v>2.98</v>
+        <v>2.79</v>
       </c>
       <c r="BK131">
-        <v>1.6</v>
+        <v>1.82</v>
       </c>
       <c r="BL131">
-        <v>2.24</v>
+        <v>1.98</v>
       </c>
       <c r="BM131">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="BN131">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BO131">
-        <v>2.51</v>
+        <v>2.72</v>
       </c>
       <c r="BP131">
-        <v>1.48</v>
+        <v>1.4</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28107,7 +28107,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7325347</v>
+        <v>7325461</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28122,25 +28122,25 @@
         <v>22</v>
       </c>
       <c r="G132" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H132" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K132">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N132">
         <v>3</v>
@@ -28149,145 +28149,145 @@
         <v>176</v>
       </c>
       <c r="P132" t="s">
-        <v>243</v>
+        <v>141</v>
       </c>
       <c r="Q132">
-        <v>2.33</v>
+        <v>3.36</v>
       </c>
       <c r="R132">
-        <v>2.28</v>
+        <v>2.15</v>
       </c>
       <c r="S132">
-        <v>4.6</v>
+        <v>3.4</v>
       </c>
       <c r="T132">
-        <v>1.33</v>
+        <v>1.43</v>
       </c>
       <c r="U132">
+        <v>2.82</v>
+      </c>
+      <c r="V132">
+        <v>3.14</v>
+      </c>
+      <c r="W132">
+        <v>1.36</v>
+      </c>
+      <c r="X132">
+        <v>7</v>
+      </c>
+      <c r="Y132">
+        <v>1.07</v>
+      </c>
+      <c r="Z132">
+        <v>2.5</v>
+      </c>
+      <c r="AA132">
+        <v>3.25</v>
+      </c>
+      <c r="AB132">
+        <v>2.7</v>
+      </c>
+      <c r="AC132">
+        <v>1.08</v>
+      </c>
+      <c r="AD132">
+        <v>9.75</v>
+      </c>
+      <c r="AE132">
+        <v>1.32</v>
+      </c>
+      <c r="AF132">
+        <v>3.05</v>
+      </c>
+      <c r="AG132">
+        <v>2.04</v>
+      </c>
+      <c r="AH132">
+        <v>1.78</v>
+      </c>
+      <c r="AI132">
+        <v>1.8</v>
+      </c>
+      <c r="AJ132">
+        <v>1.91</v>
+      </c>
+      <c r="AK132">
+        <v>1.45</v>
+      </c>
+      <c r="AL132">
+        <v>1.28</v>
+      </c>
+      <c r="AM132">
+        <v>1.47</v>
+      </c>
+      <c r="AN132">
+        <v>1</v>
+      </c>
+      <c r="AO132">
+        <v>0.6</v>
+      </c>
+      <c r="AP132">
+        <v>1.18</v>
+      </c>
+      <c r="AQ132">
+        <v>0.55</v>
+      </c>
+      <c r="AR132">
+        <v>1.28</v>
+      </c>
+      <c r="AS132">
+        <v>1.44</v>
+      </c>
+      <c r="AT132">
+        <v>2.72</v>
+      </c>
+      <c r="AU132">
+        <v>10</v>
+      </c>
+      <c r="AV132">
         <v>3</v>
       </c>
-      <c r="V132">
-        <v>2.4</v>
-      </c>
-      <c r="W132">
-        <v>1.5</v>
-      </c>
-      <c r="X132">
-        <v>5.5</v>
-      </c>
-      <c r="Y132">
-        <v>1.11</v>
-      </c>
-      <c r="Z132">
-        <v>1.73</v>
-      </c>
-      <c r="AA132">
-        <v>3.6</v>
-      </c>
-      <c r="AB132">
-        <v>4.2</v>
-      </c>
-      <c r="AC132">
-        <v>1.02</v>
-      </c>
-      <c r="AD132">
-        <v>10.5</v>
-      </c>
-      <c r="AE132">
-        <v>1.21</v>
-      </c>
-      <c r="AF132">
-        <v>3.75</v>
-      </c>
-      <c r="AG132">
-        <v>1.77</v>
-      </c>
-      <c r="AH132">
-        <v>2.06</v>
-      </c>
-      <c r="AI132">
-        <v>1.7</v>
-      </c>
-      <c r="AJ132">
-        <v>2</v>
-      </c>
-      <c r="AK132">
-        <v>1.22</v>
-      </c>
-      <c r="AL132">
-        <v>1.29</v>
-      </c>
-      <c r="AM132">
-        <v>2</v>
-      </c>
-      <c r="AN132">
-        <v>2.7</v>
-      </c>
-      <c r="AO132">
-        <v>0.7</v>
-      </c>
-      <c r="AP132">
-        <v>2.45</v>
-      </c>
-      <c r="AQ132">
-        <v>0.91</v>
-      </c>
-      <c r="AR132">
-        <v>1.65</v>
-      </c>
-      <c r="AS132">
-        <v>1.66</v>
-      </c>
-      <c r="AT132">
-        <v>3.31</v>
-      </c>
-      <c r="AU132">
+      <c r="AW132">
+        <v>10</v>
+      </c>
+      <c r="AX132">
         <v>6</v>
       </c>
-      <c r="AV132">
-        <v>5</v>
-      </c>
-      <c r="AW132">
+      <c r="AY132">
+        <v>20</v>
+      </c>
+      <c r="AZ132">
+        <v>9</v>
+      </c>
+      <c r="BA132">
+        <v>10</v>
+      </c>
+      <c r="BB132">
+        <v>10</v>
+      </c>
+      <c r="BC132">
+        <v>20</v>
+      </c>
+      <c r="BD132">
+        <v>1.91</v>
+      </c>
+      <c r="BE132">
         <v>8</v>
       </c>
-      <c r="AX132">
-        <v>7</v>
-      </c>
-      <c r="AY132">
-        <v>14</v>
-      </c>
-      <c r="AZ132">
-        <v>12</v>
-      </c>
-      <c r="BA132">
-        <v>9</v>
-      </c>
-      <c r="BB132">
-        <v>4</v>
-      </c>
-      <c r="BC132">
-        <v>13</v>
-      </c>
-      <c r="BD132">
+      <c r="BF132">
+        <v>2.1</v>
+      </c>
+      <c r="BG132">
+        <v>1.26</v>
+      </c>
+      <c r="BH132">
+        <v>3.34</v>
+      </c>
+      <c r="BI132">
         <v>1.55</v>
       </c>
-      <c r="BE132">
-        <v>7.1</v>
-      </c>
-      <c r="BF132">
-        <v>3.26</v>
-      </c>
-      <c r="BG132">
-        <v>1.22</v>
-      </c>
-      <c r="BH132">
-        <v>3.65</v>
-      </c>
-      <c r="BI132">
-        <v>1.43</v>
-      </c>
       <c r="BJ132">
-        <v>2.62</v>
+        <v>2.37</v>
       </c>
       <c r="BK132">
         <v>1.85</v>
@@ -28296,16 +28296,16 @@
         <v>1.95</v>
       </c>
       <c r="BM132">
-        <v>2.22</v>
+        <v>2.42</v>
       </c>
       <c r="BN132">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="BO132">
-        <v>2.93</v>
+        <v>3.28</v>
       </c>
       <c r="BP132">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28451,19 +28451,19 @@
         <v>3</v>
       </c>
       <c r="AV133">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AW133">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX133">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AY133">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ133">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="BA133">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,9 @@
     <t>['5']</t>
   </si>
   <si>
+    <t>['55']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -724,9 +727,6 @@
     <t>['74', '87']</t>
   </si>
   <si>
-    <t>['55']</t>
-  </si>
-  <si>
     <t>['59', '78']</t>
   </si>
   <si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>['10', '50', '84']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1369,7 +1372,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1781,7 +1784,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1987,7 +1990,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2068,7 +2071,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ5">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2193,7 +2196,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2399,7 +2402,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2811,7 +2814,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2892,7 +2895,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ9">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -3017,7 +3020,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3223,7 +3226,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3301,7 +3304,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ11">
         <v>0.55</v>
@@ -3429,7 +3432,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3635,7 +3638,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4125,7 +4128,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ15">
         <v>1.55</v>
@@ -4253,7 +4256,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4665,7 +4668,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4871,7 +4874,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5077,7 +5080,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5283,7 +5286,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5361,10 +5364,10 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5489,7 +5492,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5695,7 +5698,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5901,7 +5904,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6313,7 +6316,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6725,7 +6728,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7012,7 +7015,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ29">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -7137,7 +7140,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7343,7 +7346,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7549,7 +7552,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7755,7 +7758,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8167,7 +8170,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8451,7 +8454,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ36">
         <v>1.55</v>
@@ -8579,7 +8582,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8991,7 +8994,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9197,7 +9200,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9403,7 +9406,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10227,7 +10230,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10845,7 +10848,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11257,7 +11260,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11338,7 +11341,7 @@
         <v>2.45</v>
       </c>
       <c r="AQ50">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11463,7 +11466,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11669,7 +11672,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12081,7 +12084,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12159,7 +12162,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ54">
         <v>1.45</v>
@@ -12287,7 +12290,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12493,7 +12496,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12905,7 +12908,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13111,7 +13114,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13317,7 +13320,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14141,7 +14144,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14759,7 +14762,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -14837,7 +14840,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ67">
         <v>1.45</v>
@@ -15171,7 +15174,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15252,7 +15255,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ69">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15377,7 +15380,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15583,7 +15586,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15995,7 +15998,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16201,7 +16204,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16407,7 +16410,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -17025,7 +17028,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17103,7 +17106,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ78">
         <v>1.27</v>
@@ -17437,7 +17440,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17643,7 +17646,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17849,7 +17852,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18055,7 +18058,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18136,7 +18139,7 @@
         <v>1.55</v>
       </c>
       <c r="AQ83">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR83">
         <v>1.64</v>
@@ -18467,7 +18470,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18548,7 +18551,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ85">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR85">
         <v>1.85</v>
@@ -18673,7 +18676,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18879,7 +18882,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19085,7 +19088,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19369,7 +19372,7 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ89">
         <v>0.55</v>
@@ -19497,7 +19500,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19703,7 +19706,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19909,7 +19912,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20402,7 +20405,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ94">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR94">
         <v>1.25</v>
@@ -20527,7 +20530,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20733,7 +20736,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21145,7 +21148,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21223,7 +21226,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ98">
         <v>1.18</v>
@@ -21351,7 +21354,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21969,7 +21972,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22459,7 +22462,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ104">
         <v>0.64</v>
@@ -22587,7 +22590,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22793,7 +22796,7 @@
         <v>83</v>
       </c>
       <c r="P106" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
       <c r="Q106">
         <v>4.33</v>
@@ -22999,7 +23002,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23698,7 +23701,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ110">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -24725,7 +24728,7 @@
         <v>1.56</v>
       </c>
       <c r="AP115">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ115">
         <v>1.36</v>
@@ -26170,7 +26173,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ122">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -26295,7 +26298,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -27737,7 +27740,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28512,6 +28515,212 @@
       </c>
       <c r="BP133">
         <v>1.49</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7674856</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45548.5</v>
+      </c>
+      <c r="F134">
+        <v>1</v>
+      </c>
+      <c r="G134" t="s">
+        <v>78</v>
+      </c>
+      <c r="H134" t="s">
+        <v>80</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>1</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>178</v>
+      </c>
+      <c r="P134" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q134">
+        <v>1.64</v>
+      </c>
+      <c r="R134">
+        <v>2.79</v>
+      </c>
+      <c r="S134">
+        <v>8</v>
+      </c>
+      <c r="T134">
+        <v>1.24</v>
+      </c>
+      <c r="U134">
+        <v>3.82</v>
+      </c>
+      <c r="V134">
+        <v>2.15</v>
+      </c>
+      <c r="W134">
+        <v>1.66</v>
+      </c>
+      <c r="X134">
+        <v>4.7</v>
+      </c>
+      <c r="Y134">
+        <v>1.17</v>
+      </c>
+      <c r="Z134">
+        <v>1.2</v>
+      </c>
+      <c r="AA134">
+        <v>6</v>
+      </c>
+      <c r="AB134">
+        <v>10</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>16</v>
+      </c>
+      <c r="AE134">
+        <v>1.15</v>
+      </c>
+      <c r="AF134">
+        <v>5.4</v>
+      </c>
+      <c r="AG134">
+        <v>1.44</v>
+      </c>
+      <c r="AH134">
+        <v>2.6</v>
+      </c>
+      <c r="AI134">
+        <v>1.89</v>
+      </c>
+      <c r="AJ134">
+        <v>1.85</v>
+      </c>
+      <c r="AK134">
+        <v>1.04</v>
+      </c>
+      <c r="AL134">
+        <v>1.13</v>
+      </c>
+      <c r="AM134">
+        <v>3.84</v>
+      </c>
+      <c r="AN134">
+        <v>1.91</v>
+      </c>
+      <c r="AO134">
+        <v>0.64</v>
+      </c>
+      <c r="AP134">
+        <v>1.83</v>
+      </c>
+      <c r="AQ134">
+        <v>0.67</v>
+      </c>
+      <c r="AR134">
+        <v>1.65</v>
+      </c>
+      <c r="AS134">
+        <v>1.29</v>
+      </c>
+      <c r="AT134">
+        <v>2.94</v>
+      </c>
+      <c r="AU134">
+        <v>7</v>
+      </c>
+      <c r="AV134">
+        <v>2</v>
+      </c>
+      <c r="AW134">
+        <v>3</v>
+      </c>
+      <c r="AX134">
+        <v>2</v>
+      </c>
+      <c r="AY134">
+        <v>10</v>
+      </c>
+      <c r="AZ134">
+        <v>4</v>
+      </c>
+      <c r="BA134">
+        <v>7</v>
+      </c>
+      <c r="BB134">
+        <v>2</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>1.26</v>
+      </c>
+      <c r="BE134">
+        <v>10</v>
+      </c>
+      <c r="BF134">
+        <v>4.86</v>
+      </c>
+      <c r="BG134">
+        <v>1.25</v>
+      </c>
+      <c r="BH134">
+        <v>3.7</v>
+      </c>
+      <c r="BI134">
+        <v>1.47</v>
+      </c>
+      <c r="BJ134">
+        <v>2.55</v>
+      </c>
+      <c r="BK134">
+        <v>1.85</v>
+      </c>
+      <c r="BL134">
+        <v>1.95</v>
+      </c>
+      <c r="BM134">
+        <v>2.38</v>
+      </c>
+      <c r="BN134">
+        <v>1.54</v>
+      </c>
+      <c r="BO134">
+        <v>3.25</v>
+      </c>
+      <c r="BP134">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,21 @@
     <t>['55']</t>
   </si>
   <si>
+    <t>['45+1', '68']</t>
+  </si>
+  <si>
+    <t>['59', '76', '87']</t>
+  </si>
+  <si>
+    <t>['58', '87', '90+1']</t>
+  </si>
+  <si>
+    <t>['4', '55', '80']</t>
+  </si>
+  <si>
+    <t>['27', '46']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -752,6 +767,18 @@
   </si>
   <si>
     <t>['90+3']</t>
+  </si>
+  <si>
+    <t>['42', '90+2']</t>
+  </si>
+  <si>
+    <t>['31', '57']</t>
+  </si>
+  <si>
+    <t>['58']</t>
+  </si>
+  <si>
+    <t>['51']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1399,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1450,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ2">
         <v>0.91</v>
@@ -1656,10 +1683,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ3">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1784,7 +1811,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1990,7 +2017,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2196,7 +2223,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2277,7 +2304,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ6">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2402,7 +2429,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2480,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ7">
         <v>1.55</v>
@@ -2686,10 +2713,10 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2814,7 +2841,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -3020,7 +3047,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3101,7 +3128,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ10">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3226,7 +3253,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3432,7 +3459,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3510,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ12">
         <v>1.18</v>
@@ -3638,7 +3665,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4256,7 +4283,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4334,10 +4361,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4543,7 +4570,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ17">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4668,7 +4695,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4874,7 +4901,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5080,7 +5107,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5286,7 +5313,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5492,7 +5519,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5698,7 +5725,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5904,7 +5931,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -5982,10 +6009,10 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6188,10 +6215,10 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6316,7 +6343,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6603,7 +6630,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ27">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6728,7 +6755,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6806,7 +6833,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ28">
         <v>0.55</v>
@@ -7012,7 +7039,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -7140,7 +7167,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7346,7 +7373,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7424,10 +7451,10 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ31">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7552,7 +7579,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7758,7 +7785,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7836,10 +7863,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ33">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -8045,7 +8072,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ34">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8170,7 +8197,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8248,7 +8275,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ35">
         <v>1.18</v>
@@ -8582,7 +8609,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8869,7 +8896,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ38">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -8994,7 +9021,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9072,10 +9099,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ39">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9200,7 +9227,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9278,10 +9305,10 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9406,7 +9433,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9690,10 +9717,10 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ42">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -9896,7 +9923,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ43">
         <v>1.55</v>
@@ -10105,7 +10132,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ44">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10230,7 +10257,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10514,7 +10541,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46">
         <v>1.18</v>
@@ -10720,7 +10747,7 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ47">
         <v>0.91</v>
@@ -10848,7 +10875,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11132,7 +11159,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ49">
         <v>1.45</v>
@@ -11260,7 +11287,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11338,7 +11365,7 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
         <v>0.67</v>
@@ -11466,7 +11493,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11672,7 +11699,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11753,7 +11780,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ52">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -12084,7 +12111,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12165,7 +12192,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12290,7 +12317,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12368,7 +12395,7 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ55">
         <v>1.55</v>
@@ -12496,7 +12523,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12577,7 +12604,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ56">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12780,7 +12807,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ57">
         <v>1.55</v>
@@ -12908,7 +12935,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -12986,10 +13013,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ58">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13114,7 +13141,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13195,7 +13222,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ59">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13320,7 +13347,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13607,7 +13634,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ61">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14016,10 +14043,10 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -14144,7 +14171,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14222,7 +14249,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ64">
         <v>0.55</v>
@@ -14637,7 +14664,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ66">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR66">
         <v>1.19</v>
@@ -14762,7 +14789,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -15046,10 +15073,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ68">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15174,7 +15201,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15380,7 +15407,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15458,10 +15485,10 @@
         <v>0.4</v>
       </c>
       <c r="AP70">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ70">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.29</v>
@@ -15586,7 +15613,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15664,7 +15691,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71">
         <v>1.55</v>
@@ -15870,7 +15897,7 @@
         <v>1.86</v>
       </c>
       <c r="AP72">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ72">
         <v>1.55</v>
@@ -15998,7 +16025,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16079,7 +16106,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ73">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -16204,7 +16231,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16282,10 +16309,10 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ74">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR74">
         <v>1.91</v>
@@ -16410,7 +16437,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -17028,7 +17055,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17109,7 +17136,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17312,7 +17339,7 @@
         <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.55</v>
@@ -17440,7 +17467,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17521,7 +17548,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ80">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -17646,7 +17673,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17852,7 +17879,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18058,7 +18085,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18136,7 +18163,7 @@
         <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18342,7 +18369,7 @@
         <v>1.57</v>
       </c>
       <c r="AP84">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ84">
         <v>1.55</v>
@@ -18470,7 +18497,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18676,7 +18703,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18757,7 +18784,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ86">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR86">
         <v>1.21</v>
@@ -18882,7 +18909,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -18960,7 +18987,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ87">
         <v>1.18</v>
@@ -19088,7 +19115,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19166,10 +19193,10 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -19375,7 +19402,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ89">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.58</v>
@@ -19500,7 +19527,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19706,7 +19733,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19912,7 +19939,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20196,10 +20223,10 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ93">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.91</v>
@@ -20402,7 +20429,7 @@
         <v>0.88</v>
       </c>
       <c r="AP94">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20530,7 +20557,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20611,7 +20638,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -20736,7 +20763,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20814,10 +20841,10 @@
         <v>1.86</v>
       </c>
       <c r="AP96">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ96">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR96">
         <v>1.83</v>
@@ -21020,10 +21047,10 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ97">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.79</v>
@@ -21148,7 +21175,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21354,7 +21381,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21435,7 +21462,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ99">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
         <v>1.83</v>
@@ -21638,7 +21665,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ100">
         <v>0.55</v>
@@ -21972,7 +21999,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22259,7 +22286,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR103">
         <v>1.84</v>
@@ -22465,7 +22492,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ104">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22590,7 +22617,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22874,7 +22901,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ106">
         <v>1.45</v>
@@ -23002,7 +23029,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23080,10 +23107,10 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ107">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR107">
         <v>1.71</v>
@@ -23208,7 +23235,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23289,7 +23316,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ108">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR108">
         <v>1.12</v>
@@ -23492,10 +23519,10 @@
         <v>1.63</v>
       </c>
       <c r="AP109">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ109">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -23904,7 +23931,7 @@
         <v>0.88</v>
       </c>
       <c r="AP111">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ111">
         <v>0.91</v>
@@ -24110,10 +24137,10 @@
         <v>0.88</v>
       </c>
       <c r="AP112">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ112">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24238,7 +24265,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24525,7 +24552,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ114">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR114">
         <v>1.9</v>
@@ -24731,7 +24758,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ115">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR115">
         <v>1.56</v>
@@ -24856,7 +24883,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25140,7 +25167,7 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ117">
         <v>0.55</v>
@@ -25346,7 +25373,7 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ118">
         <v>1.45</v>
@@ -25555,7 +25582,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ119">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.18</v>
@@ -25680,7 +25707,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25761,7 +25788,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ120">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR120">
         <v>1.82</v>
@@ -25886,7 +25913,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -25964,10 +25991,10 @@
         <v>0.78</v>
       </c>
       <c r="AP121">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26170,7 +26197,7 @@
         <v>0.7</v>
       </c>
       <c r="AP122">
-        <v>2.09</v>
+        <v>2.17</v>
       </c>
       <c r="AQ122">
         <v>0.67</v>
@@ -26298,7 +26325,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -26376,10 +26403,10 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AQ123">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AR123">
         <v>1.14</v>
@@ -26582,10 +26609,10 @@
         <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ124">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AR124">
         <v>1.53</v>
@@ -26788,7 +26815,7 @@
         <v>0.78</v>
       </c>
       <c r="AP125">
-        <v>2.36</v>
+        <v>2.25</v>
       </c>
       <c r="AQ125">
         <v>0.91</v>
@@ -26997,7 +27024,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ126">
-        <v>1.27</v>
+        <v>1.17</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27409,7 +27436,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ128">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR128">
         <v>1.6</v>
@@ -27534,7 +27561,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27612,7 +27639,7 @@
         <v>0.7</v>
       </c>
       <c r="AP129">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AQ129">
         <v>0.91</v>
@@ -27740,7 +27767,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27818,7 +27845,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
       <c r="AQ130">
         <v>1.45</v>
@@ -27946,7 +27973,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28027,7 +28054,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ131">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="AR131">
         <v>1.2</v>
@@ -28358,7 +28385,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28564,7 +28591,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28721,6 +28748,1036 @@
       </c>
       <c r="BP134">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7674857</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45549.375</v>
+      </c>
+      <c r="F135">
+        <v>1</v>
+      </c>
+      <c r="G135" t="s">
+        <v>76</v>
+      </c>
+      <c r="H135" t="s">
+        <v>72</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>2</v>
+      </c>
+      <c r="N135">
+        <v>4</v>
+      </c>
+      <c r="O135" t="s">
+        <v>179</v>
+      </c>
+      <c r="P135" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q135">
+        <v>2.05</v>
+      </c>
+      <c r="R135">
+        <v>2.5</v>
+      </c>
+      <c r="S135">
+        <v>4.2</v>
+      </c>
+      <c r="T135">
+        <v>1.25</v>
+      </c>
+      <c r="U135">
+        <v>3.75</v>
+      </c>
+      <c r="V135">
+        <v>2.2</v>
+      </c>
+      <c r="W135">
+        <v>1.62</v>
+      </c>
+      <c r="X135">
+        <v>4.5</v>
+      </c>
+      <c r="Y135">
+        <v>1.17</v>
+      </c>
+      <c r="Z135">
+        <v>1.73</v>
+      </c>
+      <c r="AA135">
+        <v>3.75</v>
+      </c>
+      <c r="AB135">
+        <v>4.2</v>
+      </c>
+      <c r="AC135">
+        <v>1.01</v>
+      </c>
+      <c r="AD135">
+        <v>13</v>
+      </c>
+      <c r="AE135">
+        <v>1.13</v>
+      </c>
+      <c r="AF135">
+        <v>4.75</v>
+      </c>
+      <c r="AG135">
+        <v>1.53</v>
+      </c>
+      <c r="AH135">
+        <v>2.35</v>
+      </c>
+      <c r="AI135">
+        <v>1.53</v>
+      </c>
+      <c r="AJ135">
+        <v>2.38</v>
+      </c>
+      <c r="AK135">
+        <v>1.2</v>
+      </c>
+      <c r="AL135">
+        <v>1.22</v>
+      </c>
+      <c r="AM135">
+        <v>2.1</v>
+      </c>
+      <c r="AN135">
+        <v>2.36</v>
+      </c>
+      <c r="AO135">
+        <v>1.36</v>
+      </c>
+      <c r="AP135">
+        <v>2.25</v>
+      </c>
+      <c r="AQ135">
+        <v>1.33</v>
+      </c>
+      <c r="AR135">
+        <v>1.91</v>
+      </c>
+      <c r="AS135">
+        <v>1.6</v>
+      </c>
+      <c r="AT135">
+        <v>3.51</v>
+      </c>
+      <c r="AU135">
+        <v>6</v>
+      </c>
+      <c r="AV135">
+        <v>4</v>
+      </c>
+      <c r="AW135">
+        <v>16</v>
+      </c>
+      <c r="AX135">
+        <v>11</v>
+      </c>
+      <c r="AY135">
+        <v>22</v>
+      </c>
+      <c r="AZ135">
+        <v>15</v>
+      </c>
+      <c r="BA135">
+        <v>9</v>
+      </c>
+      <c r="BB135">
+        <v>6</v>
+      </c>
+      <c r="BC135">
+        <v>15</v>
+      </c>
+      <c r="BD135">
+        <v>1.64</v>
+      </c>
+      <c r="BE135">
+        <v>8.5</v>
+      </c>
+      <c r="BF135">
+        <v>2.66</v>
+      </c>
+      <c r="BG135">
+        <v>1.18</v>
+      </c>
+      <c r="BH135">
+        <v>4.6</v>
+      </c>
+      <c r="BI135">
+        <v>1.34</v>
+      </c>
+      <c r="BJ135">
+        <v>3.1</v>
+      </c>
+      <c r="BK135">
+        <v>1.6</v>
+      </c>
+      <c r="BL135">
+        <v>2.23</v>
+      </c>
+      <c r="BM135">
+        <v>2.02</v>
+      </c>
+      <c r="BN135">
+        <v>1.74</v>
+      </c>
+      <c r="BO135">
+        <v>2.65</v>
+      </c>
+      <c r="BP135">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7674858</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F136">
+        <v>1</v>
+      </c>
+      <c r="G136" t="s">
+        <v>71</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>3</v>
+      </c>
+      <c r="M136">
+        <v>2</v>
+      </c>
+      <c r="N136">
+        <v>5</v>
+      </c>
+      <c r="O136" t="s">
+        <v>180</v>
+      </c>
+      <c r="P136" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q136">
+        <v>2.04</v>
+      </c>
+      <c r="R136">
+        <v>2.52</v>
+      </c>
+      <c r="S136">
+        <v>4.85</v>
+      </c>
+      <c r="T136">
+        <v>1.25</v>
+      </c>
+      <c r="U136">
+        <v>3.72</v>
+      </c>
+      <c r="V136">
+        <v>2.16</v>
+      </c>
+      <c r="W136">
+        <v>1.65</v>
+      </c>
+      <c r="X136">
+        <v>4.8</v>
+      </c>
+      <c r="Y136">
+        <v>1.16</v>
+      </c>
+      <c r="Z136">
+        <v>1.6</v>
+      </c>
+      <c r="AA136">
+        <v>4.2</v>
+      </c>
+      <c r="AB136">
+        <v>4.7</v>
+      </c>
+      <c r="AC136">
+        <v>1.01</v>
+      </c>
+      <c r="AD136">
+        <v>17</v>
+      </c>
+      <c r="AE136">
+        <v>1.12</v>
+      </c>
+      <c r="AF136">
+        <v>5.05</v>
+      </c>
+      <c r="AG136">
+        <v>1.45</v>
+      </c>
+      <c r="AH136">
+        <v>2.55</v>
+      </c>
+      <c r="AI136">
+        <v>1.56</v>
+      </c>
+      <c r="AJ136">
+        <v>2.33</v>
+      </c>
+      <c r="AK136">
+        <v>1.17</v>
+      </c>
+      <c r="AL136">
+        <v>1.21</v>
+      </c>
+      <c r="AM136">
+        <v>2.4</v>
+      </c>
+      <c r="AN136">
+        <v>2.09</v>
+      </c>
+      <c r="AO136">
+        <v>1.45</v>
+      </c>
+      <c r="AP136">
+        <v>2.17</v>
+      </c>
+      <c r="AQ136">
+        <v>1.33</v>
+      </c>
+      <c r="AR136">
+        <v>1.75</v>
+      </c>
+      <c r="AS136">
+        <v>1.28</v>
+      </c>
+      <c r="AT136">
+        <v>3.03</v>
+      </c>
+      <c r="AU136">
+        <v>9</v>
+      </c>
+      <c r="AV136">
+        <v>6</v>
+      </c>
+      <c r="AW136">
+        <v>12</v>
+      </c>
+      <c r="AX136">
+        <v>4</v>
+      </c>
+      <c r="AY136">
+        <v>21</v>
+      </c>
+      <c r="AZ136">
+        <v>10</v>
+      </c>
+      <c r="BA136">
+        <v>5</v>
+      </c>
+      <c r="BB136">
+        <v>2</v>
+      </c>
+      <c r="BC136">
+        <v>7</v>
+      </c>
+      <c r="BD136">
+        <v>1.34</v>
+      </c>
+      <c r="BE136">
+        <v>9.5</v>
+      </c>
+      <c r="BF136">
+        <v>4.07</v>
+      </c>
+      <c r="BG136">
+        <v>1.18</v>
+      </c>
+      <c r="BH136">
+        <v>4.6</v>
+      </c>
+      <c r="BI136">
+        <v>1.34</v>
+      </c>
+      <c r="BJ136">
+        <v>3.1</v>
+      </c>
+      <c r="BK136">
+        <v>1.61</v>
+      </c>
+      <c r="BL136">
+        <v>2.23</v>
+      </c>
+      <c r="BM136">
+        <v>2.02</v>
+      </c>
+      <c r="BN136">
+        <v>1.74</v>
+      </c>
+      <c r="BO136">
+        <v>2.65</v>
+      </c>
+      <c r="BP136">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7674859</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45549.45833333334</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" t="s">
+        <v>81</v>
+      </c>
+      <c r="H137" t="s">
+        <v>79</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>3</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>3</v>
+      </c>
+      <c r="O137" t="s">
+        <v>181</v>
+      </c>
+      <c r="P137" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q137">
+        <v>2.88</v>
+      </c>
+      <c r="R137">
+        <v>2.1</v>
+      </c>
+      <c r="S137">
+        <v>3.3</v>
+      </c>
+      <c r="T137">
+        <v>1.4</v>
+      </c>
+      <c r="U137">
+        <v>2.75</v>
+      </c>
+      <c r="V137">
+        <v>2.75</v>
+      </c>
+      <c r="W137">
+        <v>1.4</v>
+      </c>
+      <c r="X137">
+        <v>6.5</v>
+      </c>
+      <c r="Y137">
+        <v>1.1</v>
+      </c>
+      <c r="Z137">
+        <v>2.3</v>
+      </c>
+      <c r="AA137">
+        <v>3.2</v>
+      </c>
+      <c r="AB137">
+        <v>2.9</v>
+      </c>
+      <c r="AC137">
+        <v>1.02</v>
+      </c>
+      <c r="AD137">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AE137">
+        <v>1.29</v>
+      </c>
+      <c r="AF137">
+        <v>3.15</v>
+      </c>
+      <c r="AG137">
+        <v>1.91</v>
+      </c>
+      <c r="AH137">
+        <v>1.89</v>
+      </c>
+      <c r="AI137">
+        <v>1.7</v>
+      </c>
+      <c r="AJ137">
+        <v>2.05</v>
+      </c>
+      <c r="AK137">
+        <v>1.36</v>
+      </c>
+      <c r="AL137">
+        <v>1.3</v>
+      </c>
+      <c r="AM137">
+        <v>1.57</v>
+      </c>
+      <c r="AN137">
+        <v>1.36</v>
+      </c>
+      <c r="AO137">
+        <v>0.55</v>
+      </c>
+      <c r="AP137">
+        <v>1.5</v>
+      </c>
+      <c r="AQ137">
+        <v>0.5</v>
+      </c>
+      <c r="AR137">
+        <v>1.16</v>
+      </c>
+      <c r="AS137">
+        <v>0.96</v>
+      </c>
+      <c r="AT137">
+        <v>2.12</v>
+      </c>
+      <c r="AU137">
+        <v>6</v>
+      </c>
+      <c r="AV137">
+        <v>2</v>
+      </c>
+      <c r="AW137">
+        <v>6</v>
+      </c>
+      <c r="AX137">
+        <v>11</v>
+      </c>
+      <c r="AY137">
+        <v>12</v>
+      </c>
+      <c r="AZ137">
+        <v>13</v>
+      </c>
+      <c r="BA137">
+        <v>3</v>
+      </c>
+      <c r="BB137">
+        <v>5</v>
+      </c>
+      <c r="BC137">
+        <v>8</v>
+      </c>
+      <c r="BD137">
+        <v>1.91</v>
+      </c>
+      <c r="BE137">
+        <v>8</v>
+      </c>
+      <c r="BF137">
+        <v>2.2</v>
+      </c>
+      <c r="BG137">
+        <v>1.24</v>
+      </c>
+      <c r="BH137">
+        <v>3.48</v>
+      </c>
+      <c r="BI137">
+        <v>1.51</v>
+      </c>
+      <c r="BJ137">
+        <v>2.43</v>
+      </c>
+      <c r="BK137">
+        <v>1.82</v>
+      </c>
+      <c r="BL137">
+        <v>1.98</v>
+      </c>
+      <c r="BM137">
+        <v>2.34</v>
+      </c>
+      <c r="BN137">
+        <v>1.55</v>
+      </c>
+      <c r="BO137">
+        <v>3.2</v>
+      </c>
+      <c r="BP137">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7674860</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45549.54166666666</v>
+      </c>
+      <c r="F138">
+        <v>1</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s">
+        <v>77</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>3</v>
+      </c>
+      <c r="M138">
+        <v>1</v>
+      </c>
+      <c r="N138">
+        <v>4</v>
+      </c>
+      <c r="O138" t="s">
+        <v>182</v>
+      </c>
+      <c r="P138" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q138">
+        <v>1.95</v>
+      </c>
+      <c r="R138">
+        <v>2.4</v>
+      </c>
+      <c r="S138">
+        <v>5.5</v>
+      </c>
+      <c r="T138">
+        <v>1.33</v>
+      </c>
+      <c r="U138">
+        <v>3.25</v>
+      </c>
+      <c r="V138">
+        <v>2.5</v>
+      </c>
+      <c r="W138">
+        <v>1.5</v>
+      </c>
+      <c r="X138">
+        <v>5.5</v>
+      </c>
+      <c r="Y138">
+        <v>1.12</v>
+      </c>
+      <c r="Z138">
+        <v>1.56</v>
+      </c>
+      <c r="AA138">
+        <v>4.18</v>
+      </c>
+      <c r="AB138">
+        <v>5.65</v>
+      </c>
+      <c r="AC138">
+        <v>1.01</v>
+      </c>
+      <c r="AD138">
+        <v>12.4</v>
+      </c>
+      <c r="AE138">
+        <v>1.23</v>
+      </c>
+      <c r="AF138">
+        <v>4.11</v>
+      </c>
+      <c r="AG138">
+        <v>1.73</v>
+      </c>
+      <c r="AH138">
+        <v>2.11</v>
+      </c>
+      <c r="AI138">
+        <v>1.73</v>
+      </c>
+      <c r="AJ138">
+        <v>2</v>
+      </c>
+      <c r="AK138">
+        <v>1.14</v>
+      </c>
+      <c r="AL138">
+        <v>1.22</v>
+      </c>
+      <c r="AM138">
+        <v>2.3</v>
+      </c>
+      <c r="AN138">
+        <v>2.45</v>
+      </c>
+      <c r="AO138">
+        <v>1.27</v>
+      </c>
+      <c r="AP138">
+        <v>2.5</v>
+      </c>
+      <c r="AQ138">
+        <v>1.17</v>
+      </c>
+      <c r="AR138">
+        <v>1.67</v>
+      </c>
+      <c r="AS138">
+        <v>1.29</v>
+      </c>
+      <c r="AT138">
+        <v>2.96</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>3</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>8</v>
+      </c>
+      <c r="AZ138">
+        <v>8</v>
+      </c>
+      <c r="BA138">
+        <v>4</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>6</v>
+      </c>
+      <c r="BD138">
+        <v>1.3</v>
+      </c>
+      <c r="BE138">
+        <v>10</v>
+      </c>
+      <c r="BF138">
+        <v>4.42</v>
+      </c>
+      <c r="BG138">
+        <v>1.2</v>
+      </c>
+      <c r="BH138">
+        <v>4.25</v>
+      </c>
+      <c r="BI138">
+        <v>1.38</v>
+      </c>
+      <c r="BJ138">
+        <v>2.88</v>
+      </c>
+      <c r="BK138">
+        <v>1.67</v>
+      </c>
+      <c r="BL138">
+        <v>2.12</v>
+      </c>
+      <c r="BM138">
+        <v>2.12</v>
+      </c>
+      <c r="BN138">
+        <v>1.66</v>
+      </c>
+      <c r="BO138">
+        <v>2.85</v>
+      </c>
+      <c r="BP138">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7674861</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45550.375</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>73</v>
+      </c>
+      <c r="I139">
+        <v>1</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>2</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>183</v>
+      </c>
+      <c r="P139" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q139">
+        <v>2.19</v>
+      </c>
+      <c r="R139">
+        <v>2.3</v>
+      </c>
+      <c r="S139">
+        <v>4.95</v>
+      </c>
+      <c r="T139">
+        <v>1.33</v>
+      </c>
+      <c r="U139">
+        <v>3.16</v>
+      </c>
+      <c r="V139">
+        <v>2.55</v>
+      </c>
+      <c r="W139">
+        <v>1.48</v>
+      </c>
+      <c r="X139">
+        <v>6.15</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>1.67</v>
+      </c>
+      <c r="AA139">
+        <v>3.85</v>
+      </c>
+      <c r="AB139">
+        <v>4.5</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>10.5</v>
+      </c>
+      <c r="AE139">
+        <v>1.24</v>
+      </c>
+      <c r="AF139">
+        <v>4.05</v>
+      </c>
+      <c r="AG139">
+        <v>1.8</v>
+      </c>
+      <c r="AH139">
+        <v>2.06</v>
+      </c>
+      <c r="AI139">
+        <v>1.75</v>
+      </c>
+      <c r="AJ139">
+        <v>2.01</v>
+      </c>
+      <c r="AK139">
+        <v>1.18</v>
+      </c>
+      <c r="AL139">
+        <v>1.24</v>
+      </c>
+      <c r="AM139">
+        <v>2.22</v>
+      </c>
+      <c r="AN139">
+        <v>1.55</v>
+      </c>
+      <c r="AO139">
+        <v>0.64</v>
+      </c>
+      <c r="AP139">
+        <v>1.67</v>
+      </c>
+      <c r="AQ139">
+        <v>0.58</v>
+      </c>
+      <c r="AR139">
+        <v>1.61</v>
+      </c>
+      <c r="AS139">
+        <v>1.04</v>
+      </c>
+      <c r="AT139">
+        <v>2.65</v>
+      </c>
+      <c r="AU139">
+        <v>2</v>
+      </c>
+      <c r="AV139">
+        <v>6</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>4</v>
+      </c>
+      <c r="AY139">
+        <v>8</v>
+      </c>
+      <c r="AZ139">
+        <v>10</v>
+      </c>
+      <c r="BA139">
+        <v>7</v>
+      </c>
+      <c r="BB139">
+        <v>13</v>
+      </c>
+      <c r="BC139">
+        <v>20</v>
+      </c>
+      <c r="BD139">
+        <v>1.3</v>
+      </c>
+      <c r="BE139">
+        <v>10</v>
+      </c>
+      <c r="BF139">
+        <v>4.42</v>
+      </c>
+      <c r="BG139">
+        <v>1.18</v>
+      </c>
+      <c r="BH139">
+        <v>4.6</v>
+      </c>
+      <c r="BI139">
+        <v>1.34</v>
+      </c>
+      <c r="BJ139">
+        <v>3.1</v>
+      </c>
+      <c r="BK139">
+        <v>1.61</v>
+      </c>
+      <c r="BL139">
+        <v>2.23</v>
+      </c>
+      <c r="BM139">
+        <v>2.02</v>
+      </c>
+      <c r="BN139">
+        <v>1.74</v>
+      </c>
+      <c r="BO139">
+        <v>2.65</v>
+      </c>
+      <c r="BP139">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -29714,22 +29714,22 @@
         <v>2.65</v>
       </c>
       <c r="AU139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV139">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AW139">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX139">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AY139">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="AZ139">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="BA139">
         <v>7</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="896" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -568,6 +568,9 @@
     <t>['27', '46']</t>
   </si>
   <si>
+    <t>['8', '12']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -779,6 +782,9 @@
   </si>
   <si>
     <t>['51']</t>
+  </si>
+  <si>
+    <t>['88']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP139"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1405,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1811,7 +1817,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -2017,7 +2023,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2223,7 +2229,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2429,7 +2435,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2841,7 +2847,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -3047,7 +3053,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3253,7 +3259,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3459,7 +3465,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3665,7 +3671,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4283,7 +4289,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4364,7 +4370,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ16">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR16">
         <v>2.63</v>
@@ -4567,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ17">
         <v>1.33</v>
@@ -4695,7 +4701,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4901,7 +4907,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5107,7 +5113,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5313,7 +5319,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5519,7 +5525,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5725,7 +5731,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5803,7 +5809,7 @@
         <v>1</v>
       </c>
       <c r="AP23">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ23">
         <v>1.55</v>
@@ -5931,7 +5937,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6343,7 +6349,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6755,7 +6761,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7167,7 +7173,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7373,7 +7379,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7579,7 +7585,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7785,7 +7791,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8197,7 +8203,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8609,7 +8615,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8893,10 +8899,10 @@
         <v>0</v>
       </c>
       <c r="AP38">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ38">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR38">
         <v>1.9</v>
@@ -9021,7 +9027,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9227,7 +9233,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9308,7 +9314,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ40">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR40">
         <v>1.32</v>
@@ -9433,7 +9439,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10257,7 +10263,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10875,7 +10881,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11287,7 +11293,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11493,7 +11499,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11699,7 +11705,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11777,7 +11783,7 @@
         <v>1.33</v>
       </c>
       <c r="AP52">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ52">
         <v>1.33</v>
@@ -12111,7 +12117,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12317,7 +12323,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12523,7 +12529,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12604,7 +12610,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ56">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR56">
         <v>1.54</v>
@@ -12935,7 +12941,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13141,7 +13147,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13347,7 +13353,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13425,7 +13431,7 @@
         <v>0</v>
       </c>
       <c r="AP60">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ60">
         <v>0.91</v>
@@ -13634,7 +13640,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ61">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR61">
         <v>1.44</v>
@@ -14171,7 +14177,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14789,7 +14795,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -15201,7 +15207,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15407,7 +15413,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15613,7 +15619,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -16025,7 +16031,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16106,7 +16112,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ73">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR73">
         <v>1.23</v>
@@ -16231,7 +16237,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16437,7 +16443,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16515,7 +16521,7 @@
         <v>0.83</v>
       </c>
       <c r="AP75">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ75">
         <v>1.18</v>
@@ -17055,7 +17061,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17467,7 +17473,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17673,7 +17679,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17751,7 +17757,7 @@
         <v>1.83</v>
       </c>
       <c r="AP81">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ81">
         <v>1.45</v>
@@ -17879,7 +17885,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18085,7 +18091,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18497,7 +18503,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18703,7 +18709,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18909,7 +18915,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19115,7 +19121,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19527,7 +19533,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19733,7 +19739,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19811,7 +19817,7 @@
         <v>0.43</v>
       </c>
       <c r="AP91">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ91">
         <v>0.55</v>
@@ -19939,7 +19945,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20557,7 +20563,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20763,7 +20769,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21175,7 +21181,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21381,7 +21387,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21999,7 +22005,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22286,7 +22292,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ103">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR103">
         <v>1.84</v>
@@ -22492,7 +22498,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ104">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR104">
         <v>1.61</v>
@@ -22617,7 +22623,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22695,7 +22701,7 @@
         <v>1.38</v>
       </c>
       <c r="AP105">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ105">
         <v>1.55</v>
@@ -23029,7 +23035,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23235,7 +23241,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23725,7 +23731,7 @@
         <v>0.78</v>
       </c>
       <c r="AP110">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ110">
         <v>0.67</v>
@@ -24140,7 +24146,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ112">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR112">
         <v>1.76</v>
@@ -24265,7 +24271,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24883,7 +24889,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25707,7 +25713,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25913,7 +25919,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -25994,7 +26000,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ121">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR121">
         <v>1.67</v>
@@ -26325,7 +26331,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -26612,7 +26618,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ124">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR124">
         <v>1.53</v>
@@ -27021,7 +27027,7 @@
         <v>1.3</v>
       </c>
       <c r="AP126">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ126">
         <v>1.17</v>
@@ -27561,7 +27567,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27767,7 +27773,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27973,7 +27979,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28385,7 +28391,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28591,7 +28597,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28797,7 +28803,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29003,7 +29009,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q136">
         <v>2.04</v>
@@ -29415,7 +29421,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q138">
         <v>1.95</v>
@@ -29621,7 +29627,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q139">
         <v>2.19</v>
@@ -29702,7 +29708,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ139">
-        <v>0.58</v>
+        <v>0.54</v>
       </c>
       <c r="AR139">
         <v>1.61</v>
@@ -29778,6 +29784,212 @@
       </c>
       <c r="BP139">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7674862</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45554.5</v>
+      </c>
+      <c r="F140">
+        <v>2</v>
+      </c>
+      <c r="G140" t="s">
+        <v>79</v>
+      </c>
+      <c r="H140" t="s">
+        <v>73</v>
+      </c>
+      <c r="I140">
+        <v>2</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>2</v>
+      </c>
+      <c r="L140">
+        <v>2</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>3</v>
+      </c>
+      <c r="O140" t="s">
+        <v>184</v>
+      </c>
+      <c r="P140" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q140">
+        <v>2.77</v>
+      </c>
+      <c r="R140">
+        <v>2.2</v>
+      </c>
+      <c r="S140">
+        <v>4.16</v>
+      </c>
+      <c r="T140">
+        <v>1.41</v>
+      </c>
+      <c r="U140">
+        <v>2.91</v>
+      </c>
+      <c r="V140">
+        <v>3.05</v>
+      </c>
+      <c r="W140">
+        <v>1.38</v>
+      </c>
+      <c r="X140">
+        <v>6.75</v>
+      </c>
+      <c r="Y140">
+        <v>1.07</v>
+      </c>
+      <c r="Z140">
+        <v>2.2</v>
+      </c>
+      <c r="AA140">
+        <v>3.1</v>
+      </c>
+      <c r="AB140">
+        <v>3.25</v>
+      </c>
+      <c r="AC140">
+        <v>1.06</v>
+      </c>
+      <c r="AD140">
+        <v>10.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.34</v>
+      </c>
+      <c r="AF140">
+        <v>3.32</v>
+      </c>
+      <c r="AG140">
+        <v>1.95</v>
+      </c>
+      <c r="AH140">
+        <v>1.75</v>
+      </c>
+      <c r="AI140">
+        <v>1.85</v>
+      </c>
+      <c r="AJ140">
+        <v>1.95</v>
+      </c>
+      <c r="AK140">
+        <v>1.3</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.7</v>
+      </c>
+      <c r="AN140">
+        <v>1.18</v>
+      </c>
+      <c r="AO140">
+        <v>0.58</v>
+      </c>
+      <c r="AP140">
+        <v>1.33</v>
+      </c>
+      <c r="AQ140">
+        <v>0.54</v>
+      </c>
+      <c r="AR140">
+        <v>1.51</v>
+      </c>
+      <c r="AS140">
+        <v>1.13</v>
+      </c>
+      <c r="AT140">
+        <v>2.64</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>8</v>
+      </c>
+      <c r="AX140">
+        <v>11</v>
+      </c>
+      <c r="AY140">
+        <v>13</v>
+      </c>
+      <c r="AZ140">
+        <v>15</v>
+      </c>
+      <c r="BA140">
+        <v>6</v>
+      </c>
+      <c r="BB140">
+        <v>5</v>
+      </c>
+      <c r="BC140">
+        <v>11</v>
+      </c>
+      <c r="BD140">
+        <v>1.55</v>
+      </c>
+      <c r="BE140">
+        <v>8.5</v>
+      </c>
+      <c r="BF140">
+        <v>2.91</v>
+      </c>
+      <c r="BG140">
+        <v>1.2</v>
+      </c>
+      <c r="BH140">
+        <v>4.25</v>
+      </c>
+      <c r="BI140">
+        <v>1.33</v>
+      </c>
+      <c r="BJ140">
+        <v>3.05</v>
+      </c>
+      <c r="BK140">
+        <v>1.61</v>
+      </c>
+      <c r="BL140">
+        <v>2.17</v>
+      </c>
+      <c r="BM140">
+        <v>2.07</v>
+      </c>
+      <c r="BN140">
+        <v>1.67</v>
+      </c>
+      <c r="BO140">
+        <v>2.75</v>
+      </c>
+      <c r="BP140">
+        <v>1.4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="259">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -786,6 +786,12 @@
   <si>
     <t>['88']</t>
   </si>
+  <si>
+    <t>['3', '36', '68']</t>
+  </si>
+  <si>
+    <t>['33']</t>
+  </si>
 </sst>
 </file>
 
@@ -1146,7 +1152,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2307,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ6">
         <v>1.17</v>
@@ -2516,7 +2522,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ7">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2925,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ9">
         <v>0.67</v>
@@ -3131,10 +3137,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ10">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -4779,7 +4785,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ18">
         <v>1.18</v>
@@ -5194,7 +5200,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ20">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.71</v>
@@ -5603,10 +5609,10 @@
         <v>0.5</v>
       </c>
       <c r="AP22">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ22">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -6224,7 +6230,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ25">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR25">
         <v>0.78</v>
@@ -6633,7 +6639,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ27">
         <v>0.5</v>
@@ -8075,10 +8081,10 @@
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ34">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR34">
         <v>1.27</v>
@@ -8490,7 +8496,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ36">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR36">
         <v>1.37</v>
@@ -10341,7 +10347,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ45">
         <v>1.55</v>
@@ -10959,7 +10965,7 @@
         <v>0.5</v>
       </c>
       <c r="AP48">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ48">
         <v>0.55</v>
@@ -11786,7 +11792,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ52">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR52">
         <v>1.75</v>
@@ -11989,7 +11995,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ53">
         <v>0.91</v>
@@ -12816,7 +12822,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ57">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR57">
         <v>1.45</v>
@@ -13637,7 +13643,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ61">
         <v>0.54</v>
@@ -13843,7 +13849,7 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ62">
         <v>1.45</v>
@@ -14052,7 +14058,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ63">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR63">
         <v>1.99</v>
@@ -15700,7 +15706,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ71">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.67</v>
@@ -16318,7 +16324,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ74">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR74">
         <v>1.91</v>
@@ -16727,7 +16733,7 @@
         <v>0.5</v>
       </c>
       <c r="AP76">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ76">
         <v>0.91</v>
@@ -16933,7 +16939,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ77">
         <v>0.55</v>
@@ -17966,7 +17972,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ82">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.17</v>
@@ -18378,7 +18384,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ84">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR84">
         <v>1.87</v>
@@ -18581,7 +18587,7 @@
         <v>0.57</v>
       </c>
       <c r="AP85">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ85">
         <v>0.67</v>
@@ -19202,7 +19208,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ88">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR88">
         <v>1.22</v>
@@ -20023,7 +20029,7 @@
         <v>1.71</v>
       </c>
       <c r="AP92">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ92">
         <v>1.45</v>
@@ -20644,7 +20650,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ95">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR95">
         <v>1.27</v>
@@ -21877,7 +21883,7 @@
         <v>0.78</v>
       </c>
       <c r="AP101">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ101">
         <v>1.18</v>
@@ -22289,7 +22295,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ103">
         <v>0.54</v>
@@ -22704,7 +22710,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ105">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR105">
         <v>1.53</v>
@@ -23116,7 +23122,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ107">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR107">
         <v>1.71</v>
@@ -24349,7 +24355,7 @@
         <v>1.6</v>
       </c>
       <c r="AP113">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ113">
         <v>1.55</v>
@@ -24764,7 +24770,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ115">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR115">
         <v>1.56</v>
@@ -24970,7 +24976,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ116">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR116">
         <v>1.15</v>
@@ -25791,7 +25797,7 @@
         <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ120">
         <v>1.33</v>
@@ -27439,7 +27445,7 @@
         <v>0.5</v>
       </c>
       <c r="AP128">
-        <v>1.73</v>
+        <v>1.58</v>
       </c>
       <c r="AQ128">
         <v>0.5</v>
@@ -28060,7 +28066,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ131">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR131">
         <v>1.2</v>
@@ -28469,10 +28475,10 @@
         <v>1.4</v>
       </c>
       <c r="AP133">
-        <v>1.64</v>
+        <v>1.58</v>
       </c>
       <c r="AQ133">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AR133">
         <v>1.81</v>
@@ -28884,7 +28890,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ135">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AR135">
         <v>1.91</v>
@@ -29990,6 +29996,418 @@
       </c>
       <c r="BP140">
         <v>1.4</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7674863</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45555.5</v>
+      </c>
+      <c r="F141">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>74</v>
+      </c>
+      <c r="H141" t="s">
+        <v>72</v>
+      </c>
+      <c r="I141">
+        <v>0</v>
+      </c>
+      <c r="J141">
+        <v>2</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>0</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>3</v>
+      </c>
+      <c r="O141" t="s">
+        <v>83</v>
+      </c>
+      <c r="P141" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q141">
+        <v>3.6</v>
+      </c>
+      <c r="R141">
+        <v>2.4</v>
+      </c>
+      <c r="S141">
+        <v>2.6</v>
+      </c>
+      <c r="T141">
+        <v>1.25</v>
+      </c>
+      <c r="U141">
+        <v>3.75</v>
+      </c>
+      <c r="V141">
+        <v>2.25</v>
+      </c>
+      <c r="W141">
+        <v>1.62</v>
+      </c>
+      <c r="X141">
+        <v>4.75</v>
+      </c>
+      <c r="Y141">
+        <v>1.16</v>
+      </c>
+      <c r="Z141">
+        <v>3.1</v>
+      </c>
+      <c r="AA141">
+        <v>3.6</v>
+      </c>
+      <c r="AB141">
+        <v>1.95</v>
+      </c>
+      <c r="AC141">
+        <v>1.01</v>
+      </c>
+      <c r="AD141">
+        <v>13</v>
+      </c>
+      <c r="AE141">
+        <v>1.16</v>
+      </c>
+      <c r="AF141">
+        <v>5</v>
+      </c>
+      <c r="AG141">
+        <v>1.45</v>
+      </c>
+      <c r="AH141">
+        <v>2.55</v>
+      </c>
+      <c r="AI141">
+        <v>1.45</v>
+      </c>
+      <c r="AJ141">
+        <v>2.65</v>
+      </c>
+      <c r="AK141">
+        <v>1.8</v>
+      </c>
+      <c r="AL141">
+        <v>1.3</v>
+      </c>
+      <c r="AM141">
+        <v>1.38</v>
+      </c>
+      <c r="AN141">
+        <v>1.73</v>
+      </c>
+      <c r="AO141">
+        <v>1.33</v>
+      </c>
+      <c r="AP141">
+        <v>1.58</v>
+      </c>
+      <c r="AQ141">
+        <v>1.46</v>
+      </c>
+      <c r="AR141">
+        <v>1.66</v>
+      </c>
+      <c r="AS141">
+        <v>1.61</v>
+      </c>
+      <c r="AT141">
+        <v>3.27</v>
+      </c>
+      <c r="AU141">
+        <v>8</v>
+      </c>
+      <c r="AV141">
+        <v>10</v>
+      </c>
+      <c r="AW141">
+        <v>9</v>
+      </c>
+      <c r="AX141">
+        <v>6</v>
+      </c>
+      <c r="AY141">
+        <v>17</v>
+      </c>
+      <c r="AZ141">
+        <v>16</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>5</v>
+      </c>
+      <c r="BC141">
+        <v>10</v>
+      </c>
+      <c r="BD141">
+        <v>2.75</v>
+      </c>
+      <c r="BE141">
+        <v>7.5</v>
+      </c>
+      <c r="BF141">
+        <v>1.65</v>
+      </c>
+      <c r="BG141">
+        <v>1.13</v>
+      </c>
+      <c r="BH141">
+        <v>4.3</v>
+      </c>
+      <c r="BI141">
+        <v>1.3</v>
+      </c>
+      <c r="BJ141">
+        <v>3.3</v>
+      </c>
+      <c r="BK141">
+        <v>1.55</v>
+      </c>
+      <c r="BL141">
+        <v>2.38</v>
+      </c>
+      <c r="BM141">
+        <v>2</v>
+      </c>
+      <c r="BN141">
+        <v>1.8</v>
+      </c>
+      <c r="BO141">
+        <v>2.5</v>
+      </c>
+      <c r="BP141">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7674864</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45555.58333333334</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" t="s">
+        <v>77</v>
+      </c>
+      <c r="H142" t="s">
+        <v>76</v>
+      </c>
+      <c r="I142">
+        <v>0</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>173</v>
+      </c>
+      <c r="P142" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q142">
+        <v>4.33</v>
+      </c>
+      <c r="R142">
+        <v>2.35</v>
+      </c>
+      <c r="S142">
+        <v>2.35</v>
+      </c>
+      <c r="T142">
+        <v>1.3</v>
+      </c>
+      <c r="U142">
+        <v>3.5</v>
+      </c>
+      <c r="V142">
+        <v>2.4</v>
+      </c>
+      <c r="W142">
+        <v>1.53</v>
+      </c>
+      <c r="X142">
+        <v>5.5</v>
+      </c>
+      <c r="Y142">
+        <v>1.12</v>
+      </c>
+      <c r="Z142">
+        <v>4.7</v>
+      </c>
+      <c r="AA142">
+        <v>4</v>
+      </c>
+      <c r="AB142">
+        <v>1.62</v>
+      </c>
+      <c r="AC142">
+        <v>1.02</v>
+      </c>
+      <c r="AD142">
+        <v>15</v>
+      </c>
+      <c r="AE142">
+        <v>1.2</v>
+      </c>
+      <c r="AF142">
+        <v>4.5</v>
+      </c>
+      <c r="AG142">
+        <v>1.58</v>
+      </c>
+      <c r="AH142">
+        <v>2.38</v>
+      </c>
+      <c r="AI142">
+        <v>1.6</v>
+      </c>
+      <c r="AJ142">
+        <v>2.3</v>
+      </c>
+      <c r="AK142">
+        <v>2.1</v>
+      </c>
+      <c r="AL142">
+        <v>1.28</v>
+      </c>
+      <c r="AM142">
+        <v>1.28</v>
+      </c>
+      <c r="AN142">
+        <v>1.64</v>
+      </c>
+      <c r="AO142">
+        <v>1.55</v>
+      </c>
+      <c r="AP142">
+        <v>1.58</v>
+      </c>
+      <c r="AQ142">
+        <v>1.5</v>
+      </c>
+      <c r="AR142">
+        <v>1.81</v>
+      </c>
+      <c r="AS142">
+        <v>1.7</v>
+      </c>
+      <c r="AT142">
+        <v>3.51</v>
+      </c>
+      <c r="AU142">
+        <v>7</v>
+      </c>
+      <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>13</v>
+      </c>
+      <c r="AX142">
+        <v>9</v>
+      </c>
+      <c r="AY142">
+        <v>20</v>
+      </c>
+      <c r="AZ142">
+        <v>12</v>
+      </c>
+      <c r="BA142">
+        <v>8</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>12</v>
+      </c>
+      <c r="BD142">
+        <v>3.1</v>
+      </c>
+      <c r="BE142">
+        <v>8</v>
+      </c>
+      <c r="BF142">
+        <v>1.53</v>
+      </c>
+      <c r="BG142">
+        <v>1.18</v>
+      </c>
+      <c r="BH142">
+        <v>4.5</v>
+      </c>
+      <c r="BI142">
+        <v>1.34</v>
+      </c>
+      <c r="BJ142">
+        <v>3.1</v>
+      </c>
+      <c r="BK142">
+        <v>1.61</v>
+      </c>
+      <c r="BL142">
+        <v>2.23</v>
+      </c>
+      <c r="BM142">
+        <v>2.02</v>
+      </c>
+      <c r="BN142">
+        <v>1.74</v>
+      </c>
+      <c r="BO142">
+        <v>2.7</v>
+      </c>
+      <c r="BP142">
+        <v>1.44</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -569,6 +569,9 @@
   </si>
   <si>
     <t>['8', '12']</t>
+  </si>
+  <si>
+    <t>['6', '20', '46']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1152,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1411,7 +1414,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1823,7 +1826,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -2029,7 +2032,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2235,7 +2238,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2441,7 +2444,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2853,7 +2856,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -3059,7 +3062,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3265,7 +3268,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3471,7 +3474,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3552,7 +3555,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ12">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
@@ -3677,7 +3680,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4295,7 +4298,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4707,7 +4710,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4788,7 +4791,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ18">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR18">
         <v>1.66</v>
@@ -4913,7 +4916,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -4991,7 +4994,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
         <v>0.55</v>
@@ -5119,7 +5122,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5325,7 +5328,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5531,7 +5534,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5737,7 +5740,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5943,7 +5946,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6355,7 +6358,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6767,7 +6770,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7179,7 +7182,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7385,7 +7388,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7591,7 +7594,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7797,7 +7800,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8209,7 +8212,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8290,7 +8293,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ35">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR35">
         <v>1.29</v>
@@ -8621,7 +8624,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8699,7 +8702,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ37">
         <v>1.45</v>
@@ -9033,7 +9036,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9239,7 +9242,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9445,7 +9448,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10141,7 +10144,7 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ44">
         <v>0.5</v>
@@ -10269,7 +10272,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10556,7 +10559,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ46">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR46">
         <v>2.34</v>
@@ -10887,7 +10890,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11299,7 +11302,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11505,7 +11508,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11586,7 +11589,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ51">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR51">
         <v>1.21</v>
@@ -11711,7 +11714,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12123,7 +12126,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12329,7 +12332,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12535,7 +12538,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12947,7 +12950,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13153,7 +13156,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13231,7 +13234,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ59">
         <v>1.17</v>
@@ -13359,7 +13362,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14183,7 +14186,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14467,10 +14470,10 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ65">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR65">
         <v>1.2</v>
@@ -14801,7 +14804,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -15213,7 +15216,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15419,7 +15422,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15625,7 +15628,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -16037,7 +16040,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16115,7 +16118,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ73">
         <v>0.54</v>
@@ -16243,7 +16246,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16449,7 +16452,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16530,7 +16533,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ75">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR75">
         <v>1.51</v>
@@ -17067,7 +17070,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17479,7 +17482,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17685,7 +17688,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17891,7 +17894,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18097,7 +18100,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18509,7 +18512,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18715,7 +18718,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18921,7 +18924,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19002,7 +19005,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ87">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR87">
         <v>1.85</v>
@@ -19127,7 +19130,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19539,7 +19542,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19617,7 +19620,7 @@
         <v>0.57</v>
       </c>
       <c r="AP90">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
         <v>0.91</v>
@@ -19745,7 +19748,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19951,7 +19954,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20569,7 +20572,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20775,7 +20778,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21187,7 +21190,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21268,7 +21271,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ98">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR98">
         <v>1.67</v>
@@ -21393,7 +21396,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21886,7 +21889,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ101">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR101">
         <v>1.44</v>
@@ -22011,7 +22014,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22089,7 +22092,7 @@
         <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ102">
         <v>1.55</v>
@@ -22629,7 +22632,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -23041,7 +23044,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23247,7 +23250,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23325,7 +23328,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ108">
         <v>1.33</v>
@@ -24277,7 +24280,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24895,7 +24898,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -24973,7 +24976,7 @@
         <v>1.22</v>
       </c>
       <c r="AP116">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25719,7 +25722,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25925,7 +25928,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -26337,7 +26340,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -27242,7 +27245,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ127">
-        <v>1.18</v>
+        <v>1.08</v>
       </c>
       <c r="AR127">
         <v>1.92</v>
@@ -27573,7 +27576,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27779,7 +27782,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27985,7 +27988,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28063,7 +28066,7 @@
         <v>1.4</v>
       </c>
       <c r="AP131">
-        <v>0.55</v>
+        <v>0.75</v>
       </c>
       <c r="AQ131">
         <v>1.46</v>
@@ -28397,7 +28400,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28603,7 +28606,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28809,7 +28812,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29015,7 +29018,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q136">
         <v>2.04</v>
@@ -29427,7 +29430,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q138">
         <v>1.95</v>
@@ -29633,7 +29636,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q139">
         <v>2.19</v>
@@ -29839,7 +29842,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q140">
         <v>2.77</v>
@@ -30045,7 +30048,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30251,7 +30254,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q142">
         <v>4.33</v>
@@ -30408,6 +30411,212 @@
       </c>
       <c r="BP142">
         <v>1.44</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7674865</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45557.41666666666</v>
+      </c>
+      <c r="F143">
+        <v>2</v>
+      </c>
+      <c r="G143" t="s">
+        <v>80</v>
+      </c>
+      <c r="H143" t="s">
+        <v>70</v>
+      </c>
+      <c r="I143">
+        <v>2</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>185</v>
+      </c>
+      <c r="P143" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q143">
+        <v>4.75</v>
+      </c>
+      <c r="R143">
+        <v>2.4</v>
+      </c>
+      <c r="S143">
+        <v>2.2</v>
+      </c>
+      <c r="T143">
+        <v>1.29</v>
+      </c>
+      <c r="U143">
+        <v>3.5</v>
+      </c>
+      <c r="V143">
+        <v>2.25</v>
+      </c>
+      <c r="W143">
+        <v>1.57</v>
+      </c>
+      <c r="X143">
+        <v>5.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.14</v>
+      </c>
+      <c r="Z143">
+        <v>4.75</v>
+      </c>
+      <c r="AA143">
+        <v>4</v>
+      </c>
+      <c r="AB143">
+        <v>1.63</v>
+      </c>
+      <c r="AC143">
+        <v>1.03</v>
+      </c>
+      <c r="AD143">
+        <v>14.4</v>
+      </c>
+      <c r="AE143">
+        <v>1.19</v>
+      </c>
+      <c r="AF143">
+        <v>4.76</v>
+      </c>
+      <c r="AG143">
+        <v>1.69</v>
+      </c>
+      <c r="AH143">
+        <v>2.18</v>
+      </c>
+      <c r="AI143">
+        <v>1.62</v>
+      </c>
+      <c r="AJ143">
+        <v>2.2</v>
+      </c>
+      <c r="AK143">
+        <v>2.3</v>
+      </c>
+      <c r="AL143">
+        <v>1.25</v>
+      </c>
+      <c r="AM143">
+        <v>1.22</v>
+      </c>
+      <c r="AN143">
+        <v>0.55</v>
+      </c>
+      <c r="AO143">
+        <v>1.18</v>
+      </c>
+      <c r="AP143">
+        <v>0.75</v>
+      </c>
+      <c r="AQ143">
+        <v>1.08</v>
+      </c>
+      <c r="AR143">
+        <v>1.2</v>
+      </c>
+      <c r="AS143">
+        <v>1.47</v>
+      </c>
+      <c r="AT143">
+        <v>2.67</v>
+      </c>
+      <c r="AU143">
+        <v>7</v>
+      </c>
+      <c r="AV143">
+        <v>7</v>
+      </c>
+      <c r="AW143">
+        <v>7</v>
+      </c>
+      <c r="AX143">
+        <v>6</v>
+      </c>
+      <c r="AY143">
+        <v>14</v>
+      </c>
+      <c r="AZ143">
+        <v>13</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>5</v>
+      </c>
+      <c r="BC143">
+        <v>8</v>
+      </c>
+      <c r="BD143">
+        <v>3.75</v>
+      </c>
+      <c r="BE143">
+        <v>8</v>
+      </c>
+      <c r="BF143">
+        <v>1.4</v>
+      </c>
+      <c r="BG143">
+        <v>1.27</v>
+      </c>
+      <c r="BH143">
+        <v>3.55</v>
+      </c>
+      <c r="BI143">
+        <v>1.5</v>
+      </c>
+      <c r="BJ143">
+        <v>2.48</v>
+      </c>
+      <c r="BK143">
+        <v>1.85</v>
+      </c>
+      <c r="BL143">
+        <v>1.95</v>
+      </c>
+      <c r="BM143">
+        <v>2.45</v>
+      </c>
+      <c r="BN143">
+        <v>1.5</v>
+      </c>
+      <c r="BO143">
+        <v>3.4</v>
+      </c>
+      <c r="BP143">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -572,6 +572,12 @@
   </si>
   <si>
     <t>['6', '20', '46']</t>
+  </si>
+  <si>
+    <t>['15']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1155,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1420,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1495,7 +1501,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ2">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1698,7 +1704,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ3">
         <v>0.5</v>
@@ -1826,7 +1832,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -2032,7 +2038,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2238,7 +2244,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2444,7 +2450,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2856,7 +2862,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -3062,7 +3068,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3268,7 +3274,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3474,7 +3480,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3552,7 +3558,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ12">
         <v>1.08</v>
@@ -3680,7 +3686,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3761,7 +3767,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ13">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -4173,7 +4179,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ15">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4298,7 +4304,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4710,7 +4716,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4916,7 +4922,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5122,7 +5128,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5328,7 +5334,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5534,7 +5540,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5740,7 +5746,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5821,7 +5827,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5946,7 +5952,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6024,7 +6030,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ24">
         <v>1.17</v>
@@ -6358,7 +6364,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6770,7 +6776,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6848,7 +6854,7 @@
         <v>0.67</v>
       </c>
       <c r="AP28">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ28">
         <v>0.55</v>
@@ -7182,7 +7188,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7263,7 +7269,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ30">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7388,7 +7394,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7594,7 +7600,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7675,7 +7681,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ32">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -7800,7 +7806,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8212,7 +8218,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8290,7 +8296,7 @@
         <v>1.5</v>
       </c>
       <c r="AP35">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ35">
         <v>1.08</v>
@@ -8624,7 +8630,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9036,7 +9042,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9242,7 +9248,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9320,7 +9326,7 @@
         <v>0</v>
       </c>
       <c r="AP40">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ40">
         <v>0.54</v>
@@ -9448,7 +9454,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9529,7 +9535,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ41">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9732,7 +9738,7 @@
         <v>2</v>
       </c>
       <c r="AP42">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ42">
         <v>1.33</v>
@@ -9941,7 +9947,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ43">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10272,7 +10278,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10353,7 +10359,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ45">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10762,10 +10768,10 @@
         <v>0</v>
       </c>
       <c r="AP47">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ47">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -10890,7 +10896,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11302,7 +11308,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11508,7 +11514,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11714,7 +11720,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12001,7 +12007,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ53">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -12126,7 +12132,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12332,7 +12338,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12410,10 +12416,10 @@
         <v>1.67</v>
       </c>
       <c r="AP55">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ55">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12538,7 +12544,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12822,7 +12828,7 @@
         <v>1.25</v>
       </c>
       <c r="AP57">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ57">
         <v>1.5</v>
@@ -12950,7 +12956,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13156,7 +13162,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13362,7 +13368,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13443,7 +13449,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -14186,7 +14192,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14804,7 +14810,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -15216,7 +15222,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15422,7 +15428,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15500,7 +15506,7 @@
         <v>0.4</v>
       </c>
       <c r="AP70">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ70">
         <v>0.5</v>
@@ -15628,7 +15634,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15915,7 +15921,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR72">
         <v>1.95</v>
@@ -16040,7 +16046,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16246,7 +16252,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16324,7 +16330,7 @@
         <v>1.4</v>
       </c>
       <c r="AP74">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ74">
         <v>1.46</v>
@@ -16452,7 +16458,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16739,7 +16745,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ76">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>1.38</v>
@@ -17070,7 +17076,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17354,10 +17360,10 @@
         <v>1.63</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ79">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17482,7 +17488,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17688,7 +17694,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17894,7 +17900,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18100,7 +18106,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18384,7 +18390,7 @@
         <v>1.57</v>
       </c>
       <c r="AP84">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ84">
         <v>1.5</v>
@@ -18512,7 +18518,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18718,7 +18724,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18924,7 +18930,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19130,7 +19136,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19208,7 +19214,7 @@
         <v>1.33</v>
       </c>
       <c r="AP88">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ88">
         <v>1.46</v>
@@ -19542,7 +19548,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19623,7 +19629,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR90">
         <v>1.13</v>
@@ -19748,7 +19754,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19954,7 +19960,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20444,7 +20450,7 @@
         <v>0.88</v>
       </c>
       <c r="AP94">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ94">
         <v>0.67</v>
@@ -20572,7 +20578,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20778,7 +20784,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20856,7 +20862,7 @@
         <v>1.86</v>
       </c>
       <c r="AP96">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ96">
         <v>1.17</v>
@@ -21190,7 +21196,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21396,7 +21402,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -22014,7 +22020,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22095,7 +22101,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ102">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR102">
         <v>1.08</v>
@@ -22632,7 +22638,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22916,7 +22922,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ106">
         <v>1.45</v>
@@ -23044,7 +23050,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23250,7 +23256,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23946,10 +23952,10 @@
         <v>0.88</v>
       </c>
       <c r="AP111">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ111">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR111">
         <v>1.2</v>
@@ -24152,7 +24158,7 @@
         <v>0.88</v>
       </c>
       <c r="AP112">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ112">
         <v>0.54</v>
@@ -24280,7 +24286,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24361,7 +24367,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ113">
-        <v>1.55</v>
+        <v>1.42</v>
       </c>
       <c r="AR113">
         <v>1.59</v>
@@ -24898,7 +24904,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25722,7 +25728,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25928,7 +25934,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -26212,7 +26218,7 @@
         <v>0.7</v>
       </c>
       <c r="AP122">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ122">
         <v>0.67</v>
@@ -26340,7 +26346,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -26418,7 +26424,7 @@
         <v>1.3</v>
       </c>
       <c r="AP123">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ123">
         <v>1.33</v>
@@ -26833,7 +26839,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ125">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR125">
         <v>1.93</v>
@@ -27576,7 +27582,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27657,7 +27663,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR129">
         <v>1.65</v>
@@ -27782,7 +27788,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27988,7 +27994,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28400,7 +28406,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28606,7 +28612,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28812,7 +28818,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29018,7 +29024,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q136">
         <v>2.04</v>
@@ -29096,7 +29102,7 @@
         <v>1.45</v>
       </c>
       <c r="AP136">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ136">
         <v>1.33</v>
@@ -29302,7 +29308,7 @@
         <v>0.55</v>
       </c>
       <c r="AP137">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ137">
         <v>0.5</v>
@@ -29430,7 +29436,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q138">
         <v>1.95</v>
@@ -29636,7 +29642,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q139">
         <v>2.19</v>
@@ -29842,7 +29848,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q140">
         <v>2.77</v>
@@ -30048,7 +30054,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30254,7 +30260,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q142">
         <v>4.33</v>
@@ -30460,7 +30466,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q143">
         <v>4.75</v>
@@ -30617,6 +30623,418 @@
       </c>
       <c r="BP143">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7674866</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45559.5</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" t="s">
+        <v>81</v>
+      </c>
+      <c r="H144" t="s">
+        <v>78</v>
+      </c>
+      <c r="I144">
+        <v>1</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>1</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>186</v>
+      </c>
+      <c r="P144" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q144">
+        <v>3.75</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>2.75</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
+        <v>3</v>
+      </c>
+      <c r="V144">
+        <v>2.75</v>
+      </c>
+      <c r="W144">
+        <v>1.4</v>
+      </c>
+      <c r="X144">
+        <v>7</v>
+      </c>
+      <c r="Y144">
+        <v>1.1</v>
+      </c>
+      <c r="Z144">
+        <v>2.7</v>
+      </c>
+      <c r="AA144">
+        <v>3.2</v>
+      </c>
+      <c r="AB144">
+        <v>2.3</v>
+      </c>
+      <c r="AC144">
+        <v>1.02</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.25</v>
+      </c>
+      <c r="AF144">
+        <v>3.6</v>
+      </c>
+      <c r="AG144">
+        <v>1.85</v>
+      </c>
+      <c r="AH144">
+        <v>1.85</v>
+      </c>
+      <c r="AI144">
+        <v>1.7</v>
+      </c>
+      <c r="AJ144">
+        <v>2.05</v>
+      </c>
+      <c r="AK144">
+        <v>1.67</v>
+      </c>
+      <c r="AL144">
+        <v>1.3</v>
+      </c>
+      <c r="AM144">
+        <v>1.38</v>
+      </c>
+      <c r="AN144">
+        <v>1.5</v>
+      </c>
+      <c r="AO144">
+        <v>0.91</v>
+      </c>
+      <c r="AP144">
+        <v>1.62</v>
+      </c>
+      <c r="AQ144">
+        <v>0.83</v>
+      </c>
+      <c r="AR144">
+        <v>1.19</v>
+      </c>
+      <c r="AS144">
+        <v>1.64</v>
+      </c>
+      <c r="AT144">
+        <v>2.83</v>
+      </c>
+      <c r="AU144">
+        <v>4</v>
+      </c>
+      <c r="AV144">
+        <v>3</v>
+      </c>
+      <c r="AW144">
+        <v>6</v>
+      </c>
+      <c r="AX144">
+        <v>11</v>
+      </c>
+      <c r="AY144">
+        <v>10</v>
+      </c>
+      <c r="AZ144">
+        <v>14</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>13</v>
+      </c>
+      <c r="BC144">
+        <v>17</v>
+      </c>
+      <c r="BD144">
+        <v>2.75</v>
+      </c>
+      <c r="BE144">
+        <v>7.5</v>
+      </c>
+      <c r="BF144">
+        <v>1.67</v>
+      </c>
+      <c r="BG144">
+        <v>1.27</v>
+      </c>
+      <c r="BH144">
+        <v>3.55</v>
+      </c>
+      <c r="BI144">
+        <v>1.5</v>
+      </c>
+      <c r="BJ144">
+        <v>2.48</v>
+      </c>
+      <c r="BK144">
+        <v>1.87</v>
+      </c>
+      <c r="BL144">
+        <v>1.87</v>
+      </c>
+      <c r="BM144">
+        <v>2.45</v>
+      </c>
+      <c r="BN144">
+        <v>1.5</v>
+      </c>
+      <c r="BO144">
+        <v>3.4</v>
+      </c>
+      <c r="BP144">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7674867</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45559.54166666666</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>75</v>
+      </c>
+      <c r="I145">
+        <v>1</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>1</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>187</v>
+      </c>
+      <c r="P145" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q145">
+        <v>3</v>
+      </c>
+      <c r="R145">
+        <v>2.25</v>
+      </c>
+      <c r="S145">
+        <v>3.4</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.63</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>2.32</v>
+      </c>
+      <c r="AA145">
+        <v>3.42</v>
+      </c>
+      <c r="AB145">
+        <v>2.87</v>
+      </c>
+      <c r="AC145">
+        <v>1.04</v>
+      </c>
+      <c r="AD145">
+        <v>12</v>
+      </c>
+      <c r="AE145">
+        <v>1.25</v>
+      </c>
+      <c r="AF145">
+        <v>4</v>
+      </c>
+      <c r="AG145">
+        <v>1.75</v>
+      </c>
+      <c r="AH145">
+        <v>2.05</v>
+      </c>
+      <c r="AI145">
+        <v>1.62</v>
+      </c>
+      <c r="AJ145">
+        <v>2.2</v>
+      </c>
+      <c r="AK145">
+        <v>1.47</v>
+      </c>
+      <c r="AL145">
+        <v>1.33</v>
+      </c>
+      <c r="AM145">
+        <v>1.6</v>
+      </c>
+      <c r="AN145">
+        <v>2.17</v>
+      </c>
+      <c r="AO145">
+        <v>1.55</v>
+      </c>
+      <c r="AP145">
+        <v>2.23</v>
+      </c>
+      <c r="AQ145">
+        <v>1.42</v>
+      </c>
+      <c r="AR145">
+        <v>1.82</v>
+      </c>
+      <c r="AS145">
+        <v>1.68</v>
+      </c>
+      <c r="AT145">
+        <v>3.5</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>3</v>
+      </c>
+      <c r="AW145">
+        <v>8</v>
+      </c>
+      <c r="AX145">
+        <v>12</v>
+      </c>
+      <c r="AY145">
+        <v>12</v>
+      </c>
+      <c r="AZ145">
+        <v>15</v>
+      </c>
+      <c r="BA145">
+        <v>2</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>2.18</v>
+      </c>
+      <c r="BE145">
+        <v>7</v>
+      </c>
+      <c r="BF145">
+        <v>1.98</v>
+      </c>
+      <c r="BG145">
+        <v>1.22</v>
+      </c>
+      <c r="BH145">
+        <v>4</v>
+      </c>
+      <c r="BI145">
+        <v>1.42</v>
+      </c>
+      <c r="BJ145">
+        <v>2.75</v>
+      </c>
+      <c r="BK145">
+        <v>1.74</v>
+      </c>
+      <c r="BL145">
+        <v>2.02</v>
+      </c>
+      <c r="BM145">
+        <v>2.23</v>
+      </c>
+      <c r="BN145">
+        <v>1.61</v>
+      </c>
+      <c r="BO145">
+        <v>3</v>
+      </c>
+      <c r="BP145">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -578,6 +578,9 @@
   </si>
   <si>
     <t>['37']</t>
+  </si>
+  <si>
+    <t>['53']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1161,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1420,7 +1423,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ2">
         <v>0.83</v>
@@ -1832,7 +1835,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1913,7 +1916,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ4">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2038,7 +2041,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2244,7 +2247,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2450,7 +2453,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2862,7 +2865,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -3068,7 +3071,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3274,7 +3277,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3355,7 +3358,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ11">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3480,7 +3483,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3686,7 +3689,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4304,7 +4307,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4716,7 +4719,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4922,7 +4925,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5003,7 +5006,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5128,7 +5131,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5334,7 +5337,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5540,7 +5543,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5746,7 +5749,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5952,7 +5955,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6236,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ25">
         <v>1.46</v>
@@ -6364,7 +6367,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6776,7 +6779,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6857,7 +6860,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ28">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -7188,7 +7191,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7394,7 +7397,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7472,7 +7475,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ31">
         <v>1.33</v>
@@ -7600,7 +7603,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7806,7 +7809,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8218,7 +8221,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8630,7 +8633,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9042,7 +9045,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9248,7 +9251,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9454,7 +9457,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9944,7 +9947,7 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ43">
         <v>1.42</v>
@@ -10278,7 +10281,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10896,7 +10899,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10977,7 +10980,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ48">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11308,7 +11311,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11514,7 +11517,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11720,7 +11723,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12132,7 +12135,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12338,7 +12341,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12544,7 +12547,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12956,7 +12959,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13034,7 +13037,7 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ58">
         <v>0.5</v>
@@ -13162,7 +13165,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13368,7 +13371,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14192,7 +14195,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14273,7 +14276,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ64">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14810,7 +14813,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -15222,7 +15225,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15428,7 +15431,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15634,7 +15637,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15712,7 +15715,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -16046,7 +16049,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16252,7 +16255,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16458,7 +16461,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16951,7 +16954,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ77">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -17076,7 +17079,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17488,7 +17491,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17694,7 +17697,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17900,7 +17903,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18106,7 +18109,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18184,7 +18187,7 @@
         <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ83">
         <v>0.67</v>
@@ -18518,7 +18521,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18724,7 +18727,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18930,7 +18933,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19136,7 +19139,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19548,7 +19551,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19754,7 +19757,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19835,7 +19838,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR91">
         <v>1.47</v>
@@ -19960,7 +19963,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20578,7 +20581,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20784,7 +20787,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21196,7 +21199,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21402,7 +21405,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21689,7 +21692,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ100">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -22020,7 +22023,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22638,7 +22641,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -23050,7 +23053,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23256,7 +23259,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23540,7 +23543,7 @@
         <v>1.63</v>
       </c>
       <c r="AP109">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ109">
         <v>1.17</v>
@@ -24286,7 +24289,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24904,7 +24907,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25188,10 +25191,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ117">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25728,7 +25731,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25934,7 +25937,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -26012,7 +26015,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ121">
         <v>0.54</v>
@@ -26346,7 +26349,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -27582,7 +27585,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27788,7 +27791,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27866,7 +27869,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ130">
         <v>1.45</v>
@@ -27994,7 +27997,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28281,7 +28284,7 @@
         <v>1.18</v>
       </c>
       <c r="AQ132">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AR132">
         <v>1.28</v>
@@ -28406,7 +28409,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28612,7 +28615,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28818,7 +28821,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29024,7 +29027,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q136">
         <v>2.04</v>
@@ -29436,7 +29439,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q138">
         <v>1.95</v>
@@ -29642,7 +29645,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q139">
         <v>2.19</v>
@@ -29720,7 +29723,7 @@
         <v>0.64</v>
       </c>
       <c r="AP139">
-        <v>1.67</v>
+        <v>1.77</v>
       </c>
       <c r="AQ139">
         <v>0.54</v>
@@ -29848,7 +29851,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q140">
         <v>2.77</v>
@@ -30054,7 +30057,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30260,7 +30263,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q142">
         <v>4.33</v>
@@ -30466,7 +30469,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q143">
         <v>4.75</v>
@@ -31035,6 +31038,212 @@
       </c>
       <c r="BP145">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7674868</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45562.5</v>
+      </c>
+      <c r="F146">
+        <v>3</v>
+      </c>
+      <c r="G146" t="s">
+        <v>70</v>
+      </c>
+      <c r="H146" t="s">
+        <v>81</v>
+      </c>
+      <c r="I146">
+        <v>0</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>0</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>0</v>
+      </c>
+      <c r="N146">
+        <v>1</v>
+      </c>
+      <c r="O146" t="s">
+        <v>188</v>
+      </c>
+      <c r="P146" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q146">
+        <v>2.4</v>
+      </c>
+      <c r="R146">
+        <v>2.25</v>
+      </c>
+      <c r="S146">
+        <v>3.75</v>
+      </c>
+      <c r="T146">
+        <v>1.3</v>
+      </c>
+      <c r="U146">
+        <v>3.2</v>
+      </c>
+      <c r="V146">
+        <v>2.3</v>
+      </c>
+      <c r="W146">
+        <v>1.55</v>
+      </c>
+      <c r="X146">
+        <v>5.5</v>
+      </c>
+      <c r="Y146">
+        <v>1.13</v>
+      </c>
+      <c r="Z146">
+        <v>1.95</v>
+      </c>
+      <c r="AA146">
+        <v>3.53</v>
+      </c>
+      <c r="AB146">
+        <v>3.65</v>
+      </c>
+      <c r="AC146">
+        <v>1.01</v>
+      </c>
+      <c r="AD146">
+        <v>11</v>
+      </c>
+      <c r="AE146">
+        <v>1.14</v>
+      </c>
+      <c r="AF146">
+        <v>4.8</v>
+      </c>
+      <c r="AG146">
+        <v>1.62</v>
+      </c>
+      <c r="AH146">
+        <v>2.26</v>
+      </c>
+      <c r="AI146">
+        <v>1.53</v>
+      </c>
+      <c r="AJ146">
+        <v>2.38</v>
+      </c>
+      <c r="AK146">
+        <v>1.25</v>
+      </c>
+      <c r="AL146">
+        <v>1.22</v>
+      </c>
+      <c r="AM146">
+        <v>1.83</v>
+      </c>
+      <c r="AN146">
+        <v>1.67</v>
+      </c>
+      <c r="AO146">
+        <v>0.55</v>
+      </c>
+      <c r="AP146">
+        <v>1.77</v>
+      </c>
+      <c r="AQ146">
+        <v>0.5</v>
+      </c>
+      <c r="AR146">
+        <v>1.61</v>
+      </c>
+      <c r="AS146">
+        <v>1.4</v>
+      </c>
+      <c r="AT146">
+        <v>3.01</v>
+      </c>
+      <c r="AU146">
+        <v>5</v>
+      </c>
+      <c r="AV146">
+        <v>4</v>
+      </c>
+      <c r="AW146">
+        <v>7</v>
+      </c>
+      <c r="AX146">
+        <v>7</v>
+      </c>
+      <c r="AY146">
+        <v>12</v>
+      </c>
+      <c r="AZ146">
+        <v>11</v>
+      </c>
+      <c r="BA146">
+        <v>2</v>
+      </c>
+      <c r="BB146">
+        <v>2</v>
+      </c>
+      <c r="BC146">
+        <v>4</v>
+      </c>
+      <c r="BD146">
+        <v>1.51</v>
+      </c>
+      <c r="BE146">
+        <v>8.5</v>
+      </c>
+      <c r="BF146">
+        <v>3.16</v>
+      </c>
+      <c r="BG146">
+        <v>1.26</v>
+      </c>
+      <c r="BH146">
+        <v>3.08</v>
+      </c>
+      <c r="BI146">
+        <v>1.47</v>
+      </c>
+      <c r="BJ146">
+        <v>2.5</v>
+      </c>
+      <c r="BK146">
+        <v>2</v>
+      </c>
+      <c r="BL146">
+        <v>1.8</v>
+      </c>
+      <c r="BM146">
+        <v>2.32</v>
+      </c>
+      <c r="BN146">
+        <v>1.54</v>
+      </c>
+      <c r="BO146">
+        <v>3.1</v>
+      </c>
+      <c r="BP146">
+        <v>1.32</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="267">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -583,6 +583,15 @@
     <t>['53']</t>
   </si>
   <si>
+    <t>['81']</t>
+  </si>
+  <si>
+    <t>['44', '61', '87']</t>
+  </si>
+  <si>
+    <t>['53', '90+4']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -803,6 +812,9 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['43', '52', '67', '84']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1176,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1435,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1835,7 +1847,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1913,7 +1925,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4">
         <v>0.5</v>
@@ -2041,7 +2053,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2119,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ5">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2247,7 +2259,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2328,7 +2340,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ6">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2453,7 +2465,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2531,7 +2543,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ7">
         <v>1.5</v>
@@ -2737,7 +2749,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -2865,7 +2877,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2946,7 +2958,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ9">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -3071,7 +3083,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3277,7 +3289,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3483,7 +3495,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3689,7 +3701,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3767,7 +3779,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ13">
         <v>1.42</v>
@@ -3973,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -4307,7 +4319,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4385,7 +4397,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ16">
         <v>0.54</v>
@@ -4594,7 +4606,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4719,7 +4731,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4925,7 +4937,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5131,7 +5143,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5209,7 +5221,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5337,7 +5349,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5418,7 +5430,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ21">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR21">
         <v>1.15</v>
@@ -5543,7 +5555,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5749,7 +5761,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5955,7 +5967,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6036,7 +6048,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ24">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR24">
         <v>0</v>
@@ -6367,7 +6379,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6445,10 +6457,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6779,7 +6791,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7063,10 +7075,10 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR29">
         <v>2.39</v>
@@ -7191,7 +7203,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7269,7 +7281,7 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ30">
         <v>1.42</v>
@@ -7397,7 +7409,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7478,7 +7490,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ31">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7603,7 +7615,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7681,7 +7693,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ32">
         <v>0.83</v>
@@ -7809,7 +7821,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7887,10 +7899,10 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ33">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR33">
         <v>1.32</v>
@@ -8221,7 +8233,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8633,7 +8645,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8714,7 +8726,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -9045,7 +9057,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9123,10 +9135,10 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ39">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR39">
         <v>2.4</v>
@@ -9251,7 +9263,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9457,7 +9469,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9535,7 +9547,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9744,7 +9756,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ42">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -10281,7 +10293,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10565,7 +10577,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ46">
         <v>1.08</v>
@@ -10899,7 +10911,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11183,10 +11195,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ49">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -11311,7 +11323,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11389,10 +11401,10 @@
         <v>0.25</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ50">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR50">
         <v>0.93</v>
@@ -11517,7 +11529,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11595,7 +11607,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51">
         <v>1.08</v>
@@ -11723,7 +11735,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12135,7 +12147,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12216,7 +12228,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -12341,7 +12353,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12547,7 +12559,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12625,7 +12637,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ56">
         <v>0.54</v>
@@ -12959,7 +12971,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13165,7 +13177,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13246,7 +13258,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ59">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR59">
         <v>1.01</v>
@@ -13371,7 +13383,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -13864,7 +13876,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ62">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR62">
         <v>1.91</v>
@@ -14067,7 +14079,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ63">
         <v>1.46</v>
@@ -14195,7 +14207,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14273,7 +14285,7 @@
         <v>0.4</v>
       </c>
       <c r="AP64">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ64">
         <v>0.5</v>
@@ -14685,10 +14697,10 @@
         <v>2.4</v>
       </c>
       <c r="AP66">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ66">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR66">
         <v>1.19</v>
@@ -14813,7 +14825,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -14894,7 +14906,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ67">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -15097,10 +15109,10 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ68">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15225,7 +15237,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15303,10 +15315,10 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR69">
         <v>1.63</v>
@@ -15431,7 +15443,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15637,7 +15649,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15921,7 +15933,7 @@
         <v>1.86</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ72">
         <v>1.42</v>
@@ -16049,7 +16061,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16255,7 +16267,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16461,7 +16473,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -17079,7 +17091,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17160,7 +17172,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ78">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR78">
         <v>1.54</v>
@@ -17491,7 +17503,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17569,10 +17581,10 @@
         <v>1.4</v>
       </c>
       <c r="AP80">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ80">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -17697,7 +17709,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17778,7 +17790,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR81">
         <v>1.47</v>
@@ -17903,7 +17915,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -17981,7 +17993,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18109,7 +18121,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18190,7 +18202,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ83">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR83">
         <v>1.64</v>
@@ -18521,7 +18533,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18602,7 +18614,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ85">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR85">
         <v>1.85</v>
@@ -18727,7 +18739,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18805,10 +18817,10 @@
         <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR86">
         <v>1.21</v>
@@ -18933,7 +18945,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19011,7 +19023,7 @@
         <v>0.86</v>
       </c>
       <c r="AP87">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ87">
         <v>1.08</v>
@@ -19139,7 +19151,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19551,7 +19563,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19757,7 +19769,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19963,7 +19975,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20044,7 +20056,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ92">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR92">
         <v>1.34</v>
@@ -20247,10 +20259,10 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ93">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR93">
         <v>1.91</v>
@@ -20456,7 +20468,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ94">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR94">
         <v>1.25</v>
@@ -20581,7 +20593,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20659,7 +20671,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ95">
         <v>1.46</v>
@@ -20787,7 +20799,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -20868,7 +20880,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ96">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR96">
         <v>1.83</v>
@@ -21071,7 +21083,7 @@
         <v>0.43</v>
       </c>
       <c r="AP97">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ97">
         <v>0.5</v>
@@ -21199,7 +21211,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21405,7 +21417,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21483,7 +21495,7 @@
         <v>0.38</v>
       </c>
       <c r="AP99">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ99">
         <v>0.5</v>
@@ -21689,7 +21701,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ100">
         <v>0.5</v>
@@ -22023,7 +22035,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22641,7 +22653,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -22928,7 +22940,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ106">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR106">
         <v>1.22</v>
@@ -23053,7 +23065,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23131,7 +23143,7 @@
         <v>1.75</v>
       </c>
       <c r="AP107">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ107">
         <v>1.46</v>
@@ -23259,7 +23271,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23340,7 +23352,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ108">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR108">
         <v>1.12</v>
@@ -23546,7 +23558,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ109">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR109">
         <v>1.75</v>
@@ -23752,7 +23764,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ110">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR110">
         <v>1.51</v>
@@ -24289,7 +24301,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24573,10 +24585,10 @@
         <v>1.44</v>
       </c>
       <c r="AP114">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ114">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR114">
         <v>1.9</v>
@@ -24907,7 +24919,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25397,10 +25409,10 @@
         <v>1.67</v>
       </c>
       <c r="AP118">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ118">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR118">
         <v>1.56</v>
@@ -25603,7 +25615,7 @@
         <v>0.44</v>
       </c>
       <c r="AP119">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ119">
         <v>0.5</v>
@@ -25731,7 +25743,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25812,7 +25824,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ120">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR120">
         <v>1.82</v>
@@ -25937,7 +25949,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -26224,7 +26236,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ122">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR122">
         <v>1.71</v>
@@ -26349,7 +26361,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -26430,7 +26442,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ123">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR123">
         <v>1.14</v>
@@ -26633,7 +26645,7 @@
         <v>0.7</v>
       </c>
       <c r="AP124">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ124">
         <v>0.54</v>
@@ -26839,7 +26851,7 @@
         <v>0.78</v>
       </c>
       <c r="AP125">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ125">
         <v>0.83</v>
@@ -27048,7 +27060,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ126">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR126">
         <v>1.51</v>
@@ -27251,7 +27263,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AQ127">
         <v>1.08</v>
@@ -27585,7 +27597,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27663,7 +27675,7 @@
         <v>0.7</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ129">
         <v>0.83</v>
@@ -27791,7 +27803,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27872,7 +27884,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ130">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -27997,7 +28009,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28281,7 +28293,7 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>1.18</v>
+        <v>1.33</v>
       </c>
       <c r="AQ132">
         <v>0.5</v>
@@ -28409,7 +28421,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28615,7 +28627,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28696,7 +28708,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ134">
-        <v>0.67</v>
+        <v>0.62</v>
       </c>
       <c r="AR134">
         <v>1.65</v>
@@ -28821,7 +28833,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -28899,7 +28911,7 @@
         <v>1.36</v>
       </c>
       <c r="AP135">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ135">
         <v>1.46</v>
@@ -29027,7 +29039,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q136">
         <v>2.04</v>
@@ -29108,7 +29120,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ136">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -29439,7 +29451,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q138">
         <v>1.95</v>
@@ -29517,10 +29529,10 @@
         <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>2.5</v>
+        <v>2.54</v>
       </c>
       <c r="AQ138">
-        <v>1.17</v>
+        <v>1.31</v>
       </c>
       <c r="AR138">
         <v>1.67</v>
@@ -29645,7 +29657,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q139">
         <v>2.19</v>
@@ -29851,7 +29863,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q140">
         <v>2.77</v>
@@ -30057,7 +30069,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30263,7 +30275,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q142">
         <v>4.33</v>
@@ -30436,7 +30448,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45557.41666666666</v>
+        <v>45556.875</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -30469,7 +30481,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q143">
         <v>4.75</v>
@@ -30562,22 +30574,22 @@
         <v>2.67</v>
       </c>
       <c r="AU143">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV143">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AW143">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AX143">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AY143">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AZ143">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="BA143">
         <v>3</v>
@@ -30642,7 +30654,7 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45559.5</v>
+        <v>45558.875</v>
       </c>
       <c r="F144">
         <v>2</v>
@@ -30768,22 +30780,22 @@
         <v>2.83</v>
       </c>
       <c r="AU144">
+        <v>3</v>
+      </c>
+      <c r="AV144">
         <v>4</v>
       </c>
-      <c r="AV144">
-        <v>3</v>
-      </c>
       <c r="AW144">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AX144">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY144">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AZ144">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="BA144">
         <v>4</v>
@@ -31244,6 +31256,830 @@
       </c>
       <c r="BP146">
         <v>1.32</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7674869</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45562.875</v>
+      </c>
+      <c r="F147">
+        <v>3</v>
+      </c>
+      <c r="G147" t="s">
+        <v>72</v>
+      </c>
+      <c r="H147" t="s">
+        <v>77</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>1</v>
+      </c>
+      <c r="M147">
+        <v>4</v>
+      </c>
+      <c r="N147">
+        <v>5</v>
+      </c>
+      <c r="O147" t="s">
+        <v>189</v>
+      </c>
+      <c r="P147" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q147">
+        <v>2.12</v>
+      </c>
+      <c r="R147">
+        <v>2.51</v>
+      </c>
+      <c r="S147">
+        <v>4.5</v>
+      </c>
+      <c r="T147">
+        <v>1.24</v>
+      </c>
+      <c r="U147">
+        <v>3.82</v>
+      </c>
+      <c r="V147">
+        <v>2.15</v>
+      </c>
+      <c r="W147">
+        <v>1.66</v>
+      </c>
+      <c r="X147">
+        <v>4.65</v>
+      </c>
+      <c r="Y147">
+        <v>1.17</v>
+      </c>
+      <c r="Z147">
+        <v>1.61</v>
+      </c>
+      <c r="AA147">
+        <v>4.45</v>
+      </c>
+      <c r="AB147">
+        <v>4.8</v>
+      </c>
+      <c r="AC147">
+        <v>1.01</v>
+      </c>
+      <c r="AD147">
+        <v>17</v>
+      </c>
+      <c r="AE147">
+        <v>1.09</v>
+      </c>
+      <c r="AF147">
+        <v>4.95</v>
+      </c>
+      <c r="AG147">
+        <v>1.43</v>
+      </c>
+      <c r="AH147">
+        <v>2.62</v>
+      </c>
+      <c r="AI147">
+        <v>1.51</v>
+      </c>
+      <c r="AJ147">
+        <v>2.45</v>
+      </c>
+      <c r="AK147">
+        <v>1.2</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>2.23</v>
+      </c>
+      <c r="AN147">
+        <v>1.91</v>
+      </c>
+      <c r="AO147">
+        <v>1.17</v>
+      </c>
+      <c r="AP147">
+        <v>1.75</v>
+      </c>
+      <c r="AQ147">
+        <v>1.31</v>
+      </c>
+      <c r="AR147">
+        <v>1.96</v>
+      </c>
+      <c r="AS147">
+        <v>1.28</v>
+      </c>
+      <c r="AT147">
+        <v>3.24</v>
+      </c>
+      <c r="AU147">
+        <v>6</v>
+      </c>
+      <c r="AV147">
+        <v>2</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>2</v>
+      </c>
+      <c r="AY147">
+        <v>10</v>
+      </c>
+      <c r="AZ147">
+        <v>4</v>
+      </c>
+      <c r="BA147">
+        <v>5</v>
+      </c>
+      <c r="BB147">
+        <v>4</v>
+      </c>
+      <c r="BC147">
+        <v>9</v>
+      </c>
+      <c r="BD147">
+        <v>1.3</v>
+      </c>
+      <c r="BE147">
+        <v>9</v>
+      </c>
+      <c r="BF147">
+        <v>4.4</v>
+      </c>
+      <c r="BG147">
+        <v>1.13</v>
+      </c>
+      <c r="BH147">
+        <v>4.3</v>
+      </c>
+      <c r="BI147">
+        <v>1.3</v>
+      </c>
+      <c r="BJ147">
+        <v>3.3</v>
+      </c>
+      <c r="BK147">
+        <v>1.55</v>
+      </c>
+      <c r="BL147">
+        <v>2.38</v>
+      </c>
+      <c r="BM147">
+        <v>2</v>
+      </c>
+      <c r="BN147">
+        <v>1.8</v>
+      </c>
+      <c r="BO147">
+        <v>2.5</v>
+      </c>
+      <c r="BP147">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7674870</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45563.45833333334</v>
+      </c>
+      <c r="F148">
+        <v>3</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>80</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>3</v>
+      </c>
+      <c r="M148">
+        <v>0</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>190</v>
+      </c>
+      <c r="P148" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q148">
+        <v>2.23</v>
+      </c>
+      <c r="R148">
+        <v>2.29</v>
+      </c>
+      <c r="S148">
+        <v>4.8</v>
+      </c>
+      <c r="T148">
+        <v>1.33</v>
+      </c>
+      <c r="U148">
+        <v>3.14</v>
+      </c>
+      <c r="V148">
+        <v>2.55</v>
+      </c>
+      <c r="W148">
+        <v>1.48</v>
+      </c>
+      <c r="X148">
+        <v>6.15</v>
+      </c>
+      <c r="Y148">
+        <v>1.1</v>
+      </c>
+      <c r="Z148">
+        <v>1.68</v>
+      </c>
+      <c r="AA148">
+        <v>3.9</v>
+      </c>
+      <c r="AB148">
+        <v>4.57</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>11</v>
+      </c>
+      <c r="AE148">
+        <v>1.19</v>
+      </c>
+      <c r="AF148">
+        <v>3.68</v>
+      </c>
+      <c r="AG148">
+        <v>1.72</v>
+      </c>
+      <c r="AH148">
+        <v>2.01</v>
+      </c>
+      <c r="AI148">
+        <v>1.73</v>
+      </c>
+      <c r="AJ148">
+        <v>2.03</v>
+      </c>
+      <c r="AK148">
+        <v>1.19</v>
+      </c>
+      <c r="AL148">
+        <v>1.25</v>
+      </c>
+      <c r="AM148">
+        <v>2.16</v>
+      </c>
+      <c r="AN148">
+        <v>1.18</v>
+      </c>
+      <c r="AO148">
+        <v>0.67</v>
+      </c>
+      <c r="AP148">
+        <v>1.33</v>
+      </c>
+      <c r="AQ148">
+        <v>0.62</v>
+      </c>
+      <c r="AR148">
+        <v>1.38</v>
+      </c>
+      <c r="AS148">
+        <v>1.24</v>
+      </c>
+      <c r="AT148">
+        <v>2.62</v>
+      </c>
+      <c r="AU148">
+        <v>7</v>
+      </c>
+      <c r="AV148">
+        <v>0</v>
+      </c>
+      <c r="AW148">
+        <v>8</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>15</v>
+      </c>
+      <c r="AZ148">
+        <v>5</v>
+      </c>
+      <c r="BA148">
+        <v>5</v>
+      </c>
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
+        <v>7</v>
+      </c>
+      <c r="BD148">
+        <v>1.67</v>
+      </c>
+      <c r="BE148">
+        <v>7.5</v>
+      </c>
+      <c r="BF148">
+        <v>2.75</v>
+      </c>
+      <c r="BG148">
+        <v>1.27</v>
+      </c>
+      <c r="BH148">
+        <v>3.55</v>
+      </c>
+      <c r="BI148">
+        <v>1.5</v>
+      </c>
+      <c r="BJ148">
+        <v>2.48</v>
+      </c>
+      <c r="BK148">
+        <v>1.9</v>
+      </c>
+      <c r="BL148">
+        <v>1.9</v>
+      </c>
+      <c r="BM148">
+        <v>2.45</v>
+      </c>
+      <c r="BN148">
+        <v>1.5</v>
+      </c>
+      <c r="BO148">
+        <v>3.4</v>
+      </c>
+      <c r="BP148">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7674871</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45563.5625</v>
+      </c>
+      <c r="F149">
+        <v>3</v>
+      </c>
+      <c r="G149" t="s">
+        <v>76</v>
+      </c>
+      <c r="H149" t="s">
+        <v>71</v>
+      </c>
+      <c r="I149">
+        <v>0</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>0</v>
+      </c>
+      <c r="L149">
+        <v>0</v>
+      </c>
+      <c r="M149">
+        <v>1</v>
+      </c>
+      <c r="N149">
+        <v>1</v>
+      </c>
+      <c r="O149" t="s">
+        <v>83</v>
+      </c>
+      <c r="P149" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q149">
+        <v>2.78</v>
+      </c>
+      <c r="R149">
+        <v>2.29</v>
+      </c>
+      <c r="S149">
+        <v>3.38</v>
+      </c>
+      <c r="T149">
+        <v>1.31</v>
+      </c>
+      <c r="U149">
+        <v>3.28</v>
+      </c>
+      <c r="V149">
+        <v>2.41</v>
+      </c>
+      <c r="W149">
+        <v>1.53</v>
+      </c>
+      <c r="X149">
+        <v>5.65</v>
+      </c>
+      <c r="Y149">
+        <v>1.12</v>
+      </c>
+      <c r="Z149">
+        <v>2.28</v>
+      </c>
+      <c r="AA149">
+        <v>3.56</v>
+      </c>
+      <c r="AB149">
+        <v>2.83</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
+        <v>11</v>
+      </c>
+      <c r="AE149">
+        <v>1.16</v>
+      </c>
+      <c r="AF149">
+        <v>4.05</v>
+      </c>
+      <c r="AG149">
+        <v>1.7</v>
+      </c>
+      <c r="AH149">
+        <v>2.1</v>
+      </c>
+      <c r="AI149">
+        <v>1.55</v>
+      </c>
+      <c r="AJ149">
+        <v>2.36</v>
+      </c>
+      <c r="AK149">
+        <v>1.42</v>
+      </c>
+      <c r="AL149">
+        <v>1.28</v>
+      </c>
+      <c r="AM149">
+        <v>1.62</v>
+      </c>
+      <c r="AN149">
+        <v>2.25</v>
+      </c>
+      <c r="AO149">
+        <v>1.45</v>
+      </c>
+      <c r="AP149">
+        <v>2.08</v>
+      </c>
+      <c r="AQ149">
+        <v>1.58</v>
+      </c>
+      <c r="AR149">
+        <v>1.94</v>
+      </c>
+      <c r="AS149">
+        <v>1.56</v>
+      </c>
+      <c r="AT149">
+        <v>3.5</v>
+      </c>
+      <c r="AU149">
+        <v>0</v>
+      </c>
+      <c r="AV149">
+        <v>5</v>
+      </c>
+      <c r="AW149">
+        <v>9</v>
+      </c>
+      <c r="AX149">
+        <v>9</v>
+      </c>
+      <c r="AY149">
+        <v>9</v>
+      </c>
+      <c r="AZ149">
+        <v>14</v>
+      </c>
+      <c r="BA149">
+        <v>2</v>
+      </c>
+      <c r="BB149">
+        <v>5</v>
+      </c>
+      <c r="BC149">
+        <v>7</v>
+      </c>
+      <c r="BD149">
+        <v>1.97</v>
+      </c>
+      <c r="BE149">
+        <v>7.5</v>
+      </c>
+      <c r="BF149">
+        <v>2.18</v>
+      </c>
+      <c r="BG149">
+        <v>1.12</v>
+      </c>
+      <c r="BH149">
+        <v>4.4</v>
+      </c>
+      <c r="BI149">
+        <v>1.3</v>
+      </c>
+      <c r="BJ149">
+        <v>3.3</v>
+      </c>
+      <c r="BK149">
+        <v>1.55</v>
+      </c>
+      <c r="BL149">
+        <v>2.38</v>
+      </c>
+      <c r="BM149">
+        <v>1.98</v>
+      </c>
+      <c r="BN149">
+        <v>1.82</v>
+      </c>
+      <c r="BO149">
+        <v>2.5</v>
+      </c>
+      <c r="BP149">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7674872</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45564.41666666666</v>
+      </c>
+      <c r="F150">
+        <v>3</v>
+      </c>
+      <c r="G150" t="s">
+        <v>75</v>
+      </c>
+      <c r="H150" t="s">
+        <v>74</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>2</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>191</v>
+      </c>
+      <c r="P150" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q150">
+        <v>1.73</v>
+      </c>
+      <c r="R150">
+        <v>2.5</v>
+      </c>
+      <c r="S150">
+        <v>6.5</v>
+      </c>
+      <c r="T150">
+        <v>1.27</v>
+      </c>
+      <c r="U150">
+        <v>3.55</v>
+      </c>
+      <c r="V150">
+        <v>2.28</v>
+      </c>
+      <c r="W150">
+        <v>1.59</v>
+      </c>
+      <c r="X150">
+        <v>5.15</v>
+      </c>
+      <c r="Y150">
+        <v>1.14</v>
+      </c>
+      <c r="Z150">
+        <v>1.36</v>
+      </c>
+      <c r="AA150">
+        <v>4.87</v>
+      </c>
+      <c r="AB150">
+        <v>7.12</v>
+      </c>
+      <c r="AC150">
+        <v>1.01</v>
+      </c>
+      <c r="AD150">
+        <v>13</v>
+      </c>
+      <c r="AE150">
+        <v>1.14</v>
+      </c>
+      <c r="AF150">
+        <v>4.8</v>
+      </c>
+      <c r="AG150">
+        <v>1.57</v>
+      </c>
+      <c r="AH150">
+        <v>2.35</v>
+      </c>
+      <c r="AI150">
+        <v>1.73</v>
+      </c>
+      <c r="AJ150">
+        <v>2</v>
+      </c>
+      <c r="AK150">
+        <v>1.08</v>
+      </c>
+      <c r="AL150">
+        <v>1.17</v>
+      </c>
+      <c r="AM150">
+        <v>3.04</v>
+      </c>
+      <c r="AN150">
+        <v>2.5</v>
+      </c>
+      <c r="AO150">
+        <v>1.33</v>
+      </c>
+      <c r="AP150">
+        <v>2.54</v>
+      </c>
+      <c r="AQ150">
+        <v>1.23</v>
+      </c>
+      <c r="AR150">
+        <v>1.63</v>
+      </c>
+      <c r="AS150">
+        <v>1.29</v>
+      </c>
+      <c r="AT150">
+        <v>2.92</v>
+      </c>
+      <c r="AU150">
+        <v>4</v>
+      </c>
+      <c r="AV150">
+        <v>4</v>
+      </c>
+      <c r="AW150">
+        <v>10</v>
+      </c>
+      <c r="AX150">
+        <v>7</v>
+      </c>
+      <c r="AY150">
+        <v>14</v>
+      </c>
+      <c r="AZ150">
+        <v>11</v>
+      </c>
+      <c r="BA150">
+        <v>5</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>7</v>
+      </c>
+      <c r="BD150">
+        <v>1.22</v>
+      </c>
+      <c r="BE150">
+        <v>10</v>
+      </c>
+      <c r="BF150">
+        <v>5.3</v>
+      </c>
+      <c r="BG150">
+        <v>1.1</v>
+      </c>
+      <c r="BH150">
+        <v>4.8</v>
+      </c>
+      <c r="BI150">
+        <v>1.21</v>
+      </c>
+      <c r="BJ150">
+        <v>4.1</v>
+      </c>
+      <c r="BK150">
+        <v>1.38</v>
+      </c>
+      <c r="BL150">
+        <v>2.88</v>
+      </c>
+      <c r="BM150">
+        <v>1.67</v>
+      </c>
+      <c r="BN150">
+        <v>2.12</v>
+      </c>
+      <c r="BO150">
+        <v>2.1</v>
+      </c>
+      <c r="BP150">
+        <v>1.68</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="268">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,10 +574,10 @@
     <t>['6', '20', '46']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['37']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['15']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -590,6 +590,9 @@
   </si>
   <si>
     <t>['53', '90+4']</t>
+  </si>
+  <si>
+    <t>['35', '60', '71']</t>
   </si>
   <si>
     <t>['4']</t>
@@ -1176,7 +1179,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1435,7 +1438,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1722,7 +1725,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1847,7 +1850,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -2053,7 +2056,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2259,7 +2262,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2465,7 +2468,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2752,7 +2755,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2877,7 +2880,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -3083,7 +3086,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3289,7 +3292,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3367,7 +3370,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ11">
         <v>0.5</v>
@@ -3495,7 +3498,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3701,7 +3704,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -4191,7 +4194,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ15">
         <v>1.42</v>
@@ -4319,7 +4322,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4731,7 +4734,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4937,7 +4940,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5143,7 +5146,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5349,7 +5352,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5427,7 +5430,7 @@
         <v>0</v>
       </c>
       <c r="AP21">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ21">
         <v>0.62</v>
@@ -5555,7 +5558,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5761,7 +5764,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5967,7 +5970,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6379,7 +6382,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6666,7 +6669,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6791,7 +6794,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -7203,7 +7206,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7409,7 +7412,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7615,7 +7618,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7821,7 +7824,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8233,7 +8236,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8517,7 +8520,7 @@
         <v>0.67</v>
       </c>
       <c r="AP36">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ36">
         <v>1.5</v>
@@ -8645,7 +8648,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -9057,7 +9060,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9263,7 +9266,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9469,7 +9472,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -10168,7 +10171,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10293,7 +10296,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10911,7 +10914,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -11323,7 +11326,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11529,7 +11532,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11735,7 +11738,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12147,7 +12150,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12225,7 +12228,7 @@
         <v>1.33</v>
       </c>
       <c r="AP54">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ54">
         <v>1.23</v>
@@ -12353,7 +12356,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12559,7 +12562,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12971,7 +12974,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13052,7 +13055,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ58">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13177,7 +13180,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13383,7 +13386,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14207,7 +14210,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14825,7 +14828,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -14903,7 +14906,7 @@
         <v>1.6</v>
       </c>
       <c r="AP67">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ67">
         <v>1.58</v>
@@ -15237,7 +15240,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15443,7 +15446,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15524,7 +15527,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ70">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR70">
         <v>1.29</v>
@@ -15649,7 +15652,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -16061,7 +16064,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16267,7 +16270,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16473,7 +16476,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -17091,7 +17094,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17169,7 +17172,7 @@
         <v>2.17</v>
       </c>
       <c r="AP78">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ78">
         <v>1.31</v>
@@ -17503,7 +17506,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17709,7 +17712,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17915,7 +17918,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18121,7 +18124,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18533,7 +18536,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18739,7 +18742,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18945,7 +18948,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19151,7 +19154,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19435,10 +19438,10 @@
         <v>0.5</v>
       </c>
       <c r="AP89">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ89">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR89">
         <v>1.58</v>
@@ -19563,7 +19566,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19769,7 +19772,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19975,7 +19978,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20593,7 +20596,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20799,7 +20802,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21086,7 +21089,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ97">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR97">
         <v>1.79</v>
@@ -21211,7 +21214,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21289,7 +21292,7 @@
         <v>0.75</v>
       </c>
       <c r="AP98">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ98">
         <v>1.08</v>
@@ -21417,7 +21420,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21498,7 +21501,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR99">
         <v>1.83</v>
@@ -22035,7 +22038,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22525,7 +22528,7 @@
         <v>1</v>
       </c>
       <c r="AP104">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ104">
         <v>0.54</v>
@@ -22653,7 +22656,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -23065,7 +23068,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23271,7 +23274,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -24301,7 +24304,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24791,7 +24794,7 @@
         <v>1.56</v>
       </c>
       <c r="AP115">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ115">
         <v>1.46</v>
@@ -24919,7 +24922,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25618,7 +25621,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR119">
         <v>1.18</v>
@@ -25743,7 +25746,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25949,7 +25952,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -26361,7 +26364,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -27472,7 +27475,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ128">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR128">
         <v>1.6</v>
@@ -27597,7 +27600,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27803,7 +27806,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -28009,7 +28012,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28421,7 +28424,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28627,7 +28630,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28705,7 +28708,7 @@
         <v>0.64</v>
       </c>
       <c r="AP134">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AQ134">
         <v>0.62</v>
@@ -28833,7 +28836,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29039,7 +29042,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q136">
         <v>2.04</v>
@@ -29326,7 +29329,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ137">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AR137">
         <v>1.16</v>
@@ -29451,7 +29454,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q138">
         <v>1.95</v>
@@ -29657,7 +29660,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q139">
         <v>2.19</v>
@@ -29863,7 +29866,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q140">
         <v>2.77</v>
@@ -30069,7 +30072,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30275,7 +30278,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q142">
         <v>4.33</v>
@@ -30481,7 +30484,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q143">
         <v>4.75</v>
@@ -30645,7 +30648,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7674866</v>
+        <v>7674867</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30660,10 +30663,10 @@
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H144" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -30690,25 +30693,25 @@
         <v>83</v>
       </c>
       <c r="Q144">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R144">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S144">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="T144">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U144">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V144">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W144">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X144">
         <v>7</v>
@@ -30717,133 +30720,133 @@
         <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="AA144">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="AB144">
-        <v>2.3</v>
+        <v>2.87</v>
       </c>
       <c r="AC144">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE144">
         <v>1.25</v>
       </c>
       <c r="AF144">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG144">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AH144">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AI144">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ144">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK144">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AL144">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM144">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AN144">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AO144">
-        <v>0.91</v>
+        <v>1.55</v>
       </c>
       <c r="AP144">
-        <v>1.62</v>
+        <v>2.23</v>
       </c>
       <c r="AQ144">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="AR144">
-        <v>1.19</v>
+        <v>1.82</v>
       </c>
       <c r="AS144">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AT144">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="AU144">
         <v>3</v>
       </c>
       <c r="AV144">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AW144">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AX144">
         <v>8</v>
       </c>
       <c r="AY144">
+        <v>9</v>
+      </c>
+      <c r="AZ144">
+        <v>11</v>
+      </c>
+      <c r="BA144">
+        <v>2</v>
+      </c>
+      <c r="BB144">
+        <v>3</v>
+      </c>
+      <c r="BC144">
+        <v>5</v>
+      </c>
+      <c r="BD144">
+        <v>2.18</v>
+      </c>
+      <c r="BE144">
+        <v>7</v>
+      </c>
+      <c r="BF144">
+        <v>1.98</v>
+      </c>
+      <c r="BG144">
+        <v>1.22</v>
+      </c>
+      <c r="BH144">
         <v>4</v>
       </c>
-      <c r="AZ144">
-        <v>12</v>
-      </c>
-      <c r="BA144">
-        <v>4</v>
-      </c>
-      <c r="BB144">
-        <v>13</v>
-      </c>
-      <c r="BC144">
-        <v>17</v>
-      </c>
-      <c r="BD144">
+      <c r="BI144">
+        <v>1.42</v>
+      </c>
+      <c r="BJ144">
         <v>2.75</v>
       </c>
-      <c r="BE144">
-        <v>7.5</v>
-      </c>
-      <c r="BF144">
-        <v>1.67</v>
-      </c>
-      <c r="BG144">
-        <v>1.27</v>
-      </c>
-      <c r="BH144">
-        <v>3.55</v>
-      </c>
-      <c r="BI144">
-        <v>1.5</v>
-      </c>
-      <c r="BJ144">
-        <v>2.48</v>
-      </c>
       <c r="BK144">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="BL144">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="BM144">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BN144">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BO144">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BP144">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30851,7 +30854,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7674867</v>
+        <v>7674866</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30860,16 +30863,16 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45559.54166666666</v>
+        <v>45558.875</v>
       </c>
       <c r="F145">
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H145" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -30896,25 +30899,25 @@
         <v>83</v>
       </c>
       <c r="Q145">
+        <v>3.75</v>
+      </c>
+      <c r="R145">
+        <v>2.2</v>
+      </c>
+      <c r="S145">
+        <v>2.75</v>
+      </c>
+      <c r="T145">
+        <v>1.36</v>
+      </c>
+      <c r="U145">
         <v>3</v>
       </c>
-      <c r="R145">
-        <v>2.25</v>
-      </c>
-      <c r="S145">
-        <v>3.4</v>
-      </c>
-      <c r="T145">
-        <v>1.33</v>
-      </c>
-      <c r="U145">
-        <v>3.25</v>
-      </c>
       <c r="V145">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W145">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X145">
         <v>7</v>
@@ -30923,133 +30926,133 @@
         <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AA145">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="AB145">
-        <v>2.87</v>
+        <v>2.3</v>
       </c>
       <c r="AC145">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD145">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE145">
         <v>1.25</v>
       </c>
       <c r="AF145">
+        <v>3.6</v>
+      </c>
+      <c r="AG145">
+        <v>1.85</v>
+      </c>
+      <c r="AH145">
+        <v>1.85</v>
+      </c>
+      <c r="AI145">
+        <v>1.7</v>
+      </c>
+      <c r="AJ145">
+        <v>2.05</v>
+      </c>
+      <c r="AK145">
+        <v>1.67</v>
+      </c>
+      <c r="AL145">
+        <v>1.3</v>
+      </c>
+      <c r="AM145">
+        <v>1.38</v>
+      </c>
+      <c r="AN145">
+        <v>1.5</v>
+      </c>
+      <c r="AO145">
+        <v>0.91</v>
+      </c>
+      <c r="AP145">
+        <v>1.62</v>
+      </c>
+      <c r="AQ145">
+        <v>0.83</v>
+      </c>
+      <c r="AR145">
+        <v>1.19</v>
+      </c>
+      <c r="AS145">
+        <v>1.64</v>
+      </c>
+      <c r="AT145">
+        <v>2.83</v>
+      </c>
+      <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
         <v>4</v>
       </c>
-      <c r="AG145">
-        <v>1.75</v>
-      </c>
-      <c r="AH145">
-        <v>2.05</v>
-      </c>
-      <c r="AI145">
-        <v>1.62</v>
-      </c>
-      <c r="AJ145">
-        <v>2.2</v>
-      </c>
-      <c r="AK145">
-        <v>1.47</v>
-      </c>
-      <c r="AL145">
-        <v>1.33</v>
-      </c>
-      <c r="AM145">
-        <v>1.6</v>
-      </c>
-      <c r="AN145">
-        <v>2.17</v>
-      </c>
-      <c r="AO145">
-        <v>1.55</v>
-      </c>
-      <c r="AP145">
-        <v>2.23</v>
-      </c>
-      <c r="AQ145">
-        <v>1.42</v>
-      </c>
-      <c r="AR145">
-        <v>1.82</v>
-      </c>
-      <c r="AS145">
-        <v>1.68</v>
-      </c>
-      <c r="AT145">
-        <v>3.5</v>
-      </c>
-      <c r="AU145">
+      <c r="AW145">
+        <v>1</v>
+      </c>
+      <c r="AX145">
+        <v>8</v>
+      </c>
+      <c r="AY145">
         <v>4</v>
       </c>
-      <c r="AV145">
-        <v>3</v>
-      </c>
-      <c r="AW145">
-        <v>8</v>
-      </c>
-      <c r="AX145">
+      <c r="AZ145">
         <v>12</v>
       </c>
-      <c r="AY145">
-        <v>12</v>
-      </c>
-      <c r="AZ145">
-        <v>15</v>
-      </c>
       <c r="BA145">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB145">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BC145">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BD145">
-        <v>2.18</v>
+        <v>2.75</v>
       </c>
       <c r="BE145">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF145">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="BG145">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH145">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="BI145">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BJ145">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="BK145">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="BL145">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="BM145">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BN145">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BO145">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BP145">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31066,7 +31069,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45562.5</v>
+        <v>45561.875</v>
       </c>
       <c r="F146">
         <v>3</v>
@@ -31192,31 +31195,31 @@
         <v>3.01</v>
       </c>
       <c r="AU146">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV146">
         <v>4</v>
       </c>
       <c r="AW146">
+        <v>2</v>
+      </c>
+      <c r="AX146">
+        <v>4</v>
+      </c>
+      <c r="AY146">
+        <v>6</v>
+      </c>
+      <c r="AZ146">
+        <v>8</v>
+      </c>
+      <c r="BA146">
+        <v>2</v>
+      </c>
+      <c r="BB146">
+        <v>5</v>
+      </c>
+      <c r="BC146">
         <v>7</v>
-      </c>
-      <c r="AX146">
-        <v>7</v>
-      </c>
-      <c r="AY146">
-        <v>12</v>
-      </c>
-      <c r="AZ146">
-        <v>11</v>
-      </c>
-      <c r="BA146">
-        <v>2</v>
-      </c>
-      <c r="BB146">
-        <v>2</v>
-      </c>
-      <c r="BC146">
-        <v>4</v>
       </c>
       <c r="BD146">
         <v>1.51</v>
@@ -31305,7 +31308,7 @@
         <v>189</v>
       </c>
       <c r="P147" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q147">
         <v>2.12</v>
@@ -31717,7 +31720,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q149">
         <v>2.78</v>
@@ -32080,6 +32083,212 @@
       </c>
       <c r="BP150">
         <v>1.68</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7674873</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45565.5</v>
+      </c>
+      <c r="F151">
+        <v>3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>78</v>
+      </c>
+      <c r="H151" t="s">
+        <v>79</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>3</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>4</v>
+      </c>
+      <c r="O151" t="s">
+        <v>192</v>
+      </c>
+      <c r="P151" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q151">
+        <v>2.12</v>
+      </c>
+      <c r="R151">
+        <v>2.35</v>
+      </c>
+      <c r="S151">
+        <v>5.1</v>
+      </c>
+      <c r="T151">
+        <v>1.32</v>
+      </c>
+      <c r="U151">
+        <v>3.22</v>
+      </c>
+      <c r="V151">
+        <v>2.49</v>
+      </c>
+      <c r="W151">
+        <v>1.5</v>
+      </c>
+      <c r="X151">
+        <v>5.9</v>
+      </c>
+      <c r="Y151">
+        <v>1.11</v>
+      </c>
+      <c r="Z151">
+        <v>1.58</v>
+      </c>
+      <c r="AA151">
+        <v>4.2</v>
+      </c>
+      <c r="AB151">
+        <v>5</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>11</v>
+      </c>
+      <c r="AE151">
+        <v>1.17</v>
+      </c>
+      <c r="AF151">
+        <v>3.86</v>
+      </c>
+      <c r="AG151">
+        <v>1.6</v>
+      </c>
+      <c r="AH151">
+        <v>2.2</v>
+      </c>
+      <c r="AI151">
+        <v>1.73</v>
+      </c>
+      <c r="AJ151">
+        <v>2.03</v>
+      </c>
+      <c r="AK151">
+        <v>1.16</v>
+      </c>
+      <c r="AL151">
+        <v>1.23</v>
+      </c>
+      <c r="AM151">
+        <v>2.31</v>
+      </c>
+      <c r="AN151">
+        <v>1.83</v>
+      </c>
+      <c r="AO151">
+        <v>0.5</v>
+      </c>
+      <c r="AP151">
+        <v>1.92</v>
+      </c>
+      <c r="AQ151">
+        <v>0.46</v>
+      </c>
+      <c r="AR151">
+        <v>1.65</v>
+      </c>
+      <c r="AS151">
+        <v>1</v>
+      </c>
+      <c r="AT151">
+        <v>2.65</v>
+      </c>
+      <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>14</v>
+      </c>
+      <c r="AX151">
+        <v>4</v>
+      </c>
+      <c r="AY151">
+        <v>23</v>
+      </c>
+      <c r="AZ151">
+        <v>9</v>
+      </c>
+      <c r="BA151">
+        <v>2</v>
+      </c>
+      <c r="BB151">
+        <v>0</v>
+      </c>
+      <c r="BC151">
+        <v>2</v>
+      </c>
+      <c r="BD151">
+        <v>1.37</v>
+      </c>
+      <c r="BE151">
+        <v>9.5</v>
+      </c>
+      <c r="BF151">
+        <v>3.82</v>
+      </c>
+      <c r="BG151">
+        <v>1.23</v>
+      </c>
+      <c r="BH151">
+        <v>3.95</v>
+      </c>
+      <c r="BI151">
+        <v>1.43</v>
+      </c>
+      <c r="BJ151">
+        <v>2.7</v>
+      </c>
+      <c r="BK151">
+        <v>1.75</v>
+      </c>
+      <c r="BL151">
+        <v>2</v>
+      </c>
+      <c r="BM151">
+        <v>2.25</v>
+      </c>
+      <c r="BN151">
+        <v>1.6</v>
+      </c>
+      <c r="BO151">
+        <v>3.05</v>
+      </c>
+      <c r="BP151">
+        <v>1.35</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -31481,7 +31481,7 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45563.45833333334</v>
+        <v>45562.875</v>
       </c>
       <c r="F148">
         <v>3</v>
@@ -31607,22 +31607,22 @@
         <v>2.62</v>
       </c>
       <c r="AU148">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AV148">
         <v>0</v>
       </c>
       <c r="AW148">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AX148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY148">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="AZ148">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA148">
         <v>5</v>
@@ -31687,7 +31687,7 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45563.5625</v>
+        <v>45562.875</v>
       </c>
       <c r="F149">
         <v>3</v>
@@ -31816,19 +31816,19 @@
         <v>0</v>
       </c>
       <c r="AV149">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW149">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX149">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AY149">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AZ149">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BA149">
         <v>2</v>
@@ -31893,7 +31893,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45564.41666666666</v>
+        <v>45563.875</v>
       </c>
       <c r="F150">
         <v>3</v>
@@ -32019,19 +32019,19 @@
         <v>2.92</v>
       </c>
       <c r="AU150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV150">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW150">
+        <v>5</v>
+      </c>
+      <c r="AX150">
+        <v>2</v>
+      </c>
+      <c r="AY150">
         <v>10</v>
-      </c>
-      <c r="AX150">
-        <v>7</v>
-      </c>
-      <c r="AY150">
-        <v>14</v>
       </c>
       <c r="AZ150">
         <v>11</v>
@@ -32099,7 +32099,7 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45565.5</v>
+        <v>45564.875</v>
       </c>
       <c r="F151">
         <v>3</v>
@@ -32225,31 +32225,31 @@
         <v>2.65</v>
       </c>
       <c r="AU151">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AV151">
+        <v>4</v>
+      </c>
+      <c r="AW151">
+        <v>7</v>
+      </c>
+      <c r="AX151">
+        <v>1</v>
+      </c>
+      <c r="AY151">
+        <v>11</v>
+      </c>
+      <c r="AZ151">
         <v>5</v>
       </c>
-      <c r="AW151">
-        <v>14</v>
-      </c>
-      <c r="AX151">
-        <v>4</v>
-      </c>
-      <c r="AY151">
-        <v>23</v>
-      </c>
-      <c r="AZ151">
-        <v>9</v>
-      </c>
       <c r="BA151">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB151">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BC151">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BD151">
         <v>1.37</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -574,10 +574,10 @@
     <t>['6', '20', '46']</t>
   </si>
   <si>
-    <t>['37']</t>
+    <t>['15']</t>
   </si>
   <si>
-    <t>['15']</t>
+    <t>['37']</t>
   </si>
   <si>
     <t>['53']</t>
@@ -1546,7 +1546,7 @@
         <v>5</v>
       </c>
       <c r="AZ2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA2">
         <v>1</v>
@@ -1749,7 +1749,7 @@
         <v>2</v>
       </c>
       <c r="AY3">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ3">
         <v>5</v>
@@ -1955,10 +1955,10 @@
         <v>5</v>
       </c>
       <c r="AY4">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ4">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA4">
         <v>6</v>
@@ -2161,10 +2161,10 @@
         <v>4</v>
       </c>
       <c r="AY5">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AZ5">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA5">
         <v>4</v>
@@ -2367,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="AY6">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ6">
         <v>2</v>
@@ -2573,10 +2573,10 @@
         <v>1</v>
       </c>
       <c r="AY7">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AZ7">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA7">
         <v>8</v>
@@ -2779,10 +2779,10 @@
         <v>9</v>
       </c>
       <c r="AY8">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="AZ8">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA8">
         <v>4</v>
@@ -2985,10 +2985,10 @@
         <v>9</v>
       </c>
       <c r="AY9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ9">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="BA9">
         <v>1</v>
@@ -3191,10 +3191,10 @@
         <v>7</v>
       </c>
       <c r="AY10">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ10">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA10">
         <v>4</v>
@@ -3397,10 +3397,10 @@
         <v>7</v>
       </c>
       <c r="AY11">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ11">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA11">
         <v>5</v>
@@ -3603,10 +3603,10 @@
         <v>5</v>
       </c>
       <c r="AY12">
+        <v>10</v>
+      </c>
+      <c r="AZ12">
         <v>9</v>
-      </c>
-      <c r="AZ12">
-        <v>8</v>
       </c>
       <c r="BA12">
         <v>6</v>
@@ -3809,10 +3809,10 @@
         <v>11</v>
       </c>
       <c r="AY13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ13">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA13">
         <v>2</v>
@@ -4015,10 +4015,10 @@
         <v>10</v>
       </c>
       <c r="AY14">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ14">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="BA14">
         <v>4</v>
@@ -4221,10 +4221,10 @@
         <v>4</v>
       </c>
       <c r="AY15">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AZ15">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="BA15">
         <v>3</v>
@@ -4427,7 +4427,7 @@
         <v>3</v>
       </c>
       <c r="AY16">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="AZ16">
         <v>7</v>
@@ -4633,10 +4633,10 @@
         <v>7</v>
       </c>
       <c r="AY17">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="AZ17">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA17">
         <v>14</v>
@@ -4839,10 +4839,10 @@
         <v>4</v>
       </c>
       <c r="AY18">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ18">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA18">
         <v>9</v>
@@ -5048,7 +5048,7 @@
         <v>4</v>
       </c>
       <c r="AZ19">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="BA19">
         <v>2</v>
@@ -5251,10 +5251,10 @@
         <v>5</v>
       </c>
       <c r="AY20">
+        <v>15</v>
+      </c>
+      <c r="AZ20">
         <v>12</v>
-      </c>
-      <c r="AZ20">
-        <v>10</v>
       </c>
       <c r="BA20">
         <v>12</v>
@@ -5457,10 +5457,10 @@
         <v>6</v>
       </c>
       <c r="AY21">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ21">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA21">
         <v>3</v>
@@ -5663,10 +5663,10 @@
         <v>6</v>
       </c>
       <c r="AY22">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ22">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA22">
         <v>7</v>
@@ -5869,10 +5869,10 @@
         <v>4</v>
       </c>
       <c r="AY23">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA23">
         <v>7</v>
@@ -6075,10 +6075,10 @@
         <v>9</v>
       </c>
       <c r="AY24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ24">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="BA24">
         <v>4</v>
@@ -6281,10 +6281,10 @@
         <v>9</v>
       </c>
       <c r="AY25">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AZ25">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA25">
         <v>4</v>
@@ -6487,10 +6487,10 @@
         <v>7</v>
       </c>
       <c r="AY26">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ26">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA26">
         <v>8</v>
@@ -6693,10 +6693,10 @@
         <v>5</v>
       </c>
       <c r="AY27">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="AZ27">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA27">
         <v>7</v>
@@ -6899,10 +6899,10 @@
         <v>2</v>
       </c>
       <c r="AY28">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AZ28">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA28">
         <v>9</v>
@@ -7105,10 +7105,10 @@
         <v>3</v>
       </c>
       <c r="AY29">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="AZ29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BA29">
         <v>11</v>
@@ -7311,10 +7311,10 @@
         <v>5</v>
       </c>
       <c r="AY30">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="AZ30">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA30">
         <v>3</v>
@@ -7517,10 +7517,10 @@
         <v>6</v>
       </c>
       <c r="AY31">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AZ31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BA31">
         <v>7</v>
@@ -7726,7 +7726,7 @@
         <v>8</v>
       </c>
       <c r="AZ32">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="BA32">
         <v>1</v>
@@ -8341,10 +8341,10 @@
         <v>2</v>
       </c>
       <c r="AY35">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ35">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA35">
         <v>5</v>
@@ -8547,7 +8547,7 @@
         <v>2</v>
       </c>
       <c r="AY36">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AZ36">
         <v>4</v>
@@ -8756,7 +8756,7 @@
         <v>6</v>
       </c>
       <c r="AZ37">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA37">
         <v>0</v>
@@ -8959,7 +8959,7 @@
         <v>2</v>
       </c>
       <c r="AY38">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ38">
         <v>4</v>
@@ -9165,7 +9165,7 @@
         <v>5</v>
       </c>
       <c r="AY39">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ39">
         <v>7</v>
@@ -9371,10 +9371,10 @@
         <v>7</v>
       </c>
       <c r="AY40">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ40">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA40">
         <v>4</v>
@@ -9577,7 +9577,7 @@
         <v>6</v>
       </c>
       <c r="AY41">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ41">
         <v>8</v>
@@ -9783,7 +9783,7 @@
         <v>1</v>
       </c>
       <c r="AY42">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ42">
         <v>4</v>
@@ -9989,10 +9989,10 @@
         <v>6</v>
       </c>
       <c r="AY43">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AZ43">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="BA43">
         <v>4</v>
@@ -10401,10 +10401,10 @@
         <v>15</v>
       </c>
       <c r="AY45">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ45">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="BA45">
         <v>3</v>
@@ -10813,7 +10813,7 @@
         <v>5</v>
       </c>
       <c r="AY47">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ47">
         <v>9</v>
@@ -11225,10 +11225,10 @@
         <v>7</v>
       </c>
       <c r="AY49">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ49">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA49">
         <v>6</v>
@@ -11434,7 +11434,7 @@
         <v>16</v>
       </c>
       <c r="AZ50">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA50">
         <v>9</v>
@@ -11846,7 +11846,7 @@
         <v>8</v>
       </c>
       <c r="AZ52">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA52">
         <v>5</v>
@@ -12049,10 +12049,10 @@
         <v>10</v>
       </c>
       <c r="AY53">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AZ53">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA53">
         <v>7</v>
@@ -12255,7 +12255,7 @@
         <v>9</v>
       </c>
       <c r="AY54">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ54">
         <v>12</v>
@@ -12876,7 +12876,7 @@
         <v>5</v>
       </c>
       <c r="AZ57">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA57">
         <v>4</v>
@@ -13285,10 +13285,10 @@
         <v>11</v>
       </c>
       <c r="AY59">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ59">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="BA59">
         <v>5</v>
@@ -13491,10 +13491,10 @@
         <v>10</v>
       </c>
       <c r="AY60">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ60">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA60">
         <v>2</v>
@@ -13700,7 +13700,7 @@
         <v>9</v>
       </c>
       <c r="AZ61">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA61">
         <v>3</v>
@@ -13903,10 +13903,10 @@
         <v>10</v>
       </c>
       <c r="AY62">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ62">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="BA62">
         <v>9</v>
@@ -14109,10 +14109,10 @@
         <v>12</v>
       </c>
       <c r="AY63">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ63">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA63">
         <v>13</v>
@@ -14315,7 +14315,7 @@
         <v>5</v>
       </c>
       <c r="AY64">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AZ64">
         <v>9</v>
@@ -14521,10 +14521,10 @@
         <v>6</v>
       </c>
       <c r="AY65">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ65">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA65">
         <v>4</v>
@@ -14727,10 +14727,10 @@
         <v>11</v>
       </c>
       <c r="AY66">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ66">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA66">
         <v>7</v>
@@ -14936,7 +14936,7 @@
         <v>7</v>
       </c>
       <c r="AZ67">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA67">
         <v>3</v>
@@ -15139,10 +15139,10 @@
         <v>3</v>
       </c>
       <c r="AY68">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="AZ68">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA68">
         <v>11</v>
@@ -15345,10 +15345,10 @@
         <v>6</v>
       </c>
       <c r="AY69">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="AZ69">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA69">
         <v>5</v>
@@ -15551,10 +15551,10 @@
         <v>3</v>
       </c>
       <c r="AY70">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ70">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BA70">
         <v>6</v>
@@ -15757,10 +15757,10 @@
         <v>7</v>
       </c>
       <c r="AY71">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ71">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA71">
         <v>4</v>
@@ -15963,10 +15963,10 @@
         <v>5</v>
       </c>
       <c r="AY72">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AZ72">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA72">
         <v>3</v>
@@ -16169,10 +16169,10 @@
         <v>6</v>
       </c>
       <c r="AY73">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ73">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA73">
         <v>2</v>
@@ -16378,7 +16378,7 @@
         <v>12</v>
       </c>
       <c r="AZ74">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA74">
         <v>3</v>
@@ -16581,10 +16581,10 @@
         <v>10</v>
       </c>
       <c r="AY75">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ75">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA75">
         <v>4</v>
@@ -16993,10 +16993,10 @@
         <v>5</v>
       </c>
       <c r="AY77">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ77">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA77">
         <v>5</v>
@@ -17199,10 +17199,10 @@
         <v>6</v>
       </c>
       <c r="AY78">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ78">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA78">
         <v>8</v>
@@ -17405,10 +17405,10 @@
         <v>8</v>
       </c>
       <c r="AY79">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ79">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA79">
         <v>1</v>
@@ -17611,10 +17611,10 @@
         <v>9</v>
       </c>
       <c r="AY80">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ80">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA80">
         <v>7</v>
@@ -17820,7 +17820,7 @@
         <v>12</v>
       </c>
       <c r="AZ81">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BA81">
         <v>4</v>
@@ -18026,7 +18026,7 @@
         <v>10</v>
       </c>
       <c r="AZ82">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA82">
         <v>5</v>
@@ -18229,10 +18229,10 @@
         <v>6</v>
       </c>
       <c r="AY83">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ83">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="BA83">
         <v>8</v>
@@ -18438,7 +18438,7 @@
         <v>11</v>
       </c>
       <c r="AZ84">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BA84">
         <v>7</v>
@@ -18641,7 +18641,7 @@
         <v>5</v>
       </c>
       <c r="AY85">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ85">
         <v>12</v>
@@ -18847,7 +18847,7 @@
         <v>5</v>
       </c>
       <c r="AY86">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ86">
         <v>8</v>
@@ -19053,10 +19053,10 @@
         <v>6</v>
       </c>
       <c r="AY87">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ87">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA87">
         <v>2</v>
@@ -19259,10 +19259,10 @@
         <v>10</v>
       </c>
       <c r="AY88">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ88">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BA88">
         <v>5</v>
@@ -19465,7 +19465,7 @@
         <v>6</v>
       </c>
       <c r="AY89">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ89">
         <v>6</v>
@@ -19674,7 +19674,7 @@
         <v>7</v>
       </c>
       <c r="AZ90">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BA90">
         <v>3</v>
@@ -19877,10 +19877,10 @@
         <v>4</v>
       </c>
       <c r="AY91">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ91">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA91">
         <v>7</v>
@@ -20083,10 +20083,10 @@
         <v>9</v>
       </c>
       <c r="AY92">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="AZ92">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA92">
         <v>6</v>
@@ -20289,10 +20289,10 @@
         <v>7</v>
       </c>
       <c r="AY93">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="AZ93">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA93">
         <v>6</v>
@@ -20498,7 +20498,7 @@
         <v>6</v>
       </c>
       <c r="AZ94">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA94">
         <v>3</v>
@@ -20704,7 +20704,7 @@
         <v>4</v>
       </c>
       <c r="AZ95">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="BA95">
         <v>2</v>
@@ -20910,7 +20910,7 @@
         <v>9</v>
       </c>
       <c r="AZ96">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA96">
         <v>2</v>
@@ -21319,10 +21319,10 @@
         <v>10</v>
       </c>
       <c r="AY98">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ98">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BA98">
         <v>3</v>
@@ -21525,10 +21525,10 @@
         <v>5</v>
       </c>
       <c r="AY99">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AZ99">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA99">
         <v>5</v>
@@ -21731,10 +21731,10 @@
         <v>9</v>
       </c>
       <c r="AY100">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AZ100">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="BA100">
         <v>6</v>
@@ -22143,10 +22143,10 @@
         <v>19</v>
       </c>
       <c r="AY102">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ102">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="BA102">
         <v>2</v>
@@ -22349,10 +22349,10 @@
         <v>6</v>
       </c>
       <c r="AY103">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ103">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA103">
         <v>6</v>
@@ -22558,7 +22558,7 @@
         <v>11</v>
       </c>
       <c r="AZ104">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA104">
         <v>5</v>
@@ -22761,10 +22761,10 @@
         <v>16</v>
       </c>
       <c r="AY105">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ105">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="BA105">
         <v>1</v>
@@ -22967,10 +22967,10 @@
         <v>3</v>
       </c>
       <c r="AY106">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ106">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA106">
         <v>1</v>
@@ -23173,7 +23173,7 @@
         <v>2</v>
       </c>
       <c r="AY107">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ107">
         <v>2</v>
@@ -23379,10 +23379,10 @@
         <v>7</v>
       </c>
       <c r="AY108">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ108">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BA108">
         <v>4</v>
@@ -23794,7 +23794,7 @@
         <v>12</v>
       </c>
       <c r="AZ110">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA110">
         <v>1</v>
@@ -24203,7 +24203,7 @@
         <v>2</v>
       </c>
       <c r="AY112">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ112">
         <v>6</v>
@@ -24409,7 +24409,7 @@
         <v>6</v>
       </c>
       <c r="AY113">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ113">
         <v>12</v>
@@ -24615,7 +24615,7 @@
         <v>5</v>
       </c>
       <c r="AY114">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="AZ114">
         <v>12</v>
@@ -24821,7 +24821,7 @@
         <v>9</v>
       </c>
       <c r="AY115">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AZ115">
         <v>11</v>
@@ -25233,10 +25233,10 @@
         <v>4</v>
       </c>
       <c r="AY117">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AZ117">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA117">
         <v>2</v>
@@ -25439,10 +25439,10 @@
         <v>7</v>
       </c>
       <c r="AY118">
+        <v>14</v>
+      </c>
+      <c r="AZ118">
         <v>11</v>
-      </c>
-      <c r="AZ118">
-        <v>10</v>
       </c>
       <c r="BA118">
         <v>5</v>
@@ -25645,7 +25645,7 @@
         <v>3</v>
       </c>
       <c r="AY119">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ119">
         <v>5</v>
@@ -25851,10 +25851,10 @@
         <v>5</v>
       </c>
       <c r="AY120">
+        <v>16</v>
+      </c>
+      <c r="AZ120">
         <v>13</v>
-      </c>
-      <c r="AZ120">
-        <v>11</v>
       </c>
       <c r="BA120">
         <v>7</v>
@@ -26057,7 +26057,7 @@
         <v>1</v>
       </c>
       <c r="AY121">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ121">
         <v>4</v>
@@ -26675,7 +26675,7 @@
         <v>2</v>
       </c>
       <c r="AY124">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ124">
         <v>6</v>
@@ -26881,10 +26881,10 @@
         <v>7</v>
       </c>
       <c r="AY125">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AZ125">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="BA125">
         <v>4</v>
@@ -27087,7 +27087,7 @@
         <v>1</v>
       </c>
       <c r="AY126">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AZ126">
         <v>3</v>
@@ -27499,7 +27499,7 @@
         <v>9</v>
       </c>
       <c r="AY128">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ128">
         <v>12</v>
@@ -27914,7 +27914,7 @@
         <v>11</v>
       </c>
       <c r="AZ130">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA130">
         <v>7</v>
@@ -28117,10 +28117,10 @@
         <v>12</v>
       </c>
       <c r="AY131">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ131">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BA131">
         <v>3</v>
@@ -28323,10 +28323,10 @@
         <v>6</v>
       </c>
       <c r="AY132">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AZ132">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA132">
         <v>10</v>
@@ -28738,7 +28738,7 @@
         <v>10</v>
       </c>
       <c r="AZ134">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BA134">
         <v>7</v>
@@ -28941,10 +28941,10 @@
         <v>11</v>
       </c>
       <c r="AY135">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="AZ135">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="BA135">
         <v>9</v>
@@ -29353,10 +29353,10 @@
         <v>11</v>
       </c>
       <c r="AY137">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="AZ137">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA137">
         <v>3</v>
@@ -29562,7 +29562,7 @@
         <v>8</v>
       </c>
       <c r="AZ138">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA138">
         <v>4</v>
@@ -29765,10 +29765,10 @@
         <v>14</v>
       </c>
       <c r="AY139">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ139">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="BA139">
         <v>7</v>
@@ -29971,10 +29971,10 @@
         <v>11</v>
       </c>
       <c r="AY140">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AZ140">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA140">
         <v>6</v>
@@ -30383,10 +30383,10 @@
         <v>9</v>
       </c>
       <c r="AY142">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AZ142">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA142">
         <v>8</v>
@@ -30451,7 +30451,7 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45556.875</v>
+        <v>45557.41666666666</v>
       </c>
       <c r="F143">
         <v>2</v>
@@ -30577,22 +30577,22 @@
         <v>2.67</v>
       </c>
       <c r="AU143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV143">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW143">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AX143">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AY143">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="AZ143">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="BA143">
         <v>3</v>
@@ -30648,7 +30648,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7674867</v>
+        <v>7674866</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30657,16 +30657,16 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45558.875</v>
+        <v>45559.5</v>
       </c>
       <c r="F144">
         <v>2</v>
       </c>
       <c r="G144" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H144" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I144">
         <v>1</v>
@@ -30693,25 +30693,25 @@
         <v>83</v>
       </c>
       <c r="Q144">
+        <v>3.75</v>
+      </c>
+      <c r="R144">
+        <v>2.2</v>
+      </c>
+      <c r="S144">
+        <v>2.75</v>
+      </c>
+      <c r="T144">
+        <v>1.36</v>
+      </c>
+      <c r="U144">
         <v>3</v>
       </c>
-      <c r="R144">
-        <v>2.25</v>
-      </c>
-      <c r="S144">
-        <v>3.4</v>
-      </c>
-      <c r="T144">
-        <v>1.33</v>
-      </c>
-      <c r="U144">
-        <v>3.25</v>
-      </c>
       <c r="V144">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W144">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="X144">
         <v>7</v>
@@ -30720,70 +30720,70 @@
         <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>2.32</v>
+        <v>2.7</v>
       </c>
       <c r="AA144">
-        <v>3.42</v>
+        <v>3.2</v>
       </c>
       <c r="AB144">
-        <v>2.87</v>
+        <v>2.3</v>
       </c>
       <c r="AC144">
-        <v>1.04</v>
+        <v>1.02</v>
       </c>
       <c r="AD144">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AE144">
         <v>1.25</v>
       </c>
       <c r="AF144">
+        <v>3.6</v>
+      </c>
+      <c r="AG144">
+        <v>1.85</v>
+      </c>
+      <c r="AH144">
+        <v>1.85</v>
+      </c>
+      <c r="AI144">
+        <v>1.7</v>
+      </c>
+      <c r="AJ144">
+        <v>2.05</v>
+      </c>
+      <c r="AK144">
+        <v>1.67</v>
+      </c>
+      <c r="AL144">
+        <v>1.3</v>
+      </c>
+      <c r="AM144">
+        <v>1.38</v>
+      </c>
+      <c r="AN144">
+        <v>1.5</v>
+      </c>
+      <c r="AO144">
+        <v>0.91</v>
+      </c>
+      <c r="AP144">
+        <v>1.62</v>
+      </c>
+      <c r="AQ144">
+        <v>0.83</v>
+      </c>
+      <c r="AR144">
+        <v>1.19</v>
+      </c>
+      <c r="AS144">
+        <v>1.64</v>
+      </c>
+      <c r="AT144">
+        <v>2.83</v>
+      </c>
+      <c r="AU144">
         <v>4</v>
-      </c>
-      <c r="AG144">
-        <v>1.75</v>
-      </c>
-      <c r="AH144">
-        <v>2.05</v>
-      </c>
-      <c r="AI144">
-        <v>1.62</v>
-      </c>
-      <c r="AJ144">
-        <v>2.2</v>
-      </c>
-      <c r="AK144">
-        <v>1.47</v>
-      </c>
-      <c r="AL144">
-        <v>1.33</v>
-      </c>
-      <c r="AM144">
-        <v>1.6</v>
-      </c>
-      <c r="AN144">
-        <v>2.17</v>
-      </c>
-      <c r="AO144">
-        <v>1.55</v>
-      </c>
-      <c r="AP144">
-        <v>2.23</v>
-      </c>
-      <c r="AQ144">
-        <v>1.42</v>
-      </c>
-      <c r="AR144">
-        <v>1.82</v>
-      </c>
-      <c r="AS144">
-        <v>1.68</v>
-      </c>
-      <c r="AT144">
-        <v>3.5</v>
-      </c>
-      <c r="AU144">
-        <v>3</v>
       </c>
       <c r="AV144">
         <v>3</v>
@@ -30792,61 +30792,61 @@
         <v>6</v>
       </c>
       <c r="AX144">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AY144">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="AZ144">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="BA144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BB144">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="BC144">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="BD144">
-        <v>2.18</v>
+        <v>2.75</v>
       </c>
       <c r="BE144">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="BF144">
-        <v>1.98</v>
+        <v>1.67</v>
       </c>
       <c r="BG144">
-        <v>1.22</v>
+        <v>1.27</v>
       </c>
       <c r="BH144">
-        <v>4</v>
+        <v>3.55</v>
       </c>
       <c r="BI144">
-        <v>1.42</v>
+        <v>1.5</v>
       </c>
       <c r="BJ144">
-        <v>2.75</v>
+        <v>2.48</v>
       </c>
       <c r="BK144">
-        <v>1.74</v>
+        <v>1.87</v>
       </c>
       <c r="BL144">
-        <v>2.02</v>
+        <v>1.87</v>
       </c>
       <c r="BM144">
-        <v>2.23</v>
+        <v>2.45</v>
       </c>
       <c r="BN144">
-        <v>1.61</v>
+        <v>1.5</v>
       </c>
       <c r="BO144">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="BP144">
-        <v>1.35</v>
+        <v>1.29</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30854,7 +30854,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7674866</v>
+        <v>7674867</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30863,16 +30863,16 @@
         <v>69</v>
       </c>
       <c r="E145" s="2">
-        <v>45558.875</v>
+        <v>45559.54166666666</v>
       </c>
       <c r="F145">
         <v>2</v>
       </c>
       <c r="G145" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H145" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I145">
         <v>1</v>
@@ -30899,25 +30899,25 @@
         <v>83</v>
       </c>
       <c r="Q145">
-        <v>3.75</v>
+        <v>3</v>
       </c>
       <c r="R145">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S145">
-        <v>2.75</v>
+        <v>3.4</v>
       </c>
       <c r="T145">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U145">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V145">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W145">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="X145">
         <v>7</v>
@@ -30926,133 +30926,133 @@
         <v>1.1</v>
       </c>
       <c r="Z145">
-        <v>2.7</v>
+        <v>2.32</v>
       </c>
       <c r="AA145">
-        <v>3.2</v>
+        <v>3.42</v>
       </c>
       <c r="AB145">
-        <v>2.3</v>
+        <v>2.87</v>
       </c>
       <c r="AC145">
-        <v>1.02</v>
+        <v>1.04</v>
       </c>
       <c r="AD145">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AE145">
         <v>1.25</v>
       </c>
       <c r="AF145">
-        <v>3.6</v>
+        <v>4</v>
       </c>
       <c r="AG145">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="AH145">
-        <v>1.85</v>
+        <v>2.05</v>
       </c>
       <c r="AI145">
-        <v>1.7</v>
+        <v>1.62</v>
       </c>
       <c r="AJ145">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="AK145">
-        <v>1.67</v>
+        <v>1.47</v>
       </c>
       <c r="AL145">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="AM145">
-        <v>1.38</v>
+        <v>1.6</v>
       </c>
       <c r="AN145">
-        <v>1.5</v>
+        <v>2.17</v>
       </c>
       <c r="AO145">
-        <v>0.91</v>
+        <v>1.55</v>
       </c>
       <c r="AP145">
-        <v>1.62</v>
+        <v>2.23</v>
       </c>
       <c r="AQ145">
-        <v>0.83</v>
+        <v>1.42</v>
       </c>
       <c r="AR145">
-        <v>1.19</v>
+        <v>1.82</v>
       </c>
       <c r="AS145">
-        <v>1.64</v>
+        <v>1.68</v>
       </c>
       <c r="AT145">
-        <v>2.83</v>
+        <v>3.5</v>
       </c>
       <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
         <v>3</v>
       </c>
-      <c r="AV145">
+      <c r="AW145">
+        <v>8</v>
+      </c>
+      <c r="AX145">
+        <v>12</v>
+      </c>
+      <c r="AY145">
+        <v>13</v>
+      </c>
+      <c r="AZ145">
+        <v>17</v>
+      </c>
+      <c r="BA145">
+        <v>2</v>
+      </c>
+      <c r="BB145">
+        <v>3</v>
+      </c>
+      <c r="BC145">
+        <v>5</v>
+      </c>
+      <c r="BD145">
+        <v>2.18</v>
+      </c>
+      <c r="BE145">
+        <v>7</v>
+      </c>
+      <c r="BF145">
+        <v>1.98</v>
+      </c>
+      <c r="BG145">
+        <v>1.22</v>
+      </c>
+      <c r="BH145">
         <v>4</v>
       </c>
-      <c r="AW145">
-        <v>1</v>
-      </c>
-      <c r="AX145">
-        <v>8</v>
-      </c>
-      <c r="AY145">
-        <v>4</v>
-      </c>
-      <c r="AZ145">
-        <v>12</v>
-      </c>
-      <c r="BA145">
-        <v>4</v>
-      </c>
-      <c r="BB145">
-        <v>13</v>
-      </c>
-      <c r="BC145">
-        <v>17</v>
-      </c>
-      <c r="BD145">
+      <c r="BI145">
+        <v>1.42</v>
+      </c>
+      <c r="BJ145">
         <v>2.75</v>
       </c>
-      <c r="BE145">
-        <v>7.5</v>
-      </c>
-      <c r="BF145">
-        <v>1.67</v>
-      </c>
-      <c r="BG145">
-        <v>1.27</v>
-      </c>
-      <c r="BH145">
-        <v>3.55</v>
-      </c>
-      <c r="BI145">
-        <v>1.5</v>
-      </c>
-      <c r="BJ145">
-        <v>2.48</v>
-      </c>
       <c r="BK145">
-        <v>1.87</v>
+        <v>1.74</v>
       </c>
       <c r="BL145">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="BM145">
-        <v>2.45</v>
+        <v>2.23</v>
       </c>
       <c r="BN145">
-        <v>1.5</v>
+        <v>1.61</v>
       </c>
       <c r="BO145">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="BP145">
-        <v>1.29</v>
+        <v>1.35</v>
       </c>
     </row>
     <row r="146" spans="1:68">
@@ -31069,7 +31069,7 @@
         <v>69</v>
       </c>
       <c r="E146" s="2">
-        <v>45561.875</v>
+        <v>45562.5</v>
       </c>
       <c r="F146">
         <v>3</v>
@@ -31195,22 +31195,22 @@
         <v>3.01</v>
       </c>
       <c r="AU146">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV146">
         <v>4</v>
       </c>
       <c r="AW146">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AX146">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY146">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AZ146">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA146">
         <v>2</v>
@@ -31275,7 +31275,7 @@
         <v>69</v>
       </c>
       <c r="E147" s="2">
-        <v>45562.875</v>
+        <v>45563.35416666666</v>
       </c>
       <c r="F147">
         <v>3</v>
@@ -31401,22 +31401,22 @@
         <v>3.24</v>
       </c>
       <c r="AU147">
+        <v>7</v>
+      </c>
+      <c r="AV147">
         <v>6</v>
       </c>
-      <c r="AV147">
-        <v>2</v>
-      </c>
       <c r="AW147">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX147">
         <v>2</v>
       </c>
       <c r="AY147">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ147">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="BA147">
         <v>5</v>
@@ -31481,7 +31481,7 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45562.875</v>
+        <v>45563.45833333334</v>
       </c>
       <c r="F148">
         <v>3</v>
@@ -31607,22 +31607,22 @@
         <v>2.62</v>
       </c>
       <c r="AU148">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV148">
         <v>0</v>
       </c>
       <c r="AW148">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AY148">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="AZ148">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BA148">
         <v>5</v>
@@ -31687,7 +31687,7 @@
         <v>69</v>
       </c>
       <c r="E149" s="2">
-        <v>45562.875</v>
+        <v>45563.5625</v>
       </c>
       <c r="F149">
         <v>3</v>
@@ -31816,19 +31816,19 @@
         <v>0</v>
       </c>
       <c r="AV149">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW149">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX149">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AY149">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ149">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="BA149">
         <v>2</v>
@@ -31893,7 +31893,7 @@
         <v>69</v>
       </c>
       <c r="E150" s="2">
-        <v>45563.875</v>
+        <v>45564.41666666666</v>
       </c>
       <c r="F150">
         <v>3</v>
@@ -32019,19 +32019,19 @@
         <v>2.92</v>
       </c>
       <c r="AU150">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV150">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW150">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX150">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="AY150">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ150">
         <v>11</v>
@@ -32099,7 +32099,7 @@
         <v>69</v>
       </c>
       <c r="E151" s="2">
-        <v>45564.875</v>
+        <v>45565.5</v>
       </c>
       <c r="F151">
         <v>3</v>
@@ -32225,22 +32225,22 @@
         <v>2.65</v>
       </c>
       <c r="AU151">
+        <v>9</v>
+      </c>
+      <c r="AV151">
+        <v>5</v>
+      </c>
+      <c r="AW151">
+        <v>14</v>
+      </c>
+      <c r="AX151">
         <v>4</v>
       </c>
-      <c r="AV151">
-        <v>4</v>
-      </c>
-      <c r="AW151">
-        <v>7</v>
-      </c>
-      <c r="AX151">
-        <v>1</v>
-      </c>
       <c r="AY151">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="AZ151">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="BA151">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="269">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -819,6 +819,9 @@
   <si>
     <t>['43', '52', '67', '84']</t>
   </si>
+  <si>
+    <t>['48', '90+4']</t>
+  </si>
 </sst>
 </file>
 
@@ -1179,7 +1182,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP152"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3164,7 +3167,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ10">
         <v>1.46</v>
@@ -3991,7 +3994,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR14">
         <v>1.95</v>
@@ -4812,7 +4815,7 @@
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ18">
         <v>1.08</v>
@@ -6463,7 +6466,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ26">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
@@ -6666,7 +6669,7 @@
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ27">
         <v>0.46</v>
@@ -8729,7 +8732,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ37">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR37">
         <v>0.83</v>
@@ -10374,7 +10377,7 @@
         <v>1.4</v>
       </c>
       <c r="AP45">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ45">
         <v>1.42</v>
@@ -11201,7 +11204,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ49">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR49">
         <v>2.14</v>
@@ -12022,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="AP53">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ53">
         <v>0.83</v>
@@ -13876,10 +13879,10 @@
         <v>1.75</v>
       </c>
       <c r="AP62">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ62">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR62">
         <v>1.91</v>
@@ -14909,7 +14912,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ67">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR67">
         <v>1.65</v>
@@ -16966,7 +16969,7 @@
         <v>0.33</v>
       </c>
       <c r="AP77">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ77">
         <v>0.5</v>
@@ -17793,7 +17796,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ81">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR81">
         <v>1.47</v>
@@ -18614,7 +18617,7 @@
         <v>0.57</v>
       </c>
       <c r="AP85">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ85">
         <v>0.62</v>
@@ -20059,7 +20062,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ92">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR92">
         <v>1.34</v>
@@ -22322,7 +22325,7 @@
         <v>1.17</v>
       </c>
       <c r="AP103">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ103">
         <v>0.54</v>
@@ -22943,7 +22946,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ106">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR106">
         <v>1.22</v>
@@ -25415,7 +25418,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ118">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR118">
         <v>1.56</v>
@@ -25824,7 +25827,7 @@
         <v>1.44</v>
       </c>
       <c r="AP120">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ120">
         <v>1.23</v>
@@ -27887,7 +27890,7 @@
         <v>1.77</v>
       </c>
       <c r="AQ130">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR130">
         <v>1.63</v>
@@ -28502,7 +28505,7 @@
         <v>1.4</v>
       </c>
       <c r="AP133">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ133">
         <v>1.5</v>
@@ -30356,7 +30359,7 @@
         <v>1.55</v>
       </c>
       <c r="AP142">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ142">
         <v>1.5</v>
@@ -31801,7 +31804,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ149">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AR149">
         <v>1.94</v>
@@ -32289,6 +32292,212 @@
       </c>
       <c r="BP151">
         <v>1.35</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7674874</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45569.5</v>
+      </c>
+      <c r="F152">
+        <v>4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>77</v>
+      </c>
+      <c r="H152" t="s">
+        <v>71</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>0</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>2</v>
+      </c>
+      <c r="O152" t="s">
+        <v>83</v>
+      </c>
+      <c r="P152" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q152">
+        <v>4</v>
+      </c>
+      <c r="R152">
+        <v>2.38</v>
+      </c>
+      <c r="S152">
+        <v>2.3</v>
+      </c>
+      <c r="T152">
+        <v>1.27</v>
+      </c>
+      <c r="U152">
+        <v>3.55</v>
+      </c>
+      <c r="V152">
+        <v>2.3</v>
+      </c>
+      <c r="W152">
+        <v>1.62</v>
+      </c>
+      <c r="X152">
+        <v>5.05</v>
+      </c>
+      <c r="Y152">
+        <v>1.15</v>
+      </c>
+      <c r="Z152">
+        <v>3.9</v>
+      </c>
+      <c r="AA152">
+        <v>3.94</v>
+      </c>
+      <c r="AB152">
+        <v>1.84</v>
+      </c>
+      <c r="AC152">
+        <v>1.02</v>
+      </c>
+      <c r="AD152">
+        <v>14.9</v>
+      </c>
+      <c r="AE152">
+        <v>1.17</v>
+      </c>
+      <c r="AF152">
+        <v>5.16</v>
+      </c>
+      <c r="AG152">
+        <v>1.56</v>
+      </c>
+      <c r="AH152">
+        <v>2.47</v>
+      </c>
+      <c r="AI152">
+        <v>1.5</v>
+      </c>
+      <c r="AJ152">
+        <v>2.63</v>
+      </c>
+      <c r="AK152">
+        <v>1.95</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>1.27</v>
+      </c>
+      <c r="AN152">
+        <v>1.58</v>
+      </c>
+      <c r="AO152">
+        <v>1.58</v>
+      </c>
+      <c r="AP152">
+        <v>1.46</v>
+      </c>
+      <c r="AQ152">
+        <v>1.69</v>
+      </c>
+      <c r="AR152">
+        <v>1.84</v>
+      </c>
+      <c r="AS152">
+        <v>1.57</v>
+      </c>
+      <c r="AT152">
+        <v>3.41</v>
+      </c>
+      <c r="AU152">
+        <v>5</v>
+      </c>
+      <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
+        <v>3</v>
+      </c>
+      <c r="AY152">
+        <v>9</v>
+      </c>
+      <c r="AZ152">
+        <v>8</v>
+      </c>
+      <c r="BA152">
+        <v>7</v>
+      </c>
+      <c r="BB152">
+        <v>2</v>
+      </c>
+      <c r="BC152">
+        <v>9</v>
+      </c>
+      <c r="BD152">
+        <v>2.91</v>
+      </c>
+      <c r="BE152">
+        <v>8.5</v>
+      </c>
+      <c r="BF152">
+        <v>1.55</v>
+      </c>
+      <c r="BG152">
+        <v>1.18</v>
+      </c>
+      <c r="BH152">
+        <v>4.5</v>
+      </c>
+      <c r="BI152">
+        <v>1.35</v>
+      </c>
+      <c r="BJ152">
+        <v>3.05</v>
+      </c>
+      <c r="BK152">
+        <v>1.62</v>
+      </c>
+      <c r="BL152">
+        <v>2.23</v>
+      </c>
+      <c r="BM152">
+        <v>2.04</v>
+      </c>
+      <c r="BN152">
+        <v>1.73</v>
+      </c>
+      <c r="BO152">
+        <v>2.7</v>
+      </c>
+      <c r="BP152">
+        <v>1.43</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="974" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,12 @@
     <t>['35', '60', '71']</t>
   </si>
   <si>
+    <t>['36', '63']</t>
+  </si>
+  <si>
+    <t>['45+2']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -821,6 +827,9 @@
   </si>
   <si>
     <t>['48', '90+4']</t>
+  </si>
+  <si>
+    <t>['18', '46']</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP152"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1441,7 +1450,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1519,7 +1528,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ2">
         <v>0.83</v>
@@ -1728,7 +1737,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ3">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1853,7 +1862,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1931,10 +1940,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ4">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2059,7 +2068,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2265,7 +2274,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2471,7 +2480,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2758,7 +2767,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ8">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2883,7 +2892,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -3089,7 +3098,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3295,7 +3304,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3376,7 +3385,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ11">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3501,7 +3510,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3707,7 +3716,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3788,7 +3797,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ13">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
@@ -3991,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ14">
         <v>1.69</v>
@@ -4200,7 +4209,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ15">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR15">
         <v>1.37</v>
@@ -4325,7 +4334,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4737,7 +4746,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4943,7 +4952,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5021,10 +5030,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ19">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5149,7 +5158,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5227,7 +5236,7 @@
         <v>0</v>
       </c>
       <c r="AP20">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ20">
         <v>1.5</v>
@@ -5355,7 +5364,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5561,7 +5570,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5767,7 +5776,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5848,7 +5857,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ23">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR23">
         <v>2.91</v>
@@ -5973,7 +5982,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6257,7 +6266,7 @@
         <v>1</v>
       </c>
       <c r="AP25">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ25">
         <v>1.46</v>
@@ -6385,7 +6394,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6672,7 +6681,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ27">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR27">
         <v>1.84</v>
@@ -6797,7 +6806,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6878,7 +6887,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ28">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR28">
         <v>1.88</v>
@@ -7209,7 +7218,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7287,10 +7296,10 @@
         <v>1.67</v>
       </c>
       <c r="AP30">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ30">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR30">
         <v>1.67</v>
@@ -7415,7 +7424,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7493,7 +7502,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ31">
         <v>1.23</v>
@@ -7621,7 +7630,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7827,7 +7836,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -8239,7 +8248,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8651,7 +8660,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8729,7 +8738,7 @@
         <v>1.5</v>
       </c>
       <c r="AP37">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ37">
         <v>1.69</v>
@@ -9063,7 +9072,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9269,7 +9278,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9475,7 +9484,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9553,7 +9562,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ41">
         <v>0.83</v>
@@ -9965,10 +9974,10 @@
         <v>1.5</v>
       </c>
       <c r="AP43">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR43">
         <v>1.52</v>
@@ -10171,10 +10180,10 @@
         <v>0.33</v>
       </c>
       <c r="AP44">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ44">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR44">
         <v>0.85</v>
@@ -10299,7 +10308,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10380,7 +10389,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ45">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR45">
         <v>2.08</v>
@@ -10917,7 +10926,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10998,7 +11007,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ48">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR48">
         <v>1.21</v>
@@ -11329,7 +11338,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11535,7 +11544,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11741,7 +11750,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -12153,7 +12162,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12359,7 +12368,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12440,7 +12449,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ55">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR55">
         <v>2.04</v>
@@ -12565,7 +12574,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12643,7 +12652,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ56">
         <v>0.54</v>
@@ -12977,7 +12986,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13055,10 +13064,10 @@
         <v>0.5</v>
       </c>
       <c r="AP58">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ58">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR58">
         <v>1.58</v>
@@ -13183,7 +13192,7 @@
         <v>116</v>
       </c>
       <c r="P59" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q59">
         <v>6</v>
@@ -13261,7 +13270,7 @@
         <v>2.25</v>
       </c>
       <c r="AP59">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ59">
         <v>1.31</v>
@@ -13389,7 +13398,7 @@
         <v>83</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>4</v>
@@ -14213,7 +14222,7 @@
         <v>128</v>
       </c>
       <c r="P64" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>1.99</v>
@@ -14294,7 +14303,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ64">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR64">
         <v>1.36</v>
@@ -14497,7 +14506,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ65">
         <v>1.08</v>
@@ -14831,7 +14840,7 @@
         <v>83</v>
       </c>
       <c r="P67" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q67">
         <v>3.92</v>
@@ -15243,7 +15252,7 @@
         <v>130</v>
       </c>
       <c r="P69" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>1.78</v>
@@ -15321,7 +15330,7 @@
         <v>0.2</v>
       </c>
       <c r="AP69">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ69">
         <v>0.62</v>
@@ -15449,7 +15458,7 @@
         <v>131</v>
       </c>
       <c r="P70" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.3</v>
@@ -15530,7 +15539,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ70">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR70">
         <v>1.29</v>
@@ -15655,7 +15664,7 @@
         <v>83</v>
       </c>
       <c r="P71" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>5.5</v>
@@ -15733,7 +15742,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ71">
         <v>1.5</v>
@@ -15942,7 +15951,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ72">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR72">
         <v>1.95</v>
@@ -16067,7 +16076,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>3.52</v>
@@ -16145,7 +16154,7 @@
         <v>0.8</v>
       </c>
       <c r="AP73">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ73">
         <v>0.54</v>
@@ -16273,7 +16282,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q74">
         <v>2.38</v>
@@ -16479,7 +16488,7 @@
         <v>135</v>
       </c>
       <c r="P75" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q75">
         <v>3.4</v>
@@ -16972,7 +16981,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ77">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR77">
         <v>1.86</v>
@@ -17097,7 +17106,7 @@
         <v>137</v>
       </c>
       <c r="P78" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q78">
         <v>3.22</v>
@@ -17384,7 +17393,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ79">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR79">
         <v>1.28</v>
@@ -17509,7 +17518,7 @@
         <v>139</v>
       </c>
       <c r="P80" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q80">
         <v>2.25</v>
@@ -17587,7 +17596,7 @@
         <v>1.4</v>
       </c>
       <c r="AP80">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ80">
         <v>1.23</v>
@@ -17715,7 +17724,7 @@
         <v>140</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>6</v>
@@ -17921,7 +17930,7 @@
         <v>141</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>5.5</v>
@@ -18127,7 +18136,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>2.25</v>
@@ -18205,7 +18214,7 @@
         <v>0.17</v>
       </c>
       <c r="AP83">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ83">
         <v>0.62</v>
@@ -18539,7 +18548,7 @@
         <v>144</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q85">
         <v>1.72</v>
@@ -18745,7 +18754,7 @@
         <v>83</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q86">
         <v>3</v>
@@ -18951,7 +18960,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>1.95</v>
@@ -19157,7 +19166,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>3.75</v>
@@ -19444,7 +19453,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ89">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR89">
         <v>1.58</v>
@@ -19569,7 +19578,7 @@
         <v>83</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>5.5</v>
@@ -19647,7 +19656,7 @@
         <v>0.57</v>
       </c>
       <c r="AP90">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ90">
         <v>0.83</v>
@@ -19775,7 +19784,7 @@
         <v>90</v>
       </c>
       <c r="P91" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q91">
         <v>3.6</v>
@@ -19856,7 +19865,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ91">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR91">
         <v>1.47</v>
@@ -19981,7 +19990,7 @@
         <v>148</v>
       </c>
       <c r="P92" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q92">
         <v>4.33</v>
@@ -20599,7 +20608,7 @@
         <v>83</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q95">
         <v>4.75</v>
@@ -20805,7 +20814,7 @@
         <v>150</v>
       </c>
       <c r="P96" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q96">
         <v>2.25</v>
@@ -21092,7 +21101,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ97">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR97">
         <v>1.79</v>
@@ -21217,7 +21226,7 @@
         <v>152</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q98">
         <v>2.2</v>
@@ -21423,7 +21432,7 @@
         <v>153</v>
       </c>
       <c r="P99" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q99">
         <v>1.8</v>
@@ -21501,10 +21510,10 @@
         <v>0.38</v>
       </c>
       <c r="AP99">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ99">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR99">
         <v>1.83</v>
@@ -21710,7 +21719,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ100">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR100">
         <v>1.91</v>
@@ -22041,7 +22050,7 @@
         <v>155</v>
       </c>
       <c r="P102" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q102">
         <v>6</v>
@@ -22119,10 +22128,10 @@
         <v>1.44</v>
       </c>
       <c r="AP102">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ102">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR102">
         <v>1.08</v>
@@ -22659,7 +22668,7 @@
         <v>158</v>
       </c>
       <c r="P105" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q105">
         <v>5.9</v>
@@ -23071,7 +23080,7 @@
         <v>159</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>2.88</v>
@@ -23277,7 +23286,7 @@
         <v>160</v>
       </c>
       <c r="P108" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q108">
         <v>4.33</v>
@@ -23355,7 +23364,7 @@
         <v>1.25</v>
       </c>
       <c r="AP108">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ108">
         <v>1.23</v>
@@ -23561,7 +23570,7 @@
         <v>1.63</v>
       </c>
       <c r="AP109">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ109">
         <v>1.31</v>
@@ -24307,7 +24316,7 @@
         <v>165</v>
       </c>
       <c r="P113" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q113">
         <v>4</v>
@@ -24388,7 +24397,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ113">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR113">
         <v>1.59</v>
@@ -24591,7 +24600,7 @@
         <v>1.44</v>
       </c>
       <c r="AP114">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ114">
         <v>1.31</v>
@@ -24925,7 +24934,7 @@
         <v>83</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q116">
         <v>7</v>
@@ -25003,7 +25012,7 @@
         <v>1.22</v>
       </c>
       <c r="AP116">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ116">
         <v>1.5</v>
@@ -25209,10 +25218,10 @@
         <v>0.67</v>
       </c>
       <c r="AP117">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR117">
         <v>1.59</v>
@@ -25624,7 +25633,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ119">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR119">
         <v>1.18</v>
@@ -25749,7 +25758,7 @@
         <v>169</v>
       </c>
       <c r="P120" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q120">
         <v>2.5</v>
@@ -25955,7 +25964,7 @@
         <v>170</v>
       </c>
       <c r="P121" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q121">
         <v>2.8</v>
@@ -26033,7 +26042,7 @@
         <v>0.78</v>
       </c>
       <c r="AP121">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ121">
         <v>0.54</v>
@@ -26367,7 +26376,7 @@
         <v>83</v>
       </c>
       <c r="P123" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q123">
         <v>3.24</v>
@@ -27269,7 +27278,7 @@
         <v>1</v>
       </c>
       <c r="AP127">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ127">
         <v>1.08</v>
@@ -27478,7 +27487,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ128">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR128">
         <v>1.6</v>
@@ -27603,7 +27612,7 @@
         <v>174</v>
       </c>
       <c r="P129" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q129">
         <v>2.33</v>
@@ -27809,7 +27818,7 @@
         <v>175</v>
       </c>
       <c r="P130" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q130">
         <v>3.75</v>
@@ -27887,7 +27896,7 @@
         <v>1.5</v>
       </c>
       <c r="AP130">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
         <v>1.69</v>
@@ -28015,7 +28024,7 @@
         <v>86</v>
       </c>
       <c r="P131" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q131">
         <v>5.5</v>
@@ -28093,7 +28102,7 @@
         <v>1.4</v>
       </c>
       <c r="AP131">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ131">
         <v>1.46</v>
@@ -28302,7 +28311,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ132">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR132">
         <v>1.28</v>
@@ -28427,7 +28436,7 @@
         <v>177</v>
       </c>
       <c r="P133" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q133">
         <v>3.6</v>
@@ -28633,7 +28642,7 @@
         <v>178</v>
       </c>
       <c r="P134" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q134">
         <v>1.64</v>
@@ -28839,7 +28848,7 @@
         <v>179</v>
       </c>
       <c r="P135" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q135">
         <v>2.05</v>
@@ -29045,7 +29054,7 @@
         <v>180</v>
       </c>
       <c r="P136" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q136">
         <v>2.04</v>
@@ -29332,7 +29341,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ137">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR137">
         <v>1.16</v>
@@ -29457,7 +29466,7 @@
         <v>182</v>
       </c>
       <c r="P138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q138">
         <v>1.95</v>
@@ -29663,7 +29672,7 @@
         <v>183</v>
       </c>
       <c r="P139" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q139">
         <v>2.19</v>
@@ -29741,7 +29750,7 @@
         <v>0.64</v>
       </c>
       <c r="AP139">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ139">
         <v>0.54</v>
@@ -29869,7 +29878,7 @@
         <v>184</v>
       </c>
       <c r="P140" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q140">
         <v>2.77</v>
@@ -30075,7 +30084,7 @@
         <v>83</v>
       </c>
       <c r="P141" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q141">
         <v>3.6</v>
@@ -30281,7 +30290,7 @@
         <v>173</v>
       </c>
       <c r="P142" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q142">
         <v>4.33</v>
@@ -30487,7 +30496,7 @@
         <v>185</v>
       </c>
       <c r="P143" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q143">
         <v>4.75</v>
@@ -30565,7 +30574,7 @@
         <v>1.18</v>
       </c>
       <c r="AP143">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AQ143">
         <v>1.08</v>
@@ -30980,7 +30989,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ145">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="AR145">
         <v>1.82</v>
@@ -31183,10 +31192,10 @@
         <v>0.55</v>
       </c>
       <c r="AP146">
-        <v>1.77</v>
+        <v>1.71</v>
       </c>
       <c r="AQ146">
-        <v>0.5</v>
+        <v>0.54</v>
       </c>
       <c r="AR146">
         <v>1.61</v>
@@ -31311,7 +31320,7 @@
         <v>189</v>
       </c>
       <c r="P147" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q147">
         <v>2.12</v>
@@ -31389,7 +31398,7 @@
         <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AQ147">
         <v>1.31</v>
@@ -31723,7 +31732,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q149">
         <v>2.78</v>
@@ -32135,7 +32144,7 @@
         <v>192</v>
       </c>
       <c r="P151" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q151">
         <v>2.12</v>
@@ -32216,7 +32225,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ151">
-        <v>0.46</v>
+        <v>0.5</v>
       </c>
       <c r="AR151">
         <v>1.65</v>
@@ -32308,7 +32317,7 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45569.5</v>
+        <v>45568.875</v>
       </c>
       <c r="F152">
         <v>4</v>
@@ -32341,7 +32350,7 @@
         <v>83</v>
       </c>
       <c r="P152" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q152">
         <v>4</v>
@@ -32437,19 +32446,19 @@
         <v>5</v>
       </c>
       <c r="AV152">
+        <v>3</v>
+      </c>
+      <c r="AW152">
+        <v>1</v>
+      </c>
+      <c r="AX152">
+        <v>1</v>
+      </c>
+      <c r="AY152">
+        <v>6</v>
+      </c>
+      <c r="AZ152">
         <v>4</v>
-      </c>
-      <c r="AW152">
-        <v>4</v>
-      </c>
-      <c r="AX152">
-        <v>3</v>
-      </c>
-      <c r="AY152">
-        <v>9</v>
-      </c>
-      <c r="AZ152">
-        <v>8</v>
       </c>
       <c r="BA152">
         <v>7</v>
@@ -32498,6 +32507,624 @@
       </c>
       <c r="BP152">
         <v>1.43</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7674875</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F153">
+        <v>4</v>
+      </c>
+      <c r="G153" t="s">
+        <v>70</v>
+      </c>
+      <c r="H153" t="s">
+        <v>79</v>
+      </c>
+      <c r="I153">
+        <v>1</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>2</v>
+      </c>
+      <c r="L153">
+        <v>2</v>
+      </c>
+      <c r="M153">
+        <v>2</v>
+      </c>
+      <c r="N153">
+        <v>4</v>
+      </c>
+      <c r="O153" t="s">
+        <v>193</v>
+      </c>
+      <c r="P153" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q153">
+        <v>2.2</v>
+      </c>
+      <c r="R153">
+        <v>2.3</v>
+      </c>
+      <c r="S153">
+        <v>4.5</v>
+      </c>
+      <c r="T153">
+        <v>1.3</v>
+      </c>
+      <c r="U153">
+        <v>3.2</v>
+      </c>
+      <c r="V153">
+        <v>2.45</v>
+      </c>
+      <c r="W153">
+        <v>1.55</v>
+      </c>
+      <c r="X153">
+        <v>5.55</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>1.65</v>
+      </c>
+      <c r="AA153">
+        <v>3.9</v>
+      </c>
+      <c r="AB153">
+        <v>4.2</v>
+      </c>
+      <c r="AC153">
+        <v>1.01</v>
+      </c>
+      <c r="AD153">
+        <v>11</v>
+      </c>
+      <c r="AE153">
+        <v>1.14</v>
+      </c>
+      <c r="AF153">
+        <v>4.8</v>
+      </c>
+      <c r="AG153">
+        <v>1.63</v>
+      </c>
+      <c r="AH153">
+        <v>2.28</v>
+      </c>
+      <c r="AI153">
+        <v>1.57</v>
+      </c>
+      <c r="AJ153">
+        <v>2.25</v>
+      </c>
+      <c r="AK153">
+        <v>1.15</v>
+      </c>
+      <c r="AL153">
+        <v>1.2</v>
+      </c>
+      <c r="AM153">
+        <v>2.1</v>
+      </c>
+      <c r="AN153">
+        <v>1.77</v>
+      </c>
+      <c r="AO153">
+        <v>0.46</v>
+      </c>
+      <c r="AP153">
+        <v>1.71</v>
+      </c>
+      <c r="AQ153">
+        <v>0.5</v>
+      </c>
+      <c r="AR153">
+        <v>1.6</v>
+      </c>
+      <c r="AS153">
+        <v>1.02</v>
+      </c>
+      <c r="AT153">
+        <v>2.62</v>
+      </c>
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>9</v>
+      </c>
+      <c r="AX153">
+        <v>2</v>
+      </c>
+      <c r="AY153">
+        <v>14</v>
+      </c>
+      <c r="AZ153">
+        <v>7</v>
+      </c>
+      <c r="BA153">
+        <v>9</v>
+      </c>
+      <c r="BB153">
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <v>15</v>
+      </c>
+      <c r="BD153">
+        <v>1.41</v>
+      </c>
+      <c r="BE153">
+        <v>9</v>
+      </c>
+      <c r="BF153">
+        <v>3.58</v>
+      </c>
+      <c r="BG153">
+        <v>1.2</v>
+      </c>
+      <c r="BH153">
+        <v>4.25</v>
+      </c>
+      <c r="BI153">
+        <v>1.38</v>
+      </c>
+      <c r="BJ153">
+        <v>2.88</v>
+      </c>
+      <c r="BK153">
+        <v>1.67</v>
+      </c>
+      <c r="BL153">
+        <v>2.12</v>
+      </c>
+      <c r="BM153">
+        <v>2.12</v>
+      </c>
+      <c r="BN153">
+        <v>1.66</v>
+      </c>
+      <c r="BO153">
+        <v>2.85</v>
+      </c>
+      <c r="BP153">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7674877</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45569.875</v>
+      </c>
+      <c r="F154">
+        <v>4</v>
+      </c>
+      <c r="G154" t="s">
+        <v>80</v>
+      </c>
+      <c r="H154" t="s">
+        <v>81</v>
+      </c>
+      <c r="I154">
+        <v>1</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>1</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>2</v>
+      </c>
+      <c r="O154" t="s">
+        <v>194</v>
+      </c>
+      <c r="P154" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q154">
+        <v>3.98</v>
+      </c>
+      <c r="R154">
+        <v>2.25</v>
+      </c>
+      <c r="S154">
+        <v>2.52</v>
+      </c>
+      <c r="T154">
+        <v>1.33</v>
+      </c>
+      <c r="U154">
+        <v>3.16</v>
+      </c>
+      <c r="V154">
+        <v>2.55</v>
+      </c>
+      <c r="W154">
+        <v>1.48</v>
+      </c>
+      <c r="X154">
+        <v>6.1</v>
+      </c>
+      <c r="Y154">
+        <v>1.1</v>
+      </c>
+      <c r="Z154">
+        <v>3.25</v>
+      </c>
+      <c r="AA154">
+        <v>3.7</v>
+      </c>
+      <c r="AB154">
+        <v>1.91</v>
+      </c>
+      <c r="AC154">
+        <v>1.01</v>
+      </c>
+      <c r="AD154">
+        <v>11</v>
+      </c>
+      <c r="AE154">
+        <v>1.18</v>
+      </c>
+      <c r="AF154">
+        <v>3.72</v>
+      </c>
+      <c r="AG154">
+        <v>1.73</v>
+      </c>
+      <c r="AH154">
+        <v>2.1</v>
+      </c>
+      <c r="AI154">
+        <v>1.64</v>
+      </c>
+      <c r="AJ154">
+        <v>2.17</v>
+      </c>
+      <c r="AK154">
+        <v>1.81</v>
+      </c>
+      <c r="AL154">
+        <v>1.28</v>
+      </c>
+      <c r="AM154">
+        <v>1.3</v>
+      </c>
+      <c r="AN154">
+        <v>0.75</v>
+      </c>
+      <c r="AO154">
+        <v>0.5</v>
+      </c>
+      <c r="AP154">
+        <v>0.77</v>
+      </c>
+      <c r="AQ154">
+        <v>0.54</v>
+      </c>
+      <c r="AR154">
+        <v>1.25</v>
+      </c>
+      <c r="AS154">
+        <v>1.39</v>
+      </c>
+      <c r="AT154">
+        <v>2.64</v>
+      </c>
+      <c r="AU154">
+        <v>6</v>
+      </c>
+      <c r="AV154">
+        <v>2</v>
+      </c>
+      <c r="AW154">
+        <v>2</v>
+      </c>
+      <c r="AX154">
+        <v>3</v>
+      </c>
+      <c r="AY154">
+        <v>8</v>
+      </c>
+      <c r="AZ154">
+        <v>5</v>
+      </c>
+      <c r="BA154">
+        <v>7</v>
+      </c>
+      <c r="BB154">
+        <v>4</v>
+      </c>
+      <c r="BC154">
+        <v>11</v>
+      </c>
+      <c r="BD154">
+        <v>2.2</v>
+      </c>
+      <c r="BE154">
+        <v>8</v>
+      </c>
+      <c r="BF154">
+        <v>1.91</v>
+      </c>
+      <c r="BG154">
+        <v>1.25</v>
+      </c>
+      <c r="BH154">
+        <v>3.14</v>
+      </c>
+      <c r="BI154">
+        <v>1.51</v>
+      </c>
+      <c r="BJ154">
+        <v>2.32</v>
+      </c>
+      <c r="BK154">
+        <v>1.88</v>
+      </c>
+      <c r="BL154">
+        <v>1.92</v>
+      </c>
+      <c r="BM154">
+        <v>2.45</v>
+      </c>
+      <c r="BN154">
+        <v>1.46</v>
+      </c>
+      <c r="BO154">
+        <v>3.22</v>
+      </c>
+      <c r="BP154">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>7674876</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45570.45833333334</v>
+      </c>
+      <c r="F155">
+        <v>4</v>
+      </c>
+      <c r="G155" t="s">
+        <v>72</v>
+      </c>
+      <c r="H155" t="s">
+        <v>75</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>0</v>
+      </c>
+      <c r="M155">
+        <v>1</v>
+      </c>
+      <c r="N155">
+        <v>1</v>
+      </c>
+      <c r="O155" t="s">
+        <v>83</v>
+      </c>
+      <c r="P155" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q155">
+        <v>3.3</v>
+      </c>
+      <c r="R155">
+        <v>2.25</v>
+      </c>
+      <c r="S155">
+        <v>2.75</v>
+      </c>
+      <c r="T155">
+        <v>1.29</v>
+      </c>
+      <c r="U155">
+        <v>3.42</v>
+      </c>
+      <c r="V155">
+        <v>2.39</v>
+      </c>
+      <c r="W155">
+        <v>1.58</v>
+      </c>
+      <c r="X155">
+        <v>5.4</v>
+      </c>
+      <c r="Y155">
+        <v>1.13</v>
+      </c>
+      <c r="Z155">
+        <v>2.8</v>
+      </c>
+      <c r="AA155">
+        <v>3.6</v>
+      </c>
+      <c r="AB155">
+        <v>2.15</v>
+      </c>
+      <c r="AC155">
+        <v>1.01</v>
+      </c>
+      <c r="AD155">
+        <v>13</v>
+      </c>
+      <c r="AE155">
+        <v>1.14</v>
+      </c>
+      <c r="AF155">
+        <v>4.8</v>
+      </c>
+      <c r="AG155">
+        <v>1.58</v>
+      </c>
+      <c r="AH155">
+        <v>2.35</v>
+      </c>
+      <c r="AI155">
+        <v>1.5</v>
+      </c>
+      <c r="AJ155">
+        <v>2.5</v>
+      </c>
+      <c r="AK155">
+        <v>1.67</v>
+      </c>
+      <c r="AL155">
+        <v>1.27</v>
+      </c>
+      <c r="AM155">
+        <v>1.39</v>
+      </c>
+      <c r="AN155">
+        <v>1.75</v>
+      </c>
+      <c r="AO155">
+        <v>1.42</v>
+      </c>
+      <c r="AP155">
+        <v>1.62</v>
+      </c>
+      <c r="AQ155">
+        <v>1.54</v>
+      </c>
+      <c r="AR155">
+        <v>1.95</v>
+      </c>
+      <c r="AS155">
+        <v>1.67</v>
+      </c>
+      <c r="AT155">
+        <v>3.62</v>
+      </c>
+      <c r="AU155">
+        <v>6</v>
+      </c>
+      <c r="AV155">
+        <v>4</v>
+      </c>
+      <c r="AW155">
+        <v>5</v>
+      </c>
+      <c r="AX155">
+        <v>1</v>
+      </c>
+      <c r="AY155">
+        <v>11</v>
+      </c>
+      <c r="AZ155">
+        <v>5</v>
+      </c>
+      <c r="BA155">
+        <v>4</v>
+      </c>
+      <c r="BB155">
+        <v>3</v>
+      </c>
+      <c r="BC155">
+        <v>7</v>
+      </c>
+      <c r="BD155">
+        <v>2.2</v>
+      </c>
+      <c r="BE155">
+        <v>8</v>
+      </c>
+      <c r="BF155">
+        <v>1.83</v>
+      </c>
+      <c r="BG155">
+        <v>1.22</v>
+      </c>
+      <c r="BH155">
+        <v>4</v>
+      </c>
+      <c r="BI155">
+        <v>1.41</v>
+      </c>
+      <c r="BJ155">
+        <v>2.75</v>
+      </c>
+      <c r="BK155">
+        <v>1.73</v>
+      </c>
+      <c r="BL155">
+        <v>2</v>
+      </c>
+      <c r="BM155">
+        <v>2.23</v>
+      </c>
+      <c r="BN155">
+        <v>1.61</v>
+      </c>
+      <c r="BO155">
+        <v>3</v>
+      </c>
+      <c r="BP155">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="272">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1191,7 +1191,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP157"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1531,7 +1531,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ2">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2146,7 +2146,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ5">
         <v>0.62</v>
@@ -2764,7 +2764,7 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ8">
         <v>0.5</v>
@@ -3794,7 +3794,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ13">
         <v>1.54</v>
@@ -4412,7 +4412,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ16">
         <v>0.54</v>
@@ -4621,7 +4621,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ17">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -6472,7 +6472,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ26">
         <v>1.69</v>
@@ -7090,7 +7090,7 @@
         <v>0</v>
       </c>
       <c r="AP29">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ29">
         <v>0.62</v>
@@ -7505,7 +7505,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ31">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR31">
         <v>1.24</v>
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ32">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR32">
         <v>1.23</v>
@@ -9150,7 +9150,7 @@
         <v>2</v>
       </c>
       <c r="AP39">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ39">
         <v>1.31</v>
@@ -9565,7 +9565,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ41">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.53</v>
@@ -9771,7 +9771,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ42">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR42">
         <v>2.09</v>
@@ -10592,7 +10592,7 @@
         <v>1.33</v>
       </c>
       <c r="AP46">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ46">
         <v>1.08</v>
@@ -10801,7 +10801,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ47">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR47">
         <v>1.9</v>
@@ -11210,7 +11210,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ49">
         <v>1.69</v>
@@ -11622,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ51">
         <v>1.08</v>
@@ -12037,7 +12037,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ53">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.84</v>
@@ -12243,7 +12243,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ54">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR54">
         <v>1.56</v>
@@ -13479,7 +13479,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ60">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR60">
         <v>1.58</v>
@@ -14094,7 +14094,7 @@
         <v>1.75</v>
       </c>
       <c r="AP63">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ63">
         <v>1.46</v>
@@ -14712,7 +14712,7 @@
         <v>2.4</v>
       </c>
       <c r="AP66">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ66">
         <v>1.31</v>
@@ -15127,7 +15127,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ68">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR68">
         <v>1.62</v>
@@ -15948,7 +15948,7 @@
         <v>1.86</v>
       </c>
       <c r="AP72">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ72">
         <v>1.54</v>
@@ -16775,7 +16775,7 @@
         <v>1.58</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>1.38</v>
@@ -17599,7 +17599,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ80">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR80">
         <v>1.84</v>
@@ -18008,7 +18008,7 @@
         <v>1.33</v>
       </c>
       <c r="AP82">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18832,10 +18832,10 @@
         <v>1.17</v>
       </c>
       <c r="AP86">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ86">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR86">
         <v>1.21</v>
@@ -19659,7 +19659,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ90">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR90">
         <v>1.13</v>
@@ -20274,10 +20274,10 @@
         <v>1.43</v>
       </c>
       <c r="AP93">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ93">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR93">
         <v>1.91</v>
@@ -20686,7 +20686,7 @@
         <v>1.57</v>
       </c>
       <c r="AP95">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ95">
         <v>1.46</v>
@@ -21716,7 +21716,7 @@
         <v>0.75</v>
       </c>
       <c r="AP100">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ100">
         <v>0.54</v>
@@ -23367,7 +23367,7 @@
         <v>0.77</v>
       </c>
       <c r="AQ108">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR108">
         <v>1.12</v>
@@ -23985,7 +23985,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ111">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR111">
         <v>1.2</v>
@@ -25630,7 +25630,7 @@
         <v>0.44</v>
       </c>
       <c r="AP119">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ119">
         <v>0.5</v>
@@ -25839,7 +25839,7 @@
         <v>1.46</v>
       </c>
       <c r="AQ120">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR120">
         <v>1.82</v>
@@ -26457,7 +26457,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ123">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR123">
         <v>1.14</v>
@@ -26866,10 +26866,10 @@
         <v>0.78</v>
       </c>
       <c r="AP125">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ125">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR125">
         <v>1.93</v>
@@ -27693,7 +27693,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>1.65</v>
@@ -28308,7 +28308,7 @@
         <v>0.6</v>
       </c>
       <c r="AP132">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ132">
         <v>0.54</v>
@@ -28926,7 +28926,7 @@
         <v>1.36</v>
       </c>
       <c r="AP135">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ135">
         <v>1.46</v>
@@ -29135,7 +29135,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ136">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR136">
         <v>1.75</v>
@@ -30783,7 +30783,7 @@
         <v>1.62</v>
       </c>
       <c r="AQ144">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR144">
         <v>1.19</v>
@@ -31604,7 +31604,7 @@
         <v>0.67</v>
       </c>
       <c r="AP148">
-        <v>1.33</v>
+        <v>1.23</v>
       </c>
       <c r="AQ148">
         <v>0.62</v>
@@ -31810,7 +31810,7 @@
         <v>1.45</v>
       </c>
       <c r="AP149">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ149">
         <v>1.69</v>
@@ -32019,7 +32019,7 @@
         <v>2.54</v>
       </c>
       <c r="AQ150">
-        <v>1.23</v>
+        <v>1.36</v>
       </c>
       <c r="AR150">
         <v>1.63</v>
@@ -32317,10 +32317,10 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45568.875</v>
+        <v>45569.5</v>
       </c>
       <c r="F152">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G152" t="s">
         <v>77</v>
@@ -32446,19 +32446,19 @@
         <v>5</v>
       </c>
       <c r="AV152">
+        <v>4</v>
+      </c>
+      <c r="AW152">
+        <v>4</v>
+      </c>
+      <c r="AX152">
         <v>3</v>
       </c>
-      <c r="AW152">
-        <v>1</v>
-      </c>
-      <c r="AX152">
-        <v>1</v>
-      </c>
       <c r="AY152">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ152">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="BA152">
         <v>7</v>
@@ -32523,7 +32523,7 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45569.875</v>
+        <v>45570.33333333334</v>
       </c>
       <c r="F153">
         <v>4</v>
@@ -32649,22 +32649,22 @@
         <v>2.62</v>
       </c>
       <c r="AU153">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV153">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AW153">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX153">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AY153">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ153">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BA153">
         <v>9</v>
@@ -32729,7 +32729,7 @@
         <v>69</v>
       </c>
       <c r="E154" s="2">
-        <v>45569.875</v>
+        <v>45570.45833333334</v>
       </c>
       <c r="F154">
         <v>4</v>
@@ -32858,19 +32858,19 @@
         <v>6</v>
       </c>
       <c r="AV154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW154">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX154">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="AY154">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ154">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="BA154">
         <v>7</v>
@@ -33125,6 +33125,418 @@
       </c>
       <c r="BP155">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>7674878</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45571.4375</v>
+      </c>
+      <c r="F156">
+        <v>4</v>
+      </c>
+      <c r="G156" t="s">
+        <v>73</v>
+      </c>
+      <c r="H156" t="s">
+        <v>78</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>0</v>
+      </c>
+      <c r="K156">
+        <v>0</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>1</v>
+      </c>
+      <c r="N156">
+        <v>1</v>
+      </c>
+      <c r="O156" t="s">
+        <v>83</v>
+      </c>
+      <c r="P156" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q156">
+        <v>3.5</v>
+      </c>
+      <c r="R156">
+        <v>2.1</v>
+      </c>
+      <c r="S156">
+        <v>2.88</v>
+      </c>
+      <c r="T156">
+        <v>1.36</v>
+      </c>
+      <c r="U156">
+        <v>3.17</v>
+      </c>
+      <c r="V156">
+        <v>2.78</v>
+      </c>
+      <c r="W156">
+        <v>1.44</v>
+      </c>
+      <c r="X156">
+        <v>6.65</v>
+      </c>
+      <c r="Y156">
+        <v>1.09</v>
+      </c>
+      <c r="Z156">
+        <v>3.75</v>
+      </c>
+      <c r="AA156">
+        <v>3.3</v>
+      </c>
+      <c r="AB156">
+        <v>1.85</v>
+      </c>
+      <c r="AC156">
+        <v>1.03</v>
+      </c>
+      <c r="AD156">
+        <v>9</v>
+      </c>
+      <c r="AE156">
+        <v>1.25</v>
+      </c>
+      <c r="AF156">
+        <v>3.6</v>
+      </c>
+      <c r="AG156">
+        <v>1.8</v>
+      </c>
+      <c r="AH156">
+        <v>1.91</v>
+      </c>
+      <c r="AI156">
+        <v>1.67</v>
+      </c>
+      <c r="AJ156">
+        <v>2.1</v>
+      </c>
+      <c r="AK156">
+        <v>1.63</v>
+      </c>
+      <c r="AL156">
+        <v>1.31</v>
+      </c>
+      <c r="AM156">
+        <v>1.38</v>
+      </c>
+      <c r="AN156">
+        <v>1.33</v>
+      </c>
+      <c r="AO156">
+        <v>0.83</v>
+      </c>
+      <c r="AP156">
+        <v>1.23</v>
+      </c>
+      <c r="AQ156">
+        <v>1</v>
+      </c>
+      <c r="AR156">
+        <v>1.42</v>
+      </c>
+      <c r="AS156">
+        <v>1.66</v>
+      </c>
+      <c r="AT156">
+        <v>3.08</v>
+      </c>
+      <c r="AU156">
+        <v>2</v>
+      </c>
+      <c r="AV156">
+        <v>2</v>
+      </c>
+      <c r="AW156">
+        <v>7</v>
+      </c>
+      <c r="AX156">
+        <v>7</v>
+      </c>
+      <c r="AY156">
+        <v>10</v>
+      </c>
+      <c r="AZ156">
+        <v>10</v>
+      </c>
+      <c r="BA156">
+        <v>5</v>
+      </c>
+      <c r="BB156">
+        <v>3</v>
+      </c>
+      <c r="BC156">
+        <v>8</v>
+      </c>
+      <c r="BD156">
+        <v>2.66</v>
+      </c>
+      <c r="BE156">
+        <v>8.5</v>
+      </c>
+      <c r="BF156">
+        <v>1.64</v>
+      </c>
+      <c r="BG156">
+        <v>1.2</v>
+      </c>
+      <c r="BH156">
+        <v>4.25</v>
+      </c>
+      <c r="BI156">
+        <v>1.38</v>
+      </c>
+      <c r="BJ156">
+        <v>2.88</v>
+      </c>
+      <c r="BK156">
+        <v>1.67</v>
+      </c>
+      <c r="BL156">
+        <v>2.12</v>
+      </c>
+      <c r="BM156">
+        <v>2.12</v>
+      </c>
+      <c r="BN156">
+        <v>1.66</v>
+      </c>
+      <c r="BO156">
+        <v>2.85</v>
+      </c>
+      <c r="BP156">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>7674879</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45571.52083333334</v>
+      </c>
+      <c r="F157">
+        <v>0</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s">
+        <v>74</v>
+      </c>
+      <c r="I157">
+        <v>0</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1</v>
+      </c>
+      <c r="L157">
+        <v>0</v>
+      </c>
+      <c r="M157">
+        <v>1</v>
+      </c>
+      <c r="N157">
+        <v>1</v>
+      </c>
+      <c r="O157" t="s">
+        <v>83</v>
+      </c>
+      <c r="P157" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q157">
+        <v>1.87</v>
+      </c>
+      <c r="R157">
+        <v>2.57</v>
+      </c>
+      <c r="S157">
+        <v>5.9</v>
+      </c>
+      <c r="T157">
+        <v>1.26</v>
+      </c>
+      <c r="U157">
+        <v>3.64</v>
+      </c>
+      <c r="V157">
+        <v>2.23</v>
+      </c>
+      <c r="W157">
+        <v>1.62</v>
+      </c>
+      <c r="X157">
+        <v>4.95</v>
+      </c>
+      <c r="Y157">
+        <v>1.15</v>
+      </c>
+      <c r="Z157">
+        <v>1.42</v>
+      </c>
+      <c r="AA157">
+        <v>4.7</v>
+      </c>
+      <c r="AB157">
+        <v>6.1</v>
+      </c>
+      <c r="AC157">
+        <v>1.01</v>
+      </c>
+      <c r="AD157">
+        <v>13</v>
+      </c>
+      <c r="AE157">
+        <v>1.11</v>
+      </c>
+      <c r="AF157">
+        <v>4.6</v>
+      </c>
+      <c r="AG157">
+        <v>1.5</v>
+      </c>
+      <c r="AH157">
+        <v>2.41</v>
+      </c>
+      <c r="AI157">
+        <v>1.7</v>
+      </c>
+      <c r="AJ157">
+        <v>2.08</v>
+      </c>
+      <c r="AK157">
+        <v>1.1</v>
+      </c>
+      <c r="AL157">
+        <v>1.18</v>
+      </c>
+      <c r="AM157">
+        <v>2.86</v>
+      </c>
+      <c r="AN157">
+        <v>2.08</v>
+      </c>
+      <c r="AO157">
+        <v>1.23</v>
+      </c>
+      <c r="AP157">
+        <v>1.93</v>
+      </c>
+      <c r="AQ157">
+        <v>1.36</v>
+      </c>
+      <c r="AR157">
+        <v>1.87</v>
+      </c>
+      <c r="AS157">
+        <v>1.29</v>
+      </c>
+      <c r="AT157">
+        <v>3.16</v>
+      </c>
+      <c r="AU157">
+        <v>5</v>
+      </c>
+      <c r="AV157">
+        <v>7</v>
+      </c>
+      <c r="AW157">
+        <v>13</v>
+      </c>
+      <c r="AX157">
+        <v>2</v>
+      </c>
+      <c r="AY157">
+        <v>18</v>
+      </c>
+      <c r="AZ157">
+        <v>9</v>
+      </c>
+      <c r="BA157">
+        <v>11</v>
+      </c>
+      <c r="BB157">
+        <v>3</v>
+      </c>
+      <c r="BC157">
+        <v>14</v>
+      </c>
+      <c r="BD157">
+        <v>1.3</v>
+      </c>
+      <c r="BE157">
+        <v>10</v>
+      </c>
+      <c r="BF157">
+        <v>4.42</v>
+      </c>
+      <c r="BG157">
+        <v>1.1</v>
+      </c>
+      <c r="BH157">
+        <v>4.75</v>
+      </c>
+      <c r="BI157">
+        <v>1.3</v>
+      </c>
+      <c r="BJ157">
+        <v>3.3</v>
+      </c>
+      <c r="BK157">
+        <v>1.55</v>
+      </c>
+      <c r="BL157">
+        <v>2.38</v>
+      </c>
+      <c r="BM157">
+        <v>2</v>
+      </c>
+      <c r="BN157">
+        <v>1.8</v>
+      </c>
+      <c r="BO157">
+        <v>2.5</v>
+      </c>
+      <c r="BP157">
+        <v>1.49</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -33144,7 +33144,7 @@
         <v>45571.4375</v>
       </c>
       <c r="F156">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G156" t="s">
         <v>73</v>
@@ -33279,10 +33279,10 @@
         <v>7</v>
       </c>
       <c r="AY156">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ156">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA156">
         <v>5</v>
@@ -33350,7 +33350,7 @@
         <v>45571.52083333334</v>
       </c>
       <c r="F157">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G157" t="s">
         <v>76</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -28920,25 +28920,25 @@
         <v>2.1</v>
       </c>
       <c r="AN135">
-        <v>2.36</v>
+        <v>1.95</v>
       </c>
       <c r="AO135">
-        <v>1.36</v>
+        <v>1.64</v>
       </c>
       <c r="AP135">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AQ135">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AR135">
-        <v>1.91</v>
+        <v>1.81</v>
       </c>
       <c r="AS135">
-        <v>1.6</v>
+        <v>1.78</v>
       </c>
       <c r="AT135">
-        <v>3.51</v>
+        <v>3.59</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29126,25 +29126,25 @@
         <v>2.4</v>
       </c>
       <c r="AN136">
-        <v>2.09</v>
+        <v>1.77</v>
       </c>
       <c r="AO136">
-        <v>1.45</v>
+        <v>1.59</v>
       </c>
       <c r="AP136">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="AQ136">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AR136">
-        <v>1.75</v>
+        <v>1.66</v>
       </c>
       <c r="AS136">
-        <v>1.28</v>
+        <v>1.47</v>
       </c>
       <c r="AT136">
-        <v>3.03</v>
+        <v>3.13</v>
       </c>
       <c r="AU136">
         <v>9</v>
@@ -29538,25 +29538,25 @@
         <v>2.3</v>
       </c>
       <c r="AN138">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="AO138">
-        <v>1.27</v>
+        <v>1.45</v>
       </c>
       <c r="AP138">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="AQ138">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AR138">
         <v>1.67</v>
       </c>
       <c r="AS138">
-        <v>1.29</v>
+        <v>1.54</v>
       </c>
       <c r="AT138">
-        <v>2.96</v>
+        <v>3.21</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30156,25 +30156,25 @@
         <v>1.38</v>
       </c>
       <c r="AN141">
-        <v>1.73</v>
+        <v>1.52</v>
       </c>
       <c r="AO141">
-        <v>1.33</v>
+        <v>1.61</v>
       </c>
       <c r="AP141">
-        <v>1.58</v>
+        <v>1.46</v>
       </c>
       <c r="AQ141">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
       <c r="AR141">
-        <v>1.66</v>
+        <v>1.47</v>
       </c>
       <c r="AS141">
-        <v>1.61</v>
+        <v>1.78</v>
       </c>
       <c r="AT141">
-        <v>3.27</v>
+        <v>3.25</v>
       </c>
       <c r="AU141">
         <v>8</v>
@@ -30362,25 +30362,25 @@
         <v>1.28</v>
       </c>
       <c r="AN142">
-        <v>1.64</v>
+        <v>1.39</v>
       </c>
       <c r="AO142">
-        <v>1.55</v>
+        <v>1.91</v>
       </c>
       <c r="AP142">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
-        <v>1.5</v>
+        <v>1.73</v>
       </c>
       <c r="AR142">
-        <v>1.81</v>
+        <v>1.52</v>
       </c>
       <c r="AS142">
-        <v>1.7</v>
+        <v>1.83</v>
       </c>
       <c r="AT142">
-        <v>3.51</v>
+        <v>3.35</v>
       </c>
       <c r="AU142">
         <v>7</v>
@@ -30980,25 +30980,25 @@
         <v>1.6</v>
       </c>
       <c r="AN145">
-        <v>2.17</v>
+        <v>1.83</v>
       </c>
       <c r="AO145">
-        <v>1.55</v>
+        <v>2.04</v>
       </c>
       <c r="AP145">
-        <v>2.23</v>
+        <v>1.96</v>
       </c>
       <c r="AQ145">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="AR145">
-        <v>1.82</v>
+        <v>1.69</v>
       </c>
       <c r="AS145">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="AT145">
-        <v>3.5</v>
+        <v>3.34</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31392,25 +31392,25 @@
         <v>2.23</v>
       </c>
       <c r="AN147">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AO147">
-        <v>1.17</v>
+        <v>1.38</v>
       </c>
       <c r="AP147">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AQ147">
-        <v>1.31</v>
+        <v>1.38</v>
       </c>
       <c r="AR147">
-        <v>1.96</v>
+        <v>1.79</v>
       </c>
       <c r="AS147">
-        <v>1.28</v>
+        <v>1.55</v>
       </c>
       <c r="AT147">
-        <v>3.24</v>
+        <v>3.34</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31804,22 +31804,22 @@
         <v>1.62</v>
       </c>
       <c r="AN149">
-        <v>2.25</v>
+        <v>1.88</v>
       </c>
       <c r="AO149">
-        <v>1.45</v>
+        <v>1.88</v>
       </c>
       <c r="AP149">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AQ149">
+        <v>1.96</v>
+      </c>
+      <c r="AR149">
+        <v>1.81</v>
+      </c>
+      <c r="AS149">
         <v>1.69</v>
-      </c>
-      <c r="AR149">
-        <v>1.94</v>
-      </c>
-      <c r="AS149">
-        <v>1.56</v>
       </c>
       <c r="AT149">
         <v>3.5</v>
@@ -32010,25 +32010,25 @@
         <v>3.04</v>
       </c>
       <c r="AN150">
-        <v>2.5</v>
+        <v>1.96</v>
       </c>
       <c r="AO150">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AP150">
-        <v>2.54</v>
+        <v>2.04</v>
       </c>
       <c r="AQ150">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AR150">
-        <v>1.63</v>
+        <v>1.65</v>
       </c>
       <c r="AS150">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AT150">
-        <v>2.92</v>
+        <v>3.14</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32422,25 +32422,25 @@
         <v>1.27</v>
       </c>
       <c r="AN152">
-        <v>1.58</v>
+        <v>1.44</v>
       </c>
       <c r="AO152">
-        <v>1.58</v>
+        <v>1.92</v>
       </c>
       <c r="AP152">
-        <v>1.46</v>
+        <v>1.38</v>
       </c>
       <c r="AQ152">
+        <v>1.96</v>
+      </c>
+      <c r="AR152">
+        <v>1.53</v>
+      </c>
+      <c r="AS152">
         <v>1.69</v>
       </c>
-      <c r="AR152">
-        <v>1.84</v>
-      </c>
-      <c r="AS152">
-        <v>1.57</v>
-      </c>
       <c r="AT152">
-        <v>3.41</v>
+        <v>3.22</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -33040,25 +33040,25 @@
         <v>1.39</v>
       </c>
       <c r="AN155">
-        <v>1.75</v>
+        <v>1.6</v>
       </c>
       <c r="AO155">
-        <v>1.42</v>
+        <v>2</v>
       </c>
       <c r="AP155">
-        <v>1.62</v>
+        <v>1.54</v>
       </c>
       <c r="AQ155">
-        <v>1.54</v>
+        <v>2.04</v>
       </c>
       <c r="AR155">
-        <v>1.95</v>
+        <v>1.79</v>
       </c>
       <c r="AS155">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="AT155">
-        <v>3.62</v>
+        <v>3.44</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33452,25 +33452,25 @@
         <v>2.86</v>
       </c>
       <c r="AN157">
-        <v>2.08</v>
+        <v>1.8</v>
       </c>
       <c r="AO157">
-        <v>1.23</v>
+        <v>1.4</v>
       </c>
       <c r="AP157">
-        <v>1.93</v>
+        <v>1.73</v>
       </c>
       <c r="AQ157">
-        <v>1.36</v>
+        <v>1.46</v>
       </c>
       <c r="AR157">
-        <v>1.87</v>
+        <v>1.78</v>
       </c>
       <c r="AS157">
-        <v>1.29</v>
+        <v>1.49</v>
       </c>
       <c r="AT157">
-        <v>3.16</v>
+        <v>3.27</v>
       </c>
       <c r="AU157">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -28920,25 +28920,25 @@
         <v>2.1</v>
       </c>
       <c r="AN135">
-        <v>1.95</v>
+        <v>2.36</v>
       </c>
       <c r="AO135">
-        <v>1.64</v>
+        <v>1.36</v>
       </c>
       <c r="AP135">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="AQ135">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
       <c r="AR135">
-        <v>1.81</v>
+        <v>1.91</v>
       </c>
       <c r="AS135">
-        <v>1.78</v>
+        <v>1.6</v>
       </c>
       <c r="AT135">
-        <v>3.59</v>
+        <v>3.51</v>
       </c>
       <c r="AU135">
         <v>6</v>
@@ -29126,25 +29126,25 @@
         <v>2.4</v>
       </c>
       <c r="AN136">
-        <v>1.77</v>
+        <v>2.09</v>
       </c>
       <c r="AO136">
-        <v>1.59</v>
+        <v>1.45</v>
       </c>
       <c r="AP136">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="AQ136">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR136">
-        <v>1.66</v>
+        <v>1.75</v>
       </c>
       <c r="AS136">
-        <v>1.47</v>
+        <v>1.28</v>
       </c>
       <c r="AT136">
-        <v>3.13</v>
+        <v>3.03</v>
       </c>
       <c r="AU136">
         <v>9</v>
@@ -29538,25 +29538,25 @@
         <v>2.3</v>
       </c>
       <c r="AN138">
-        <v>2</v>
+        <v>2.45</v>
       </c>
       <c r="AO138">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AP138">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="AQ138">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR138">
         <v>1.67</v>
       </c>
       <c r="AS138">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="AT138">
-        <v>3.21</v>
+        <v>2.96</v>
       </c>
       <c r="AU138">
         <v>5</v>
@@ -30156,25 +30156,25 @@
         <v>1.38</v>
       </c>
       <c r="AN141">
-        <v>1.52</v>
+        <v>1.73</v>
       </c>
       <c r="AO141">
+        <v>1.33</v>
+      </c>
+      <c r="AP141">
+        <v>1.58</v>
+      </c>
+      <c r="AQ141">
+        <v>1.46</v>
+      </c>
+      <c r="AR141">
+        <v>1.66</v>
+      </c>
+      <c r="AS141">
         <v>1.61</v>
       </c>
-      <c r="AP141">
-        <v>1.46</v>
-      </c>
-      <c r="AQ141">
-        <v>1.54</v>
-      </c>
-      <c r="AR141">
-        <v>1.47</v>
-      </c>
-      <c r="AS141">
-        <v>1.78</v>
-      </c>
       <c r="AT141">
-        <v>3.25</v>
+        <v>3.27</v>
       </c>
       <c r="AU141">
         <v>8</v>
@@ -30362,25 +30362,25 @@
         <v>1.28</v>
       </c>
       <c r="AN142">
-        <v>1.39</v>
+        <v>1.64</v>
       </c>
       <c r="AO142">
-        <v>1.91</v>
+        <v>1.55</v>
       </c>
       <c r="AP142">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AQ142">
-        <v>1.73</v>
+        <v>1.5</v>
       </c>
       <c r="AR142">
-        <v>1.52</v>
+        <v>1.81</v>
       </c>
       <c r="AS142">
-        <v>1.83</v>
+        <v>1.7</v>
       </c>
       <c r="AT142">
-        <v>3.35</v>
+        <v>3.51</v>
       </c>
       <c r="AU142">
         <v>7</v>
@@ -30980,25 +30980,25 @@
         <v>1.6</v>
       </c>
       <c r="AN145">
-        <v>1.83</v>
+        <v>2.17</v>
       </c>
       <c r="AO145">
-        <v>2.04</v>
+        <v>1.55</v>
       </c>
       <c r="AP145">
-        <v>1.96</v>
+        <v>2.23</v>
       </c>
       <c r="AQ145">
-        <v>2.04</v>
+        <v>1.54</v>
       </c>
       <c r="AR145">
-        <v>1.69</v>
+        <v>1.82</v>
       </c>
       <c r="AS145">
-        <v>1.65</v>
+        <v>1.68</v>
       </c>
       <c r="AT145">
-        <v>3.34</v>
+        <v>3.5</v>
       </c>
       <c r="AU145">
         <v>4</v>
@@ -31392,25 +31392,25 @@
         <v>2.23</v>
       </c>
       <c r="AN147">
-        <v>1.67</v>
+        <v>1.91</v>
       </c>
       <c r="AO147">
-        <v>1.38</v>
+        <v>1.17</v>
       </c>
       <c r="AP147">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="AQ147">
-        <v>1.38</v>
+        <v>1.31</v>
       </c>
       <c r="AR147">
-        <v>1.79</v>
+        <v>1.96</v>
       </c>
       <c r="AS147">
-        <v>1.55</v>
+        <v>1.28</v>
       </c>
       <c r="AT147">
-        <v>3.34</v>
+        <v>3.24</v>
       </c>
       <c r="AU147">
         <v>7</v>
@@ -31804,22 +31804,22 @@
         <v>1.62</v>
       </c>
       <c r="AN149">
-        <v>1.88</v>
+        <v>2.25</v>
       </c>
       <c r="AO149">
-        <v>1.88</v>
+        <v>1.45</v>
       </c>
       <c r="AP149">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="AQ149">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AR149">
-        <v>1.81</v>
+        <v>1.94</v>
       </c>
       <c r="AS149">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="AT149">
         <v>3.5</v>
@@ -32010,25 +32010,25 @@
         <v>3.04</v>
       </c>
       <c r="AN150">
-        <v>1.96</v>
+        <v>2.5</v>
       </c>
       <c r="AO150">
-        <v>1.46</v>
+        <v>1.33</v>
       </c>
       <c r="AP150">
-        <v>2.04</v>
+        <v>2.54</v>
       </c>
       <c r="AQ150">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR150">
-        <v>1.65</v>
+        <v>1.63</v>
       </c>
       <c r="AS150">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AT150">
-        <v>3.14</v>
+        <v>2.92</v>
       </c>
       <c r="AU150">
         <v>4</v>
@@ -32422,25 +32422,25 @@
         <v>1.27</v>
       </c>
       <c r="AN152">
-        <v>1.44</v>
+        <v>1.58</v>
       </c>
       <c r="AO152">
-        <v>1.92</v>
+        <v>1.58</v>
       </c>
       <c r="AP152">
-        <v>1.38</v>
+        <v>1.46</v>
       </c>
       <c r="AQ152">
-        <v>1.96</v>
+        <v>1.69</v>
       </c>
       <c r="AR152">
-        <v>1.53</v>
+        <v>1.84</v>
       </c>
       <c r="AS152">
-        <v>1.69</v>
+        <v>1.57</v>
       </c>
       <c r="AT152">
-        <v>3.22</v>
+        <v>3.41</v>
       </c>
       <c r="AU152">
         <v>5</v>
@@ -33040,25 +33040,25 @@
         <v>1.39</v>
       </c>
       <c r="AN155">
-        <v>1.6</v>
+        <v>1.75</v>
       </c>
       <c r="AO155">
-        <v>2</v>
+        <v>1.42</v>
       </c>
       <c r="AP155">
+        <v>1.62</v>
+      </c>
+      <c r="AQ155">
         <v>1.54</v>
       </c>
-      <c r="AQ155">
-        <v>2.04</v>
-      </c>
       <c r="AR155">
-        <v>1.79</v>
+        <v>1.95</v>
       </c>
       <c r="AS155">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="AT155">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="AU155">
         <v>6</v>
@@ -33452,25 +33452,25 @@
         <v>2.86</v>
       </c>
       <c r="AN157">
-        <v>1.8</v>
+        <v>2.08</v>
       </c>
       <c r="AO157">
-        <v>1.4</v>
+        <v>1.23</v>
       </c>
       <c r="AP157">
-        <v>1.73</v>
+        <v>1.93</v>
       </c>
       <c r="AQ157">
-        <v>1.46</v>
+        <v>1.36</v>
       </c>
       <c r="AR157">
-        <v>1.78</v>
+        <v>1.87</v>
       </c>
       <c r="AS157">
-        <v>1.49</v>
+        <v>1.29</v>
       </c>
       <c r="AT157">
-        <v>3.27</v>
+        <v>3.16</v>
       </c>
       <c r="AU157">
         <v>5</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Finland Veikkausliiga_2024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1004" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1040" uniqueCount="279">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -601,6 +601,18 @@
     <t>['45+2']</t>
   </si>
   <si>
+    <t>['28', '31', '51']</t>
+  </si>
+  <si>
+    <t>['17']</t>
+  </si>
+  <si>
+    <t>['14', '65', '72', '88']</t>
+  </si>
+  <si>
+    <t>['14', '48']</t>
+  </si>
+  <si>
     <t>['4']</t>
   </si>
   <si>
@@ -830,6 +842,15 @@
   </si>
   <si>
     <t>['18', '46']</t>
+  </si>
+  <si>
+    <t>['55', '90']</t>
+  </si>
+  <si>
+    <t>['28', '70']</t>
+  </si>
+  <si>
+    <t>['10', '62', '90']</t>
   </si>
 </sst>
 </file>
@@ -1191,7 +1212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP157"/>
+  <dimension ref="A1:BP163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1450,7 +1471,7 @@
         <v>82</v>
       </c>
       <c r="P2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q2">
         <v>3.9</v>
@@ -1528,10 +1549,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="AQ2">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1734,10 +1755,10 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AQ3">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1862,7 +1883,7 @@
         <v>84</v>
       </c>
       <c r="P4" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q4">
         <v>2.36</v>
@@ -1940,10 +1961,10 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AQ4">
-        <v>0.54</v>
+        <v>1.04</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2068,7 +2089,7 @@
         <v>85</v>
       </c>
       <c r="P5" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q5">
         <v>2.25</v>
@@ -2146,10 +2167,10 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AQ5">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2274,7 +2295,7 @@
         <v>86</v>
       </c>
       <c r="P6" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q6">
         <v>2.9</v>
@@ -2352,10 +2373,10 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AQ6">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2480,7 +2501,7 @@
         <v>87</v>
       </c>
       <c r="P7" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q7">
         <v>3.92</v>
@@ -2558,10 +2579,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>2.54</v>
+        <v>2.07</v>
       </c>
       <c r="AQ7">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2764,19 +2785,19 @@
         <v>1</v>
       </c>
       <c r="AP8">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AQ8">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AR8">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AS8">
         <v>0.73</v>
       </c>
       <c r="AT8">
-        <v>0.73</v>
+        <v>2.13</v>
       </c>
       <c r="AU8">
         <v>9</v>
@@ -2892,7 +2913,7 @@
         <v>89</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q9">
         <v>2.25</v>
@@ -2970,10 +2991,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AQ9">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="AR9">
         <v>1.39</v>
@@ -3098,7 +3119,7 @@
         <v>90</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q10">
         <v>3</v>
@@ -3170,25 +3191,25 @@
         <v>1.53</v>
       </c>
       <c r="AN10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AO10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP10">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ10">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AR10">
-        <v>0</v>
+        <v>0.62</v>
       </c>
       <c r="AS10">
-        <v>0</v>
+        <v>1.95</v>
       </c>
       <c r="AT10">
-        <v>0</v>
+        <v>2.57</v>
       </c>
       <c r="AU10">
         <v>6</v>
@@ -3304,7 +3325,7 @@
         <v>91</v>
       </c>
       <c r="P11" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q11">
         <v>2.25</v>
@@ -3382,19 +3403,19 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="AQ11">
-        <v>0.54</v>
+        <v>1.04</v>
       </c>
       <c r="AR11">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AS11">
         <v>1.24</v>
       </c>
       <c r="AT11">
-        <v>1.24</v>
+        <v>2.71</v>
       </c>
       <c r="AU11">
         <v>6</v>
@@ -3510,7 +3531,7 @@
         <v>92</v>
       </c>
       <c r="P12" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q12">
         <v>2.38</v>
@@ -3585,22 +3606,22 @@
         <v>1</v>
       </c>
       <c r="AO12">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP12">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AQ12">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AR12">
         <v>2.37</v>
       </c>
       <c r="AS12">
-        <v>0</v>
+        <v>0.78</v>
       </c>
       <c r="AT12">
-        <v>2.37</v>
+        <v>3.15</v>
       </c>
       <c r="AU12">
         <v>5</v>
@@ -3716,7 +3737,7 @@
         <v>93</v>
       </c>
       <c r="P13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q13">
         <v>4.9</v>
@@ -3791,22 +3812,22 @@
         <v>3</v>
       </c>
       <c r="AO13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AP13">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AQ13">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="AR13">
         <v>1.18</v>
       </c>
       <c r="AS13">
-        <v>0</v>
+        <v>1.32</v>
       </c>
       <c r="AT13">
-        <v>1.18</v>
+        <v>2.5</v>
       </c>
       <c r="AU13">
         <v>5</v>
@@ -3994,25 +4015,25 @@
         <v>1.55</v>
       </c>
       <c r="AN14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO14">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AP14">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AQ14">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AR14">
-        <v>1.95</v>
+        <v>1.68</v>
       </c>
       <c r="AS14">
-        <v>0</v>
+        <v>1.88</v>
       </c>
       <c r="AT14">
-        <v>1.95</v>
+        <v>3.56</v>
       </c>
       <c r="AU14">
         <v>5</v>
@@ -4200,25 +4221,25 @@
         <v>1.48</v>
       </c>
       <c r="AN15">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AO15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP15">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="AQ15">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="AR15">
-        <v>1.37</v>
+        <v>1.42</v>
       </c>
       <c r="AS15">
-        <v>1.93</v>
+        <v>1.62</v>
       </c>
       <c r="AT15">
-        <v>3.3</v>
+        <v>3.04</v>
       </c>
       <c r="AU15">
         <v>4</v>
@@ -4334,7 +4355,7 @@
         <v>96</v>
       </c>
       <c r="P16" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q16">
         <v>1.78</v>
@@ -4406,25 +4427,25 @@
         <v>3.2</v>
       </c>
       <c r="AN16">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="AO16">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP16">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AQ16">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="AR16">
-        <v>2.63</v>
+        <v>2.02</v>
       </c>
       <c r="AS16">
-        <v>0</v>
+        <v>1.1</v>
       </c>
       <c r="AT16">
-        <v>2.63</v>
+        <v>3.12</v>
       </c>
       <c r="AU16">
         <v>7</v>
@@ -4612,25 +4633,25 @@
         <v>1.4</v>
       </c>
       <c r="AN17">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AO17">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="AP17">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="AQ17">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AR17">
-        <v>0</v>
+        <v>0.95</v>
       </c>
       <c r="AS17">
-        <v>0</v>
+        <v>1.26</v>
       </c>
       <c r="AT17">
-        <v>0</v>
+        <v>2.21</v>
       </c>
       <c r="AU17">
         <v>10</v>
@@ -4746,7 +4767,7 @@
         <v>98</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q18">
         <v>2.75</v>
@@ -4818,25 +4839,25 @@
         <v>1.8</v>
       </c>
       <c r="AN18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO18">
         <v>3</v>
       </c>
       <c r="AP18">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ18">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AR18">
-        <v>1.66</v>
+        <v>1.14</v>
       </c>
       <c r="AS18">
-        <v>1.02</v>
+        <v>0.9</v>
       </c>
       <c r="AT18">
-        <v>2.68</v>
+        <v>2.04</v>
       </c>
       <c r="AU18">
         <v>6</v>
@@ -4952,7 +4973,7 @@
         <v>99</v>
       </c>
       <c r="P19" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q19">
         <v>4</v>
@@ -5030,19 +5051,19 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ19">
-        <v>0.54</v>
+        <v>1.04</v>
       </c>
       <c r="AR19">
-        <v>0</v>
+        <v>1.44</v>
       </c>
       <c r="AS19">
         <v>1.46</v>
       </c>
       <c r="AT19">
-        <v>1.46</v>
+        <v>2.9</v>
       </c>
       <c r="AU19">
         <v>4</v>
@@ -5158,7 +5179,7 @@
         <v>100</v>
       </c>
       <c r="P20" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q20">
         <v>3.6</v>
@@ -5230,25 +5251,25 @@
         <v>1.32</v>
       </c>
       <c r="AN20">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AO20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AP20">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AQ20">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR20">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="AS20">
-        <v>1.4</v>
+        <v>2.06</v>
       </c>
       <c r="AT20">
-        <v>3.11</v>
+        <v>3.67</v>
       </c>
       <c r="AU20">
         <v>6</v>
@@ -5364,7 +5385,7 @@
         <v>101</v>
       </c>
       <c r="P21" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q21">
         <v>2.1</v>
@@ -5436,25 +5457,25 @@
         <v>2.5</v>
       </c>
       <c r="AN21">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO21">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP21">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="AQ21">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="AR21">
-        <v>1.15</v>
+        <v>1.26</v>
       </c>
       <c r="AS21">
-        <v>1.44</v>
+        <v>1.24</v>
       </c>
       <c r="AT21">
-        <v>2.59</v>
+        <v>2.5</v>
       </c>
       <c r="AU21">
         <v>6</v>
@@ -5570,7 +5591,7 @@
         <v>102</v>
       </c>
       <c r="P22" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q22">
         <v>4.33</v>
@@ -5642,25 +5663,25 @@
         <v>1.3</v>
       </c>
       <c r="AN22">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="AO22">
-        <v>0.5</v>
+        <v>1.75</v>
       </c>
       <c r="AP22">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR22">
-        <v>1.26</v>
+        <v>1.33</v>
       </c>
       <c r="AS22">
-        <v>1.41</v>
+        <v>1.9</v>
       </c>
       <c r="AT22">
-        <v>2.67</v>
+        <v>3.23</v>
       </c>
       <c r="AU22">
         <v>5</v>
@@ -5776,7 +5797,7 @@
         <v>83</v>
       </c>
       <c r="P23" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q23">
         <v>5.07</v>
@@ -5848,25 +5869,25 @@
         <v>1.25</v>
       </c>
       <c r="AN23">
-        <v>1</v>
+        <v>0.67</v>
       </c>
       <c r="AO23">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AP23">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="AQ23">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="AR23">
-        <v>2.91</v>
+        <v>1.6</v>
       </c>
       <c r="AS23">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AT23">
-        <v>4.71</v>
+        <v>3.24</v>
       </c>
       <c r="AU23">
         <v>0</v>
@@ -5982,7 +6003,7 @@
         <v>103</v>
       </c>
       <c r="P24" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q24">
         <v>3.6</v>
@@ -6054,25 +6075,25 @@
         <v>1.32</v>
       </c>
       <c r="AN24">
-        <v>0</v>
+        <v>0.67</v>
       </c>
       <c r="AO24">
-        <v>3</v>
+        <v>2.33</v>
       </c>
       <c r="AP24">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="AQ24">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AR24">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AS24">
-        <v>0.62</v>
+        <v>1.43</v>
       </c>
       <c r="AT24">
-        <v>0.62</v>
+        <v>3.33</v>
       </c>
       <c r="AU24">
         <v>5</v>
@@ -6260,25 +6281,25 @@
         <v>1.45</v>
       </c>
       <c r="AN25">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="AQ25">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AR25">
-        <v>0.78</v>
+        <v>0.98</v>
       </c>
       <c r="AS25">
-        <v>1.41</v>
+        <v>1.61</v>
       </c>
       <c r="AT25">
-        <v>2.19</v>
+        <v>2.59</v>
       </c>
       <c r="AU25">
         <v>5</v>
@@ -6394,7 +6415,7 @@
         <v>83</v>
       </c>
       <c r="P26" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q26">
         <v>4</v>
@@ -6466,25 +6487,25 @@
         <v>1.3</v>
       </c>
       <c r="AN26">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AO26">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="AP26">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AQ26">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AR26">
         <v>1.1</v>
       </c>
       <c r="AS26">
-        <v>2.16</v>
+        <v>1.98</v>
       </c>
       <c r="AT26">
-        <v>3.26</v>
+        <v>3.08</v>
       </c>
       <c r="AU26">
         <v>5</v>
@@ -6672,25 +6693,25 @@
         <v>2.15</v>
       </c>
       <c r="AN27">
-        <v>2</v>
+        <v>2.5</v>
       </c>
       <c r="AO27">
         <v>0.5</v>
       </c>
       <c r="AP27">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
-        <v>1.84</v>
+        <v>1.64</v>
       </c>
       <c r="AS27">
-        <v>0.95</v>
+        <v>1.42</v>
       </c>
       <c r="AT27">
-        <v>2.79</v>
+        <v>3.06</v>
       </c>
       <c r="AU27">
         <v>10</v>
@@ -6806,7 +6827,7 @@
         <v>105</v>
       </c>
       <c r="P28" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q28">
         <v>2.38</v>
@@ -6878,25 +6899,25 @@
         <v>2.06</v>
       </c>
       <c r="AN28">
+        <v>1</v>
+      </c>
+      <c r="AO28">
         <v>0.5</v>
       </c>
-      <c r="AO28">
-        <v>0.67</v>
-      </c>
       <c r="AP28">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AQ28">
-        <v>0.54</v>
+        <v>1.04</v>
       </c>
       <c r="AR28">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AS28">
-        <v>1.9</v>
+        <v>1.75</v>
       </c>
       <c r="AT28">
-        <v>3.78</v>
+        <v>3.52</v>
       </c>
       <c r="AU28">
         <v>9</v>
@@ -7084,25 +7105,25 @@
         <v>5</v>
       </c>
       <c r="AN29">
-        <v>3</v>
+        <v>1.6</v>
       </c>
       <c r="AO29">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AP29">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AQ29">
-        <v>0.62</v>
+        <v>0.7</v>
       </c>
       <c r="AR29">
-        <v>2.39</v>
+        <v>1.83</v>
       </c>
       <c r="AS29">
-        <v>1.26</v>
+        <v>1.15</v>
       </c>
       <c r="AT29">
-        <v>3.65</v>
+        <v>2.98</v>
       </c>
       <c r="AU29">
         <v>7</v>
@@ -7218,7 +7239,7 @@
         <v>106</v>
       </c>
       <c r="P30" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>3.2</v>
@@ -7290,25 +7311,25 @@
         <v>1.45</v>
       </c>
       <c r="AN30">
-        <v>2.33</v>
+        <v>2.2</v>
       </c>
       <c r="AO30">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AP30">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AQ30">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="AR30">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="AS30">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="AT30">
-        <v>3.3</v>
+        <v>3.24</v>
       </c>
       <c r="AU30">
         <v>3</v>
@@ -7424,7 +7445,7 @@
         <v>83</v>
       </c>
       <c r="P31" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q31">
         <v>3.1</v>
@@ -7499,22 +7520,22 @@
         <v>1.5</v>
       </c>
       <c r="AO31">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="AP31">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="AQ31">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AR31">
-        <v>1.24</v>
+        <v>1.16</v>
       </c>
       <c r="AS31">
-        <v>1.46</v>
+        <v>1.32</v>
       </c>
       <c r="AT31">
-        <v>2.7</v>
+        <v>2.48</v>
       </c>
       <c r="AU31">
         <v>8</v>
@@ -7630,7 +7651,7 @@
         <v>107</v>
       </c>
       <c r="P32" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q32">
         <v>4.2</v>
@@ -7702,25 +7723,25 @@
         <v>1.28</v>
       </c>
       <c r="AN32">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AO32">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AP32">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AQ32">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="AR32">
-        <v>1.23</v>
+        <v>1.2</v>
       </c>
       <c r="AS32">
-        <v>1.47</v>
+        <v>1.4</v>
       </c>
       <c r="AT32">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="AU32">
         <v>5</v>
@@ -7836,7 +7857,7 @@
         <v>108</v>
       </c>
       <c r="P33" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q33">
         <v>2.8</v>
@@ -7908,25 +7929,25 @@
         <v>1.7</v>
       </c>
       <c r="AN33">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="AO33">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="AP33">
-        <v>2.54</v>
+        <v>2.07</v>
       </c>
       <c r="AQ33">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AR33">
-        <v>1.32</v>
+        <v>1.53</v>
       </c>
       <c r="AS33">
-        <v>1.44</v>
+        <v>1.83</v>
       </c>
       <c r="AT33">
-        <v>2.76</v>
+        <v>3.36</v>
       </c>
       <c r="AU33">
         <v>0</v>
@@ -8114,25 +8135,25 @@
         <v>1.47</v>
       </c>
       <c r="AN34">
-        <v>1.33</v>
+        <v>1.6</v>
       </c>
       <c r="AO34">
         <v>2</v>
       </c>
       <c r="AP34">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AQ34">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AR34">
-        <v>1.27</v>
+        <v>1.43</v>
       </c>
       <c r="AS34">
-        <v>1.71</v>
+        <v>1.59</v>
       </c>
       <c r="AT34">
-        <v>2.98</v>
+        <v>3.02</v>
       </c>
       <c r="AU34">
         <v>3</v>
@@ -8248,7 +8269,7 @@
         <v>95</v>
       </c>
       <c r="P35" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q35">
         <v>2.63</v>
@@ -8320,25 +8341,25 @@
         <v>1.75</v>
       </c>
       <c r="AN35">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AO35">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="AP35">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="AQ35">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AR35">
-        <v>1.29</v>
+        <v>1.57</v>
       </c>
       <c r="AS35">
-        <v>1.08</v>
+        <v>1.34</v>
       </c>
       <c r="AT35">
-        <v>2.37</v>
+        <v>2.91</v>
       </c>
       <c r="AU35">
         <v>3</v>
@@ -8526,25 +8547,25 @@
         <v>1.33</v>
       </c>
       <c r="AN36">
+        <v>1</v>
+      </c>
+      <c r="AO36">
+        <v>1.5</v>
+      </c>
+      <c r="AP36">
+        <v>1.52</v>
+      </c>
+      <c r="AQ36">
         <v>1.67</v>
       </c>
-      <c r="AO36">
-        <v>0.67</v>
-      </c>
-      <c r="AP36">
-        <v>1.92</v>
-      </c>
-      <c r="AQ36">
-        <v>1.5</v>
-      </c>
       <c r="AR36">
-        <v>1.37</v>
+        <v>1.47</v>
       </c>
       <c r="AS36">
-        <v>1.46</v>
+        <v>1.93</v>
       </c>
       <c r="AT36">
-        <v>2.83</v>
+        <v>3.4</v>
       </c>
       <c r="AU36">
         <v>8</v>
@@ -8660,7 +8681,7 @@
         <v>83</v>
       </c>
       <c r="P37" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q37">
         <v>5</v>
@@ -8732,25 +8753,25 @@
         <v>1.18</v>
       </c>
       <c r="AN37">
-        <v>1</v>
+        <v>0.4</v>
       </c>
       <c r="AO37">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP37">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ37">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AR37">
-        <v>0.83</v>
+        <v>1.06</v>
       </c>
       <c r="AS37">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="AT37">
-        <v>2.49</v>
+        <v>2.98</v>
       </c>
       <c r="AU37">
         <v>3</v>
@@ -8938,25 +8959,25 @@
         <v>1.6</v>
       </c>
       <c r="AN38">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AO38">
-        <v>0</v>
+        <v>1.4</v>
       </c>
       <c r="AP38">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="AQ38">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="AR38">
-        <v>1.9</v>
+        <v>1.31</v>
       </c>
       <c r="AS38">
-        <v>1.11</v>
+        <v>1.19</v>
       </c>
       <c r="AT38">
-        <v>3.01</v>
+        <v>2.5</v>
       </c>
       <c r="AU38">
         <v>8</v>
@@ -9072,7 +9093,7 @@
         <v>111</v>
       </c>
       <c r="P39" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q39">
         <v>2.39</v>
@@ -9144,25 +9165,25 @@
         <v>1.94</v>
       </c>
       <c r="AN39">
-        <v>2.33</v>
+        <v>1.71</v>
       </c>
       <c r="AO39">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AP39">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AQ39">
-        <v>1.31</v>
+        <v>1.44</v>
       </c>
       <c r="AR39">
-        <v>2.4</v>
+        <v>1.76</v>
       </c>
       <c r="AS39">
-        <v>1.41</v>
+        <v>1.75</v>
       </c>
       <c r="AT39">
-        <v>3.81</v>
+        <v>3.51</v>
       </c>
       <c r="AU39">
         <v>7</v>
@@ -9278,7 +9299,7 @@
         <v>112</v>
       </c>
       <c r="P40" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q40">
         <v>2.46</v>
@@ -9353,22 +9374,22 @@
         <v>0.5</v>
       </c>
       <c r="AO40">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AP40">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="AQ40">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="AR40">
-        <v>1.32</v>
+        <v>1.54</v>
       </c>
       <c r="AS40">
-        <v>0.92</v>
+        <v>1.11</v>
       </c>
       <c r="AT40">
-        <v>2.24</v>
+        <v>2.65</v>
       </c>
       <c r="AU40">
         <v>5</v>
@@ -9484,7 +9505,7 @@
         <v>113</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q41">
         <v>2.85</v>
@@ -9556,25 +9577,25 @@
         <v>1.58</v>
       </c>
       <c r="AN41">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AO41">
-        <v>0</v>
+        <v>0.83</v>
       </c>
       <c r="AP41">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="AR41">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="AS41">
-        <v>1.61</v>
+        <v>1.57</v>
       </c>
       <c r="AT41">
-        <v>3.14</v>
+        <v>3.15</v>
       </c>
       <c r="AU41">
         <v>5</v>
@@ -9762,25 +9783,25 @@
         <v>1.89</v>
       </c>
       <c r="AN42">
-        <v>1.33</v>
+        <v>1.67</v>
       </c>
       <c r="AO42">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AP42">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AQ42">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AR42">
-        <v>2.09</v>
+        <v>1.87</v>
       </c>
       <c r="AS42">
-        <v>1.68</v>
+        <v>1.37</v>
       </c>
       <c r="AT42">
-        <v>3.77</v>
+        <v>3.24</v>
       </c>
       <c r="AU42">
         <v>2</v>
@@ -9968,25 +9989,25 @@
         <v>1.22</v>
       </c>
       <c r="AN43">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AO43">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="AP43">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
       <c r="AQ43">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="AR43">
-        <v>1.52</v>
+        <v>1.24</v>
       </c>
       <c r="AS43">
-        <v>1.58</v>
+        <v>1.36</v>
       </c>
       <c r="AT43">
-        <v>3.1</v>
+        <v>2.6</v>
       </c>
       <c r="AU43">
         <v>4</v>
@@ -10174,25 +10195,25 @@
         <v>1.45</v>
       </c>
       <c r="AN44">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AO44">
-        <v>0.33</v>
+        <v>0.83</v>
       </c>
       <c r="AP44">
-        <v>0.77</v>
+        <v>0.7</v>
       </c>
       <c r="AQ44">
-        <v>0.5</v>
+        <v>0.89</v>
       </c>
       <c r="AR44">
-        <v>0.85</v>
+        <v>1.03</v>
       </c>
       <c r="AS44">
-        <v>0.92</v>
+        <v>1.34</v>
       </c>
       <c r="AT44">
-        <v>1.77</v>
+        <v>2.37</v>
       </c>
       <c r="AU44">
         <v>5</v>
@@ -10308,7 +10329,7 @@
         <v>116</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10380,25 +10401,25 @@
         <v>1.56</v>
       </c>
       <c r="AN45">
-        <v>2.33</v>
+        <v>2.29</v>
       </c>
       <c r="AO45">
-        <v>1.4</v>
+        <v>1.86</v>
       </c>
       <c r="AP45">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ45">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="AR45">
-        <v>2.08</v>
+        <v>1.62</v>
       </c>
       <c r="AS45">
-        <v>1.55</v>
+        <v>1.37</v>
       </c>
       <c r="AT45">
-        <v>3.63</v>
+        <v>2.99</v>
       </c>
       <c r="AU45">
         <v>3</v>
@@ -10586,25 +10607,25 @@
         <v>3</v>
       </c>
       <c r="AN46">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AO46">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AP46">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AQ46">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AR46">
-        <v>2.34</v>
+        <v>1.81</v>
       </c>
       <c r="AS46">
-        <v>0.95</v>
+        <v>1.31</v>
       </c>
       <c r="AT46">
-        <v>3.29</v>
+        <v>3.12</v>
       </c>
       <c r="AU46">
         <v>4</v>
@@ -10792,25 +10813,25 @@
         <v>1.87</v>
       </c>
       <c r="AN47">
-        <v>1.75</v>
+        <v>1.86</v>
       </c>
       <c r="AO47">
-        <v>0</v>
+        <v>0.71</v>
       </c>
       <c r="AP47">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="AR47">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AS47">
-        <v>1.4</v>
+        <v>1.49</v>
       </c>
       <c r="AT47">
-        <v>3.3</v>
+        <v>3.29</v>
       </c>
       <c r="AU47">
         <v>9</v>
@@ -10926,7 +10947,7 @@
         <v>118</v>
       </c>
       <c r="P48" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q48">
         <v>2.48</v>
@@ -10998,25 +11019,25 @@
         <v>1.84</v>
       </c>
       <c r="AN48">
-        <v>1.75</v>
+        <v>1.57</v>
       </c>
       <c r="AO48">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="AP48">
-        <v>1.58</v>
+        <v>1.41</v>
       </c>
       <c r="AQ48">
-        <v>0.54</v>
+        <v>1.04</v>
       </c>
       <c r="AR48">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="AS48">
-        <v>1.65</v>
+        <v>1.56</v>
       </c>
       <c r="AT48">
-        <v>2.86</v>
+        <v>2.83</v>
       </c>
       <c r="AU48">
         <v>11</v>
@@ -11204,25 +11225,25 @@
         <v>2.05</v>
       </c>
       <c r="AN49">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AO49">
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.93</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49">
-        <v>1.69</v>
+        <v>2</v>
       </c>
       <c r="AR49">
-        <v>2.14</v>
+        <v>1.76</v>
       </c>
       <c r="AS49">
-        <v>1.66</v>
+        <v>1.9</v>
       </c>
       <c r="AT49">
-        <v>3.8</v>
+        <v>3.66</v>
       </c>
       <c r="AU49">
         <v>3</v>
@@ -11338,7 +11359,7 @@
         <v>120</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>1.91</v>
@@ -11410,25 +11431,25 @@
         <v>3</v>
       </c>
       <c r="AN50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AO50">
-        <v>0.25</v>
+        <v>0.43</v>
       </c>
       <c r="AP50">
+        <v>2.07</v>
+      </c>
+      <c r="AQ50">
+        <v>0.7</v>
+      </c>
+      <c r="AR50">
+        <v>1.47</v>
+      </c>
+      <c r="AS50">
+        <v>1.07</v>
+      </c>
+      <c r="AT50">
         <v>2.54</v>
-      </c>
-      <c r="AQ50">
-        <v>0.62</v>
-      </c>
-      <c r="AR50">
-        <v>0.93</v>
-      </c>
-      <c r="AS50">
-        <v>1.12</v>
-      </c>
-      <c r="AT50">
-        <v>2.05</v>
       </c>
       <c r="AU50">
         <v>9</v>
@@ -11544,7 +11565,7 @@
         <v>121</v>
       </c>
       <c r="P51" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q51">
         <v>2.75</v>
@@ -11616,25 +11637,25 @@
         <v>1.72</v>
       </c>
       <c r="AN51">
-        <v>1.75</v>
+        <v>1.14</v>
       </c>
       <c r="AO51">
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>1.23</v>
+        <v>0.96</v>
       </c>
       <c r="AQ51">
-        <v>1.08</v>
+        <v>1.37</v>
       </c>
       <c r="AR51">
-        <v>1.21</v>
+        <v>1.12</v>
       </c>
       <c r="AS51">
-        <v>0.98</v>
+        <v>1.28</v>
       </c>
       <c r="AT51">
-        <v>2.19</v>
+        <v>2.4</v>
       </c>
       <c r="AU51">
         <v>3</v>
@@ -11750,7 +11771,7 @@
         <v>83</v>
       </c>
       <c r="P52" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q52">
         <v>4</v>
@@ -11822,25 +11843,25 @@
         <v>1.29</v>
       </c>
       <c r="AN52">
-        <v>1.33</v>
+        <v>0.86</v>
       </c>
       <c r="AO52">
-        <v>1.33</v>
+        <v>1.88</v>
       </c>
       <c r="AP52">
-        <v>1.33</v>
+        <v>0.89</v>
       </c>
       <c r="AQ52">
-        <v>1.46</v>
+        <v>1.48</v>
       </c>
       <c r="AR52">
-        <v>1.75</v>
+        <v>1.3</v>
       </c>
       <c r="AS52">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="AT52">
-        <v>3.4</v>
+        <v>2.88</v>
       </c>
       <c r="AU52">
         <v>3</v>
@@ -12028,25 +12049,25 @@
         <v>1.9</v>
       </c>
       <c r="AN53">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AO53">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="AP53">
-        <v>1.46</v>
+        <v>1.44</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>1.52</v>
       </c>
       <c r="AR53">
-        <v>1.84</v>
+        <v>1.56</v>
       </c>
       <c r="AS53">
-        <v>1.35</v>
+        <v>1.45</v>
       </c>
       <c r="AT53">
-        <v>3.19</v>
+        <v>3.01</v>
       </c>
       <c r="AU53">
         <v>7</v>
@@ -12162,7 +12183,7 @@
         <v>123</v>
       </c>
       <c r="P54" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>2.63</v>
@@ -12234,25 +12255,25 @@
         <v>1.73</v>
       </c>
       <c r="AN54">
-        <v>1.25</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AO54">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AP54">
-        <v>1.92</v>
+        <v>1.52</v>
       </c>
       <c r="AQ54">
-        <v>1.36</v>
+        <v>1.41</v>
       </c>
       <c r="AR54">
-        <v>1.56</v>
+        <v>1.51</v>
       </c>
       <c r="AS54">
-        <v>1.34</v>
+        <v>1.4</v>
       </c>
       <c r="AT54">
-        <v>2.9</v>
+        <v>2.91</v>
       </c>
       <c r="AU54">
         <v>7</v>
@@ -12368,7 +12389,7 @@
         <v>94</v>
       </c>
       <c r="P55" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>2.7</v>
@@ -12440,25 +12461,25 @@
         <v>1.7</v>
       </c>
       <c r="AN55">
-        <v>2</v>
+        <v>1.89</v>
       </c>
       <c r="AO55">
-        <v>1.67</v>
+        <v>2.11</v>
       </c>
       <c r="AP55">
-        <v>2.23</v>
+        <v>2</v>
       </c>
       <c r="AQ55">
-        <v>1.54</v>
+        <v>2.07</v>
       </c>
       <c r="AR55">
-        <v>2.04</v>
+        <v>1.82</v>
       </c>
       <c r="AS55">
-        <v>1.64</v>
+        <v>1.55</v>
       </c>
       <c r="AT55">
-        <v>3.68</v>
+        <v>3.37</v>
       </c>
       <c r="AU55">
         <v>3</v>
@@ -12574,7 +12595,7 @@
         <v>83</v>
       </c>
       <c r="P56" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>2.05</v>
@@ -12646,25 +12667,25 @@
         <v>2.38</v>
       </c>
       <c r="AN56">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AO56">
-        <v>0.33</v>
+        <v>1.13</v>
       </c>
       <c r="AP56">
-        <v>1.62</v>
+        <v>1.48</v>
       </c>
       <c r="AQ56">
-        <v>0.54</v>
+        <v>0.96</v>
       </c>
       <c r="AR56">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.12</v>
       </c>
       <c r="AT56">
-        <v>2.54</v>
+        <v>2.69</v>
       </c>
       <c r="AU56">
         <v>4</v>
@@ -12852,25 +12873,25 @@
         <v>1.19</v>
       </c>
       <c r="AN57">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AO57">
-        <v>1.25</v>
+        <v>1.6</v>
       </c>
       <c r="AP57">
-        <v>1.62</v>
+        <v>1.04</v>
       </c>
       <c r="AQ57">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR57">
-        <v>1.45</v>
+        <v>1.61</v>
       </c>
       <c r="AS57">
-        <v>1.28</v>
+        <v>1.71</v>
       </c>
       <c r="AT57">
-        <v>2.73</v>
+        <v>3.32</v>
       </c>
       <c r="AU57">
         <v>3</v>
@@ -12986,7 +13007,7 @@
         <v>124</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q58">
         <v>2.65</v>
@@ -13061,22 +13082,22 @@
         <v>1</v>
       </c>
       <c r="AO58">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="AP58">
-        <v>1.71</v>
+        <v>1.37</v>
       </c>
